--- a/Experiment01_Resumo/Resumo_Exp01.xlsx
+++ b/Experiment01_Resumo/Resumo_Exp01.xlsx
@@ -2182,159 +2182,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2346,9 +2196,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2365,6 +2212,159 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2690,12 +2690,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="160474008"/>
-        <c:axId val="160479104"/>
+        <c:axId val="161177704"/>
+        <c:axId val="161183192"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="160474008"/>
+        <c:axId val="161177704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2788,7 +2788,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160479104"/>
+        <c:crossAx val="161183192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2796,7 +2796,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="160479104"/>
+        <c:axId val="161183192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2847,7 +2847,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160474008"/>
+        <c:crossAx val="161177704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3070,7 +3070,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3158,12 +3157,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="160474792"/>
-        <c:axId val="160475968"/>
+        <c:axId val="161178880"/>
+        <c:axId val="161182800"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="160474792"/>
+        <c:axId val="161178880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3192,7 +3191,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3253,7 +3251,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160475968"/>
+        <c:crossAx val="161182800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3261,7 +3259,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="160475968"/>
+        <c:axId val="161182800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3290,7 +3288,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3345,7 +3342,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160474792"/>
+        <c:crossAx val="161178880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3359,7 +3356,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3544,7 +3540,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3632,12 +3627,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="160476360"/>
-        <c:axId val="160476752"/>
+        <c:axId val="161183584"/>
+        <c:axId val="161183976"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="160476360"/>
+        <c:axId val="161183584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3666,7 +3661,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3727,7 +3721,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160476752"/>
+        <c:crossAx val="161183976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3735,7 +3729,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="160476752"/>
+        <c:axId val="161183976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3764,7 +3758,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3819,7 +3812,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160476360"/>
+        <c:crossAx val="161183584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3833,7 +3826,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4166,10 +4158,10 @@
                   <c:v>1.67E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.77</c:v>
+                  <c:v>0.77200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.00%">
-                  <c:v>3.269098767001398E-2</c:v>
+                  <c:v>3.2692785596551283E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4250,10 +4242,10 @@
                   <c:v>2.3099999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.41</c:v>
+                  <c:v>0.40899999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.00%">
-                  <c:v>4.3735857769568225E-2</c:v>
+                  <c:v>4.3730155056699832E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4608,12 +4600,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="160472048"/>
-        <c:axId val="160479496"/>
+        <c:axId val="161180056"/>
+        <c:axId val="161180448"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="160472048"/>
+        <c:axId val="161180056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4653,7 +4645,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160479496"/>
+        <c:crossAx val="161180448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4661,7 +4653,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="160479496"/>
+        <c:axId val="161180448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4709,7 +4701,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160472048"/>
+        <c:crossAx val="161180056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4948,7 +4940,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -5019,8 +5010,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="160472832"/>
-        <c:axId val="160473616"/>
+        <c:axId val="207732592"/>
+        <c:axId val="207731808"/>
         <c:axId val="0"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
@@ -5190,7 +5181,7 @@
         </c:extLst>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="160472832"/>
+        <c:axId val="207732592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5222,7 +5213,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5289,7 +5279,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160473616"/>
+        <c:crossAx val="207731808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5297,7 +5287,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="160473616"/>
+        <c:axId val="207731808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5343,7 +5333,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5377,7 +5366,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160472832"/>
+        <c:crossAx val="207732592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5391,7 +5380,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8497,22 +8485,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="155" t="s">
+      <c r="A1" s="166" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="156"/>
+      <c r="B1" s="167"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="157" t="s">
+      <c r="A2" s="168" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="158"/>
+      <c r="B2" s="169"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="157" t="s">
+      <c r="A3" s="168" t="s">
         <v>96</v>
       </c>
-      <c r="B3" s="158"/>
+      <c r="B3" s="169"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -8547,10 +8535,10 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="159" t="s">
+      <c r="A8" s="170" t="s">
         <v>103</v>
       </c>
-      <c r="B8" s="160"/>
+      <c r="B8" s="171"/>
     </row>
     <row r="9" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
@@ -8627,7 +8615,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="216" t="s">
+      <c r="A1" s="165" t="s">
         <v>349</v>
       </c>
     </row>
@@ -8760,10 +8748,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="176" t="s">
         <v>151</v>
       </c>
-      <c r="B1" s="166"/>
+      <c r="B1" s="177"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
@@ -8796,16 +8784,16 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="161" t="s">
+      <c r="A6" s="172" t="s">
         <v>147</v>
       </c>
-      <c r="B6" s="162"/>
+      <c r="B6" s="173"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="163" t="s">
+      <c r="A7" s="174" t="s">
         <v>150</v>
       </c>
-      <c r="B7" s="164"/>
+      <c r="B7" s="175"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
@@ -8887,16 +8875,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="167" t="s">
+      <c r="A1" s="178" t="s">
         <v>336</v>
       </c>
-      <c r="B1" s="168"/>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
-      <c r="G1" s="168"/>
-      <c r="H1" s="169"/>
+      <c r="B1" s="179"/>
+      <c r="C1" s="179"/>
+      <c r="D1" s="179"/>
+      <c r="E1" s="179"/>
+      <c r="F1" s="179"/>
+      <c r="G1" s="179"/>
+      <c r="H1" s="180"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
     </row>
@@ -9265,13 +9253,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="170" t="s">
+      <c r="A1" s="181" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="170"/>
-      <c r="C1" s="170"/>
-      <c r="D1" s="170"/>
-      <c r="E1" s="170"/>
+      <c r="B1" s="181"/>
+      <c r="C1" s="181"/>
+      <c r="D1" s="181"/>
+      <c r="E1" s="181"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
@@ -9664,7 +9652,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="145" t="s">
         <v>125</v>
       </c>
@@ -9688,7 +9676,7 @@
   <dimension ref="A1:S54"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9696,7 +9684,7 @@
     <col min="1" max="1" width="35.140625" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="21.85546875" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" customWidth="1"/>
     <col min="5" max="6" width="21.85546875" customWidth="1"/>
     <col min="7" max="7" width="38.85546875" customWidth="1"/>
     <col min="8" max="8" width="23.42578125" customWidth="1"/>
@@ -9729,17 +9717,17 @@
       <c r="I2" s="182"/>
     </row>
     <row r="3" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="175" t="s">
+      <c r="A3" s="186" t="s">
         <v>337</v>
       </c>
-      <c r="B3" s="175"/>
-      <c r="C3" s="175"/>
-      <c r="D3" s="175"/>
-      <c r="E3" s="175"/>
-      <c r="F3" s="175"/>
-      <c r="G3" s="175"/>
-      <c r="H3" s="175"/>
-      <c r="I3" s="175"/>
+      <c r="B3" s="186"/>
+      <c r="C3" s="186"/>
+      <c r="D3" s="186"/>
+      <c r="E3" s="186"/>
+      <c r="F3" s="186"/>
+      <c r="G3" s="186"/>
+      <c r="H3" s="186"/>
+      <c r="I3" s="186"/>
       <c r="J3" s="71"/>
       <c r="K3" s="71"/>
       <c r="L3" s="71"/>
@@ -9783,7 +9771,7 @@
       <c r="C6" s="49" t="s">
         <v>196</v>
       </c>
-      <c r="D6" s="179" t="s">
+      <c r="D6" s="195" t="s">
         <v>339</v>
       </c>
       <c r="N6" s="26"/>
@@ -9798,7 +9786,7 @@
       <c r="C7" s="49" t="s">
         <v>228</v>
       </c>
-      <c r="D7" s="180"/>
+      <c r="D7" s="196"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="78" t="s">
@@ -9810,7 +9798,7 @@
       <c r="C8" s="49" t="s">
         <v>235</v>
       </c>
-      <c r="D8" s="180"/>
+      <c r="D8" s="196"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="78" t="s">
@@ -9822,7 +9810,7 @@
       <c r="C9" s="49" t="s">
         <v>236</v>
       </c>
-      <c r="D9" s="180"/>
+      <c r="D9" s="196"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="78" t="s">
@@ -9834,7 +9822,7 @@
       <c r="C10" s="49" t="s">
         <v>237</v>
       </c>
-      <c r="D10" s="180"/>
+      <c r="D10" s="196"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="78" t="s">
@@ -9846,7 +9834,7 @@
       <c r="C11" s="49" t="s">
         <v>237</v>
       </c>
-      <c r="D11" s="180"/>
+      <c r="D11" s="196"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="78" t="s">
@@ -9858,7 +9846,7 @@
       <c r="C12" s="49" t="s">
         <v>266</v>
       </c>
-      <c r="D12" s="180"/>
+      <c r="D12" s="196"/>
     </row>
     <row r="13" spans="1:19" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="146" t="s">
@@ -9870,7 +9858,7 @@
       <c r="C13" s="137" t="s">
         <v>273</v>
       </c>
-      <c r="D13" s="181"/>
+      <c r="D13" s="197"/>
     </row>
     <row r="14" spans="1:19" s="77" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="147" t="s">
@@ -9900,17 +9888,17 @@
       <c r="I15" s="182"/>
     </row>
     <row r="16" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="175" t="s">
+      <c r="A16" s="186" t="s">
         <v>238</v>
       </c>
-      <c r="B16" s="175"/>
-      <c r="C16" s="175"/>
-      <c r="D16" s="175"/>
-      <c r="E16" s="175"/>
-      <c r="F16" s="175"/>
-      <c r="G16" s="175"/>
-      <c r="H16" s="175"/>
-      <c r="I16" s="175"/>
+      <c r="B16" s="186"/>
+      <c r="C16" s="186"/>
+      <c r="D16" s="186"/>
+      <c r="E16" s="186"/>
+      <c r="F16" s="186"/>
+      <c r="G16" s="186"/>
+      <c r="H16" s="186"/>
+      <c r="I16" s="186"/>
       <c r="J16" s="71"/>
       <c r="K16" s="71"/>
       <c r="L16" s="71"/>
@@ -10086,17 +10074,17 @@
       <c r="I25" s="182"/>
     </row>
     <row r="26" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="175" t="s">
+      <c r="A26" s="186" t="s">
         <v>338</v>
       </c>
-      <c r="B26" s="175"/>
-      <c r="C26" s="175"/>
-      <c r="D26" s="175"/>
-      <c r="E26" s="175"/>
-      <c r="F26" s="175"/>
-      <c r="G26" s="175"/>
-      <c r="H26" s="175"/>
-      <c r="I26" s="175"/>
+      <c r="B26" s="186"/>
+      <c r="C26" s="186"/>
+      <c r="D26" s="186"/>
+      <c r="E26" s="186"/>
+      <c r="F26" s="186"/>
+      <c r="G26" s="186"/>
+      <c r="H26" s="186"/>
+      <c r="I26" s="186"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="69" t="s">
@@ -10108,12 +10096,12 @@
       <c r="C27" s="69" t="s">
         <v>201</v>
       </c>
-      <c r="D27" s="186" t="s">
+      <c r="D27" s="190" t="s">
         <v>292</v>
       </c>
-      <c r="E27" s="186"/>
-      <c r="F27" s="186"/>
-      <c r="G27" s="186"/>
+      <c r="E27" s="190"/>
+      <c r="F27" s="190"/>
+      <c r="G27" s="190"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="52" t="s">
@@ -10125,12 +10113,12 @@
       <c r="C28" s="72">
         <v>0.59</v>
       </c>
-      <c r="D28" s="176" t="s">
+      <c r="D28" s="192" t="s">
         <v>285</v>
       </c>
-      <c r="E28" s="177"/>
-      <c r="F28" s="177"/>
-      <c r="G28" s="178"/>
+      <c r="E28" s="193"/>
+      <c r="F28" s="193"/>
+      <c r="G28" s="194"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="52" t="s">
@@ -10142,12 +10130,12 @@
       <c r="C29" s="72">
         <v>0.77</v>
       </c>
-      <c r="D29" s="171" t="s">
+      <c r="D29" s="187" t="s">
         <v>286</v>
       </c>
-      <c r="E29" s="172"/>
-      <c r="F29" s="172"/>
-      <c r="G29" s="173"/>
+      <c r="E29" s="188"/>
+      <c r="F29" s="188"/>
+      <c r="G29" s="189"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="52" t="s">
@@ -10159,12 +10147,12 @@
       <c r="C30" s="72">
         <v>0.41</v>
       </c>
-      <c r="D30" s="171" t="s">
+      <c r="D30" s="187" t="s">
         <v>287</v>
       </c>
-      <c r="E30" s="172"/>
-      <c r="F30" s="172"/>
-      <c r="G30" s="173"/>
+      <c r="E30" s="188"/>
+      <c r="F30" s="188"/>
+      <c r="G30" s="189"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="52" t="s">
@@ -10176,12 +10164,12 @@
       <c r="C31" s="72">
         <v>0.59</v>
       </c>
-      <c r="D31" s="171" t="s">
+      <c r="D31" s="187" t="s">
         <v>289</v>
       </c>
-      <c r="E31" s="172"/>
-      <c r="F31" s="172"/>
-      <c r="G31" s="173"/>
+      <c r="E31" s="188"/>
+      <c r="F31" s="188"/>
+      <c r="G31" s="189"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="52" t="s">
@@ -10193,12 +10181,12 @@
       <c r="C32" s="72">
         <v>0.5</v>
       </c>
-      <c r="D32" s="171" t="s">
+      <c r="D32" s="187" t="s">
         <v>288</v>
       </c>
-      <c r="E32" s="172"/>
-      <c r="F32" s="172"/>
-      <c r="G32" s="173"/>
+      <c r="E32" s="188"/>
+      <c r="F32" s="188"/>
+      <c r="G32" s="189"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="52" t="s">
@@ -10210,12 +10198,12 @@
       <c r="C33" s="72">
         <v>0.59</v>
       </c>
-      <c r="D33" s="171" t="s">
+      <c r="D33" s="187" t="s">
         <v>290</v>
       </c>
-      <c r="E33" s="172"/>
-      <c r="F33" s="172"/>
-      <c r="G33" s="173"/>
+      <c r="E33" s="188"/>
+      <c r="F33" s="188"/>
+      <c r="G33" s="189"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="52" t="s">
@@ -10227,12 +10215,12 @@
       <c r="C34" s="72">
         <v>0.54</v>
       </c>
-      <c r="D34" s="171" t="s">
+      <c r="D34" s="187" t="s">
         <v>291</v>
       </c>
-      <c r="E34" s="172"/>
-      <c r="F34" s="172"/>
-      <c r="G34" s="173"/>
+      <c r="E34" s="188"/>
+      <c r="F34" s="188"/>
+      <c r="G34" s="189"/>
     </row>
     <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="182" t="s">
@@ -10312,12 +10300,12 @@
       </c>
     </row>
     <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="174" t="s">
+      <c r="A46" s="191" t="s">
         <v>318</v>
       </c>
-      <c r="B46" s="174"/>
-      <c r="C46" s="174"/>
-      <c r="D46" s="174"/>
+      <c r="B46" s="191"/>
+      <c r="C46" s="191"/>
+      <c r="D46" s="191"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="88" t="s">
@@ -10356,11 +10344,11 @@
         <v>1.67E-2</v>
       </c>
       <c r="C49" s="126">
-        <v>0.77</v>
+        <v>0.77200000000000002</v>
       </c>
       <c r="D49" s="148">
         <f t="shared" ref="D49:D54" si="0">2*((B49*C49)/(B49+C49))</f>
-        <v>3.269098767001398E-2</v>
+        <v>3.2692785596551283E-2</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -10371,11 +10359,11 @@
         <v>2.3099999999999999E-2</v>
       </c>
       <c r="C50" s="126">
-        <v>0.41</v>
+        <v>0.40899999999999997</v>
       </c>
       <c r="D50" s="148">
         <f t="shared" si="0"/>
-        <v>4.3735857769568225E-2</v>
+        <v>4.3730155056699832E-2</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -10440,6 +10428,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D6:D13"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A4:D4"/>
@@ -10456,10 +10448,6 @@
     <mergeCell ref="D30:G30"/>
     <mergeCell ref="D31:G31"/>
     <mergeCell ref="D32:G32"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D6:D13"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10491,43 +10479,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="210" t="s">
+      <c r="A1" s="199" t="s">
         <v>347</v>
       </c>
-      <c r="B1" s="210"/>
-      <c r="C1" s="210"/>
-      <c r="D1" s="210"/>
-      <c r="E1" s="210"/>
-      <c r="F1" s="210"/>
-      <c r="G1" s="210"/>
+      <c r="B1" s="199"/>
+      <c r="C1" s="199"/>
+      <c r="D1" s="199"/>
+      <c r="E1" s="199"/>
+      <c r="F1" s="199"/>
+      <c r="G1" s="199"/>
     </row>
     <row r="2" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="211" t="s">
+      <c r="A2" s="160" t="s">
         <v>177</v>
       </c>
-      <c r="B2" s="211" t="s">
+      <c r="B2" s="160" t="s">
         <v>178</v>
       </c>
-      <c r="C2" s="212" t="s">
+      <c r="C2" s="161" t="s">
         <v>179</v>
       </c>
-      <c r="D2" s="212" t="s">
+      <c r="D2" s="161" t="s">
         <v>180</v>
       </c>
-      <c r="E2" s="211" t="s">
+      <c r="E2" s="160" t="s">
         <v>208</v>
       </c>
-      <c r="F2" s="211" t="s">
+      <c r="F2" s="160" t="s">
         <v>224</v>
       </c>
-      <c r="G2" s="211" t="s">
+      <c r="G2" s="160" t="s">
         <v>344</v>
       </c>
-      <c r="I2" s="201" t="s">
+      <c r="I2" s="198" t="s">
         <v>197</v>
       </c>
-      <c r="J2" s="201"/>
-      <c r="K2" s="201"/>
+      <c r="J2" s="198"/>
+      <c r="K2" s="198"/>
     </row>
     <row r="3" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
@@ -10553,7 +10541,7 @@
       <c r="A4" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="202" t="s">
+      <c r="B4" s="155" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="49"/>
@@ -10561,10 +10549,10 @@
       <c r="E4" s="49">
         <v>20</v>
       </c>
-      <c r="F4" s="209" t="s">
+      <c r="F4" s="159" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="202" t="s">
+      <c r="G4" s="155" t="s">
         <v>209</v>
       </c>
       <c r="I4" s="52" t="s">
@@ -10579,7 +10567,7 @@
       <c r="A5" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="202" t="s">
+      <c r="B5" s="155" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="49"/>
@@ -10587,10 +10575,10 @@
       <c r="E5" s="49">
         <v>24</v>
       </c>
-      <c r="F5" s="209" t="s">
+      <c r="F5" s="159" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="209" t="s">
+      <c r="G5" s="159" t="s">
         <v>210</v>
       </c>
       <c r="I5" s="59" t="s">
@@ -10627,7 +10615,7 @@
       <c r="A7" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="202" t="s">
+      <c r="B7" s="155" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="49"/>
@@ -10635,10 +10623,10 @@
       <c r="E7" s="49">
         <v>11</v>
       </c>
-      <c r="F7" s="209" t="s">
+      <c r="F7" s="159" t="s">
         <v>56</v>
       </c>
-      <c r="G7" s="202" t="s">
+      <c r="G7" s="155" t="s">
         <v>211</v>
       </c>
       <c r="I7" s="58" t="s">
@@ -10691,7 +10679,7 @@
       <c r="A10" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="202" t="s">
+      <c r="B10" s="155" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="49"/>
@@ -10699,10 +10687,10 @@
       <c r="E10" s="70">
         <v>44</v>
       </c>
-      <c r="F10" s="209" t="s">
+      <c r="F10" s="159" t="s">
         <v>62</v>
       </c>
-      <c r="G10" s="202" t="s">
+      <c r="G10" s="155" t="s">
         <v>212</v>
       </c>
       <c r="I10" s="55" t="s">
@@ -10787,7 +10775,7 @@
       <c r="A14" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="202" t="s">
+      <c r="B14" s="155" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="49"/>
@@ -10795,10 +10783,10 @@
       <c r="E14" s="49">
         <v>14</v>
       </c>
-      <c r="F14" s="209" t="s">
+      <c r="F14" s="159" t="s">
         <v>70</v>
       </c>
-      <c r="G14" s="202" t="s">
+      <c r="G14" s="155" t="s">
         <v>213</v>
       </c>
       <c r="I14" s="104" t="s">
@@ -10815,7 +10803,7 @@
       <c r="A15" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="202" t="s">
+      <c r="B15" s="155" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="49"/>
@@ -10823,10 +10811,10 @@
       <c r="E15" s="49">
         <v>8</v>
       </c>
-      <c r="F15" s="209" t="s">
+      <c r="F15" s="159" t="s">
         <v>72</v>
       </c>
-      <c r="G15" s="202" t="s">
+      <c r="G15" s="155" t="s">
         <v>214</v>
       </c>
       <c r="I15" s="104" t="s">
@@ -10843,7 +10831,7 @@
       <c r="A16" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="202" t="s">
+      <c r="B16" s="155" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="49"/>
@@ -10851,10 +10839,10 @@
       <c r="E16" s="49">
         <v>27</v>
       </c>
-      <c r="F16" s="209" t="s">
+      <c r="F16" s="159" t="s">
         <v>74</v>
       </c>
-      <c r="G16" s="202" t="s">
+      <c r="G16" s="155" t="s">
         <v>215</v>
       </c>
       <c r="I16" s="119" t="s">
@@ -10871,7 +10859,7 @@
       <c r="A17" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="202" t="s">
+      <c r="B17" s="155" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="49"/>
@@ -10879,10 +10867,10 @@
       <c r="E17" s="49">
         <v>14</v>
       </c>
-      <c r="F17" s="209" t="s">
+      <c r="F17" s="159" t="s">
         <v>76</v>
       </c>
-      <c r="G17" s="202" t="s">
+      <c r="G17" s="155" t="s">
         <v>216</v>
       </c>
     </row>
@@ -10980,20 +10968,20 @@
       <c r="J22" s="115" t="s">
         <v>217</v>
       </c>
-      <c r="K22" s="194" t="s">
+      <c r="K22" s="200" t="s">
         <v>307</v>
       </c>
-      <c r="L22" s="194"/>
-      <c r="M22" s="194"/>
-      <c r="N22" s="194"/>
-      <c r="O22" s="194"/>
-      <c r="P22" s="194"/>
-      <c r="Q22" s="194"/>
-      <c r="R22" s="194"/>
-      <c r="S22" s="194"/>
-      <c r="T22" s="194"/>
-      <c r="U22" s="194"/>
-      <c r="V22" s="194"/>
+      <c r="L22" s="200"/>
+      <c r="M22" s="200"/>
+      <c r="N22" s="200"/>
+      <c r="O22" s="200"/>
+      <c r="P22" s="200"/>
+      <c r="Q22" s="200"/>
+      <c r="R22" s="200"/>
+      <c r="S22" s="200"/>
+      <c r="T22" s="200"/>
+      <c r="U22" s="200"/>
+      <c r="V22" s="200"/>
     </row>
     <row r="23" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="36" t="s">
@@ -11040,7 +11028,7 @@
       <c r="B25" s="49"/>
       <c r="C25" s="49"/>
       <c r="D25" s="49"/>
-      <c r="E25" s="202">
+      <c r="E25" s="155">
         <f>SUM(E3:E24)</f>
         <v>162</v>
       </c>
@@ -11058,7 +11046,7 @@
       <c r="B26" s="91"/>
       <c r="C26" s="91"/>
       <c r="D26" s="91"/>
-      <c r="E26" s="209" t="s">
+      <c r="E26" s="159" t="s">
         <v>314</v>
       </c>
       <c r="F26" s="114"/>
@@ -11085,12 +11073,12 @@
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A28" s="206" t="s">
+      <c r="A28" s="156" t="s">
         <v>312</v>
       </c>
-      <c r="B28" s="207"/>
-      <c r="C28" s="207"/>
-      <c r="D28" s="208"/>
+      <c r="B28" s="157"/>
+      <c r="C28" s="157"/>
+      <c r="D28" s="158"/>
       <c r="I28" s="110" t="s">
         <v>294</v>
       </c>
@@ -11099,10 +11087,10 @@
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A29" s="203"/>
-      <c r="B29" s="204"/>
-      <c r="C29" s="204"/>
-      <c r="D29" s="205"/>
+      <c r="A29" s="202"/>
+      <c r="B29" s="203"/>
+      <c r="C29" s="203"/>
+      <c r="D29" s="204"/>
       <c r="I29" s="43" t="s">
         <v>187</v>
       </c>
@@ -11119,10 +11107,10 @@
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A31" s="188" t="s">
+      <c r="A31" s="205" t="s">
         <v>181</v>
       </c>
-      <c r="B31" s="189"/>
+      <c r="B31" s="206"/>
       <c r="C31" s="68"/>
       <c r="I31" s="43" t="s">
         <v>189</v>
@@ -11144,20 +11132,20 @@
       <c r="J32" s="116" t="s">
         <v>308</v>
       </c>
-      <c r="K32" s="187" t="s">
+      <c r="K32" s="201" t="s">
         <v>306</v>
       </c>
-      <c r="L32" s="187"/>
-      <c r="M32" s="187"/>
-      <c r="N32" s="187"/>
-      <c r="O32" s="187"/>
-      <c r="P32" s="187"/>
-      <c r="Q32" s="187"/>
-      <c r="R32" s="187"/>
-      <c r="S32" s="187"/>
-      <c r="T32" s="187"/>
-      <c r="U32" s="187"/>
-      <c r="V32" s="187"/>
+      <c r="L32" s="201"/>
+      <c r="M32" s="201"/>
+      <c r="N32" s="201"/>
+      <c r="O32" s="201"/>
+      <c r="P32" s="201"/>
+      <c r="Q32" s="201"/>
+      <c r="R32" s="201"/>
+      <c r="S32" s="201"/>
+      <c r="T32" s="201"/>
+      <c r="U32" s="201"/>
+      <c r="V32" s="201"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="84" t="s">
@@ -11190,10 +11178,10 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="190" t="s">
+      <c r="A35" s="207" t="s">
         <v>184</v>
       </c>
-      <c r="B35" s="192" t="s">
+      <c r="B35" s="209" t="s">
         <v>219</v>
       </c>
       <c r="D35" s="90"/>
@@ -11203,8 +11191,8 @@
       <c r="J35" s="41"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="191"/>
-      <c r="B36" s="193"/>
+      <c r="A36" s="208"/>
+      <c r="B36" s="210"/>
       <c r="D36" s="90"/>
       <c r="I36" s="105" t="s">
         <v>296</v>
@@ -11278,14 +11266,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="K22:V22"/>
     <mergeCell ref="K32:V32"/>
     <mergeCell ref="A29:D29"/>
     <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11318,19 +11306,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="170" t="s">
+      <c r="A1" s="181" t="s">
         <v>326</v>
       </c>
-      <c r="B1" s="170"/>
-      <c r="C1" s="170"/>
-      <c r="D1" s="170"/>
-      <c r="E1" s="170"/>
-      <c r="F1" s="170"/>
-      <c r="G1" s="170"/>
-      <c r="H1" s="170"/>
-      <c r="I1" s="170"/>
-      <c r="J1" s="170"/>
-      <c r="K1" s="170"/>
+      <c r="B1" s="181"/>
+      <c r="C1" s="181"/>
+      <c r="D1" s="181"/>
+      <c r="E1" s="181"/>
+      <c r="F1" s="181"/>
+      <c r="G1" s="181"/>
+      <c r="H1" s="181"/>
+      <c r="I1" s="181"/>
+      <c r="J1" s="181"/>
+      <c r="K1" s="181"/>
     </row>
     <row r="2" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
@@ -11992,22 +11980,22 @@
       <c r="K24" s="91"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E25" s="213" t="s">
+      <c r="E25" s="162" t="s">
         <v>81</v>
       </c>
-      <c r="F25" s="214">
+      <c r="F25" s="163">
         <f>SUM(F3:F24)</f>
         <v>464</v>
       </c>
-      <c r="G25" s="215">
+      <c r="G25" s="164">
         <f>SUM(G3:G24)</f>
         <v>13</v>
       </c>
-      <c r="H25" s="213">
+      <c r="H25" s="162">
         <f>SUM(H3:H24)</f>
         <v>4</v>
       </c>
-      <c r="I25" s="215"/>
+      <c r="I25" s="164"/>
       <c r="J25" s="138"/>
     </row>
     <row r="28" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -12052,10 +12040,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="195" t="s">
+      <c r="A1" s="211" t="s">
         <v>333</v>
       </c>
-      <c r="B1" s="196"/>
+      <c r="B1" s="212"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="79" t="s">
@@ -12123,20 +12111,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="197" t="s">
+      <c r="A1" s="213" t="s">
         <v>327</v>
       </c>
-      <c r="B1" s="197"/>
-      <c r="C1" s="197"/>
-      <c r="D1" s="197"/>
-      <c r="E1" s="197"/>
-      <c r="F1" s="197"/>
-      <c r="G1" s="197"/>
-      <c r="H1" s="197"/>
-      <c r="I1" s="197"/>
-      <c r="J1" s="197"/>
-      <c r="K1" s="197"/>
-      <c r="L1" s="197"/>
+      <c r="B1" s="213"/>
+      <c r="C1" s="213"/>
+      <c r="D1" s="213"/>
+      <c r="E1" s="213"/>
+      <c r="F1" s="213"/>
+      <c r="G1" s="213"/>
+      <c r="H1" s="213"/>
+      <c r="I1" s="213"/>
+      <c r="J1" s="213"/>
+      <c r="K1" s="213"/>
+      <c r="L1" s="213"/>
     </row>
     <row r="2" spans="1:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="143" t="s">
@@ -12855,15 +12843,15 @@
     </row>
     <row r="26" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="135"/>
-      <c r="B26" s="198" t="s">
+      <c r="B26" s="214" t="s">
         <v>334</v>
       </c>
-      <c r="C26" s="199"/>
-      <c r="D26" s="199"/>
-      <c r="E26" s="199"/>
-      <c r="F26" s="199"/>
-      <c r="G26" s="199"/>
-      <c r="H26" s="200"/>
+      <c r="C26" s="215"/>
+      <c r="D26" s="215"/>
+      <c r="E26" s="215"/>
+      <c r="F26" s="215"/>
+      <c r="G26" s="215"/>
+      <c r="H26" s="216"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="66"/>

--- a/Experiment01_Resumo/Resumo_Exp01.xlsx
+++ b/Experiment01_Resumo/Resumo_Exp01.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Capa" sheetId="1" r:id="rId1"/>
@@ -18,10 +18,13 @@
     <sheet name="Seed Set" sheetId="5" r:id="rId4"/>
     <sheet name="ResearchQuestions" sheetId="11" r:id="rId5"/>
     <sheet name="Scopus" sheetId="10" r:id="rId6"/>
-    <sheet name="Não encontrados na Busca" sheetId="15" r:id="rId7"/>
-    <sheet name="BuscaGoogleScholar" sheetId="13" r:id="rId8"/>
-    <sheet name="BuscaPorTítulo" sheetId="14" r:id="rId9"/>
-    <sheet name="Threats" sheetId="12" r:id="rId10"/>
+    <sheet name="BSB-FSB" sheetId="16" r:id="rId7"/>
+    <sheet name="29 restantes" sheetId="17" r:id="rId8"/>
+    <sheet name="SeedSet_DL" sheetId="18" r:id="rId9"/>
+    <sheet name="Não encontrados na Busca" sheetId="15" r:id="rId10"/>
+    <sheet name="BuscaGoogleScholar" sheetId="13" r:id="rId11"/>
+    <sheet name="BuscaPorTítulo" sheetId="14" r:id="rId12"/>
+    <sheet name="Threats" sheetId="12" r:id="rId13"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="471">
   <si>
     <t>Database search</t>
   </si>
@@ -1166,11 +1169,400 @@
     <t>Qual é o motivo da scopus nao retornar 12 dos 22 selecionados? Qual o ano de publicação, autor, local?
 Quais index cada biblioteca faz? Quem elas indexam? Isso talvez explique o não retorno de alguns artigos.</t>
   </si>
+  <si>
+    <t>Estratégia</t>
+  </si>
+  <si>
+    <t>BSB</t>
+  </si>
+  <si>
+    <t>FSB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scopus = </t>
+  </si>
+  <si>
+    <t>Scopus = quais</t>
+  </si>
+  <si>
+    <t>quais</t>
+  </si>
+  <si>
+    <t>M. Biró, C. Tully</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IEEE Computer Society Press, 1999, Ch. The Software
+Process in the Context of Business Goals and Performance, pp. 15–27.</t>
+  </si>
+  <si>
+    <t>S23</t>
+  </si>
+  <si>
+    <t>S24</t>
+  </si>
+  <si>
+    <t>V. Mandi ´ c, M. Oivo</t>
+  </si>
+  <si>
+    <t>Product-Focused Software Process Improvement: 11th
+International Conference, PROFES 2010, Limerick, Ireland. Proceedings, Springer Berlin Heidelberg, 2010, pp. 291–305.</t>
+  </si>
+  <si>
+    <t>Sas: A tool for the GQM + Strategies grid derivation process</t>
+  </si>
+  <si>
+    <t>S25</t>
+  </si>
+  <si>
+    <t>F. Cocozza, E. Brenes, G. L. Herrera, M. Jenkins, A. Martínez</t>
+  </si>
+  <si>
+    <t>Product-Focused Software Process Improvement: 15th International Conference, PROFES 2014, Helsinki, Finland. Proceedings, Springer
+International Publishing, 2014, pp. 108–118.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Application of GQM + Strategies in a Small Software Development Unit
+</t>
+  </si>
+  <si>
+    <t>S26</t>
+  </si>
+  <si>
+    <t>M. Unterkalmsteiner, T. Gorschek, A. K. M. M. Islam, C. K. Cheng, R. B. Permadi, R. Feldt</t>
+  </si>
+  <si>
+    <t>A conceptual framework for SPI evaluation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Journal of
+Software: Evolution and Process 26 (2) (2014) 251–279.</t>
+  </si>
+  <si>
+    <t>S27</t>
+  </si>
+  <si>
+    <t>D. Karlström, P. Runeson, C. Wohlin</t>
+  </si>
+  <si>
+    <t>Aggregating viewpoints for strategic software process improvement- a method and a case study</t>
+  </si>
+  <si>
+    <t>IEE
+Proceedings - Software 149 (5) (2002) 143–152.</t>
+  </si>
+  <si>
+    <t>F. Stallinger, R. Plösch, R. Neumann, S. Horn, J. Vollmar</t>
+  </si>
+  <si>
+    <t>Software Quality. Increasing Value in Software and Systems Development: 5th International Conference, SWQD 2013, Vienna,
+Austria. Proceedings, Springer Berlin Heidelberg, 2013, pp. 215–229.</t>
+  </si>
+  <si>
+    <t>Development and evaluation of systems engineering strategies: An assessment-based
+approach</t>
+  </si>
+  <si>
+    <t>S28</t>
+  </si>
+  <si>
+    <t>S29</t>
+  </si>
+  <si>
+    <t>D. Hinley, S. Reiblein</t>
+  </si>
+  <si>
+    <t>WIT Transactions on Information and Communication
+Technologies, 13, WITPress, 1995.</t>
+  </si>
+  <si>
+    <t>A goal-oriented approach for managing software process change</t>
+  </si>
+  <si>
+    <t>S30</t>
+  </si>
+  <si>
+    <t>Y. Sun, X. F. Liu</t>
+  </si>
+  <si>
+    <t>Business-oriented software process improvement based on CMMI using QFD</t>
+  </si>
+  <si>
+    <t>Information and Software Technology 52 (1)
+(2010) 79–91.</t>
+  </si>
+  <si>
+    <t>S31</t>
+  </si>
+  <si>
+    <t>O. Armbrust</t>
+  </si>
+  <si>
+    <t>New Modeling Concepts for Today’s Software Processes: International
+Conference on Software Process, ICSP 2010, Paderborn, Germany. Proceedings, Springer Berlin Heidelberg, 2010, pp. 26–38.</t>
+  </si>
+  <si>
+    <t>Determining organization-specific process suitability</t>
+  </si>
+  <si>
+    <t>S32</t>
+  </si>
+  <si>
+    <t>C. Debou, A. Kuntzmann-Combelles</t>
+  </si>
+  <si>
+    <t>Linking software process improvement to business strategies: experiences from industry</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Software
+Process: Improvement and Practice 5 (1) (2000) 55–64.</t>
+  </si>
+  <si>
+    <t>S33</t>
+  </si>
+  <si>
+    <t>M. Lepmets, R. V. O’Connor, A. Cater-Steel, A. L. Mesquida, T. McBride</t>
+  </si>
+  <si>
+    <t>Quality of Information and Communications Technology (QUATIC), 9th International Conference on the, 2014, pp. 166–169.</t>
+  </si>
+  <si>
+    <t>A Cynefin Based Approach to Process Model Tailoring and Goal Alignment</t>
+  </si>
+  <si>
+    <t>Better Software Practice for Business Benefit: Principles and Experiences</t>
+  </si>
+  <si>
+    <t>S34</t>
+  </si>
+  <si>
+    <t>F. McLoughlin, I. Richardson</t>
+  </si>
+  <si>
+    <t>The Rosetta Stone Methodology – A Benefits Driven Approach to Software Process Improvement</t>
+  </si>
+  <si>
+    <t>Product-Focused Software Process Improvement: 11th International Conference, PROFES 2010, Limerick, Ireland. Proceedings, Springer Berlin
+Heidelberg, 2010, pp. 366–379</t>
+  </si>
+  <si>
+    <t>S35</t>
+  </si>
+  <si>
+    <t>Systems, Software and Services Process
+Improvement: 17th European Conference, EuroSPI 2010, Grenoble, France. Proceedings, Springer Berlin Heidelberg, 2010, pp. 201–212.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Rosetta Stone Methodology – A Benefits-Driven Approach to SPI </t>
+  </si>
+  <si>
+    <t>S36</t>
+  </si>
+  <si>
+    <t>X. F. Liu, Y. Sun, G. Kane, Y. Kyoya, K. Noguchi</t>
+  </si>
+  <si>
+    <t>QFD Application in Software Process Management and Improvement Based on CMM</t>
+  </si>
+  <si>
+    <t>Proceedings of the Third Workshop on Software Quality, ACM, 2005, pp. 1–6.</t>
+  </si>
+  <si>
+    <t>S37</t>
+  </si>
+  <si>
+    <t>W. L. McCoy</t>
+  </si>
+  <si>
+    <t>Interfacing three complementary technologies: strategic planning, process modeling, and system dynamics</t>
+  </si>
+  <si>
+    <t>Systems, Man, and
+Cybernetics. 1998 IEEE International Conference on, Vol. 3, 1998, pp. 2620– 2624.</t>
+  </si>
+  <si>
+    <t>S38</t>
+  </si>
+  <si>
+    <t>ICIS 2007 Proceedings.</t>
+  </si>
+  <si>
+    <t>S39</t>
+  </si>
+  <si>
+    <t>V. Basili, A. Trendowicz, M. Kowalczyk, J. Heidrich, C. Seaman, J. Münch, D. Rombach</t>
+  </si>
+  <si>
+    <t>Bridging the Gap between Business Strategy and Software Development</t>
+  </si>
+  <si>
+    <t>V. Basili, J. Heidrich, M. Lindvall, J. Münch, M. Regardie, D. Rombach, C. Seaman, A. Trendowicz</t>
+  </si>
+  <si>
+    <t>Aligning Organizations Through Measurement: The GQM + Strategies Approach</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Springer Publishing Company, 2014.</t>
+  </si>
+  <si>
+    <t>S40</t>
+  </si>
+  <si>
+    <t>J. Münch, F. Fagerholm, P. Kettunen, M. Pagels, J. Partanen</t>
+  </si>
+  <si>
+    <t>39th Euromicro Conference on Software Engineering and Advanced Applications, 2013, pp. 70–77.</t>
+  </si>
+  <si>
+    <t>S41</t>
+  </si>
+  <si>
+    <t>Proceedings of the
+DASMA Software Metric Congress (MetriKon 2013), 2013</t>
+  </si>
+  <si>
+    <t>The Effects of GQM + Strategies on Organizational Alignment</t>
+  </si>
+  <si>
+    <t>S42</t>
+  </si>
+  <si>
+    <t>V. Basili, J. Heidrich, M. Lindvall, J. Münch, M. Regardie, A. Trendowicz</t>
+  </si>
+  <si>
+    <t>GQM + Strategies – Aligning Business Strategies with Software
+Measurement</t>
+  </si>
+  <si>
+    <t>First International Symposium on Empirical Software Engineering and Measurement (ESEM 2007), 2007, pp. 4 88–4 90.</t>
+  </si>
+  <si>
+    <t>S43</t>
+  </si>
+  <si>
+    <t>A. Trendowicz, J. Heidrich, K. Shintani</t>
+  </si>
+  <si>
+    <t>Software Measurement, 2011 Joint Conference
+of the 21st International Workshop on and 6th International Conference on Software Process and Product Measurement (IWSM-MENSURA),
+2011, pp. 142–150.</t>
+  </si>
+  <si>
+    <t>Aligning Software Projects with Business Objectives</t>
+  </si>
+  <si>
+    <t>S44</t>
+  </si>
+  <si>
+    <t>P. V. Martins, A. R. Silva</t>
+  </si>
+  <si>
+    <t>Managing Worldwide Operations Communications with
+Information Technology, Information Resources Management Association, USA, 2007.</t>
+  </si>
+  <si>
+    <t>ProPAM: SPI based on Process and Project Alignment</t>
+  </si>
+  <si>
+    <t>S45</t>
+  </si>
+  <si>
+    <t>O. Armbrust, M. Katahira, T. Kaneko, Y. Miyamoto, Y. Koishi</t>
+  </si>
+  <si>
+    <t>Which Processes Are Needed in Five Years? Strategic Process Portfolio
+Management at the Japan Aerospace Exploration Agency (JAXA)</t>
+  </si>
+  <si>
+    <t>Proceedings of the International SPICE Days, 2010.</t>
+  </si>
+  <si>
+    <t>S46</t>
+  </si>
+  <si>
+    <t>Business-oriented software process improvement based on CMM using QFD</t>
+  </si>
+  <si>
+    <t>Software Process:
+Improvement and Practice 11 (6) (2006) 573–589</t>
+  </si>
+  <si>
+    <t>S47</t>
+  </si>
+  <si>
+    <t>T. Birkholzer, C. Dickmann, J. Vaupel</t>
+  </si>
+  <si>
+    <t>37th EUROMICRO
+Conference on Software Engineering and Advanced Applications, 2011, pp. 294–301</t>
+  </si>
+  <si>
+    <t>A Framework for Systematic Evaluation of Process Improvement Priorities</t>
+  </si>
+  <si>
+    <t>S48</t>
+  </si>
+  <si>
+    <t>S49</t>
+  </si>
+  <si>
+    <t>S50</t>
+  </si>
+  <si>
+    <t>S51</t>
+  </si>
+  <si>
+    <t>J. J. M. Trienekens, R. J. Kusters, B. Rendering, K. Stokla</t>
+  </si>
+  <si>
+    <t>Business Process Management: Second International Conference BPM, Proceedings, Springer Berlin
+Heidelberg, 2004, pp. 33–48.</t>
+  </si>
+  <si>
+    <t>M. Kowalczyk, J. Münch, M. Katahira, T. Kaneko, Y. Miyamoto, Y. Koishi</t>
+  </si>
+  <si>
+    <t>Aligning Software-related Strategies in Multi-Organizational Settings</t>
+  </si>
+  <si>
+    <t>Proceedings of the International Conference on Software Process and Product Measurement (IWSM/MetriKon/Mensura), 2010, pp.
+261–274.</t>
+  </si>
+  <si>
+    <t>M. Murugappan, G. Keeni</t>
+  </si>
+  <si>
+    <t>IEEE Software 20 (2003) 42–48</t>
+  </si>
+  <si>
+    <t>Blending CMM and Six Sigma to meet business goals</t>
+  </si>
+  <si>
+    <t>GQM + Strategies: A comprehensive methodology for aligning business strategies with software measurement</t>
+  </si>
+  <si>
+    <t>Proceedings of the DASMA Software Metric Congress
+(MetriKon 2007), 2007, pp. 253–266.</t>
+  </si>
+  <si>
+    <t>Snowballind add Primary Studies to the Filtered Dataset</t>
+  </si>
+  <si>
+    <t>Busca (Seed Set)</t>
+  </si>
+  <si>
+    <t>Experiences and Insights from Applying GQM + Strategies in a Systems Product Development Organisation</t>
+  </si>
+  <si>
+    <t>Business Objectives as Drivers for Process Improvement: Practices and Experiences at Thales Naval The Netherlands (TNNL)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1260,7 +1652,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="22">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1387,8 +1779,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="31">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -1770,13 +2180,73 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="217">
+  <cellXfs count="233">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2163,9 +2633,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2213,6 +2680,20 @@
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2261,18 +2742,18 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2309,6 +2790,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2336,17 +2829,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2364,6 +2848,24 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2690,12 +3192,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="161177704"/>
-        <c:axId val="161183192"/>
+        <c:axId val="195563936"/>
+        <c:axId val="195559232"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="161177704"/>
+        <c:axId val="195563936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2788,7 +3290,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="161183192"/>
+        <c:crossAx val="195559232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2796,7 +3298,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="161183192"/>
+        <c:axId val="195559232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2847,7 +3349,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="161177704"/>
+        <c:crossAx val="195563936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3070,6 +3572,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3157,12 +3660,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="161178880"/>
-        <c:axId val="161182800"/>
+        <c:axId val="195565112"/>
+        <c:axId val="195562368"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="161178880"/>
+        <c:axId val="195565112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3191,6 +3694,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3251,7 +3755,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="161182800"/>
+        <c:crossAx val="195562368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3259,7 +3763,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="161182800"/>
+        <c:axId val="195562368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3288,6 +3792,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3342,7 +3847,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="161178880"/>
+        <c:crossAx val="195565112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3356,6 +3861,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3540,6 +4046,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3627,12 +4134,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="161183584"/>
-        <c:axId val="161183976"/>
+        <c:axId val="195561192"/>
+        <c:axId val="195563544"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="161183584"/>
+        <c:axId val="195561192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3661,6 +4168,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3721,7 +4229,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="161183976"/>
+        <c:crossAx val="195563544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3729,7 +4237,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="161183976"/>
+        <c:axId val="195563544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3758,6 +4266,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3812,7 +4321,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="161183584"/>
+        <c:crossAx val="195561192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3826,6 +4335,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4076,7 +4586,7 @@
                 <c:pt idx="1">
                   <c:v>0.59</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="0.00%">
+                <c:pt idx="2" formatCode="0.0%">
                   <c:v>5.3827240375283081E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -4158,10 +4668,10 @@
                   <c:v>1.67E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.77200000000000002</c:v>
+                  <c:v>0.77270000000000005</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="0.00%">
-                  <c:v>3.2692785596551283E-2</c:v>
+                <c:pt idx="2" formatCode="0.0%">
+                  <c:v>3.2693412718520394E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4244,7 +4754,7 @@
                 <c:pt idx="1">
                   <c:v>0.40899999999999997</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="0.00%">
+                <c:pt idx="2" formatCode="0.0%">
                   <c:v>4.3730155056699832E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -4328,7 +4838,7 @@
                 <c:pt idx="1">
                   <c:v>0.59</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="0.00%">
+                <c:pt idx="2" formatCode="0.0%">
                   <c:v>5.5827547230744394E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -4412,7 +4922,7 @@
                 <c:pt idx="1">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="0.00%">
+                <c:pt idx="2" formatCode="0.0%">
                   <c:v>8.2063521204332662E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -4496,7 +5006,7 @@
                 <c:pt idx="1">
                   <c:v>0.59</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="0.00%">
+                <c:pt idx="2" formatCode="0.0%">
                   <c:v>6.6258198688209882E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -4583,7 +5093,7 @@
                 <c:pt idx="1">
                   <c:v>0.54</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="0.00%">
+                <c:pt idx="2" formatCode="0.0%">
                   <c:v>6.9254766031195833E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -4600,12 +5110,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="161180056"/>
-        <c:axId val="161180448"/>
+        <c:axId val="195559624"/>
+        <c:axId val="195558056"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="161180056"/>
+        <c:axId val="195559624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4645,7 +5155,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="161180448"/>
+        <c:crossAx val="195558056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4653,7 +5163,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="161180448"/>
+        <c:axId val="195558056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4701,7 +5211,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="161180056"/>
+        <c:crossAx val="195559624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4940,6 +5450,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -5010,8 +5521,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="207732592"/>
-        <c:axId val="207731808"/>
+        <c:axId val="195557664"/>
+        <c:axId val="195561976"/>
         <c:axId val="0"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
@@ -5181,7 +5692,7 @@
         </c:extLst>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="207732592"/>
+        <c:axId val="195557664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5213,6 +5724,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5279,7 +5791,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="207731808"/>
+        <c:crossAx val="195561976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5287,7 +5799,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="207731808"/>
+        <c:axId val="195561976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5333,6 +5845,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5366,7 +5879,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="207732592"/>
+        <c:crossAx val="195557664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5380,6 +5893,681 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200">
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12701690880556568"/>
+          <c:y val="1.3465017552712484E-2"/>
+          <c:w val="0.87298309391824758"/>
+          <c:h val="0.68034578550651403"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BSB-FSB'!$B$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Experimento 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'BSB-FSB'!$A$39:$A$42</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Scopus</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Scopus + BS</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Scopus + FS</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Scopus + BS + FS (Hybrid Strategy)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BSB-FSB'!$B$39:$B$42</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="219454040"/>
+        <c:axId val="219460704"/>
+        <c:axId val="0"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Scopus!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>#REF!</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:gradFill rotWithShape="1">
+                    <a:gsLst>
+                      <a:gs pos="0">
+                        <a:schemeClr val="accent1">
+                          <a:satMod val="103000"/>
+                          <a:lumMod val="102000"/>
+                          <a:tint val="94000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="50000">
+                        <a:schemeClr val="accent1">
+                          <a:satMod val="110000"/>
+                          <a:lumMod val="100000"/>
+                          <a:shade val="100000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="100000">
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="99000"/>
+                          <a:satMod val="120000"/>
+                          <a:shade val="78000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                    </a:gsLst>
+                    <a:lin ang="5400000" scaled="0"/>
+                  </a:gradFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="63000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                  <a:sp3d/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="pt-BR"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'BSB-FSB'!$A$39:$A$42</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>Scopus</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Scopus + BS</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Scopus + FS</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Scopus + BS + FS (Hybrid Strategy)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Scopus!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="219454040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Hybrid Strategy: Scopus + Snowballing (ESEM SP17)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="219460704"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="219460704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Recall (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="219454040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5649,6 +6837,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
   <cs:axisTitle>
@@ -7548,6 +8776,508 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="347">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="347">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8193,6 +9923,43 @@
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Gráfico 1"/>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>220736</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>476251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1959429</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>39311</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -8474,7 +10241,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -8485,22 +10252,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="166" t="s">
+      <c r="A1" s="175" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="167"/>
+      <c r="B1" s="176"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="168" t="s">
+      <c r="A2" s="177" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="169"/>
+      <c r="B2" s="178"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="168" t="s">
+      <c r="A3" s="177" t="s">
         <v>96</v>
       </c>
-      <c r="B3" s="169"/>
+      <c r="B3" s="178"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -8535,10 +10302,10 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="170" t="s">
+      <c r="A8" s="179" t="s">
         <v>103</v>
       </c>
-      <c r="B8" s="171"/>
+      <c r="B8" s="180"/>
     </row>
     <row r="9" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
@@ -8605,6 +10372,1597 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K31"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection sqref="A1:K1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12" style="90" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42" style="90" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="90" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="90" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" style="90" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="81" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" style="90" customWidth="1"/>
+    <col min="9" max="9" width="26.140625" style="81" customWidth="1"/>
+    <col min="10" max="10" width="22.42578125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="20" style="90" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="90"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="190" t="s">
+        <v>326</v>
+      </c>
+      <c r="B1" s="190"/>
+      <c r="C1" s="190"/>
+      <c r="D1" s="190"/>
+      <c r="E1" s="190"/>
+      <c r="F1" s="190"/>
+      <c r="G1" s="190"/>
+      <c r="H1" s="190"/>
+      <c r="I1" s="190"/>
+      <c r="J1" s="190"/>
+      <c r="K1" s="190"/>
+    </row>
+    <row r="2" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="G2" s="82" t="s">
+        <v>277</v>
+      </c>
+      <c r="H2" s="82" t="s">
+        <v>278</v>
+      </c>
+      <c r="I2" s="82" t="s">
+        <v>279</v>
+      </c>
+      <c r="J2" s="82" t="s">
+        <v>325</v>
+      </c>
+      <c r="K2" s="82" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="128" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="89" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="94" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="67">
+        <v>25</v>
+      </c>
+      <c r="G3" s="48"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="136" t="s">
+        <v>329</v>
+      </c>
+      <c r="J3" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="75" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="128" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="89" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="94">
+        <v>2007</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="F4" s="67">
+        <v>20</v>
+      </c>
+      <c r="G4" s="48">
+        <v>1</v>
+      </c>
+      <c r="H4" s="91"/>
+      <c r="I4" s="83" t="s">
+        <v>324</v>
+      </c>
+      <c r="J4" s="94"/>
+      <c r="K4" s="91"/>
+    </row>
+    <row r="5" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="128" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="94">
+        <v>2008</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="F5" s="67">
+        <v>24</v>
+      </c>
+      <c r="G5" s="48">
+        <v>1</v>
+      </c>
+      <c r="H5" s="91"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="94"/>
+      <c r="K5" s="91"/>
+    </row>
+    <row r="6" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="153" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="139" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="94">
+        <v>2015</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="F6" s="67">
+        <v>57</v>
+      </c>
+      <c r="G6" s="48"/>
+      <c r="H6" s="91">
+        <v>1</v>
+      </c>
+      <c r="I6" s="83" t="s">
+        <v>324</v>
+      </c>
+      <c r="J6" s="94"/>
+      <c r="K6" s="91"/>
+    </row>
+    <row r="7" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="129" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="89" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="94">
+        <v>2011</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="F7" s="48">
+        <v>11</v>
+      </c>
+      <c r="G7" s="48">
+        <v>1</v>
+      </c>
+      <c r="H7" s="91"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="94"/>
+      <c r="K7" s="91"/>
+    </row>
+    <row r="8" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="153" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="129" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="94">
+        <v>2010</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="F8" s="48">
+        <v>22</v>
+      </c>
+      <c r="G8" s="48">
+        <v>1</v>
+      </c>
+      <c r="H8" s="91"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="94"/>
+      <c r="K8" s="91"/>
+    </row>
+    <row r="9" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="129" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="139" t="s">
+        <v>124</v>
+      </c>
+      <c r="D9" s="94">
+        <v>2009</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="F9" s="48">
+        <v>13</v>
+      </c>
+      <c r="G9" s="48"/>
+      <c r="H9" s="91">
+        <v>1</v>
+      </c>
+      <c r="I9" s="48"/>
+      <c r="J9" s="94"/>
+      <c r="K9" s="91"/>
+    </row>
+    <row r="10" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="130" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="89" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="94">
+        <v>2010</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="F10" s="48">
+        <v>43</v>
+      </c>
+      <c r="G10" s="48">
+        <v>1</v>
+      </c>
+      <c r="H10" s="91"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="94"/>
+      <c r="K10" s="91"/>
+    </row>
+    <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="129" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="89" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="94">
+        <v>2010</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="F11" s="48">
+        <v>11</v>
+      </c>
+      <c r="G11" s="48">
+        <v>1</v>
+      </c>
+      <c r="H11" s="91"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="94"/>
+      <c r="K11" s="91"/>
+    </row>
+    <row r="12" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="129" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="89" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="94">
+        <v>1999</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="2">
+        <v>37</v>
+      </c>
+      <c r="G12" s="48">
+        <v>1</v>
+      </c>
+      <c r="H12" s="91"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="94"/>
+      <c r="K12" s="91"/>
+    </row>
+    <row r="13" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="129" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="94">
+        <v>2005</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="F13" s="48">
+        <v>16</v>
+      </c>
+      <c r="G13" s="48"/>
+      <c r="H13" s="91"/>
+      <c r="I13" s="83" t="s">
+        <v>324</v>
+      </c>
+      <c r="J13" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="75" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="129" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="89" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="94">
+        <v>2008</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="F14" s="48">
+        <v>14</v>
+      </c>
+      <c r="G14" s="48">
+        <v>1</v>
+      </c>
+      <c r="H14" s="91"/>
+      <c r="I14" s="83" t="s">
+        <v>324</v>
+      </c>
+      <c r="J14" s="94"/>
+      <c r="K14" s="91"/>
+    </row>
+    <row r="15" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="129" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="94">
+        <v>2011</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="F15" s="48">
+        <v>8</v>
+      </c>
+      <c r="G15" s="48">
+        <v>1</v>
+      </c>
+      <c r="H15" s="91"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="94"/>
+      <c r="K15" s="91"/>
+    </row>
+    <row r="16" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="129" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="94">
+        <v>2009</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="F16" s="48">
+        <v>27</v>
+      </c>
+      <c r="G16" s="48">
+        <v>1</v>
+      </c>
+      <c r="H16" s="91"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="94"/>
+      <c r="K16" s="91"/>
+    </row>
+    <row r="17" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="129" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="89" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="94">
+        <v>1997</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="F17" s="48">
+        <v>14</v>
+      </c>
+      <c r="G17" s="48">
+        <v>1</v>
+      </c>
+      <c r="H17" s="91"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="94"/>
+      <c r="K17" s="91"/>
+    </row>
+    <row r="18" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="153" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="129" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" s="94">
+        <v>2010</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="F18" s="48">
+        <v>8</v>
+      </c>
+      <c r="G18" s="48"/>
+      <c r="H18" s="91">
+        <v>1</v>
+      </c>
+      <c r="I18" s="83" t="s">
+        <v>324</v>
+      </c>
+      <c r="J18" s="94"/>
+      <c r="K18" s="91"/>
+    </row>
+    <row r="19" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="130" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="89" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="94">
+        <v>2005</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="F19" s="48">
+        <v>15</v>
+      </c>
+      <c r="G19" s="48">
+        <v>1</v>
+      </c>
+      <c r="H19" s="91"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="94"/>
+      <c r="K19" s="91"/>
+    </row>
+    <row r="20" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="130" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" s="94">
+        <v>2011</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="F20" s="48">
+        <v>18</v>
+      </c>
+      <c r="G20" s="48"/>
+      <c r="H20" s="91"/>
+      <c r="I20" s="136" t="s">
+        <v>329</v>
+      </c>
+      <c r="J20" s="85" t="s">
+        <v>19</v>
+      </c>
+      <c r="K20" s="75" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="130" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="139" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="94">
+        <v>2008</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="F21" s="48">
+        <v>22</v>
+      </c>
+      <c r="G21" s="48"/>
+      <c r="H21" s="91">
+        <v>1</v>
+      </c>
+      <c r="I21" s="48"/>
+      <c r="J21" s="94"/>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="130" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" s="94">
+        <v>2015</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="F22" s="48">
+        <v>15</v>
+      </c>
+      <c r="G22" s="48"/>
+      <c r="H22" s="91"/>
+      <c r="I22" s="83" t="s">
+        <v>324</v>
+      </c>
+      <c r="J22" s="85" t="s">
+        <v>19</v>
+      </c>
+      <c r="K22" s="75" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="130" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" s="94">
+        <v>2000</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="F23" s="48">
+        <v>11</v>
+      </c>
+      <c r="G23" s="48"/>
+      <c r="H23" s="91"/>
+      <c r="I23" s="136" t="s">
+        <v>329</v>
+      </c>
+      <c r="J23" s="85" t="s">
+        <v>19</v>
+      </c>
+      <c r="K23" s="75" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="130" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" s="94">
+        <v>2010</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="F24" s="48">
+        <v>33</v>
+      </c>
+      <c r="G24" s="48">
+        <v>1</v>
+      </c>
+      <c r="H24" s="91"/>
+      <c r="I24" s="83" t="s">
+        <v>324</v>
+      </c>
+      <c r="J24" s="94"/>
+      <c r="K24" s="91"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E25" s="161" t="s">
+        <v>81</v>
+      </c>
+      <c r="F25" s="162">
+        <f>SUM(F3:F24)</f>
+        <v>464</v>
+      </c>
+      <c r="G25" s="163">
+        <f>SUM(G3:G24)</f>
+        <v>13</v>
+      </c>
+      <c r="H25" s="161">
+        <f>SUM(H3:H24)</f>
+        <v>4</v>
+      </c>
+      <c r="I25" s="163"/>
+      <c r="J25" s="138"/>
+    </row>
+    <row r="28" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="66"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:K1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="K3" r:id="rId1"/>
+    <hyperlink ref="K13" r:id="rId2"/>
+    <hyperlink ref="K20" r:id="rId3"/>
+    <hyperlink ref="K22" r:id="rId4"/>
+    <hyperlink ref="K23" r:id="rId5"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="221" t="s">
+        <v>333</v>
+      </c>
+      <c r="B1" s="222"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="79" t="s">
+        <v>248</v>
+      </c>
+      <c r="B2" s="142" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="79" t="s">
+        <v>270</v>
+      </c>
+      <c r="B3" s="75" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="79" t="s">
+        <v>331</v>
+      </c>
+      <c r="B4" s="6">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="79" t="s">
+        <v>332</v>
+      </c>
+      <c r="B5" s="141" t="s">
+        <v>275</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12" style="90" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="12" style="90" customWidth="1"/>
+    <col min="5" max="7" width="15.28515625" style="90" customWidth="1"/>
+    <col min="8" max="8" width="18" style="90" customWidth="1"/>
+    <col min="9" max="9" width="42" style="90" customWidth="1"/>
+    <col min="10" max="10" width="26" style="90" customWidth="1"/>
+    <col min="11" max="11" width="5.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.42578125" style="90" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="90"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="223" t="s">
+        <v>327</v>
+      </c>
+      <c r="B1" s="223"/>
+      <c r="C1" s="223"/>
+      <c r="D1" s="223"/>
+      <c r="E1" s="223"/>
+      <c r="F1" s="223"/>
+      <c r="G1" s="223"/>
+      <c r="H1" s="223"/>
+      <c r="I1" s="223"/>
+      <c r="J1" s="223"/>
+      <c r="K1" s="223"/>
+      <c r="L1" s="223"/>
+    </row>
+    <row r="2" spans="1:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="143" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="143" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="144" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="143" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="143" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="143" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="143" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="143" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="143" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="143" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="143" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="135" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="135" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="135" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="128" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="89" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="94" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="128" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="89" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="94">
+        <v>2007</v>
+      </c>
+      <c r="L4" s="18" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="128" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="94">
+        <v>2008</v>
+      </c>
+      <c r="L5" s="18" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="117" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="94">
+        <v>2015</v>
+      </c>
+      <c r="L6" s="18" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="129" t="s">
+        <v>56</v>
+      </c>
+      <c r="J7" s="89" t="s">
+        <v>57</v>
+      </c>
+      <c r="K7" s="94">
+        <v>2011</v>
+      </c>
+      <c r="L7" s="19" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="129" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8" s="94">
+        <v>2010</v>
+      </c>
+      <c r="L8" s="19" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="129" t="s">
+        <v>60</v>
+      </c>
+      <c r="J9" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="K9" s="94">
+        <v>2009</v>
+      </c>
+      <c r="L9" s="19" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="130" t="s">
+        <v>62</v>
+      </c>
+      <c r="J10" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="K10" s="94">
+        <v>2010</v>
+      </c>
+      <c r="L10" s="19" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="129" t="s">
+        <v>63</v>
+      </c>
+      <c r="J11" s="89" t="s">
+        <v>64</v>
+      </c>
+      <c r="K11" s="94">
+        <v>2010</v>
+      </c>
+      <c r="L11" s="19" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="129" t="s">
+        <v>66</v>
+      </c>
+      <c r="J12" s="89" t="s">
+        <v>65</v>
+      </c>
+      <c r="K12" s="94">
+        <v>1999</v>
+      </c>
+      <c r="L12" s="20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="135" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="135" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="135" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="135" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="129" t="s">
+        <v>68</v>
+      </c>
+      <c r="J13" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="K13" s="94">
+        <v>2005</v>
+      </c>
+      <c r="L13" s="20" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="129" t="s">
+        <v>70</v>
+      </c>
+      <c r="J14" s="89" t="s">
+        <v>71</v>
+      </c>
+      <c r="K14" s="94">
+        <v>2008</v>
+      </c>
+      <c r="L14" s="20" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="129" t="s">
+        <v>72</v>
+      </c>
+      <c r="J15" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="K15" s="94">
+        <v>2011</v>
+      </c>
+      <c r="L15" s="19" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="129" t="s">
+        <v>74</v>
+      </c>
+      <c r="J16" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="K16" s="94">
+        <v>2009</v>
+      </c>
+      <c r="L16" s="19" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="129" t="s">
+        <v>76</v>
+      </c>
+      <c r="J17" s="89" t="s">
+        <v>61</v>
+      </c>
+      <c r="K17" s="94">
+        <v>1997</v>
+      </c>
+      <c r="L17" s="19" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="129" t="s">
+        <v>77</v>
+      </c>
+      <c r="J18" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="K18" s="94">
+        <v>2010</v>
+      </c>
+      <c r="L18" s="19" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="130" t="s">
+        <v>79</v>
+      </c>
+      <c r="J19" s="89" t="s">
+        <v>80</v>
+      </c>
+      <c r="K19" s="94">
+        <v>2005</v>
+      </c>
+      <c r="L19" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="135" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="135" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="135" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" s="130" t="s">
+        <v>82</v>
+      </c>
+      <c r="J20" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="K20" s="94">
+        <v>2011</v>
+      </c>
+      <c r="L20" s="19" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="130" t="s">
+        <v>84</v>
+      </c>
+      <c r="J21" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="K21" s="94">
+        <v>2008</v>
+      </c>
+      <c r="L21" s="19" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="135" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="135" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="135" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" s="130" t="s">
+        <v>86</v>
+      </c>
+      <c r="J22" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="K22" s="94">
+        <v>2015</v>
+      </c>
+      <c r="L22" s="19" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="135" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="135" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="135" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="130" t="s">
+        <v>88</v>
+      </c>
+      <c r="J23" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="K23" s="94">
+        <v>2000</v>
+      </c>
+      <c r="L23" s="19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I24" s="130" t="s">
+        <v>91</v>
+      </c>
+      <c r="J24" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="K24" s="94">
+        <v>2010</v>
+      </c>
+      <c r="L24" s="19" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L25" s="92"/>
+    </row>
+    <row r="26" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="135"/>
+      <c r="B26" s="224" t="s">
+        <v>334</v>
+      </c>
+      <c r="C26" s="225"/>
+      <c r="D26" s="225"/>
+      <c r="E26" s="225"/>
+      <c r="F26" s="225"/>
+      <c r="G26" s="225"/>
+      <c r="H26" s="226"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="66"/>
+      <c r="B28" s="66"/>
+      <c r="C28" s="66"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="66"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="66"/>
+      <c r="H28" s="66"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="B26:H26"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8615,7 +11973,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="164" t="s">
         <v>349</v>
       </c>
     </row>
@@ -8656,76 +12014,76 @@
       <c r="G7" s="140"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="149"/>
-      <c r="B8" s="149"/>
-      <c r="C8" s="149"/>
-      <c r="D8" s="149"/>
-      <c r="E8" s="149"/>
-      <c r="F8" s="149"/>
-      <c r="G8" s="149"/>
+      <c r="A8" s="148"/>
+      <c r="B8" s="148"/>
+      <c r="C8" s="148"/>
+      <c r="D8" s="148"/>
+      <c r="E8" s="148"/>
+      <c r="F8" s="148"/>
+      <c r="G8" s="148"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="149"/>
-      <c r="B9" s="149"/>
-      <c r="C9" s="149"/>
-      <c r="D9" s="149"/>
-      <c r="E9" s="149"/>
-      <c r="F9" s="149"/>
-      <c r="G9" s="149"/>
+      <c r="A9" s="148"/>
+      <c r="B9" s="148"/>
+      <c r="C9" s="148"/>
+      <c r="D9" s="148"/>
+      <c r="E9" s="148"/>
+      <c r="F9" s="148"/>
+      <c r="G9" s="148"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="149"/>
-      <c r="B10" s="149"/>
-      <c r="C10" s="149"/>
-      <c r="D10" s="149"/>
-      <c r="E10" s="149"/>
-      <c r="F10" s="149"/>
-      <c r="G10" s="149"/>
+      <c r="A10" s="148"/>
+      <c r="B10" s="148"/>
+      <c r="C10" s="148"/>
+      <c r="D10" s="148"/>
+      <c r="E10" s="148"/>
+      <c r="F10" s="148"/>
+      <c r="G10" s="148"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="149"/>
-      <c r="B11" s="149"/>
-      <c r="C11" s="149"/>
-      <c r="D11" s="149"/>
-      <c r="E11" s="149"/>
-      <c r="F11" s="149"/>
-      <c r="G11" s="149"/>
+      <c r="A11" s="148"/>
+      <c r="B11" s="148"/>
+      <c r="C11" s="148"/>
+      <c r="D11" s="148"/>
+      <c r="E11" s="148"/>
+      <c r="F11" s="148"/>
+      <c r="G11" s="148"/>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="149"/>
-      <c r="B12" s="149"/>
-      <c r="C12" s="149"/>
-      <c r="D12" s="149"/>
-      <c r="E12" s="149"/>
-      <c r="F12" s="149"/>
-      <c r="G12" s="149"/>
+      <c r="A12" s="148"/>
+      <c r="B12" s="148"/>
+      <c r="C12" s="148"/>
+      <c r="D12" s="148"/>
+      <c r="E12" s="148"/>
+      <c r="F12" s="148"/>
+      <c r="G12" s="148"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="149"/>
-      <c r="B13" s="149"/>
-      <c r="C13" s="149"/>
-      <c r="D13" s="149"/>
-      <c r="E13" s="149"/>
-      <c r="F13" s="149"/>
-      <c r="G13" s="149"/>
+      <c r="A13" s="148"/>
+      <c r="B13" s="148"/>
+      <c r="C13" s="148"/>
+      <c r="D13" s="148"/>
+      <c r="E13" s="148"/>
+      <c r="F13" s="148"/>
+      <c r="G13" s="148"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="149"/>
-      <c r="B14" s="149"/>
-      <c r="C14" s="149"/>
-      <c r="D14" s="149"/>
-      <c r="E14" s="149"/>
-      <c r="F14" s="149"/>
-      <c r="G14" s="149"/>
+      <c r="A14" s="148"/>
+      <c r="B14" s="148"/>
+      <c r="C14" s="148"/>
+      <c r="D14" s="148"/>
+      <c r="E14" s="148"/>
+      <c r="F14" s="148"/>
+      <c r="G14" s="148"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="149"/>
-      <c r="B15" s="149"/>
-      <c r="C15" s="149"/>
-      <c r="D15" s="149"/>
-      <c r="E15" s="149"/>
-      <c r="F15" s="149"/>
-      <c r="G15" s="149"/>
+      <c r="A15" s="148"/>
+      <c r="B15" s="148"/>
+      <c r="C15" s="148"/>
+      <c r="D15" s="148"/>
+      <c r="E15" s="148"/>
+      <c r="F15" s="148"/>
+      <c r="G15" s="148"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -8748,10 +12106,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="176" t="s">
+      <c r="A1" s="185" t="s">
         <v>151</v>
       </c>
-      <c r="B1" s="177"/>
+      <c r="B1" s="186"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
@@ -8762,18 +12120,18 @@
       </c>
     </row>
     <row r="3" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A3" s="151" t="s">
+      <c r="A3" s="150" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="150" t="s">
+      <c r="B3" s="149" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="152" t="s">
+      <c r="A4" s="151" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="153"/>
+      <c r="B4" s="152"/>
     </row>
     <row r="5" spans="1:2" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
@@ -8784,16 +12142,16 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="172" t="s">
+      <c r="A6" s="181" t="s">
         <v>147</v>
       </c>
-      <c r="B6" s="173"/>
+      <c r="B6" s="182"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="174" t="s">
+      <c r="A7" s="183" t="s">
         <v>150</v>
       </c>
-      <c r="B7" s="175"/>
+      <c r="B7" s="184"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
@@ -8875,16 +12233,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="178" t="s">
+      <c r="A1" s="187" t="s">
         <v>336</v>
       </c>
-      <c r="B1" s="179"/>
-      <c r="C1" s="179"/>
-      <c r="D1" s="179"/>
-      <c r="E1" s="179"/>
-      <c r="F1" s="179"/>
-      <c r="G1" s="179"/>
-      <c r="H1" s="180"/>
+      <c r="B1" s="188"/>
+      <c r="C1" s="188"/>
+      <c r="D1" s="188"/>
+      <c r="E1" s="188"/>
+      <c r="F1" s="188"/>
+      <c r="G1" s="188"/>
+      <c r="H1" s="189"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
     </row>
@@ -9240,7 +12598,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9253,13 +12611,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="181" t="s">
+      <c r="A1" s="190" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="181"/>
-      <c r="C1" s="181"/>
-      <c r="D1" s="181"/>
-      <c r="E1" s="181"/>
+      <c r="B1" s="190"/>
+      <c r="C1" s="190"/>
+      <c r="D1" s="190"/>
+      <c r="E1" s="190"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
@@ -9675,8 +13033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S54"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+    <sheetView topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50:D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9691,43 +13049,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="183" t="s">
+      <c r="A1" s="191" t="s">
         <v>230</v>
       </c>
-      <c r="B1" s="184"/>
-      <c r="C1" s="184"/>
-      <c r="D1" s="184"/>
-      <c r="E1" s="184"/>
-      <c r="F1" s="184"/>
-      <c r="G1" s="184"/>
-      <c r="H1" s="184"/>
-      <c r="I1" s="184"/>
+      <c r="B1" s="192"/>
+      <c r="C1" s="192"/>
+      <c r="D1" s="192"/>
+      <c r="E1" s="192"/>
+      <c r="F1" s="192"/>
+      <c r="G1" s="192"/>
+      <c r="H1" s="192"/>
+      <c r="I1" s="192"/>
     </row>
     <row r="2" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="182" t="s">
+      <c r="A2" s="194" t="s">
         <v>229</v>
       </c>
-      <c r="B2" s="182"/>
-      <c r="C2" s="182"/>
-      <c r="D2" s="182"/>
-      <c r="E2" s="182"/>
-      <c r="F2" s="182"/>
-      <c r="G2" s="182"/>
-      <c r="H2" s="182"/>
-      <c r="I2" s="182"/>
+      <c r="B2" s="194"/>
+      <c r="C2" s="194"/>
+      <c r="D2" s="194"/>
+      <c r="E2" s="194"/>
+      <c r="F2" s="194"/>
+      <c r="G2" s="194"/>
+      <c r="H2" s="194"/>
+      <c r="I2" s="194"/>
     </row>
     <row r="3" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="186" t="s">
+      <c r="A3" s="195" t="s">
         <v>337</v>
       </c>
-      <c r="B3" s="186"/>
-      <c r="C3" s="186"/>
-      <c r="D3" s="186"/>
-      <c r="E3" s="186"/>
-      <c r="F3" s="186"/>
-      <c r="G3" s="186"/>
-      <c r="H3" s="186"/>
-      <c r="I3" s="186"/>
+      <c r="B3" s="195"/>
+      <c r="C3" s="195"/>
+      <c r="D3" s="195"/>
+      <c r="E3" s="195"/>
+      <c r="F3" s="195"/>
+      <c r="G3" s="195"/>
+      <c r="H3" s="195"/>
+      <c r="I3" s="195"/>
       <c r="J3" s="71"/>
       <c r="K3" s="71"/>
       <c r="L3" s="71"/>
@@ -9740,12 +13098,12 @@
       <c r="S3" s="71"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="185" t="s">
+      <c r="A4" s="193" t="s">
         <v>253</v>
       </c>
-      <c r="B4" s="185"/>
-      <c r="C4" s="185"/>
-      <c r="D4" s="185"/>
+      <c r="B4" s="193"/>
+      <c r="C4" s="193"/>
+      <c r="D4" s="193"/>
     </row>
     <row r="5" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="69" t="s">
@@ -9771,7 +13129,7 @@
       <c r="C6" s="49" t="s">
         <v>196</v>
       </c>
-      <c r="D6" s="195" t="s">
+      <c r="D6" s="204" t="s">
         <v>339</v>
       </c>
       <c r="N6" s="26"/>
@@ -9786,7 +13144,7 @@
       <c r="C7" s="49" t="s">
         <v>228</v>
       </c>
-      <c r="D7" s="196"/>
+      <c r="D7" s="205"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="78" t="s">
@@ -9798,7 +13156,7 @@
       <c r="C8" s="49" t="s">
         <v>235</v>
       </c>
-      <c r="D8" s="196"/>
+      <c r="D8" s="205"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="78" t="s">
@@ -9810,7 +13168,7 @@
       <c r="C9" s="49" t="s">
         <v>236</v>
       </c>
-      <c r="D9" s="196"/>
+      <c r="D9" s="205"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="78" t="s">
@@ -9822,7 +13180,7 @@
       <c r="C10" s="49" t="s">
         <v>237</v>
       </c>
-      <c r="D10" s="196"/>
+      <c r="D10" s="205"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="78" t="s">
@@ -9834,7 +13192,7 @@
       <c r="C11" s="49" t="s">
         <v>237</v>
       </c>
-      <c r="D11" s="196"/>
+      <c r="D11" s="205"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="78" t="s">
@@ -9846,7 +13204,7 @@
       <c r="C12" s="49" t="s">
         <v>266</v>
       </c>
-      <c r="D12" s="196"/>
+      <c r="D12" s="205"/>
     </row>
     <row r="13" spans="1:19" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="146" t="s">
@@ -9858,7 +13216,7 @@
       <c r="C13" s="137" t="s">
         <v>273</v>
       </c>
-      <c r="D13" s="197"/>
+      <c r="D13" s="206"/>
     </row>
     <row r="14" spans="1:19" s="77" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="147" t="s">
@@ -9875,30 +13233,30 @@
       </c>
     </row>
     <row r="15" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="182" t="s">
+      <c r="A15" s="194" t="s">
         <v>261</v>
       </c>
-      <c r="B15" s="182"/>
-      <c r="C15" s="182"/>
-      <c r="D15" s="182"/>
-      <c r="E15" s="182"/>
-      <c r="F15" s="182"/>
-      <c r="G15" s="182"/>
-      <c r="H15" s="182"/>
-      <c r="I15" s="182"/>
+      <c r="B15" s="194"/>
+      <c r="C15" s="194"/>
+      <c r="D15" s="194"/>
+      <c r="E15" s="194"/>
+      <c r="F15" s="194"/>
+      <c r="G15" s="194"/>
+      <c r="H15" s="194"/>
+      <c r="I15" s="194"/>
     </row>
     <row r="16" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="186" t="s">
+      <c r="A16" s="195" t="s">
         <v>238</v>
       </c>
-      <c r="B16" s="186"/>
-      <c r="C16" s="186"/>
-      <c r="D16" s="186"/>
-      <c r="E16" s="186"/>
-      <c r="F16" s="186"/>
-      <c r="G16" s="186"/>
-      <c r="H16" s="186"/>
-      <c r="I16" s="186"/>
+      <c r="B16" s="195"/>
+      <c r="C16" s="195"/>
+      <c r="D16" s="195"/>
+      <c r="E16" s="195"/>
+      <c r="F16" s="195"/>
+      <c r="G16" s="195"/>
+      <c r="H16" s="195"/>
+      <c r="I16" s="195"/>
       <c r="J16" s="71"/>
       <c r="K16" s="71"/>
       <c r="L16" s="71"/>
@@ -9911,14 +13269,14 @@
       <c r="S16" s="71"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="185" t="s">
+      <c r="A17" s="193" t="s">
         <v>259</v>
       </c>
-      <c r="B17" s="185"/>
-      <c r="C17" s="185"/>
-      <c r="D17" s="185"/>
-      <c r="E17" s="185"/>
-      <c r="F17" s="185"/>
+      <c r="B17" s="193"/>
+      <c r="C17" s="193"/>
+      <c r="D17" s="193"/>
+      <c r="E17" s="193"/>
+      <c r="F17" s="193"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="69" t="s">
@@ -10061,30 +13419,30 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="182" t="s">
+      <c r="A25" s="194" t="s">
         <v>260</v>
       </c>
-      <c r="B25" s="182"/>
-      <c r="C25" s="182"/>
-      <c r="D25" s="182"/>
-      <c r="E25" s="182"/>
-      <c r="F25" s="182"/>
-      <c r="G25" s="182"/>
-      <c r="H25" s="182"/>
-      <c r="I25" s="182"/>
+      <c r="B25" s="194"/>
+      <c r="C25" s="194"/>
+      <c r="D25" s="194"/>
+      <c r="E25" s="194"/>
+      <c r="F25" s="194"/>
+      <c r="G25" s="194"/>
+      <c r="H25" s="194"/>
+      <c r="I25" s="194"/>
     </row>
     <row r="26" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="186" t="s">
+      <c r="A26" s="195" t="s">
         <v>338</v>
       </c>
-      <c r="B26" s="186"/>
-      <c r="C26" s="186"/>
-      <c r="D26" s="186"/>
-      <c r="E26" s="186"/>
-      <c r="F26" s="186"/>
-      <c r="G26" s="186"/>
-      <c r="H26" s="186"/>
-      <c r="I26" s="186"/>
+      <c r="B26" s="195"/>
+      <c r="C26" s="195"/>
+      <c r="D26" s="195"/>
+      <c r="E26" s="195"/>
+      <c r="F26" s="195"/>
+      <c r="G26" s="195"/>
+      <c r="H26" s="195"/>
+      <c r="I26" s="195"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="69" t="s">
@@ -10096,12 +13454,12 @@
       <c r="C27" s="69" t="s">
         <v>201</v>
       </c>
-      <c r="D27" s="190" t="s">
+      <c r="D27" s="199" t="s">
         <v>292</v>
       </c>
-      <c r="E27" s="190"/>
-      <c r="F27" s="190"/>
-      <c r="G27" s="190"/>
+      <c r="E27" s="199"/>
+      <c r="F27" s="199"/>
+      <c r="G27" s="199"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="52" t="s">
@@ -10113,12 +13471,12 @@
       <c r="C28" s="72">
         <v>0.59</v>
       </c>
-      <c r="D28" s="192" t="s">
+      <c r="D28" s="201" t="s">
         <v>285</v>
       </c>
-      <c r="E28" s="193"/>
-      <c r="F28" s="193"/>
-      <c r="G28" s="194"/>
+      <c r="E28" s="202"/>
+      <c r="F28" s="202"/>
+      <c r="G28" s="203"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="52" t="s">
@@ -10130,12 +13488,12 @@
       <c r="C29" s="72">
         <v>0.77</v>
       </c>
-      <c r="D29" s="187" t="s">
+      <c r="D29" s="196" t="s">
         <v>286</v>
       </c>
-      <c r="E29" s="188"/>
-      <c r="F29" s="188"/>
-      <c r="G29" s="189"/>
+      <c r="E29" s="197"/>
+      <c r="F29" s="197"/>
+      <c r="G29" s="198"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="52" t="s">
@@ -10147,12 +13505,12 @@
       <c r="C30" s="72">
         <v>0.41</v>
       </c>
-      <c r="D30" s="187" t="s">
+      <c r="D30" s="196" t="s">
         <v>287</v>
       </c>
-      <c r="E30" s="188"/>
-      <c r="F30" s="188"/>
-      <c r="G30" s="189"/>
+      <c r="E30" s="197"/>
+      <c r="F30" s="197"/>
+      <c r="G30" s="198"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="52" t="s">
@@ -10164,12 +13522,12 @@
       <c r="C31" s="72">
         <v>0.59</v>
       </c>
-      <c r="D31" s="187" t="s">
+      <c r="D31" s="196" t="s">
         <v>289</v>
       </c>
-      <c r="E31" s="188"/>
-      <c r="F31" s="188"/>
-      <c r="G31" s="189"/>
+      <c r="E31" s="197"/>
+      <c r="F31" s="197"/>
+      <c r="G31" s="198"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="52" t="s">
@@ -10181,12 +13539,12 @@
       <c r="C32" s="72">
         <v>0.5</v>
       </c>
-      <c r="D32" s="187" t="s">
+      <c r="D32" s="196" t="s">
         <v>288</v>
       </c>
-      <c r="E32" s="188"/>
-      <c r="F32" s="188"/>
-      <c r="G32" s="189"/>
+      <c r="E32" s="197"/>
+      <c r="F32" s="197"/>
+      <c r="G32" s="198"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="52" t="s">
@@ -10198,12 +13556,12 @@
       <c r="C33" s="72">
         <v>0.59</v>
       </c>
-      <c r="D33" s="187" t="s">
+      <c r="D33" s="196" t="s">
         <v>290</v>
       </c>
-      <c r="E33" s="188"/>
-      <c r="F33" s="188"/>
-      <c r="G33" s="189"/>
+      <c r="E33" s="197"/>
+      <c r="F33" s="197"/>
+      <c r="G33" s="198"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="52" t="s">
@@ -10215,25 +13573,25 @@
       <c r="C34" s="72">
         <v>0.54</v>
       </c>
-      <c r="D34" s="187" t="s">
+      <c r="D34" s="196" t="s">
         <v>291</v>
       </c>
-      <c r="E34" s="188"/>
-      <c r="F34" s="188"/>
-      <c r="G34" s="189"/>
+      <c r="E34" s="197"/>
+      <c r="F34" s="197"/>
+      <c r="G34" s="198"/>
     </row>
     <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="182" t="s">
+      <c r="A36" s="194" t="s">
         <v>315</v>
       </c>
-      <c r="B36" s="182"/>
-      <c r="C36" s="182"/>
-      <c r="D36" s="182"/>
-      <c r="E36" s="182"/>
-      <c r="F36" s="182"/>
-      <c r="G36" s="182"/>
-      <c r="H36" s="182"/>
-      <c r="I36" s="182"/>
+      <c r="B36" s="194"/>
+      <c r="C36" s="194"/>
+      <c r="D36" s="194"/>
+      <c r="E36" s="194"/>
+      <c r="F36" s="194"/>
+      <c r="G36" s="194"/>
+      <c r="H36" s="194"/>
+      <c r="I36" s="194"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="87" t="s">
@@ -10300,12 +13658,12 @@
       </c>
     </row>
     <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="191" t="s">
+      <c r="A46" s="200" t="s">
         <v>318</v>
       </c>
-      <c r="B46" s="191"/>
-      <c r="C46" s="191"/>
-      <c r="D46" s="191"/>
+      <c r="B46" s="200"/>
+      <c r="C46" s="200"/>
+      <c r="D46" s="200"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="88" t="s">
@@ -10331,7 +13689,7 @@
       <c r="C48" s="126">
         <v>0.59</v>
       </c>
-      <c r="D48" s="148">
+      <c r="D48" s="231">
         <f>2*((B48*C48)/(B48+C48))</f>
         <v>5.3827240375283081E-2</v>
       </c>
@@ -10343,12 +13701,12 @@
       <c r="B49" s="126">
         <v>1.67E-2</v>
       </c>
-      <c r="C49" s="126">
-        <v>0.77200000000000002</v>
-      </c>
-      <c r="D49" s="148">
+      <c r="C49" s="230">
+        <v>0.77270000000000005</v>
+      </c>
+      <c r="D49" s="231">
         <f t="shared" ref="D49:D54" si="0">2*((B49*C49)/(B49+C49))</f>
-        <v>3.2692785596551283E-2</v>
+        <v>3.2693412718520394E-2</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -10361,7 +13719,7 @@
       <c r="C50" s="126">
         <v>0.40899999999999997</v>
       </c>
-      <c r="D50" s="148">
+      <c r="D50" s="231">
         <f t="shared" si="0"/>
         <v>4.3730155056699832E-2</v>
       </c>
@@ -10376,7 +13734,7 @@
       <c r="C51" s="126">
         <v>0.59</v>
       </c>
-      <c r="D51" s="148">
+      <c r="D51" s="231">
         <f t="shared" si="0"/>
         <v>5.5827547230744394E-2</v>
       </c>
@@ -10391,7 +13749,7 @@
       <c r="C52" s="126">
         <v>0.5</v>
       </c>
-      <c r="D52" s="148">
+      <c r="D52" s="231">
         <f>2*((B52*C52)/(B52+C52))</f>
         <v>8.2063521204332662E-2</v>
       </c>
@@ -10406,7 +13764,7 @@
       <c r="C53" s="126">
         <v>0.59</v>
       </c>
-      <c r="D53" s="148">
+      <c r="D53" s="231">
         <f t="shared" si="0"/>
         <v>6.6258198688209882E-2</v>
       </c>
@@ -10421,7 +13779,7 @@
       <c r="C54" s="126">
         <v>0.54</v>
       </c>
-      <c r="D54" s="148">
+      <c r="D54" s="231">
         <f t="shared" si="0"/>
         <v>6.9254766031195833E-2</v>
       </c>
@@ -10459,8 +13817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V48"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+    <sheetView topLeftCell="A19" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10479,43 +13837,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="199" t="s">
+      <c r="A1" s="212" t="s">
         <v>347</v>
       </c>
-      <c r="B1" s="199"/>
-      <c r="C1" s="199"/>
-      <c r="D1" s="199"/>
-      <c r="E1" s="199"/>
-      <c r="F1" s="199"/>
-      <c r="G1" s="199"/>
+      <c r="B1" s="212"/>
+      <c r="C1" s="212"/>
+      <c r="D1" s="212"/>
+      <c r="E1" s="212"/>
+      <c r="F1" s="212"/>
+      <c r="G1" s="212"/>
     </row>
     <row r="2" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="160" t="s">
+      <c r="A2" s="159" t="s">
         <v>177</v>
       </c>
-      <c r="B2" s="160" t="s">
+      <c r="B2" s="159" t="s">
         <v>178</v>
       </c>
-      <c r="C2" s="161" t="s">
+      <c r="C2" s="160" t="s">
         <v>179</v>
       </c>
-      <c r="D2" s="161" t="s">
+      <c r="D2" s="160" t="s">
         <v>180</v>
       </c>
-      <c r="E2" s="160" t="s">
+      <c r="E2" s="159" t="s">
         <v>208</v>
       </c>
-      <c r="F2" s="160" t="s">
+      <c r="F2" s="159" t="s">
         <v>224</v>
       </c>
-      <c r="G2" s="160" t="s">
+      <c r="G2" s="159" t="s">
         <v>344</v>
       </c>
-      <c r="I2" s="198" t="s">
+      <c r="I2" s="211" t="s">
         <v>197</v>
       </c>
-      <c r="J2" s="198"/>
-      <c r="K2" s="198"/>
+      <c r="J2" s="211"/>
+      <c r="K2" s="211"/>
     </row>
     <row r="3" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
@@ -10541,7 +13899,7 @@
       <c r="A4" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="155" t="s">
+      <c r="B4" s="154" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="49"/>
@@ -10549,10 +13907,10 @@
       <c r="E4" s="49">
         <v>20</v>
       </c>
-      <c r="F4" s="159" t="s">
+      <c r="F4" s="158" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="155" t="s">
+      <c r="G4" s="154" t="s">
         <v>209</v>
       </c>
       <c r="I4" s="52" t="s">
@@ -10567,7 +13925,7 @@
       <c r="A5" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="155" t="s">
+      <c r="B5" s="154" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="49"/>
@@ -10575,10 +13933,10 @@
       <c r="E5" s="49">
         <v>24</v>
       </c>
-      <c r="F5" s="159" t="s">
+      <c r="F5" s="158" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="159" t="s">
+      <c r="G5" s="158" t="s">
         <v>210</v>
       </c>
       <c r="I5" s="59" t="s">
@@ -10615,7 +13973,7 @@
       <c r="A7" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="155" t="s">
+      <c r="B7" s="154" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="49"/>
@@ -10623,10 +13981,10 @@
       <c r="E7" s="49">
         <v>11</v>
       </c>
-      <c r="F7" s="159" t="s">
+      <c r="F7" s="158" t="s">
         <v>56</v>
       </c>
-      <c r="G7" s="155" t="s">
+      <c r="G7" s="154" t="s">
         <v>211</v>
       </c>
       <c r="I7" s="58" t="s">
@@ -10679,7 +14037,7 @@
       <c r="A10" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="155" t="s">
+      <c r="B10" s="154" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="49"/>
@@ -10687,10 +14045,10 @@
       <c r="E10" s="70">
         <v>44</v>
       </c>
-      <c r="F10" s="159" t="s">
+      <c r="F10" s="158" t="s">
         <v>62</v>
       </c>
-      <c r="G10" s="155" t="s">
+      <c r="G10" s="154" t="s">
         <v>212</v>
       </c>
       <c r="I10" s="55" t="s">
@@ -10775,7 +14133,7 @@
       <c r="A14" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="155" t="s">
+      <c r="B14" s="154" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="49"/>
@@ -10783,10 +14141,10 @@
       <c r="E14" s="49">
         <v>14</v>
       </c>
-      <c r="F14" s="159" t="s">
+      <c r="F14" s="158" t="s">
         <v>70</v>
       </c>
-      <c r="G14" s="155" t="s">
+      <c r="G14" s="154" t="s">
         <v>213</v>
       </c>
       <c r="I14" s="104" t="s">
@@ -10803,7 +14161,7 @@
       <c r="A15" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="155" t="s">
+      <c r="B15" s="154" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="49"/>
@@ -10811,10 +14169,10 @@
       <c r="E15" s="49">
         <v>8</v>
       </c>
-      <c r="F15" s="159" t="s">
+      <c r="F15" s="158" t="s">
         <v>72</v>
       </c>
-      <c r="G15" s="155" t="s">
+      <c r="G15" s="154" t="s">
         <v>214</v>
       </c>
       <c r="I15" s="104" t="s">
@@ -10831,7 +14189,7 @@
       <c r="A16" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="155" t="s">
+      <c r="B16" s="154" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="49"/>
@@ -10839,10 +14197,10 @@
       <c r="E16" s="49">
         <v>27</v>
       </c>
-      <c r="F16" s="159" t="s">
+      <c r="F16" s="158" t="s">
         <v>74</v>
       </c>
-      <c r="G16" s="155" t="s">
+      <c r="G16" s="154" t="s">
         <v>215</v>
       </c>
       <c r="I16" s="119" t="s">
@@ -10859,7 +14217,7 @@
       <c r="A17" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="155" t="s">
+      <c r="B17" s="154" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="49"/>
@@ -10867,10 +14225,10 @@
       <c r="E17" s="49">
         <v>14</v>
       </c>
-      <c r="F17" s="159" t="s">
+      <c r="F17" s="158" t="s">
         <v>76</v>
       </c>
-      <c r="G17" s="155" t="s">
+      <c r="G17" s="154" t="s">
         <v>216</v>
       </c>
     </row>
@@ -10968,20 +14326,20 @@
       <c r="J22" s="115" t="s">
         <v>217</v>
       </c>
-      <c r="K22" s="200" t="s">
+      <c r="K22" s="213" t="s">
         <v>307</v>
       </c>
-      <c r="L22" s="200"/>
-      <c r="M22" s="200"/>
-      <c r="N22" s="200"/>
-      <c r="O22" s="200"/>
-      <c r="P22" s="200"/>
-      <c r="Q22" s="200"/>
-      <c r="R22" s="200"/>
-      <c r="S22" s="200"/>
-      <c r="T22" s="200"/>
-      <c r="U22" s="200"/>
-      <c r="V22" s="200"/>
+      <c r="L22" s="213"/>
+      <c r="M22" s="213"/>
+      <c r="N22" s="213"/>
+      <c r="O22" s="213"/>
+      <c r="P22" s="213"/>
+      <c r="Q22" s="213"/>
+      <c r="R22" s="213"/>
+      <c r="S22" s="213"/>
+      <c r="T22" s="213"/>
+      <c r="U22" s="213"/>
+      <c r="V22" s="213"/>
     </row>
     <row r="23" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="36" t="s">
@@ -11028,7 +14386,7 @@
       <c r="B25" s="49"/>
       <c r="C25" s="49"/>
       <c r="D25" s="49"/>
-      <c r="E25" s="155">
+      <c r="E25" s="154">
         <f>SUM(E3:E24)</f>
         <v>162</v>
       </c>
@@ -11046,7 +14404,7 @@
       <c r="B26" s="91"/>
       <c r="C26" s="91"/>
       <c r="D26" s="91"/>
-      <c r="E26" s="159" t="s">
+      <c r="E26" s="158" t="s">
         <v>314</v>
       </c>
       <c r="F26" s="114"/>
@@ -11073,12 +14431,12 @@
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A28" s="156" t="s">
+      <c r="A28" s="155" t="s">
         <v>312</v>
       </c>
-      <c r="B28" s="157"/>
-      <c r="C28" s="157"/>
-      <c r="D28" s="158"/>
+      <c r="B28" s="156"/>
+      <c r="C28" s="156"/>
+      <c r="D28" s="157"/>
       <c r="I28" s="110" t="s">
         <v>294</v>
       </c>
@@ -11087,10 +14445,10 @@
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A29" s="202"/>
-      <c r="B29" s="203"/>
-      <c r="C29" s="203"/>
-      <c r="D29" s="204"/>
+      <c r="A29" s="215"/>
+      <c r="B29" s="216"/>
+      <c r="C29" s="216"/>
+      <c r="D29" s="217"/>
       <c r="I29" s="43" t="s">
         <v>187</v>
       </c>
@@ -11107,10 +14465,10 @@
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A31" s="205" t="s">
+      <c r="A31" s="218" t="s">
         <v>181</v>
       </c>
-      <c r="B31" s="206"/>
+      <c r="B31" s="219"/>
       <c r="C31" s="68"/>
       <c r="I31" s="43" t="s">
         <v>189</v>
@@ -11132,20 +14490,20 @@
       <c r="J32" s="116" t="s">
         <v>308</v>
       </c>
-      <c r="K32" s="201" t="s">
+      <c r="K32" s="214" t="s">
         <v>306</v>
       </c>
-      <c r="L32" s="201"/>
-      <c r="M32" s="201"/>
-      <c r="N32" s="201"/>
-      <c r="O32" s="201"/>
-      <c r="P32" s="201"/>
-      <c r="Q32" s="201"/>
-      <c r="R32" s="201"/>
-      <c r="S32" s="201"/>
-      <c r="T32" s="201"/>
-      <c r="U32" s="201"/>
-      <c r="V32" s="201"/>
+      <c r="L32" s="214"/>
+      <c r="M32" s="214"/>
+      <c r="N32" s="214"/>
+      <c r="O32" s="214"/>
+      <c r="P32" s="214"/>
+      <c r="Q32" s="214"/>
+      <c r="R32" s="214"/>
+      <c r="S32" s="214"/>
+      <c r="T32" s="214"/>
+      <c r="U32" s="214"/>
+      <c r="V32" s="214"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="84" t="s">
@@ -11283,1591 +14641,1423 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:V48"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection sqref="A1:K1"/>
+    <sheetView topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" style="90" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42" style="90" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="90" customWidth="1"/>
-    <col min="4" max="4" width="5.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="90" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" style="90" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="81" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" style="90" customWidth="1"/>
-    <col min="9" max="9" width="26.140625" style="81" customWidth="1"/>
-    <col min="10" max="10" width="22.42578125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="20" style="90" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="90"/>
+    <col min="1" max="1" width="27.42578125" style="90" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" style="90" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="90" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="90" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="90" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="90" customWidth="1"/>
+    <col min="7" max="7" width="22" style="90" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" style="90" customWidth="1"/>
+    <col min="9" max="9" width="33.28515625" style="90" customWidth="1"/>
+    <col min="10" max="10" width="22" style="90" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" style="90" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="9.140625" style="90"/>
+    <col min="15" max="15" width="16.85546875" style="90" customWidth="1"/>
+    <col min="16" max="16" width="18.140625" style="90" customWidth="1"/>
+    <col min="17" max="17" width="21.140625" style="90" customWidth="1"/>
+    <col min="18" max="18" width="18" style="90" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="90"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="181" t="s">
-        <v>326</v>
-      </c>
-      <c r="B1" s="181"/>
-      <c r="C1" s="181"/>
-      <c r="D1" s="181"/>
-      <c r="E1" s="181"/>
-      <c r="F1" s="181"/>
-      <c r="G1" s="181"/>
-      <c r="H1" s="181"/>
-      <c r="I1" s="181"/>
-      <c r="J1" s="181"/>
-      <c r="K1" s="181"/>
-    </row>
-    <row r="2" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="G2" s="82" t="s">
-        <v>277</v>
-      </c>
-      <c r="H2" s="82" t="s">
-        <v>278</v>
-      </c>
-      <c r="I2" s="82" t="s">
-        <v>279</v>
-      </c>
-      <c r="J2" s="82" t="s">
-        <v>325</v>
-      </c>
-      <c r="K2" s="82" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="212" t="s">
+        <v>347</v>
+      </c>
+      <c r="B1" s="212"/>
+      <c r="C1" s="212"/>
+      <c r="D1" s="212"/>
+      <c r="E1" s="212"/>
+      <c r="F1" s="212"/>
+      <c r="G1" s="212"/>
+    </row>
+    <row r="2" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="159" t="s">
+        <v>177</v>
+      </c>
+      <c r="B2" s="159" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="160" t="s">
+        <v>179</v>
+      </c>
+      <c r="D2" s="160" t="s">
+        <v>180</v>
+      </c>
+      <c r="E2" s="159" t="s">
+        <v>208</v>
+      </c>
+      <c r="F2" s="159" t="s">
+        <v>224</v>
+      </c>
+      <c r="G2" s="159" t="s">
+        <v>344</v>
+      </c>
+      <c r="I2" s="211" t="s">
+        <v>197</v>
+      </c>
+      <c r="J2" s="211"/>
+      <c r="K2" s="211"/>
+      <c r="O2" s="171" t="s">
+        <v>351</v>
+      </c>
+      <c r="P2" s="172" t="s">
+        <v>468</v>
+      </c>
+      <c r="Q2" s="172" t="s">
+        <v>352</v>
+      </c>
+      <c r="R2" s="173" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="128" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="89" t="s">
+      <c r="G3" s="94"/>
+      <c r="I3" s="95" t="s">
+        <v>199</v>
+      </c>
+      <c r="J3" s="94">
+        <v>22</v>
+      </c>
+      <c r="K3" s="61"/>
+      <c r="O3" s="166" t="s">
+        <v>244</v>
+      </c>
+      <c r="P3" s="91" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q3" s="91" t="s">
+        <v>356</v>
+      </c>
+      <c r="R3" s="167" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="154" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94">
+        <v>20</v>
+      </c>
+      <c r="F4" s="158" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="154" t="s">
+        <v>209</v>
+      </c>
+      <c r="I4" s="95" t="s">
+        <v>198</v>
+      </c>
+      <c r="J4" s="94">
+        <v>17</v>
+      </c>
+      <c r="K4" s="48"/>
+      <c r="O4" s="166" t="s">
+        <v>245</v>
+      </c>
+      <c r="P4" s="91" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q4" s="91"/>
+      <c r="R4" s="167"/>
+    </row>
+    <row r="5" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="154" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="94"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="94">
         <v>24</v>
       </c>
-      <c r="D3" s="94" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="67">
-        <v>25</v>
-      </c>
-      <c r="G3" s="48"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="136" t="s">
-        <v>329</v>
-      </c>
-      <c r="J3" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="75" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="F5" s="158" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="158" t="s">
+        <v>210</v>
+      </c>
+      <c r="I5" s="59" t="s">
+        <v>303</v>
+      </c>
+      <c r="J5" s="48">
+        <v>8</v>
+      </c>
+      <c r="K5" s="48"/>
+      <c r="O5" s="166" t="s">
+        <v>246</v>
+      </c>
+      <c r="P5" s="91" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q5" s="91"/>
+      <c r="R5" s="167"/>
+    </row>
+    <row r="6" spans="1:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="29"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="94" t="s">
+        <v>346</v>
+      </c>
+      <c r="E6" s="94"/>
+      <c r="F6" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="94"/>
+      <c r="I6" s="59" t="s">
+        <v>304</v>
+      </c>
+      <c r="J6" s="48">
+        <v>14</v>
+      </c>
+      <c r="K6" s="48"/>
+      <c r="O6" s="168" t="s">
+        <v>247</v>
+      </c>
+      <c r="P6" s="169" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q6" s="169"/>
+      <c r="R6" s="170"/>
+    </row>
+    <row r="7" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="154" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="94"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="94">
+        <v>11</v>
+      </c>
+      <c r="F7" s="158" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="154" t="s">
+        <v>211</v>
+      </c>
+      <c r="I7" s="58" t="s">
+        <v>179</v>
+      </c>
+      <c r="J7" s="62" t="s">
+        <v>301</v>
+      </c>
+      <c r="K7" s="94"/>
+    </row>
+    <row r="8" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="29"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="94"/>
+      <c r="I8" s="58" t="s">
+        <v>180</v>
+      </c>
+      <c r="J8" s="62" t="s">
+        <v>302</v>
+      </c>
+      <c r="K8" s="94"/>
+    </row>
+    <row r="9" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="29"/>
+      <c r="C9" s="94" t="s">
+        <v>346</v>
+      </c>
+      <c r="D9" s="94"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="94"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
+    </row>
+    <row r="10" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="154" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="94"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="70">
+        <v>44</v>
+      </c>
+      <c r="F10" s="158" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="154" t="s">
+        <v>212</v>
+      </c>
+      <c r="I10" s="55" t="s">
+        <v>305</v>
+      </c>
+      <c r="J10" s="54" t="s">
+        <v>200</v>
+      </c>
+      <c r="K10" s="54" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="29"/>
+      <c r="C11" s="94" t="s">
+        <v>346</v>
+      </c>
+      <c r="D11" s="94"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="94"/>
+      <c r="I11" s="65" t="s">
+        <v>198</v>
+      </c>
+      <c r="J11" s="53" t="s">
+        <v>207</v>
+      </c>
+      <c r="K11" s="56" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="29"/>
+      <c r="C12" s="94"/>
+      <c r="D12" s="94"/>
+      <c r="E12" s="94"/>
+      <c r="F12" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="94"/>
+      <c r="I12" s="103" t="s">
+        <v>202</v>
+      </c>
+      <c r="J12" s="62" t="s">
+        <v>300</v>
+      </c>
+      <c r="K12" s="165" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="29"/>
+      <c r="C13" s="94"/>
+      <c r="D13" s="94"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="94"/>
+      <c r="I13" s="103" t="s">
+        <v>203</v>
+      </c>
+      <c r="J13" s="62" t="s">
+        <v>218</v>
+      </c>
+      <c r="K13" s="165" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="154" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="94"/>
+      <c r="D14" s="94"/>
+      <c r="E14" s="94">
+        <v>14</v>
+      </c>
+      <c r="F14" s="158" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="154" t="s">
+        <v>213</v>
+      </c>
+      <c r="I14" s="104" t="s">
+        <v>205</v>
+      </c>
+      <c r="J14" s="98" t="s">
+        <v>299</v>
+      </c>
+      <c r="K14" s="165" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="154" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="94"/>
+      <c r="D15" s="94"/>
+      <c r="E15" s="94">
+        <v>8</v>
+      </c>
+      <c r="F15" s="158" t="s">
+        <v>72</v>
+      </c>
+      <c r="G15" s="154" t="s">
+        <v>214</v>
+      </c>
+      <c r="I15" s="104" t="s">
+        <v>297</v>
+      </c>
+      <c r="J15" s="98" t="s">
+        <v>298</v>
+      </c>
+      <c r="K15" s="165" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="154" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="94"/>
+      <c r="D16" s="94"/>
+      <c r="E16" s="94">
         <v>27</v>
       </c>
-      <c r="B4" s="128" t="s">
+      <c r="F16" s="158" t="s">
+        <v>74</v>
+      </c>
+      <c r="G16" s="154" t="s">
+        <v>215</v>
+      </c>
+      <c r="I16" s="119" t="s">
+        <v>206</v>
+      </c>
+      <c r="J16" s="64" t="s">
+        <v>345</v>
+      </c>
+      <c r="K16" s="94" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="154" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="94"/>
+      <c r="D17" s="94"/>
+      <c r="E17" s="94">
         <v>14</v>
       </c>
-      <c r="C4" s="89" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="94">
-        <v>2007</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="F4" s="67">
-        <v>20</v>
-      </c>
-      <c r="G4" s="48">
-        <v>1</v>
-      </c>
-      <c r="H4" s="91"/>
-      <c r="I4" s="83" t="s">
-        <v>324</v>
-      </c>
-      <c r="J4" s="94"/>
-      <c r="K4" s="91"/>
-    </row>
-    <row r="5" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="128" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="94">
-        <v>2008</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="F5" s="67">
-        <v>24</v>
-      </c>
-      <c r="G5" s="48">
-        <v>1</v>
-      </c>
-      <c r="H5" s="91"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="94"/>
-      <c r="K5" s="91"/>
-    </row>
-    <row r="6" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="154" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="139" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="94">
-        <v>2015</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="F6" s="67">
-        <v>57</v>
-      </c>
-      <c r="G6" s="48"/>
-      <c r="H6" s="91">
-        <v>1</v>
-      </c>
-      <c r="I6" s="83" t="s">
-        <v>324</v>
-      </c>
-      <c r="J6" s="94"/>
-      <c r="K6" s="91"/>
-    </row>
-    <row r="7" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="129" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="89" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="94">
-        <v>2011</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="F7" s="48">
-        <v>11</v>
-      </c>
-      <c r="G7" s="48">
-        <v>1</v>
-      </c>
-      <c r="H7" s="91"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="94"/>
-      <c r="K7" s="91"/>
-    </row>
-    <row r="8" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="154" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="129" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="94">
-        <v>2010</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="F8" s="48">
+      <c r="F17" s="158" t="s">
+        <v>76</v>
+      </c>
+      <c r="G17" s="154" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="29"/>
+      <c r="C18" s="94"/>
+      <c r="D18" s="94"/>
+      <c r="E18" s="94"/>
+      <c r="F18" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="G18" s="94"/>
+      <c r="I18" s="112" t="s">
+        <v>185</v>
+      </c>
+      <c r="J18" s="113" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="29"/>
+      <c r="C19" s="94"/>
+      <c r="D19" s="94"/>
+      <c r="E19" s="94"/>
+      <c r="F19" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="G19" s="94"/>
+      <c r="I19" s="43" t="s">
+        <v>187</v>
+      </c>
+      <c r="J19" s="37">
         <v>22</v>
       </c>
-      <c r="G8" s="48">
-        <v>1</v>
-      </c>
-      <c r="H8" s="91"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="94"/>
-      <c r="K8" s="91"/>
-    </row>
-    <row r="9" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="129" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="139" t="s">
-        <v>124</v>
-      </c>
-      <c r="D9" s="94">
-        <v>2009</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="F9" s="48">
+    </row>
+    <row r="20" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="29"/>
+      <c r="C20" s="94"/>
+      <c r="D20" s="94"/>
+      <c r="E20" s="94"/>
+      <c r="F20" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="G20" s="94"/>
+      <c r="I20" s="44" t="s">
+        <v>188</v>
+      </c>
+      <c r="J20" s="38">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="29"/>
+      <c r="C21" s="94"/>
+      <c r="D21" s="94"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="G21" s="94"/>
+      <c r="I21" s="43" t="s">
+        <v>189</v>
+      </c>
+      <c r="J21" s="37">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="29"/>
+      <c r="C22" s="94"/>
+      <c r="D22" s="94"/>
+      <c r="E22" s="94"/>
+      <c r="F22" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="G22" s="94"/>
+      <c r="I22" s="44" t="s">
+        <v>190</v>
+      </c>
+      <c r="J22" s="115" t="s">
+        <v>217</v>
+      </c>
+      <c r="K22" s="213" t="s">
+        <v>307</v>
+      </c>
+      <c r="L22" s="213"/>
+      <c r="M22" s="213"/>
+      <c r="N22" s="213"/>
+      <c r="O22" s="213"/>
+      <c r="P22" s="213"/>
+      <c r="Q22" s="213"/>
+      <c r="R22" s="213"/>
+      <c r="S22" s="213"/>
+      <c r="T22" s="213"/>
+      <c r="U22" s="213"/>
+      <c r="V22" s="213"/>
+    </row>
+    <row r="23" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="29"/>
+      <c r="C23" s="94"/>
+      <c r="D23" s="94"/>
+      <c r="E23" s="94"/>
+      <c r="F23" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="G23" s="94"/>
+      <c r="I23" s="43" t="s">
+        <v>191</v>
+      </c>
+      <c r="J23" s="39">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="29"/>
+      <c r="C24" s="94"/>
+      <c r="D24" s="94"/>
+      <c r="E24" s="94"/>
+      <c r="F24" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="G24" s="94"/>
+      <c r="I24" s="44" t="s">
+        <v>192</v>
+      </c>
+      <c r="J24" s="40" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A25" s="94" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" s="94"/>
+      <c r="C25" s="94"/>
+      <c r="D25" s="94"/>
+      <c r="E25" s="154">
+        <f>SUM(E3:E24)</f>
+        <v>162</v>
+      </c>
+      <c r="F25" s="94"/>
+      <c r="G25" s="94"/>
+      <c r="I25" s="43" t="s">
+        <v>193</v>
+      </c>
+      <c r="J25" s="41"/>
+    </row>
+    <row r="26" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="93" t="s">
+        <v>313</v>
+      </c>
+      <c r="B26" s="91"/>
+      <c r="C26" s="91"/>
+      <c r="D26" s="91"/>
+      <c r="E26" s="158" t="s">
+        <v>314</v>
+      </c>
+      <c r="F26" s="114"/>
+      <c r="G26" s="114"/>
+      <c r="I26" s="45" t="s">
+        <v>194</v>
+      </c>
+      <c r="J26" s="42">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="101" t="s">
+        <v>311</v>
+      </c>
+      <c r="B27" s="102"/>
+      <c r="C27" s="102"/>
+      <c r="D27" s="118"/>
+      <c r="I27" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="J27" s="108">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A28" s="155" t="s">
+        <v>312</v>
+      </c>
+      <c r="B28" s="156"/>
+      <c r="C28" s="156"/>
+      <c r="D28" s="157"/>
+      <c r="I28" s="110" t="s">
+        <v>294</v>
+      </c>
+      <c r="J28" s="111" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A29" s="215"/>
+      <c r="B29" s="216"/>
+      <c r="C29" s="216"/>
+      <c r="D29" s="217"/>
+      <c r="I29" s="43" t="s">
+        <v>187</v>
+      </c>
+      <c r="J29" s="37">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="I30" s="44" t="s">
+        <v>188</v>
+      </c>
+      <c r="J30" s="38">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A31" s="218" t="s">
+        <v>181</v>
+      </c>
+      <c r="B31" s="219"/>
+      <c r="C31" s="68"/>
+      <c r="I31" s="43" t="s">
+        <v>189</v>
+      </c>
+      <c r="J31" s="37">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A32" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="48"/>
-      <c r="H9" s="91">
-        <v>1</v>
-      </c>
-      <c r="I9" s="48"/>
-      <c r="J9" s="94"/>
-      <c r="K9" s="91"/>
-    </row>
-    <row r="10" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="130" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" s="89" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="94">
-        <v>2010</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="F10" s="48">
-        <v>43</v>
-      </c>
-      <c r="G10" s="48">
-        <v>1</v>
-      </c>
-      <c r="H10" s="91"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="94"/>
-      <c r="K10" s="91"/>
-    </row>
-    <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="129" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="89" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11" s="94">
-        <v>2010</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="F11" s="48">
-        <v>11</v>
-      </c>
-      <c r="G11" s="48">
-        <v>1</v>
-      </c>
-      <c r="H11" s="91"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="94"/>
-      <c r="K11" s="91"/>
-    </row>
-    <row r="12" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="129" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" s="89" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="94">
-        <v>1999</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="F12" s="2">
-        <v>37</v>
-      </c>
-      <c r="G12" s="48">
-        <v>1</v>
-      </c>
-      <c r="H12" s="91"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="94"/>
-      <c r="K12" s="91"/>
-    </row>
-    <row r="13" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="129" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="D13" s="94">
-        <v>2005</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="F13" s="48">
-        <v>16</v>
-      </c>
-      <c r="G13" s="48"/>
-      <c r="H13" s="91"/>
-      <c r="I13" s="83" t="s">
-        <v>324</v>
-      </c>
-      <c r="J13" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="K13" s="75" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="129" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" s="89" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" s="94">
-        <v>2008</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="F14" s="48">
-        <v>14</v>
-      </c>
-      <c r="G14" s="48">
-        <v>1</v>
-      </c>
-      <c r="H14" s="91"/>
-      <c r="I14" s="83" t="s">
-        <v>324</v>
-      </c>
-      <c r="J14" s="94"/>
-      <c r="K14" s="91"/>
-    </row>
-    <row r="15" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="129" t="s">
-        <v>72</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="D15" s="94">
-        <v>2011</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="F15" s="48">
-        <v>8</v>
-      </c>
-      <c r="G15" s="48">
-        <v>1</v>
-      </c>
-      <c r="H15" s="91"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="94"/>
-      <c r="K15" s="91"/>
-    </row>
-    <row r="16" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="129" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="D16" s="94">
-        <v>2009</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="F16" s="48">
-        <v>27</v>
-      </c>
-      <c r="G16" s="48">
-        <v>1</v>
-      </c>
-      <c r="H16" s="91"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="94"/>
-      <c r="K16" s="91"/>
-    </row>
-    <row r="17" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="129" t="s">
-        <v>76</v>
-      </c>
-      <c r="C17" s="89" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" s="94">
-        <v>1997</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="F17" s="48">
-        <v>14</v>
-      </c>
-      <c r="G17" s="48">
-        <v>1</v>
-      </c>
-      <c r="H17" s="91"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="94"/>
-      <c r="K17" s="91"/>
-    </row>
-    <row r="18" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="154" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" s="129" t="s">
-        <v>77</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="D18" s="94">
-        <v>2010</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="F18" s="48">
-        <v>8</v>
-      </c>
-      <c r="G18" s="48"/>
-      <c r="H18" s="91">
-        <v>1</v>
-      </c>
-      <c r="I18" s="83" t="s">
-        <v>324</v>
-      </c>
-      <c r="J18" s="94"/>
-      <c r="K18" s="91"/>
-    </row>
-    <row r="19" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" s="130" t="s">
-        <v>79</v>
-      </c>
-      <c r="C19" s="89" t="s">
-        <v>80</v>
-      </c>
-      <c r="D19" s="94">
-        <v>2005</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="F19" s="48">
-        <v>15</v>
-      </c>
-      <c r="G19" s="48">
-        <v>1</v>
-      </c>
-      <c r="H19" s="91"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="94"/>
-      <c r="K19" s="91"/>
-    </row>
-    <row r="20" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" s="130" t="s">
-        <v>82</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="D20" s="94">
-        <v>2011</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="F20" s="48">
-        <v>18</v>
-      </c>
-      <c r="G20" s="48"/>
-      <c r="H20" s="91"/>
-      <c r="I20" s="136" t="s">
-        <v>329</v>
-      </c>
-      <c r="J20" s="85" t="s">
-        <v>19</v>
-      </c>
-      <c r="K20" s="75" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21" s="130" t="s">
-        <v>84</v>
-      </c>
-      <c r="C21" s="139" t="s">
-        <v>85</v>
-      </c>
-      <c r="D21" s="94">
-        <v>2008</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="F21" s="48">
-        <v>22</v>
-      </c>
-      <c r="G21" s="48"/>
-      <c r="H21" s="91">
-        <v>1</v>
-      </c>
-      <c r="I21" s="48"/>
-      <c r="J21" s="94"/>
-      <c r="K21" s="1"/>
-    </row>
-    <row r="22" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" s="130" t="s">
-        <v>86</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="D22" s="94">
-        <v>2015</v>
-      </c>
-      <c r="E22" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="F22" s="48">
-        <v>15</v>
-      </c>
-      <c r="G22" s="48"/>
-      <c r="H22" s="91"/>
-      <c r="I22" s="83" t="s">
-        <v>324</v>
-      </c>
-      <c r="J22" s="85" t="s">
-        <v>19</v>
-      </c>
-      <c r="K22" s="75" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B23" s="130" t="s">
-        <v>88</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="D23" s="94">
-        <v>2000</v>
-      </c>
-      <c r="E23" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="F23" s="48">
-        <v>11</v>
-      </c>
-      <c r="G23" s="48"/>
-      <c r="H23" s="91"/>
-      <c r="I23" s="136" t="s">
-        <v>329</v>
-      </c>
-      <c r="J23" s="85" t="s">
-        <v>19</v>
-      </c>
-      <c r="K23" s="75" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B24" s="130" t="s">
-        <v>91</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="D24" s="94">
-        <v>2010</v>
-      </c>
-      <c r="E24" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="F24" s="48">
-        <v>33</v>
-      </c>
-      <c r="G24" s="48">
-        <v>1</v>
-      </c>
-      <c r="H24" s="91"/>
-      <c r="I24" s="83" t="s">
-        <v>324</v>
-      </c>
-      <c r="J24" s="94"/>
-      <c r="K24" s="91"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E25" s="162" t="s">
-        <v>81</v>
-      </c>
-      <c r="F25" s="163">
-        <f>SUM(F3:F24)</f>
-        <v>464</v>
-      </c>
-      <c r="G25" s="164">
-        <f>SUM(G3:G24)</f>
+      <c r="B32" s="94" t="s">
+        <v>196</v>
+      </c>
+      <c r="I32" s="44" t="s">
+        <v>295</v>
+      </c>
+      <c r="J32" s="116" t="s">
+        <v>308</v>
+      </c>
+      <c r="K32" s="214" t="s">
+        <v>306</v>
+      </c>
+      <c r="L32" s="214"/>
+      <c r="M32" s="214"/>
+      <c r="N32" s="214"/>
+      <c r="O32" s="214"/>
+      <c r="P32" s="214"/>
+      <c r="Q32" s="214"/>
+      <c r="R32" s="214"/>
+      <c r="S32" s="214"/>
+      <c r="T32" s="214"/>
+      <c r="U32" s="214"/>
+      <c r="V32" s="214"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="84" t="s">
+        <v>182</v>
+      </c>
+      <c r="B33" s="165" t="s">
+        <v>222</v>
+      </c>
+      <c r="I33" s="43" t="s">
+        <v>191</v>
+      </c>
+      <c r="J33" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="100" t="s">
+        <v>183</v>
+      </c>
+      <c r="B34" s="165" t="s">
+        <v>223</v>
+      </c>
+      <c r="I34" s="44" t="s">
+        <v>192</v>
+      </c>
+      <c r="J34" s="40" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="207" t="s">
+        <v>184</v>
+      </c>
+      <c r="B35" s="209" t="s">
+        <v>219</v>
+      </c>
+      <c r="I35" s="43" t="s">
+        <v>193</v>
+      </c>
+      <c r="J35" s="41"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="208"/>
+      <c r="B36" s="210"/>
+      <c r="I36" s="105" t="s">
+        <v>296</v>
+      </c>
+      <c r="J36" s="106">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I37" s="107" t="s">
+        <v>195</v>
+      </c>
+      <c r="J37" s="109">
         <v>13</v>
       </c>
-      <c r="H25" s="162">
-        <f>SUM(H3:H24)</f>
-        <v>4</v>
-      </c>
-      <c r="I25" s="164"/>
-      <c r="J25" s="138"/>
-    </row>
-    <row r="28" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="66"/>
+    </row>
+    <row r="38" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="125" t="s">
+        <v>317</v>
+      </c>
+      <c r="B38" s="123" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="124" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" s="122">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="84" t="s">
+        <v>182</v>
+      </c>
+      <c r="B40" s="122">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="84" t="s">
+        <v>183</v>
+      </c>
+      <c r="B41" s="122">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="120" t="s">
+        <v>184</v>
+      </c>
+      <c r="B42" s="122">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C47" s="99"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="121"/>
+      <c r="B48" s="92"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:K1"/>
+  <mergeCells count="8">
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="K22:V22"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="K32:V32"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="K3" r:id="rId1"/>
-    <hyperlink ref="K13" r:id="rId2"/>
-    <hyperlink ref="K20" r:id="rId3"/>
-    <hyperlink ref="K22" r:id="rId4"/>
-    <hyperlink ref="K23" r:id="rId5"/>
-  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="71" customWidth="1"/>
+    <col min="2" max="2" width="65.140625" customWidth="1"/>
+    <col min="3" max="3" width="46.28515625" customWidth="1"/>
+    <col min="5" max="5" width="30.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="211" t="s">
-        <v>333</v>
-      </c>
-      <c r="B1" s="212"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
-        <v>248</v>
-      </c>
-      <c r="B2" s="142" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="79" t="s">
-        <v>270</v>
-      </c>
-      <c r="B3" s="75" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="79" t="s">
-        <v>331</v>
-      </c>
-      <c r="B4" s="6">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="79" t="s">
-        <v>332</v>
-      </c>
-      <c r="B5" s="141" t="s">
-        <v>275</v>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="220" t="s">
+        <v>467</v>
+      </c>
+      <c r="B1" s="220"/>
+      <c r="C1" s="220"/>
+      <c r="D1" s="220"/>
+      <c r="E1" s="220"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="174" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="174" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="174" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="174" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="174" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="229" t="s">
+        <v>359</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>400</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>358</v>
+      </c>
+      <c r="D3" s="18">
+        <v>1999</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="227" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>363</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>362</v>
+      </c>
+      <c r="D4" s="18">
+        <v>2010</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="227" t="s">
+        <v>364</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>367</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>366</v>
+      </c>
+      <c r="D5" s="18">
+        <v>2014</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="227" t="s">
+        <v>368</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>370</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>371</v>
+      </c>
+      <c r="D6" s="18">
+        <v>2014</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="227" t="s">
+        <v>372</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>374</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>375</v>
+      </c>
+      <c r="D7" s="18">
+        <v>2002</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="227" t="s">
+        <v>379</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>378</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>377</v>
+      </c>
+      <c r="D8" s="18">
+        <v>2013</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="229" t="s">
+        <v>380</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>383</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="D9" s="18">
+        <v>1995</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="227" t="s">
+        <v>384</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>386</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="D10" s="18">
+        <v>2010</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="227" t="s">
+        <v>388</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>391</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>390</v>
+      </c>
+      <c r="D11" s="18">
+        <v>2010</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="229" t="s">
+        <v>392</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>394</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>395</v>
+      </c>
+      <c r="D12" s="18">
+        <v>2000</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="227" t="s">
+        <v>396</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>399</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>398</v>
+      </c>
+      <c r="D13" s="18">
+        <v>2014</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="232" t="s">
+        <v>401</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>403</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>404</v>
+      </c>
+      <c r="D14" s="18">
+        <v>2010</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="232" t="s">
+        <v>405</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>407</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>406</v>
+      </c>
+      <c r="D15" s="18">
+        <v>2010</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="228" t="s">
+        <v>408</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>410</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>411</v>
+      </c>
+      <c r="D16" s="18">
+        <v>2005</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="228" t="s">
+        <v>412</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>414</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>415</v>
+      </c>
+      <c r="D17" s="18">
+        <v>1998</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="228" t="s">
+        <v>416</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>420</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>417</v>
+      </c>
+      <c r="D18" s="18">
+        <v>2007</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="229" t="s">
+        <v>418</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>423</v>
+      </c>
+      <c r="D19" s="18">
+        <v>2014</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="227" t="s">
+        <v>424</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>469</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>426</v>
+      </c>
+      <c r="D20" s="18">
+        <v>2013</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="229" t="s">
+        <v>427</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>429</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>428</v>
+      </c>
+      <c r="D21" s="18">
+        <v>2013</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="227" t="s">
+        <v>430</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>432</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>433</v>
+      </c>
+      <c r="D22" s="18">
+        <v>2007</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A23" s="227" t="s">
+        <v>434</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>437</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>436</v>
+      </c>
+      <c r="D23" s="18">
+        <v>2011</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A24" s="229" t="s">
+        <v>438</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>441</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>440</v>
+      </c>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="229" t="s">
+        <v>442</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>444</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>445</v>
+      </c>
+      <c r="D25" s="18">
+        <v>2010</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="232" t="s">
+        <v>446</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>447</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>448</v>
+      </c>
+      <c r="D26" s="18">
+        <v>2006</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="232" t="s">
+        <v>449</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>452</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>451</v>
+      </c>
+      <c r="D27" s="18">
+        <v>2011</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" s="232" t="s">
+        <v>453</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>470</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>458</v>
+      </c>
+      <c r="D28" s="18">
+        <v>2004</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A29" s="229" t="s">
+        <v>454</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>460</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>461</v>
+      </c>
+      <c r="D29" s="18">
+        <v>2010</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="228" t="s">
+        <v>455</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>464</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>463</v>
+      </c>
+      <c r="D30" s="18">
+        <v>2003</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A31" s="229" t="s">
+        <v>456</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>465</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>466</v>
+      </c>
+      <c r="D31" s="18">
+        <v>2007</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>421</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12" style="90" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="12" style="90" customWidth="1"/>
-    <col min="5" max="7" width="15.28515625" style="90" customWidth="1"/>
-    <col min="8" max="8" width="18" style="90" customWidth="1"/>
-    <col min="9" max="9" width="42" style="90" customWidth="1"/>
-    <col min="10" max="10" width="26" style="90" customWidth="1"/>
-    <col min="11" max="11" width="5.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.42578125" style="90" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="90"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="213" t="s">
-        <v>327</v>
-      </c>
-      <c r="B1" s="213"/>
-      <c r="C1" s="213"/>
-      <c r="D1" s="213"/>
-      <c r="E1" s="213"/>
-      <c r="F1" s="213"/>
-      <c r="G1" s="213"/>
-      <c r="H1" s="213"/>
-      <c r="I1" s="213"/>
-      <c r="J1" s="213"/>
-      <c r="K1" s="213"/>
-      <c r="L1" s="213"/>
-    </row>
-    <row r="2" spans="1:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="143" t="s">
-        <v>123</v>
-      </c>
-      <c r="B2" s="143" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="144" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="143" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="143" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="143" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="143" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="143" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="143" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" s="143" t="s">
-        <v>35</v>
-      </c>
-      <c r="K2" s="143" t="s">
-        <v>36</v>
-      </c>
-      <c r="L2" s="143" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="135" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="135" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="135" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="128" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="89" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="94" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" s="18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="128" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="89" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="94">
-        <v>2007</v>
-      </c>
-      <c r="L4" s="18" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="128" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" s="94">
-        <v>2008</v>
-      </c>
-      <c r="L5" s="18" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="117" t="s">
-        <v>33</v>
-      </c>
-      <c r="J6" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="K6" s="94">
-        <v>2015</v>
-      </c>
-      <c r="L6" s="18" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="129" t="s">
-        <v>56</v>
-      </c>
-      <c r="J7" s="89" t="s">
-        <v>57</v>
-      </c>
-      <c r="K7" s="94">
-        <v>2011</v>
-      </c>
-      <c r="L7" s="19" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="129" t="s">
-        <v>58</v>
-      </c>
-      <c r="J8" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="K8" s="94">
-        <v>2010</v>
-      </c>
-      <c r="L8" s="19" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="129" t="s">
-        <v>60</v>
-      </c>
-      <c r="J9" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="K9" s="94">
-        <v>2009</v>
-      </c>
-      <c r="L9" s="19" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="130" t="s">
-        <v>62</v>
-      </c>
-      <c r="J10" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="K10" s="94">
-        <v>2010</v>
-      </c>
-      <c r="L10" s="19" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="129" t="s">
-        <v>63</v>
-      </c>
-      <c r="J11" s="89" t="s">
-        <v>64</v>
-      </c>
-      <c r="K11" s="94">
-        <v>2010</v>
-      </c>
-      <c r="L11" s="19" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" s="129" t="s">
-        <v>66</v>
-      </c>
-      <c r="J12" s="89" t="s">
-        <v>65</v>
-      </c>
-      <c r="K12" s="94">
-        <v>1999</v>
-      </c>
-      <c r="L12" s="20" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="135" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="135" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="135" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" s="135" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" s="129" t="s">
-        <v>68</v>
-      </c>
-      <c r="J13" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="K13" s="94">
-        <v>2005</v>
-      </c>
-      <c r="L13" s="20" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" s="129" t="s">
-        <v>70</v>
-      </c>
-      <c r="J14" s="89" t="s">
-        <v>71</v>
-      </c>
-      <c r="K14" s="94">
-        <v>2008</v>
-      </c>
-      <c r="L14" s="20" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I15" s="129" t="s">
-        <v>72</v>
-      </c>
-      <c r="J15" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="K15" s="94">
-        <v>2011</v>
-      </c>
-      <c r="L15" s="19" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I16" s="129" t="s">
-        <v>74</v>
-      </c>
-      <c r="J16" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="K16" s="94">
-        <v>2009</v>
-      </c>
-      <c r="L16" s="19" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17" s="129" t="s">
-        <v>76</v>
-      </c>
-      <c r="J17" s="89" t="s">
-        <v>61</v>
-      </c>
-      <c r="K17" s="94">
-        <v>1997</v>
-      </c>
-      <c r="L17" s="19" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H18" s="2"/>
-      <c r="I18" s="129" t="s">
-        <v>77</v>
-      </c>
-      <c r="J18" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="K18" s="94">
-        <v>2010</v>
-      </c>
-      <c r="L18" s="19" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I19" s="130" t="s">
-        <v>79</v>
-      </c>
-      <c r="J19" s="89" t="s">
-        <v>80</v>
-      </c>
-      <c r="K19" s="94">
-        <v>2005</v>
-      </c>
-      <c r="L19" s="19" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" s="135" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="135" t="s">
-        <v>19</v>
-      </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="135" t="s">
-        <v>18</v>
-      </c>
-      <c r="I20" s="130" t="s">
-        <v>82</v>
-      </c>
-      <c r="J20" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="K20" s="94">
-        <v>2011</v>
-      </c>
-      <c r="L20" s="19" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I21" s="130" t="s">
-        <v>84</v>
-      </c>
-      <c r="J21" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="K21" s="94">
-        <v>2008</v>
-      </c>
-      <c r="L21" s="19" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" s="135" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="135" t="s">
-        <v>19</v>
-      </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="135" t="s">
-        <v>18</v>
-      </c>
-      <c r="I22" s="130" t="s">
-        <v>86</v>
-      </c>
-      <c r="J22" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="K22" s="94">
-        <v>2015</v>
-      </c>
-      <c r="L22" s="19" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B23" s="135" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="135" t="s">
-        <v>19</v>
-      </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="135" t="s">
-        <v>18</v>
-      </c>
-      <c r="I23" s="130" t="s">
-        <v>88</v>
-      </c>
-      <c r="J23" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="K23" s="94">
-        <v>2000</v>
-      </c>
-      <c r="L23" s="19" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I24" s="130" t="s">
-        <v>91</v>
-      </c>
-      <c r="J24" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="K24" s="94">
-        <v>2010</v>
-      </c>
-      <c r="L24" s="19" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L25" s="92"/>
-    </row>
-    <row r="26" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="135"/>
-      <c r="B26" s="214" t="s">
-        <v>334</v>
-      </c>
-      <c r="C26" s="215"/>
-      <c r="D26" s="215"/>
-      <c r="E26" s="215"/>
-      <c r="F26" s="215"/>
-      <c r="G26" s="215"/>
-      <c r="H26" s="216"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="66"/>
-      <c r="B28" s="66"/>
-      <c r="C28" s="66"/>
-      <c r="D28" s="66"/>
-      <c r="E28" s="66"/>
-      <c r="F28" s="66"/>
-      <c r="G28" s="66"/>
-      <c r="H28" s="66"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="B26:H26"/>
-  </mergeCells>
+  <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/Experiment01_Resumo/Resumo_Exp01.xlsx
+++ b/Experiment01_Resumo/Resumo_Exp01.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Capa" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="ResearchQuestions" sheetId="11" r:id="rId5"/>
     <sheet name="Scopus" sheetId="10" r:id="rId6"/>
     <sheet name="BSB-FSB" sheetId="16" r:id="rId7"/>
-    <sheet name="29 restantes" sheetId="17" r:id="rId8"/>
+    <sheet name="NewSetOfPapers" sheetId="17" r:id="rId8"/>
     <sheet name="SeedSet_DL" sheetId="18" r:id="rId9"/>
     <sheet name="Não encontrados na Busca" sheetId="15" r:id="rId10"/>
     <sheet name="BuscaGoogleScholar" sheetId="13" r:id="rId11"/>
@@ -1456,10 +1456,6 @@
     <t>P. V. Martins, A. R. Silva</t>
   </si>
   <si>
-    <t>Managing Worldwide Operations Communications with
-Information Technology, Information Resources Management Association, USA, 2007.</t>
-  </si>
-  <si>
     <t>ProPAM: SPI based on Process and Project Alignment</t>
   </si>
   <si>
@@ -1540,10 +1536,6 @@
     <t>GQM + Strategies: A comprehensive methodology for aligning business strategies with software measurement</t>
   </si>
   <si>
-    <t>Proceedings of the DASMA Software Metric Congress
-(MetriKon 2007), 2007, pp. 253–266.</t>
-  </si>
-  <si>
     <t>Snowballind add Primary Studies to the Filtered Dataset</t>
   </si>
   <si>
@@ -1554,6 +1546,12 @@
   </si>
   <si>
     <t>Business Objectives as Drivers for Process Improvement: Practices and Experiences at Thales Naval The Netherlands (TNNL)</t>
+  </si>
+  <si>
+    <t>Managing Worldwide Operations Communications with Information Technology, Information Resources Management Association, USA, 2007.</t>
+  </si>
+  <si>
+    <t>Proceedings of the DASMA Software Metric Congress (MetriKon 2007), 2007, pp. 253–266.</t>
   </si>
 </sst>
 </file>
@@ -1652,7 +1650,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="25">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1793,7 +1791,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF7030A0"/>
+        <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF99FF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2246,7 +2250,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="233">
+  <cellXfs count="234">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2694,6 +2698,21 @@
     <xf numFmtId="0" fontId="1" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2742,6 +2761,33 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2751,12 +2797,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2769,27 +2809,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2850,22 +2869,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2878,10 +2885,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF99FF"/>
       <color rgb="FFFFCCCC"/>
       <color rgb="FFFF6699"/>
       <color rgb="FFFF3399"/>
-      <color rgb="FFFF99FF"/>
       <color rgb="FFFF66FF"/>
     </mruColors>
   </colors>
@@ -3192,12 +3199,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="195563936"/>
-        <c:axId val="195559232"/>
+        <c:axId val="187473096"/>
+        <c:axId val="187470744"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="195563936"/>
+        <c:axId val="187473096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3290,7 +3297,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195559232"/>
+        <c:crossAx val="187470744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3298,7 +3305,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="195559232"/>
+        <c:axId val="187470744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3349,7 +3356,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195563936"/>
+        <c:crossAx val="187473096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3572,7 +3579,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3660,12 +3666,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="195565112"/>
-        <c:axId val="195562368"/>
+        <c:axId val="187473880"/>
+        <c:axId val="187475056"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="195565112"/>
+        <c:axId val="187473880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3694,7 +3700,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3755,7 +3760,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195562368"/>
+        <c:crossAx val="187475056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3763,7 +3768,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="195562368"/>
+        <c:axId val="187475056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3792,7 +3797,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3847,7 +3851,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195565112"/>
+        <c:crossAx val="187473880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3861,7 +3865,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4046,7 +4049,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4134,12 +4136,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="195561192"/>
-        <c:axId val="195563544"/>
+        <c:axId val="187469960"/>
+        <c:axId val="187470352"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="195561192"/>
+        <c:axId val="187469960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4168,7 +4170,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4229,7 +4230,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195563544"/>
+        <c:crossAx val="187470352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4237,7 +4238,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="195563544"/>
+        <c:axId val="187470352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4266,7 +4267,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4321,7 +4321,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195561192"/>
+        <c:crossAx val="187469960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4335,7 +4335,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5110,12 +5109,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="195559624"/>
-        <c:axId val="195558056"/>
+        <c:axId val="189436304"/>
+        <c:axId val="189437480"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="195559624"/>
+        <c:axId val="189436304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5155,7 +5154,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195558056"/>
+        <c:crossAx val="189437480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5163,7 +5162,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="195558056"/>
+        <c:axId val="189437480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5211,7 +5210,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195559624"/>
+        <c:crossAx val="189436304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5521,8 +5520,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="195557664"/>
-        <c:axId val="195561976"/>
+        <c:axId val="189442184"/>
+        <c:axId val="189437872"/>
         <c:axId val="0"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
@@ -5692,7 +5691,7 @@
         </c:extLst>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="195557664"/>
+        <c:axId val="189442184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5791,7 +5790,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195561976"/>
+        <c:crossAx val="189437872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5799,7 +5798,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="195561976"/>
+        <c:axId val="189437872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5879,7 +5878,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="195557664"/>
+        <c:crossAx val="189442184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6124,7 +6123,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -6195,8 +6193,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="219454040"/>
-        <c:axId val="219460704"/>
+        <c:axId val="189441400"/>
+        <c:axId val="189435128"/>
         <c:axId val="0"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
@@ -6366,7 +6364,7 @@
         </c:extLst>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="219454040"/>
+        <c:axId val="189441400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6398,7 +6396,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6465,7 +6462,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="219460704"/>
+        <c:crossAx val="189435128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6473,7 +6470,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="219460704"/>
+        <c:axId val="189435128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6519,7 +6516,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6553,7 +6549,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="219454040"/>
+        <c:crossAx val="189441400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6567,7 +6563,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10252,22 +10247,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="175" t="s">
+      <c r="A1" s="180" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="176"/>
+      <c r="B1" s="181"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="177" t="s">
+      <c r="A2" s="182" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="178"/>
+      <c r="B2" s="183"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="177" t="s">
+      <c r="A3" s="182" t="s">
         <v>96</v>
       </c>
-      <c r="B3" s="178"/>
+      <c r="B3" s="183"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -10302,10 +10297,10 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="179" t="s">
+      <c r="A8" s="184" t="s">
         <v>103</v>
       </c>
-      <c r="B8" s="180"/>
+      <c r="B8" s="185"/>
     </row>
     <row r="9" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
@@ -10395,19 +10390,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="190" t="s">
+      <c r="A1" s="195" t="s">
         <v>326</v>
       </c>
-      <c r="B1" s="190"/>
-      <c r="C1" s="190"/>
-      <c r="D1" s="190"/>
-      <c r="E1" s="190"/>
-      <c r="F1" s="190"/>
-      <c r="G1" s="190"/>
-      <c r="H1" s="190"/>
-      <c r="I1" s="190"/>
-      <c r="J1" s="190"/>
-      <c r="K1" s="190"/>
+      <c r="B1" s="195"/>
+      <c r="C1" s="195"/>
+      <c r="D1" s="195"/>
+      <c r="E1" s="195"/>
+      <c r="F1" s="195"/>
+      <c r="G1" s="195"/>
+      <c r="H1" s="195"/>
+      <c r="I1" s="195"/>
+      <c r="J1" s="195"/>
+      <c r="K1" s="195"/>
     </row>
     <row r="2" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
@@ -11129,10 +11124,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="221" t="s">
+      <c r="A1" s="226" t="s">
         <v>333</v>
       </c>
-      <c r="B1" s="222"/>
+      <c r="B1" s="227"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="79" t="s">
@@ -11200,20 +11195,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="223" t="s">
+      <c r="A1" s="228" t="s">
         <v>327</v>
       </c>
-      <c r="B1" s="223"/>
-      <c r="C1" s="223"/>
-      <c r="D1" s="223"/>
-      <c r="E1" s="223"/>
-      <c r="F1" s="223"/>
-      <c r="G1" s="223"/>
-      <c r="H1" s="223"/>
-      <c r="I1" s="223"/>
-      <c r="J1" s="223"/>
-      <c r="K1" s="223"/>
-      <c r="L1" s="223"/>
+      <c r="B1" s="228"/>
+      <c r="C1" s="228"/>
+      <c r="D1" s="228"/>
+      <c r="E1" s="228"/>
+      <c r="F1" s="228"/>
+      <c r="G1" s="228"/>
+      <c r="H1" s="228"/>
+      <c r="I1" s="228"/>
+      <c r="J1" s="228"/>
+      <c r="K1" s="228"/>
+      <c r="L1" s="228"/>
     </row>
     <row r="2" spans="1:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="143" t="s">
@@ -11932,15 +11927,15 @@
     </row>
     <row r="26" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="135"/>
-      <c r="B26" s="224" t="s">
+      <c r="B26" s="229" t="s">
         <v>334</v>
       </c>
-      <c r="C26" s="225"/>
-      <c r="D26" s="225"/>
-      <c r="E26" s="225"/>
-      <c r="F26" s="225"/>
-      <c r="G26" s="225"/>
-      <c r="H26" s="226"/>
+      <c r="C26" s="230"/>
+      <c r="D26" s="230"/>
+      <c r="E26" s="230"/>
+      <c r="F26" s="230"/>
+      <c r="G26" s="230"/>
+      <c r="H26" s="231"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="66"/>
@@ -12106,10 +12101,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="185" t="s">
+      <c r="A1" s="190" t="s">
         <v>151</v>
       </c>
-      <c r="B1" s="186"/>
+      <c r="B1" s="191"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
@@ -12142,16 +12137,16 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="181" t="s">
+      <c r="A6" s="186" t="s">
         <v>147</v>
       </c>
-      <c r="B6" s="182"/>
+      <c r="B6" s="187"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="183" t="s">
+      <c r="A7" s="188" t="s">
         <v>150</v>
       </c>
-      <c r="B7" s="184"/>
+      <c r="B7" s="189"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
@@ -12233,16 +12228,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="187" t="s">
+      <c r="A1" s="192" t="s">
         <v>336</v>
       </c>
-      <c r="B1" s="188"/>
-      <c r="C1" s="188"/>
-      <c r="D1" s="188"/>
-      <c r="E1" s="188"/>
-      <c r="F1" s="188"/>
-      <c r="G1" s="188"/>
-      <c r="H1" s="189"/>
+      <c r="B1" s="193"/>
+      <c r="C1" s="193"/>
+      <c r="D1" s="193"/>
+      <c r="E1" s="193"/>
+      <c r="F1" s="193"/>
+      <c r="G1" s="193"/>
+      <c r="H1" s="194"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
     </row>
@@ -12611,13 +12606,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="190" t="s">
+      <c r="A1" s="195" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="190"/>
-      <c r="C1" s="190"/>
-      <c r="D1" s="190"/>
-      <c r="E1" s="190"/>
+      <c r="B1" s="195"/>
+      <c r="C1" s="195"/>
+      <c r="D1" s="195"/>
+      <c r="E1" s="195"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
@@ -13049,43 +13044,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="191" t="s">
+      <c r="A1" s="205" t="s">
         <v>230</v>
       </c>
-      <c r="B1" s="192"/>
-      <c r="C1" s="192"/>
-      <c r="D1" s="192"/>
-      <c r="E1" s="192"/>
-      <c r="F1" s="192"/>
-      <c r="G1" s="192"/>
-      <c r="H1" s="192"/>
-      <c r="I1" s="192"/>
+      <c r="B1" s="206"/>
+      <c r="C1" s="206"/>
+      <c r="D1" s="206"/>
+      <c r="E1" s="206"/>
+      <c r="F1" s="206"/>
+      <c r="G1" s="206"/>
+      <c r="H1" s="206"/>
+      <c r="I1" s="206"/>
     </row>
     <row r="2" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="194" t="s">
+      <c r="A2" s="204" t="s">
         <v>229</v>
       </c>
-      <c r="B2" s="194"/>
-      <c r="C2" s="194"/>
-      <c r="D2" s="194"/>
-      <c r="E2" s="194"/>
-      <c r="F2" s="194"/>
-      <c r="G2" s="194"/>
-      <c r="H2" s="194"/>
-      <c r="I2" s="194"/>
+      <c r="B2" s="204"/>
+      <c r="C2" s="204"/>
+      <c r="D2" s="204"/>
+      <c r="E2" s="204"/>
+      <c r="F2" s="204"/>
+      <c r="G2" s="204"/>
+      <c r="H2" s="204"/>
+      <c r="I2" s="204"/>
     </row>
     <row r="3" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="195" t="s">
+      <c r="A3" s="197" t="s">
         <v>337</v>
       </c>
-      <c r="B3" s="195"/>
-      <c r="C3" s="195"/>
-      <c r="D3" s="195"/>
-      <c r="E3" s="195"/>
-      <c r="F3" s="195"/>
-      <c r="G3" s="195"/>
-      <c r="H3" s="195"/>
-      <c r="I3" s="195"/>
+      <c r="B3" s="197"/>
+      <c r="C3" s="197"/>
+      <c r="D3" s="197"/>
+      <c r="E3" s="197"/>
+      <c r="F3" s="197"/>
+      <c r="G3" s="197"/>
+      <c r="H3" s="197"/>
+      <c r="I3" s="197"/>
       <c r="J3" s="71"/>
       <c r="K3" s="71"/>
       <c r="L3" s="71"/>
@@ -13098,12 +13093,12 @@
       <c r="S3" s="71"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="193" t="s">
+      <c r="A4" s="207" t="s">
         <v>253</v>
       </c>
-      <c r="B4" s="193"/>
-      <c r="C4" s="193"/>
-      <c r="D4" s="193"/>
+      <c r="B4" s="207"/>
+      <c r="C4" s="207"/>
+      <c r="D4" s="207"/>
     </row>
     <row r="5" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="69" t="s">
@@ -13129,7 +13124,7 @@
       <c r="C6" s="49" t="s">
         <v>196</v>
       </c>
-      <c r="D6" s="204" t="s">
+      <c r="D6" s="201" t="s">
         <v>339</v>
       </c>
       <c r="N6" s="26"/>
@@ -13144,7 +13139,7 @@
       <c r="C7" s="49" t="s">
         <v>228</v>
       </c>
-      <c r="D7" s="205"/>
+      <c r="D7" s="202"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="78" t="s">
@@ -13156,7 +13151,7 @@
       <c r="C8" s="49" t="s">
         <v>235</v>
       </c>
-      <c r="D8" s="205"/>
+      <c r="D8" s="202"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="78" t="s">
@@ -13168,7 +13163,7 @@
       <c r="C9" s="49" t="s">
         <v>236</v>
       </c>
-      <c r="D9" s="205"/>
+      <c r="D9" s="202"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="78" t="s">
@@ -13180,7 +13175,7 @@
       <c r="C10" s="49" t="s">
         <v>237</v>
       </c>
-      <c r="D10" s="205"/>
+      <c r="D10" s="202"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="78" t="s">
@@ -13192,7 +13187,7 @@
       <c r="C11" s="49" t="s">
         <v>237</v>
       </c>
-      <c r="D11" s="205"/>
+      <c r="D11" s="202"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="78" t="s">
@@ -13204,7 +13199,7 @@
       <c r="C12" s="49" t="s">
         <v>266</v>
       </c>
-      <c r="D12" s="205"/>
+      <c r="D12" s="202"/>
     </row>
     <row r="13" spans="1:19" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="146" t="s">
@@ -13216,7 +13211,7 @@
       <c r="C13" s="137" t="s">
         <v>273</v>
       </c>
-      <c r="D13" s="206"/>
+      <c r="D13" s="203"/>
     </row>
     <row r="14" spans="1:19" s="77" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="147" t="s">
@@ -13233,30 +13228,30 @@
       </c>
     </row>
     <row r="15" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="194" t="s">
+      <c r="A15" s="204" t="s">
         <v>261</v>
       </c>
-      <c r="B15" s="194"/>
-      <c r="C15" s="194"/>
-      <c r="D15" s="194"/>
-      <c r="E15" s="194"/>
-      <c r="F15" s="194"/>
-      <c r="G15" s="194"/>
-      <c r="H15" s="194"/>
-      <c r="I15" s="194"/>
+      <c r="B15" s="204"/>
+      <c r="C15" s="204"/>
+      <c r="D15" s="204"/>
+      <c r="E15" s="204"/>
+      <c r="F15" s="204"/>
+      <c r="G15" s="204"/>
+      <c r="H15" s="204"/>
+      <c r="I15" s="204"/>
     </row>
     <row r="16" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="195" t="s">
+      <c r="A16" s="197" t="s">
         <v>238</v>
       </c>
-      <c r="B16" s="195"/>
-      <c r="C16" s="195"/>
-      <c r="D16" s="195"/>
-      <c r="E16" s="195"/>
-      <c r="F16" s="195"/>
-      <c r="G16" s="195"/>
-      <c r="H16" s="195"/>
-      <c r="I16" s="195"/>
+      <c r="B16" s="197"/>
+      <c r="C16" s="197"/>
+      <c r="D16" s="197"/>
+      <c r="E16" s="197"/>
+      <c r="F16" s="197"/>
+      <c r="G16" s="197"/>
+      <c r="H16" s="197"/>
+      <c r="I16" s="197"/>
       <c r="J16" s="71"/>
       <c r="K16" s="71"/>
       <c r="L16" s="71"/>
@@ -13269,14 +13264,14 @@
       <c r="S16" s="71"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="193" t="s">
+      <c r="A17" s="207" t="s">
         <v>259</v>
       </c>
-      <c r="B17" s="193"/>
-      <c r="C17" s="193"/>
-      <c r="D17" s="193"/>
-      <c r="E17" s="193"/>
-      <c r="F17" s="193"/>
+      <c r="B17" s="207"/>
+      <c r="C17" s="207"/>
+      <c r="D17" s="207"/>
+      <c r="E17" s="207"/>
+      <c r="F17" s="207"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="69" t="s">
@@ -13419,30 +13414,30 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="194" t="s">
+      <c r="A25" s="204" t="s">
         <v>260</v>
       </c>
-      <c r="B25" s="194"/>
-      <c r="C25" s="194"/>
-      <c r="D25" s="194"/>
-      <c r="E25" s="194"/>
-      <c r="F25" s="194"/>
-      <c r="G25" s="194"/>
-      <c r="H25" s="194"/>
-      <c r="I25" s="194"/>
+      <c r="B25" s="204"/>
+      <c r="C25" s="204"/>
+      <c r="D25" s="204"/>
+      <c r="E25" s="204"/>
+      <c r="F25" s="204"/>
+      <c r="G25" s="204"/>
+      <c r="H25" s="204"/>
+      <c r="I25" s="204"/>
     </row>
     <row r="26" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="195" t="s">
+      <c r="A26" s="197" t="s">
         <v>338</v>
       </c>
-      <c r="B26" s="195"/>
-      <c r="C26" s="195"/>
-      <c r="D26" s="195"/>
-      <c r="E26" s="195"/>
-      <c r="F26" s="195"/>
-      <c r="G26" s="195"/>
-      <c r="H26" s="195"/>
-      <c r="I26" s="195"/>
+      <c r="B26" s="197"/>
+      <c r="C26" s="197"/>
+      <c r="D26" s="197"/>
+      <c r="E26" s="197"/>
+      <c r="F26" s="197"/>
+      <c r="G26" s="197"/>
+      <c r="H26" s="197"/>
+      <c r="I26" s="197"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="69" t="s">
@@ -13454,12 +13449,12 @@
       <c r="C27" s="69" t="s">
         <v>201</v>
       </c>
-      <c r="D27" s="199" t="s">
+      <c r="D27" s="211" t="s">
         <v>292</v>
       </c>
-      <c r="E27" s="199"/>
-      <c r="F27" s="199"/>
-      <c r="G27" s="199"/>
+      <c r="E27" s="211"/>
+      <c r="F27" s="211"/>
+      <c r="G27" s="211"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="52" t="s">
@@ -13471,12 +13466,12 @@
       <c r="C28" s="72">
         <v>0.59</v>
       </c>
-      <c r="D28" s="201" t="s">
+      <c r="D28" s="198" t="s">
         <v>285</v>
       </c>
-      <c r="E28" s="202"/>
-      <c r="F28" s="202"/>
-      <c r="G28" s="203"/>
+      <c r="E28" s="199"/>
+      <c r="F28" s="199"/>
+      <c r="G28" s="200"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="52" t="s">
@@ -13488,12 +13483,12 @@
       <c r="C29" s="72">
         <v>0.77</v>
       </c>
-      <c r="D29" s="196" t="s">
+      <c r="D29" s="208" t="s">
         <v>286</v>
       </c>
-      <c r="E29" s="197"/>
-      <c r="F29" s="197"/>
-      <c r="G29" s="198"/>
+      <c r="E29" s="209"/>
+      <c r="F29" s="209"/>
+      <c r="G29" s="210"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="52" t="s">
@@ -13505,12 +13500,12 @@
       <c r="C30" s="72">
         <v>0.41</v>
       </c>
-      <c r="D30" s="196" t="s">
+      <c r="D30" s="208" t="s">
         <v>287</v>
       </c>
-      <c r="E30" s="197"/>
-      <c r="F30" s="197"/>
-      <c r="G30" s="198"/>
+      <c r="E30" s="209"/>
+      <c r="F30" s="209"/>
+      <c r="G30" s="210"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="52" t="s">
@@ -13522,12 +13517,12 @@
       <c r="C31" s="72">
         <v>0.59</v>
       </c>
-      <c r="D31" s="196" t="s">
+      <c r="D31" s="208" t="s">
         <v>289</v>
       </c>
-      <c r="E31" s="197"/>
-      <c r="F31" s="197"/>
-      <c r="G31" s="198"/>
+      <c r="E31" s="209"/>
+      <c r="F31" s="209"/>
+      <c r="G31" s="210"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="52" t="s">
@@ -13539,12 +13534,12 @@
       <c r="C32" s="72">
         <v>0.5</v>
       </c>
-      <c r="D32" s="196" t="s">
+      <c r="D32" s="208" t="s">
         <v>288</v>
       </c>
-      <c r="E32" s="197"/>
-      <c r="F32" s="197"/>
-      <c r="G32" s="198"/>
+      <c r="E32" s="209"/>
+      <c r="F32" s="209"/>
+      <c r="G32" s="210"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="52" t="s">
@@ -13556,12 +13551,12 @@
       <c r="C33" s="72">
         <v>0.59</v>
       </c>
-      <c r="D33" s="196" t="s">
+      <c r="D33" s="208" t="s">
         <v>290</v>
       </c>
-      <c r="E33" s="197"/>
-      <c r="F33" s="197"/>
-      <c r="G33" s="198"/>
+      <c r="E33" s="209"/>
+      <c r="F33" s="209"/>
+      <c r="G33" s="210"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="52" t="s">
@@ -13573,25 +13568,25 @@
       <c r="C34" s="72">
         <v>0.54</v>
       </c>
-      <c r="D34" s="196" t="s">
+      <c r="D34" s="208" t="s">
         <v>291</v>
       </c>
-      <c r="E34" s="197"/>
-      <c r="F34" s="197"/>
-      <c r="G34" s="198"/>
+      <c r="E34" s="209"/>
+      <c r="F34" s="209"/>
+      <c r="G34" s="210"/>
     </row>
     <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="194" t="s">
+      <c r="A36" s="204" t="s">
         <v>315</v>
       </c>
-      <c r="B36" s="194"/>
-      <c r="C36" s="194"/>
-      <c r="D36" s="194"/>
-      <c r="E36" s="194"/>
-      <c r="F36" s="194"/>
-      <c r="G36" s="194"/>
-      <c r="H36" s="194"/>
-      <c r="I36" s="194"/>
+      <c r="B36" s="204"/>
+      <c r="C36" s="204"/>
+      <c r="D36" s="204"/>
+      <c r="E36" s="204"/>
+      <c r="F36" s="204"/>
+      <c r="G36" s="204"/>
+      <c r="H36" s="204"/>
+      <c r="I36" s="204"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="87" t="s">
@@ -13658,12 +13653,12 @@
       </c>
     </row>
     <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="200" t="s">
+      <c r="A46" s="196" t="s">
         <v>318</v>
       </c>
-      <c r="B46" s="200"/>
-      <c r="C46" s="200"/>
-      <c r="D46" s="200"/>
+      <c r="B46" s="196"/>
+      <c r="C46" s="196"/>
+      <c r="D46" s="196"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="88" t="s">
@@ -13689,7 +13684,7 @@
       <c r="C48" s="126">
         <v>0.59</v>
       </c>
-      <c r="D48" s="231">
+      <c r="D48" s="178">
         <f>2*((B48*C48)/(B48+C48))</f>
         <v>5.3827240375283081E-2</v>
       </c>
@@ -13701,10 +13696,10 @@
       <c r="B49" s="126">
         <v>1.67E-2</v>
       </c>
-      <c r="C49" s="230">
+      <c r="C49" s="177">
         <v>0.77270000000000005</v>
       </c>
-      <c r="D49" s="231">
+      <c r="D49" s="178">
         <f t="shared" ref="D49:D54" si="0">2*((B49*C49)/(B49+C49))</f>
         <v>3.2693412718520394E-2</v>
       </c>
@@ -13719,7 +13714,7 @@
       <c r="C50" s="126">
         <v>0.40899999999999997</v>
       </c>
-      <c r="D50" s="231">
+      <c r="D50" s="178">
         <f t="shared" si="0"/>
         <v>4.3730155056699832E-2</v>
       </c>
@@ -13734,7 +13729,7 @@
       <c r="C51" s="126">
         <v>0.59</v>
       </c>
-      <c r="D51" s="231">
+      <c r="D51" s="178">
         <f t="shared" si="0"/>
         <v>5.5827547230744394E-2</v>
       </c>
@@ -13749,7 +13744,7 @@
       <c r="C52" s="126">
         <v>0.5</v>
       </c>
-      <c r="D52" s="231">
+      <c r="D52" s="178">
         <f>2*((B52*C52)/(B52+C52))</f>
         <v>8.2063521204332662E-2</v>
       </c>
@@ -13764,7 +13759,7 @@
       <c r="C53" s="126">
         <v>0.59</v>
       </c>
-      <c r="D53" s="231">
+      <c r="D53" s="178">
         <f t="shared" si="0"/>
         <v>6.6258198688209882E-2</v>
       </c>
@@ -13779,18 +13774,13 @@
       <c r="C54" s="126">
         <v>0.54</v>
       </c>
-      <c r="D54" s="231">
+      <c r="D54" s="178">
         <f t="shared" si="0"/>
         <v>6.9254766031195833E-2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D6:D13"/>
-    <mergeCell ref="A2:I2"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A25:I25"/>
@@ -13806,6 +13796,11 @@
     <mergeCell ref="D30:G30"/>
     <mergeCell ref="D31:G31"/>
     <mergeCell ref="D32:G32"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D6:D13"/>
+    <mergeCell ref="A2:I2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13837,15 +13832,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="212" t="s">
+      <c r="A1" s="217" t="s">
         <v>347</v>
       </c>
-      <c r="B1" s="212"/>
-      <c r="C1" s="212"/>
-      <c r="D1" s="212"/>
-      <c r="E1" s="212"/>
-      <c r="F1" s="212"/>
-      <c r="G1" s="212"/>
+      <c r="B1" s="217"/>
+      <c r="C1" s="217"/>
+      <c r="D1" s="217"/>
+      <c r="E1" s="217"/>
+      <c r="F1" s="217"/>
+      <c r="G1" s="217"/>
     </row>
     <row r="2" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="159" t="s">
@@ -13869,11 +13864,11 @@
       <c r="G2" s="159" t="s">
         <v>344</v>
       </c>
-      <c r="I2" s="211" t="s">
+      <c r="I2" s="216" t="s">
         <v>197</v>
       </c>
-      <c r="J2" s="211"/>
-      <c r="K2" s="211"/>
+      <c r="J2" s="216"/>
+      <c r="K2" s="216"/>
     </row>
     <row r="3" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
@@ -14326,20 +14321,20 @@
       <c r="J22" s="115" t="s">
         <v>217</v>
       </c>
-      <c r="K22" s="213" t="s">
+      <c r="K22" s="218" t="s">
         <v>307</v>
       </c>
-      <c r="L22" s="213"/>
-      <c r="M22" s="213"/>
-      <c r="N22" s="213"/>
-      <c r="O22" s="213"/>
-      <c r="P22" s="213"/>
-      <c r="Q22" s="213"/>
-      <c r="R22" s="213"/>
-      <c r="S22" s="213"/>
-      <c r="T22" s="213"/>
-      <c r="U22" s="213"/>
-      <c r="V22" s="213"/>
+      <c r="L22" s="218"/>
+      <c r="M22" s="218"/>
+      <c r="N22" s="218"/>
+      <c r="O22" s="218"/>
+      <c r="P22" s="218"/>
+      <c r="Q22" s="218"/>
+      <c r="R22" s="218"/>
+      <c r="S22" s="218"/>
+      <c r="T22" s="218"/>
+      <c r="U22" s="218"/>
+      <c r="V22" s="218"/>
     </row>
     <row r="23" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="36" t="s">
@@ -14445,10 +14440,10 @@
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A29" s="215"/>
-      <c r="B29" s="216"/>
-      <c r="C29" s="216"/>
-      <c r="D29" s="217"/>
+      <c r="A29" s="220"/>
+      <c r="B29" s="221"/>
+      <c r="C29" s="221"/>
+      <c r="D29" s="222"/>
       <c r="I29" s="43" t="s">
         <v>187</v>
       </c>
@@ -14465,10 +14460,10 @@
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A31" s="218" t="s">
+      <c r="A31" s="223" t="s">
         <v>181</v>
       </c>
-      <c r="B31" s="219"/>
+      <c r="B31" s="224"/>
       <c r="C31" s="68"/>
       <c r="I31" s="43" t="s">
         <v>189</v>
@@ -14490,20 +14485,20 @@
       <c r="J32" s="116" t="s">
         <v>308</v>
       </c>
-      <c r="K32" s="214" t="s">
+      <c r="K32" s="219" t="s">
         <v>306</v>
       </c>
-      <c r="L32" s="214"/>
-      <c r="M32" s="214"/>
-      <c r="N32" s="214"/>
-      <c r="O32" s="214"/>
-      <c r="P32" s="214"/>
-      <c r="Q32" s="214"/>
-      <c r="R32" s="214"/>
-      <c r="S32" s="214"/>
-      <c r="T32" s="214"/>
-      <c r="U32" s="214"/>
-      <c r="V32" s="214"/>
+      <c r="L32" s="219"/>
+      <c r="M32" s="219"/>
+      <c r="N32" s="219"/>
+      <c r="O32" s="219"/>
+      <c r="P32" s="219"/>
+      <c r="Q32" s="219"/>
+      <c r="R32" s="219"/>
+      <c r="S32" s="219"/>
+      <c r="T32" s="219"/>
+      <c r="U32" s="219"/>
+      <c r="V32" s="219"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="84" t="s">
@@ -14536,10 +14531,10 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="207" t="s">
+      <c r="A35" s="212" t="s">
         <v>184</v>
       </c>
-      <c r="B35" s="209" t="s">
+      <c r="B35" s="214" t="s">
         <v>219</v>
       </c>
       <c r="D35" s="90"/>
@@ -14549,8 +14544,8 @@
       <c r="J35" s="41"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="208"/>
-      <c r="B36" s="210"/>
+      <c r="A36" s="213"/>
+      <c r="B36" s="215"/>
       <c r="D36" s="90"/>
       <c r="I36" s="105" t="s">
         <v>296</v>
@@ -14669,15 +14664,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="212" t="s">
+      <c r="A1" s="217" t="s">
         <v>347</v>
       </c>
-      <c r="B1" s="212"/>
-      <c r="C1" s="212"/>
-      <c r="D1" s="212"/>
-      <c r="E1" s="212"/>
-      <c r="F1" s="212"/>
-      <c r="G1" s="212"/>
+      <c r="B1" s="217"/>
+      <c r="C1" s="217"/>
+      <c r="D1" s="217"/>
+      <c r="E1" s="217"/>
+      <c r="F1" s="217"/>
+      <c r="G1" s="217"/>
     </row>
     <row r="2" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="159" t="s">
@@ -14701,16 +14696,16 @@
       <c r="G2" s="159" t="s">
         <v>344</v>
       </c>
-      <c r="I2" s="211" t="s">
+      <c r="I2" s="216" t="s">
         <v>197</v>
       </c>
-      <c r="J2" s="211"/>
-      <c r="K2" s="211"/>
+      <c r="J2" s="216"/>
+      <c r="K2" s="216"/>
       <c r="O2" s="171" t="s">
         <v>351</v>
       </c>
       <c r="P2" s="172" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="Q2" s="172" t="s">
         <v>352</v>
@@ -15206,20 +15201,20 @@
       <c r="J22" s="115" t="s">
         <v>217</v>
       </c>
-      <c r="K22" s="213" t="s">
+      <c r="K22" s="218" t="s">
         <v>307</v>
       </c>
-      <c r="L22" s="213"/>
-      <c r="M22" s="213"/>
-      <c r="N22" s="213"/>
-      <c r="O22" s="213"/>
-      <c r="P22" s="213"/>
-      <c r="Q22" s="213"/>
-      <c r="R22" s="213"/>
-      <c r="S22" s="213"/>
-      <c r="T22" s="213"/>
-      <c r="U22" s="213"/>
-      <c r="V22" s="213"/>
+      <c r="L22" s="218"/>
+      <c r="M22" s="218"/>
+      <c r="N22" s="218"/>
+      <c r="O22" s="218"/>
+      <c r="P22" s="218"/>
+      <c r="Q22" s="218"/>
+      <c r="R22" s="218"/>
+      <c r="S22" s="218"/>
+      <c r="T22" s="218"/>
+      <c r="U22" s="218"/>
+      <c r="V22" s="218"/>
     </row>
     <row r="23" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="36" t="s">
@@ -15325,10 +15320,10 @@
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A29" s="215"/>
-      <c r="B29" s="216"/>
-      <c r="C29" s="216"/>
-      <c r="D29" s="217"/>
+      <c r="A29" s="220"/>
+      <c r="B29" s="221"/>
+      <c r="C29" s="221"/>
+      <c r="D29" s="222"/>
       <c r="I29" s="43" t="s">
         <v>187</v>
       </c>
@@ -15345,10 +15340,10 @@
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A31" s="218" t="s">
+      <c r="A31" s="223" t="s">
         <v>181</v>
       </c>
-      <c r="B31" s="219"/>
+      <c r="B31" s="224"/>
       <c r="C31" s="68"/>
       <c r="I31" s="43" t="s">
         <v>189</v>
@@ -15370,20 +15365,20 @@
       <c r="J32" s="116" t="s">
         <v>308</v>
       </c>
-      <c r="K32" s="214" t="s">
+      <c r="K32" s="219" t="s">
         <v>306</v>
       </c>
-      <c r="L32" s="214"/>
-      <c r="M32" s="214"/>
-      <c r="N32" s="214"/>
-      <c r="O32" s="214"/>
-      <c r="P32" s="214"/>
-      <c r="Q32" s="214"/>
-      <c r="R32" s="214"/>
-      <c r="S32" s="214"/>
-      <c r="T32" s="214"/>
-      <c r="U32" s="214"/>
-      <c r="V32" s="214"/>
+      <c r="L32" s="219"/>
+      <c r="M32" s="219"/>
+      <c r="N32" s="219"/>
+      <c r="O32" s="219"/>
+      <c r="P32" s="219"/>
+      <c r="Q32" s="219"/>
+      <c r="R32" s="219"/>
+      <c r="S32" s="219"/>
+      <c r="T32" s="219"/>
+      <c r="U32" s="219"/>
+      <c r="V32" s="219"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="84" t="s">
@@ -15414,10 +15409,10 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="207" t="s">
+      <c r="A35" s="212" t="s">
         <v>184</v>
       </c>
-      <c r="B35" s="209" t="s">
+      <c r="B35" s="214" t="s">
         <v>219</v>
       </c>
       <c r="I35" s="43" t="s">
@@ -15426,8 +15421,8 @@
       <c r="J35" s="41"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="208"/>
-      <c r="B36" s="210"/>
+      <c r="A36" s="213"/>
+      <c r="B36" s="215"/>
       <c r="I36" s="105" t="s">
         <v>296</v>
       </c>
@@ -15513,8 +15508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15525,13 +15520,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="220" t="s">
-        <v>467</v>
-      </c>
-      <c r="B1" s="220"/>
-      <c r="C1" s="220"/>
-      <c r="D1" s="220"/>
-      <c r="E1" s="220"/>
+      <c r="A1" s="225" t="s">
+        <v>465</v>
+      </c>
+      <c r="B1" s="225"/>
+      <c r="C1" s="225"/>
+      <c r="D1" s="225"/>
+      <c r="E1" s="225"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="174" t="s">
@@ -15551,10 +15546,10 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="229" t="s">
+      <c r="A3" s="232" t="s">
         <v>359</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="233" t="s">
         <v>400</v>
       </c>
       <c r="C3" s="18" t="s">
@@ -15568,10 +15563,10 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="227" t="s">
+      <c r="A4" s="175" t="s">
         <v>360</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="233" t="s">
         <v>363</v>
       </c>
       <c r="C4" s="18" t="s">
@@ -15585,10 +15580,10 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="227" t="s">
+      <c r="A5" s="175" t="s">
         <v>364</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="233" t="s">
         <v>367</v>
       </c>
       <c r="C5" s="18" t="s">
@@ -15602,10 +15597,10 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="227" t="s">
+      <c r="A6" s="175" t="s">
         <v>368</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="233" t="s">
         <v>370</v>
       </c>
       <c r="C6" s="18" t="s">
@@ -15619,10 +15614,10 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="227" t="s">
+      <c r="A7" s="175" t="s">
         <v>372</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="233" t="s">
         <v>374</v>
       </c>
       <c r="C7" s="18" t="s">
@@ -15636,10 +15631,10 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" s="227" t="s">
+      <c r="A8" s="175" t="s">
         <v>379</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="233" t="s">
         <v>378</v>
       </c>
       <c r="C8" s="18" t="s">
@@ -15653,10 +15648,10 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="229" t="s">
+      <c r="A9" s="232" t="s">
         <v>380</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="233" t="s">
         <v>383</v>
       </c>
       <c r="C9" s="18" t="s">
@@ -15670,10 +15665,10 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="227" t="s">
+      <c r="A10" s="175" t="s">
         <v>384</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="233" t="s">
         <v>386</v>
       </c>
       <c r="C10" s="18" t="s">
@@ -15687,10 +15682,10 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A11" s="227" t="s">
+      <c r="A11" s="175" t="s">
         <v>388</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="233" t="s">
         <v>391</v>
       </c>
       <c r="C11" s="18" t="s">
@@ -15704,10 +15699,10 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="229" t="s">
+      <c r="A12" s="232" t="s">
         <v>392</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="233" t="s">
         <v>394</v>
       </c>
       <c r="C12" s="18" t="s">
@@ -15721,10 +15716,10 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="227" t="s">
+      <c r="A13" s="175" t="s">
         <v>396</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="233" t="s">
         <v>399</v>
       </c>
       <c r="C13" s="18" t="s">
@@ -15738,10 +15733,10 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="232" t="s">
+      <c r="A14" s="179" t="s">
         <v>401</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="233" t="s">
         <v>403</v>
       </c>
       <c r="C14" s="18" t="s">
@@ -15755,10 +15750,10 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="232" t="s">
+      <c r="A15" s="179" t="s">
         <v>405</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="233" t="s">
         <v>407</v>
       </c>
       <c r="C15" s="18" t="s">
@@ -15772,10 +15767,10 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="228" t="s">
+      <c r="A16" s="176" t="s">
         <v>408</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="233" t="s">
         <v>410</v>
       </c>
       <c r="C16" s="18" t="s">
@@ -15789,10 +15784,10 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="228" t="s">
+      <c r="A17" s="176" t="s">
         <v>412</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="233" t="s">
         <v>414</v>
       </c>
       <c r="C17" s="18" t="s">
@@ -15806,10 +15801,10 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="228" t="s">
+      <c r="A18" s="176" t="s">
         <v>416</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="233" t="s">
         <v>420</v>
       </c>
       <c r="C18" s="18" t="s">
@@ -15823,10 +15818,10 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="229" t="s">
+      <c r="A19" s="232" t="s">
         <v>418</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="233" t="s">
         <v>422</v>
       </c>
       <c r="C19" s="18" t="s">
@@ -15840,11 +15835,11 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="227" t="s">
+      <c r="A20" s="175" t="s">
         <v>424</v>
       </c>
-      <c r="B20" s="18" t="s">
-        <v>469</v>
+      <c r="B20" s="233" t="s">
+        <v>467</v>
       </c>
       <c r="C20" s="18" t="s">
         <v>426</v>
@@ -15857,10 +15852,10 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="229" t="s">
+      <c r="A21" s="232" t="s">
         <v>427</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="233" t="s">
         <v>429</v>
       </c>
       <c r="C21" s="18" t="s">
@@ -15874,10 +15869,10 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="227" t="s">
+      <c r="A22" s="175" t="s">
         <v>430</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="233" t="s">
         <v>432</v>
       </c>
       <c r="C22" s="18" t="s">
@@ -15891,10 +15886,10 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A23" s="227" t="s">
+      <c r="A23" s="175" t="s">
         <v>434</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="233" t="s">
         <v>437</v>
       </c>
       <c r="C23" s="18" t="s">
@@ -15908,46 +15903,48 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" s="229" t="s">
+      <c r="A24" s="232" t="s">
         <v>438</v>
       </c>
-      <c r="B24" s="18" t="s">
-        <v>441</v>
+      <c r="B24" s="233" t="s">
+        <v>440</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>440</v>
-      </c>
-      <c r="D24" s="18"/>
+        <v>469</v>
+      </c>
+      <c r="D24" s="18">
+        <v>2007</v>
+      </c>
       <c r="E24" s="18" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="229" t="s">
-        <v>442</v>
-      </c>
-      <c r="B25" s="18" t="s">
+      <c r="A25" s="232" t="s">
+        <v>441</v>
+      </c>
+      <c r="B25" s="233" t="s">
+        <v>443</v>
+      </c>
+      <c r="C25" s="18" t="s">
         <v>444</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>445</v>
       </c>
       <c r="D25" s="18">
         <v>2010</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="232" t="s">
+      <c r="A26" s="179" t="s">
+        <v>445</v>
+      </c>
+      <c r="B26" s="233" t="s">
         <v>446</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="C26" s="18" t="s">
         <v>447</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>448</v>
       </c>
       <c r="D26" s="18">
         <v>2006</v>
@@ -15957,82 +15954,82 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="232" t="s">
-        <v>449</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>452</v>
+      <c r="A27" s="179" t="s">
+        <v>448</v>
+      </c>
+      <c r="B27" s="233" t="s">
+        <v>451</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D27" s="18">
         <v>2011</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A28" s="232" t="s">
-        <v>453</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>470</v>
+      <c r="A28" s="179" t="s">
+        <v>452</v>
+      </c>
+      <c r="B28" s="233" t="s">
+        <v>468</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D28" s="18">
         <v>2004</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A29" s="229" t="s">
-        <v>454</v>
-      </c>
-      <c r="B29" s="18" t="s">
+      <c r="A29" s="232" t="s">
+        <v>453</v>
+      </c>
+      <c r="B29" s="233" t="s">
+        <v>459</v>
+      </c>
+      <c r="C29" s="18" t="s">
         <v>460</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>461</v>
       </c>
       <c r="D29" s="18">
         <v>2010</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="228" t="s">
-        <v>455</v>
-      </c>
-      <c r="B30" s="18" t="s">
-        <v>464</v>
+      <c r="A30" s="176" t="s">
+        <v>454</v>
+      </c>
+      <c r="B30" s="233" t="s">
+        <v>463</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D30" s="18">
         <v>2003</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A31" s="229" t="s">
-        <v>456</v>
-      </c>
-      <c r="B31" s="18" t="s">
-        <v>465</v>
+      <c r="A31" s="232" t="s">
+        <v>455</v>
+      </c>
+      <c r="B31" s="233" t="s">
+        <v>464</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="D31" s="18">
         <v>2007</v>

--- a/Experiment01_Resumo/Resumo_Exp01.xlsx
+++ b/Experiment01_Resumo/Resumo_Exp01.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="477">
   <si>
     <t>Database search</t>
   </si>
@@ -1552,6 +1552,24 @@
   </si>
   <si>
     <t>Proceedings of the DASMA Software Metric Congress (MetriKon 2007), 2007, pp. 253–266.</t>
+  </si>
+  <si>
+    <t>mandić2010d</t>
+  </si>
+  <si>
+    <t>cocozza2014a</t>
+  </si>
+  <si>
+    <t>unterkalmsteiner2014a</t>
+  </si>
+  <si>
+    <t>31+17+20+12=80 + 14 = 94</t>
+  </si>
+  <si>
+    <t>JF Tool</t>
+  </si>
+  <si>
+    <t>Ref</t>
   </si>
 </sst>
 </file>
@@ -2713,6 +2731,12 @@
     <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2867,12 +2891,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2943,7 +2961,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3199,12 +3216,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="187473096"/>
-        <c:axId val="187470744"/>
+        <c:axId val="214040208"/>
+        <c:axId val="214043736"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="187473096"/>
+        <c:axId val="214040208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3236,7 +3253,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3297,7 +3313,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="187470744"/>
+        <c:crossAx val="214043736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3305,7 +3321,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="187470744"/>
+        <c:axId val="214043736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3356,7 +3372,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="187473096"/>
+        <c:crossAx val="214040208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3370,7 +3386,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3666,12 +3681,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="187473880"/>
-        <c:axId val="187475056"/>
+        <c:axId val="214045696"/>
+        <c:axId val="214042168"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="187473880"/>
+        <c:axId val="214045696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3760,7 +3775,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="187475056"/>
+        <c:crossAx val="214042168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3768,7 +3783,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="187475056"/>
+        <c:axId val="214042168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3851,7 +3866,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="187473880"/>
+        <c:crossAx val="214045696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4136,12 +4151,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="187469960"/>
-        <c:axId val="187470352"/>
+        <c:axId val="214042560"/>
+        <c:axId val="214042952"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="187469960"/>
+        <c:axId val="214042560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4230,7 +4245,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="187470352"/>
+        <c:crossAx val="214042952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4238,7 +4253,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="187470352"/>
+        <c:axId val="214042952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4321,7 +4336,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="187469960"/>
+        <c:crossAx val="214042560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4435,7 +4450,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5109,12 +5123,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="189436304"/>
-        <c:axId val="189437480"/>
+        <c:axId val="214046872"/>
+        <c:axId val="214044520"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="189436304"/>
+        <c:axId val="214046872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5154,7 +5168,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189437480"/>
+        <c:crossAx val="214044520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5162,7 +5176,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="189437480"/>
+        <c:axId val="214044520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5210,7 +5224,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189436304"/>
+        <c:crossAx val="214046872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5224,7 +5238,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5449,7 +5462,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -5520,8 +5532,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="189442184"/>
-        <c:axId val="189437872"/>
+        <c:axId val="214039816"/>
+        <c:axId val="295024616"/>
         <c:axId val="0"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
@@ -5691,7 +5703,7 @@
         </c:extLst>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="189442184"/>
+        <c:axId val="214039816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5723,7 +5735,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5790,7 +5801,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189437872"/>
+        <c:crossAx val="295024616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5798,7 +5809,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="189437872"/>
+        <c:axId val="295024616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5844,7 +5855,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5878,7 +5888,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189442184"/>
+        <c:crossAx val="214039816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5892,7 +5902,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6193,8 +6202,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="189441400"/>
-        <c:axId val="189435128"/>
+        <c:axId val="295025008"/>
+        <c:axId val="295025400"/>
         <c:axId val="0"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
@@ -6364,7 +6373,7 @@
         </c:extLst>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="189441400"/>
+        <c:axId val="295025008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6462,7 +6471,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189435128"/>
+        <c:crossAx val="295025400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6470,7 +6479,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="189435128"/>
+        <c:axId val="295025400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6549,7 +6558,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189441400"/>
+        <c:crossAx val="295025008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10247,22 +10256,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="180" t="s">
+      <c r="A1" s="182" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="181"/>
+      <c r="B1" s="183"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="182" t="s">
+      <c r="A2" s="184" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="183"/>
+      <c r="B2" s="185"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="182" t="s">
+      <c r="A3" s="184" t="s">
         <v>96</v>
       </c>
-      <c r="B3" s="183"/>
+      <c r="B3" s="185"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -10297,10 +10306,10 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="184" t="s">
+      <c r="A8" s="186" t="s">
         <v>103</v>
       </c>
-      <c r="B8" s="185"/>
+      <c r="B8" s="187"/>
     </row>
     <row r="9" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
@@ -10390,19 +10399,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="195" t="s">
+      <c r="A1" s="197" t="s">
         <v>326</v>
       </c>
-      <c r="B1" s="195"/>
-      <c r="C1" s="195"/>
-      <c r="D1" s="195"/>
-      <c r="E1" s="195"/>
-      <c r="F1" s="195"/>
-      <c r="G1" s="195"/>
-      <c r="H1" s="195"/>
-      <c r="I1" s="195"/>
-      <c r="J1" s="195"/>
-      <c r="K1" s="195"/>
+      <c r="B1" s="197"/>
+      <c r="C1" s="197"/>
+      <c r="D1" s="197"/>
+      <c r="E1" s="197"/>
+      <c r="F1" s="197"/>
+      <c r="G1" s="197"/>
+      <c r="H1" s="197"/>
+      <c r="I1" s="197"/>
+      <c r="J1" s="197"/>
+      <c r="K1" s="197"/>
     </row>
     <row r="2" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
@@ -11124,10 +11133,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="226" t="s">
+      <c r="A1" s="228" t="s">
         <v>333</v>
       </c>
-      <c r="B1" s="227"/>
+      <c r="B1" s="229"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="79" t="s">
@@ -11195,20 +11204,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="228" t="s">
+      <c r="A1" s="230" t="s">
         <v>327</v>
       </c>
-      <c r="B1" s="228"/>
-      <c r="C1" s="228"/>
-      <c r="D1" s="228"/>
-      <c r="E1" s="228"/>
-      <c r="F1" s="228"/>
-      <c r="G1" s="228"/>
-      <c r="H1" s="228"/>
-      <c r="I1" s="228"/>
-      <c r="J1" s="228"/>
-      <c r="K1" s="228"/>
-      <c r="L1" s="228"/>
+      <c r="B1" s="230"/>
+      <c r="C1" s="230"/>
+      <c r="D1" s="230"/>
+      <c r="E1" s="230"/>
+      <c r="F1" s="230"/>
+      <c r="G1" s="230"/>
+      <c r="H1" s="230"/>
+      <c r="I1" s="230"/>
+      <c r="J1" s="230"/>
+      <c r="K1" s="230"/>
+      <c r="L1" s="230"/>
     </row>
     <row r="2" spans="1:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="143" t="s">
@@ -11927,15 +11936,15 @@
     </row>
     <row r="26" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="135"/>
-      <c r="B26" s="229" t="s">
+      <c r="B26" s="231" t="s">
         <v>334</v>
       </c>
-      <c r="C26" s="230"/>
-      <c r="D26" s="230"/>
-      <c r="E26" s="230"/>
-      <c r="F26" s="230"/>
-      <c r="G26" s="230"/>
-      <c r="H26" s="231"/>
+      <c r="C26" s="232"/>
+      <c r="D26" s="232"/>
+      <c r="E26" s="232"/>
+      <c r="F26" s="232"/>
+      <c r="G26" s="232"/>
+      <c r="H26" s="233"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="66"/>
@@ -12101,10 +12110,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="190" t="s">
+      <c r="A1" s="192" t="s">
         <v>151</v>
       </c>
-      <c r="B1" s="191"/>
+      <c r="B1" s="193"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
@@ -12137,16 +12146,16 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="186" t="s">
+      <c r="A6" s="188" t="s">
         <v>147</v>
       </c>
-      <c r="B6" s="187"/>
+      <c r="B6" s="189"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="188" t="s">
+      <c r="A7" s="190" t="s">
         <v>150</v>
       </c>
-      <c r="B7" s="189"/>
+      <c r="B7" s="191"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
@@ -12228,16 +12237,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="192" t="s">
+      <c r="A1" s="194" t="s">
         <v>336</v>
       </c>
-      <c r="B1" s="193"/>
-      <c r="C1" s="193"/>
-      <c r="D1" s="193"/>
-      <c r="E1" s="193"/>
-      <c r="F1" s="193"/>
-      <c r="G1" s="193"/>
-      <c r="H1" s="194"/>
+      <c r="B1" s="195"/>
+      <c r="C1" s="195"/>
+      <c r="D1" s="195"/>
+      <c r="E1" s="195"/>
+      <c r="F1" s="195"/>
+      <c r="G1" s="195"/>
+      <c r="H1" s="196"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
     </row>
@@ -12606,13 +12615,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="195" t="s">
+      <c r="A1" s="197" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="195"/>
-      <c r="C1" s="195"/>
-      <c r="D1" s="195"/>
-      <c r="E1" s="195"/>
+      <c r="B1" s="197"/>
+      <c r="C1" s="197"/>
+      <c r="D1" s="197"/>
+      <c r="E1" s="197"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
@@ -13044,43 +13053,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="205" t="s">
+      <c r="A1" s="207" t="s">
         <v>230</v>
       </c>
-      <c r="B1" s="206"/>
-      <c r="C1" s="206"/>
-      <c r="D1" s="206"/>
-      <c r="E1" s="206"/>
-      <c r="F1" s="206"/>
-      <c r="G1" s="206"/>
-      <c r="H1" s="206"/>
-      <c r="I1" s="206"/>
+      <c r="B1" s="208"/>
+      <c r="C1" s="208"/>
+      <c r="D1" s="208"/>
+      <c r="E1" s="208"/>
+      <c r="F1" s="208"/>
+      <c r="G1" s="208"/>
+      <c r="H1" s="208"/>
+      <c r="I1" s="208"/>
     </row>
     <row r="2" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="204" t="s">
+      <c r="A2" s="206" t="s">
         <v>229</v>
       </c>
-      <c r="B2" s="204"/>
-      <c r="C2" s="204"/>
-      <c r="D2" s="204"/>
-      <c r="E2" s="204"/>
-      <c r="F2" s="204"/>
-      <c r="G2" s="204"/>
-      <c r="H2" s="204"/>
-      <c r="I2" s="204"/>
+      <c r="B2" s="206"/>
+      <c r="C2" s="206"/>
+      <c r="D2" s="206"/>
+      <c r="E2" s="206"/>
+      <c r="F2" s="206"/>
+      <c r="G2" s="206"/>
+      <c r="H2" s="206"/>
+      <c r="I2" s="206"/>
     </row>
     <row r="3" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="197" t="s">
+      <c r="A3" s="199" t="s">
         <v>337</v>
       </c>
-      <c r="B3" s="197"/>
-      <c r="C3" s="197"/>
-      <c r="D3" s="197"/>
-      <c r="E3" s="197"/>
-      <c r="F3" s="197"/>
-      <c r="G3" s="197"/>
-      <c r="H3" s="197"/>
-      <c r="I3" s="197"/>
+      <c r="B3" s="199"/>
+      <c r="C3" s="199"/>
+      <c r="D3" s="199"/>
+      <c r="E3" s="199"/>
+      <c r="F3" s="199"/>
+      <c r="G3" s="199"/>
+      <c r="H3" s="199"/>
+      <c r="I3" s="199"/>
       <c r="J3" s="71"/>
       <c r="K3" s="71"/>
       <c r="L3" s="71"/>
@@ -13093,12 +13102,12 @@
       <c r="S3" s="71"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="207" t="s">
+      <c r="A4" s="209" t="s">
         <v>253</v>
       </c>
-      <c r="B4" s="207"/>
-      <c r="C4" s="207"/>
-      <c r="D4" s="207"/>
+      <c r="B4" s="209"/>
+      <c r="C4" s="209"/>
+      <c r="D4" s="209"/>
     </row>
     <row r="5" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="69" t="s">
@@ -13124,7 +13133,7 @@
       <c r="C6" s="49" t="s">
         <v>196</v>
       </c>
-      <c r="D6" s="201" t="s">
+      <c r="D6" s="203" t="s">
         <v>339</v>
       </c>
       <c r="N6" s="26"/>
@@ -13139,7 +13148,7 @@
       <c r="C7" s="49" t="s">
         <v>228</v>
       </c>
-      <c r="D7" s="202"/>
+      <c r="D7" s="204"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="78" t="s">
@@ -13151,7 +13160,7 @@
       <c r="C8" s="49" t="s">
         <v>235</v>
       </c>
-      <c r="D8" s="202"/>
+      <c r="D8" s="204"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="78" t="s">
@@ -13163,7 +13172,7 @@
       <c r="C9" s="49" t="s">
         <v>236</v>
       </c>
-      <c r="D9" s="202"/>
+      <c r="D9" s="204"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="78" t="s">
@@ -13175,7 +13184,7 @@
       <c r="C10" s="49" t="s">
         <v>237</v>
       </c>
-      <c r="D10" s="202"/>
+      <c r="D10" s="204"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="78" t="s">
@@ -13187,7 +13196,7 @@
       <c r="C11" s="49" t="s">
         <v>237</v>
       </c>
-      <c r="D11" s="202"/>
+      <c r="D11" s="204"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="78" t="s">
@@ -13199,7 +13208,7 @@
       <c r="C12" s="49" t="s">
         <v>266</v>
       </c>
-      <c r="D12" s="202"/>
+      <c r="D12" s="204"/>
     </row>
     <row r="13" spans="1:19" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="146" t="s">
@@ -13211,7 +13220,7 @@
       <c r="C13" s="137" t="s">
         <v>273</v>
       </c>
-      <c r="D13" s="203"/>
+      <c r="D13" s="205"/>
     </row>
     <row r="14" spans="1:19" s="77" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="147" t="s">
@@ -13228,30 +13237,30 @@
       </c>
     </row>
     <row r="15" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="204" t="s">
+      <c r="A15" s="206" t="s">
         <v>261</v>
       </c>
-      <c r="B15" s="204"/>
-      <c r="C15" s="204"/>
-      <c r="D15" s="204"/>
-      <c r="E15" s="204"/>
-      <c r="F15" s="204"/>
-      <c r="G15" s="204"/>
-      <c r="H15" s="204"/>
-      <c r="I15" s="204"/>
+      <c r="B15" s="206"/>
+      <c r="C15" s="206"/>
+      <c r="D15" s="206"/>
+      <c r="E15" s="206"/>
+      <c r="F15" s="206"/>
+      <c r="G15" s="206"/>
+      <c r="H15" s="206"/>
+      <c r="I15" s="206"/>
     </row>
     <row r="16" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="197" t="s">
+      <c r="A16" s="199" t="s">
         <v>238</v>
       </c>
-      <c r="B16" s="197"/>
-      <c r="C16" s="197"/>
-      <c r="D16" s="197"/>
-      <c r="E16" s="197"/>
-      <c r="F16" s="197"/>
-      <c r="G16" s="197"/>
-      <c r="H16" s="197"/>
-      <c r="I16" s="197"/>
+      <c r="B16" s="199"/>
+      <c r="C16" s="199"/>
+      <c r="D16" s="199"/>
+      <c r="E16" s="199"/>
+      <c r="F16" s="199"/>
+      <c r="G16" s="199"/>
+      <c r="H16" s="199"/>
+      <c r="I16" s="199"/>
       <c r="J16" s="71"/>
       <c r="K16" s="71"/>
       <c r="L16" s="71"/>
@@ -13264,14 +13273,14 @@
       <c r="S16" s="71"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="207" t="s">
+      <c r="A17" s="209" t="s">
         <v>259</v>
       </c>
-      <c r="B17" s="207"/>
-      <c r="C17" s="207"/>
-      <c r="D17" s="207"/>
-      <c r="E17" s="207"/>
-      <c r="F17" s="207"/>
+      <c r="B17" s="209"/>
+      <c r="C17" s="209"/>
+      <c r="D17" s="209"/>
+      <c r="E17" s="209"/>
+      <c r="F17" s="209"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="69" t="s">
@@ -13414,30 +13423,30 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="204" t="s">
+      <c r="A25" s="206" t="s">
         <v>260</v>
       </c>
-      <c r="B25" s="204"/>
-      <c r="C25" s="204"/>
-      <c r="D25" s="204"/>
-      <c r="E25" s="204"/>
-      <c r="F25" s="204"/>
-      <c r="G25" s="204"/>
-      <c r="H25" s="204"/>
-      <c r="I25" s="204"/>
+      <c r="B25" s="206"/>
+      <c r="C25" s="206"/>
+      <c r="D25" s="206"/>
+      <c r="E25" s="206"/>
+      <c r="F25" s="206"/>
+      <c r="G25" s="206"/>
+      <c r="H25" s="206"/>
+      <c r="I25" s="206"/>
     </row>
     <row r="26" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="197" t="s">
+      <c r="A26" s="199" t="s">
         <v>338</v>
       </c>
-      <c r="B26" s="197"/>
-      <c r="C26" s="197"/>
-      <c r="D26" s="197"/>
-      <c r="E26" s="197"/>
-      <c r="F26" s="197"/>
-      <c r="G26" s="197"/>
-      <c r="H26" s="197"/>
-      <c r="I26" s="197"/>
+      <c r="B26" s="199"/>
+      <c r="C26" s="199"/>
+      <c r="D26" s="199"/>
+      <c r="E26" s="199"/>
+      <c r="F26" s="199"/>
+      <c r="G26" s="199"/>
+      <c r="H26" s="199"/>
+      <c r="I26" s="199"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="69" t="s">
@@ -13449,12 +13458,12 @@
       <c r="C27" s="69" t="s">
         <v>201</v>
       </c>
-      <c r="D27" s="211" t="s">
+      <c r="D27" s="213" t="s">
         <v>292</v>
       </c>
-      <c r="E27" s="211"/>
-      <c r="F27" s="211"/>
-      <c r="G27" s="211"/>
+      <c r="E27" s="213"/>
+      <c r="F27" s="213"/>
+      <c r="G27" s="213"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="52" t="s">
@@ -13466,12 +13475,12 @@
       <c r="C28" s="72">
         <v>0.59</v>
       </c>
-      <c r="D28" s="198" t="s">
+      <c r="D28" s="200" t="s">
         <v>285</v>
       </c>
-      <c r="E28" s="199"/>
-      <c r="F28" s="199"/>
-      <c r="G28" s="200"/>
+      <c r="E28" s="201"/>
+      <c r="F28" s="201"/>
+      <c r="G28" s="202"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="52" t="s">
@@ -13483,12 +13492,12 @@
       <c r="C29" s="72">
         <v>0.77</v>
       </c>
-      <c r="D29" s="208" t="s">
+      <c r="D29" s="210" t="s">
         <v>286</v>
       </c>
-      <c r="E29" s="209"/>
-      <c r="F29" s="209"/>
-      <c r="G29" s="210"/>
+      <c r="E29" s="211"/>
+      <c r="F29" s="211"/>
+      <c r="G29" s="212"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="52" t="s">
@@ -13500,12 +13509,12 @@
       <c r="C30" s="72">
         <v>0.41</v>
       </c>
-      <c r="D30" s="208" t="s">
+      <c r="D30" s="210" t="s">
         <v>287</v>
       </c>
-      <c r="E30" s="209"/>
-      <c r="F30" s="209"/>
-      <c r="G30" s="210"/>
+      <c r="E30" s="211"/>
+      <c r="F30" s="211"/>
+      <c r="G30" s="212"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="52" t="s">
@@ -13517,12 +13526,12 @@
       <c r="C31" s="72">
         <v>0.59</v>
       </c>
-      <c r="D31" s="208" t="s">
+      <c r="D31" s="210" t="s">
         <v>289</v>
       </c>
-      <c r="E31" s="209"/>
-      <c r="F31" s="209"/>
-      <c r="G31" s="210"/>
+      <c r="E31" s="211"/>
+      <c r="F31" s="211"/>
+      <c r="G31" s="212"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="52" t="s">
@@ -13534,12 +13543,12 @@
       <c r="C32" s="72">
         <v>0.5</v>
       </c>
-      <c r="D32" s="208" t="s">
+      <c r="D32" s="210" t="s">
         <v>288</v>
       </c>
-      <c r="E32" s="209"/>
-      <c r="F32" s="209"/>
-      <c r="G32" s="210"/>
+      <c r="E32" s="211"/>
+      <c r="F32" s="211"/>
+      <c r="G32" s="212"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="52" t="s">
@@ -13551,12 +13560,12 @@
       <c r="C33" s="72">
         <v>0.59</v>
       </c>
-      <c r="D33" s="208" t="s">
+      <c r="D33" s="210" t="s">
         <v>290</v>
       </c>
-      <c r="E33" s="209"/>
-      <c r="F33" s="209"/>
-      <c r="G33" s="210"/>
+      <c r="E33" s="211"/>
+      <c r="F33" s="211"/>
+      <c r="G33" s="212"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="52" t="s">
@@ -13568,25 +13577,25 @@
       <c r="C34" s="72">
         <v>0.54</v>
       </c>
-      <c r="D34" s="208" t="s">
+      <c r="D34" s="210" t="s">
         <v>291</v>
       </c>
-      <c r="E34" s="209"/>
-      <c r="F34" s="209"/>
-      <c r="G34" s="210"/>
+      <c r="E34" s="211"/>
+      <c r="F34" s="211"/>
+      <c r="G34" s="212"/>
     </row>
     <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="204" t="s">
+      <c r="A36" s="206" t="s">
         <v>315</v>
       </c>
-      <c r="B36" s="204"/>
-      <c r="C36" s="204"/>
-      <c r="D36" s="204"/>
-      <c r="E36" s="204"/>
-      <c r="F36" s="204"/>
-      <c r="G36" s="204"/>
-      <c r="H36" s="204"/>
-      <c r="I36" s="204"/>
+      <c r="B36" s="206"/>
+      <c r="C36" s="206"/>
+      <c r="D36" s="206"/>
+      <c r="E36" s="206"/>
+      <c r="F36" s="206"/>
+      <c r="G36" s="206"/>
+      <c r="H36" s="206"/>
+      <c r="I36" s="206"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="87" t="s">
@@ -13653,12 +13662,12 @@
       </c>
     </row>
     <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="196" t="s">
+      <c r="A46" s="198" t="s">
         <v>318</v>
       </c>
-      <c r="B46" s="196"/>
-      <c r="C46" s="196"/>
-      <c r="D46" s="196"/>
+      <c r="B46" s="198"/>
+      <c r="C46" s="198"/>
+      <c r="D46" s="198"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="88" t="s">
@@ -13832,15 +13841,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="217" t="s">
+      <c r="A1" s="219" t="s">
         <v>347</v>
       </c>
-      <c r="B1" s="217"/>
-      <c r="C1" s="217"/>
-      <c r="D1" s="217"/>
-      <c r="E1" s="217"/>
-      <c r="F1" s="217"/>
-      <c r="G1" s="217"/>
+      <c r="B1" s="219"/>
+      <c r="C1" s="219"/>
+      <c r="D1" s="219"/>
+      <c r="E1" s="219"/>
+      <c r="F1" s="219"/>
+      <c r="G1" s="219"/>
     </row>
     <row r="2" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="159" t="s">
@@ -13864,11 +13873,11 @@
       <c r="G2" s="159" t="s">
         <v>344</v>
       </c>
-      <c r="I2" s="216" t="s">
+      <c r="I2" s="218" t="s">
         <v>197</v>
       </c>
-      <c r="J2" s="216"/>
-      <c r="K2" s="216"/>
+      <c r="J2" s="218"/>
+      <c r="K2" s="218"/>
     </row>
     <row r="3" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
@@ -14321,20 +14330,20 @@
       <c r="J22" s="115" t="s">
         <v>217</v>
       </c>
-      <c r="K22" s="218" t="s">
+      <c r="K22" s="220" t="s">
         <v>307</v>
       </c>
-      <c r="L22" s="218"/>
-      <c r="M22" s="218"/>
-      <c r="N22" s="218"/>
-      <c r="O22" s="218"/>
-      <c r="P22" s="218"/>
-      <c r="Q22" s="218"/>
-      <c r="R22" s="218"/>
-      <c r="S22" s="218"/>
-      <c r="T22" s="218"/>
-      <c r="U22" s="218"/>
-      <c r="V22" s="218"/>
+      <c r="L22" s="220"/>
+      <c r="M22" s="220"/>
+      <c r="N22" s="220"/>
+      <c r="O22" s="220"/>
+      <c r="P22" s="220"/>
+      <c r="Q22" s="220"/>
+      <c r="R22" s="220"/>
+      <c r="S22" s="220"/>
+      <c r="T22" s="220"/>
+      <c r="U22" s="220"/>
+      <c r="V22" s="220"/>
     </row>
     <row r="23" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="36" t="s">
@@ -14440,10 +14449,10 @@
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A29" s="220"/>
-      <c r="B29" s="221"/>
-      <c r="C29" s="221"/>
-      <c r="D29" s="222"/>
+      <c r="A29" s="222"/>
+      <c r="B29" s="223"/>
+      <c r="C29" s="223"/>
+      <c r="D29" s="224"/>
       <c r="I29" s="43" t="s">
         <v>187</v>
       </c>
@@ -14460,10 +14469,10 @@
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A31" s="223" t="s">
+      <c r="A31" s="225" t="s">
         <v>181</v>
       </c>
-      <c r="B31" s="224"/>
+      <c r="B31" s="226"/>
       <c r="C31" s="68"/>
       <c r="I31" s="43" t="s">
         <v>189</v>
@@ -14485,20 +14494,20 @@
       <c r="J32" s="116" t="s">
         <v>308</v>
       </c>
-      <c r="K32" s="219" t="s">
+      <c r="K32" s="221" t="s">
         <v>306</v>
       </c>
-      <c r="L32" s="219"/>
-      <c r="M32" s="219"/>
-      <c r="N32" s="219"/>
-      <c r="O32" s="219"/>
-      <c r="P32" s="219"/>
-      <c r="Q32" s="219"/>
-      <c r="R32" s="219"/>
-      <c r="S32" s="219"/>
-      <c r="T32" s="219"/>
-      <c r="U32" s="219"/>
-      <c r="V32" s="219"/>
+      <c r="L32" s="221"/>
+      <c r="M32" s="221"/>
+      <c r="N32" s="221"/>
+      <c r="O32" s="221"/>
+      <c r="P32" s="221"/>
+      <c r="Q32" s="221"/>
+      <c r="R32" s="221"/>
+      <c r="S32" s="221"/>
+      <c r="T32" s="221"/>
+      <c r="U32" s="221"/>
+      <c r="V32" s="221"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="84" t="s">
@@ -14531,10 +14540,10 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="212" t="s">
+      <c r="A35" s="214" t="s">
         <v>184</v>
       </c>
-      <c r="B35" s="214" t="s">
+      <c r="B35" s="216" t="s">
         <v>219</v>
       </c>
       <c r="D35" s="90"/>
@@ -14544,8 +14553,8 @@
       <c r="J35" s="41"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="213"/>
-      <c r="B36" s="215"/>
+      <c r="A36" s="215"/>
+      <c r="B36" s="217"/>
       <c r="D36" s="90"/>
       <c r="I36" s="105" t="s">
         <v>296</v>
@@ -14664,15 +14673,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="217" t="s">
+      <c r="A1" s="219" t="s">
         <v>347</v>
       </c>
-      <c r="B1" s="217"/>
-      <c r="C1" s="217"/>
-      <c r="D1" s="217"/>
-      <c r="E1" s="217"/>
-      <c r="F1" s="217"/>
-      <c r="G1" s="217"/>
+      <c r="B1" s="219"/>
+      <c r="C1" s="219"/>
+      <c r="D1" s="219"/>
+      <c r="E1" s="219"/>
+      <c r="F1" s="219"/>
+      <c r="G1" s="219"/>
     </row>
     <row r="2" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="159" t="s">
@@ -14696,11 +14705,11 @@
       <c r="G2" s="159" t="s">
         <v>344</v>
       </c>
-      <c r="I2" s="216" t="s">
+      <c r="I2" s="218" t="s">
         <v>197</v>
       </c>
-      <c r="J2" s="216"/>
-      <c r="K2" s="216"/>
+      <c r="J2" s="218"/>
+      <c r="K2" s="218"/>
       <c r="O2" s="171" t="s">
         <v>351</v>
       </c>
@@ -15201,20 +15210,20 @@
       <c r="J22" s="115" t="s">
         <v>217</v>
       </c>
-      <c r="K22" s="218" t="s">
+      <c r="K22" s="220" t="s">
         <v>307</v>
       </c>
-      <c r="L22" s="218"/>
-      <c r="M22" s="218"/>
-      <c r="N22" s="218"/>
-      <c r="O22" s="218"/>
-      <c r="P22" s="218"/>
-      <c r="Q22" s="218"/>
-      <c r="R22" s="218"/>
-      <c r="S22" s="218"/>
-      <c r="T22" s="218"/>
-      <c r="U22" s="218"/>
-      <c r="V22" s="218"/>
+      <c r="L22" s="220"/>
+      <c r="M22" s="220"/>
+      <c r="N22" s="220"/>
+      <c r="O22" s="220"/>
+      <c r="P22" s="220"/>
+      <c r="Q22" s="220"/>
+      <c r="R22" s="220"/>
+      <c r="S22" s="220"/>
+      <c r="T22" s="220"/>
+      <c r="U22" s="220"/>
+      <c r="V22" s="220"/>
     </row>
     <row r="23" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="36" t="s">
@@ -15320,10 +15329,10 @@
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A29" s="220"/>
-      <c r="B29" s="221"/>
-      <c r="C29" s="221"/>
-      <c r="D29" s="222"/>
+      <c r="A29" s="222"/>
+      <c r="B29" s="223"/>
+      <c r="C29" s="223"/>
+      <c r="D29" s="224"/>
       <c r="I29" s="43" t="s">
         <v>187</v>
       </c>
@@ -15340,10 +15349,10 @@
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A31" s="223" t="s">
+      <c r="A31" s="225" t="s">
         <v>181</v>
       </c>
-      <c r="B31" s="224"/>
+      <c r="B31" s="226"/>
       <c r="C31" s="68"/>
       <c r="I31" s="43" t="s">
         <v>189</v>
@@ -15365,20 +15374,20 @@
       <c r="J32" s="116" t="s">
         <v>308</v>
       </c>
-      <c r="K32" s="219" t="s">
+      <c r="K32" s="221" t="s">
         <v>306</v>
       </c>
-      <c r="L32" s="219"/>
-      <c r="M32" s="219"/>
-      <c r="N32" s="219"/>
-      <c r="O32" s="219"/>
-      <c r="P32" s="219"/>
-      <c r="Q32" s="219"/>
-      <c r="R32" s="219"/>
-      <c r="S32" s="219"/>
-      <c r="T32" s="219"/>
-      <c r="U32" s="219"/>
-      <c r="V32" s="219"/>
+      <c r="L32" s="221"/>
+      <c r="M32" s="221"/>
+      <c r="N32" s="221"/>
+      <c r="O32" s="221"/>
+      <c r="P32" s="221"/>
+      <c r="Q32" s="221"/>
+      <c r="R32" s="221"/>
+      <c r="S32" s="221"/>
+      <c r="T32" s="221"/>
+      <c r="U32" s="221"/>
+      <c r="V32" s="221"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="84" t="s">
@@ -15409,10 +15418,10 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="212" t="s">
+      <c r="A35" s="214" t="s">
         <v>184</v>
       </c>
-      <c r="B35" s="214" t="s">
+      <c r="B35" s="216" t="s">
         <v>219</v>
       </c>
       <c r="I35" s="43" t="s">
@@ -15421,8 +15430,8 @@
       <c r="J35" s="41"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="213"/>
-      <c r="B36" s="215"/>
+      <c r="A36" s="215"/>
+      <c r="B36" s="217"/>
       <c r="I36" s="105" t="s">
         <v>296</v>
       </c>
@@ -15506,10 +15515,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15517,18 +15526,23 @@
     <col min="2" max="2" width="65.140625" customWidth="1"/>
     <col min="3" max="3" width="46.28515625" customWidth="1"/>
     <col min="5" max="5" width="30.5703125" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" style="3" customWidth="1"/>
+    <col min="7" max="8" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="225" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="227" t="s">
         <v>465</v>
       </c>
-      <c r="B1" s="225"/>
-      <c r="C1" s="225"/>
-      <c r="D1" s="225"/>
-      <c r="E1" s="225"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="227"/>
+      <c r="C1" s="227"/>
+      <c r="D1" s="227"/>
+      <c r="E1" s="227"/>
+      <c r="F1" s="227"/>
+      <c r="G1" s="227"/>
+      <c r="H1" s="227"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="174" t="s">
         <v>123</v>
       </c>
@@ -15544,12 +15558,21 @@
       <c r="E2" s="174" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="232" t="s">
+      <c r="F2" s="174" t="s">
+        <v>475</v>
+      </c>
+      <c r="G2" s="174" t="s">
+        <v>146</v>
+      </c>
+      <c r="H2" s="174" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="180" t="s">
         <v>359</v>
       </c>
-      <c r="B3" s="233" t="s">
+      <c r="B3" s="181" t="s">
         <v>400</v>
       </c>
       <c r="C3" s="18" t="s">
@@ -15561,12 +15584,15 @@
       <c r="E3" s="18" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+    </row>
+    <row r="4" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="175" t="s">
         <v>360</v>
       </c>
-      <c r="B4" s="233" t="s">
+      <c r="B4" s="181" t="s">
         <v>363</v>
       </c>
       <c r="C4" s="18" t="s">
@@ -15578,12 +15604,19 @@
       <c r="E4" s="18" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="F4" s="53" t="s">
+        <v>471</v>
+      </c>
+      <c r="G4" s="94">
+        <v>12</v>
+      </c>
+      <c r="H4" s="94"/>
+    </row>
+    <row r="5" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="175" t="s">
         <v>364</v>
       </c>
-      <c r="B5" s="233" t="s">
+      <c r="B5" s="181" t="s">
         <v>367</v>
       </c>
       <c r="C5" s="18" t="s">
@@ -15595,12 +15628,19 @@
       <c r="E5" s="18" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F5" s="94" t="s">
+        <v>472</v>
+      </c>
+      <c r="G5" s="94">
+        <v>10</v>
+      </c>
+      <c r="H5" s="94"/>
+    </row>
+    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="175" t="s">
         <v>368</v>
       </c>
-      <c r="B6" s="233" t="s">
+      <c r="B6" s="181" t="s">
         <v>370</v>
       </c>
       <c r="C6" s="18" t="s">
@@ -15612,12 +15652,21 @@
       <c r="E6" s="18" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F6" s="53" t="s">
+        <v>473</v>
+      </c>
+      <c r="G6" s="94">
+        <v>94</v>
+      </c>
+      <c r="H6" s="53" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="175" t="s">
         <v>372</v>
       </c>
-      <c r="B7" s="233" t="s">
+      <c r="B7" s="181" t="s">
         <v>374</v>
       </c>
       <c r="C7" s="18" t="s">
@@ -15629,12 +15678,15 @@
       <c r="E7" s="18" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="F7" s="94"/>
+      <c r="G7" s="94"/>
+      <c r="H7" s="94"/>
+    </row>
+    <row r="8" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="175" t="s">
         <v>379</v>
       </c>
-      <c r="B8" s="233" t="s">
+      <c r="B8" s="181" t="s">
         <v>378</v>
       </c>
       <c r="C8" s="18" t="s">
@@ -15646,12 +15698,15 @@
       <c r="E8" s="18" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="232" t="s">
+      <c r="F8" s="94"/>
+      <c r="G8" s="94"/>
+      <c r="H8" s="94"/>
+    </row>
+    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="180" t="s">
         <v>380</v>
       </c>
-      <c r="B9" s="233" t="s">
+      <c r="B9" s="181" t="s">
         <v>383</v>
       </c>
       <c r="C9" s="18" t="s">
@@ -15663,12 +15718,15 @@
       <c r="E9" s="18" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F9" s="94"/>
+      <c r="G9" s="94"/>
+      <c r="H9" s="94"/>
+    </row>
+    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="175" t="s">
         <v>384</v>
       </c>
-      <c r="B10" s="233" t="s">
+      <c r="B10" s="181" t="s">
         <v>386</v>
       </c>
       <c r="C10" s="18" t="s">
@@ -15680,12 +15738,15 @@
       <c r="E10" s="18" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="F10" s="94"/>
+      <c r="G10" s="94"/>
+      <c r="H10" s="94"/>
+    </row>
+    <row r="11" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="175" t="s">
         <v>388</v>
       </c>
-      <c r="B11" s="233" t="s">
+      <c r="B11" s="181" t="s">
         <v>391</v>
       </c>
       <c r="C11" s="18" t="s">
@@ -15697,12 +15758,15 @@
       <c r="E11" s="18" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="232" t="s">
+      <c r="F11" s="94"/>
+      <c r="G11" s="94"/>
+      <c r="H11" s="94"/>
+    </row>
+    <row r="12" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="180" t="s">
         <v>392</v>
       </c>
-      <c r="B12" s="233" t="s">
+      <c r="B12" s="181" t="s">
         <v>394</v>
       </c>
       <c r="C12" s="18" t="s">
@@ -15714,12 +15778,15 @@
       <c r="E12" s="18" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F12" s="94"/>
+      <c r="G12" s="94"/>
+      <c r="H12" s="94"/>
+    </row>
+    <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="175" t="s">
         <v>396</v>
       </c>
-      <c r="B13" s="233" t="s">
+      <c r="B13" s="181" t="s">
         <v>399</v>
       </c>
       <c r="C13" s="18" t="s">
@@ -15731,12 +15798,15 @@
       <c r="E13" s="18" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="F13" s="94"/>
+      <c r="G13" s="94"/>
+      <c r="H13" s="94"/>
+    </row>
+    <row r="14" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="179" t="s">
         <v>401</v>
       </c>
-      <c r="B14" s="233" t="s">
+      <c r="B14" s="181" t="s">
         <v>403</v>
       </c>
       <c r="C14" s="18" t="s">
@@ -15748,12 +15818,15 @@
       <c r="E14" s="18" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="F14" s="94"/>
+      <c r="G14" s="94"/>
+      <c r="H14" s="94"/>
+    </row>
+    <row r="15" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="179" t="s">
         <v>405</v>
       </c>
-      <c r="B15" s="233" t="s">
+      <c r="B15" s="181" t="s">
         <v>407</v>
       </c>
       <c r="C15" s="18" t="s">
@@ -15765,12 +15838,15 @@
       <c r="E15" s="18" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F15" s="94"/>
+      <c r="G15" s="94"/>
+      <c r="H15" s="94"/>
+    </row>
+    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="176" t="s">
         <v>408</v>
       </c>
-      <c r="B16" s="233" t="s">
+      <c r="B16" s="181" t="s">
         <v>410</v>
       </c>
       <c r="C16" s="18" t="s">
@@ -15782,12 +15858,15 @@
       <c r="E16" s="18" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F16" s="94"/>
+      <c r="G16" s="94"/>
+      <c r="H16" s="94"/>
+    </row>
+    <row r="17" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="176" t="s">
         <v>412</v>
       </c>
-      <c r="B17" s="233" t="s">
+      <c r="B17" s="181" t="s">
         <v>414</v>
       </c>
       <c r="C17" s="18" t="s">
@@ -15799,12 +15878,15 @@
       <c r="E17" s="18" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="F17" s="94"/>
+      <c r="G17" s="94"/>
+      <c r="H17" s="94"/>
+    </row>
+    <row r="18" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="176" t="s">
         <v>416</v>
       </c>
-      <c r="B18" s="233" t="s">
+      <c r="B18" s="181" t="s">
         <v>420</v>
       </c>
       <c r="C18" s="18" t="s">
@@ -15816,12 +15898,15 @@
       <c r="E18" s="18" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="232" t="s">
+      <c r="F18" s="94"/>
+      <c r="G18" s="94"/>
+      <c r="H18" s="94"/>
+    </row>
+    <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="180" t="s">
         <v>418</v>
       </c>
-      <c r="B19" s="233" t="s">
+      <c r="B19" s="181" t="s">
         <v>422</v>
       </c>
       <c r="C19" s="18" t="s">
@@ -15833,12 +15918,15 @@
       <c r="E19" s="18" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F19" s="94"/>
+      <c r="G19" s="94"/>
+      <c r="H19" s="94"/>
+    </row>
+    <row r="20" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="175" t="s">
         <v>424</v>
       </c>
-      <c r="B20" s="233" t="s">
+      <c r="B20" s="181" t="s">
         <v>467</v>
       </c>
       <c r="C20" s="18" t="s">
@@ -15850,12 +15938,15 @@
       <c r="E20" s="18" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="232" t="s">
+      <c r="F20" s="94"/>
+      <c r="G20" s="94"/>
+      <c r="H20" s="94"/>
+    </row>
+    <row r="21" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="180" t="s">
         <v>427</v>
       </c>
-      <c r="B21" s="233" t="s">
+      <c r="B21" s="181" t="s">
         <v>429</v>
       </c>
       <c r="C21" s="18" t="s">
@@ -15867,12 +15958,15 @@
       <c r="E21" s="18" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F21" s="94"/>
+      <c r="G21" s="94"/>
+      <c r="H21" s="94"/>
+    </row>
+    <row r="22" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="175" t="s">
         <v>430</v>
       </c>
-      <c r="B22" s="233" t="s">
+      <c r="B22" s="181" t="s">
         <v>432</v>
       </c>
       <c r="C22" s="18" t="s">
@@ -15884,12 +15978,15 @@
       <c r="E22" s="18" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="F22" s="94"/>
+      <c r="G22" s="94"/>
+      <c r="H22" s="94"/>
+    </row>
+    <row r="23" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="175" t="s">
         <v>434</v>
       </c>
-      <c r="B23" s="233" t="s">
+      <c r="B23" s="181" t="s">
         <v>437</v>
       </c>
       <c r="C23" s="18" t="s">
@@ -15901,12 +15998,15 @@
       <c r="E23" s="18" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" s="232" t="s">
+      <c r="F23" s="94"/>
+      <c r="G23" s="94"/>
+      <c r="H23" s="94"/>
+    </row>
+    <row r="24" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A24" s="180" t="s">
         <v>438</v>
       </c>
-      <c r="B24" s="233" t="s">
+      <c r="B24" s="181" t="s">
         <v>440</v>
       </c>
       <c r="C24" s="18" t="s">
@@ -15918,12 +16018,15 @@
       <c r="E24" s="18" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="232" t="s">
+      <c r="F24" s="94"/>
+      <c r="G24" s="94"/>
+      <c r="H24" s="94"/>
+    </row>
+    <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="180" t="s">
         <v>441</v>
       </c>
-      <c r="B25" s="233" t="s">
+      <c r="B25" s="181" t="s">
         <v>443</v>
       </c>
       <c r="C25" s="18" t="s">
@@ -15935,12 +16038,15 @@
       <c r="E25" s="18" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F25" s="94"/>
+      <c r="G25" s="94"/>
+      <c r="H25" s="94"/>
+    </row>
+    <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="179" t="s">
         <v>445</v>
       </c>
-      <c r="B26" s="233" t="s">
+      <c r="B26" s="181" t="s">
         <v>446</v>
       </c>
       <c r="C26" s="18" t="s">
@@ -15952,12 +16058,15 @@
       <c r="E26" s="18" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F26" s="94"/>
+      <c r="G26" s="94"/>
+      <c r="H26" s="94"/>
+    </row>
+    <row r="27" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="179" t="s">
         <v>448</v>
       </c>
-      <c r="B27" s="233" t="s">
+      <c r="B27" s="181" t="s">
         <v>451</v>
       </c>
       <c r="C27" s="18" t="s">
@@ -15969,12 +16078,15 @@
       <c r="E27" s="18" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="F27" s="94"/>
+      <c r="G27" s="94"/>
+      <c r="H27" s="94"/>
+    </row>
+    <row r="28" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="179" t="s">
         <v>452</v>
       </c>
-      <c r="B28" s="233" t="s">
+      <c r="B28" s="181" t="s">
         <v>468</v>
       </c>
       <c r="C28" s="18" t="s">
@@ -15986,12 +16098,15 @@
       <c r="E28" s="18" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A29" s="232" t="s">
+      <c r="F28" s="94"/>
+      <c r="G28" s="94"/>
+      <c r="H28" s="94"/>
+    </row>
+    <row r="29" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A29" s="180" t="s">
         <v>453</v>
       </c>
-      <c r="B29" s="233" t="s">
+      <c r="B29" s="181" t="s">
         <v>459</v>
       </c>
       <c r="C29" s="18" t="s">
@@ -16003,12 +16118,15 @@
       <c r="E29" s="18" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29" s="94"/>
+      <c r="G29" s="94"/>
+      <c r="H29" s="94"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="176" t="s">
         <v>454</v>
       </c>
-      <c r="B30" s="233" t="s">
+      <c r="B30" s="181" t="s">
         <v>463</v>
       </c>
       <c r="C30" s="18" t="s">
@@ -16020,12 +16138,15 @@
       <c r="E30" s="18" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A31" s="232" t="s">
+      <c r="F30" s="94"/>
+      <c r="G30" s="94"/>
+      <c r="H30" s="94"/>
+    </row>
+    <row r="31" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A31" s="180" t="s">
         <v>455</v>
       </c>
-      <c r="B31" s="233" t="s">
+      <c r="B31" s="181" t="s">
         <v>464</v>
       </c>
       <c r="C31" s="18" t="s">
@@ -16037,10 +16158,13 @@
       <c r="E31" s="18" t="s">
         <v>421</v>
       </c>
+      <c r="F31" s="94"/>
+      <c r="G31" s="94"/>
+      <c r="H31" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Experiment01_Resumo/Resumo_Exp01.xlsx
+++ b/Experiment01_Resumo/Resumo_Exp01.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="478">
   <si>
     <t>Database search</t>
   </si>
@@ -1570,6 +1570,9 @@
   </si>
   <si>
     <t>Ref</t>
+  </si>
+  <si>
+    <t>karlström2002a</t>
   </si>
 </sst>
 </file>
@@ -2785,12 +2788,36 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2807,30 +2834,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3216,12 +3219,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="214040208"/>
-        <c:axId val="214043736"/>
+        <c:axId val="186798528"/>
+        <c:axId val="188938280"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="214040208"/>
+        <c:axId val="186798528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3313,7 +3316,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="214043736"/>
+        <c:crossAx val="188938280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3321,7 +3324,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="214043736"/>
+        <c:axId val="188938280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3372,7 +3375,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="214040208"/>
+        <c:crossAx val="186798528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3681,12 +3684,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="214045696"/>
-        <c:axId val="214042168"/>
+        <c:axId val="188933576"/>
+        <c:axId val="188933184"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="214045696"/>
+        <c:axId val="188933576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3775,7 +3778,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="214042168"/>
+        <c:crossAx val="188933184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3783,7 +3786,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="214042168"/>
+        <c:axId val="188933184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3866,7 +3869,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="214045696"/>
+        <c:crossAx val="188933576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4151,12 +4154,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="214042560"/>
-        <c:axId val="214042952"/>
+        <c:axId val="188939848"/>
+        <c:axId val="188935144"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="214042560"/>
+        <c:axId val="188939848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4245,7 +4248,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="214042952"/>
+        <c:crossAx val="188935144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4253,7 +4256,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="214042952"/>
+        <c:axId val="188935144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4336,7 +4339,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="214042560"/>
+        <c:crossAx val="188939848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5123,12 +5126,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="214046872"/>
-        <c:axId val="214044520"/>
+        <c:axId val="188937496"/>
+        <c:axId val="188937104"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="214046872"/>
+        <c:axId val="188937496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5168,7 +5171,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="214044520"/>
+        <c:crossAx val="188937104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5176,7 +5179,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="214044520"/>
+        <c:axId val="188937104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5224,7 +5227,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="214046872"/>
+        <c:crossAx val="188937496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5532,8 +5535,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="214039816"/>
-        <c:axId val="295024616"/>
+        <c:axId val="188936320"/>
+        <c:axId val="188938672"/>
         <c:axId val="0"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
@@ -5703,7 +5706,7 @@
         </c:extLst>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="214039816"/>
+        <c:axId val="188936320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5801,7 +5804,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="295024616"/>
+        <c:crossAx val="188938672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5809,7 +5812,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="295024616"/>
+        <c:axId val="188938672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5888,7 +5891,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="214039816"/>
+        <c:crossAx val="188936320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6202,8 +6205,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="295025008"/>
-        <c:axId val="295025400"/>
+        <c:axId val="188939456"/>
+        <c:axId val="188940240"/>
         <c:axId val="0"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
@@ -6373,7 +6376,7 @@
         </c:extLst>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="295025008"/>
+        <c:axId val="188939456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6471,7 +6474,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="295025400"/>
+        <c:crossAx val="188940240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6479,7 +6482,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="295025400"/>
+        <c:axId val="188940240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6558,7 +6561,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="295025008"/>
+        <c:crossAx val="188939456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13053,43 +13056,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="207" t="s">
+      <c r="A1" s="198" t="s">
         <v>230</v>
       </c>
-      <c r="B1" s="208"/>
-      <c r="C1" s="208"/>
-      <c r="D1" s="208"/>
-      <c r="E1" s="208"/>
-      <c r="F1" s="208"/>
-      <c r="G1" s="208"/>
-      <c r="H1" s="208"/>
-      <c r="I1" s="208"/>
+      <c r="B1" s="199"/>
+      <c r="C1" s="199"/>
+      <c r="D1" s="199"/>
+      <c r="E1" s="199"/>
+      <c r="F1" s="199"/>
+      <c r="G1" s="199"/>
+      <c r="H1" s="199"/>
+      <c r="I1" s="199"/>
     </row>
     <row r="2" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="206" t="s">
+      <c r="A2" s="201" t="s">
         <v>229</v>
       </c>
-      <c r="B2" s="206"/>
-      <c r="C2" s="206"/>
-      <c r="D2" s="206"/>
-      <c r="E2" s="206"/>
-      <c r="F2" s="206"/>
-      <c r="G2" s="206"/>
-      <c r="H2" s="206"/>
-      <c r="I2" s="206"/>
+      <c r="B2" s="201"/>
+      <c r="C2" s="201"/>
+      <c r="D2" s="201"/>
+      <c r="E2" s="201"/>
+      <c r="F2" s="201"/>
+      <c r="G2" s="201"/>
+      <c r="H2" s="201"/>
+      <c r="I2" s="201"/>
     </row>
     <row r="3" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="199" t="s">
+      <c r="A3" s="202" t="s">
         <v>337</v>
       </c>
-      <c r="B3" s="199"/>
-      <c r="C3" s="199"/>
-      <c r="D3" s="199"/>
-      <c r="E3" s="199"/>
-      <c r="F3" s="199"/>
-      <c r="G3" s="199"/>
-      <c r="H3" s="199"/>
-      <c r="I3" s="199"/>
+      <c r="B3" s="202"/>
+      <c r="C3" s="202"/>
+      <c r="D3" s="202"/>
+      <c r="E3" s="202"/>
+      <c r="F3" s="202"/>
+      <c r="G3" s="202"/>
+      <c r="H3" s="202"/>
+      <c r="I3" s="202"/>
       <c r="J3" s="71"/>
       <c r="K3" s="71"/>
       <c r="L3" s="71"/>
@@ -13102,12 +13105,12 @@
       <c r="S3" s="71"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="209" t="s">
+      <c r="A4" s="200" t="s">
         <v>253</v>
       </c>
-      <c r="B4" s="209"/>
-      <c r="C4" s="209"/>
-      <c r="D4" s="209"/>
+      <c r="B4" s="200"/>
+      <c r="C4" s="200"/>
+      <c r="D4" s="200"/>
     </row>
     <row r="5" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="69" t="s">
@@ -13133,7 +13136,7 @@
       <c r="C6" s="49" t="s">
         <v>196</v>
       </c>
-      <c r="D6" s="203" t="s">
+      <c r="D6" s="211" t="s">
         <v>339</v>
       </c>
       <c r="N6" s="26"/>
@@ -13148,7 +13151,7 @@
       <c r="C7" s="49" t="s">
         <v>228</v>
       </c>
-      <c r="D7" s="204"/>
+      <c r="D7" s="212"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="78" t="s">
@@ -13160,7 +13163,7 @@
       <c r="C8" s="49" t="s">
         <v>235</v>
       </c>
-      <c r="D8" s="204"/>
+      <c r="D8" s="212"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="78" t="s">
@@ -13172,7 +13175,7 @@
       <c r="C9" s="49" t="s">
         <v>236</v>
       </c>
-      <c r="D9" s="204"/>
+      <c r="D9" s="212"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="78" t="s">
@@ -13184,7 +13187,7 @@
       <c r="C10" s="49" t="s">
         <v>237</v>
       </c>
-      <c r="D10" s="204"/>
+      <c r="D10" s="212"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="78" t="s">
@@ -13196,7 +13199,7 @@
       <c r="C11" s="49" t="s">
         <v>237</v>
       </c>
-      <c r="D11" s="204"/>
+      <c r="D11" s="212"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="78" t="s">
@@ -13208,7 +13211,7 @@
       <c r="C12" s="49" t="s">
         <v>266</v>
       </c>
-      <c r="D12" s="204"/>
+      <c r="D12" s="212"/>
     </row>
     <row r="13" spans="1:19" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="146" t="s">
@@ -13220,7 +13223,7 @@
       <c r="C13" s="137" t="s">
         <v>273</v>
       </c>
-      <c r="D13" s="205"/>
+      <c r="D13" s="213"/>
     </row>
     <row r="14" spans="1:19" s="77" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="147" t="s">
@@ -13237,30 +13240,30 @@
       </c>
     </row>
     <row r="15" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="206" t="s">
+      <c r="A15" s="201" t="s">
         <v>261</v>
       </c>
-      <c r="B15" s="206"/>
-      <c r="C15" s="206"/>
-      <c r="D15" s="206"/>
-      <c r="E15" s="206"/>
-      <c r="F15" s="206"/>
-      <c r="G15" s="206"/>
-      <c r="H15" s="206"/>
-      <c r="I15" s="206"/>
+      <c r="B15" s="201"/>
+      <c r="C15" s="201"/>
+      <c r="D15" s="201"/>
+      <c r="E15" s="201"/>
+      <c r="F15" s="201"/>
+      <c r="G15" s="201"/>
+      <c r="H15" s="201"/>
+      <c r="I15" s="201"/>
     </row>
     <row r="16" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="199" t="s">
+      <c r="A16" s="202" t="s">
         <v>238</v>
       </c>
-      <c r="B16" s="199"/>
-      <c r="C16" s="199"/>
-      <c r="D16" s="199"/>
-      <c r="E16" s="199"/>
-      <c r="F16" s="199"/>
-      <c r="G16" s="199"/>
-      <c r="H16" s="199"/>
-      <c r="I16" s="199"/>
+      <c r="B16" s="202"/>
+      <c r="C16" s="202"/>
+      <c r="D16" s="202"/>
+      <c r="E16" s="202"/>
+      <c r="F16" s="202"/>
+      <c r="G16" s="202"/>
+      <c r="H16" s="202"/>
+      <c r="I16" s="202"/>
       <c r="J16" s="71"/>
       <c r="K16" s="71"/>
       <c r="L16" s="71"/>
@@ -13273,14 +13276,14 @@
       <c r="S16" s="71"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="209" t="s">
+      <c r="A17" s="200" t="s">
         <v>259</v>
       </c>
-      <c r="B17" s="209"/>
-      <c r="C17" s="209"/>
-      <c r="D17" s="209"/>
-      <c r="E17" s="209"/>
-      <c r="F17" s="209"/>
+      <c r="B17" s="200"/>
+      <c r="C17" s="200"/>
+      <c r="D17" s="200"/>
+      <c r="E17" s="200"/>
+      <c r="F17" s="200"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="69" t="s">
@@ -13423,30 +13426,30 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="206" t="s">
+      <c r="A25" s="201" t="s">
         <v>260</v>
       </c>
-      <c r="B25" s="206"/>
-      <c r="C25" s="206"/>
-      <c r="D25" s="206"/>
-      <c r="E25" s="206"/>
-      <c r="F25" s="206"/>
-      <c r="G25" s="206"/>
-      <c r="H25" s="206"/>
-      <c r="I25" s="206"/>
+      <c r="B25" s="201"/>
+      <c r="C25" s="201"/>
+      <c r="D25" s="201"/>
+      <c r="E25" s="201"/>
+      <c r="F25" s="201"/>
+      <c r="G25" s="201"/>
+      <c r="H25" s="201"/>
+      <c r="I25" s="201"/>
     </row>
     <row r="26" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="199" t="s">
+      <c r="A26" s="202" t="s">
         <v>338</v>
       </c>
-      <c r="B26" s="199"/>
-      <c r="C26" s="199"/>
-      <c r="D26" s="199"/>
-      <c r="E26" s="199"/>
-      <c r="F26" s="199"/>
-      <c r="G26" s="199"/>
-      <c r="H26" s="199"/>
-      <c r="I26" s="199"/>
+      <c r="B26" s="202"/>
+      <c r="C26" s="202"/>
+      <c r="D26" s="202"/>
+      <c r="E26" s="202"/>
+      <c r="F26" s="202"/>
+      <c r="G26" s="202"/>
+      <c r="H26" s="202"/>
+      <c r="I26" s="202"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="69" t="s">
@@ -13458,12 +13461,12 @@
       <c r="C27" s="69" t="s">
         <v>201</v>
       </c>
-      <c r="D27" s="213" t="s">
+      <c r="D27" s="206" t="s">
         <v>292</v>
       </c>
-      <c r="E27" s="213"/>
-      <c r="F27" s="213"/>
-      <c r="G27" s="213"/>
+      <c r="E27" s="206"/>
+      <c r="F27" s="206"/>
+      <c r="G27" s="206"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="52" t="s">
@@ -13475,12 +13478,12 @@
       <c r="C28" s="72">
         <v>0.59</v>
       </c>
-      <c r="D28" s="200" t="s">
+      <c r="D28" s="208" t="s">
         <v>285</v>
       </c>
-      <c r="E28" s="201"/>
-      <c r="F28" s="201"/>
-      <c r="G28" s="202"/>
+      <c r="E28" s="209"/>
+      <c r="F28" s="209"/>
+      <c r="G28" s="210"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="52" t="s">
@@ -13492,12 +13495,12 @@
       <c r="C29" s="72">
         <v>0.77</v>
       </c>
-      <c r="D29" s="210" t="s">
+      <c r="D29" s="203" t="s">
         <v>286</v>
       </c>
-      <c r="E29" s="211"/>
-      <c r="F29" s="211"/>
-      <c r="G29" s="212"/>
+      <c r="E29" s="204"/>
+      <c r="F29" s="204"/>
+      <c r="G29" s="205"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="52" t="s">
@@ -13509,12 +13512,12 @@
       <c r="C30" s="72">
         <v>0.41</v>
       </c>
-      <c r="D30" s="210" t="s">
+      <c r="D30" s="203" t="s">
         <v>287</v>
       </c>
-      <c r="E30" s="211"/>
-      <c r="F30" s="211"/>
-      <c r="G30" s="212"/>
+      <c r="E30" s="204"/>
+      <c r="F30" s="204"/>
+      <c r="G30" s="205"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="52" t="s">
@@ -13526,12 +13529,12 @@
       <c r="C31" s="72">
         <v>0.59</v>
       </c>
-      <c r="D31" s="210" t="s">
+      <c r="D31" s="203" t="s">
         <v>289</v>
       </c>
-      <c r="E31" s="211"/>
-      <c r="F31" s="211"/>
-      <c r="G31" s="212"/>
+      <c r="E31" s="204"/>
+      <c r="F31" s="204"/>
+      <c r="G31" s="205"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="52" t="s">
@@ -13543,12 +13546,12 @@
       <c r="C32" s="72">
         <v>0.5</v>
       </c>
-      <c r="D32" s="210" t="s">
+      <c r="D32" s="203" t="s">
         <v>288</v>
       </c>
-      <c r="E32" s="211"/>
-      <c r="F32" s="211"/>
-      <c r="G32" s="212"/>
+      <c r="E32" s="204"/>
+      <c r="F32" s="204"/>
+      <c r="G32" s="205"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="52" t="s">
@@ -13560,12 +13563,12 @@
       <c r="C33" s="72">
         <v>0.59</v>
       </c>
-      <c r="D33" s="210" t="s">
+      <c r="D33" s="203" t="s">
         <v>290</v>
       </c>
-      <c r="E33" s="211"/>
-      <c r="F33" s="211"/>
-      <c r="G33" s="212"/>
+      <c r="E33" s="204"/>
+      <c r="F33" s="204"/>
+      <c r="G33" s="205"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="52" t="s">
@@ -13577,25 +13580,25 @@
       <c r="C34" s="72">
         <v>0.54</v>
       </c>
-      <c r="D34" s="210" t="s">
+      <c r="D34" s="203" t="s">
         <v>291</v>
       </c>
-      <c r="E34" s="211"/>
-      <c r="F34" s="211"/>
-      <c r="G34" s="212"/>
+      <c r="E34" s="204"/>
+      <c r="F34" s="204"/>
+      <c r="G34" s="205"/>
     </row>
     <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="206" t="s">
+      <c r="A36" s="201" t="s">
         <v>315</v>
       </c>
-      <c r="B36" s="206"/>
-      <c r="C36" s="206"/>
-      <c r="D36" s="206"/>
-      <c r="E36" s="206"/>
-      <c r="F36" s="206"/>
-      <c r="G36" s="206"/>
-      <c r="H36" s="206"/>
-      <c r="I36" s="206"/>
+      <c r="B36" s="201"/>
+      <c r="C36" s="201"/>
+      <c r="D36" s="201"/>
+      <c r="E36" s="201"/>
+      <c r="F36" s="201"/>
+      <c r="G36" s="201"/>
+      <c r="H36" s="201"/>
+      <c r="I36" s="201"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="87" t="s">
@@ -13662,12 +13665,12 @@
       </c>
     </row>
     <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="198" t="s">
+      <c r="A46" s="207" t="s">
         <v>318</v>
       </c>
-      <c r="B46" s="198"/>
-      <c r="C46" s="198"/>
-      <c r="D46" s="198"/>
+      <c r="B46" s="207"/>
+      <c r="C46" s="207"/>
+      <c r="D46" s="207"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="88" t="s">
@@ -13790,6 +13793,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D6:D13"/>
+    <mergeCell ref="A2:I2"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A25:I25"/>
@@ -13805,11 +13813,6 @@
     <mergeCell ref="D30:G30"/>
     <mergeCell ref="D31:G31"/>
     <mergeCell ref="D32:G32"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D6:D13"/>
-    <mergeCell ref="A2:I2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -15517,8 +15520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15678,8 +15681,12 @@
       <c r="E7" s="18" t="s">
         <v>373</v>
       </c>
-      <c r="F7" s="94"/>
-      <c r="G7" s="94"/>
+      <c r="F7" s="94" t="s">
+        <v>477</v>
+      </c>
+      <c r="G7" s="94">
+        <v>19</v>
+      </c>
       <c r="H7" s="94"/>
     </row>
     <row r="8" spans="1:8" ht="75" x14ac:dyDescent="0.25">

--- a/Experiment01_Resumo/Resumo_Exp01.xlsx
+++ b/Experiment01_Resumo/Resumo_Exp01.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="480">
   <si>
     <t>Database search</t>
   </si>
@@ -1258,10 +1258,6 @@
 Austria. Proceedings, Springer Berlin Heidelberg, 2013, pp. 215–229.</t>
   </si>
   <si>
-    <t>Development and evaluation of systems engineering strategies: An assessment-based
-approach</t>
-  </si>
-  <si>
     <t>S28</t>
   </si>
   <si>
@@ -1573,6 +1569,15 @@
   </si>
   <si>
     <t>karlström2002a</t>
+  </si>
+  <si>
+    <t>stallinger2013a</t>
+  </si>
+  <si>
+    <t>Development and evaluation of systems engineering strategies: An assessment-based approach</t>
+  </si>
+  <si>
+    <t>sun2010a</t>
   </si>
 </sst>
 </file>
@@ -2788,6 +2793,33 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2797,12 +2829,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2813,27 +2839,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3219,12 +3224,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="186798528"/>
-        <c:axId val="188938280"/>
+        <c:axId val="160765176"/>
+        <c:axId val="160762824"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="186798528"/>
+        <c:axId val="160765176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3316,7 +3321,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="188938280"/>
+        <c:crossAx val="160762824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3324,7 +3329,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="188938280"/>
+        <c:axId val="160762824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3375,7 +3380,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="186798528"/>
+        <c:crossAx val="160765176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3684,12 +3689,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="188933576"/>
-        <c:axId val="188933184"/>
+        <c:axId val="160763216"/>
+        <c:axId val="160764392"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="188933576"/>
+        <c:axId val="160763216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3778,7 +3783,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="188933184"/>
+        <c:crossAx val="160764392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3786,7 +3791,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="188933184"/>
+        <c:axId val="160764392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3869,7 +3874,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="188933576"/>
+        <c:crossAx val="160763216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4154,12 +4159,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="188939848"/>
-        <c:axId val="188935144"/>
+        <c:axId val="162188280"/>
+        <c:axId val="162190240"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="188939848"/>
+        <c:axId val="162188280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4248,7 +4253,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="188935144"/>
+        <c:crossAx val="162190240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4256,7 +4261,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="188935144"/>
+        <c:axId val="162190240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4339,7 +4344,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="188939848"/>
+        <c:crossAx val="162188280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5126,12 +5131,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="188937496"/>
-        <c:axId val="188937104"/>
+        <c:axId val="162189064"/>
+        <c:axId val="162187104"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="188937496"/>
+        <c:axId val="162189064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5171,7 +5176,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="188937104"/>
+        <c:crossAx val="162187104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5179,7 +5184,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="188937104"/>
+        <c:axId val="162187104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5227,7 +5232,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="188937496"/>
+        <c:crossAx val="162189064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5535,8 +5540,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="188936320"/>
-        <c:axId val="188938672"/>
+        <c:axId val="162189456"/>
+        <c:axId val="162185536"/>
         <c:axId val="0"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
@@ -5706,7 +5711,7 @@
         </c:extLst>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="188936320"/>
+        <c:axId val="162189456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5804,7 +5809,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="188938672"/>
+        <c:crossAx val="162185536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5812,7 +5817,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="188938672"/>
+        <c:axId val="162185536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5891,7 +5896,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="188936320"/>
+        <c:crossAx val="162189456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6205,8 +6210,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="188939456"/>
-        <c:axId val="188940240"/>
+        <c:axId val="162189848"/>
+        <c:axId val="162185928"/>
         <c:axId val="0"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
@@ -6376,7 +6381,7 @@
         </c:extLst>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="188939456"/>
+        <c:axId val="162189848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6474,7 +6479,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="188940240"/>
+        <c:crossAx val="162185928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6482,7 +6487,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="188940240"/>
+        <c:axId val="162185928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6561,7 +6566,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="188939456"/>
+        <c:crossAx val="162189848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13056,43 +13061,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="198" t="s">
+      <c r="A1" s="207" t="s">
         <v>230</v>
       </c>
-      <c r="B1" s="199"/>
-      <c r="C1" s="199"/>
-      <c r="D1" s="199"/>
-      <c r="E1" s="199"/>
-      <c r="F1" s="199"/>
-      <c r="G1" s="199"/>
-      <c r="H1" s="199"/>
-      <c r="I1" s="199"/>
+      <c r="B1" s="208"/>
+      <c r="C1" s="208"/>
+      <c r="D1" s="208"/>
+      <c r="E1" s="208"/>
+      <c r="F1" s="208"/>
+      <c r="G1" s="208"/>
+      <c r="H1" s="208"/>
+      <c r="I1" s="208"/>
     </row>
     <row r="2" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="201" t="s">
+      <c r="A2" s="206" t="s">
         <v>229</v>
       </c>
-      <c r="B2" s="201"/>
-      <c r="C2" s="201"/>
-      <c r="D2" s="201"/>
-      <c r="E2" s="201"/>
-      <c r="F2" s="201"/>
-      <c r="G2" s="201"/>
-      <c r="H2" s="201"/>
-      <c r="I2" s="201"/>
+      <c r="B2" s="206"/>
+      <c r="C2" s="206"/>
+      <c r="D2" s="206"/>
+      <c r="E2" s="206"/>
+      <c r="F2" s="206"/>
+      <c r="G2" s="206"/>
+      <c r="H2" s="206"/>
+      <c r="I2" s="206"/>
     </row>
     <row r="3" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="202" t="s">
+      <c r="A3" s="199" t="s">
         <v>337</v>
       </c>
-      <c r="B3" s="202"/>
-      <c r="C3" s="202"/>
-      <c r="D3" s="202"/>
-      <c r="E3" s="202"/>
-      <c r="F3" s="202"/>
-      <c r="G3" s="202"/>
-      <c r="H3" s="202"/>
-      <c r="I3" s="202"/>
+      <c r="B3" s="199"/>
+      <c r="C3" s="199"/>
+      <c r="D3" s="199"/>
+      <c r="E3" s="199"/>
+      <c r="F3" s="199"/>
+      <c r="G3" s="199"/>
+      <c r="H3" s="199"/>
+      <c r="I3" s="199"/>
       <c r="J3" s="71"/>
       <c r="K3" s="71"/>
       <c r="L3" s="71"/>
@@ -13105,12 +13110,12 @@
       <c r="S3" s="71"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="200" t="s">
+      <c r="A4" s="209" t="s">
         <v>253</v>
       </c>
-      <c r="B4" s="200"/>
-      <c r="C4" s="200"/>
-      <c r="D4" s="200"/>
+      <c r="B4" s="209"/>
+      <c r="C4" s="209"/>
+      <c r="D4" s="209"/>
     </row>
     <row r="5" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="69" t="s">
@@ -13136,7 +13141,7 @@
       <c r="C6" s="49" t="s">
         <v>196</v>
       </c>
-      <c r="D6" s="211" t="s">
+      <c r="D6" s="203" t="s">
         <v>339</v>
       </c>
       <c r="N6" s="26"/>
@@ -13151,7 +13156,7 @@
       <c r="C7" s="49" t="s">
         <v>228</v>
       </c>
-      <c r="D7" s="212"/>
+      <c r="D7" s="204"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="78" t="s">
@@ -13163,7 +13168,7 @@
       <c r="C8" s="49" t="s">
         <v>235</v>
       </c>
-      <c r="D8" s="212"/>
+      <c r="D8" s="204"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="78" t="s">
@@ -13175,7 +13180,7 @@
       <c r="C9" s="49" t="s">
         <v>236</v>
       </c>
-      <c r="D9" s="212"/>
+      <c r="D9" s="204"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="78" t="s">
@@ -13187,7 +13192,7 @@
       <c r="C10" s="49" t="s">
         <v>237</v>
       </c>
-      <c r="D10" s="212"/>
+      <c r="D10" s="204"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="78" t="s">
@@ -13199,7 +13204,7 @@
       <c r="C11" s="49" t="s">
         <v>237</v>
       </c>
-      <c r="D11" s="212"/>
+      <c r="D11" s="204"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="78" t="s">
@@ -13211,7 +13216,7 @@
       <c r="C12" s="49" t="s">
         <v>266</v>
       </c>
-      <c r="D12" s="212"/>
+      <c r="D12" s="204"/>
     </row>
     <row r="13" spans="1:19" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="146" t="s">
@@ -13223,7 +13228,7 @@
       <c r="C13" s="137" t="s">
         <v>273</v>
       </c>
-      <c r="D13" s="213"/>
+      <c r="D13" s="205"/>
     </row>
     <row r="14" spans="1:19" s="77" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="147" t="s">
@@ -13240,30 +13245,30 @@
       </c>
     </row>
     <row r="15" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="201" t="s">
+      <c r="A15" s="206" t="s">
         <v>261</v>
       </c>
-      <c r="B15" s="201"/>
-      <c r="C15" s="201"/>
-      <c r="D15" s="201"/>
-      <c r="E15" s="201"/>
-      <c r="F15" s="201"/>
-      <c r="G15" s="201"/>
-      <c r="H15" s="201"/>
-      <c r="I15" s="201"/>
+      <c r="B15" s="206"/>
+      <c r="C15" s="206"/>
+      <c r="D15" s="206"/>
+      <c r="E15" s="206"/>
+      <c r="F15" s="206"/>
+      <c r="G15" s="206"/>
+      <c r="H15" s="206"/>
+      <c r="I15" s="206"/>
     </row>
     <row r="16" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="202" t="s">
+      <c r="A16" s="199" t="s">
         <v>238</v>
       </c>
-      <c r="B16" s="202"/>
-      <c r="C16" s="202"/>
-      <c r="D16" s="202"/>
-      <c r="E16" s="202"/>
-      <c r="F16" s="202"/>
-      <c r="G16" s="202"/>
-      <c r="H16" s="202"/>
-      <c r="I16" s="202"/>
+      <c r="B16" s="199"/>
+      <c r="C16" s="199"/>
+      <c r="D16" s="199"/>
+      <c r="E16" s="199"/>
+      <c r="F16" s="199"/>
+      <c r="G16" s="199"/>
+      <c r="H16" s="199"/>
+      <c r="I16" s="199"/>
       <c r="J16" s="71"/>
       <c r="K16" s="71"/>
       <c r="L16" s="71"/>
@@ -13276,14 +13281,14 @@
       <c r="S16" s="71"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="200" t="s">
+      <c r="A17" s="209" t="s">
         <v>259</v>
       </c>
-      <c r="B17" s="200"/>
-      <c r="C17" s="200"/>
-      <c r="D17" s="200"/>
-      <c r="E17" s="200"/>
-      <c r="F17" s="200"/>
+      <c r="B17" s="209"/>
+      <c r="C17" s="209"/>
+      <c r="D17" s="209"/>
+      <c r="E17" s="209"/>
+      <c r="F17" s="209"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="69" t="s">
@@ -13426,30 +13431,30 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="201" t="s">
+      <c r="A25" s="206" t="s">
         <v>260</v>
       </c>
-      <c r="B25" s="201"/>
-      <c r="C25" s="201"/>
-      <c r="D25" s="201"/>
-      <c r="E25" s="201"/>
-      <c r="F25" s="201"/>
-      <c r="G25" s="201"/>
-      <c r="H25" s="201"/>
-      <c r="I25" s="201"/>
+      <c r="B25" s="206"/>
+      <c r="C25" s="206"/>
+      <c r="D25" s="206"/>
+      <c r="E25" s="206"/>
+      <c r="F25" s="206"/>
+      <c r="G25" s="206"/>
+      <c r="H25" s="206"/>
+      <c r="I25" s="206"/>
     </row>
     <row r="26" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="202" t="s">
+      <c r="A26" s="199" t="s">
         <v>338</v>
       </c>
-      <c r="B26" s="202"/>
-      <c r="C26" s="202"/>
-      <c r="D26" s="202"/>
-      <c r="E26" s="202"/>
-      <c r="F26" s="202"/>
-      <c r="G26" s="202"/>
-      <c r="H26" s="202"/>
-      <c r="I26" s="202"/>
+      <c r="B26" s="199"/>
+      <c r="C26" s="199"/>
+      <c r="D26" s="199"/>
+      <c r="E26" s="199"/>
+      <c r="F26" s="199"/>
+      <c r="G26" s="199"/>
+      <c r="H26" s="199"/>
+      <c r="I26" s="199"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="69" t="s">
@@ -13461,12 +13466,12 @@
       <c r="C27" s="69" t="s">
         <v>201</v>
       </c>
-      <c r="D27" s="206" t="s">
+      <c r="D27" s="213" t="s">
         <v>292</v>
       </c>
-      <c r="E27" s="206"/>
-      <c r="F27" s="206"/>
-      <c r="G27" s="206"/>
+      <c r="E27" s="213"/>
+      <c r="F27" s="213"/>
+      <c r="G27" s="213"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="52" t="s">
@@ -13478,12 +13483,12 @@
       <c r="C28" s="72">
         <v>0.59</v>
       </c>
-      <c r="D28" s="208" t="s">
+      <c r="D28" s="200" t="s">
         <v>285</v>
       </c>
-      <c r="E28" s="209"/>
-      <c r="F28" s="209"/>
-      <c r="G28" s="210"/>
+      <c r="E28" s="201"/>
+      <c r="F28" s="201"/>
+      <c r="G28" s="202"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="52" t="s">
@@ -13495,12 +13500,12 @@
       <c r="C29" s="72">
         <v>0.77</v>
       </c>
-      <c r="D29" s="203" t="s">
+      <c r="D29" s="210" t="s">
         <v>286</v>
       </c>
-      <c r="E29" s="204"/>
-      <c r="F29" s="204"/>
-      <c r="G29" s="205"/>
+      <c r="E29" s="211"/>
+      <c r="F29" s="211"/>
+      <c r="G29" s="212"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="52" t="s">
@@ -13512,12 +13517,12 @@
       <c r="C30" s="72">
         <v>0.41</v>
       </c>
-      <c r="D30" s="203" t="s">
+      <c r="D30" s="210" t="s">
         <v>287</v>
       </c>
-      <c r="E30" s="204"/>
-      <c r="F30" s="204"/>
-      <c r="G30" s="205"/>
+      <c r="E30" s="211"/>
+      <c r="F30" s="211"/>
+      <c r="G30" s="212"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="52" t="s">
@@ -13529,12 +13534,12 @@
       <c r="C31" s="72">
         <v>0.59</v>
       </c>
-      <c r="D31" s="203" t="s">
+      <c r="D31" s="210" t="s">
         <v>289</v>
       </c>
-      <c r="E31" s="204"/>
-      <c r="F31" s="204"/>
-      <c r="G31" s="205"/>
+      <c r="E31" s="211"/>
+      <c r="F31" s="211"/>
+      <c r="G31" s="212"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="52" t="s">
@@ -13546,12 +13551,12 @@
       <c r="C32" s="72">
         <v>0.5</v>
       </c>
-      <c r="D32" s="203" t="s">
+      <c r="D32" s="210" t="s">
         <v>288</v>
       </c>
-      <c r="E32" s="204"/>
-      <c r="F32" s="204"/>
-      <c r="G32" s="205"/>
+      <c r="E32" s="211"/>
+      <c r="F32" s="211"/>
+      <c r="G32" s="212"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="52" t="s">
@@ -13563,12 +13568,12 @@
       <c r="C33" s="72">
         <v>0.59</v>
       </c>
-      <c r="D33" s="203" t="s">
+      <c r="D33" s="210" t="s">
         <v>290</v>
       </c>
-      <c r="E33" s="204"/>
-      <c r="F33" s="204"/>
-      <c r="G33" s="205"/>
+      <c r="E33" s="211"/>
+      <c r="F33" s="211"/>
+      <c r="G33" s="212"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="52" t="s">
@@ -13580,25 +13585,25 @@
       <c r="C34" s="72">
         <v>0.54</v>
       </c>
-      <c r="D34" s="203" t="s">
+      <c r="D34" s="210" t="s">
         <v>291</v>
       </c>
-      <c r="E34" s="204"/>
-      <c r="F34" s="204"/>
-      <c r="G34" s="205"/>
+      <c r="E34" s="211"/>
+      <c r="F34" s="211"/>
+      <c r="G34" s="212"/>
     </row>
     <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="201" t="s">
+      <c r="A36" s="206" t="s">
         <v>315</v>
       </c>
-      <c r="B36" s="201"/>
-      <c r="C36" s="201"/>
-      <c r="D36" s="201"/>
-      <c r="E36" s="201"/>
-      <c r="F36" s="201"/>
-      <c r="G36" s="201"/>
-      <c r="H36" s="201"/>
-      <c r="I36" s="201"/>
+      <c r="B36" s="206"/>
+      <c r="C36" s="206"/>
+      <c r="D36" s="206"/>
+      <c r="E36" s="206"/>
+      <c r="F36" s="206"/>
+      <c r="G36" s="206"/>
+      <c r="H36" s="206"/>
+      <c r="I36" s="206"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="87" t="s">
@@ -13665,12 +13670,12 @@
       </c>
     </row>
     <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="207" t="s">
+      <c r="A46" s="198" t="s">
         <v>318</v>
       </c>
-      <c r="B46" s="207"/>
-      <c r="C46" s="207"/>
-      <c r="D46" s="207"/>
+      <c r="B46" s="198"/>
+      <c r="C46" s="198"/>
+      <c r="D46" s="198"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="88" t="s">
@@ -13793,11 +13798,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D6:D13"/>
-    <mergeCell ref="A2:I2"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A25:I25"/>
@@ -13813,6 +13813,11 @@
     <mergeCell ref="D30:G30"/>
     <mergeCell ref="D31:G31"/>
     <mergeCell ref="D32:G32"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D6:D13"/>
+    <mergeCell ref="A2:I2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14717,7 +14722,7 @@
         <v>351</v>
       </c>
       <c r="P2" s="172" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="Q2" s="172" t="s">
         <v>352</v>
@@ -15520,8 +15525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15535,7 +15540,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="227" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B1" s="227"/>
       <c r="C1" s="227"/>
@@ -15562,13 +15567,13 @@
         <v>37</v>
       </c>
       <c r="F2" s="174" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G2" s="174" t="s">
         <v>146</v>
       </c>
       <c r="H2" s="174" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -15576,7 +15581,7 @@
         <v>359</v>
       </c>
       <c r="B3" s="181" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C3" s="18" t="s">
         <v>358</v>
@@ -15608,7 +15613,7 @@
         <v>361</v>
       </c>
       <c r="F4" s="53" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G4" s="94">
         <v>12</v>
@@ -15632,7 +15637,7 @@
         <v>365</v>
       </c>
       <c r="F5" s="94" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G5" s="94">
         <v>10</v>
@@ -15656,13 +15661,13 @@
         <v>369</v>
       </c>
       <c r="F6" s="53" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="G6" s="94">
         <v>94</v>
       </c>
       <c r="H6" s="53" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.25">
@@ -15682,7 +15687,7 @@
         <v>373</v>
       </c>
       <c r="F7" s="94" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G7" s="94">
         <v>19</v>
@@ -15691,10 +15696,10 @@
     </row>
     <row r="8" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="175" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B8" s="181" t="s">
-        <v>378</v>
+        <v>478</v>
       </c>
       <c r="C8" s="18" t="s">
         <v>377</v>
@@ -15705,25 +15710,29 @@
       <c r="E8" s="18" t="s">
         <v>376</v>
       </c>
-      <c r="F8" s="94"/>
-      <c r="G8" s="94"/>
+      <c r="F8" s="94" t="s">
+        <v>477</v>
+      </c>
+      <c r="G8" s="94">
+        <v>13</v>
+      </c>
       <c r="H8" s="94"/>
     </row>
     <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="180" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B9" s="181" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D9" s="18">
         <v>1995</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F9" s="94"/>
       <c r="G9" s="94"/>
@@ -15731,39 +15740,43 @@
     </row>
     <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="175" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B10" s="181" t="s">
+        <v>385</v>
+      </c>
+      <c r="C10" s="18" t="s">
         <v>386</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>387</v>
       </c>
       <c r="D10" s="18">
         <v>2010</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>385</v>
-      </c>
-      <c r="F10" s="94"/>
-      <c r="G10" s="94"/>
+        <v>384</v>
+      </c>
+      <c r="F10" s="94" t="s">
+        <v>479</v>
+      </c>
+      <c r="G10" s="94">
+        <v>26</v>
+      </c>
       <c r="H10" s="94"/>
     </row>
     <row r="11" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="175" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B11" s="181" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D11" s="18">
         <v>2010</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F11" s="94"/>
       <c r="G11" s="94"/>
@@ -15771,19 +15784,19 @@
     </row>
     <row r="12" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="180" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B12" s="181" t="s">
+        <v>393</v>
+      </c>
+      <c r="C12" s="18" t="s">
         <v>394</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>395</v>
       </c>
       <c r="D12" s="18">
         <v>2000</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F12" s="94"/>
       <c r="G12" s="94"/>
@@ -15791,19 +15804,19 @@
     </row>
     <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="175" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B13" s="181" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D13" s="18">
         <v>2014</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F13" s="94"/>
       <c r="G13" s="94"/>
@@ -15811,19 +15824,19 @@
     </row>
     <row r="14" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="179" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B14" s="181" t="s">
+        <v>402</v>
+      </c>
+      <c r="C14" s="18" t="s">
         <v>403</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>404</v>
       </c>
       <c r="D14" s="18">
         <v>2010</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F14" s="94"/>
       <c r="G14" s="94"/>
@@ -15831,19 +15844,19 @@
     </row>
     <row r="15" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="179" t="s">
+        <v>404</v>
+      </c>
+      <c r="B15" s="181" t="s">
+        <v>406</v>
+      </c>
+      <c r="C15" s="18" t="s">
         <v>405</v>
-      </c>
-      <c r="B15" s="181" t="s">
-        <v>407</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>406</v>
       </c>
       <c r="D15" s="18">
         <v>2010</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F15" s="94"/>
       <c r="G15" s="94"/>
@@ -15851,19 +15864,19 @@
     </row>
     <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="176" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B16" s="181" t="s">
+        <v>409</v>
+      </c>
+      <c r="C16" s="18" t="s">
         <v>410</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>411</v>
       </c>
       <c r="D16" s="18">
         <v>2005</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F16" s="94"/>
       <c r="G16" s="94"/>
@@ -15871,19 +15884,19 @@
     </row>
     <row r="17" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="176" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B17" s="181" t="s">
+        <v>413</v>
+      </c>
+      <c r="C17" s="18" t="s">
         <v>414</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>415</v>
       </c>
       <c r="D17" s="18">
         <v>1998</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F17" s="94"/>
       <c r="G17" s="94"/>
@@ -15891,19 +15904,19 @@
     </row>
     <row r="18" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="176" t="s">
+        <v>415</v>
+      </c>
+      <c r="B18" s="181" t="s">
+        <v>419</v>
+      </c>
+      <c r="C18" s="18" t="s">
         <v>416</v>
-      </c>
-      <c r="B18" s="181" t="s">
-        <v>420</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>417</v>
       </c>
       <c r="D18" s="18">
         <v>2007</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F18" s="94"/>
       <c r="G18" s="94"/>
@@ -15911,19 +15924,19 @@
     </row>
     <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="180" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B19" s="181" t="s">
+        <v>421</v>
+      </c>
+      <c r="C19" s="18" t="s">
         <v>422</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>423</v>
       </c>
       <c r="D19" s="18">
         <v>2014</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F19" s="94"/>
       <c r="G19" s="94"/>
@@ -15931,19 +15944,19 @@
     </row>
     <row r="20" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="175" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B20" s="181" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D20" s="18">
         <v>2013</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F20" s="94"/>
       <c r="G20" s="94"/>
@@ -15951,19 +15964,19 @@
     </row>
     <row r="21" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="180" t="s">
+        <v>426</v>
+      </c>
+      <c r="B21" s="181" t="s">
+        <v>428</v>
+      </c>
+      <c r="C21" s="18" t="s">
         <v>427</v>
-      </c>
-      <c r="B21" s="181" t="s">
-        <v>429</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>428</v>
       </c>
       <c r="D21" s="18">
         <v>2013</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F21" s="94"/>
       <c r="G21" s="94"/>
@@ -15971,19 +15984,19 @@
     </row>
     <row r="22" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="175" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B22" s="181" t="s">
+        <v>431</v>
+      </c>
+      <c r="C22" s="18" t="s">
         <v>432</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>433</v>
       </c>
       <c r="D22" s="18">
         <v>2007</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F22" s="94"/>
       <c r="G22" s="94"/>
@@ -15991,19 +16004,19 @@
     </row>
     <row r="23" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="175" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B23" s="181" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D23" s="18">
         <v>2011</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F23" s="94"/>
       <c r="G23" s="94"/>
@@ -16011,19 +16024,19 @@
     </row>
     <row r="24" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="180" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B24" s="181" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D24" s="18">
         <v>2007</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F24" s="94"/>
       <c r="G24" s="94"/>
@@ -16031,19 +16044,19 @@
     </row>
     <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="180" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B25" s="181" t="s">
+        <v>442</v>
+      </c>
+      <c r="C25" s="18" t="s">
         <v>443</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>444</v>
       </c>
       <c r="D25" s="18">
         <v>2010</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F25" s="94"/>
       <c r="G25" s="94"/>
@@ -16051,19 +16064,19 @@
     </row>
     <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="179" t="s">
+        <v>444</v>
+      </c>
+      <c r="B26" s="181" t="s">
         <v>445</v>
       </c>
-      <c r="B26" s="181" t="s">
+      <c r="C26" s="18" t="s">
         <v>446</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>447</v>
       </c>
       <c r="D26" s="18">
         <v>2006</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F26" s="94"/>
       <c r="G26" s="94"/>
@@ -16071,19 +16084,19 @@
     </row>
     <row r="27" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="179" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B27" s="181" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D27" s="18">
         <v>2011</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F27" s="94"/>
       <c r="G27" s="94"/>
@@ -16091,19 +16104,19 @@
     </row>
     <row r="28" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="179" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B28" s="181" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D28" s="18">
         <v>2004</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F28" s="94"/>
       <c r="G28" s="94"/>
@@ -16111,19 +16124,19 @@
     </row>
     <row r="29" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="180" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B29" s="181" t="s">
+        <v>458</v>
+      </c>
+      <c r="C29" s="18" t="s">
         <v>459</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>460</v>
       </c>
       <c r="D29" s="18">
         <v>2010</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F29" s="94"/>
       <c r="G29" s="94"/>
@@ -16131,19 +16144,19 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="176" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B30" s="181" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D30" s="18">
         <v>2003</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F30" s="94"/>
       <c r="G30" s="94"/>
@@ -16151,19 +16164,19 @@
     </row>
     <row r="31" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="180" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B31" s="181" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D31" s="18">
         <v>2007</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F31" s="94"/>
       <c r="G31" s="94"/>

--- a/Experiment01_Resumo/Resumo_Exp01.xlsx
+++ b/Experiment01_Resumo/Resumo_Exp01.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="484">
   <si>
     <t>Database search</t>
   </si>
@@ -1578,6 +1578,18 @@
   </si>
   <si>
     <t>sun2010a</t>
+  </si>
+  <si>
+    <t>armbrust2010a</t>
+  </si>
+  <si>
+    <t>lepmets2014a</t>
+  </si>
+  <si>
+    <t>mcloughlin2010a</t>
+  </si>
+  <si>
+    <t>mcloughlin2010b</t>
   </si>
 </sst>
 </file>
@@ -3224,12 +3236,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="160765176"/>
-        <c:axId val="160762824"/>
+        <c:axId val="216888248"/>
+        <c:axId val="216886680"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="160765176"/>
+        <c:axId val="216888248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3321,7 +3333,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160762824"/>
+        <c:crossAx val="216886680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3329,7 +3341,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="160762824"/>
+        <c:axId val="216886680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3380,7 +3392,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160765176"/>
+        <c:crossAx val="216888248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3689,12 +3701,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="160763216"/>
-        <c:axId val="160764392"/>
+        <c:axId val="216887072"/>
+        <c:axId val="216883936"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="160763216"/>
+        <c:axId val="216887072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3783,7 +3795,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160764392"/>
+        <c:crossAx val="216883936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3791,7 +3803,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="160764392"/>
+        <c:axId val="216883936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3874,7 +3886,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160763216"/>
+        <c:crossAx val="216887072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4159,12 +4171,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="162188280"/>
-        <c:axId val="162190240"/>
+        <c:axId val="216891384"/>
+        <c:axId val="216889032"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="162188280"/>
+        <c:axId val="216891384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4253,7 +4265,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="162190240"/>
+        <c:crossAx val="216889032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4261,7 +4273,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="162190240"/>
+        <c:axId val="216889032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4344,7 +4356,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="162188280"/>
+        <c:crossAx val="216891384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5131,12 +5143,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="162189064"/>
-        <c:axId val="162187104"/>
+        <c:axId val="216887856"/>
+        <c:axId val="216889424"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="162189064"/>
+        <c:axId val="216887856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5176,7 +5188,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="162187104"/>
+        <c:crossAx val="216889424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5184,7 +5196,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="162187104"/>
+        <c:axId val="216889424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5232,7 +5244,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="162189064"/>
+        <c:crossAx val="216887856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5540,8 +5552,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="162189456"/>
-        <c:axId val="162185536"/>
+        <c:axId val="216885504"/>
+        <c:axId val="294593424"/>
         <c:axId val="0"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
@@ -5711,7 +5723,7 @@
         </c:extLst>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="162189456"/>
+        <c:axId val="216885504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5809,7 +5821,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="162185536"/>
+        <c:crossAx val="294593424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5817,7 +5829,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="162185536"/>
+        <c:axId val="294593424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5896,7 +5908,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162189456"/>
+        <c:crossAx val="216885504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6210,8 +6222,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="162189848"/>
-        <c:axId val="162185928"/>
+        <c:axId val="294592248"/>
+        <c:axId val="294590288"/>
         <c:axId val="0"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
@@ -6381,7 +6393,7 @@
         </c:extLst>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="162189848"/>
+        <c:axId val="294592248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6479,7 +6491,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="162185928"/>
+        <c:crossAx val="294590288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6487,7 +6499,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="162185928"/>
+        <c:axId val="294590288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6566,7 +6578,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162189848"/>
+        <c:crossAx val="294592248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15525,8 +15537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15778,8 +15790,12 @@
       <c r="E11" s="18" t="s">
         <v>388</v>
       </c>
-      <c r="F11" s="94"/>
-      <c r="G11" s="94"/>
+      <c r="F11" s="29" t="s">
+        <v>480</v>
+      </c>
+      <c r="G11" s="94">
+        <v>21</v>
+      </c>
       <c r="H11" s="94"/>
     </row>
     <row r="12" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -15798,7 +15814,6 @@
       <c r="E12" s="18" t="s">
         <v>392</v>
       </c>
-      <c r="F12" s="94"/>
       <c r="G12" s="94"/>
       <c r="H12" s="94"/>
     </row>
@@ -15818,8 +15833,12 @@
       <c r="E13" s="18" t="s">
         <v>396</v>
       </c>
-      <c r="F13" s="94"/>
-      <c r="G13" s="94"/>
+      <c r="F13" s="94" t="s">
+        <v>481</v>
+      </c>
+      <c r="G13" s="94">
+        <v>18</v>
+      </c>
       <c r="H13" s="94"/>
     </row>
     <row r="14" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -15838,8 +15857,12 @@
       <c r="E14" s="18" t="s">
         <v>401</v>
       </c>
-      <c r="F14" s="94"/>
-      <c r="G14" s="94"/>
+      <c r="F14" s="94" t="s">
+        <v>482</v>
+      </c>
+      <c r="G14" s="94">
+        <v>45</v>
+      </c>
       <c r="H14" s="94"/>
     </row>
     <row r="15" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -15858,8 +15881,12 @@
       <c r="E15" s="18" t="s">
         <v>401</v>
       </c>
-      <c r="F15" s="94"/>
-      <c r="G15" s="94"/>
+      <c r="F15" s="94" t="s">
+        <v>483</v>
+      </c>
+      <c r="G15" s="94">
+        <v>28</v>
+      </c>
       <c r="H15" s="94"/>
     </row>
     <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">

--- a/Experiment01_Resumo/Resumo_Exp01.xlsx
+++ b/Experiment01_Resumo/Resumo_Exp01.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="486">
   <si>
     <t>Database search</t>
   </si>
@@ -1590,6 +1590,12 @@
   </si>
   <si>
     <t>mcloughlin2010b</t>
+  </si>
+  <si>
+    <t>liu2005a</t>
+  </si>
+  <si>
+    <t>basili2007a</t>
   </si>
 </sst>
 </file>
@@ -2805,12 +2811,36 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2827,30 +2857,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3236,12 +3242,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="216888248"/>
-        <c:axId val="216886680"/>
+        <c:axId val="215543456"/>
+        <c:axId val="215542672"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="216888248"/>
+        <c:axId val="215543456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3333,7 +3339,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="216886680"/>
+        <c:crossAx val="215542672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3341,7 +3347,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="216886680"/>
+        <c:axId val="215542672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3392,7 +3398,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="216888248"/>
+        <c:crossAx val="215543456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3701,12 +3707,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="216887072"/>
-        <c:axId val="216883936"/>
+        <c:axId val="215537968"/>
+        <c:axId val="215543064"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="216887072"/>
+        <c:axId val="215537968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3795,7 +3801,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="216883936"/>
+        <c:crossAx val="215543064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3803,7 +3809,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="216883936"/>
+        <c:axId val="215543064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3886,7 +3892,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="216887072"/>
+        <c:crossAx val="215537968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4171,12 +4177,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="216891384"/>
-        <c:axId val="216889032"/>
+        <c:axId val="215539928"/>
+        <c:axId val="215543848"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="216891384"/>
+        <c:axId val="215539928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4265,7 +4271,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="216889032"/>
+        <c:crossAx val="215543848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4273,7 +4279,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="216889032"/>
+        <c:axId val="215543848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4356,7 +4362,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="216891384"/>
+        <c:crossAx val="215539928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5143,12 +5149,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="216887856"/>
-        <c:axId val="216889424"/>
+        <c:axId val="215536400"/>
+        <c:axId val="215537576"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="216887856"/>
+        <c:axId val="215536400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5188,7 +5194,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="216889424"/>
+        <c:crossAx val="215537576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5196,7 +5202,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="216889424"/>
+        <c:axId val="215537576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5244,7 +5250,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="216887856"/>
+        <c:crossAx val="215536400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5552,8 +5558,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="216885504"/>
-        <c:axId val="294593424"/>
+        <c:axId val="215541104"/>
+        <c:axId val="215539536"/>
         <c:axId val="0"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
@@ -5723,7 +5729,7 @@
         </c:extLst>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="216885504"/>
+        <c:axId val="215541104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5821,7 +5827,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="294593424"/>
+        <c:crossAx val="215539536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5829,7 +5835,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="294593424"/>
+        <c:axId val="215539536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5908,7 +5914,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="216885504"/>
+        <c:crossAx val="215541104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6222,8 +6228,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="294592248"/>
-        <c:axId val="294590288"/>
+        <c:axId val="292836992"/>
+        <c:axId val="292832680"/>
         <c:axId val="0"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
@@ -6393,7 +6399,7 @@
         </c:extLst>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="294592248"/>
+        <c:axId val="292836992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6491,7 +6497,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="294590288"/>
+        <c:crossAx val="292832680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6499,7 +6505,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="294590288"/>
+        <c:axId val="292832680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6578,7 +6584,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="294592248"/>
+        <c:crossAx val="292836992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13073,43 +13079,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="207" t="s">
+      <c r="A1" s="198" t="s">
         <v>230</v>
       </c>
-      <c r="B1" s="208"/>
-      <c r="C1" s="208"/>
-      <c r="D1" s="208"/>
-      <c r="E1" s="208"/>
-      <c r="F1" s="208"/>
-      <c r="G1" s="208"/>
-      <c r="H1" s="208"/>
-      <c r="I1" s="208"/>
+      <c r="B1" s="199"/>
+      <c r="C1" s="199"/>
+      <c r="D1" s="199"/>
+      <c r="E1" s="199"/>
+      <c r="F1" s="199"/>
+      <c r="G1" s="199"/>
+      <c r="H1" s="199"/>
+      <c r="I1" s="199"/>
     </row>
     <row r="2" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="206" t="s">
+      <c r="A2" s="201" t="s">
         <v>229</v>
       </c>
-      <c r="B2" s="206"/>
-      <c r="C2" s="206"/>
-      <c r="D2" s="206"/>
-      <c r="E2" s="206"/>
-      <c r="F2" s="206"/>
-      <c r="G2" s="206"/>
-      <c r="H2" s="206"/>
-      <c r="I2" s="206"/>
+      <c r="B2" s="201"/>
+      <c r="C2" s="201"/>
+      <c r="D2" s="201"/>
+      <c r="E2" s="201"/>
+      <c r="F2" s="201"/>
+      <c r="G2" s="201"/>
+      <c r="H2" s="201"/>
+      <c r="I2" s="201"/>
     </row>
     <row r="3" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="199" t="s">
+      <c r="A3" s="202" t="s">
         <v>337</v>
       </c>
-      <c r="B3" s="199"/>
-      <c r="C3" s="199"/>
-      <c r="D3" s="199"/>
-      <c r="E3" s="199"/>
-      <c r="F3" s="199"/>
-      <c r="G3" s="199"/>
-      <c r="H3" s="199"/>
-      <c r="I3" s="199"/>
+      <c r="B3" s="202"/>
+      <c r="C3" s="202"/>
+      <c r="D3" s="202"/>
+      <c r="E3" s="202"/>
+      <c r="F3" s="202"/>
+      <c r="G3" s="202"/>
+      <c r="H3" s="202"/>
+      <c r="I3" s="202"/>
       <c r="J3" s="71"/>
       <c r="K3" s="71"/>
       <c r="L3" s="71"/>
@@ -13122,12 +13128,12 @@
       <c r="S3" s="71"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="209" t="s">
+      <c r="A4" s="200" t="s">
         <v>253</v>
       </c>
-      <c r="B4" s="209"/>
-      <c r="C4" s="209"/>
-      <c r="D4" s="209"/>
+      <c r="B4" s="200"/>
+      <c r="C4" s="200"/>
+      <c r="D4" s="200"/>
     </row>
     <row r="5" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="69" t="s">
@@ -13153,7 +13159,7 @@
       <c r="C6" s="49" t="s">
         <v>196</v>
       </c>
-      <c r="D6" s="203" t="s">
+      <c r="D6" s="211" t="s">
         <v>339</v>
       </c>
       <c r="N6" s="26"/>
@@ -13168,7 +13174,7 @@
       <c r="C7" s="49" t="s">
         <v>228</v>
       </c>
-      <c r="D7" s="204"/>
+      <c r="D7" s="212"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="78" t="s">
@@ -13180,7 +13186,7 @@
       <c r="C8" s="49" t="s">
         <v>235</v>
       </c>
-      <c r="D8" s="204"/>
+      <c r="D8" s="212"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="78" t="s">
@@ -13192,7 +13198,7 @@
       <c r="C9" s="49" t="s">
         <v>236</v>
       </c>
-      <c r="D9" s="204"/>
+      <c r="D9" s="212"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="78" t="s">
@@ -13204,7 +13210,7 @@
       <c r="C10" s="49" t="s">
         <v>237</v>
       </c>
-      <c r="D10" s="204"/>
+      <c r="D10" s="212"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="78" t="s">
@@ -13216,7 +13222,7 @@
       <c r="C11" s="49" t="s">
         <v>237</v>
       </c>
-      <c r="D11" s="204"/>
+      <c r="D11" s="212"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="78" t="s">
@@ -13228,7 +13234,7 @@
       <c r="C12" s="49" t="s">
         <v>266</v>
       </c>
-      <c r="D12" s="204"/>
+      <c r="D12" s="212"/>
     </row>
     <row r="13" spans="1:19" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="146" t="s">
@@ -13240,7 +13246,7 @@
       <c r="C13" s="137" t="s">
         <v>273</v>
       </c>
-      <c r="D13" s="205"/>
+      <c r="D13" s="213"/>
     </row>
     <row r="14" spans="1:19" s="77" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="147" t="s">
@@ -13257,30 +13263,30 @@
       </c>
     </row>
     <row r="15" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="206" t="s">
+      <c r="A15" s="201" t="s">
         <v>261</v>
       </c>
-      <c r="B15" s="206"/>
-      <c r="C15" s="206"/>
-      <c r="D15" s="206"/>
-      <c r="E15" s="206"/>
-      <c r="F15" s="206"/>
-      <c r="G15" s="206"/>
-      <c r="H15" s="206"/>
-      <c r="I15" s="206"/>
+      <c r="B15" s="201"/>
+      <c r="C15" s="201"/>
+      <c r="D15" s="201"/>
+      <c r="E15" s="201"/>
+      <c r="F15" s="201"/>
+      <c r="G15" s="201"/>
+      <c r="H15" s="201"/>
+      <c r="I15" s="201"/>
     </row>
     <row r="16" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="199" t="s">
+      <c r="A16" s="202" t="s">
         <v>238</v>
       </c>
-      <c r="B16" s="199"/>
-      <c r="C16" s="199"/>
-      <c r="D16" s="199"/>
-      <c r="E16" s="199"/>
-      <c r="F16" s="199"/>
-      <c r="G16" s="199"/>
-      <c r="H16" s="199"/>
-      <c r="I16" s="199"/>
+      <c r="B16" s="202"/>
+      <c r="C16" s="202"/>
+      <c r="D16" s="202"/>
+      <c r="E16" s="202"/>
+      <c r="F16" s="202"/>
+      <c r="G16" s="202"/>
+      <c r="H16" s="202"/>
+      <c r="I16" s="202"/>
       <c r="J16" s="71"/>
       <c r="K16" s="71"/>
       <c r="L16" s="71"/>
@@ -13293,14 +13299,14 @@
       <c r="S16" s="71"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="209" t="s">
+      <c r="A17" s="200" t="s">
         <v>259</v>
       </c>
-      <c r="B17" s="209"/>
-      <c r="C17" s="209"/>
-      <c r="D17" s="209"/>
-      <c r="E17" s="209"/>
-      <c r="F17" s="209"/>
+      <c r="B17" s="200"/>
+      <c r="C17" s="200"/>
+      <c r="D17" s="200"/>
+      <c r="E17" s="200"/>
+      <c r="F17" s="200"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="69" t="s">
@@ -13443,30 +13449,30 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="206" t="s">
+      <c r="A25" s="201" t="s">
         <v>260</v>
       </c>
-      <c r="B25" s="206"/>
-      <c r="C25" s="206"/>
-      <c r="D25" s="206"/>
-      <c r="E25" s="206"/>
-      <c r="F25" s="206"/>
-      <c r="G25" s="206"/>
-      <c r="H25" s="206"/>
-      <c r="I25" s="206"/>
+      <c r="B25" s="201"/>
+      <c r="C25" s="201"/>
+      <c r="D25" s="201"/>
+      <c r="E25" s="201"/>
+      <c r="F25" s="201"/>
+      <c r="G25" s="201"/>
+      <c r="H25" s="201"/>
+      <c r="I25" s="201"/>
     </row>
     <row r="26" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="199" t="s">
+      <c r="A26" s="202" t="s">
         <v>338</v>
       </c>
-      <c r="B26" s="199"/>
-      <c r="C26" s="199"/>
-      <c r="D26" s="199"/>
-      <c r="E26" s="199"/>
-      <c r="F26" s="199"/>
-      <c r="G26" s="199"/>
-      <c r="H26" s="199"/>
-      <c r="I26" s="199"/>
+      <c r="B26" s="202"/>
+      <c r="C26" s="202"/>
+      <c r="D26" s="202"/>
+      <c r="E26" s="202"/>
+      <c r="F26" s="202"/>
+      <c r="G26" s="202"/>
+      <c r="H26" s="202"/>
+      <c r="I26" s="202"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="69" t="s">
@@ -13478,12 +13484,12 @@
       <c r="C27" s="69" t="s">
         <v>201</v>
       </c>
-      <c r="D27" s="213" t="s">
+      <c r="D27" s="206" t="s">
         <v>292</v>
       </c>
-      <c r="E27" s="213"/>
-      <c r="F27" s="213"/>
-      <c r="G27" s="213"/>
+      <c r="E27" s="206"/>
+      <c r="F27" s="206"/>
+      <c r="G27" s="206"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="52" t="s">
@@ -13495,12 +13501,12 @@
       <c r="C28" s="72">
         <v>0.59</v>
       </c>
-      <c r="D28" s="200" t="s">
+      <c r="D28" s="208" t="s">
         <v>285</v>
       </c>
-      <c r="E28" s="201"/>
-      <c r="F28" s="201"/>
-      <c r="G28" s="202"/>
+      <c r="E28" s="209"/>
+      <c r="F28" s="209"/>
+      <c r="G28" s="210"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="52" t="s">
@@ -13512,12 +13518,12 @@
       <c r="C29" s="72">
         <v>0.77</v>
       </c>
-      <c r="D29" s="210" t="s">
+      <c r="D29" s="203" t="s">
         <v>286</v>
       </c>
-      <c r="E29" s="211"/>
-      <c r="F29" s="211"/>
-      <c r="G29" s="212"/>
+      <c r="E29" s="204"/>
+      <c r="F29" s="204"/>
+      <c r="G29" s="205"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="52" t="s">
@@ -13529,12 +13535,12 @@
       <c r="C30" s="72">
         <v>0.41</v>
       </c>
-      <c r="D30" s="210" t="s">
+      <c r="D30" s="203" t="s">
         <v>287</v>
       </c>
-      <c r="E30" s="211"/>
-      <c r="F30" s="211"/>
-      <c r="G30" s="212"/>
+      <c r="E30" s="204"/>
+      <c r="F30" s="204"/>
+      <c r="G30" s="205"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="52" t="s">
@@ -13546,12 +13552,12 @@
       <c r="C31" s="72">
         <v>0.59</v>
       </c>
-      <c r="D31" s="210" t="s">
+      <c r="D31" s="203" t="s">
         <v>289</v>
       </c>
-      <c r="E31" s="211"/>
-      <c r="F31" s="211"/>
-      <c r="G31" s="212"/>
+      <c r="E31" s="204"/>
+      <c r="F31" s="204"/>
+      <c r="G31" s="205"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="52" t="s">
@@ -13563,12 +13569,12 @@
       <c r="C32" s="72">
         <v>0.5</v>
       </c>
-      <c r="D32" s="210" t="s">
+      <c r="D32" s="203" t="s">
         <v>288</v>
       </c>
-      <c r="E32" s="211"/>
-      <c r="F32" s="211"/>
-      <c r="G32" s="212"/>
+      <c r="E32" s="204"/>
+      <c r="F32" s="204"/>
+      <c r="G32" s="205"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="52" t="s">
@@ -13580,12 +13586,12 @@
       <c r="C33" s="72">
         <v>0.59</v>
       </c>
-      <c r="D33" s="210" t="s">
+      <c r="D33" s="203" t="s">
         <v>290</v>
       </c>
-      <c r="E33" s="211"/>
-      <c r="F33" s="211"/>
-      <c r="G33" s="212"/>
+      <c r="E33" s="204"/>
+      <c r="F33" s="204"/>
+      <c r="G33" s="205"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="52" t="s">
@@ -13597,25 +13603,25 @@
       <c r="C34" s="72">
         <v>0.54</v>
       </c>
-      <c r="D34" s="210" t="s">
+      <c r="D34" s="203" t="s">
         <v>291</v>
       </c>
-      <c r="E34" s="211"/>
-      <c r="F34" s="211"/>
-      <c r="G34" s="212"/>
+      <c r="E34" s="204"/>
+      <c r="F34" s="204"/>
+      <c r="G34" s="205"/>
     </row>
     <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="206" t="s">
+      <c r="A36" s="201" t="s">
         <v>315</v>
       </c>
-      <c r="B36" s="206"/>
-      <c r="C36" s="206"/>
-      <c r="D36" s="206"/>
-      <c r="E36" s="206"/>
-      <c r="F36" s="206"/>
-      <c r="G36" s="206"/>
-      <c r="H36" s="206"/>
-      <c r="I36" s="206"/>
+      <c r="B36" s="201"/>
+      <c r="C36" s="201"/>
+      <c r="D36" s="201"/>
+      <c r="E36" s="201"/>
+      <c r="F36" s="201"/>
+      <c r="G36" s="201"/>
+      <c r="H36" s="201"/>
+      <c r="I36" s="201"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="87" t="s">
@@ -13682,12 +13688,12 @@
       </c>
     </row>
     <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="198" t="s">
+      <c r="A46" s="207" t="s">
         <v>318</v>
       </c>
-      <c r="B46" s="198"/>
-      <c r="C46" s="198"/>
-      <c r="D46" s="198"/>
+      <c r="B46" s="207"/>
+      <c r="C46" s="207"/>
+      <c r="D46" s="207"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="88" t="s">
@@ -13810,6 +13816,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D6:D13"/>
+    <mergeCell ref="A2:I2"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A25:I25"/>
@@ -13825,11 +13836,6 @@
     <mergeCell ref="D30:G30"/>
     <mergeCell ref="D31:G31"/>
     <mergeCell ref="D32:G32"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D6:D13"/>
-    <mergeCell ref="A2:I2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -15537,8 +15543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15905,8 +15911,12 @@
       <c r="E16" s="18" t="s">
         <v>408</v>
       </c>
-      <c r="F16" s="94"/>
-      <c r="G16" s="94"/>
+      <c r="F16" s="94" t="s">
+        <v>484</v>
+      </c>
+      <c r="G16" s="94">
+        <v>14</v>
+      </c>
       <c r="H16" s="94"/>
     </row>
     <row r="17" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -15945,8 +15955,12 @@
       <c r="E18" s="18" t="s">
         <v>420</v>
       </c>
-      <c r="F18" s="94"/>
-      <c r="G18" s="94"/>
+      <c r="F18" s="94" t="s">
+        <v>485</v>
+      </c>
+      <c r="G18" s="94">
+        <v>15</v>
+      </c>
       <c r="H18" s="94"/>
     </row>
     <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.25">

--- a/Experiment01_Resumo/Resumo_Exp01.xlsx
+++ b/Experiment01_Resumo/Resumo_Exp01.xlsx
@@ -2294,7 +2294,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="234">
+  <cellXfs count="235">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2811,6 +2811,33 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2820,12 +2847,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2838,27 +2859,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2918,6 +2918,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3242,12 +3245,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="215543456"/>
-        <c:axId val="215542672"/>
+        <c:axId val="211423496"/>
+        <c:axId val="211421536"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="215543456"/>
+        <c:axId val="211423496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3339,7 +3342,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="215542672"/>
+        <c:crossAx val="211421536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3347,7 +3350,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="215542672"/>
+        <c:axId val="211421536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3398,7 +3401,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="215543456"/>
+        <c:crossAx val="211423496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3707,12 +3710,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="215537968"/>
-        <c:axId val="215543064"/>
+        <c:axId val="211418400"/>
+        <c:axId val="211422712"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="215537968"/>
+        <c:axId val="211418400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3801,7 +3804,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="215543064"/>
+        <c:crossAx val="211422712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3809,7 +3812,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="215543064"/>
+        <c:axId val="211422712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3892,7 +3895,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="215537968"/>
+        <c:crossAx val="211418400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4177,12 +4180,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="215539928"/>
-        <c:axId val="215543848"/>
+        <c:axId val="211418008"/>
+        <c:axId val="211424280"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="215539928"/>
+        <c:axId val="211418008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4271,7 +4274,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="215543848"/>
+        <c:crossAx val="211424280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4279,7 +4282,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="215543848"/>
+        <c:axId val="211424280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4362,7 +4365,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="215539928"/>
+        <c:crossAx val="211418008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5149,12 +5152,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="215536400"/>
-        <c:axId val="215537576"/>
+        <c:axId val="211418792"/>
+        <c:axId val="211423888"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="215536400"/>
+        <c:axId val="211418792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5194,7 +5197,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="215537576"/>
+        <c:crossAx val="211423888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5202,7 +5205,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="215537576"/>
+        <c:axId val="211423888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5250,7 +5253,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="215536400"/>
+        <c:crossAx val="211418792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5558,8 +5561,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="215541104"/>
-        <c:axId val="215539536"/>
+        <c:axId val="211421928"/>
+        <c:axId val="211419968"/>
         <c:axId val="0"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
@@ -5729,7 +5732,7 @@
         </c:extLst>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="215541104"/>
+        <c:axId val="211421928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5827,7 +5830,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="215539536"/>
+        <c:crossAx val="211419968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5835,7 +5838,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="215539536"/>
+        <c:axId val="211419968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5914,7 +5917,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="215541104"/>
+        <c:crossAx val="211421928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6228,8 +6231,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="292836992"/>
-        <c:axId val="292832680"/>
+        <c:axId val="211417224"/>
+        <c:axId val="211421144"/>
         <c:axId val="0"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
@@ -6399,7 +6402,7 @@
         </c:extLst>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="292836992"/>
+        <c:axId val="211417224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6497,7 +6500,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="292832680"/>
+        <c:crossAx val="211421144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6505,7 +6508,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="292832680"/>
+        <c:axId val="211421144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6584,7 +6587,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="292836992"/>
+        <c:crossAx val="211417224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13079,43 +13082,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="198" t="s">
+      <c r="A1" s="207" t="s">
         <v>230</v>
       </c>
-      <c r="B1" s="199"/>
-      <c r="C1" s="199"/>
-      <c r="D1" s="199"/>
-      <c r="E1" s="199"/>
-      <c r="F1" s="199"/>
-      <c r="G1" s="199"/>
-      <c r="H1" s="199"/>
-      <c r="I1" s="199"/>
+      <c r="B1" s="208"/>
+      <c r="C1" s="208"/>
+      <c r="D1" s="208"/>
+      <c r="E1" s="208"/>
+      <c r="F1" s="208"/>
+      <c r="G1" s="208"/>
+      <c r="H1" s="208"/>
+      <c r="I1" s="208"/>
     </row>
     <row r="2" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="201" t="s">
+      <c r="A2" s="206" t="s">
         <v>229</v>
       </c>
-      <c r="B2" s="201"/>
-      <c r="C2" s="201"/>
-      <c r="D2" s="201"/>
-      <c r="E2" s="201"/>
-      <c r="F2" s="201"/>
-      <c r="G2" s="201"/>
-      <c r="H2" s="201"/>
-      <c r="I2" s="201"/>
+      <c r="B2" s="206"/>
+      <c r="C2" s="206"/>
+      <c r="D2" s="206"/>
+      <c r="E2" s="206"/>
+      <c r="F2" s="206"/>
+      <c r="G2" s="206"/>
+      <c r="H2" s="206"/>
+      <c r="I2" s="206"/>
     </row>
     <row r="3" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="202" t="s">
+      <c r="A3" s="199" t="s">
         <v>337</v>
       </c>
-      <c r="B3" s="202"/>
-      <c r="C3" s="202"/>
-      <c r="D3" s="202"/>
-      <c r="E3" s="202"/>
-      <c r="F3" s="202"/>
-      <c r="G3" s="202"/>
-      <c r="H3" s="202"/>
-      <c r="I3" s="202"/>
+      <c r="B3" s="199"/>
+      <c r="C3" s="199"/>
+      <c r="D3" s="199"/>
+      <c r="E3" s="199"/>
+      <c r="F3" s="199"/>
+      <c r="G3" s="199"/>
+      <c r="H3" s="199"/>
+      <c r="I3" s="199"/>
       <c r="J3" s="71"/>
       <c r="K3" s="71"/>
       <c r="L3" s="71"/>
@@ -13128,12 +13131,12 @@
       <c r="S3" s="71"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="200" t="s">
+      <c r="A4" s="209" t="s">
         <v>253</v>
       </c>
-      <c r="B4" s="200"/>
-      <c r="C4" s="200"/>
-      <c r="D4" s="200"/>
+      <c r="B4" s="209"/>
+      <c r="C4" s="209"/>
+      <c r="D4" s="209"/>
     </row>
     <row r="5" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="69" t="s">
@@ -13159,7 +13162,7 @@
       <c r="C6" s="49" t="s">
         <v>196</v>
       </c>
-      <c r="D6" s="211" t="s">
+      <c r="D6" s="203" t="s">
         <v>339</v>
       </c>
       <c r="N6" s="26"/>
@@ -13174,7 +13177,7 @@
       <c r="C7" s="49" t="s">
         <v>228</v>
       </c>
-      <c r="D7" s="212"/>
+      <c r="D7" s="204"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="78" t="s">
@@ -13186,7 +13189,7 @@
       <c r="C8" s="49" t="s">
         <v>235</v>
       </c>
-      <c r="D8" s="212"/>
+      <c r="D8" s="204"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="78" t="s">
@@ -13198,7 +13201,7 @@
       <c r="C9" s="49" t="s">
         <v>236</v>
       </c>
-      <c r="D9" s="212"/>
+      <c r="D9" s="204"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="78" t="s">
@@ -13210,7 +13213,7 @@
       <c r="C10" s="49" t="s">
         <v>237</v>
       </c>
-      <c r="D10" s="212"/>
+      <c r="D10" s="204"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="78" t="s">
@@ -13222,7 +13225,7 @@
       <c r="C11" s="49" t="s">
         <v>237</v>
       </c>
-      <c r="D11" s="212"/>
+      <c r="D11" s="204"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="78" t="s">
@@ -13234,7 +13237,7 @@
       <c r="C12" s="49" t="s">
         <v>266</v>
       </c>
-      <c r="D12" s="212"/>
+      <c r="D12" s="204"/>
     </row>
     <row r="13" spans="1:19" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="146" t="s">
@@ -13246,7 +13249,7 @@
       <c r="C13" s="137" t="s">
         <v>273</v>
       </c>
-      <c r="D13" s="213"/>
+      <c r="D13" s="205"/>
     </row>
     <row r="14" spans="1:19" s="77" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="147" t="s">
@@ -13263,30 +13266,30 @@
       </c>
     </row>
     <row r="15" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="201" t="s">
+      <c r="A15" s="206" t="s">
         <v>261</v>
       </c>
-      <c r="B15" s="201"/>
-      <c r="C15" s="201"/>
-      <c r="D15" s="201"/>
-      <c r="E15" s="201"/>
-      <c r="F15" s="201"/>
-      <c r="G15" s="201"/>
-      <c r="H15" s="201"/>
-      <c r="I15" s="201"/>
+      <c r="B15" s="206"/>
+      <c r="C15" s="206"/>
+      <c r="D15" s="206"/>
+      <c r="E15" s="206"/>
+      <c r="F15" s="206"/>
+      <c r="G15" s="206"/>
+      <c r="H15" s="206"/>
+      <c r="I15" s="206"/>
     </row>
     <row r="16" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="202" t="s">
+      <c r="A16" s="199" t="s">
         <v>238</v>
       </c>
-      <c r="B16" s="202"/>
-      <c r="C16" s="202"/>
-      <c r="D16" s="202"/>
-      <c r="E16" s="202"/>
-      <c r="F16" s="202"/>
-      <c r="G16" s="202"/>
-      <c r="H16" s="202"/>
-      <c r="I16" s="202"/>
+      <c r="B16" s="199"/>
+      <c r="C16" s="199"/>
+      <c r="D16" s="199"/>
+      <c r="E16" s="199"/>
+      <c r="F16" s="199"/>
+      <c r="G16" s="199"/>
+      <c r="H16" s="199"/>
+      <c r="I16" s="199"/>
       <c r="J16" s="71"/>
       <c r="K16" s="71"/>
       <c r="L16" s="71"/>
@@ -13299,14 +13302,14 @@
       <c r="S16" s="71"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="200" t="s">
+      <c r="A17" s="209" t="s">
         <v>259</v>
       </c>
-      <c r="B17" s="200"/>
-      <c r="C17" s="200"/>
-      <c r="D17" s="200"/>
-      <c r="E17" s="200"/>
-      <c r="F17" s="200"/>
+      <c r="B17" s="209"/>
+      <c r="C17" s="209"/>
+      <c r="D17" s="209"/>
+      <c r="E17" s="209"/>
+      <c r="F17" s="209"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="69" t="s">
@@ -13449,30 +13452,30 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="201" t="s">
+      <c r="A25" s="206" t="s">
         <v>260</v>
       </c>
-      <c r="B25" s="201"/>
-      <c r="C25" s="201"/>
-      <c r="D25" s="201"/>
-      <c r="E25" s="201"/>
-      <c r="F25" s="201"/>
-      <c r="G25" s="201"/>
-      <c r="H25" s="201"/>
-      <c r="I25" s="201"/>
+      <c r="B25" s="206"/>
+      <c r="C25" s="206"/>
+      <c r="D25" s="206"/>
+      <c r="E25" s="206"/>
+      <c r="F25" s="206"/>
+      <c r="G25" s="206"/>
+      <c r="H25" s="206"/>
+      <c r="I25" s="206"/>
     </row>
     <row r="26" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="202" t="s">
+      <c r="A26" s="199" t="s">
         <v>338</v>
       </c>
-      <c r="B26" s="202"/>
-      <c r="C26" s="202"/>
-      <c r="D26" s="202"/>
-      <c r="E26" s="202"/>
-      <c r="F26" s="202"/>
-      <c r="G26" s="202"/>
-      <c r="H26" s="202"/>
-      <c r="I26" s="202"/>
+      <c r="B26" s="199"/>
+      <c r="C26" s="199"/>
+      <c r="D26" s="199"/>
+      <c r="E26" s="199"/>
+      <c r="F26" s="199"/>
+      <c r="G26" s="199"/>
+      <c r="H26" s="199"/>
+      <c r="I26" s="199"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="69" t="s">
@@ -13484,12 +13487,12 @@
       <c r="C27" s="69" t="s">
         <v>201</v>
       </c>
-      <c r="D27" s="206" t="s">
+      <c r="D27" s="213" t="s">
         <v>292</v>
       </c>
-      <c r="E27" s="206"/>
-      <c r="F27" s="206"/>
-      <c r="G27" s="206"/>
+      <c r="E27" s="213"/>
+      <c r="F27" s="213"/>
+      <c r="G27" s="213"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="52" t="s">
@@ -13501,12 +13504,12 @@
       <c r="C28" s="72">
         <v>0.59</v>
       </c>
-      <c r="D28" s="208" t="s">
+      <c r="D28" s="200" t="s">
         <v>285</v>
       </c>
-      <c r="E28" s="209"/>
-      <c r="F28" s="209"/>
-      <c r="G28" s="210"/>
+      <c r="E28" s="201"/>
+      <c r="F28" s="201"/>
+      <c r="G28" s="202"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="52" t="s">
@@ -13518,12 +13521,12 @@
       <c r="C29" s="72">
         <v>0.77</v>
       </c>
-      <c r="D29" s="203" t="s">
+      <c r="D29" s="210" t="s">
         <v>286</v>
       </c>
-      <c r="E29" s="204"/>
-      <c r="F29" s="204"/>
-      <c r="G29" s="205"/>
+      <c r="E29" s="211"/>
+      <c r="F29" s="211"/>
+      <c r="G29" s="212"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="52" t="s">
@@ -13535,12 +13538,12 @@
       <c r="C30" s="72">
         <v>0.41</v>
       </c>
-      <c r="D30" s="203" t="s">
+      <c r="D30" s="210" t="s">
         <v>287</v>
       </c>
-      <c r="E30" s="204"/>
-      <c r="F30" s="204"/>
-      <c r="G30" s="205"/>
+      <c r="E30" s="211"/>
+      <c r="F30" s="211"/>
+      <c r="G30" s="212"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="52" t="s">
@@ -13552,12 +13555,12 @@
       <c r="C31" s="72">
         <v>0.59</v>
       </c>
-      <c r="D31" s="203" t="s">
+      <c r="D31" s="210" t="s">
         <v>289</v>
       </c>
-      <c r="E31" s="204"/>
-      <c r="F31" s="204"/>
-      <c r="G31" s="205"/>
+      <c r="E31" s="211"/>
+      <c r="F31" s="211"/>
+      <c r="G31" s="212"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="52" t="s">
@@ -13569,12 +13572,12 @@
       <c r="C32" s="72">
         <v>0.5</v>
       </c>
-      <c r="D32" s="203" t="s">
+      <c r="D32" s="210" t="s">
         <v>288</v>
       </c>
-      <c r="E32" s="204"/>
-      <c r="F32" s="204"/>
-      <c r="G32" s="205"/>
+      <c r="E32" s="211"/>
+      <c r="F32" s="211"/>
+      <c r="G32" s="212"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="52" t="s">
@@ -13586,12 +13589,12 @@
       <c r="C33" s="72">
         <v>0.59</v>
       </c>
-      <c r="D33" s="203" t="s">
+      <c r="D33" s="210" t="s">
         <v>290</v>
       </c>
-      <c r="E33" s="204"/>
-      <c r="F33" s="204"/>
-      <c r="G33" s="205"/>
+      <c r="E33" s="211"/>
+      <c r="F33" s="211"/>
+      <c r="G33" s="212"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="52" t="s">
@@ -13603,25 +13606,25 @@
       <c r="C34" s="72">
         <v>0.54</v>
       </c>
-      <c r="D34" s="203" t="s">
+      <c r="D34" s="210" t="s">
         <v>291</v>
       </c>
-      <c r="E34" s="204"/>
-      <c r="F34" s="204"/>
-      <c r="G34" s="205"/>
+      <c r="E34" s="211"/>
+      <c r="F34" s="211"/>
+      <c r="G34" s="212"/>
     </row>
     <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="201" t="s">
+      <c r="A36" s="206" t="s">
         <v>315</v>
       </c>
-      <c r="B36" s="201"/>
-      <c r="C36" s="201"/>
-      <c r="D36" s="201"/>
-      <c r="E36" s="201"/>
-      <c r="F36" s="201"/>
-      <c r="G36" s="201"/>
-      <c r="H36" s="201"/>
-      <c r="I36" s="201"/>
+      <c r="B36" s="206"/>
+      <c r="C36" s="206"/>
+      <c r="D36" s="206"/>
+      <c r="E36" s="206"/>
+      <c r="F36" s="206"/>
+      <c r="G36" s="206"/>
+      <c r="H36" s="206"/>
+      <c r="I36" s="206"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="87" t="s">
@@ -13688,12 +13691,12 @@
       </c>
     </row>
     <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="207" t="s">
+      <c r="A46" s="198" t="s">
         <v>318</v>
       </c>
-      <c r="B46" s="207"/>
-      <c r="C46" s="207"/>
-      <c r="D46" s="207"/>
+      <c r="B46" s="198"/>
+      <c r="C46" s="198"/>
+      <c r="D46" s="198"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="88" t="s">
@@ -13816,11 +13819,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D6:D13"/>
-    <mergeCell ref="A2:I2"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A25:I25"/>
@@ -13836,6 +13834,11 @@
     <mergeCell ref="D30:G30"/>
     <mergeCell ref="D31:G31"/>
     <mergeCell ref="D32:G32"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D6:D13"/>
+    <mergeCell ref="A2:I2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -15544,7 +15547,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15610,7 +15613,7 @@
       <c r="E3" s="18" t="s">
         <v>357</v>
       </c>
-      <c r="F3" s="94"/>
+      <c r="F3" s="34"/>
       <c r="G3" s="94"/>
       <c r="H3" s="94"/>
     </row>
@@ -15752,7 +15755,7 @@
       <c r="E9" s="18" t="s">
         <v>380</v>
       </c>
-      <c r="F9" s="94"/>
+      <c r="F9" s="34"/>
       <c r="G9" s="94"/>
       <c r="H9" s="94"/>
     </row>
@@ -15820,6 +15823,7 @@
       <c r="E12" s="18" t="s">
         <v>392</v>
       </c>
+      <c r="F12" s="234"/>
       <c r="G12" s="94"/>
       <c r="H12" s="94"/>
     </row>
@@ -15935,7 +15939,7 @@
       <c r="E17" s="18" t="s">
         <v>412</v>
       </c>
-      <c r="F17" s="94"/>
+      <c r="F17" s="34"/>
       <c r="G17" s="94"/>
       <c r="H17" s="94"/>
     </row>

--- a/Experiment01_Resumo/Resumo_Exp01.xlsx
+++ b/Experiment01_Resumo/Resumo_Exp01.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="487">
   <si>
     <t>Database search</t>
   </si>
@@ -1596,6 +1596,9 @@
   </si>
   <si>
     <t>basili2007a</t>
+  </si>
+  <si>
+    <t>münch2013b</t>
   </si>
 </sst>
 </file>
@@ -2763,6 +2766,9 @@
     <xf numFmtId="0" fontId="0" fillId="25" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2811,12 +2817,36 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2835,30 +2865,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2918,9 +2924,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3245,12 +3248,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="211423496"/>
-        <c:axId val="211421536"/>
+        <c:axId val="217037856"/>
+        <c:axId val="217035112"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="211423496"/>
+        <c:axId val="217037856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3342,7 +3345,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="211421536"/>
+        <c:crossAx val="217035112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3350,7 +3353,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="211421536"/>
+        <c:axId val="217035112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3401,7 +3404,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="211423496"/>
+        <c:crossAx val="217037856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3710,12 +3713,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="211418400"/>
-        <c:axId val="211422712"/>
+        <c:axId val="217039424"/>
+        <c:axId val="217039816"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="211418400"/>
+        <c:axId val="217039424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3804,7 +3807,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="211422712"/>
+        <c:crossAx val="217039816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3812,7 +3815,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="211422712"/>
+        <c:axId val="217039816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3895,7 +3898,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="211418400"/>
+        <c:crossAx val="217039424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4180,12 +4183,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="211418008"/>
-        <c:axId val="211424280"/>
+        <c:axId val="217035504"/>
+        <c:axId val="217037464"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="211418008"/>
+        <c:axId val="217035504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4274,7 +4277,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="211424280"/>
+        <c:crossAx val="217037464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4282,7 +4285,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="211424280"/>
+        <c:axId val="217037464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4365,7 +4368,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="211418008"/>
+        <c:crossAx val="217035504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5152,12 +5155,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="211418792"/>
-        <c:axId val="211423888"/>
+        <c:axId val="217040208"/>
+        <c:axId val="217040600"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="211418792"/>
+        <c:axId val="217040208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5197,7 +5200,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="211423888"/>
+        <c:crossAx val="217040600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5205,7 +5208,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="211423888"/>
+        <c:axId val="217040600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5253,7 +5256,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="211418792"/>
+        <c:crossAx val="217040208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5561,8 +5564,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="211421928"/>
-        <c:axId val="211419968"/>
+        <c:axId val="303628304"/>
+        <c:axId val="303622032"/>
         <c:axId val="0"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
@@ -5732,7 +5735,7 @@
         </c:extLst>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="211421928"/>
+        <c:axId val="303628304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5830,7 +5833,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="211419968"/>
+        <c:crossAx val="303622032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5838,7 +5841,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="211419968"/>
+        <c:axId val="303622032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5917,7 +5920,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="211421928"/>
+        <c:crossAx val="303628304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6231,8 +6234,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="211417224"/>
-        <c:axId val="211421144"/>
+        <c:axId val="303628696"/>
+        <c:axId val="303625168"/>
         <c:axId val="0"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
@@ -6402,7 +6405,7 @@
         </c:extLst>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="211417224"/>
+        <c:axId val="303628696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6500,7 +6503,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="211421144"/>
+        <c:crossAx val="303625168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6508,7 +6511,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="211421144"/>
+        <c:axId val="303625168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6587,7 +6590,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="211417224"/>
+        <c:crossAx val="303628696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10285,22 +10288,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="182" t="s">
+      <c r="A1" s="183" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="183"/>
+      <c r="B1" s="184"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="184" t="s">
+      <c r="A2" s="185" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="185"/>
+      <c r="B2" s="186"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="184" t="s">
+      <c r="A3" s="185" t="s">
         <v>96</v>
       </c>
-      <c r="B3" s="185"/>
+      <c r="B3" s="186"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -10335,10 +10338,10 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="186" t="s">
+      <c r="A8" s="187" t="s">
         <v>103</v>
       </c>
-      <c r="B8" s="187"/>
+      <c r="B8" s="188"/>
     </row>
     <row r="9" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
@@ -10428,19 +10431,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="197" t="s">
+      <c r="A1" s="198" t="s">
         <v>326</v>
       </c>
-      <c r="B1" s="197"/>
-      <c r="C1" s="197"/>
-      <c r="D1" s="197"/>
-      <c r="E1" s="197"/>
-      <c r="F1" s="197"/>
-      <c r="G1" s="197"/>
-      <c r="H1" s="197"/>
-      <c r="I1" s="197"/>
-      <c r="J1" s="197"/>
-      <c r="K1" s="197"/>
+      <c r="B1" s="198"/>
+      <c r="C1" s="198"/>
+      <c r="D1" s="198"/>
+      <c r="E1" s="198"/>
+      <c r="F1" s="198"/>
+      <c r="G1" s="198"/>
+      <c r="H1" s="198"/>
+      <c r="I1" s="198"/>
+      <c r="J1" s="198"/>
+      <c r="K1" s="198"/>
     </row>
     <row r="2" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
@@ -11162,10 +11165,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="228" t="s">
+      <c r="A1" s="229" t="s">
         <v>333</v>
       </c>
-      <c r="B1" s="229"/>
+      <c r="B1" s="230"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="79" t="s">
@@ -11233,20 +11236,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="230" t="s">
+      <c r="A1" s="231" t="s">
         <v>327</v>
       </c>
-      <c r="B1" s="230"/>
-      <c r="C1" s="230"/>
-      <c r="D1" s="230"/>
-      <c r="E1" s="230"/>
-      <c r="F1" s="230"/>
-      <c r="G1" s="230"/>
-      <c r="H1" s="230"/>
-      <c r="I1" s="230"/>
-      <c r="J1" s="230"/>
-      <c r="K1" s="230"/>
-      <c r="L1" s="230"/>
+      <c r="B1" s="231"/>
+      <c r="C1" s="231"/>
+      <c r="D1" s="231"/>
+      <c r="E1" s="231"/>
+      <c r="F1" s="231"/>
+      <c r="G1" s="231"/>
+      <c r="H1" s="231"/>
+      <c r="I1" s="231"/>
+      <c r="J1" s="231"/>
+      <c r="K1" s="231"/>
+      <c r="L1" s="231"/>
     </row>
     <row r="2" spans="1:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="143" t="s">
@@ -11965,15 +11968,15 @@
     </row>
     <row r="26" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="135"/>
-      <c r="B26" s="231" t="s">
+      <c r="B26" s="232" t="s">
         <v>334</v>
       </c>
-      <c r="C26" s="232"/>
-      <c r="D26" s="232"/>
-      <c r="E26" s="232"/>
-      <c r="F26" s="232"/>
-      <c r="G26" s="232"/>
-      <c r="H26" s="233"/>
+      <c r="C26" s="233"/>
+      <c r="D26" s="233"/>
+      <c r="E26" s="233"/>
+      <c r="F26" s="233"/>
+      <c r="G26" s="233"/>
+      <c r="H26" s="234"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="66"/>
@@ -12139,10 +12142,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="192" t="s">
+      <c r="A1" s="193" t="s">
         <v>151</v>
       </c>
-      <c r="B1" s="193"/>
+      <c r="B1" s="194"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
@@ -12175,16 +12178,16 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="188" t="s">
+      <c r="A6" s="189" t="s">
         <v>147</v>
       </c>
-      <c r="B6" s="189"/>
+      <c r="B6" s="190"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="190" t="s">
+      <c r="A7" s="191" t="s">
         <v>150</v>
       </c>
-      <c r="B7" s="191"/>
+      <c r="B7" s="192"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
@@ -12266,16 +12269,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="194" t="s">
+      <c r="A1" s="195" t="s">
         <v>336</v>
       </c>
-      <c r="B1" s="195"/>
-      <c r="C1" s="195"/>
-      <c r="D1" s="195"/>
-      <c r="E1" s="195"/>
-      <c r="F1" s="195"/>
-      <c r="G1" s="195"/>
-      <c r="H1" s="196"/>
+      <c r="B1" s="196"/>
+      <c r="C1" s="196"/>
+      <c r="D1" s="196"/>
+      <c r="E1" s="196"/>
+      <c r="F1" s="196"/>
+      <c r="G1" s="196"/>
+      <c r="H1" s="197"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
     </row>
@@ -12644,13 +12647,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="197" t="s">
+      <c r="A1" s="198" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="197"/>
-      <c r="C1" s="197"/>
-      <c r="D1" s="197"/>
-      <c r="E1" s="197"/>
+      <c r="B1" s="198"/>
+      <c r="C1" s="198"/>
+      <c r="D1" s="198"/>
+      <c r="E1" s="198"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
@@ -13082,43 +13085,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="207" t="s">
+      <c r="A1" s="199" t="s">
         <v>230</v>
       </c>
-      <c r="B1" s="208"/>
-      <c r="C1" s="208"/>
-      <c r="D1" s="208"/>
-      <c r="E1" s="208"/>
-      <c r="F1" s="208"/>
-      <c r="G1" s="208"/>
-      <c r="H1" s="208"/>
-      <c r="I1" s="208"/>
+      <c r="B1" s="200"/>
+      <c r="C1" s="200"/>
+      <c r="D1" s="200"/>
+      <c r="E1" s="200"/>
+      <c r="F1" s="200"/>
+      <c r="G1" s="200"/>
+      <c r="H1" s="200"/>
+      <c r="I1" s="200"/>
     </row>
     <row r="2" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="206" t="s">
+      <c r="A2" s="202" t="s">
         <v>229</v>
       </c>
-      <c r="B2" s="206"/>
-      <c r="C2" s="206"/>
-      <c r="D2" s="206"/>
-      <c r="E2" s="206"/>
-      <c r="F2" s="206"/>
-      <c r="G2" s="206"/>
-      <c r="H2" s="206"/>
-      <c r="I2" s="206"/>
+      <c r="B2" s="202"/>
+      <c r="C2" s="202"/>
+      <c r="D2" s="202"/>
+      <c r="E2" s="202"/>
+      <c r="F2" s="202"/>
+      <c r="G2" s="202"/>
+      <c r="H2" s="202"/>
+      <c r="I2" s="202"/>
     </row>
     <row r="3" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="199" t="s">
+      <c r="A3" s="203" t="s">
         <v>337</v>
       </c>
-      <c r="B3" s="199"/>
-      <c r="C3" s="199"/>
-      <c r="D3" s="199"/>
-      <c r="E3" s="199"/>
-      <c r="F3" s="199"/>
-      <c r="G3" s="199"/>
-      <c r="H3" s="199"/>
-      <c r="I3" s="199"/>
+      <c r="B3" s="203"/>
+      <c r="C3" s="203"/>
+      <c r="D3" s="203"/>
+      <c r="E3" s="203"/>
+      <c r="F3" s="203"/>
+      <c r="G3" s="203"/>
+      <c r="H3" s="203"/>
+      <c r="I3" s="203"/>
       <c r="J3" s="71"/>
       <c r="K3" s="71"/>
       <c r="L3" s="71"/>
@@ -13131,12 +13134,12 @@
       <c r="S3" s="71"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="209" t="s">
+      <c r="A4" s="201" t="s">
         <v>253</v>
       </c>
-      <c r="B4" s="209"/>
-      <c r="C4" s="209"/>
-      <c r="D4" s="209"/>
+      <c r="B4" s="201"/>
+      <c r="C4" s="201"/>
+      <c r="D4" s="201"/>
     </row>
     <row r="5" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="69" t="s">
@@ -13162,7 +13165,7 @@
       <c r="C6" s="49" t="s">
         <v>196</v>
       </c>
-      <c r="D6" s="203" t="s">
+      <c r="D6" s="212" t="s">
         <v>339</v>
       </c>
       <c r="N6" s="26"/>
@@ -13177,7 +13180,7 @@
       <c r="C7" s="49" t="s">
         <v>228</v>
       </c>
-      <c r="D7" s="204"/>
+      <c r="D7" s="213"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="78" t="s">
@@ -13189,7 +13192,7 @@
       <c r="C8" s="49" t="s">
         <v>235</v>
       </c>
-      <c r="D8" s="204"/>
+      <c r="D8" s="213"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="78" t="s">
@@ -13201,7 +13204,7 @@
       <c r="C9" s="49" t="s">
         <v>236</v>
       </c>
-      <c r="D9" s="204"/>
+      <c r="D9" s="213"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="78" t="s">
@@ -13213,7 +13216,7 @@
       <c r="C10" s="49" t="s">
         <v>237</v>
       </c>
-      <c r="D10" s="204"/>
+      <c r="D10" s="213"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="78" t="s">
@@ -13225,7 +13228,7 @@
       <c r="C11" s="49" t="s">
         <v>237</v>
       </c>
-      <c r="D11" s="204"/>
+      <c r="D11" s="213"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="78" t="s">
@@ -13237,7 +13240,7 @@
       <c r="C12" s="49" t="s">
         <v>266</v>
       </c>
-      <c r="D12" s="204"/>
+      <c r="D12" s="213"/>
     </row>
     <row r="13" spans="1:19" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="146" t="s">
@@ -13249,7 +13252,7 @@
       <c r="C13" s="137" t="s">
         <v>273</v>
       </c>
-      <c r="D13" s="205"/>
+      <c r="D13" s="214"/>
     </row>
     <row r="14" spans="1:19" s="77" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="147" t="s">
@@ -13266,30 +13269,30 @@
       </c>
     </row>
     <row r="15" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="206" t="s">
+      <c r="A15" s="202" t="s">
         <v>261</v>
       </c>
-      <c r="B15" s="206"/>
-      <c r="C15" s="206"/>
-      <c r="D15" s="206"/>
-      <c r="E15" s="206"/>
-      <c r="F15" s="206"/>
-      <c r="G15" s="206"/>
-      <c r="H15" s="206"/>
-      <c r="I15" s="206"/>
+      <c r="B15" s="202"/>
+      <c r="C15" s="202"/>
+      <c r="D15" s="202"/>
+      <c r="E15" s="202"/>
+      <c r="F15" s="202"/>
+      <c r="G15" s="202"/>
+      <c r="H15" s="202"/>
+      <c r="I15" s="202"/>
     </row>
     <row r="16" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="199" t="s">
+      <c r="A16" s="203" t="s">
         <v>238</v>
       </c>
-      <c r="B16" s="199"/>
-      <c r="C16" s="199"/>
-      <c r="D16" s="199"/>
-      <c r="E16" s="199"/>
-      <c r="F16" s="199"/>
-      <c r="G16" s="199"/>
-      <c r="H16" s="199"/>
-      <c r="I16" s="199"/>
+      <c r="B16" s="203"/>
+      <c r="C16" s="203"/>
+      <c r="D16" s="203"/>
+      <c r="E16" s="203"/>
+      <c r="F16" s="203"/>
+      <c r="G16" s="203"/>
+      <c r="H16" s="203"/>
+      <c r="I16" s="203"/>
       <c r="J16" s="71"/>
       <c r="K16" s="71"/>
       <c r="L16" s="71"/>
@@ -13302,14 +13305,14 @@
       <c r="S16" s="71"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="209" t="s">
+      <c r="A17" s="201" t="s">
         <v>259</v>
       </c>
-      <c r="B17" s="209"/>
-      <c r="C17" s="209"/>
-      <c r="D17" s="209"/>
-      <c r="E17" s="209"/>
-      <c r="F17" s="209"/>
+      <c r="B17" s="201"/>
+      <c r="C17" s="201"/>
+      <c r="D17" s="201"/>
+      <c r="E17" s="201"/>
+      <c r="F17" s="201"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="69" t="s">
@@ -13452,30 +13455,30 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="206" t="s">
+      <c r="A25" s="202" t="s">
         <v>260</v>
       </c>
-      <c r="B25" s="206"/>
-      <c r="C25" s="206"/>
-      <c r="D25" s="206"/>
-      <c r="E25" s="206"/>
-      <c r="F25" s="206"/>
-      <c r="G25" s="206"/>
-      <c r="H25" s="206"/>
-      <c r="I25" s="206"/>
+      <c r="B25" s="202"/>
+      <c r="C25" s="202"/>
+      <c r="D25" s="202"/>
+      <c r="E25" s="202"/>
+      <c r="F25" s="202"/>
+      <c r="G25" s="202"/>
+      <c r="H25" s="202"/>
+      <c r="I25" s="202"/>
     </row>
     <row r="26" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="199" t="s">
+      <c r="A26" s="203" t="s">
         <v>338</v>
       </c>
-      <c r="B26" s="199"/>
-      <c r="C26" s="199"/>
-      <c r="D26" s="199"/>
-      <c r="E26" s="199"/>
-      <c r="F26" s="199"/>
-      <c r="G26" s="199"/>
-      <c r="H26" s="199"/>
-      <c r="I26" s="199"/>
+      <c r="B26" s="203"/>
+      <c r="C26" s="203"/>
+      <c r="D26" s="203"/>
+      <c r="E26" s="203"/>
+      <c r="F26" s="203"/>
+      <c r="G26" s="203"/>
+      <c r="H26" s="203"/>
+      <c r="I26" s="203"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="69" t="s">
@@ -13487,12 +13490,12 @@
       <c r="C27" s="69" t="s">
         <v>201</v>
       </c>
-      <c r="D27" s="213" t="s">
+      <c r="D27" s="207" t="s">
         <v>292</v>
       </c>
-      <c r="E27" s="213"/>
-      <c r="F27" s="213"/>
-      <c r="G27" s="213"/>
+      <c r="E27" s="207"/>
+      <c r="F27" s="207"/>
+      <c r="G27" s="207"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="52" t="s">
@@ -13504,12 +13507,12 @@
       <c r="C28" s="72">
         <v>0.59</v>
       </c>
-      <c r="D28" s="200" t="s">
+      <c r="D28" s="209" t="s">
         <v>285</v>
       </c>
-      <c r="E28" s="201"/>
-      <c r="F28" s="201"/>
-      <c r="G28" s="202"/>
+      <c r="E28" s="210"/>
+      <c r="F28" s="210"/>
+      <c r="G28" s="211"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="52" t="s">
@@ -13521,12 +13524,12 @@
       <c r="C29" s="72">
         <v>0.77</v>
       </c>
-      <c r="D29" s="210" t="s">
+      <c r="D29" s="204" t="s">
         <v>286</v>
       </c>
-      <c r="E29" s="211"/>
-      <c r="F29" s="211"/>
-      <c r="G29" s="212"/>
+      <c r="E29" s="205"/>
+      <c r="F29" s="205"/>
+      <c r="G29" s="206"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="52" t="s">
@@ -13538,12 +13541,12 @@
       <c r="C30" s="72">
         <v>0.41</v>
       </c>
-      <c r="D30" s="210" t="s">
+      <c r="D30" s="204" t="s">
         <v>287</v>
       </c>
-      <c r="E30" s="211"/>
-      <c r="F30" s="211"/>
-      <c r="G30" s="212"/>
+      <c r="E30" s="205"/>
+      <c r="F30" s="205"/>
+      <c r="G30" s="206"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="52" t="s">
@@ -13555,12 +13558,12 @@
       <c r="C31" s="72">
         <v>0.59</v>
       </c>
-      <c r="D31" s="210" t="s">
+      <c r="D31" s="204" t="s">
         <v>289</v>
       </c>
-      <c r="E31" s="211"/>
-      <c r="F31" s="211"/>
-      <c r="G31" s="212"/>
+      <c r="E31" s="205"/>
+      <c r="F31" s="205"/>
+      <c r="G31" s="206"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="52" t="s">
@@ -13572,12 +13575,12 @@
       <c r="C32" s="72">
         <v>0.5</v>
       </c>
-      <c r="D32" s="210" t="s">
+      <c r="D32" s="204" t="s">
         <v>288</v>
       </c>
-      <c r="E32" s="211"/>
-      <c r="F32" s="211"/>
-      <c r="G32" s="212"/>
+      <c r="E32" s="205"/>
+      <c r="F32" s="205"/>
+      <c r="G32" s="206"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="52" t="s">
@@ -13589,12 +13592,12 @@
       <c r="C33" s="72">
         <v>0.59</v>
       </c>
-      <c r="D33" s="210" t="s">
+      <c r="D33" s="204" t="s">
         <v>290</v>
       </c>
-      <c r="E33" s="211"/>
-      <c r="F33" s="211"/>
-      <c r="G33" s="212"/>
+      <c r="E33" s="205"/>
+      <c r="F33" s="205"/>
+      <c r="G33" s="206"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="52" t="s">
@@ -13606,25 +13609,25 @@
       <c r="C34" s="72">
         <v>0.54</v>
       </c>
-      <c r="D34" s="210" t="s">
+      <c r="D34" s="204" t="s">
         <v>291</v>
       </c>
-      <c r="E34" s="211"/>
-      <c r="F34" s="211"/>
-      <c r="G34" s="212"/>
+      <c r="E34" s="205"/>
+      <c r="F34" s="205"/>
+      <c r="G34" s="206"/>
     </row>
     <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="206" t="s">
+      <c r="A36" s="202" t="s">
         <v>315</v>
       </c>
-      <c r="B36" s="206"/>
-      <c r="C36" s="206"/>
-      <c r="D36" s="206"/>
-      <c r="E36" s="206"/>
-      <c r="F36" s="206"/>
-      <c r="G36" s="206"/>
-      <c r="H36" s="206"/>
-      <c r="I36" s="206"/>
+      <c r="B36" s="202"/>
+      <c r="C36" s="202"/>
+      <c r="D36" s="202"/>
+      <c r="E36" s="202"/>
+      <c r="F36" s="202"/>
+      <c r="G36" s="202"/>
+      <c r="H36" s="202"/>
+      <c r="I36" s="202"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="87" t="s">
@@ -13691,12 +13694,12 @@
       </c>
     </row>
     <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="198" t="s">
+      <c r="A46" s="208" t="s">
         <v>318</v>
       </c>
-      <c r="B46" s="198"/>
-      <c r="C46" s="198"/>
-      <c r="D46" s="198"/>
+      <c r="B46" s="208"/>
+      <c r="C46" s="208"/>
+      <c r="D46" s="208"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="88" t="s">
@@ -13819,6 +13822,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D6:D13"/>
+    <mergeCell ref="A2:I2"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A25:I25"/>
@@ -13834,11 +13842,6 @@
     <mergeCell ref="D30:G30"/>
     <mergeCell ref="D31:G31"/>
     <mergeCell ref="D32:G32"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D6:D13"/>
-    <mergeCell ref="A2:I2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13870,15 +13873,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="219" t="s">
+      <c r="A1" s="220" t="s">
         <v>347</v>
       </c>
-      <c r="B1" s="219"/>
-      <c r="C1" s="219"/>
-      <c r="D1" s="219"/>
-      <c r="E1" s="219"/>
-      <c r="F1" s="219"/>
-      <c r="G1" s="219"/>
+      <c r="B1" s="220"/>
+      <c r="C1" s="220"/>
+      <c r="D1" s="220"/>
+      <c r="E1" s="220"/>
+      <c r="F1" s="220"/>
+      <c r="G1" s="220"/>
     </row>
     <row r="2" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="159" t="s">
@@ -13902,11 +13905,11 @@
       <c r="G2" s="159" t="s">
         <v>344</v>
       </c>
-      <c r="I2" s="218" t="s">
+      <c r="I2" s="219" t="s">
         <v>197</v>
       </c>
-      <c r="J2" s="218"/>
-      <c r="K2" s="218"/>
+      <c r="J2" s="219"/>
+      <c r="K2" s="219"/>
     </row>
     <row r="3" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
@@ -14359,20 +14362,20 @@
       <c r="J22" s="115" t="s">
         <v>217</v>
       </c>
-      <c r="K22" s="220" t="s">
+      <c r="K22" s="221" t="s">
         <v>307</v>
       </c>
-      <c r="L22" s="220"/>
-      <c r="M22" s="220"/>
-      <c r="N22" s="220"/>
-      <c r="O22" s="220"/>
-      <c r="P22" s="220"/>
-      <c r="Q22" s="220"/>
-      <c r="R22" s="220"/>
-      <c r="S22" s="220"/>
-      <c r="T22" s="220"/>
-      <c r="U22" s="220"/>
-      <c r="V22" s="220"/>
+      <c r="L22" s="221"/>
+      <c r="M22" s="221"/>
+      <c r="N22" s="221"/>
+      <c r="O22" s="221"/>
+      <c r="P22" s="221"/>
+      <c r="Q22" s="221"/>
+      <c r="R22" s="221"/>
+      <c r="S22" s="221"/>
+      <c r="T22" s="221"/>
+      <c r="U22" s="221"/>
+      <c r="V22" s="221"/>
     </row>
     <row r="23" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="36" t="s">
@@ -14478,10 +14481,10 @@
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A29" s="222"/>
-      <c r="B29" s="223"/>
-      <c r="C29" s="223"/>
-      <c r="D29" s="224"/>
+      <c r="A29" s="223"/>
+      <c r="B29" s="224"/>
+      <c r="C29" s="224"/>
+      <c r="D29" s="225"/>
       <c r="I29" s="43" t="s">
         <v>187</v>
       </c>
@@ -14498,10 +14501,10 @@
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A31" s="225" t="s">
+      <c r="A31" s="226" t="s">
         <v>181</v>
       </c>
-      <c r="B31" s="226"/>
+      <c r="B31" s="227"/>
       <c r="C31" s="68"/>
       <c r="I31" s="43" t="s">
         <v>189</v>
@@ -14523,20 +14526,20 @@
       <c r="J32" s="116" t="s">
         <v>308</v>
       </c>
-      <c r="K32" s="221" t="s">
+      <c r="K32" s="222" t="s">
         <v>306</v>
       </c>
-      <c r="L32" s="221"/>
-      <c r="M32" s="221"/>
-      <c r="N32" s="221"/>
-      <c r="O32" s="221"/>
-      <c r="P32" s="221"/>
-      <c r="Q32" s="221"/>
-      <c r="R32" s="221"/>
-      <c r="S32" s="221"/>
-      <c r="T32" s="221"/>
-      <c r="U32" s="221"/>
-      <c r="V32" s="221"/>
+      <c r="L32" s="222"/>
+      <c r="M32" s="222"/>
+      <c r="N32" s="222"/>
+      <c r="O32" s="222"/>
+      <c r="P32" s="222"/>
+      <c r="Q32" s="222"/>
+      <c r="R32" s="222"/>
+      <c r="S32" s="222"/>
+      <c r="T32" s="222"/>
+      <c r="U32" s="222"/>
+      <c r="V32" s="222"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="84" t="s">
@@ -14569,10 +14572,10 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="214" t="s">
+      <c r="A35" s="215" t="s">
         <v>184</v>
       </c>
-      <c r="B35" s="216" t="s">
+      <c r="B35" s="217" t="s">
         <v>219</v>
       </c>
       <c r="D35" s="90"/>
@@ -14582,8 +14585,8 @@
       <c r="J35" s="41"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="215"/>
-      <c r="B36" s="217"/>
+      <c r="A36" s="216"/>
+      <c r="B36" s="218"/>
       <c r="D36" s="90"/>
       <c r="I36" s="105" t="s">
         <v>296</v>
@@ -14702,15 +14705,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="219" t="s">
+      <c r="A1" s="220" t="s">
         <v>347</v>
       </c>
-      <c r="B1" s="219"/>
-      <c r="C1" s="219"/>
-      <c r="D1" s="219"/>
-      <c r="E1" s="219"/>
-      <c r="F1" s="219"/>
-      <c r="G1" s="219"/>
+      <c r="B1" s="220"/>
+      <c r="C1" s="220"/>
+      <c r="D1" s="220"/>
+      <c r="E1" s="220"/>
+      <c r="F1" s="220"/>
+      <c r="G1" s="220"/>
     </row>
     <row r="2" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="159" t="s">
@@ -14734,11 +14737,11 @@
       <c r="G2" s="159" t="s">
         <v>344</v>
       </c>
-      <c r="I2" s="218" t="s">
+      <c r="I2" s="219" t="s">
         <v>197</v>
       </c>
-      <c r="J2" s="218"/>
-      <c r="K2" s="218"/>
+      <c r="J2" s="219"/>
+      <c r="K2" s="219"/>
       <c r="O2" s="171" t="s">
         <v>351</v>
       </c>
@@ -15239,20 +15242,20 @@
       <c r="J22" s="115" t="s">
         <v>217</v>
       </c>
-      <c r="K22" s="220" t="s">
+      <c r="K22" s="221" t="s">
         <v>307</v>
       </c>
-      <c r="L22" s="220"/>
-      <c r="M22" s="220"/>
-      <c r="N22" s="220"/>
-      <c r="O22" s="220"/>
-      <c r="P22" s="220"/>
-      <c r="Q22" s="220"/>
-      <c r="R22" s="220"/>
-      <c r="S22" s="220"/>
-      <c r="T22" s="220"/>
-      <c r="U22" s="220"/>
-      <c r="V22" s="220"/>
+      <c r="L22" s="221"/>
+      <c r="M22" s="221"/>
+      <c r="N22" s="221"/>
+      <c r="O22" s="221"/>
+      <c r="P22" s="221"/>
+      <c r="Q22" s="221"/>
+      <c r="R22" s="221"/>
+      <c r="S22" s="221"/>
+      <c r="T22" s="221"/>
+      <c r="U22" s="221"/>
+      <c r="V22" s="221"/>
     </row>
     <row r="23" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="36" t="s">
@@ -15358,10 +15361,10 @@
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A29" s="222"/>
-      <c r="B29" s="223"/>
-      <c r="C29" s="223"/>
-      <c r="D29" s="224"/>
+      <c r="A29" s="223"/>
+      <c r="B29" s="224"/>
+      <c r="C29" s="224"/>
+      <c r="D29" s="225"/>
       <c r="I29" s="43" t="s">
         <v>187</v>
       </c>
@@ -15378,10 +15381,10 @@
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A31" s="225" t="s">
+      <c r="A31" s="226" t="s">
         <v>181</v>
       </c>
-      <c r="B31" s="226"/>
+      <c r="B31" s="227"/>
       <c r="C31" s="68"/>
       <c r="I31" s="43" t="s">
         <v>189</v>
@@ -15403,20 +15406,20 @@
       <c r="J32" s="116" t="s">
         <v>308</v>
       </c>
-      <c r="K32" s="221" t="s">
+      <c r="K32" s="222" t="s">
         <v>306</v>
       </c>
-      <c r="L32" s="221"/>
-      <c r="M32" s="221"/>
-      <c r="N32" s="221"/>
-      <c r="O32" s="221"/>
-      <c r="P32" s="221"/>
-      <c r="Q32" s="221"/>
-      <c r="R32" s="221"/>
-      <c r="S32" s="221"/>
-      <c r="T32" s="221"/>
-      <c r="U32" s="221"/>
-      <c r="V32" s="221"/>
+      <c r="L32" s="222"/>
+      <c r="M32" s="222"/>
+      <c r="N32" s="222"/>
+      <c r="O32" s="222"/>
+      <c r="P32" s="222"/>
+      <c r="Q32" s="222"/>
+      <c r="R32" s="222"/>
+      <c r="S32" s="222"/>
+      <c r="T32" s="222"/>
+      <c r="U32" s="222"/>
+      <c r="V32" s="222"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="84" t="s">
@@ -15447,10 +15450,10 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="214" t="s">
+      <c r="A35" s="215" t="s">
         <v>184</v>
       </c>
-      <c r="B35" s="216" t="s">
+      <c r="B35" s="217" t="s">
         <v>219</v>
       </c>
       <c r="I35" s="43" t="s">
@@ -15459,8 +15462,8 @@
       <c r="J35" s="41"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="215"/>
-      <c r="B36" s="217"/>
+      <c r="A36" s="216"/>
+      <c r="B36" s="218"/>
       <c r="I36" s="105" t="s">
         <v>296</v>
       </c>
@@ -15547,7 +15550,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15560,16 +15563,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="227" t="s">
+      <c r="A1" s="228" t="s">
         <v>464</v>
       </c>
-      <c r="B1" s="227"/>
-      <c r="C1" s="227"/>
-      <c r="D1" s="227"/>
-      <c r="E1" s="227"/>
-      <c r="F1" s="227"/>
-      <c r="G1" s="227"/>
-      <c r="H1" s="227"/>
+      <c r="B1" s="228"/>
+      <c r="C1" s="228"/>
+      <c r="D1" s="228"/>
+      <c r="E1" s="228"/>
+      <c r="F1" s="228"/>
+      <c r="G1" s="228"/>
+      <c r="H1" s="228"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="174" t="s">
@@ -15823,7 +15826,7 @@
       <c r="E12" s="18" t="s">
         <v>392</v>
       </c>
-      <c r="F12" s="234"/>
+      <c r="F12" s="182"/>
       <c r="G12" s="94"/>
       <c r="H12" s="94"/>
     </row>
@@ -16003,8 +16006,12 @@
       <c r="E20" s="18" t="s">
         <v>424</v>
       </c>
-      <c r="F20" s="94"/>
-      <c r="G20" s="94"/>
+      <c r="F20" s="94" t="s">
+        <v>486</v>
+      </c>
+      <c r="G20" s="94">
+        <v>31</v>
+      </c>
       <c r="H20" s="94"/>
     </row>
     <row r="21" spans="1:8" ht="45" x14ac:dyDescent="0.25">

--- a/Experiment01_Resumo/Resumo_Exp01.xlsx
+++ b/Experiment01_Resumo/Resumo_Exp01.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="491">
   <si>
     <t>Database search</t>
   </si>
@@ -1599,6 +1599,18 @@
   </si>
   <si>
     <t>münch2013b</t>
+  </si>
+  <si>
+    <t>basili2007b</t>
+  </si>
+  <si>
+    <t>trendowicz2011a</t>
+  </si>
+  <si>
+    <t>liu2006a</t>
+  </si>
+  <si>
+    <t>birkhölzer2011a</t>
   </si>
 </sst>
 </file>
@@ -2817,6 +2829,33 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2826,12 +2865,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2842,27 +2875,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3248,12 +3260,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="217037856"/>
-        <c:axId val="217035112"/>
+        <c:axId val="209667312"/>
+        <c:axId val="209667704"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="217037856"/>
+        <c:axId val="209667312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3345,7 +3357,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="217035112"/>
+        <c:crossAx val="209667704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3353,7 +3365,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="217035112"/>
+        <c:axId val="209667704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3404,7 +3416,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="217037856"/>
+        <c:crossAx val="209667312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3713,12 +3725,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="217039424"/>
-        <c:axId val="217039816"/>
+        <c:axId val="209670056"/>
+        <c:axId val="209663784"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="217039424"/>
+        <c:axId val="209670056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3807,7 +3819,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="217039816"/>
+        <c:crossAx val="209663784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3815,7 +3827,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="217039816"/>
+        <c:axId val="209663784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3898,7 +3910,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="217039424"/>
+        <c:crossAx val="209670056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4183,12 +4195,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="217035504"/>
-        <c:axId val="217037464"/>
+        <c:axId val="209670448"/>
+        <c:axId val="209664960"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="217035504"/>
+        <c:axId val="209670448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4277,7 +4289,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="217037464"/>
+        <c:crossAx val="209664960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4285,7 +4297,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="217037464"/>
+        <c:axId val="209664960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4368,7 +4380,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="217035504"/>
+        <c:crossAx val="209670448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5155,12 +5167,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="217040208"/>
-        <c:axId val="217040600"/>
+        <c:axId val="292635424"/>
+        <c:axId val="292631896"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="217040208"/>
+        <c:axId val="292635424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5200,7 +5212,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="217040600"/>
+        <c:crossAx val="292631896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5208,7 +5220,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="217040600"/>
+        <c:axId val="292631896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5256,7 +5268,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="217040208"/>
+        <c:crossAx val="292635424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5564,8 +5576,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="303628304"/>
-        <c:axId val="303622032"/>
+        <c:axId val="292634248"/>
+        <c:axId val="292630720"/>
         <c:axId val="0"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
@@ -5735,7 +5747,7 @@
         </c:extLst>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="303628304"/>
+        <c:axId val="292634248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5833,7 +5845,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="303622032"/>
+        <c:crossAx val="292630720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5841,7 +5853,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="303622032"/>
+        <c:axId val="292630720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5920,7 +5932,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="303628304"/>
+        <c:crossAx val="292634248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6234,8 +6246,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="303628696"/>
-        <c:axId val="303625168"/>
+        <c:axId val="292633072"/>
+        <c:axId val="292634640"/>
         <c:axId val="0"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
@@ -6405,7 +6417,7 @@
         </c:extLst>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="303628696"/>
+        <c:axId val="292633072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6503,7 +6515,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="303625168"/>
+        <c:crossAx val="292634640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6511,7 +6523,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="303625168"/>
+        <c:axId val="292634640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6590,7 +6602,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="303628696"/>
+        <c:crossAx val="292633072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13085,43 +13097,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="199" t="s">
+      <c r="A1" s="208" t="s">
         <v>230</v>
       </c>
-      <c r="B1" s="200"/>
-      <c r="C1" s="200"/>
-      <c r="D1" s="200"/>
-      <c r="E1" s="200"/>
-      <c r="F1" s="200"/>
-      <c r="G1" s="200"/>
-      <c r="H1" s="200"/>
-      <c r="I1" s="200"/>
+      <c r="B1" s="209"/>
+      <c r="C1" s="209"/>
+      <c r="D1" s="209"/>
+      <c r="E1" s="209"/>
+      <c r="F1" s="209"/>
+      <c r="G1" s="209"/>
+      <c r="H1" s="209"/>
+      <c r="I1" s="209"/>
     </row>
     <row r="2" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="202" t="s">
+      <c r="A2" s="207" t="s">
         <v>229</v>
       </c>
-      <c r="B2" s="202"/>
-      <c r="C2" s="202"/>
-      <c r="D2" s="202"/>
-      <c r="E2" s="202"/>
-      <c r="F2" s="202"/>
-      <c r="G2" s="202"/>
-      <c r="H2" s="202"/>
-      <c r="I2" s="202"/>
+      <c r="B2" s="207"/>
+      <c r="C2" s="207"/>
+      <c r="D2" s="207"/>
+      <c r="E2" s="207"/>
+      <c r="F2" s="207"/>
+      <c r="G2" s="207"/>
+      <c r="H2" s="207"/>
+      <c r="I2" s="207"/>
     </row>
     <row r="3" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="203" t="s">
+      <c r="A3" s="200" t="s">
         <v>337</v>
       </c>
-      <c r="B3" s="203"/>
-      <c r="C3" s="203"/>
-      <c r="D3" s="203"/>
-      <c r="E3" s="203"/>
-      <c r="F3" s="203"/>
-      <c r="G3" s="203"/>
-      <c r="H3" s="203"/>
-      <c r="I3" s="203"/>
+      <c r="B3" s="200"/>
+      <c r="C3" s="200"/>
+      <c r="D3" s="200"/>
+      <c r="E3" s="200"/>
+      <c r="F3" s="200"/>
+      <c r="G3" s="200"/>
+      <c r="H3" s="200"/>
+      <c r="I3" s="200"/>
       <c r="J3" s="71"/>
       <c r="K3" s="71"/>
       <c r="L3" s="71"/>
@@ -13134,12 +13146,12 @@
       <c r="S3" s="71"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="201" t="s">
+      <c r="A4" s="210" t="s">
         <v>253</v>
       </c>
-      <c r="B4" s="201"/>
-      <c r="C4" s="201"/>
-      <c r="D4" s="201"/>
+      <c r="B4" s="210"/>
+      <c r="C4" s="210"/>
+      <c r="D4" s="210"/>
     </row>
     <row r="5" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="69" t="s">
@@ -13165,7 +13177,7 @@
       <c r="C6" s="49" t="s">
         <v>196</v>
       </c>
-      <c r="D6" s="212" t="s">
+      <c r="D6" s="204" t="s">
         <v>339</v>
       </c>
       <c r="N6" s="26"/>
@@ -13180,7 +13192,7 @@
       <c r="C7" s="49" t="s">
         <v>228</v>
       </c>
-      <c r="D7" s="213"/>
+      <c r="D7" s="205"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="78" t="s">
@@ -13192,7 +13204,7 @@
       <c r="C8" s="49" t="s">
         <v>235</v>
       </c>
-      <c r="D8" s="213"/>
+      <c r="D8" s="205"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="78" t="s">
@@ -13204,7 +13216,7 @@
       <c r="C9" s="49" t="s">
         <v>236</v>
       </c>
-      <c r="D9" s="213"/>
+      <c r="D9" s="205"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="78" t="s">
@@ -13216,7 +13228,7 @@
       <c r="C10" s="49" t="s">
         <v>237</v>
       </c>
-      <c r="D10" s="213"/>
+      <c r="D10" s="205"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="78" t="s">
@@ -13228,7 +13240,7 @@
       <c r="C11" s="49" t="s">
         <v>237</v>
       </c>
-      <c r="D11" s="213"/>
+      <c r="D11" s="205"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="78" t="s">
@@ -13240,7 +13252,7 @@
       <c r="C12" s="49" t="s">
         <v>266</v>
       </c>
-      <c r="D12" s="213"/>
+      <c r="D12" s="205"/>
     </row>
     <row r="13" spans="1:19" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="146" t="s">
@@ -13252,7 +13264,7 @@
       <c r="C13" s="137" t="s">
         <v>273</v>
       </c>
-      <c r="D13" s="214"/>
+      <c r="D13" s="206"/>
     </row>
     <row r="14" spans="1:19" s="77" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="147" t="s">
@@ -13269,30 +13281,30 @@
       </c>
     </row>
     <row r="15" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="202" t="s">
+      <c r="A15" s="207" t="s">
         <v>261</v>
       </c>
-      <c r="B15" s="202"/>
-      <c r="C15" s="202"/>
-      <c r="D15" s="202"/>
-      <c r="E15" s="202"/>
-      <c r="F15" s="202"/>
-      <c r="G15" s="202"/>
-      <c r="H15" s="202"/>
-      <c r="I15" s="202"/>
+      <c r="B15" s="207"/>
+      <c r="C15" s="207"/>
+      <c r="D15" s="207"/>
+      <c r="E15" s="207"/>
+      <c r="F15" s="207"/>
+      <c r="G15" s="207"/>
+      <c r="H15" s="207"/>
+      <c r="I15" s="207"/>
     </row>
     <row r="16" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="203" t="s">
+      <c r="A16" s="200" t="s">
         <v>238</v>
       </c>
-      <c r="B16" s="203"/>
-      <c r="C16" s="203"/>
-      <c r="D16" s="203"/>
-      <c r="E16" s="203"/>
-      <c r="F16" s="203"/>
-      <c r="G16" s="203"/>
-      <c r="H16" s="203"/>
-      <c r="I16" s="203"/>
+      <c r="B16" s="200"/>
+      <c r="C16" s="200"/>
+      <c r="D16" s="200"/>
+      <c r="E16" s="200"/>
+      <c r="F16" s="200"/>
+      <c r="G16" s="200"/>
+      <c r="H16" s="200"/>
+      <c r="I16" s="200"/>
       <c r="J16" s="71"/>
       <c r="K16" s="71"/>
       <c r="L16" s="71"/>
@@ -13305,14 +13317,14 @@
       <c r="S16" s="71"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="201" t="s">
+      <c r="A17" s="210" t="s">
         <v>259</v>
       </c>
-      <c r="B17" s="201"/>
-      <c r="C17" s="201"/>
-      <c r="D17" s="201"/>
-      <c r="E17" s="201"/>
-      <c r="F17" s="201"/>
+      <c r="B17" s="210"/>
+      <c r="C17" s="210"/>
+      <c r="D17" s="210"/>
+      <c r="E17" s="210"/>
+      <c r="F17" s="210"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="69" t="s">
@@ -13455,30 +13467,30 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="202" t="s">
+      <c r="A25" s="207" t="s">
         <v>260</v>
       </c>
-      <c r="B25" s="202"/>
-      <c r="C25" s="202"/>
-      <c r="D25" s="202"/>
-      <c r="E25" s="202"/>
-      <c r="F25" s="202"/>
-      <c r="G25" s="202"/>
-      <c r="H25" s="202"/>
-      <c r="I25" s="202"/>
+      <c r="B25" s="207"/>
+      <c r="C25" s="207"/>
+      <c r="D25" s="207"/>
+      <c r="E25" s="207"/>
+      <c r="F25" s="207"/>
+      <c r="G25" s="207"/>
+      <c r="H25" s="207"/>
+      <c r="I25" s="207"/>
     </row>
     <row r="26" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="203" t="s">
+      <c r="A26" s="200" t="s">
         <v>338</v>
       </c>
-      <c r="B26" s="203"/>
-      <c r="C26" s="203"/>
-      <c r="D26" s="203"/>
-      <c r="E26" s="203"/>
-      <c r="F26" s="203"/>
-      <c r="G26" s="203"/>
-      <c r="H26" s="203"/>
-      <c r="I26" s="203"/>
+      <c r="B26" s="200"/>
+      <c r="C26" s="200"/>
+      <c r="D26" s="200"/>
+      <c r="E26" s="200"/>
+      <c r="F26" s="200"/>
+      <c r="G26" s="200"/>
+      <c r="H26" s="200"/>
+      <c r="I26" s="200"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="69" t="s">
@@ -13490,12 +13502,12 @@
       <c r="C27" s="69" t="s">
         <v>201</v>
       </c>
-      <c r="D27" s="207" t="s">
+      <c r="D27" s="214" t="s">
         <v>292</v>
       </c>
-      <c r="E27" s="207"/>
-      <c r="F27" s="207"/>
-      <c r="G27" s="207"/>
+      <c r="E27" s="214"/>
+      <c r="F27" s="214"/>
+      <c r="G27" s="214"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="52" t="s">
@@ -13507,12 +13519,12 @@
       <c r="C28" s="72">
         <v>0.59</v>
       </c>
-      <c r="D28" s="209" t="s">
+      <c r="D28" s="201" t="s">
         <v>285</v>
       </c>
-      <c r="E28" s="210"/>
-      <c r="F28" s="210"/>
-      <c r="G28" s="211"/>
+      <c r="E28" s="202"/>
+      <c r="F28" s="202"/>
+      <c r="G28" s="203"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="52" t="s">
@@ -13524,12 +13536,12 @@
       <c r="C29" s="72">
         <v>0.77</v>
       </c>
-      <c r="D29" s="204" t="s">
+      <c r="D29" s="211" t="s">
         <v>286</v>
       </c>
-      <c r="E29" s="205"/>
-      <c r="F29" s="205"/>
-      <c r="G29" s="206"/>
+      <c r="E29" s="212"/>
+      <c r="F29" s="212"/>
+      <c r="G29" s="213"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="52" t="s">
@@ -13541,12 +13553,12 @@
       <c r="C30" s="72">
         <v>0.41</v>
       </c>
-      <c r="D30" s="204" t="s">
+      <c r="D30" s="211" t="s">
         <v>287</v>
       </c>
-      <c r="E30" s="205"/>
-      <c r="F30" s="205"/>
-      <c r="G30" s="206"/>
+      <c r="E30" s="212"/>
+      <c r="F30" s="212"/>
+      <c r="G30" s="213"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="52" t="s">
@@ -13558,12 +13570,12 @@
       <c r="C31" s="72">
         <v>0.59</v>
       </c>
-      <c r="D31" s="204" t="s">
+      <c r="D31" s="211" t="s">
         <v>289</v>
       </c>
-      <c r="E31" s="205"/>
-      <c r="F31" s="205"/>
-      <c r="G31" s="206"/>
+      <c r="E31" s="212"/>
+      <c r="F31" s="212"/>
+      <c r="G31" s="213"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="52" t="s">
@@ -13575,12 +13587,12 @@
       <c r="C32" s="72">
         <v>0.5</v>
       </c>
-      <c r="D32" s="204" t="s">
+      <c r="D32" s="211" t="s">
         <v>288</v>
       </c>
-      <c r="E32" s="205"/>
-      <c r="F32" s="205"/>
-      <c r="G32" s="206"/>
+      <c r="E32" s="212"/>
+      <c r="F32" s="212"/>
+      <c r="G32" s="213"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="52" t="s">
@@ -13592,12 +13604,12 @@
       <c r="C33" s="72">
         <v>0.59</v>
       </c>
-      <c r="D33" s="204" t="s">
+      <c r="D33" s="211" t="s">
         <v>290</v>
       </c>
-      <c r="E33" s="205"/>
-      <c r="F33" s="205"/>
-      <c r="G33" s="206"/>
+      <c r="E33" s="212"/>
+      <c r="F33" s="212"/>
+      <c r="G33" s="213"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="52" t="s">
@@ -13609,25 +13621,25 @@
       <c r="C34" s="72">
         <v>0.54</v>
       </c>
-      <c r="D34" s="204" t="s">
+      <c r="D34" s="211" t="s">
         <v>291</v>
       </c>
-      <c r="E34" s="205"/>
-      <c r="F34" s="205"/>
-      <c r="G34" s="206"/>
+      <c r="E34" s="212"/>
+      <c r="F34" s="212"/>
+      <c r="G34" s="213"/>
     </row>
     <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="202" t="s">
+      <c r="A36" s="207" t="s">
         <v>315</v>
       </c>
-      <c r="B36" s="202"/>
-      <c r="C36" s="202"/>
-      <c r="D36" s="202"/>
-      <c r="E36" s="202"/>
-      <c r="F36" s="202"/>
-      <c r="G36" s="202"/>
-      <c r="H36" s="202"/>
-      <c r="I36" s="202"/>
+      <c r="B36" s="207"/>
+      <c r="C36" s="207"/>
+      <c r="D36" s="207"/>
+      <c r="E36" s="207"/>
+      <c r="F36" s="207"/>
+      <c r="G36" s="207"/>
+      <c r="H36" s="207"/>
+      <c r="I36" s="207"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="87" t="s">
@@ -13694,12 +13706,12 @@
       </c>
     </row>
     <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="208" t="s">
+      <c r="A46" s="199" t="s">
         <v>318</v>
       </c>
-      <c r="B46" s="208"/>
-      <c r="C46" s="208"/>
-      <c r="D46" s="208"/>
+      <c r="B46" s="199"/>
+      <c r="C46" s="199"/>
+      <c r="D46" s="199"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="88" t="s">
@@ -13822,11 +13834,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D6:D13"/>
-    <mergeCell ref="A2:I2"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A25:I25"/>
@@ -13842,6 +13849,11 @@
     <mergeCell ref="D30:G30"/>
     <mergeCell ref="D31:G31"/>
     <mergeCell ref="D32:G32"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D6:D13"/>
+    <mergeCell ref="A2:I2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -15549,8 +15561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15986,7 +15998,7 @@
       <c r="E19" s="18" t="s">
         <v>418</v>
       </c>
-      <c r="F19" s="94"/>
+      <c r="F19" s="34"/>
       <c r="G19" s="94"/>
       <c r="H19" s="94"/>
     </row>
@@ -16030,7 +16042,7 @@
       <c r="E21" s="18" t="s">
         <v>424</v>
       </c>
-      <c r="F21" s="94"/>
+      <c r="F21" s="34"/>
       <c r="G21" s="94"/>
       <c r="H21" s="94"/>
     </row>
@@ -16050,8 +16062,12 @@
       <c r="E22" s="18" t="s">
         <v>430</v>
       </c>
-      <c r="F22" s="94"/>
-      <c r="G22" s="94"/>
+      <c r="F22" s="94" t="s">
+        <v>487</v>
+      </c>
+      <c r="G22" s="94">
+        <v>7</v>
+      </c>
       <c r="H22" s="94"/>
     </row>
     <row r="23" spans="1:8" ht="75" x14ac:dyDescent="0.25">
@@ -16070,8 +16086,12 @@
       <c r="E23" s="18" t="s">
         <v>434</v>
       </c>
-      <c r="F23" s="94"/>
-      <c r="G23" s="94"/>
+      <c r="F23" s="94" t="s">
+        <v>488</v>
+      </c>
+      <c r="G23" s="94">
+        <v>7</v>
+      </c>
       <c r="H23" s="94"/>
     </row>
     <row r="24" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -16090,7 +16110,7 @@
       <c r="E24" s="18" t="s">
         <v>438</v>
       </c>
-      <c r="F24" s="94"/>
+      <c r="F24" s="34"/>
       <c r="G24" s="94"/>
       <c r="H24" s="94"/>
     </row>
@@ -16110,7 +16130,7 @@
       <c r="E25" s="18" t="s">
         <v>441</v>
       </c>
-      <c r="F25" s="94"/>
+      <c r="F25" s="34"/>
       <c r="G25" s="94"/>
       <c r="H25" s="94"/>
     </row>
@@ -16130,8 +16150,12 @@
       <c r="E26" s="18" t="s">
         <v>408</v>
       </c>
-      <c r="F26" s="94"/>
-      <c r="G26" s="94"/>
+      <c r="F26" s="94" t="s">
+        <v>489</v>
+      </c>
+      <c r="G26" s="94">
+        <v>19</v>
+      </c>
       <c r="H26" s="94"/>
     </row>
     <row r="27" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -16150,8 +16174,12 @@
       <c r="E27" s="18" t="s">
         <v>448</v>
       </c>
-      <c r="F27" s="94"/>
-      <c r="G27" s="94"/>
+      <c r="F27" s="34" t="s">
+        <v>490</v>
+      </c>
+      <c r="G27" s="94">
+        <v>19</v>
+      </c>
       <c r="H27" s="94"/>
     </row>
     <row r="28" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -16170,7 +16198,7 @@
       <c r="E28" s="18" t="s">
         <v>455</v>
       </c>
-      <c r="F28" s="94"/>
+      <c r="F28" s="34"/>
       <c r="G28" s="94"/>
       <c r="H28" s="94"/>
     </row>
@@ -16190,7 +16218,7 @@
       <c r="E29" s="18" t="s">
         <v>457</v>
       </c>
-      <c r="F29" s="94"/>
+      <c r="F29" s="34"/>
       <c r="G29" s="94"/>
       <c r="H29" s="94"/>
     </row>
@@ -16210,7 +16238,7 @@
       <c r="E30" s="18" t="s">
         <v>460</v>
       </c>
-      <c r="F30" s="94"/>
+      <c r="F30" s="34"/>
       <c r="G30" s="94"/>
       <c r="H30" s="94"/>
     </row>
@@ -16230,7 +16258,7 @@
       <c r="E31" s="18" t="s">
         <v>420</v>
       </c>
-      <c r="F31" s="94"/>
+      <c r="F31" s="34"/>
       <c r="G31" s="94"/>
       <c r="H31" s="94"/>
     </row>

--- a/Experiment01_Resumo/Resumo_Exp01.xlsx
+++ b/Experiment01_Resumo/Resumo_Exp01.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" firstSheet="7" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Capa" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="500">
   <si>
     <t>Database search</t>
   </si>
@@ -1611,6 +1611,33 @@
   </si>
   <si>
     <t>birkhölzer2011a</t>
+  </si>
+  <si>
+    <t>trienekens2004a</t>
+  </si>
+  <si>
+    <t>murugappan2003a</t>
+  </si>
+  <si>
+    <t>basili2007c</t>
+  </si>
+  <si>
+    <t>kowalczyk2010a</t>
+  </si>
+  <si>
+    <t>armbrust2010b</t>
+  </si>
+  <si>
+    <t>martins2007b</t>
+  </si>
+  <si>
+    <t>münch2013a</t>
+  </si>
+  <si>
+    <t>trendowicz2014a</t>
+  </si>
+  <si>
+    <t>mccoy1998a</t>
   </si>
 </sst>
 </file>
@@ -1709,7 +1736,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="26">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1839,18 +1866,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2309,7 +2324,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="235">
+  <cellXfs count="233">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2757,30 +2772,21 @@
     <xf numFmtId="0" fontId="1" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2829,12 +2835,36 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2853,30 +2883,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2937,6 +2943,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -3005,6 +3012,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3260,12 +3268,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="209667312"/>
-        <c:axId val="209667704"/>
+        <c:axId val="209728800"/>
+        <c:axId val="209728408"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="209667312"/>
+        <c:axId val="209728800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3297,6 +3305,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3357,7 +3366,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209667704"/>
+        <c:crossAx val="209728408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3365,7 +3374,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="209667704"/>
+        <c:axId val="209728408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3416,7 +3425,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209667312"/>
+        <c:crossAx val="209728800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3430,6 +3439,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3638,6 +3648,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3725,12 +3736,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="209670056"/>
-        <c:axId val="209663784"/>
+        <c:axId val="209729192"/>
+        <c:axId val="209729584"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="209670056"/>
+        <c:axId val="209729192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3759,6 +3770,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3819,7 +3831,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209663784"/>
+        <c:crossAx val="209729584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3827,7 +3839,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="209663784"/>
+        <c:axId val="209729584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3856,6 +3868,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3910,7 +3923,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209670056"/>
+        <c:crossAx val="209729192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3924,6 +3937,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4108,6 +4122,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4195,12 +4210,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="209670448"/>
-        <c:axId val="209664960"/>
+        <c:axId val="209726840"/>
+        <c:axId val="209731936"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="209670448"/>
+        <c:axId val="209726840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4229,6 +4244,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4289,7 +4305,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209664960"/>
+        <c:crossAx val="209731936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4297,7 +4313,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="209664960"/>
+        <c:axId val="209731936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4326,6 +4342,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4380,7 +4397,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209670448"/>
+        <c:crossAx val="209726840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4394,6 +4411,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4494,6 +4512,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5167,12 +5186,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="292635424"/>
-        <c:axId val="292631896"/>
+        <c:axId val="209727624"/>
+        <c:axId val="209730760"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="292635424"/>
+        <c:axId val="209727624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5212,7 +5231,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="292631896"/>
+        <c:crossAx val="209730760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5220,7 +5239,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="292631896"/>
+        <c:axId val="209730760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5268,7 +5287,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="292635424"/>
+        <c:crossAx val="209727624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5282,6 +5301,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5506,6 +5526,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -5576,8 +5597,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="292634248"/>
-        <c:axId val="292630720"/>
+        <c:axId val="210984632"/>
+        <c:axId val="210985024"/>
         <c:axId val="0"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
@@ -5747,7 +5768,7 @@
         </c:extLst>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="292634248"/>
+        <c:axId val="210984632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5779,6 +5800,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5845,7 +5867,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="292630720"/>
+        <c:crossAx val="210985024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5853,7 +5875,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="292630720"/>
+        <c:axId val="210985024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5899,6 +5921,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5932,7 +5955,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="292634248"/>
+        <c:crossAx val="210984632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5946,6 +5969,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6246,8 +6270,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="292633072"/>
-        <c:axId val="292634640"/>
+        <c:axId val="210985416"/>
+        <c:axId val="210984240"/>
         <c:axId val="0"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
@@ -6417,7 +6441,7 @@
         </c:extLst>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="292633072"/>
+        <c:axId val="210985416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6515,7 +6539,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="292634640"/>
+        <c:crossAx val="210984240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6523,7 +6547,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="292634640"/>
+        <c:axId val="210984240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6602,7 +6626,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="292633072"/>
+        <c:crossAx val="210985416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9921,16 +9945,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>102921</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1219944</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>184150</xdr:rowOff>
+      <xdr:rowOff>106219</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>69849</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>217054</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:rowOff>42719</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10300,22 +10324,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="183" t="s">
+      <c r="A1" s="180" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="184"/>
+      <c r="B1" s="181"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="185" t="s">
+      <c r="A2" s="182" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="186"/>
+      <c r="B2" s="183"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="185" t="s">
+      <c r="A3" s="182" t="s">
         <v>96</v>
       </c>
-      <c r="B3" s="186"/>
+      <c r="B3" s="183"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -10350,10 +10374,10 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="187" t="s">
+      <c r="A8" s="184" t="s">
         <v>103</v>
       </c>
-      <c r="B8" s="188"/>
+      <c r="B8" s="185"/>
     </row>
     <row r="9" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
@@ -10443,19 +10467,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="198" t="s">
+      <c r="A1" s="195" t="s">
         <v>326</v>
       </c>
-      <c r="B1" s="198"/>
-      <c r="C1" s="198"/>
-      <c r="D1" s="198"/>
-      <c r="E1" s="198"/>
-      <c r="F1" s="198"/>
-      <c r="G1" s="198"/>
-      <c r="H1" s="198"/>
-      <c r="I1" s="198"/>
-      <c r="J1" s="198"/>
-      <c r="K1" s="198"/>
+      <c r="B1" s="195"/>
+      <c r="C1" s="195"/>
+      <c r="D1" s="195"/>
+      <c r="E1" s="195"/>
+      <c r="F1" s="195"/>
+      <c r="G1" s="195"/>
+      <c r="H1" s="195"/>
+      <c r="I1" s="195"/>
+      <c r="J1" s="195"/>
+      <c r="K1" s="195"/>
     </row>
     <row r="2" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
@@ -11166,7 +11190,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -11177,10 +11201,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="229" t="s">
+      <c r="A1" s="226" t="s">
         <v>333</v>
       </c>
-      <c r="B1" s="230"/>
+      <c r="B1" s="227"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="79" t="s">
@@ -11248,20 +11272,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="231" t="s">
+      <c r="A1" s="228" t="s">
         <v>327</v>
       </c>
-      <c r="B1" s="231"/>
-      <c r="C1" s="231"/>
-      <c r="D1" s="231"/>
-      <c r="E1" s="231"/>
-      <c r="F1" s="231"/>
-      <c r="G1" s="231"/>
-      <c r="H1" s="231"/>
-      <c r="I1" s="231"/>
-      <c r="J1" s="231"/>
-      <c r="K1" s="231"/>
-      <c r="L1" s="231"/>
+      <c r="B1" s="228"/>
+      <c r="C1" s="228"/>
+      <c r="D1" s="228"/>
+      <c r="E1" s="228"/>
+      <c r="F1" s="228"/>
+      <c r="G1" s="228"/>
+      <c r="H1" s="228"/>
+      <c r="I1" s="228"/>
+      <c r="J1" s="228"/>
+      <c r="K1" s="228"/>
+      <c r="L1" s="228"/>
     </row>
     <row r="2" spans="1:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="143" t="s">
@@ -11980,15 +12004,15 @@
     </row>
     <row r="26" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="135"/>
-      <c r="B26" s="232" t="s">
+      <c r="B26" s="229" t="s">
         <v>334</v>
       </c>
-      <c r="C26" s="233"/>
-      <c r="D26" s="233"/>
-      <c r="E26" s="233"/>
-      <c r="F26" s="233"/>
-      <c r="G26" s="233"/>
-      <c r="H26" s="234"/>
+      <c r="C26" s="230"/>
+      <c r="D26" s="230"/>
+      <c r="E26" s="230"/>
+      <c r="F26" s="230"/>
+      <c r="G26" s="230"/>
+      <c r="H26" s="231"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="66"/>
@@ -12144,7 +12168,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12154,10 +12178,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="193" t="s">
+      <c r="A1" s="190" t="s">
         <v>151</v>
       </c>
-      <c r="B1" s="194"/>
+      <c r="B1" s="191"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
@@ -12190,16 +12214,16 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="189" t="s">
+      <c r="A6" s="186" t="s">
         <v>147</v>
       </c>
-      <c r="B6" s="190"/>
+      <c r="B6" s="187"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="191" t="s">
+      <c r="A7" s="188" t="s">
         <v>150</v>
       </c>
-      <c r="B7" s="192"/>
+      <c r="B7" s="189"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
@@ -12263,8 +12287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12281,16 +12305,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="195" t="s">
+      <c r="A1" s="192" t="s">
         <v>336</v>
       </c>
-      <c r="B1" s="196"/>
-      <c r="C1" s="196"/>
-      <c r="D1" s="196"/>
-      <c r="E1" s="196"/>
-      <c r="F1" s="196"/>
-      <c r="G1" s="196"/>
-      <c r="H1" s="197"/>
+      <c r="B1" s="193"/>
+      <c r="C1" s="193"/>
+      <c r="D1" s="193"/>
+      <c r="E1" s="193"/>
+      <c r="F1" s="193"/>
+      <c r="G1" s="193"/>
+      <c r="H1" s="194"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
     </row>
@@ -12659,13 +12683,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="198" t="s">
+      <c r="A1" s="195" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="198"/>
-      <c r="C1" s="198"/>
-      <c r="D1" s="198"/>
-      <c r="E1" s="198"/>
+      <c r="B1" s="195"/>
+      <c r="C1" s="195"/>
+      <c r="D1" s="195"/>
+      <c r="E1" s="195"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
@@ -13058,7 +13082,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="145" t="s">
         <v>125</v>
       </c>
@@ -13081,8 +13105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S54"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50:D54"/>
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13097,30 +13121,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="208" t="s">
+      <c r="A1" s="196" t="s">
         <v>230</v>
       </c>
-      <c r="B1" s="209"/>
-      <c r="C1" s="209"/>
-      <c r="D1" s="209"/>
-      <c r="E1" s="209"/>
-      <c r="F1" s="209"/>
-      <c r="G1" s="209"/>
-      <c r="H1" s="209"/>
-      <c r="I1" s="209"/>
+      <c r="B1" s="197"/>
+      <c r="C1" s="197"/>
+      <c r="D1" s="197"/>
+      <c r="E1" s="197"/>
+      <c r="F1" s="197"/>
+      <c r="G1" s="197"/>
+      <c r="H1" s="197"/>
+      <c r="I1" s="197"/>
     </row>
     <row r="2" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="207" t="s">
+      <c r="A2" s="199" t="s">
         <v>229</v>
       </c>
-      <c r="B2" s="207"/>
-      <c r="C2" s="207"/>
-      <c r="D2" s="207"/>
-      <c r="E2" s="207"/>
-      <c r="F2" s="207"/>
-      <c r="G2" s="207"/>
-      <c r="H2" s="207"/>
-      <c r="I2" s="207"/>
+      <c r="B2" s="199"/>
+      <c r="C2" s="199"/>
+      <c r="D2" s="199"/>
+      <c r="E2" s="199"/>
+      <c r="F2" s="199"/>
+      <c r="G2" s="199"/>
+      <c r="H2" s="199"/>
+      <c r="I2" s="199"/>
     </row>
     <row r="3" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="200" t="s">
@@ -13146,12 +13170,12 @@
       <c r="S3" s="71"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="210" t="s">
+      <c r="A4" s="198" t="s">
         <v>253</v>
       </c>
-      <c r="B4" s="210"/>
-      <c r="C4" s="210"/>
-      <c r="D4" s="210"/>
+      <c r="B4" s="198"/>
+      <c r="C4" s="198"/>
+      <c r="D4" s="198"/>
     </row>
     <row r="5" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="69" t="s">
@@ -13177,8 +13201,12 @@
       <c r="C6" s="49" t="s">
         <v>196</v>
       </c>
-      <c r="D6" s="204" t="s">
+      <c r="D6" s="209" t="s">
         <v>339</v>
+      </c>
+      <c r="E6" t="e">
+        <f>HARMEAN(B6,C6)</f>
+        <v>#N/A</v>
       </c>
       <c r="N6" s="26"/>
     </row>
@@ -13192,7 +13220,7 @@
       <c r="C7" s="49" t="s">
         <v>228</v>
       </c>
-      <c r="D7" s="205"/>
+      <c r="D7" s="210"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="78" t="s">
@@ -13204,7 +13232,7 @@
       <c r="C8" s="49" t="s">
         <v>235</v>
       </c>
-      <c r="D8" s="205"/>
+      <c r="D8" s="210"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="78" t="s">
@@ -13216,7 +13244,7 @@
       <c r="C9" s="49" t="s">
         <v>236</v>
       </c>
-      <c r="D9" s="205"/>
+      <c r="D9" s="210"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="78" t="s">
@@ -13228,7 +13256,7 @@
       <c r="C10" s="49" t="s">
         <v>237</v>
       </c>
-      <c r="D10" s="205"/>
+      <c r="D10" s="210"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="78" t="s">
@@ -13240,7 +13268,7 @@
       <c r="C11" s="49" t="s">
         <v>237</v>
       </c>
-      <c r="D11" s="205"/>
+      <c r="D11" s="210"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="78" t="s">
@@ -13252,7 +13280,7 @@
       <c r="C12" s="49" t="s">
         <v>266</v>
       </c>
-      <c r="D12" s="205"/>
+      <c r="D12" s="210"/>
     </row>
     <row r="13" spans="1:19" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="146" t="s">
@@ -13264,7 +13292,7 @@
       <c r="C13" s="137" t="s">
         <v>273</v>
       </c>
-      <c r="D13" s="206"/>
+      <c r="D13" s="211"/>
     </row>
     <row r="14" spans="1:19" s="77" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="147" t="s">
@@ -13281,17 +13309,17 @@
       </c>
     </row>
     <row r="15" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="207" t="s">
+      <c r="A15" s="199" t="s">
         <v>261</v>
       </c>
-      <c r="B15" s="207"/>
-      <c r="C15" s="207"/>
-      <c r="D15" s="207"/>
-      <c r="E15" s="207"/>
-      <c r="F15" s="207"/>
-      <c r="G15" s="207"/>
-      <c r="H15" s="207"/>
-      <c r="I15" s="207"/>
+      <c r="B15" s="199"/>
+      <c r="C15" s="199"/>
+      <c r="D15" s="199"/>
+      <c r="E15" s="199"/>
+      <c r="F15" s="199"/>
+      <c r="G15" s="199"/>
+      <c r="H15" s="199"/>
+      <c r="I15" s="199"/>
     </row>
     <row r="16" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="200" t="s">
@@ -13317,14 +13345,14 @@
       <c r="S16" s="71"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="210" t="s">
+      <c r="A17" s="198" t="s">
         <v>259</v>
       </c>
-      <c r="B17" s="210"/>
-      <c r="C17" s="210"/>
-      <c r="D17" s="210"/>
-      <c r="E17" s="210"/>
-      <c r="F17" s="210"/>
+      <c r="B17" s="198"/>
+      <c r="C17" s="198"/>
+      <c r="D17" s="198"/>
+      <c r="E17" s="198"/>
+      <c r="F17" s="198"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="69" t="s">
@@ -13365,6 +13393,10 @@
       <c r="F19" s="72">
         <v>0.77</v>
       </c>
+      <c r="G19" s="232">
+        <f>HARMEAN(E19,F19)</f>
+        <v>3.326556543837357E-2</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="86" t="s">
@@ -13385,6 +13417,10 @@
       <c r="F20" s="72">
         <v>0.41</v>
       </c>
+      <c r="G20" s="232">
+        <f t="shared" ref="G20:G24" si="0">HARMEAN(E20,F20)</f>
+        <v>4.3556581986143185E-2</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="86" t="s">
@@ -13405,6 +13441,10 @@
       <c r="F21" s="72">
         <v>0.59</v>
       </c>
+      <c r="G21" s="232">
+        <f t="shared" si="0"/>
+        <v>5.5282714054927309E-2</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="86" t="s">
@@ -13425,6 +13465,10 @@
       <c r="F22" s="72">
         <v>0.5</v>
       </c>
+      <c r="G22" s="232">
+        <f t="shared" si="0"/>
+        <v>8.2568807339449546E-2</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="86" t="s">
@@ -13445,6 +13489,10 @@
       <c r="F23" s="72">
         <v>0.59</v>
       </c>
+      <c r="G23" s="232">
+        <f t="shared" si="0"/>
+        <v>6.608E-2</v>
+      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="86" t="s">
@@ -13465,19 +13513,23 @@
       <c r="F24" s="72">
         <v>0.54</v>
       </c>
+      <c r="G24" s="232">
+        <f t="shared" si="0"/>
+        <v>6.9254766031195833E-2</v>
+      </c>
     </row>
     <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="207" t="s">
+      <c r="A25" s="199" t="s">
         <v>260</v>
       </c>
-      <c r="B25" s="207"/>
-      <c r="C25" s="207"/>
-      <c r="D25" s="207"/>
-      <c r="E25" s="207"/>
-      <c r="F25" s="207"/>
-      <c r="G25" s="207"/>
-      <c r="H25" s="207"/>
-      <c r="I25" s="207"/>
+      <c r="B25" s="199"/>
+      <c r="C25" s="199"/>
+      <c r="D25" s="199"/>
+      <c r="E25" s="199"/>
+      <c r="F25" s="199"/>
+      <c r="G25" s="199"/>
+      <c r="H25" s="199"/>
+      <c r="I25" s="199"/>
     </row>
     <row r="26" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="200" t="s">
@@ -13502,12 +13554,12 @@
       <c r="C27" s="69" t="s">
         <v>201</v>
       </c>
-      <c r="D27" s="214" t="s">
+      <c r="D27" s="204" t="s">
         <v>292</v>
       </c>
-      <c r="E27" s="214"/>
-      <c r="F27" s="214"/>
-      <c r="G27" s="214"/>
+      <c r="E27" s="204"/>
+      <c r="F27" s="204"/>
+      <c r="G27" s="204"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="52" t="s">
@@ -13519,12 +13571,12 @@
       <c r="C28" s="72">
         <v>0.59</v>
       </c>
-      <c r="D28" s="201" t="s">
+      <c r="D28" s="206" t="s">
         <v>285</v>
       </c>
-      <c r="E28" s="202"/>
-      <c r="F28" s="202"/>
-      <c r="G28" s="203"/>
+      <c r="E28" s="207"/>
+      <c r="F28" s="207"/>
+      <c r="G28" s="208"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="52" t="s">
@@ -13536,12 +13588,12 @@
       <c r="C29" s="72">
         <v>0.77</v>
       </c>
-      <c r="D29" s="211" t="s">
+      <c r="D29" s="201" t="s">
         <v>286</v>
       </c>
-      <c r="E29" s="212"/>
-      <c r="F29" s="212"/>
-      <c r="G29" s="213"/>
+      <c r="E29" s="202"/>
+      <c r="F29" s="202"/>
+      <c r="G29" s="203"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="52" t="s">
@@ -13553,12 +13605,12 @@
       <c r="C30" s="72">
         <v>0.41</v>
       </c>
-      <c r="D30" s="211" t="s">
+      <c r="D30" s="201" t="s">
         <v>287</v>
       </c>
-      <c r="E30" s="212"/>
-      <c r="F30" s="212"/>
-      <c r="G30" s="213"/>
+      <c r="E30" s="202"/>
+      <c r="F30" s="202"/>
+      <c r="G30" s="203"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="52" t="s">
@@ -13570,12 +13622,12 @@
       <c r="C31" s="72">
         <v>0.59</v>
       </c>
-      <c r="D31" s="211" t="s">
+      <c r="D31" s="201" t="s">
         <v>289</v>
       </c>
-      <c r="E31" s="212"/>
-      <c r="F31" s="212"/>
-      <c r="G31" s="213"/>
+      <c r="E31" s="202"/>
+      <c r="F31" s="202"/>
+      <c r="G31" s="203"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="52" t="s">
@@ -13587,12 +13639,12 @@
       <c r="C32" s="72">
         <v>0.5</v>
       </c>
-      <c r="D32" s="211" t="s">
+      <c r="D32" s="201" t="s">
         <v>288</v>
       </c>
-      <c r="E32" s="212"/>
-      <c r="F32" s="212"/>
-      <c r="G32" s="213"/>
+      <c r="E32" s="202"/>
+      <c r="F32" s="202"/>
+      <c r="G32" s="203"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="52" t="s">
@@ -13604,12 +13656,12 @@
       <c r="C33" s="72">
         <v>0.59</v>
       </c>
-      <c r="D33" s="211" t="s">
+      <c r="D33" s="201" t="s">
         <v>290</v>
       </c>
-      <c r="E33" s="212"/>
-      <c r="F33" s="212"/>
-      <c r="G33" s="213"/>
+      <c r="E33" s="202"/>
+      <c r="F33" s="202"/>
+      <c r="G33" s="203"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="52" t="s">
@@ -13621,25 +13673,25 @@
       <c r="C34" s="72">
         <v>0.54</v>
       </c>
-      <c r="D34" s="211" t="s">
+      <c r="D34" s="201" t="s">
         <v>291</v>
       </c>
-      <c r="E34" s="212"/>
-      <c r="F34" s="212"/>
-      <c r="G34" s="213"/>
+      <c r="E34" s="202"/>
+      <c r="F34" s="202"/>
+      <c r="G34" s="203"/>
     </row>
     <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="207" t="s">
+      <c r="A36" s="199" t="s">
         <v>315</v>
       </c>
-      <c r="B36" s="207"/>
-      <c r="C36" s="207"/>
-      <c r="D36" s="207"/>
-      <c r="E36" s="207"/>
-      <c r="F36" s="207"/>
-      <c r="G36" s="207"/>
-      <c r="H36" s="207"/>
-      <c r="I36" s="207"/>
+      <c r="B36" s="199"/>
+      <c r="C36" s="199"/>
+      <c r="D36" s="199"/>
+      <c r="E36" s="199"/>
+      <c r="F36" s="199"/>
+      <c r="G36" s="199"/>
+      <c r="H36" s="199"/>
+      <c r="I36" s="199"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="87" t="s">
@@ -13706,12 +13758,12 @@
       </c>
     </row>
     <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="199" t="s">
+      <c r="A46" s="205" t="s">
         <v>318</v>
       </c>
-      <c r="B46" s="199"/>
-      <c r="C46" s="199"/>
-      <c r="D46" s="199"/>
+      <c r="B46" s="205"/>
+      <c r="C46" s="205"/>
+      <c r="D46" s="205"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="88" t="s">
@@ -13737,27 +13789,35 @@
       <c r="C48" s="126">
         <v>0.59</v>
       </c>
-      <c r="D48" s="178">
+      <c r="D48" s="176">
         <f>2*((B48*C48)/(B48+C48))</f>
         <v>5.3827240375283081E-2</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48" s="232">
+        <f>HARMEAN(B48,C48)</f>
+        <v>5.3827240375283081E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="95" t="s">
         <v>258</v>
       </c>
       <c r="B49" s="126">
         <v>1.67E-2</v>
       </c>
-      <c r="C49" s="177">
+      <c r="C49" s="175">
         <v>0.77270000000000005</v>
       </c>
-      <c r="D49" s="178">
-        <f t="shared" ref="D49:D54" si="0">2*((B49*C49)/(B49+C49))</f>
+      <c r="D49" s="176">
+        <f t="shared" ref="D49:D54" si="1">2*((B49*C49)/(B49+C49))</f>
         <v>3.2693412718520394E-2</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49" s="232">
+        <f t="shared" ref="E49:E54" si="2">HARMEAN(B49,C49)</f>
+        <v>3.2693412718520394E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="95" t="s">
         <v>243</v>
       </c>
@@ -13767,12 +13827,16 @@
       <c r="C50" s="126">
         <v>0.40899999999999997</v>
       </c>
-      <c r="D50" s="178">
-        <f t="shared" si="0"/>
+      <c r="D50" s="176">
+        <f t="shared" si="1"/>
         <v>4.3730155056699832E-2</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50" s="232">
+        <f t="shared" si="2"/>
+        <v>4.3730155056699839E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="95" t="s">
         <v>244</v>
       </c>
@@ -13782,12 +13846,16 @@
       <c r="C51" s="126">
         <v>0.59</v>
       </c>
-      <c r="D51" s="178">
-        <f t="shared" si="0"/>
+      <c r="D51" s="176">
+        <f t="shared" si="1"/>
         <v>5.5827547230744394E-2</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51" s="232">
+        <f t="shared" si="2"/>
+        <v>5.5827547230744394E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="95" t="s">
         <v>245</v>
       </c>
@@ -13797,12 +13865,16 @@
       <c r="C52" s="126">
         <v>0.5</v>
       </c>
-      <c r="D52" s="178">
+      <c r="D52" s="176">
         <f>2*((B52*C52)/(B52+C52))</f>
         <v>8.2063521204332662E-2</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52" s="232">
+        <f t="shared" si="2"/>
+        <v>8.2063521204332662E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="95" t="s">
         <v>246</v>
       </c>
@@ -13812,12 +13884,16 @@
       <c r="C53" s="126">
         <v>0.59</v>
       </c>
-      <c r="D53" s="178">
-        <f t="shared" si="0"/>
+      <c r="D53" s="176">
+        <f t="shared" si="1"/>
         <v>6.6258198688209882E-2</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53" s="232">
+        <f t="shared" si="2"/>
+        <v>6.6258198688209896E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="95" t="s">
         <v>247</v>
       </c>
@@ -13827,13 +13903,22 @@
       <c r="C54" s="126">
         <v>0.54</v>
       </c>
-      <c r="D54" s="178">
-        <f t="shared" si="0"/>
+      <c r="D54" s="176">
+        <f t="shared" si="1"/>
+        <v>6.9254766031195833E-2</v>
+      </c>
+      <c r="E54" s="232">
+        <f t="shared" si="2"/>
         <v>6.9254766031195833E-2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D6:D13"/>
+    <mergeCell ref="A2:I2"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A25:I25"/>
@@ -13849,11 +13934,6 @@
     <mergeCell ref="D30:G30"/>
     <mergeCell ref="D31:G31"/>
     <mergeCell ref="D32:G32"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D6:D13"/>
-    <mergeCell ref="A2:I2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13885,15 +13965,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="220" t="s">
+      <c r="A1" s="217" t="s">
         <v>347</v>
       </c>
-      <c r="B1" s="220"/>
-      <c r="C1" s="220"/>
-      <c r="D1" s="220"/>
-      <c r="E1" s="220"/>
-      <c r="F1" s="220"/>
-      <c r="G1" s="220"/>
+      <c r="B1" s="217"/>
+      <c r="C1" s="217"/>
+      <c r="D1" s="217"/>
+      <c r="E1" s="217"/>
+      <c r="F1" s="217"/>
+      <c r="G1" s="217"/>
     </row>
     <row r="2" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="159" t="s">
@@ -13917,11 +13997,11 @@
       <c r="G2" s="159" t="s">
         <v>344</v>
       </c>
-      <c r="I2" s="219" t="s">
+      <c r="I2" s="216" t="s">
         <v>197</v>
       </c>
-      <c r="J2" s="219"/>
-      <c r="K2" s="219"/>
+      <c r="J2" s="216"/>
+      <c r="K2" s="216"/>
     </row>
     <row r="3" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
@@ -14374,20 +14454,20 @@
       <c r="J22" s="115" t="s">
         <v>217</v>
       </c>
-      <c r="K22" s="221" t="s">
+      <c r="K22" s="218" t="s">
         <v>307</v>
       </c>
-      <c r="L22" s="221"/>
-      <c r="M22" s="221"/>
-      <c r="N22" s="221"/>
-      <c r="O22" s="221"/>
-      <c r="P22" s="221"/>
-      <c r="Q22" s="221"/>
-      <c r="R22" s="221"/>
-      <c r="S22" s="221"/>
-      <c r="T22" s="221"/>
-      <c r="U22" s="221"/>
-      <c r="V22" s="221"/>
+      <c r="L22" s="218"/>
+      <c r="M22" s="218"/>
+      <c r="N22" s="218"/>
+      <c r="O22" s="218"/>
+      <c r="P22" s="218"/>
+      <c r="Q22" s="218"/>
+      <c r="R22" s="218"/>
+      <c r="S22" s="218"/>
+      <c r="T22" s="218"/>
+      <c r="U22" s="218"/>
+      <c r="V22" s="218"/>
     </row>
     <row r="23" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="36" t="s">
@@ -14493,10 +14573,10 @@
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A29" s="223"/>
-      <c r="B29" s="224"/>
-      <c r="C29" s="224"/>
-      <c r="D29" s="225"/>
+      <c r="A29" s="220"/>
+      <c r="B29" s="221"/>
+      <c r="C29" s="221"/>
+      <c r="D29" s="222"/>
       <c r="I29" s="43" t="s">
         <v>187</v>
       </c>
@@ -14513,10 +14593,10 @@
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A31" s="226" t="s">
+      <c r="A31" s="223" t="s">
         <v>181</v>
       </c>
-      <c r="B31" s="227"/>
+      <c r="B31" s="224"/>
       <c r="C31" s="68"/>
       <c r="I31" s="43" t="s">
         <v>189</v>
@@ -14538,20 +14618,20 @@
       <c r="J32" s="116" t="s">
         <v>308</v>
       </c>
-      <c r="K32" s="222" t="s">
+      <c r="K32" s="219" t="s">
         <v>306</v>
       </c>
-      <c r="L32" s="222"/>
-      <c r="M32" s="222"/>
-      <c r="N32" s="222"/>
-      <c r="O32" s="222"/>
-      <c r="P32" s="222"/>
-      <c r="Q32" s="222"/>
-      <c r="R32" s="222"/>
-      <c r="S32" s="222"/>
-      <c r="T32" s="222"/>
-      <c r="U32" s="222"/>
-      <c r="V32" s="222"/>
+      <c r="L32" s="219"/>
+      <c r="M32" s="219"/>
+      <c r="N32" s="219"/>
+      <c r="O32" s="219"/>
+      <c r="P32" s="219"/>
+      <c r="Q32" s="219"/>
+      <c r="R32" s="219"/>
+      <c r="S32" s="219"/>
+      <c r="T32" s="219"/>
+      <c r="U32" s="219"/>
+      <c r="V32" s="219"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="84" t="s">
@@ -14584,10 +14664,10 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="215" t="s">
+      <c r="A35" s="212" t="s">
         <v>184</v>
       </c>
-      <c r="B35" s="217" t="s">
+      <c r="B35" s="214" t="s">
         <v>219</v>
       </c>
       <c r="D35" s="90"/>
@@ -14597,8 +14677,8 @@
       <c r="J35" s="41"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="216"/>
-      <c r="B36" s="218"/>
+      <c r="A36" s="213"/>
+      <c r="B36" s="215"/>
       <c r="D36" s="90"/>
       <c r="I36" s="105" t="s">
         <v>296</v>
@@ -14717,15 +14797,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="220" t="s">
+      <c r="A1" s="217" t="s">
         <v>347</v>
       </c>
-      <c r="B1" s="220"/>
-      <c r="C1" s="220"/>
-      <c r="D1" s="220"/>
-      <c r="E1" s="220"/>
-      <c r="F1" s="220"/>
-      <c r="G1" s="220"/>
+      <c r="B1" s="217"/>
+      <c r="C1" s="217"/>
+      <c r="D1" s="217"/>
+      <c r="E1" s="217"/>
+      <c r="F1" s="217"/>
+      <c r="G1" s="217"/>
     </row>
     <row r="2" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="159" t="s">
@@ -14749,11 +14829,11 @@
       <c r="G2" s="159" t="s">
         <v>344</v>
       </c>
-      <c r="I2" s="219" t="s">
+      <c r="I2" s="216" t="s">
         <v>197</v>
       </c>
-      <c r="J2" s="219"/>
-      <c r="K2" s="219"/>
+      <c r="J2" s="216"/>
+      <c r="K2" s="216"/>
       <c r="O2" s="171" t="s">
         <v>351</v>
       </c>
@@ -15254,20 +15334,20 @@
       <c r="J22" s="115" t="s">
         <v>217</v>
       </c>
-      <c r="K22" s="221" t="s">
+      <c r="K22" s="218" t="s">
         <v>307</v>
       </c>
-      <c r="L22" s="221"/>
-      <c r="M22" s="221"/>
-      <c r="N22" s="221"/>
-      <c r="O22" s="221"/>
-      <c r="P22" s="221"/>
-      <c r="Q22" s="221"/>
-      <c r="R22" s="221"/>
-      <c r="S22" s="221"/>
-      <c r="T22" s="221"/>
-      <c r="U22" s="221"/>
-      <c r="V22" s="221"/>
+      <c r="L22" s="218"/>
+      <c r="M22" s="218"/>
+      <c r="N22" s="218"/>
+      <c r="O22" s="218"/>
+      <c r="P22" s="218"/>
+      <c r="Q22" s="218"/>
+      <c r="R22" s="218"/>
+      <c r="S22" s="218"/>
+      <c r="T22" s="218"/>
+      <c r="U22" s="218"/>
+      <c r="V22" s="218"/>
     </row>
     <row r="23" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="36" t="s">
@@ -15373,10 +15453,10 @@
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A29" s="223"/>
-      <c r="B29" s="224"/>
-      <c r="C29" s="224"/>
-      <c r="D29" s="225"/>
+      <c r="A29" s="220"/>
+      <c r="B29" s="221"/>
+      <c r="C29" s="221"/>
+      <c r="D29" s="222"/>
       <c r="I29" s="43" t="s">
         <v>187</v>
       </c>
@@ -15393,10 +15473,10 @@
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A31" s="226" t="s">
+      <c r="A31" s="223" t="s">
         <v>181</v>
       </c>
-      <c r="B31" s="227"/>
+      <c r="B31" s="224"/>
       <c r="C31" s="68"/>
       <c r="I31" s="43" t="s">
         <v>189</v>
@@ -15418,20 +15498,20 @@
       <c r="J32" s="116" t="s">
         <v>308</v>
       </c>
-      <c r="K32" s="222" t="s">
+      <c r="K32" s="219" t="s">
         <v>306</v>
       </c>
-      <c r="L32" s="222"/>
-      <c r="M32" s="222"/>
-      <c r="N32" s="222"/>
-      <c r="O32" s="222"/>
-      <c r="P32" s="222"/>
-      <c r="Q32" s="222"/>
-      <c r="R32" s="222"/>
-      <c r="S32" s="222"/>
-      <c r="T32" s="222"/>
-      <c r="U32" s="222"/>
-      <c r="V32" s="222"/>
+      <c r="L32" s="219"/>
+      <c r="M32" s="219"/>
+      <c r="N32" s="219"/>
+      <c r="O32" s="219"/>
+      <c r="P32" s="219"/>
+      <c r="Q32" s="219"/>
+      <c r="R32" s="219"/>
+      <c r="S32" s="219"/>
+      <c r="T32" s="219"/>
+      <c r="U32" s="219"/>
+      <c r="V32" s="219"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="84" t="s">
@@ -15462,10 +15542,10 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="215" t="s">
+      <c r="A35" s="212" t="s">
         <v>184</v>
       </c>
-      <c r="B35" s="217" t="s">
+      <c r="B35" s="214" t="s">
         <v>219</v>
       </c>
       <c r="I35" s="43" t="s">
@@ -15474,8 +15554,8 @@
       <c r="J35" s="41"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="216"/>
-      <c r="B36" s="218"/>
+      <c r="A36" s="213"/>
+      <c r="B36" s="215"/>
       <c r="I36" s="105" t="s">
         <v>296</v>
       </c>
@@ -15561,8 +15641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15575,16 +15655,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="228" t="s">
+      <c r="A1" s="225" t="s">
         <v>464</v>
       </c>
-      <c r="B1" s="228"/>
-      <c r="C1" s="228"/>
-      <c r="D1" s="228"/>
-      <c r="E1" s="228"/>
-      <c r="F1" s="228"/>
-      <c r="G1" s="228"/>
-      <c r="H1" s="228"/>
+      <c r="B1" s="225"/>
+      <c r="C1" s="225"/>
+      <c r="D1" s="225"/>
+      <c r="E1" s="225"/>
+      <c r="F1" s="225"/>
+      <c r="G1" s="225"/>
+      <c r="H1" s="225"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="174" t="s">
@@ -15613,10 +15693,10 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="180" t="s">
+      <c r="A3" s="179" t="s">
         <v>359</v>
       </c>
-      <c r="B3" s="181" t="s">
+      <c r="B3" s="177" t="s">
         <v>399</v>
       </c>
       <c r="C3" s="18" t="s">
@@ -15633,10 +15713,10 @@
       <c r="H3" s="94"/>
     </row>
     <row r="4" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="175" t="s">
+      <c r="A4" s="179" t="s">
         <v>360</v>
       </c>
-      <c r="B4" s="181" t="s">
+      <c r="B4" s="177" t="s">
         <v>363</v>
       </c>
       <c r="C4" s="18" t="s">
@@ -15657,10 +15737,10 @@
       <c r="H4" s="94"/>
     </row>
     <row r="5" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="175" t="s">
+      <c r="A5" s="179" t="s">
         <v>364</v>
       </c>
-      <c r="B5" s="181" t="s">
+      <c r="B5" s="177" t="s">
         <v>367</v>
       </c>
       <c r="C5" s="18" t="s">
@@ -15681,10 +15761,10 @@
       <c r="H5" s="94"/>
     </row>
     <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="175" t="s">
+      <c r="A6" s="179" t="s">
         <v>368</v>
       </c>
-      <c r="B6" s="181" t="s">
+      <c r="B6" s="177" t="s">
         <v>370</v>
       </c>
       <c r="C6" s="18" t="s">
@@ -15707,10 +15787,10 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="175" t="s">
+      <c r="A7" s="179" t="s">
         <v>372</v>
       </c>
-      <c r="B7" s="181" t="s">
+      <c r="B7" s="177" t="s">
         <v>374</v>
       </c>
       <c r="C7" s="18" t="s">
@@ -15731,10 +15811,10 @@
       <c r="H7" s="94"/>
     </row>
     <row r="8" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" s="175" t="s">
+      <c r="A8" s="179" t="s">
         <v>378</v>
       </c>
-      <c r="B8" s="181" t="s">
+      <c r="B8" s="177" t="s">
         <v>478</v>
       </c>
       <c r="C8" s="18" t="s">
@@ -15755,10 +15835,10 @@
       <c r="H8" s="94"/>
     </row>
     <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="180" t="s">
+      <c r="A9" s="179" t="s">
         <v>379</v>
       </c>
-      <c r="B9" s="181" t="s">
+      <c r="B9" s="177" t="s">
         <v>382</v>
       </c>
       <c r="C9" s="18" t="s">
@@ -15775,10 +15855,10 @@
       <c r="H9" s="94"/>
     </row>
     <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="175" t="s">
+      <c r="A10" s="179" t="s">
         <v>383</v>
       </c>
-      <c r="B10" s="181" t="s">
+      <c r="B10" s="177" t="s">
         <v>385</v>
       </c>
       <c r="C10" s="18" t="s">
@@ -15799,10 +15879,10 @@
       <c r="H10" s="94"/>
     </row>
     <row r="11" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A11" s="175" t="s">
+      <c r="A11" s="179" t="s">
         <v>387</v>
       </c>
-      <c r="B11" s="181" t="s">
+      <c r="B11" s="177" t="s">
         <v>390</v>
       </c>
       <c r="C11" s="18" t="s">
@@ -15823,10 +15903,10 @@
       <c r="H11" s="94"/>
     </row>
     <row r="12" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="180" t="s">
+      <c r="A12" s="179" t="s">
         <v>391</v>
       </c>
-      <c r="B12" s="181" t="s">
+      <c r="B12" s="177" t="s">
         <v>393</v>
       </c>
       <c r="C12" s="18" t="s">
@@ -15838,15 +15918,15 @@
       <c r="E12" s="18" t="s">
         <v>392</v>
       </c>
-      <c r="F12" s="182"/>
+      <c r="F12" s="178"/>
       <c r="G12" s="94"/>
       <c r="H12" s="94"/>
     </row>
     <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="175" t="s">
+      <c r="A13" s="179" t="s">
         <v>395</v>
       </c>
-      <c r="B13" s="181" t="s">
+      <c r="B13" s="177" t="s">
         <v>398</v>
       </c>
       <c r="C13" s="18" t="s">
@@ -15870,7 +15950,7 @@
       <c r="A14" s="179" t="s">
         <v>400</v>
       </c>
-      <c r="B14" s="181" t="s">
+      <c r="B14" s="177" t="s">
         <v>402</v>
       </c>
       <c r="C14" s="18" t="s">
@@ -15894,7 +15974,7 @@
       <c r="A15" s="179" t="s">
         <v>404</v>
       </c>
-      <c r="B15" s="181" t="s">
+      <c r="B15" s="177" t="s">
         <v>406</v>
       </c>
       <c r="C15" s="18" t="s">
@@ -15915,10 +15995,10 @@
       <c r="H15" s="94"/>
     </row>
     <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="176" t="s">
+      <c r="A16" s="179" t="s">
         <v>407</v>
       </c>
-      <c r="B16" s="181" t="s">
+      <c r="B16" s="177" t="s">
         <v>409</v>
       </c>
       <c r="C16" s="18" t="s">
@@ -15939,10 +16019,10 @@
       <c r="H16" s="94"/>
     </row>
     <row r="17" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="176" t="s">
+      <c r="A17" s="179" t="s">
         <v>411</v>
       </c>
-      <c r="B17" s="181" t="s">
+      <c r="B17" s="177" t="s">
         <v>413</v>
       </c>
       <c r="C17" s="18" t="s">
@@ -15954,15 +16034,19 @@
       <c r="E17" s="18" t="s">
         <v>412</v>
       </c>
-      <c r="F17" s="34"/>
-      <c r="G17" s="94"/>
+      <c r="F17" s="29" t="s">
+        <v>499</v>
+      </c>
+      <c r="G17" s="94">
+        <v>5</v>
+      </c>
       <c r="H17" s="94"/>
     </row>
     <row r="18" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="176" t="s">
+      <c r="A18" s="179" t="s">
         <v>415</v>
       </c>
-      <c r="B18" s="181" t="s">
+      <c r="B18" s="177" t="s">
         <v>419</v>
       </c>
       <c r="C18" s="18" t="s">
@@ -15983,10 +16067,10 @@
       <c r="H18" s="94"/>
     </row>
     <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="180" t="s">
+      <c r="A19" s="179" t="s">
         <v>417</v>
       </c>
-      <c r="B19" s="181" t="s">
+      <c r="B19" s="177" t="s">
         <v>421</v>
       </c>
       <c r="C19" s="18" t="s">
@@ -15998,15 +16082,17 @@
       <c r="E19" s="18" t="s">
         <v>418</v>
       </c>
-      <c r="F19" s="34"/>
+      <c r="F19" s="85" t="s">
+        <v>498</v>
+      </c>
       <c r="G19" s="94"/>
       <c r="H19" s="94"/>
     </row>
     <row r="20" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="175" t="s">
+      <c r="A20" s="179" t="s">
         <v>423</v>
       </c>
-      <c r="B20" s="181" t="s">
+      <c r="B20" s="177" t="s">
         <v>466</v>
       </c>
       <c r="C20" s="18" t="s">
@@ -16027,10 +16113,10 @@
       <c r="H20" s="94"/>
     </row>
     <row r="21" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="180" t="s">
+      <c r="A21" s="179" t="s">
         <v>426</v>
       </c>
-      <c r="B21" s="181" t="s">
+      <c r="B21" s="177" t="s">
         <v>428</v>
       </c>
       <c r="C21" s="18" t="s">
@@ -16042,15 +16128,17 @@
       <c r="E21" s="18" t="s">
         <v>424</v>
       </c>
-      <c r="F21" s="34"/>
+      <c r="F21" s="34" t="s">
+        <v>497</v>
+      </c>
       <c r="G21" s="94"/>
       <c r="H21" s="94"/>
     </row>
     <row r="22" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="175" t="s">
+      <c r="A22" s="179" t="s">
         <v>429</v>
       </c>
-      <c r="B22" s="181" t="s">
+      <c r="B22" s="177" t="s">
         <v>431</v>
       </c>
       <c r="C22" s="18" t="s">
@@ -16071,10 +16159,10 @@
       <c r="H22" s="94"/>
     </row>
     <row r="23" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A23" s="175" t="s">
+      <c r="A23" s="179" t="s">
         <v>433</v>
       </c>
-      <c r="B23" s="181" t="s">
+      <c r="B23" s="177" t="s">
         <v>436</v>
       </c>
       <c r="C23" s="18" t="s">
@@ -16095,10 +16183,10 @@
       <c r="H23" s="94"/>
     </row>
     <row r="24" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" s="180" t="s">
+      <c r="A24" s="179" t="s">
         <v>437</v>
       </c>
-      <c r="B24" s="181" t="s">
+      <c r="B24" s="177" t="s">
         <v>439</v>
       </c>
       <c r="C24" s="18" t="s">
@@ -16110,15 +16198,17 @@
       <c r="E24" s="18" t="s">
         <v>438</v>
       </c>
-      <c r="F24" s="34"/>
+      <c r="F24" s="34" t="s">
+        <v>496</v>
+      </c>
       <c r="G24" s="94"/>
       <c r="H24" s="94"/>
     </row>
     <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="180" t="s">
+      <c r="A25" s="179" t="s">
         <v>440</v>
       </c>
-      <c r="B25" s="181" t="s">
+      <c r="B25" s="177" t="s">
         <v>442</v>
       </c>
       <c r="C25" s="18" t="s">
@@ -16130,7 +16220,9 @@
       <c r="E25" s="18" t="s">
         <v>441</v>
       </c>
-      <c r="F25" s="34"/>
+      <c r="F25" s="34" t="s">
+        <v>495</v>
+      </c>
       <c r="G25" s="94"/>
       <c r="H25" s="94"/>
     </row>
@@ -16138,7 +16230,7 @@
       <c r="A26" s="179" t="s">
         <v>444</v>
       </c>
-      <c r="B26" s="181" t="s">
+      <c r="B26" s="177" t="s">
         <v>445</v>
       </c>
       <c r="C26" s="18" t="s">
@@ -16162,7 +16254,7 @@
       <c r="A27" s="179" t="s">
         <v>447</v>
       </c>
-      <c r="B27" s="181" t="s">
+      <c r="B27" s="177" t="s">
         <v>450</v>
       </c>
       <c r="C27" s="18" t="s">
@@ -16174,7 +16266,7 @@
       <c r="E27" s="18" t="s">
         <v>448</v>
       </c>
-      <c r="F27" s="34" t="s">
+      <c r="F27" s="29" t="s">
         <v>490</v>
       </c>
       <c r="G27" s="94">
@@ -16186,7 +16278,7 @@
       <c r="A28" s="179" t="s">
         <v>451</v>
       </c>
-      <c r="B28" s="181" t="s">
+      <c r="B28" s="177" t="s">
         <v>467</v>
       </c>
       <c r="C28" s="18" t="s">
@@ -16198,15 +16290,19 @@
       <c r="E28" s="18" t="s">
         <v>455</v>
       </c>
-      <c r="F28" s="34"/>
-      <c r="G28" s="94"/>
+      <c r="F28" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G28" s="94">
+        <v>13</v>
+      </c>
       <c r="H28" s="94"/>
     </row>
     <row r="29" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A29" s="180" t="s">
+      <c r="A29" s="179" t="s">
         <v>452</v>
       </c>
-      <c r="B29" s="181" t="s">
+      <c r="B29" s="177" t="s">
         <v>458</v>
       </c>
       <c r="C29" s="18" t="s">
@@ -16218,15 +16314,17 @@
       <c r="E29" s="18" t="s">
         <v>457</v>
       </c>
-      <c r="F29" s="34"/>
+      <c r="F29" s="34" t="s">
+        <v>494</v>
+      </c>
       <c r="G29" s="94"/>
       <c r="H29" s="94"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="176" t="s">
+    <row r="30" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="179" t="s">
         <v>453</v>
       </c>
-      <c r="B30" s="181" t="s">
+      <c r="B30" s="177" t="s">
         <v>462</v>
       </c>
       <c r="C30" s="18" t="s">
@@ -16238,15 +16336,19 @@
       <c r="E30" s="18" t="s">
         <v>460</v>
       </c>
-      <c r="F30" s="34"/>
-      <c r="G30" s="94"/>
+      <c r="F30" s="29" t="s">
+        <v>492</v>
+      </c>
+      <c r="G30" s="94">
+        <v>13</v>
+      </c>
       <c r="H30" s="94"/>
     </row>
     <row r="31" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A31" s="180" t="s">
+      <c r="A31" s="179" t="s">
         <v>454</v>
       </c>
-      <c r="B31" s="181" t="s">
+      <c r="B31" s="177" t="s">
         <v>463</v>
       </c>
       <c r="C31" s="18" t="s">
@@ -16258,7 +16360,9 @@
       <c r="E31" s="18" t="s">
         <v>420</v>
       </c>
-      <c r="F31" s="34"/>
+      <c r="F31" s="34" t="s">
+        <v>493</v>
+      </c>
       <c r="G31" s="94"/>
       <c r="H31" s="94"/>
     </row>
@@ -16275,7 +16379,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/Experiment01_Resumo/Resumo_Exp01.xlsx
+++ b/Experiment01_Resumo/Resumo_Exp01.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" firstSheet="7" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Capa" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="507">
   <si>
     <t>Database search</t>
   </si>
@@ -1598,9 +1598,6 @@
     <t>basili2007a</t>
   </si>
   <si>
-    <t>münch2013b</t>
-  </si>
-  <si>
     <t>basili2007b</t>
   </si>
   <si>
@@ -1638,6 +1635,30 @@
   </si>
   <si>
     <t>mccoy1998a</t>
+  </si>
+  <si>
+    <t>debou2000a</t>
+  </si>
+  <si>
+    <t>hinley1995a</t>
+  </si>
+  <si>
+    <t>messnarz1999a</t>
+  </si>
+  <si>
+    <t>waina2001a</t>
+  </si>
+  <si>
+    <t>Não encontrado na Scopus</t>
+  </si>
+  <si>
+    <t>Não encontrado na Scopus. Nome deveria ser basili2014</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>münch2013c</t>
   </si>
 </sst>
 </file>
@@ -1736,7 +1757,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="24">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1872,6 +1893,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF99FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2324,7 +2351,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="233">
+  <cellXfs count="237">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2665,9 +2692,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2787,6 +2811,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2922,7 +2947,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2943,7 +2968,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -3012,7 +3047,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3268,12 +3302,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="209728800"/>
-        <c:axId val="209728408"/>
+        <c:axId val="210937608"/>
+        <c:axId val="210933688"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="209728800"/>
+        <c:axId val="210937608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3305,7 +3339,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3366,7 +3399,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209728408"/>
+        <c:crossAx val="210933688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3374,7 +3407,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="209728408"/>
+        <c:axId val="210933688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3425,7 +3458,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209728800"/>
+        <c:crossAx val="210937608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3439,7 +3472,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3648,7 +3680,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3736,12 +3767,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="209729192"/>
-        <c:axId val="209729584"/>
+        <c:axId val="210934472"/>
+        <c:axId val="210934864"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="209729192"/>
+        <c:axId val="210934472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3770,7 +3801,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3831,7 +3861,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209729584"/>
+        <c:crossAx val="210934864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3839,7 +3869,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="209729584"/>
+        <c:axId val="210934864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3868,7 +3898,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3923,7 +3952,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209729192"/>
+        <c:crossAx val="210934472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3937,7 +3966,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4122,7 +4150,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4210,12 +4237,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="209726840"/>
-        <c:axId val="209731936"/>
+        <c:axId val="210936432"/>
+        <c:axId val="210935648"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="209726840"/>
+        <c:axId val="210936432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4244,7 +4271,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4305,7 +4331,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209731936"/>
+        <c:crossAx val="210935648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4313,7 +4339,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="209731936"/>
+        <c:axId val="210935648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4342,7 +4368,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4397,7 +4422,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209726840"/>
+        <c:crossAx val="210936432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4411,7 +4436,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5186,12 +5210,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="209727624"/>
-        <c:axId val="209730760"/>
+        <c:axId val="210936040"/>
+        <c:axId val="210938392"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="209727624"/>
+        <c:axId val="210936040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5231,7 +5255,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209730760"/>
+        <c:crossAx val="210938392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5239,7 +5263,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="209730760"/>
+        <c:axId val="210938392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5287,7 +5311,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209727624"/>
+        <c:crossAx val="210936040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5526,7 +5550,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -5597,8 +5620,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="210984632"/>
-        <c:axId val="210985024"/>
+        <c:axId val="292584800"/>
+        <c:axId val="292581272"/>
         <c:axId val="0"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
@@ -5768,7 +5791,7 @@
         </c:extLst>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="210984632"/>
+        <c:axId val="292584800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5800,7 +5823,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5867,7 +5889,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="210985024"/>
+        <c:crossAx val="292581272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5875,7 +5897,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="210985024"/>
+        <c:axId val="292581272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5921,7 +5943,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5955,7 +5976,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="210984632"/>
+        <c:crossAx val="292584800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5969,7 +5990,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6270,8 +6290,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="210985416"/>
-        <c:axId val="210984240"/>
+        <c:axId val="292586760"/>
+        <c:axId val="292582448"/>
         <c:axId val="0"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
@@ -6441,7 +6461,7 @@
         </c:extLst>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="210985416"/>
+        <c:axId val="292586760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6539,7 +6559,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="210984240"/>
+        <c:crossAx val="292582448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6547,7 +6567,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="210984240"/>
+        <c:axId val="292582448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6626,7 +6646,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="210985416"/>
+        <c:crossAx val="292586760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10537,7 +10557,7 @@
       </c>
       <c r="G3" s="48"/>
       <c r="H3" s="91"/>
-      <c r="I3" s="136" t="s">
+      <c r="I3" s="135" t="s">
         <v>329</v>
       </c>
       <c r="J3" s="85" t="s">
@@ -10604,10 +10624,10 @@
       <c r="K5" s="91"/>
     </row>
     <row r="6" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="153" t="s">
+      <c r="A6" s="152" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="139" t="s">
+      <c r="B6" s="138" t="s">
         <v>33</v>
       </c>
       <c r="C6" s="18" t="s">
@@ -10660,7 +10680,7 @@
       <c r="K7" s="91"/>
     </row>
     <row r="8" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="153" t="s">
+      <c r="A8" s="152" t="s">
         <v>39</v>
       </c>
       <c r="B8" s="129" t="s">
@@ -10693,7 +10713,7 @@
       <c r="B9" s="129" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="139" t="s">
+      <c r="C9" s="138" t="s">
         <v>124</v>
       </c>
       <c r="D9" s="94">
@@ -10936,7 +10956,7 @@
       <c r="K17" s="91"/>
     </row>
     <row r="18" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="153" t="s">
+      <c r="A18" s="152" t="s">
         <v>49</v>
       </c>
       <c r="B18" s="129" t="s">
@@ -11012,7 +11032,7 @@
       </c>
       <c r="G20" s="48"/>
       <c r="H20" s="91"/>
-      <c r="I20" s="136" t="s">
+      <c r="I20" s="135" t="s">
         <v>329</v>
       </c>
       <c r="J20" s="85" t="s">
@@ -11029,7 +11049,7 @@
       <c r="B21" s="130" t="s">
         <v>84</v>
       </c>
-      <c r="C21" s="139" t="s">
+      <c r="C21" s="138" t="s">
         <v>85</v>
       </c>
       <c r="D21" s="94">
@@ -11101,7 +11121,7 @@
       </c>
       <c r="G23" s="48"/>
       <c r="H23" s="91"/>
-      <c r="I23" s="136" t="s">
+      <c r="I23" s="135" t="s">
         <v>329</v>
       </c>
       <c r="J23" s="85" t="s">
@@ -11141,23 +11161,23 @@
       <c r="K24" s="91"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E25" s="161" t="s">
+      <c r="E25" s="160" t="s">
         <v>81</v>
       </c>
-      <c r="F25" s="162">
+      <c r="F25" s="161">
         <f>SUM(F3:F24)</f>
         <v>464</v>
       </c>
-      <c r="G25" s="163">
+      <c r="G25" s="162">
         <f>SUM(G3:G24)</f>
         <v>13</v>
       </c>
-      <c r="H25" s="161">
+      <c r="H25" s="160">
         <f>SUM(H3:H24)</f>
         <v>4</v>
       </c>
-      <c r="I25" s="163"/>
-      <c r="J25" s="138"/>
+      <c r="I25" s="162"/>
+      <c r="J25" s="137"/>
     </row>
     <row r="28" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="23" t="s">
@@ -11210,7 +11230,7 @@
       <c r="A2" s="79" t="s">
         <v>248</v>
       </c>
-      <c r="B2" s="142" t="s">
+      <c r="B2" s="141" t="s">
         <v>330</v>
       </c>
     </row>
@@ -11234,7 +11254,7 @@
       <c r="A5" s="79" t="s">
         <v>332</v>
       </c>
-      <c r="B5" s="141" t="s">
+      <c r="B5" s="140" t="s">
         <v>275</v>
       </c>
     </row>
@@ -11254,7 +11274,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
@@ -11288,40 +11308,40 @@
       <c r="L1" s="228"/>
     </row>
     <row r="2" spans="1:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="143" t="s">
+      <c r="A2" s="142" t="s">
         <v>123</v>
       </c>
-      <c r="B2" s="143" t="s">
+      <c r="B2" s="142" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="144" t="s">
+      <c r="C2" s="143" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="143" t="s">
+      <c r="D2" s="142" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="143" t="s">
+      <c r="E2" s="142" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="143" t="s">
+      <c r="F2" s="142" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="143" t="s">
+      <c r="G2" s="142" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="143" t="s">
+      <c r="H2" s="142" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="143" t="s">
+      <c r="I2" s="142" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="143" t="s">
+      <c r="J2" s="142" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="143" t="s">
+      <c r="K2" s="142" t="s">
         <v>36</v>
       </c>
-      <c r="L2" s="143" t="s">
+      <c r="L2" s="142" t="s">
         <v>37</v>
       </c>
     </row>
@@ -11329,17 +11349,17 @@
       <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="135" t="s">
+      <c r="B3" s="134" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="135" t="s">
+      <c r="C3" s="134" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-      <c r="H3" s="135" t="s">
+      <c r="H3" s="134" t="s">
         <v>18</v>
       </c>
       <c r="I3" s="128" t="s">
@@ -11631,19 +11651,19 @@
       <c r="A13" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="135" t="s">
+      <c r="B13" s="134" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="135" t="s">
+      <c r="C13" s="134" t="s">
         <v>16</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="135" t="s">
+      <c r="G13" s="134" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="135" t="s">
+      <c r="H13" s="134" t="s">
         <v>18</v>
       </c>
       <c r="I13" s="129" t="s">
@@ -11853,17 +11873,17 @@
       <c r="A20" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="135" t="s">
+      <c r="B20" s="134" t="s">
         <v>13</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="135" t="s">
+      <c r="F20" s="134" t="s">
         <v>19</v>
       </c>
       <c r="G20" s="2"/>
-      <c r="H20" s="135" t="s">
+      <c r="H20" s="134" t="s">
         <v>18</v>
       </c>
       <c r="I20" s="130" t="s">
@@ -11913,17 +11933,17 @@
       <c r="A22" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="135" t="s">
+      <c r="B22" s="134" t="s">
         <v>13</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="135" t="s">
+      <c r="F22" s="134" t="s">
         <v>19</v>
       </c>
       <c r="G22" s="2"/>
-      <c r="H22" s="135" t="s">
+      <c r="H22" s="134" t="s">
         <v>18</v>
       </c>
       <c r="I22" s="130" t="s">
@@ -11943,17 +11963,17 @@
       <c r="A23" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="135" t="s">
+      <c r="B23" s="134" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="135" t="s">
+      <c r="F23" s="134" t="s">
         <v>19</v>
       </c>
       <c r="G23" s="2"/>
-      <c r="H23" s="135" t="s">
+      <c r="H23" s="134" t="s">
         <v>18</v>
       </c>
       <c r="I23" s="130" t="s">
@@ -12003,7 +12023,7 @@
       <c r="L25" s="92"/>
     </row>
     <row r="26" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="135"/>
+      <c r="A26" s="134"/>
       <c r="B26" s="229" t="s">
         <v>334</v>
       </c>
@@ -12045,7 +12065,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="163" t="s">
         <v>349</v>
       </c>
     </row>
@@ -12078,84 +12098,84 @@
       <c r="A7" s="18" t="s">
         <v>343</v>
       </c>
-      <c r="B7" s="140"/>
-      <c r="C7" s="140"/>
-      <c r="D7" s="140"/>
-      <c r="E7" s="140"/>
-      <c r="F7" s="140"/>
-      <c r="G7" s="140"/>
+      <c r="B7" s="139"/>
+      <c r="C7" s="139"/>
+      <c r="D7" s="139"/>
+      <c r="E7" s="139"/>
+      <c r="F7" s="139"/>
+      <c r="G7" s="139"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="148"/>
-      <c r="B8" s="148"/>
-      <c r="C8" s="148"/>
-      <c r="D8" s="148"/>
-      <c r="E8" s="148"/>
-      <c r="F8" s="148"/>
-      <c r="G8" s="148"/>
+      <c r="A8" s="147"/>
+      <c r="B8" s="147"/>
+      <c r="C8" s="147"/>
+      <c r="D8" s="147"/>
+      <c r="E8" s="147"/>
+      <c r="F8" s="147"/>
+      <c r="G8" s="147"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="148"/>
-      <c r="B9" s="148"/>
-      <c r="C9" s="148"/>
-      <c r="D9" s="148"/>
-      <c r="E9" s="148"/>
-      <c r="F9" s="148"/>
-      <c r="G9" s="148"/>
+      <c r="A9" s="147"/>
+      <c r="B9" s="147"/>
+      <c r="C9" s="147"/>
+      <c r="D9" s="147"/>
+      <c r="E9" s="147"/>
+      <c r="F9" s="147"/>
+      <c r="G9" s="147"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="148"/>
-      <c r="B10" s="148"/>
-      <c r="C10" s="148"/>
-      <c r="D10" s="148"/>
-      <c r="E10" s="148"/>
-      <c r="F10" s="148"/>
-      <c r="G10" s="148"/>
+      <c r="A10" s="147"/>
+      <c r="B10" s="147"/>
+      <c r="C10" s="147"/>
+      <c r="D10" s="147"/>
+      <c r="E10" s="147"/>
+      <c r="F10" s="147"/>
+      <c r="G10" s="147"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="148"/>
-      <c r="B11" s="148"/>
-      <c r="C11" s="148"/>
-      <c r="D11" s="148"/>
-      <c r="E11" s="148"/>
-      <c r="F11" s="148"/>
-      <c r="G11" s="148"/>
+      <c r="A11" s="147"/>
+      <c r="B11" s="147"/>
+      <c r="C11" s="147"/>
+      <c r="D11" s="147"/>
+      <c r="E11" s="147"/>
+      <c r="F11" s="147"/>
+      <c r="G11" s="147"/>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="148"/>
-      <c r="B12" s="148"/>
-      <c r="C12" s="148"/>
-      <c r="D12" s="148"/>
-      <c r="E12" s="148"/>
-      <c r="F12" s="148"/>
-      <c r="G12" s="148"/>
+      <c r="A12" s="147"/>
+      <c r="B12" s="147"/>
+      <c r="C12" s="147"/>
+      <c r="D12" s="147"/>
+      <c r="E12" s="147"/>
+      <c r="F12" s="147"/>
+      <c r="G12" s="147"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="148"/>
-      <c r="B13" s="148"/>
-      <c r="C13" s="148"/>
-      <c r="D13" s="148"/>
-      <c r="E13" s="148"/>
-      <c r="F13" s="148"/>
-      <c r="G13" s="148"/>
+      <c r="A13" s="147"/>
+      <c r="B13" s="147"/>
+      <c r="C13" s="147"/>
+      <c r="D13" s="147"/>
+      <c r="E13" s="147"/>
+      <c r="F13" s="147"/>
+      <c r="G13" s="147"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="148"/>
-      <c r="B14" s="148"/>
-      <c r="C14" s="148"/>
-      <c r="D14" s="148"/>
-      <c r="E14" s="148"/>
-      <c r="F14" s="148"/>
-      <c r="G14" s="148"/>
+      <c r="A14" s="147"/>
+      <c r="B14" s="147"/>
+      <c r="C14" s="147"/>
+      <c r="D14" s="147"/>
+      <c r="E14" s="147"/>
+      <c r="F14" s="147"/>
+      <c r="G14" s="147"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="148"/>
-      <c r="B15" s="148"/>
-      <c r="C15" s="148"/>
-      <c r="D15" s="148"/>
-      <c r="E15" s="148"/>
-      <c r="F15" s="148"/>
-      <c r="G15" s="148"/>
+      <c r="A15" s="147"/>
+      <c r="B15" s="147"/>
+      <c r="C15" s="147"/>
+      <c r="D15" s="147"/>
+      <c r="E15" s="147"/>
+      <c r="F15" s="147"/>
+      <c r="G15" s="147"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -12168,7 +12188,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12192,18 +12212,18 @@
       </c>
     </row>
     <row r="3" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A3" s="150" t="s">
+      <c r="A3" s="149" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="149" t="s">
+      <c r="B3" s="148" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="151" t="s">
+      <c r="A4" s="150" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="152"/>
+      <c r="B4" s="151"/>
     </row>
     <row r="5" spans="1:2" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
@@ -12287,7 +12307,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -12667,22 +12687,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" style="81" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="67.5703125" customWidth="1"/>
+    <col min="2" max="2" width="77.5703125" customWidth="1"/>
     <col min="3" max="3" width="57.140625" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" style="3" customWidth="1"/>
     <col min="5" max="5" width="41.5703125" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="195" t="s">
         <v>126</v>
       </c>
@@ -12690,8 +12711,9 @@
       <c r="C1" s="195"/>
       <c r="D1" s="195"/>
       <c r="E1" s="195"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="195"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>123</v>
       </c>
@@ -12707,9 +12729,12 @@
       <c r="E2" s="21" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="133" t="s">
+      <c r="F2" s="21" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="132" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="131" t="s">
@@ -12718,15 +12743,18 @@
       <c r="C3" s="131" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="133" t="s">
+      <c r="D3" s="132" t="s">
         <v>25</v>
       </c>
       <c r="E3" s="19" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="133" t="s">
+      <c r="F3" s="91" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="132" t="s">
         <v>27</v>
       </c>
       <c r="B4" s="131" t="s">
@@ -12735,15 +12763,18 @@
       <c r="C4" s="131" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="133">
+      <c r="D4" s="132">
         <v>2007</v>
       </c>
       <c r="E4" s="19" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="133" t="s">
+      <c r="F4" s="91" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="132" t="s">
         <v>29</v>
       </c>
       <c r="B5" s="131" t="s">
@@ -12752,15 +12783,18 @@
       <c r="C5" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="133">
+      <c r="D5" s="132">
         <v>2008</v>
       </c>
       <c r="E5" s="19" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="133" t="s">
+      <c r="F5" s="91" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="132" t="s">
         <v>31</v>
       </c>
       <c r="B6" s="20" t="s">
@@ -12769,15 +12803,16 @@
       <c r="C6" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="133">
+      <c r="D6" s="132">
         <v>2015</v>
       </c>
       <c r="E6" s="19" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="133" t="s">
+      <c r="F6" s="91"/>
+    </row>
+    <row r="7" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="132" t="s">
         <v>38</v>
       </c>
       <c r="B7" s="131" t="s">
@@ -12786,15 +12821,16 @@
       <c r="C7" s="131" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="133">
+      <c r="D7" s="132">
         <v>2011</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="133" t="s">
+      <c r="F7" s="91"/>
+    </row>
+    <row r="8" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="132" t="s">
         <v>39</v>
       </c>
       <c r="B8" s="131" t="s">
@@ -12803,15 +12839,16 @@
       <c r="C8" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D8" s="133">
+      <c r="D8" s="132">
         <v>2010</v>
       </c>
       <c r="E8" s="19" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="133" t="s">
+      <c r="F8" s="91"/>
+    </row>
+    <row r="9" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="132" t="s">
         <v>40</v>
       </c>
       <c r="B9" s="131" t="s">
@@ -12820,32 +12857,34 @@
       <c r="C9" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="D9" s="133">
+      <c r="D9" s="132">
         <v>2009</v>
       </c>
       <c r="E9" s="19" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="133" t="s">
+      <c r="F9" s="91"/>
+    </row>
+    <row r="10" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="132" t="s">
         <v>41</v>
       </c>
       <c r="B10" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="132" t="s">
+      <c r="C10" s="131" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="133">
+      <c r="D10" s="132">
         <v>2010</v>
       </c>
       <c r="E10" s="19" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="133" t="s">
+      <c r="F10" s="91"/>
+    </row>
+    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="132" t="s">
         <v>42</v>
       </c>
       <c r="B11" s="131" t="s">
@@ -12854,15 +12893,16 @@
       <c r="C11" s="131" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="133">
+      <c r="D11" s="132">
         <v>2010</v>
       </c>
       <c r="E11" s="19" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="133" t="s">
+      <c r="F11" s="91"/>
+    </row>
+    <row r="12" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="132" t="s">
         <v>43</v>
       </c>
       <c r="B12" s="131" t="s">
@@ -12871,15 +12911,16 @@
       <c r="C12" s="131" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="133">
+      <c r="D12" s="132">
         <v>1999</v>
       </c>
       <c r="E12" s="20" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="133" t="s">
+      <c r="F12" s="91"/>
+    </row>
+    <row r="13" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="132" t="s">
         <v>44</v>
       </c>
       <c r="B13" s="131" t="s">
@@ -12888,15 +12929,16 @@
       <c r="C13" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="D13" s="133">
+      <c r="D13" s="132">
         <v>2005</v>
       </c>
       <c r="E13" s="20" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="133" t="s">
+      <c r="F13" s="91"/>
+    </row>
+    <row r="14" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="132" t="s">
         <v>45</v>
       </c>
       <c r="B14" s="131" t="s">
@@ -12905,15 +12947,16 @@
       <c r="C14" s="131" t="s">
         <v>71</v>
       </c>
-      <c r="D14" s="133">
+      <c r="D14" s="132">
         <v>2008</v>
       </c>
       <c r="E14" s="20" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="133" t="s">
+      <c r="F14" s="91"/>
+    </row>
+    <row r="15" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="132" t="s">
         <v>46</v>
       </c>
       <c r="B15" s="131" t="s">
@@ -12922,15 +12965,16 @@
       <c r="C15" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="D15" s="133">
+      <c r="D15" s="132">
         <v>2011</v>
       </c>
       <c r="E15" s="19" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="133" t="s">
+      <c r="F15" s="91"/>
+    </row>
+    <row r="16" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="132" t="s">
         <v>47</v>
       </c>
       <c r="B16" s="131" t="s">
@@ -12939,15 +12983,16 @@
       <c r="C16" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="D16" s="133">
+      <c r="D16" s="132">
         <v>2009</v>
       </c>
       <c r="E16" s="19" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="133" t="s">
+      <c r="F16" s="91"/>
+    </row>
+    <row r="17" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="132" t="s">
         <v>48</v>
       </c>
       <c r="B17" s="131" t="s">
@@ -12956,15 +13001,16 @@
       <c r="C17" s="131" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="133">
+      <c r="D17" s="132">
         <v>1997</v>
       </c>
       <c r="E17" s="19" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="133" t="s">
+      <c r="F17" s="91"/>
+    </row>
+    <row r="18" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="132" t="s">
         <v>49</v>
       </c>
       <c r="B18" s="131" t="s">
@@ -12973,15 +13019,16 @@
       <c r="C18" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="D18" s="133">
+      <c r="D18" s="132">
         <v>2010</v>
       </c>
       <c r="E18" s="19" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="133" t="s">
+      <c r="F18" s="91"/>
+    </row>
+    <row r="19" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="132" t="s">
         <v>50</v>
       </c>
       <c r="B19" s="20" t="s">
@@ -12990,15 +13037,16 @@
       <c r="C19" s="131" t="s">
         <v>80</v>
       </c>
-      <c r="D19" s="133">
+      <c r="D19" s="132">
         <v>2005</v>
       </c>
       <c r="E19" s="19" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="133" t="s">
+      <c r="F19" s="91"/>
+    </row>
+    <row r="20" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="132" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="20" t="s">
@@ -13007,15 +13055,16 @@
       <c r="C20" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="D20" s="133">
+      <c r="D20" s="132">
         <v>2011</v>
       </c>
       <c r="E20" s="19" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="133" t="s">
+      <c r="F20" s="91"/>
+    </row>
+    <row r="21" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="132" t="s">
         <v>52</v>
       </c>
       <c r="B21" s="20" t="s">
@@ -13024,15 +13073,16 @@
       <c r="C21" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="D21" s="133">
+      <c r="D21" s="132">
         <v>2008</v>
       </c>
       <c r="E21" s="19" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="133" t="s">
+      <c r="F21" s="91"/>
+    </row>
+    <row r="22" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="132" t="s">
         <v>53</v>
       </c>
       <c r="B22" s="20" t="s">
@@ -13041,15 +13091,16 @@
       <c r="C22" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="D22" s="133">
+      <c r="D22" s="132">
         <v>2015</v>
       </c>
       <c r="E22" s="19" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="133" t="s">
+      <c r="F22" s="91"/>
+    </row>
+    <row r="23" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="132" t="s">
         <v>54</v>
       </c>
       <c r="B23" s="20" t="s">
@@ -13058,15 +13109,16 @@
       <c r="C23" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="D23" s="133">
+      <c r="D23" s="132">
         <v>2000</v>
       </c>
       <c r="E23" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="133" t="s">
+      <c r="F23" s="91"/>
+    </row>
+    <row r="24" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="132" t="s">
         <v>55</v>
       </c>
       <c r="B24" s="20" t="s">
@@ -13075,27 +13127,28 @@
       <c r="C24" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="D24" s="133">
+      <c r="D24" s="132">
         <v>2010</v>
       </c>
       <c r="E24" s="19" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="145" t="s">
+      <c r="F24" s="91"/>
+    </row>
+    <row r="27" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="144" t="s">
         <v>125</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="134"/>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="133"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -13105,8 +13158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S54"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13283,19 +13336,19 @@
       <c r="D12" s="210"/>
     </row>
     <row r="13" spans="1:19" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="146" t="s">
+      <c r="A13" s="145" t="s">
         <v>274</v>
       </c>
-      <c r="B13" s="137" t="s">
+      <c r="B13" s="136" t="s">
         <v>272</v>
       </c>
-      <c r="C13" s="137" t="s">
+      <c r="C13" s="136" t="s">
         <v>273</v>
       </c>
       <c r="D13" s="211"/>
     </row>
     <row r="14" spans="1:19" s="77" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="147" t="s">
+      <c r="A14" s="146" t="s">
         <v>340</v>
       </c>
       <c r="B14" s="94" t="s">
@@ -13393,7 +13446,7 @@
       <c r="F19" s="72">
         <v>0.77</v>
       </c>
-      <c r="G19" s="232">
+      <c r="G19" s="179">
         <f>HARMEAN(E19,F19)</f>
         <v>3.326556543837357E-2</v>
       </c>
@@ -13417,7 +13470,7 @@
       <c r="F20" s="72">
         <v>0.41</v>
       </c>
-      <c r="G20" s="232">
+      <c r="G20" s="179">
         <f t="shared" ref="G20:G24" si="0">HARMEAN(E20,F20)</f>
         <v>4.3556581986143185E-2</v>
       </c>
@@ -13441,7 +13494,7 @@
       <c r="F21" s="72">
         <v>0.59</v>
       </c>
-      <c r="G21" s="232">
+      <c r="G21" s="179">
         <f t="shared" si="0"/>
         <v>5.5282714054927309E-2</v>
       </c>
@@ -13465,7 +13518,7 @@
       <c r="F22" s="72">
         <v>0.5</v>
       </c>
-      <c r="G22" s="232">
+      <c r="G22" s="179">
         <f t="shared" si="0"/>
         <v>8.2568807339449546E-2</v>
       </c>
@@ -13489,7 +13542,7 @@
       <c r="F23" s="72">
         <v>0.59</v>
       </c>
-      <c r="G23" s="232">
+      <c r="G23" s="179">
         <f t="shared" si="0"/>
         <v>6.608E-2</v>
       </c>
@@ -13513,7 +13566,7 @@
       <c r="F24" s="72">
         <v>0.54</v>
       </c>
-      <c r="G24" s="232">
+      <c r="G24" s="179">
         <f t="shared" si="0"/>
         <v>6.9254766031195833E-2</v>
       </c>
@@ -13789,11 +13842,11 @@
       <c r="C48" s="126">
         <v>0.59</v>
       </c>
-      <c r="D48" s="176">
+      <c r="D48" s="175">
         <f>2*((B48*C48)/(B48+C48))</f>
         <v>5.3827240375283081E-2</v>
       </c>
-      <c r="E48" s="232">
+      <c r="E48" s="179">
         <f>HARMEAN(B48,C48)</f>
         <v>5.3827240375283081E-2</v>
       </c>
@@ -13805,14 +13858,14 @@
       <c r="B49" s="126">
         <v>1.67E-2</v>
       </c>
-      <c r="C49" s="175">
+      <c r="C49" s="174">
         <v>0.77270000000000005</v>
       </c>
-      <c r="D49" s="176">
+      <c r="D49" s="175">
         <f t="shared" ref="D49:D54" si="1">2*((B49*C49)/(B49+C49))</f>
         <v>3.2693412718520394E-2</v>
       </c>
-      <c r="E49" s="232">
+      <c r="E49" s="179">
         <f t="shared" ref="E49:E54" si="2">HARMEAN(B49,C49)</f>
         <v>3.2693412718520394E-2</v>
       </c>
@@ -13827,11 +13880,11 @@
       <c r="C50" s="126">
         <v>0.40899999999999997</v>
       </c>
-      <c r="D50" s="176">
+      <c r="D50" s="175">
         <f t="shared" si="1"/>
         <v>4.3730155056699832E-2</v>
       </c>
-      <c r="E50" s="232">
+      <c r="E50" s="179">
         <f t="shared" si="2"/>
         <v>4.3730155056699839E-2</v>
       </c>
@@ -13846,11 +13899,11 @@
       <c r="C51" s="126">
         <v>0.59</v>
       </c>
-      <c r="D51" s="176">
+      <c r="D51" s="175">
         <f t="shared" si="1"/>
         <v>5.5827547230744394E-2</v>
       </c>
-      <c r="E51" s="232">
+      <c r="E51" s="179">
         <f t="shared" si="2"/>
         <v>5.5827547230744394E-2</v>
       </c>
@@ -13865,11 +13918,11 @@
       <c r="C52" s="126">
         <v>0.5</v>
       </c>
-      <c r="D52" s="176">
+      <c r="D52" s="175">
         <f>2*((B52*C52)/(B52+C52))</f>
         <v>8.2063521204332662E-2</v>
       </c>
-      <c r="E52" s="232">
+      <c r="E52" s="179">
         <f t="shared" si="2"/>
         <v>8.2063521204332662E-2</v>
       </c>
@@ -13884,11 +13937,11 @@
       <c r="C53" s="126">
         <v>0.59</v>
       </c>
-      <c r="D53" s="176">
+      <c r="D53" s="175">
         <f t="shared" si="1"/>
         <v>6.6258198688209882E-2</v>
       </c>
-      <c r="E53" s="232">
+      <c r="E53" s="179">
         <f t="shared" si="2"/>
         <v>6.6258198688209896E-2</v>
       </c>
@@ -13903,11 +13956,11 @@
       <c r="C54" s="126">
         <v>0.54</v>
       </c>
-      <c r="D54" s="176">
+      <c r="D54" s="175">
         <f t="shared" si="1"/>
         <v>6.9254766031195833E-2</v>
       </c>
-      <c r="E54" s="232">
+      <c r="E54" s="179">
         <f t="shared" si="2"/>
         <v>6.9254766031195833E-2</v>
       </c>
@@ -13945,7 +13998,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V48"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -13976,25 +14029,25 @@
       <c r="G1" s="217"/>
     </row>
     <row r="2" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="159" t="s">
+      <c r="A2" s="158" t="s">
         <v>177</v>
       </c>
-      <c r="B2" s="159" t="s">
+      <c r="B2" s="158" t="s">
         <v>178</v>
       </c>
-      <c r="C2" s="160" t="s">
+      <c r="C2" s="159" t="s">
         <v>179</v>
       </c>
-      <c r="D2" s="160" t="s">
+      <c r="D2" s="159" t="s">
         <v>180</v>
       </c>
-      <c r="E2" s="159" t="s">
+      <c r="E2" s="158" t="s">
         <v>208</v>
       </c>
-      <c r="F2" s="159" t="s">
+      <c r="F2" s="158" t="s">
         <v>224</v>
       </c>
-      <c r="G2" s="159" t="s">
+      <c r="G2" s="158" t="s">
         <v>344</v>
       </c>
       <c r="I2" s="216" t="s">
@@ -14027,7 +14080,7 @@
       <c r="A4" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="154" t="s">
+      <c r="B4" s="153" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="49"/>
@@ -14035,10 +14088,10 @@
       <c r="E4" s="49">
         <v>20</v>
       </c>
-      <c r="F4" s="158" t="s">
+      <c r="F4" s="157" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="154" t="s">
+      <c r="G4" s="153" t="s">
         <v>209</v>
       </c>
       <c r="I4" s="52" t="s">
@@ -14053,7 +14106,7 @@
       <c r="A5" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="154" t="s">
+      <c r="B5" s="153" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="49"/>
@@ -14061,10 +14114,10 @@
       <c r="E5" s="49">
         <v>24</v>
       </c>
-      <c r="F5" s="158" t="s">
+      <c r="F5" s="157" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="158" t="s">
+      <c r="G5" s="157" t="s">
         <v>210</v>
       </c>
       <c r="I5" s="59" t="s">
@@ -14101,7 +14154,7 @@
       <c r="A7" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="154" t="s">
+      <c r="B7" s="153" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="49"/>
@@ -14109,10 +14162,10 @@
       <c r="E7" s="49">
         <v>11</v>
       </c>
-      <c r="F7" s="158" t="s">
+      <c r="F7" s="157" t="s">
         <v>56</v>
       </c>
-      <c r="G7" s="154" t="s">
+      <c r="G7" s="153" t="s">
         <v>211</v>
       </c>
       <c r="I7" s="58" t="s">
@@ -14165,7 +14218,7 @@
       <c r="A10" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="154" t="s">
+      <c r="B10" s="153" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="49"/>
@@ -14173,10 +14226,10 @@
       <c r="E10" s="70">
         <v>44</v>
       </c>
-      <c r="F10" s="158" t="s">
+      <c r="F10" s="157" t="s">
         <v>62</v>
       </c>
-      <c r="G10" s="154" t="s">
+      <c r="G10" s="153" t="s">
         <v>212</v>
       </c>
       <c r="I10" s="55" t="s">
@@ -14261,7 +14314,7 @@
       <c r="A14" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="154" t="s">
+      <c r="B14" s="153" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="49"/>
@@ -14269,10 +14322,10 @@
       <c r="E14" s="49">
         <v>14</v>
       </c>
-      <c r="F14" s="158" t="s">
+      <c r="F14" s="157" t="s">
         <v>70</v>
       </c>
-      <c r="G14" s="154" t="s">
+      <c r="G14" s="153" t="s">
         <v>213</v>
       </c>
       <c r="I14" s="104" t="s">
@@ -14289,7 +14342,7 @@
       <c r="A15" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="154" t="s">
+      <c r="B15" s="153" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="49"/>
@@ -14297,10 +14350,10 @@
       <c r="E15" s="49">
         <v>8</v>
       </c>
-      <c r="F15" s="158" t="s">
+      <c r="F15" s="157" t="s">
         <v>72</v>
       </c>
-      <c r="G15" s="154" t="s">
+      <c r="G15" s="153" t="s">
         <v>214</v>
       </c>
       <c r="I15" s="104" t="s">
@@ -14317,7 +14370,7 @@
       <c r="A16" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="154" t="s">
+      <c r="B16" s="153" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="49"/>
@@ -14325,10 +14378,10 @@
       <c r="E16" s="49">
         <v>27</v>
       </c>
-      <c r="F16" s="158" t="s">
+      <c r="F16" s="157" t="s">
         <v>74</v>
       </c>
-      <c r="G16" s="154" t="s">
+      <c r="G16" s="153" t="s">
         <v>215</v>
       </c>
       <c r="I16" s="119" t="s">
@@ -14345,7 +14398,7 @@
       <c r="A17" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="154" t="s">
+      <c r="B17" s="153" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="49"/>
@@ -14353,10 +14406,10 @@
       <c r="E17" s="49">
         <v>14</v>
       </c>
-      <c r="F17" s="158" t="s">
+      <c r="F17" s="157" t="s">
         <v>76</v>
       </c>
-      <c r="G17" s="154" t="s">
+      <c r="G17" s="153" t="s">
         <v>216</v>
       </c>
     </row>
@@ -14514,7 +14567,7 @@
       <c r="B25" s="49"/>
       <c r="C25" s="49"/>
       <c r="D25" s="49"/>
-      <c r="E25" s="154">
+      <c r="E25" s="153">
         <f>SUM(E3:E24)</f>
         <v>162</v>
       </c>
@@ -14532,7 +14585,7 @@
       <c r="B26" s="91"/>
       <c r="C26" s="91"/>
       <c r="D26" s="91"/>
-      <c r="E26" s="158" t="s">
+      <c r="E26" s="157" t="s">
         <v>314</v>
       </c>
       <c r="F26" s="114"/>
@@ -14559,12 +14612,12 @@
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A28" s="155" t="s">
+      <c r="A28" s="154" t="s">
         <v>312</v>
       </c>
-      <c r="B28" s="156"/>
-      <c r="C28" s="156"/>
-      <c r="D28" s="157"/>
+      <c r="B28" s="155"/>
+      <c r="C28" s="155"/>
+      <c r="D28" s="156"/>
       <c r="I28" s="110" t="s">
         <v>294</v>
       </c>
@@ -14772,7 +14825,7 @@
   <dimension ref="A1:V48"/>
   <sheetViews>
     <sheetView topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14808,25 +14861,25 @@
       <c r="G1" s="217"/>
     </row>
     <row r="2" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="159" t="s">
+      <c r="A2" s="158" t="s">
         <v>177</v>
       </c>
-      <c r="B2" s="159" t="s">
+      <c r="B2" s="158" t="s">
         <v>178</v>
       </c>
-      <c r="C2" s="160" t="s">
+      <c r="C2" s="159" t="s">
         <v>179</v>
       </c>
-      <c r="D2" s="160" t="s">
+      <c r="D2" s="159" t="s">
         <v>180</v>
       </c>
-      <c r="E2" s="159" t="s">
+      <c r="E2" s="158" t="s">
         <v>208</v>
       </c>
-      <c r="F2" s="159" t="s">
+      <c r="F2" s="158" t="s">
         <v>224</v>
       </c>
-      <c r="G2" s="159" t="s">
+      <c r="G2" s="158" t="s">
         <v>344</v>
       </c>
       <c r="I2" s="216" t="s">
@@ -14834,16 +14887,16 @@
       </c>
       <c r="J2" s="216"/>
       <c r="K2" s="216"/>
-      <c r="O2" s="171" t="s">
+      <c r="O2" s="170" t="s">
         <v>351</v>
       </c>
-      <c r="P2" s="172" t="s">
+      <c r="P2" s="171" t="s">
         <v>465</v>
       </c>
-      <c r="Q2" s="172" t="s">
+      <c r="Q2" s="171" t="s">
         <v>352</v>
       </c>
-      <c r="R2" s="173" t="s">
+      <c r="R2" s="172" t="s">
         <v>353</v>
       </c>
     </row>
@@ -14866,7 +14919,7 @@
         <v>22</v>
       </c>
       <c r="K3" s="61"/>
-      <c r="O3" s="166" t="s">
+      <c r="O3" s="165" t="s">
         <v>244</v>
       </c>
       <c r="P3" s="91" t="s">
@@ -14875,7 +14928,7 @@
       <c r="Q3" s="91" t="s">
         <v>356</v>
       </c>
-      <c r="R3" s="167" t="s">
+      <c r="R3" s="166" t="s">
         <v>356</v>
       </c>
     </row>
@@ -14883,7 +14936,7 @@
       <c r="A4" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="154" t="s">
+      <c r="B4" s="153" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="94"/>
@@ -14891,10 +14944,10 @@
       <c r="E4" s="94">
         <v>20</v>
       </c>
-      <c r="F4" s="158" t="s">
+      <c r="F4" s="157" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="154" t="s">
+      <c r="G4" s="153" t="s">
         <v>209</v>
       </c>
       <c r="I4" s="95" t="s">
@@ -14904,20 +14957,20 @@
         <v>17</v>
       </c>
       <c r="K4" s="48"/>
-      <c r="O4" s="166" t="s">
+      <c r="O4" s="165" t="s">
         <v>245</v>
       </c>
       <c r="P4" s="91" t="s">
         <v>354</v>
       </c>
       <c r="Q4" s="91"/>
-      <c r="R4" s="167"/>
+      <c r="R4" s="166"/>
     </row>
     <row r="5" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="154" t="s">
+      <c r="B5" s="153" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="94"/>
@@ -14925,10 +14978,10 @@
       <c r="E5" s="94">
         <v>24</v>
       </c>
-      <c r="F5" s="158" t="s">
+      <c r="F5" s="157" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="158" t="s">
+      <c r="G5" s="157" t="s">
         <v>210</v>
       </c>
       <c r="I5" s="59" t="s">
@@ -14938,14 +14991,14 @@
         <v>8</v>
       </c>
       <c r="K5" s="48"/>
-      <c r="O5" s="166" t="s">
+      <c r="O5" s="165" t="s">
         <v>246</v>
       </c>
       <c r="P5" s="91" t="s">
         <v>354</v>
       </c>
       <c r="Q5" s="91"/>
-      <c r="R5" s="167"/>
+      <c r="R5" s="166"/>
     </row>
     <row r="6" spans="1:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="36" t="s">
@@ -14968,20 +15021,20 @@
         <v>14</v>
       </c>
       <c r="K6" s="48"/>
-      <c r="O6" s="168" t="s">
+      <c r="O6" s="167" t="s">
         <v>247</v>
       </c>
-      <c r="P6" s="169" t="s">
+      <c r="P6" s="168" t="s">
         <v>354</v>
       </c>
-      <c r="Q6" s="169"/>
-      <c r="R6" s="170"/>
+      <c r="Q6" s="168"/>
+      <c r="R6" s="169"/>
     </row>
     <row r="7" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="154" t="s">
+      <c r="B7" s="153" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="94"/>
@@ -14989,10 +15042,10 @@
       <c r="E7" s="94">
         <v>11</v>
       </c>
-      <c r="F7" s="158" t="s">
+      <c r="F7" s="157" t="s">
         <v>56</v>
       </c>
-      <c r="G7" s="154" t="s">
+      <c r="G7" s="153" t="s">
         <v>211</v>
       </c>
       <c r="I7" s="58" t="s">
@@ -15045,7 +15098,7 @@
       <c r="A10" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="154" t="s">
+      <c r="B10" s="153" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="94"/>
@@ -15053,10 +15106,10 @@
       <c r="E10" s="70">
         <v>44</v>
       </c>
-      <c r="F10" s="158" t="s">
+      <c r="F10" s="157" t="s">
         <v>62</v>
       </c>
-      <c r="G10" s="154" t="s">
+      <c r="G10" s="153" t="s">
         <v>212</v>
       </c>
       <c r="I10" s="55" t="s">
@@ -15111,7 +15164,7 @@
       <c r="J12" s="62" t="s">
         <v>300</v>
       </c>
-      <c r="K12" s="165" t="s">
+      <c r="K12" s="164" t="s">
         <v>220</v>
       </c>
     </row>
@@ -15133,7 +15186,7 @@
       <c r="J13" s="62" t="s">
         <v>218</v>
       </c>
-      <c r="K13" s="165" t="s">
+      <c r="K13" s="164" t="s">
         <v>204</v>
       </c>
     </row>
@@ -15141,7 +15194,7 @@
       <c r="A14" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="154" t="s">
+      <c r="B14" s="153" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="94"/>
@@ -15149,10 +15202,10 @@
       <c r="E14" s="94">
         <v>14</v>
       </c>
-      <c r="F14" s="158" t="s">
+      <c r="F14" s="157" t="s">
         <v>70</v>
       </c>
-      <c r="G14" s="154" t="s">
+      <c r="G14" s="153" t="s">
         <v>213</v>
       </c>
       <c r="I14" s="104" t="s">
@@ -15161,7 +15214,7 @@
       <c r="J14" s="98" t="s">
         <v>299</v>
       </c>
-      <c r="K14" s="165" t="s">
+      <c r="K14" s="164" t="s">
         <v>221</v>
       </c>
     </row>
@@ -15169,7 +15222,7 @@
       <c r="A15" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="154" t="s">
+      <c r="B15" s="153" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="94"/>
@@ -15177,10 +15230,10 @@
       <c r="E15" s="94">
         <v>8</v>
       </c>
-      <c r="F15" s="158" t="s">
+      <c r="F15" s="157" t="s">
         <v>72</v>
       </c>
-      <c r="G15" s="154" t="s">
+      <c r="G15" s="153" t="s">
         <v>214</v>
       </c>
       <c r="I15" s="104" t="s">
@@ -15189,7 +15242,7 @@
       <c r="J15" s="98" t="s">
         <v>298</v>
       </c>
-      <c r="K15" s="165" t="s">
+      <c r="K15" s="164" t="s">
         <v>204</v>
       </c>
     </row>
@@ -15197,7 +15250,7 @@
       <c r="A16" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="154" t="s">
+      <c r="B16" s="153" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="94"/>
@@ -15205,10 +15258,10 @@
       <c r="E16" s="94">
         <v>27</v>
       </c>
-      <c r="F16" s="158" t="s">
+      <c r="F16" s="157" t="s">
         <v>74</v>
       </c>
-      <c r="G16" s="154" t="s">
+      <c r="G16" s="153" t="s">
         <v>215</v>
       </c>
       <c r="I16" s="119" t="s">
@@ -15225,7 +15278,7 @@
       <c r="A17" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="154" t="s">
+      <c r="B17" s="153" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="94"/>
@@ -15233,10 +15286,10 @@
       <c r="E17" s="94">
         <v>14</v>
       </c>
-      <c r="F17" s="158" t="s">
+      <c r="F17" s="157" t="s">
         <v>76</v>
       </c>
-      <c r="G17" s="154" t="s">
+      <c r="G17" s="153" t="s">
         <v>216</v>
       </c>
     </row>
@@ -15394,7 +15447,7 @@
       <c r="B25" s="94"/>
       <c r="C25" s="94"/>
       <c r="D25" s="94"/>
-      <c r="E25" s="154">
+      <c r="E25" s="153">
         <f>SUM(E3:E24)</f>
         <v>162</v>
       </c>
@@ -15412,7 +15465,7 @@
       <c r="B26" s="91"/>
       <c r="C26" s="91"/>
       <c r="D26" s="91"/>
-      <c r="E26" s="158" t="s">
+      <c r="E26" s="157" t="s">
         <v>314</v>
       </c>
       <c r="F26" s="114"/>
@@ -15439,12 +15492,12 @@
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A28" s="155" t="s">
+      <c r="A28" s="154" t="s">
         <v>312</v>
       </c>
-      <c r="B28" s="156"/>
-      <c r="C28" s="156"/>
-      <c r="D28" s="157"/>
+      <c r="B28" s="155"/>
+      <c r="C28" s="155"/>
+      <c r="D28" s="156"/>
       <c r="I28" s="110" t="s">
         <v>294</v>
       </c>
@@ -15517,7 +15570,7 @@
       <c r="A33" s="84" t="s">
         <v>182</v>
       </c>
-      <c r="B33" s="165" t="s">
+      <c r="B33" s="164" t="s">
         <v>222</v>
       </c>
       <c r="I33" s="43" t="s">
@@ -15531,7 +15584,7 @@
       <c r="A34" s="100" t="s">
         <v>183</v>
       </c>
-      <c r="B34" s="165" t="s">
+      <c r="B34" s="164" t="s">
         <v>223</v>
       </c>
       <c r="I34" s="44" t="s">
@@ -15639,22 +15692,23 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="65.140625" customWidth="1"/>
+    <col min="2" max="2" width="48.5703125" customWidth="1"/>
     <col min="3" max="3" width="46.28515625" customWidth="1"/>
     <col min="5" max="5" width="30.5703125" customWidth="1"/>
     <col min="6" max="6" width="16.85546875" style="3" customWidth="1"/>
     <col min="7" max="8" width="9.140625" style="3"/>
+    <col min="9" max="9" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="225" t="s">
         <v>464</v>
       </c>
@@ -15665,38 +15719,46 @@
       <c r="F1" s="225"/>
       <c r="G1" s="225"/>
       <c r="H1" s="225"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="174" t="s">
+      <c r="I1" s="225"/>
+      <c r="J1" s="225"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="173" t="s">
         <v>123</v>
       </c>
-      <c r="B2" s="174" t="s">
+      <c r="B2" s="173" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="174" t="s">
+      <c r="C2" s="173" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="174" t="s">
+      <c r="D2" s="173" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="174" t="s">
+      <c r="E2" s="173" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="174" t="s">
+      <c r="F2" s="173" t="s">
         <v>474</v>
       </c>
-      <c r="G2" s="174" t="s">
+      <c r="G2" s="173" t="s">
         <v>146</v>
       </c>
-      <c r="H2" s="174" t="s">
+      <c r="H2" s="173" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="179" t="s">
+      <c r="I2" s="173" t="s">
+        <v>164</v>
+      </c>
+      <c r="J2" s="234" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="178" t="s">
         <v>359</v>
       </c>
-      <c r="B3" s="177" t="s">
+      <c r="B3" s="176" t="s">
         <v>399</v>
       </c>
       <c r="C3" s="18" t="s">
@@ -15708,15 +15770,21 @@
       <c r="E3" s="18" t="s">
         <v>357</v>
       </c>
-      <c r="F3" s="34"/>
+      <c r="F3" s="34" t="s">
+        <v>501</v>
+      </c>
       <c r="G3" s="94"/>
       <c r="H3" s="94"/>
-    </row>
-    <row r="4" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="179" t="s">
+      <c r="I3" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="J3" s="232"/>
+    </row>
+    <row r="4" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="178" t="s">
         <v>360</v>
       </c>
-      <c r="B4" s="177" t="s">
+      <c r="B4" s="176" t="s">
         <v>363</v>
       </c>
       <c r="C4" s="18" t="s">
@@ -15735,12 +15803,13 @@
         <v>12</v>
       </c>
       <c r="H4" s="94"/>
-    </row>
-    <row r="5" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="179" t="s">
+      <c r="I4" s="91"/>
+    </row>
+    <row r="5" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="178" t="s">
         <v>364</v>
       </c>
-      <c r="B5" s="177" t="s">
+      <c r="B5" s="176" t="s">
         <v>367</v>
       </c>
       <c r="C5" s="18" t="s">
@@ -15759,12 +15828,13 @@
         <v>10</v>
       </c>
       <c r="H5" s="94"/>
-    </row>
-    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="179" t="s">
+      <c r="I5" s="91"/>
+    </row>
+    <row r="6" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="178" t="s">
         <v>368</v>
       </c>
-      <c r="B6" s="177" t="s">
+      <c r="B6" s="176" t="s">
         <v>370</v>
       </c>
       <c r="C6" s="18" t="s">
@@ -15785,12 +15855,13 @@
       <c r="H6" s="53" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="179" t="s">
+      <c r="I6" s="91"/>
+    </row>
+    <row r="7" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="178" t="s">
         <v>372</v>
       </c>
-      <c r="B7" s="177" t="s">
+      <c r="B7" s="176" t="s">
         <v>374</v>
       </c>
       <c r="C7" s="18" t="s">
@@ -15809,12 +15880,13 @@
         <v>19</v>
       </c>
       <c r="H7" s="94"/>
-    </row>
-    <row r="8" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" s="179" t="s">
+      <c r="I7" s="91"/>
+    </row>
+    <row r="8" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="178" t="s">
         <v>378</v>
       </c>
-      <c r="B8" s="177" t="s">
+      <c r="B8" s="176" t="s">
         <v>478</v>
       </c>
       <c r="C8" s="18" t="s">
@@ -15833,12 +15905,13 @@
         <v>13</v>
       </c>
       <c r="H8" s="94"/>
-    </row>
-    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="179" t="s">
+      <c r="I8" s="91"/>
+    </row>
+    <row r="9" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="178" t="s">
         <v>379</v>
       </c>
-      <c r="B9" s="177" t="s">
+      <c r="B9" s="176" t="s">
         <v>382</v>
       </c>
       <c r="C9" s="18" t="s">
@@ -15850,15 +15923,21 @@
       <c r="E9" s="18" t="s">
         <v>380</v>
       </c>
-      <c r="F9" s="34"/>
+      <c r="F9" s="235" t="s">
+        <v>500</v>
+      </c>
       <c r="G9" s="94"/>
       <c r="H9" s="94"/>
-    </row>
-    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="179" t="s">
+      <c r="I9" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="J9" s="233"/>
+    </row>
+    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="178" t="s">
         <v>383</v>
       </c>
-      <c r="B10" s="177" t="s">
+      <c r="B10" s="176" t="s">
         <v>385</v>
       </c>
       <c r="C10" s="18" t="s">
@@ -15877,12 +15956,13 @@
         <v>26</v>
       </c>
       <c r="H10" s="94"/>
-    </row>
-    <row r="11" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A11" s="179" t="s">
+      <c r="I10" s="91"/>
+    </row>
+    <row r="11" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="178" t="s">
         <v>387</v>
       </c>
-      <c r="B11" s="177" t="s">
+      <c r="B11" s="176" t="s">
         <v>390</v>
       </c>
       <c r="C11" s="18" t="s">
@@ -15901,12 +15981,13 @@
         <v>21</v>
       </c>
       <c r="H11" s="94"/>
-    </row>
-    <row r="12" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="179" t="s">
+      <c r="I11" s="91"/>
+    </row>
+    <row r="12" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="178" t="s">
         <v>391</v>
       </c>
-      <c r="B12" s="177" t="s">
+      <c r="B12" s="176" t="s">
         <v>393</v>
       </c>
       <c r="C12" s="18" t="s">
@@ -15918,15 +15999,21 @@
       <c r="E12" s="18" t="s">
         <v>392</v>
       </c>
-      <c r="F12" s="178"/>
+      <c r="F12" s="177" t="s">
+        <v>499</v>
+      </c>
       <c r="G12" s="94"/>
       <c r="H12" s="94"/>
-    </row>
-    <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="179" t="s">
+      <c r="I12" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="J12" s="232"/>
+    </row>
+    <row r="13" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="178" t="s">
         <v>395</v>
       </c>
-      <c r="B13" s="177" t="s">
+      <c r="B13" s="176" t="s">
         <v>398</v>
       </c>
       <c r="C13" s="18" t="s">
@@ -15945,12 +16032,13 @@
         <v>18</v>
       </c>
       <c r="H13" s="94"/>
-    </row>
-    <row r="14" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="179" t="s">
+      <c r="I13" s="91"/>
+    </row>
+    <row r="14" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="178" t="s">
         <v>400</v>
       </c>
-      <c r="B14" s="177" t="s">
+      <c r="B14" s="176" t="s">
         <v>402</v>
       </c>
       <c r="C14" s="18" t="s">
@@ -15969,12 +16057,13 @@
         <v>45</v>
       </c>
       <c r="H14" s="94"/>
-    </row>
-    <row r="15" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="179" t="s">
+      <c r="I14" s="91"/>
+    </row>
+    <row r="15" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="178" t="s">
         <v>404</v>
       </c>
-      <c r="B15" s="177" t="s">
+      <c r="B15" s="176" t="s">
         <v>406</v>
       </c>
       <c r="C15" s="18" t="s">
@@ -15993,12 +16082,13 @@
         <v>28</v>
       </c>
       <c r="H15" s="94"/>
-    </row>
-    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="179" t="s">
+      <c r="I15" s="91"/>
+    </row>
+    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="178" t="s">
         <v>407</v>
       </c>
-      <c r="B16" s="177" t="s">
+      <c r="B16" s="176" t="s">
         <v>409</v>
       </c>
       <c r="C16" s="18" t="s">
@@ -16017,12 +16107,13 @@
         <v>14</v>
       </c>
       <c r="H16" s="94"/>
-    </row>
-    <row r="17" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="179" t="s">
+      <c r="I16" s="91"/>
+    </row>
+    <row r="17" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="178" t="s">
         <v>411</v>
       </c>
-      <c r="B17" s="177" t="s">
+      <c r="B17" s="176" t="s">
         <v>413</v>
       </c>
       <c r="C17" s="18" t="s">
@@ -16035,18 +16126,22 @@
         <v>412</v>
       </c>
       <c r="F17" s="29" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G17" s="94">
         <v>5</v>
       </c>
       <c r="H17" s="94"/>
-    </row>
-    <row r="18" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="179" t="s">
+      <c r="I17" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="J17" s="233"/>
+    </row>
+    <row r="18" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="178" t="s">
         <v>415</v>
       </c>
-      <c r="B18" s="177" t="s">
+      <c r="B18" s="176" t="s">
         <v>419</v>
       </c>
       <c r="C18" s="18" t="s">
@@ -16065,12 +16160,13 @@
         <v>15</v>
       </c>
       <c r="H18" s="94"/>
-    </row>
-    <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="179" t="s">
+      <c r="I18" s="91"/>
+    </row>
+    <row r="19" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="178" t="s">
         <v>417</v>
       </c>
-      <c r="B19" s="177" t="s">
+      <c r="B19" s="176" t="s">
         <v>421</v>
       </c>
       <c r="C19" s="18" t="s">
@@ -16083,16 +16179,20 @@
         <v>418</v>
       </c>
       <c r="F19" s="85" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G19" s="94"/>
       <c r="H19" s="94"/>
-    </row>
-    <row r="20" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="179" t="s">
+      <c r="I19" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="J19" s="232"/>
+    </row>
+    <row r="20" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="178" t="s">
         <v>423</v>
       </c>
-      <c r="B20" s="177" t="s">
+      <c r="B20" s="176" t="s">
         <v>466</v>
       </c>
       <c r="C20" s="18" t="s">
@@ -16105,18 +16205,19 @@
         <v>424</v>
       </c>
       <c r="F20" s="94" t="s">
-        <v>486</v>
+        <v>506</v>
       </c>
       <c r="G20" s="94">
         <v>31</v>
       </c>
       <c r="H20" s="94"/>
-    </row>
-    <row r="21" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="179" t="s">
+      <c r="I20" s="91"/>
+    </row>
+    <row r="21" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="178" t="s">
         <v>426</v>
       </c>
-      <c r="B21" s="177" t="s">
+      <c r="B21" s="176" t="s">
         <v>428</v>
       </c>
       <c r="C21" s="18" t="s">
@@ -16128,17 +16229,21 @@
       <c r="E21" s="18" t="s">
         <v>424</v>
       </c>
-      <c r="F21" s="34" t="s">
-        <v>497</v>
+      <c r="F21" s="29" t="s">
+        <v>496</v>
       </c>
       <c r="G21" s="94"/>
       <c r="H21" s="94"/>
-    </row>
-    <row r="22" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="179" t="s">
+      <c r="I21" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="J21" s="233"/>
+    </row>
+    <row r="22" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="178" t="s">
         <v>429</v>
       </c>
-      <c r="B22" s="177" t="s">
+      <c r="B22" s="176" t="s">
         <v>431</v>
       </c>
       <c r="C22" s="18" t="s">
@@ -16151,18 +16256,19 @@
         <v>430</v>
       </c>
       <c r="F22" s="94" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G22" s="94">
         <v>7</v>
       </c>
       <c r="H22" s="94"/>
-    </row>
-    <row r="23" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A23" s="179" t="s">
+      <c r="I22" s="91"/>
+    </row>
+    <row r="23" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A23" s="178" t="s">
         <v>433</v>
       </c>
-      <c r="B23" s="177" t="s">
+      <c r="B23" s="176" t="s">
         <v>436</v>
       </c>
       <c r="C23" s="18" t="s">
@@ -16175,18 +16281,19 @@
         <v>434</v>
       </c>
       <c r="F23" s="94" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G23" s="94">
         <v>7</v>
       </c>
       <c r="H23" s="94"/>
-    </row>
-    <row r="24" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" s="179" t="s">
+      <c r="I23" s="91"/>
+    </row>
+    <row r="24" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A24" s="178" t="s">
         <v>437</v>
       </c>
-      <c r="B24" s="177" t="s">
+      <c r="B24" s="176" t="s">
         <v>439</v>
       </c>
       <c r="C24" s="18" t="s">
@@ -16198,17 +16305,23 @@
       <c r="E24" s="18" t="s">
         <v>438</v>
       </c>
-      <c r="F24" s="34" t="s">
-        <v>496</v>
-      </c>
-      <c r="G24" s="94"/>
+      <c r="F24" s="29" t="s">
+        <v>495</v>
+      </c>
+      <c r="G24" s="94">
+        <v>14</v>
+      </c>
       <c r="H24" s="94"/>
-    </row>
-    <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="179" t="s">
+      <c r="I24" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="J24" s="233"/>
+    </row>
+    <row r="25" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A25" s="178" t="s">
         <v>440</v>
       </c>
-      <c r="B25" s="177" t="s">
+      <c r="B25" s="176" t="s">
         <v>442</v>
       </c>
       <c r="C25" s="18" t="s">
@@ -16220,17 +16333,21 @@
       <c r="E25" s="18" t="s">
         <v>441</v>
       </c>
-      <c r="F25" s="34" t="s">
-        <v>495</v>
+      <c r="F25" s="235" t="s">
+        <v>494</v>
       </c>
       <c r="G25" s="94"/>
       <c r="H25" s="94"/>
-    </row>
-    <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="179" t="s">
+      <c r="I25" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="J25" s="233"/>
+    </row>
+    <row r="26" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="178" t="s">
         <v>444</v>
       </c>
-      <c r="B26" s="177" t="s">
+      <c r="B26" s="176" t="s">
         <v>445</v>
       </c>
       <c r="C26" s="18" t="s">
@@ -16243,18 +16360,19 @@
         <v>408</v>
       </c>
       <c r="F26" s="94" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="G26" s="94">
         <v>19</v>
       </c>
       <c r="H26" s="94"/>
-    </row>
-    <row r="27" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="179" t="s">
+      <c r="I26" s="91"/>
+    </row>
+    <row r="27" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="178" t="s">
         <v>447</v>
       </c>
-      <c r="B27" s="177" t="s">
+      <c r="B27" s="176" t="s">
         <v>450</v>
       </c>
       <c r="C27" s="18" t="s">
@@ -16267,18 +16385,19 @@
         <v>448</v>
       </c>
       <c r="F27" s="29" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G27" s="94">
         <v>19</v>
       </c>
       <c r="H27" s="94"/>
-    </row>
-    <row r="28" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A28" s="179" t="s">
+      <c r="I27" s="91"/>
+    </row>
+    <row r="28" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" s="178" t="s">
         <v>451</v>
       </c>
-      <c r="B28" s="177" t="s">
+      <c r="B28" s="176" t="s">
         <v>467</v>
       </c>
       <c r="C28" s="18" t="s">
@@ -16291,18 +16410,19 @@
         <v>455</v>
       </c>
       <c r="F28" s="29" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G28" s="94">
         <v>13</v>
       </c>
       <c r="H28" s="94"/>
-    </row>
-    <row r="29" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A29" s="179" t="s">
+      <c r="I28" s="91"/>
+    </row>
+    <row r="29" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A29" s="178" t="s">
         <v>452</v>
       </c>
-      <c r="B29" s="177" t="s">
+      <c r="B29" s="176" t="s">
         <v>458</v>
       </c>
       <c r="C29" s="18" t="s">
@@ -16314,17 +16434,23 @@
       <c r="E29" s="18" t="s">
         <v>457</v>
       </c>
-      <c r="F29" s="34" t="s">
-        <v>494</v>
-      </c>
-      <c r="G29" s="94"/>
+      <c r="F29" s="29" t="s">
+        <v>493</v>
+      </c>
+      <c r="G29" s="94">
+        <v>8</v>
+      </c>
       <c r="H29" s="94"/>
-    </row>
-    <row r="30" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="179" t="s">
+      <c r="I29" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="J29" s="233"/>
+    </row>
+    <row r="30" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="178" t="s">
         <v>453</v>
       </c>
-      <c r="B30" s="177" t="s">
+      <c r="B30" s="176" t="s">
         <v>462</v>
       </c>
       <c r="C30" s="18" t="s">
@@ -16337,18 +16463,19 @@
         <v>460</v>
       </c>
       <c r="F30" s="29" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G30" s="94">
         <v>13</v>
       </c>
       <c r="H30" s="94"/>
-    </row>
-    <row r="31" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A31" s="179" t="s">
+      <c r="I30" s="91"/>
+    </row>
+    <row r="31" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A31" s="178" t="s">
         <v>454</v>
       </c>
-      <c r="B31" s="177" t="s">
+      <c r="B31" s="176" t="s">
         <v>463</v>
       </c>
       <c r="C31" s="18" t="s">
@@ -16360,15 +16487,24 @@
       <c r="E31" s="18" t="s">
         <v>420</v>
       </c>
-      <c r="F31" s="34" t="s">
-        <v>493</v>
-      </c>
-      <c r="G31" s="94"/>
+      <c r="F31" s="29" t="s">
+        <v>492</v>
+      </c>
+      <c r="G31" s="94">
+        <v>10</v>
+      </c>
       <c r="H31" s="94"/>
+      <c r="I31" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="J31" s="233"/>
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E33" s="236"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A1:J1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Experiment01_Resumo/Resumo_Exp01.xlsx
+++ b/Experiment01_Resumo/Resumo_Exp01.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="511">
   <si>
     <t>Database search</t>
   </si>
@@ -1659,6 +1659,18 @@
   </si>
   <si>
     <t>münch2013c</t>
+  </si>
+  <si>
+    <t>TEMOS</t>
+  </si>
+  <si>
+    <t>NÃO TEMOS</t>
+  </si>
+  <si>
+    <t>JOAO ENCONTROU</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -2351,7 +2363,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="237">
+  <cellXfs count="236">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2805,13 +2817,16 @@
     <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2860,6 +2875,33 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2869,12 +2911,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2887,27 +2923,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2947,9 +2962,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2968,16 +2980,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3302,12 +3311,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="210937608"/>
-        <c:axId val="210933688"/>
+        <c:axId val="216194368"/>
+        <c:axId val="216193976"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="210937608"/>
+        <c:axId val="216194368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3399,7 +3408,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="210933688"/>
+        <c:crossAx val="216193976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3407,7 +3416,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="210933688"/>
+        <c:axId val="216193976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3458,7 +3467,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="210937608"/>
+        <c:crossAx val="216194368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3767,12 +3776,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="210934472"/>
-        <c:axId val="210934864"/>
+        <c:axId val="216195936"/>
+        <c:axId val="216200640"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="210934472"/>
+        <c:axId val="216195936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3861,7 +3870,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="210934864"/>
+        <c:crossAx val="216200640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3869,7 +3878,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="210934864"/>
+        <c:axId val="216200640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3952,7 +3961,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="210934472"/>
+        <c:crossAx val="216195936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4237,12 +4246,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="210936432"/>
-        <c:axId val="210935648"/>
+        <c:axId val="216196720"/>
+        <c:axId val="216194760"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="210936432"/>
+        <c:axId val="216196720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4331,7 +4340,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="210935648"/>
+        <c:crossAx val="216194760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4339,7 +4348,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="210935648"/>
+        <c:axId val="216194760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4422,7 +4431,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="210936432"/>
+        <c:crossAx val="216196720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4536,7 +4545,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5210,12 +5218,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="210936040"/>
-        <c:axId val="210938392"/>
+        <c:axId val="216197504"/>
+        <c:axId val="216197896"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="210936040"/>
+        <c:axId val="216197504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5255,7 +5263,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="210938392"/>
+        <c:crossAx val="216197896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5263,7 +5271,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="210938392"/>
+        <c:axId val="216197896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5311,7 +5319,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="210936040"/>
+        <c:crossAx val="216197504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5325,7 +5333,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5620,8 +5627,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="292584800"/>
-        <c:axId val="292581272"/>
+        <c:axId val="303342792"/>
+        <c:axId val="303345536"/>
         <c:axId val="0"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
@@ -5791,7 +5798,7 @@
         </c:extLst>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="292584800"/>
+        <c:axId val="303342792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5889,7 +5896,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="292581272"/>
+        <c:crossAx val="303345536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5897,7 +5904,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="292581272"/>
+        <c:axId val="303345536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5976,7 +5983,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="292584800"/>
+        <c:crossAx val="303342792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6290,8 +6297,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="292586760"/>
-        <c:axId val="292582448"/>
+        <c:axId val="303347104"/>
+        <c:axId val="303346712"/>
         <c:axId val="0"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
@@ -6461,7 +6468,7 @@
         </c:extLst>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="292586760"/>
+        <c:axId val="303347104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6559,7 +6566,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="292582448"/>
+        <c:crossAx val="303346712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6567,7 +6574,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="292582448"/>
+        <c:axId val="303346712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6646,7 +6653,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="292586760"/>
+        <c:crossAx val="303347104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10344,22 +10351,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="180" t="s">
+      <c r="A1" s="181" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="181"/>
+      <c r="B1" s="182"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="182" t="s">
+      <c r="A2" s="183" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="183"/>
+      <c r="B2" s="184"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="182" t="s">
+      <c r="A3" s="183" t="s">
         <v>96</v>
       </c>
-      <c r="B3" s="183"/>
+      <c r="B3" s="184"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -10394,10 +10401,10 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="184" t="s">
+      <c r="A8" s="185" t="s">
         <v>103</v>
       </c>
-      <c r="B8" s="185"/>
+      <c r="B8" s="186"/>
     </row>
     <row r="9" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
@@ -10487,19 +10494,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="195" t="s">
+      <c r="A1" s="196" t="s">
         <v>326</v>
       </c>
-      <c r="B1" s="195"/>
-      <c r="C1" s="195"/>
-      <c r="D1" s="195"/>
-      <c r="E1" s="195"/>
-      <c r="F1" s="195"/>
-      <c r="G1" s="195"/>
-      <c r="H1" s="195"/>
-      <c r="I1" s="195"/>
-      <c r="J1" s="195"/>
-      <c r="K1" s="195"/>
+      <c r="B1" s="196"/>
+      <c r="C1" s="196"/>
+      <c r="D1" s="196"/>
+      <c r="E1" s="196"/>
+      <c r="F1" s="196"/>
+      <c r="G1" s="196"/>
+      <c r="H1" s="196"/>
+      <c r="I1" s="196"/>
+      <c r="J1" s="196"/>
+      <c r="K1" s="196"/>
     </row>
     <row r="2" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
@@ -12198,10 +12205,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="190" t="s">
+      <c r="A1" s="191" t="s">
         <v>151</v>
       </c>
-      <c r="B1" s="191"/>
+      <c r="B1" s="192"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
@@ -12234,16 +12241,16 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="186" t="s">
+      <c r="A6" s="187" t="s">
         <v>147</v>
       </c>
-      <c r="B6" s="187"/>
+      <c r="B6" s="188"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="188" t="s">
+      <c r="A7" s="189" t="s">
         <v>150</v>
       </c>
-      <c r="B7" s="189"/>
+      <c r="B7" s="190"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
@@ -12325,16 +12332,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="192" t="s">
+      <c r="A1" s="193" t="s">
         <v>336</v>
       </c>
-      <c r="B1" s="193"/>
-      <c r="C1" s="193"/>
-      <c r="D1" s="193"/>
-      <c r="E1" s="193"/>
-      <c r="F1" s="193"/>
-      <c r="G1" s="193"/>
-      <c r="H1" s="194"/>
+      <c r="B1" s="194"/>
+      <c r="C1" s="194"/>
+      <c r="D1" s="194"/>
+      <c r="E1" s="194"/>
+      <c r="F1" s="194"/>
+      <c r="G1" s="194"/>
+      <c r="H1" s="195"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
     </row>
@@ -12704,14 +12711,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="195" t="s">
+      <c r="A1" s="196" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="195"/>
-      <c r="C1" s="195"/>
-      <c r="D1" s="195"/>
-      <c r="E1" s="195"/>
-      <c r="F1" s="195"/>
+      <c r="B1" s="196"/>
+      <c r="C1" s="196"/>
+      <c r="D1" s="196"/>
+      <c r="E1" s="196"/>
+      <c r="F1" s="196"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
@@ -13135,7 +13142,7 @@
       </c>
       <c r="F24" s="91"/>
     </row>
-    <row r="27" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="144" t="s">
         <v>125</v>
       </c>
@@ -13174,43 +13181,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="196" t="s">
+      <c r="A1" s="206" t="s">
         <v>230</v>
       </c>
-      <c r="B1" s="197"/>
-      <c r="C1" s="197"/>
-      <c r="D1" s="197"/>
-      <c r="E1" s="197"/>
-      <c r="F1" s="197"/>
-      <c r="G1" s="197"/>
-      <c r="H1" s="197"/>
-      <c r="I1" s="197"/>
+      <c r="B1" s="207"/>
+      <c r="C1" s="207"/>
+      <c r="D1" s="207"/>
+      <c r="E1" s="207"/>
+      <c r="F1" s="207"/>
+      <c r="G1" s="207"/>
+      <c r="H1" s="207"/>
+      <c r="I1" s="207"/>
     </row>
     <row r="2" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="199" t="s">
+      <c r="A2" s="205" t="s">
         <v>229</v>
       </c>
-      <c r="B2" s="199"/>
-      <c r="C2" s="199"/>
-      <c r="D2" s="199"/>
-      <c r="E2" s="199"/>
-      <c r="F2" s="199"/>
-      <c r="G2" s="199"/>
-      <c r="H2" s="199"/>
-      <c r="I2" s="199"/>
+      <c r="B2" s="205"/>
+      <c r="C2" s="205"/>
+      <c r="D2" s="205"/>
+      <c r="E2" s="205"/>
+      <c r="F2" s="205"/>
+      <c r="G2" s="205"/>
+      <c r="H2" s="205"/>
+      <c r="I2" s="205"/>
     </row>
     <row r="3" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="200" t="s">
+      <c r="A3" s="198" t="s">
         <v>337</v>
       </c>
-      <c r="B3" s="200"/>
-      <c r="C3" s="200"/>
-      <c r="D3" s="200"/>
-      <c r="E3" s="200"/>
-      <c r="F3" s="200"/>
-      <c r="G3" s="200"/>
-      <c r="H3" s="200"/>
-      <c r="I3" s="200"/>
+      <c r="B3" s="198"/>
+      <c r="C3" s="198"/>
+      <c r="D3" s="198"/>
+      <c r="E3" s="198"/>
+      <c r="F3" s="198"/>
+      <c r="G3" s="198"/>
+      <c r="H3" s="198"/>
+      <c r="I3" s="198"/>
       <c r="J3" s="71"/>
       <c r="K3" s="71"/>
       <c r="L3" s="71"/>
@@ -13223,12 +13230,12 @@
       <c r="S3" s="71"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="198" t="s">
+      <c r="A4" s="208" t="s">
         <v>253</v>
       </c>
-      <c r="B4" s="198"/>
-      <c r="C4" s="198"/>
-      <c r="D4" s="198"/>
+      <c r="B4" s="208"/>
+      <c r="C4" s="208"/>
+      <c r="D4" s="208"/>
     </row>
     <row r="5" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="69" t="s">
@@ -13254,7 +13261,7 @@
       <c r="C6" s="49" t="s">
         <v>196</v>
       </c>
-      <c r="D6" s="209" t="s">
+      <c r="D6" s="202" t="s">
         <v>339</v>
       </c>
       <c r="E6" t="e">
@@ -13273,7 +13280,7 @@
       <c r="C7" s="49" t="s">
         <v>228</v>
       </c>
-      <c r="D7" s="210"/>
+      <c r="D7" s="203"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="78" t="s">
@@ -13285,7 +13292,7 @@
       <c r="C8" s="49" t="s">
         <v>235</v>
       </c>
-      <c r="D8" s="210"/>
+      <c r="D8" s="203"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="78" t="s">
@@ -13297,7 +13304,7 @@
       <c r="C9" s="49" t="s">
         <v>236</v>
       </c>
-      <c r="D9" s="210"/>
+      <c r="D9" s="203"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="78" t="s">
@@ -13309,7 +13316,7 @@
       <c r="C10" s="49" t="s">
         <v>237</v>
       </c>
-      <c r="D10" s="210"/>
+      <c r="D10" s="203"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="78" t="s">
@@ -13321,7 +13328,7 @@
       <c r="C11" s="49" t="s">
         <v>237</v>
       </c>
-      <c r="D11" s="210"/>
+      <c r="D11" s="203"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="78" t="s">
@@ -13333,7 +13340,7 @@
       <c r="C12" s="49" t="s">
         <v>266</v>
       </c>
-      <c r="D12" s="210"/>
+      <c r="D12" s="203"/>
     </row>
     <row r="13" spans="1:19" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="145" t="s">
@@ -13345,7 +13352,7 @@
       <c r="C13" s="136" t="s">
         <v>273</v>
       </c>
-      <c r="D13" s="211"/>
+      <c r="D13" s="204"/>
     </row>
     <row r="14" spans="1:19" s="77" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="146" t="s">
@@ -13362,30 +13369,30 @@
       </c>
     </row>
     <row r="15" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="199" t="s">
+      <c r="A15" s="205" t="s">
         <v>261</v>
       </c>
-      <c r="B15" s="199"/>
-      <c r="C15" s="199"/>
-      <c r="D15" s="199"/>
-      <c r="E15" s="199"/>
-      <c r="F15" s="199"/>
-      <c r="G15" s="199"/>
-      <c r="H15" s="199"/>
-      <c r="I15" s="199"/>
+      <c r="B15" s="205"/>
+      <c r="C15" s="205"/>
+      <c r="D15" s="205"/>
+      <c r="E15" s="205"/>
+      <c r="F15" s="205"/>
+      <c r="G15" s="205"/>
+      <c r="H15" s="205"/>
+      <c r="I15" s="205"/>
     </row>
     <row r="16" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="200" t="s">
+      <c r="A16" s="198" t="s">
         <v>238</v>
       </c>
-      <c r="B16" s="200"/>
-      <c r="C16" s="200"/>
-      <c r="D16" s="200"/>
-      <c r="E16" s="200"/>
-      <c r="F16" s="200"/>
-      <c r="G16" s="200"/>
-      <c r="H16" s="200"/>
-      <c r="I16" s="200"/>
+      <c r="B16" s="198"/>
+      <c r="C16" s="198"/>
+      <c r="D16" s="198"/>
+      <c r="E16" s="198"/>
+      <c r="F16" s="198"/>
+      <c r="G16" s="198"/>
+      <c r="H16" s="198"/>
+      <c r="I16" s="198"/>
       <c r="J16" s="71"/>
       <c r="K16" s="71"/>
       <c r="L16" s="71"/>
@@ -13398,14 +13405,14 @@
       <c r="S16" s="71"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="198" t="s">
+      <c r="A17" s="208" t="s">
         <v>259</v>
       </c>
-      <c r="B17" s="198"/>
-      <c r="C17" s="198"/>
-      <c r="D17" s="198"/>
-      <c r="E17" s="198"/>
-      <c r="F17" s="198"/>
+      <c r="B17" s="208"/>
+      <c r="C17" s="208"/>
+      <c r="D17" s="208"/>
+      <c r="E17" s="208"/>
+      <c r="F17" s="208"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="69" t="s">
@@ -13446,7 +13453,7 @@
       <c r="F19" s="72">
         <v>0.77</v>
       </c>
-      <c r="G19" s="179">
+      <c r="G19" s="177">
         <f>HARMEAN(E19,F19)</f>
         <v>3.326556543837357E-2</v>
       </c>
@@ -13470,7 +13477,7 @@
       <c r="F20" s="72">
         <v>0.41</v>
       </c>
-      <c r="G20" s="179">
+      <c r="G20" s="177">
         <f t="shared" ref="G20:G24" si="0">HARMEAN(E20,F20)</f>
         <v>4.3556581986143185E-2</v>
       </c>
@@ -13494,7 +13501,7 @@
       <c r="F21" s="72">
         <v>0.59</v>
       </c>
-      <c r="G21" s="179">
+      <c r="G21" s="177">
         <f t="shared" si="0"/>
         <v>5.5282714054927309E-2</v>
       </c>
@@ -13518,7 +13525,7 @@
       <c r="F22" s="72">
         <v>0.5</v>
       </c>
-      <c r="G22" s="179">
+      <c r="G22" s="177">
         <f t="shared" si="0"/>
         <v>8.2568807339449546E-2</v>
       </c>
@@ -13542,7 +13549,7 @@
       <c r="F23" s="72">
         <v>0.59</v>
       </c>
-      <c r="G23" s="179">
+      <c r="G23" s="177">
         <f t="shared" si="0"/>
         <v>6.608E-2</v>
       </c>
@@ -13566,36 +13573,36 @@
       <c r="F24" s="72">
         <v>0.54</v>
       </c>
-      <c r="G24" s="179">
+      <c r="G24" s="177">
         <f t="shared" si="0"/>
         <v>6.9254766031195833E-2</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="199" t="s">
+      <c r="A25" s="205" t="s">
         <v>260</v>
       </c>
-      <c r="B25" s="199"/>
-      <c r="C25" s="199"/>
-      <c r="D25" s="199"/>
-      <c r="E25" s="199"/>
-      <c r="F25" s="199"/>
-      <c r="G25" s="199"/>
-      <c r="H25" s="199"/>
-      <c r="I25" s="199"/>
+      <c r="B25" s="205"/>
+      <c r="C25" s="205"/>
+      <c r="D25" s="205"/>
+      <c r="E25" s="205"/>
+      <c r="F25" s="205"/>
+      <c r="G25" s="205"/>
+      <c r="H25" s="205"/>
+      <c r="I25" s="205"/>
     </row>
     <row r="26" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="200" t="s">
+      <c r="A26" s="198" t="s">
         <v>338</v>
       </c>
-      <c r="B26" s="200"/>
-      <c r="C26" s="200"/>
-      <c r="D26" s="200"/>
-      <c r="E26" s="200"/>
-      <c r="F26" s="200"/>
-      <c r="G26" s="200"/>
-      <c r="H26" s="200"/>
-      <c r="I26" s="200"/>
+      <c r="B26" s="198"/>
+      <c r="C26" s="198"/>
+      <c r="D26" s="198"/>
+      <c r="E26" s="198"/>
+      <c r="F26" s="198"/>
+      <c r="G26" s="198"/>
+      <c r="H26" s="198"/>
+      <c r="I26" s="198"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="69" t="s">
@@ -13607,12 +13614,12 @@
       <c r="C27" s="69" t="s">
         <v>201</v>
       </c>
-      <c r="D27" s="204" t="s">
+      <c r="D27" s="212" t="s">
         <v>292</v>
       </c>
-      <c r="E27" s="204"/>
-      <c r="F27" s="204"/>
-      <c r="G27" s="204"/>
+      <c r="E27" s="212"/>
+      <c r="F27" s="212"/>
+      <c r="G27" s="212"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="52" t="s">
@@ -13624,12 +13631,12 @@
       <c r="C28" s="72">
         <v>0.59</v>
       </c>
-      <c r="D28" s="206" t="s">
+      <c r="D28" s="199" t="s">
         <v>285</v>
       </c>
-      <c r="E28" s="207"/>
-      <c r="F28" s="207"/>
-      <c r="G28" s="208"/>
+      <c r="E28" s="200"/>
+      <c r="F28" s="200"/>
+      <c r="G28" s="201"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="52" t="s">
@@ -13641,12 +13648,12 @@
       <c r="C29" s="72">
         <v>0.77</v>
       </c>
-      <c r="D29" s="201" t="s">
+      <c r="D29" s="209" t="s">
         <v>286</v>
       </c>
-      <c r="E29" s="202"/>
-      <c r="F29" s="202"/>
-      <c r="G29" s="203"/>
+      <c r="E29" s="210"/>
+      <c r="F29" s="210"/>
+      <c r="G29" s="211"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="52" t="s">
@@ -13658,12 +13665,12 @@
       <c r="C30" s="72">
         <v>0.41</v>
       </c>
-      <c r="D30" s="201" t="s">
+      <c r="D30" s="209" t="s">
         <v>287</v>
       </c>
-      <c r="E30" s="202"/>
-      <c r="F30" s="202"/>
-      <c r="G30" s="203"/>
+      <c r="E30" s="210"/>
+      <c r="F30" s="210"/>
+      <c r="G30" s="211"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="52" t="s">
@@ -13675,12 +13682,12 @@
       <c r="C31" s="72">
         <v>0.59</v>
       </c>
-      <c r="D31" s="201" t="s">
+      <c r="D31" s="209" t="s">
         <v>289</v>
       </c>
-      <c r="E31" s="202"/>
-      <c r="F31" s="202"/>
-      <c r="G31" s="203"/>
+      <c r="E31" s="210"/>
+      <c r="F31" s="210"/>
+      <c r="G31" s="211"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="52" t="s">
@@ -13692,12 +13699,12 @@
       <c r="C32" s="72">
         <v>0.5</v>
       </c>
-      <c r="D32" s="201" t="s">
+      <c r="D32" s="209" t="s">
         <v>288</v>
       </c>
-      <c r="E32" s="202"/>
-      <c r="F32" s="202"/>
-      <c r="G32" s="203"/>
+      <c r="E32" s="210"/>
+      <c r="F32" s="210"/>
+      <c r="G32" s="211"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="52" t="s">
@@ -13709,12 +13716,12 @@
       <c r="C33" s="72">
         <v>0.59</v>
       </c>
-      <c r="D33" s="201" t="s">
+      <c r="D33" s="209" t="s">
         <v>290</v>
       </c>
-      <c r="E33" s="202"/>
-      <c r="F33" s="202"/>
-      <c r="G33" s="203"/>
+      <c r="E33" s="210"/>
+      <c r="F33" s="210"/>
+      <c r="G33" s="211"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="52" t="s">
@@ -13726,25 +13733,25 @@
       <c r="C34" s="72">
         <v>0.54</v>
       </c>
-      <c r="D34" s="201" t="s">
+      <c r="D34" s="209" t="s">
         <v>291</v>
       </c>
-      <c r="E34" s="202"/>
-      <c r="F34" s="202"/>
-      <c r="G34" s="203"/>
+      <c r="E34" s="210"/>
+      <c r="F34" s="210"/>
+      <c r="G34" s="211"/>
     </row>
     <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="199" t="s">
+      <c r="A36" s="205" t="s">
         <v>315</v>
       </c>
-      <c r="B36" s="199"/>
-      <c r="C36" s="199"/>
-      <c r="D36" s="199"/>
-      <c r="E36" s="199"/>
-      <c r="F36" s="199"/>
-      <c r="G36" s="199"/>
-      <c r="H36" s="199"/>
-      <c r="I36" s="199"/>
+      <c r="B36" s="205"/>
+      <c r="C36" s="205"/>
+      <c r="D36" s="205"/>
+      <c r="E36" s="205"/>
+      <c r="F36" s="205"/>
+      <c r="G36" s="205"/>
+      <c r="H36" s="205"/>
+      <c r="I36" s="205"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="87" t="s">
@@ -13811,12 +13818,12 @@
       </c>
     </row>
     <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="205" t="s">
+      <c r="A46" s="197" t="s">
         <v>318</v>
       </c>
-      <c r="B46" s="205"/>
-      <c r="C46" s="205"/>
-      <c r="D46" s="205"/>
+      <c r="B46" s="197"/>
+      <c r="C46" s="197"/>
+      <c r="D46" s="197"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="88" t="s">
@@ -13846,7 +13853,7 @@
         <f>2*((B48*C48)/(B48+C48))</f>
         <v>5.3827240375283081E-2</v>
       </c>
-      <c r="E48" s="179">
+      <c r="E48" s="177">
         <f>HARMEAN(B48,C48)</f>
         <v>5.3827240375283081E-2</v>
       </c>
@@ -13865,7 +13872,7 @@
         <f t="shared" ref="D49:D54" si="1">2*((B49*C49)/(B49+C49))</f>
         <v>3.2693412718520394E-2</v>
       </c>
-      <c r="E49" s="179">
+      <c r="E49" s="177">
         <f t="shared" ref="E49:E54" si="2">HARMEAN(B49,C49)</f>
         <v>3.2693412718520394E-2</v>
       </c>
@@ -13884,7 +13891,7 @@
         <f t="shared" si="1"/>
         <v>4.3730155056699832E-2</v>
       </c>
-      <c r="E50" s="179">
+      <c r="E50" s="177">
         <f t="shared" si="2"/>
         <v>4.3730155056699839E-2</v>
       </c>
@@ -13903,7 +13910,7 @@
         <f t="shared" si="1"/>
         <v>5.5827547230744394E-2</v>
       </c>
-      <c r="E51" s="179">
+      <c r="E51" s="177">
         <f t="shared" si="2"/>
         <v>5.5827547230744394E-2</v>
       </c>
@@ -13922,7 +13929,7 @@
         <f>2*((B52*C52)/(B52+C52))</f>
         <v>8.2063521204332662E-2</v>
       </c>
-      <c r="E52" s="179">
+      <c r="E52" s="177">
         <f t="shared" si="2"/>
         <v>8.2063521204332662E-2</v>
       </c>
@@ -13941,7 +13948,7 @@
         <f t="shared" si="1"/>
         <v>6.6258198688209882E-2</v>
       </c>
-      <c r="E53" s="179">
+      <c r="E53" s="177">
         <f t="shared" si="2"/>
         <v>6.6258198688209896E-2</v>
       </c>
@@ -13960,18 +13967,13 @@
         <f t="shared" si="1"/>
         <v>6.9254766031195833E-2</v>
       </c>
-      <c r="E54" s="179">
+      <c r="E54" s="177">
         <f t="shared" si="2"/>
         <v>6.9254766031195833E-2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D6:D13"/>
-    <mergeCell ref="A2:I2"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A25:I25"/>
@@ -13987,6 +13989,11 @@
     <mergeCell ref="D30:G30"/>
     <mergeCell ref="D31:G31"/>
     <mergeCell ref="D32:G32"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D6:D13"/>
+    <mergeCell ref="A2:I2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14018,15 +14025,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="217" t="s">
+      <c r="A1" s="218" t="s">
         <v>347</v>
       </c>
-      <c r="B1" s="217"/>
-      <c r="C1" s="217"/>
-      <c r="D1" s="217"/>
-      <c r="E1" s="217"/>
-      <c r="F1" s="217"/>
-      <c r="G1" s="217"/>
+      <c r="B1" s="218"/>
+      <c r="C1" s="218"/>
+      <c r="D1" s="218"/>
+      <c r="E1" s="218"/>
+      <c r="F1" s="218"/>
+      <c r="G1" s="218"/>
     </row>
     <row r="2" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="158" t="s">
@@ -14050,11 +14057,11 @@
       <c r="G2" s="158" t="s">
         <v>344</v>
       </c>
-      <c r="I2" s="216" t="s">
+      <c r="I2" s="217" t="s">
         <v>197</v>
       </c>
-      <c r="J2" s="216"/>
-      <c r="K2" s="216"/>
+      <c r="J2" s="217"/>
+      <c r="K2" s="217"/>
     </row>
     <row r="3" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
@@ -14507,20 +14514,20 @@
       <c r="J22" s="115" t="s">
         <v>217</v>
       </c>
-      <c r="K22" s="218" t="s">
+      <c r="K22" s="219" t="s">
         <v>307</v>
       </c>
-      <c r="L22" s="218"/>
-      <c r="M22" s="218"/>
-      <c r="N22" s="218"/>
-      <c r="O22" s="218"/>
-      <c r="P22" s="218"/>
-      <c r="Q22" s="218"/>
-      <c r="R22" s="218"/>
-      <c r="S22" s="218"/>
-      <c r="T22" s="218"/>
-      <c r="U22" s="218"/>
-      <c r="V22" s="218"/>
+      <c r="L22" s="219"/>
+      <c r="M22" s="219"/>
+      <c r="N22" s="219"/>
+      <c r="O22" s="219"/>
+      <c r="P22" s="219"/>
+      <c r="Q22" s="219"/>
+      <c r="R22" s="219"/>
+      <c r="S22" s="219"/>
+      <c r="T22" s="219"/>
+      <c r="U22" s="219"/>
+      <c r="V22" s="219"/>
     </row>
     <row r="23" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="36" t="s">
@@ -14626,10 +14633,10 @@
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A29" s="220"/>
-      <c r="B29" s="221"/>
-      <c r="C29" s="221"/>
-      <c r="D29" s="222"/>
+      <c r="A29" s="221"/>
+      <c r="B29" s="222"/>
+      <c r="C29" s="222"/>
+      <c r="D29" s="223"/>
       <c r="I29" s="43" t="s">
         <v>187</v>
       </c>
@@ -14646,10 +14653,10 @@
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A31" s="223" t="s">
+      <c r="A31" s="224" t="s">
         <v>181</v>
       </c>
-      <c r="B31" s="224"/>
+      <c r="B31" s="225"/>
       <c r="C31" s="68"/>
       <c r="I31" s="43" t="s">
         <v>189</v>
@@ -14671,20 +14678,20 @@
       <c r="J32" s="116" t="s">
         <v>308</v>
       </c>
-      <c r="K32" s="219" t="s">
+      <c r="K32" s="220" t="s">
         <v>306</v>
       </c>
-      <c r="L32" s="219"/>
-      <c r="M32" s="219"/>
-      <c r="N32" s="219"/>
-      <c r="O32" s="219"/>
-      <c r="P32" s="219"/>
-      <c r="Q32" s="219"/>
-      <c r="R32" s="219"/>
-      <c r="S32" s="219"/>
-      <c r="T32" s="219"/>
-      <c r="U32" s="219"/>
-      <c r="V32" s="219"/>
+      <c r="L32" s="220"/>
+      <c r="M32" s="220"/>
+      <c r="N32" s="220"/>
+      <c r="O32" s="220"/>
+      <c r="P32" s="220"/>
+      <c r="Q32" s="220"/>
+      <c r="R32" s="220"/>
+      <c r="S32" s="220"/>
+      <c r="T32" s="220"/>
+      <c r="U32" s="220"/>
+      <c r="V32" s="220"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="84" t="s">
@@ -14717,10 +14724,10 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="212" t="s">
+      <c r="A35" s="213" t="s">
         <v>184</v>
       </c>
-      <c r="B35" s="214" t="s">
+      <c r="B35" s="215" t="s">
         <v>219</v>
       </c>
       <c r="D35" s="90"/>
@@ -14730,8 +14737,8 @@
       <c r="J35" s="41"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="213"/>
-      <c r="B36" s="215"/>
+      <c r="A36" s="214"/>
+      <c r="B36" s="216"/>
       <c r="D36" s="90"/>
       <c r="I36" s="105" t="s">
         <v>296</v>
@@ -14850,15 +14857,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="217" t="s">
+      <c r="A1" s="218" t="s">
         <v>347</v>
       </c>
-      <c r="B1" s="217"/>
-      <c r="C1" s="217"/>
-      <c r="D1" s="217"/>
-      <c r="E1" s="217"/>
-      <c r="F1" s="217"/>
-      <c r="G1" s="217"/>
+      <c r="B1" s="218"/>
+      <c r="C1" s="218"/>
+      <c r="D1" s="218"/>
+      <c r="E1" s="218"/>
+      <c r="F1" s="218"/>
+      <c r="G1" s="218"/>
     </row>
     <row r="2" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="158" t="s">
@@ -14882,11 +14889,11 @@
       <c r="G2" s="158" t="s">
         <v>344</v>
       </c>
-      <c r="I2" s="216" t="s">
+      <c r="I2" s="217" t="s">
         <v>197</v>
       </c>
-      <c r="J2" s="216"/>
-      <c r="K2" s="216"/>
+      <c r="J2" s="217"/>
+      <c r="K2" s="217"/>
       <c r="O2" s="170" t="s">
         <v>351</v>
       </c>
@@ -15387,20 +15394,20 @@
       <c r="J22" s="115" t="s">
         <v>217</v>
       </c>
-      <c r="K22" s="218" t="s">
+      <c r="K22" s="219" t="s">
         <v>307</v>
       </c>
-      <c r="L22" s="218"/>
-      <c r="M22" s="218"/>
-      <c r="N22" s="218"/>
-      <c r="O22" s="218"/>
-      <c r="P22" s="218"/>
-      <c r="Q22" s="218"/>
-      <c r="R22" s="218"/>
-      <c r="S22" s="218"/>
-      <c r="T22" s="218"/>
-      <c r="U22" s="218"/>
-      <c r="V22" s="218"/>
+      <c r="L22" s="219"/>
+      <c r="M22" s="219"/>
+      <c r="N22" s="219"/>
+      <c r="O22" s="219"/>
+      <c r="P22" s="219"/>
+      <c r="Q22" s="219"/>
+      <c r="R22" s="219"/>
+      <c r="S22" s="219"/>
+      <c r="T22" s="219"/>
+      <c r="U22" s="219"/>
+      <c r="V22" s="219"/>
     </row>
     <row r="23" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="36" t="s">
@@ -15506,10 +15513,10 @@
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A29" s="220"/>
-      <c r="B29" s="221"/>
-      <c r="C29" s="221"/>
-      <c r="D29" s="222"/>
+      <c r="A29" s="221"/>
+      <c r="B29" s="222"/>
+      <c r="C29" s="222"/>
+      <c r="D29" s="223"/>
       <c r="I29" s="43" t="s">
         <v>187</v>
       </c>
@@ -15526,10 +15533,10 @@
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A31" s="223" t="s">
+      <c r="A31" s="224" t="s">
         <v>181</v>
       </c>
-      <c r="B31" s="224"/>
+      <c r="B31" s="225"/>
       <c r="C31" s="68"/>
       <c r="I31" s="43" t="s">
         <v>189</v>
@@ -15551,20 +15558,20 @@
       <c r="J32" s="116" t="s">
         <v>308</v>
       </c>
-      <c r="K32" s="219" t="s">
+      <c r="K32" s="220" t="s">
         <v>306</v>
       </c>
-      <c r="L32" s="219"/>
-      <c r="M32" s="219"/>
-      <c r="N32" s="219"/>
-      <c r="O32" s="219"/>
-      <c r="P32" s="219"/>
-      <c r="Q32" s="219"/>
-      <c r="R32" s="219"/>
-      <c r="S32" s="219"/>
-      <c r="T32" s="219"/>
-      <c r="U32" s="219"/>
-      <c r="V32" s="219"/>
+      <c r="L32" s="220"/>
+      <c r="M32" s="220"/>
+      <c r="N32" s="220"/>
+      <c r="O32" s="220"/>
+      <c r="P32" s="220"/>
+      <c r="Q32" s="220"/>
+      <c r="R32" s="220"/>
+      <c r="S32" s="220"/>
+      <c r="T32" s="220"/>
+      <c r="U32" s="220"/>
+      <c r="V32" s="220"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="84" t="s">
@@ -15595,10 +15602,10 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="212" t="s">
+      <c r="A35" s="213" t="s">
         <v>184</v>
       </c>
-      <c r="B35" s="214" t="s">
+      <c r="B35" s="215" t="s">
         <v>219</v>
       </c>
       <c r="I35" s="43" t="s">
@@ -15607,8 +15614,8 @@
       <c r="J35" s="41"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="213"/>
-      <c r="B36" s="215"/>
+      <c r="A36" s="214"/>
+      <c r="B36" s="216"/>
       <c r="I36" s="105" t="s">
         <v>296</v>
       </c>
@@ -15694,8 +15701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15703,24 +15710,25 @@
     <col min="2" max="2" width="48.5703125" customWidth="1"/>
     <col min="3" max="3" width="46.28515625" customWidth="1"/>
     <col min="5" max="5" width="30.5703125" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" style="3" customWidth="1"/>
     <col min="7" max="8" width="9.140625" style="3"/>
     <col min="9" max="9" width="18.28515625" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="225" t="s">
+      <c r="A1" s="232" t="s">
         <v>464</v>
       </c>
-      <c r="B1" s="225"/>
-      <c r="C1" s="225"/>
-      <c r="D1" s="225"/>
-      <c r="E1" s="225"/>
-      <c r="F1" s="225"/>
-      <c r="G1" s="225"/>
-      <c r="H1" s="225"/>
-      <c r="I1" s="225"/>
-      <c r="J1" s="225"/>
+      <c r="B1" s="232"/>
+      <c r="C1" s="232"/>
+      <c r="D1" s="232"/>
+      <c r="E1" s="232"/>
+      <c r="F1" s="232"/>
+      <c r="G1" s="232"/>
+      <c r="H1" s="232"/>
+      <c r="I1" s="232"/>
+      <c r="J1" s="232"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="173" t="s">
@@ -15750,7 +15758,7 @@
       <c r="I2" s="173" t="s">
         <v>164</v>
       </c>
-      <c r="J2" s="234" t="s">
+      <c r="J2" s="173" t="s">
         <v>505</v>
       </c>
     </row>
@@ -15770,15 +15778,19 @@
       <c r="E3" s="18" t="s">
         <v>357</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="F3" s="85" t="s">
         <v>501</v>
       </c>
-      <c r="G3" s="94"/>
+      <c r="G3" s="94" t="s">
+        <v>510</v>
+      </c>
       <c r="H3" s="94"/>
       <c r="I3" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="J3" s="232"/>
+      <c r="J3" s="233" t="s">
+        <v>508</v>
+      </c>
     </row>
     <row r="4" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="178" t="s">
@@ -15804,6 +15816,7 @@
       </c>
       <c r="H4" s="94"/>
       <c r="I4" s="91"/>
+      <c r="J4" s="91"/>
     </row>
     <row r="5" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="178" t="s">
@@ -15829,6 +15842,7 @@
       </c>
       <c r="H5" s="94"/>
       <c r="I5" s="91"/>
+      <c r="J5" s="91"/>
     </row>
     <row r="6" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="178" t="s">
@@ -15856,6 +15870,7 @@
         <v>473</v>
       </c>
       <c r="I6" s="91"/>
+      <c r="J6" s="91"/>
     </row>
     <row r="7" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="178" t="s">
@@ -15881,6 +15896,7 @@
       </c>
       <c r="H7" s="94"/>
       <c r="I7" s="91"/>
+      <c r="J7" s="91"/>
     </row>
     <row r="8" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="178" t="s">
@@ -15906,6 +15922,7 @@
       </c>
       <c r="H8" s="94"/>
       <c r="I8" s="91"/>
+      <c r="J8" s="91"/>
     </row>
     <row r="9" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="178" t="s">
@@ -15923,15 +15940,19 @@
       <c r="E9" s="18" t="s">
         <v>380</v>
       </c>
-      <c r="F9" s="235" t="s">
+      <c r="F9" s="29" t="s">
         <v>500</v>
       </c>
-      <c r="G9" s="94"/>
+      <c r="G9" s="94">
+        <v>16</v>
+      </c>
       <c r="H9" s="94"/>
       <c r="I9" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="J9" s="233"/>
+      <c r="J9" s="234" t="s">
+        <v>507</v>
+      </c>
     </row>
     <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="178" t="s">
@@ -15957,6 +15978,7 @@
       </c>
       <c r="H10" s="94"/>
       <c r="I10" s="91"/>
+      <c r="J10" s="91"/>
     </row>
     <row r="11" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="178" t="s">
@@ -15982,6 +16004,7 @@
       </c>
       <c r="H11" s="94"/>
       <c r="I11" s="91"/>
+      <c r="J11" s="91"/>
     </row>
     <row r="12" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="178" t="s">
@@ -15999,15 +16022,19 @@
       <c r="E12" s="18" t="s">
         <v>392</v>
       </c>
-      <c r="F12" s="177" t="s">
+      <c r="F12" s="29" t="s">
         <v>499</v>
       </c>
-      <c r="G12" s="94"/>
+      <c r="G12" s="94">
+        <v>8</v>
+      </c>
       <c r="H12" s="94"/>
       <c r="I12" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="J12" s="232"/>
+      <c r="J12" s="235" t="s">
+        <v>509</v>
+      </c>
     </row>
     <row r="13" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="178" t="s">
@@ -16033,6 +16060,7 @@
       </c>
       <c r="H13" s="94"/>
       <c r="I13" s="91"/>
+      <c r="J13" s="91"/>
     </row>
     <row r="14" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="178" t="s">
@@ -16058,6 +16086,7 @@
       </c>
       <c r="H14" s="94"/>
       <c r="I14" s="91"/>
+      <c r="J14" s="91"/>
     </row>
     <row r="15" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="178" t="s">
@@ -16083,6 +16112,7 @@
       </c>
       <c r="H15" s="94"/>
       <c r="I15" s="91"/>
+      <c r="J15" s="91"/>
     </row>
     <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="178" t="s">
@@ -16108,6 +16138,7 @@
       </c>
       <c r="H16" s="94"/>
       <c r="I16" s="91"/>
+      <c r="J16" s="91"/>
     </row>
     <row r="17" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="178" t="s">
@@ -16135,7 +16166,7 @@
       <c r="I17" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="J17" s="233"/>
+      <c r="J17" s="234"/>
     </row>
     <row r="18" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="178" t="s">
@@ -16161,6 +16192,7 @@
       </c>
       <c r="H18" s="94"/>
       <c r="I18" s="91"/>
+      <c r="J18" s="91"/>
     </row>
     <row r="19" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="178" t="s">
@@ -16178,7 +16210,7 @@
       <c r="E19" s="18" t="s">
         <v>418</v>
       </c>
-      <c r="F19" s="85" t="s">
+      <c r="F19" s="179" t="s">
         <v>497</v>
       </c>
       <c r="G19" s="94"/>
@@ -16186,7 +16218,9 @@
       <c r="I19" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="J19" s="232"/>
+      <c r="J19" s="235" t="s">
+        <v>509</v>
+      </c>
     </row>
     <row r="20" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="178" t="s">
@@ -16212,6 +16246,7 @@
       </c>
       <c r="H20" s="94"/>
       <c r="I20" s="91"/>
+      <c r="J20" s="91"/>
     </row>
     <row r="21" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="178" t="s">
@@ -16229,15 +16264,19 @@
       <c r="E21" s="18" t="s">
         <v>424</v>
       </c>
-      <c r="F21" s="29" t="s">
+      <c r="F21" s="98" t="s">
         <v>496</v>
       </c>
-      <c r="G21" s="94"/>
+      <c r="G21" s="94">
+        <v>15</v>
+      </c>
       <c r="H21" s="94"/>
       <c r="I21" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="J21" s="233"/>
+      <c r="J21" s="234" t="s">
+        <v>507</v>
+      </c>
     </row>
     <row r="22" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="178" t="s">
@@ -16263,6 +16302,7 @@
       </c>
       <c r="H22" s="94"/>
       <c r="I22" s="91"/>
+      <c r="J22" s="91"/>
     </row>
     <row r="23" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="178" t="s">
@@ -16288,6 +16328,7 @@
       </c>
       <c r="H23" s="94"/>
       <c r="I23" s="91"/>
+      <c r="J23" s="91"/>
     </row>
     <row r="24" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="178" t="s">
@@ -16315,7 +16356,7 @@
       <c r="I24" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="J24" s="233"/>
+      <c r="J24" s="234"/>
     </row>
     <row r="25" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="178" t="s">
@@ -16333,15 +16374,19 @@
       <c r="E25" s="18" t="s">
         <v>441</v>
       </c>
-      <c r="F25" s="235" t="s">
+      <c r="F25" s="29" t="s">
         <v>494</v>
       </c>
-      <c r="G25" s="94"/>
+      <c r="G25" s="94">
+        <v>27</v>
+      </c>
       <c r="H25" s="94"/>
       <c r="I25" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="J25" s="233"/>
+      <c r="J25" s="234" t="s">
+        <v>507</v>
+      </c>
     </row>
     <row r="26" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="178" t="s">
@@ -16367,6 +16412,7 @@
       </c>
       <c r="H26" s="94"/>
       <c r="I26" s="91"/>
+      <c r="J26" s="91"/>
     </row>
     <row r="27" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="178" t="s">
@@ -16392,6 +16438,7 @@
       </c>
       <c r="H27" s="94"/>
       <c r="I27" s="91"/>
+      <c r="J27" s="91"/>
     </row>
     <row r="28" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="178" t="s">
@@ -16417,6 +16464,7 @@
       </c>
       <c r="H28" s="94"/>
       <c r="I28" s="91"/>
+      <c r="J28" s="91"/>
     </row>
     <row r="29" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="178" t="s">
@@ -16444,7 +16492,7 @@
       <c r="I29" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="J29" s="233"/>
+      <c r="J29" s="234"/>
     </row>
     <row r="30" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="178" t="s">
@@ -16470,6 +16518,7 @@
       </c>
       <c r="H30" s="94"/>
       <c r="I30" s="91"/>
+      <c r="J30" s="91"/>
     </row>
     <row r="31" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="178" t="s">
@@ -16497,10 +16546,10 @@
       <c r="I31" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="J31" s="233"/>
+      <c r="J31" s="234"/>
     </row>
     <row r="33" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E33" s="236"/>
+      <c r="E33" s="180"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Experiment01_Resumo/Resumo_Exp01.xlsx
+++ b/Experiment01_Resumo/Resumo_Exp01.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Capa" sheetId="1" r:id="rId1"/>
@@ -1769,7 +1769,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="25">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1905,12 +1905,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF99FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2363,7 +2357,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="236">
+  <cellXfs count="235">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2821,172 +2815,169 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3311,12 +3302,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="216194368"/>
-        <c:axId val="216193976"/>
+        <c:axId val="210404552"/>
+        <c:axId val="210407296"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="216194368"/>
+        <c:axId val="210404552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3408,7 +3399,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="216193976"/>
+        <c:crossAx val="210407296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3416,7 +3407,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="216193976"/>
+        <c:axId val="210407296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3467,7 +3458,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="216194368"/>
+        <c:crossAx val="210404552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3776,12 +3767,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="216195936"/>
-        <c:axId val="216200640"/>
+        <c:axId val="210406904"/>
+        <c:axId val="210405336"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="216195936"/>
+        <c:axId val="210406904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3870,7 +3861,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="216200640"/>
+        <c:crossAx val="210405336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3878,7 +3869,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="216200640"/>
+        <c:axId val="210405336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3961,7 +3952,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="216195936"/>
+        <c:crossAx val="210406904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4246,12 +4237,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="216196720"/>
-        <c:axId val="216194760"/>
+        <c:axId val="210411216"/>
+        <c:axId val="210403768"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="216196720"/>
+        <c:axId val="210411216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4340,7 +4331,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="216194760"/>
+        <c:crossAx val="210403768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4348,7 +4339,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="216194760"/>
+        <c:axId val="210403768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4431,7 +4422,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="216196720"/>
+        <c:crossAx val="210411216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5218,12 +5209,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="216197504"/>
-        <c:axId val="216197896"/>
+        <c:axId val="211879008"/>
+        <c:axId val="211879400"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="216197504"/>
+        <c:axId val="211879008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5263,7 +5254,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="216197896"/>
+        <c:crossAx val="211879400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5271,7 +5262,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="216197896"/>
+        <c:axId val="211879400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5319,7 +5310,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="216197504"/>
+        <c:crossAx val="211879008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5627,8 +5618,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="303342792"/>
-        <c:axId val="303345536"/>
+        <c:axId val="211880576"/>
+        <c:axId val="211884496"/>
         <c:axId val="0"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
@@ -5798,7 +5789,7 @@
         </c:extLst>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="303342792"/>
+        <c:axId val="211880576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5896,7 +5887,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="303345536"/>
+        <c:crossAx val="211884496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5904,7 +5895,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="303345536"/>
+        <c:axId val="211884496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5983,7 +5974,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="303342792"/>
+        <c:crossAx val="211880576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6297,8 +6288,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="303347104"/>
-        <c:axId val="303346712"/>
+        <c:axId val="211880184"/>
+        <c:axId val="211885280"/>
         <c:axId val="0"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
@@ -6468,7 +6459,7 @@
         </c:extLst>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="303347104"/>
+        <c:axId val="211880184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6566,7 +6557,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="303346712"/>
+        <c:crossAx val="211885280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6574,7 +6565,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="303346712"/>
+        <c:axId val="211885280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6653,7 +6644,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="303347104"/>
+        <c:crossAx val="211880184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10351,22 +10342,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="181" t="s">
+      <c r="A1" s="183" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="182"/>
+      <c r="B1" s="184"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="183" t="s">
+      <c r="A2" s="185" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="184"/>
+      <c r="B2" s="186"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="183" t="s">
+      <c r="A3" s="185" t="s">
         <v>96</v>
       </c>
-      <c r="B3" s="184"/>
+      <c r="B3" s="186"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -10401,10 +10392,10 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="185" t="s">
+      <c r="A8" s="187" t="s">
         <v>103</v>
       </c>
-      <c r="B8" s="186"/>
+      <c r="B8" s="188"/>
     </row>
     <row r="9" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
@@ -10494,19 +10485,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="196" t="s">
+      <c r="A1" s="198" t="s">
         <v>326</v>
       </c>
-      <c r="B1" s="196"/>
-      <c r="C1" s="196"/>
-      <c r="D1" s="196"/>
-      <c r="E1" s="196"/>
-      <c r="F1" s="196"/>
-      <c r="G1" s="196"/>
-      <c r="H1" s="196"/>
-      <c r="I1" s="196"/>
-      <c r="J1" s="196"/>
-      <c r="K1" s="196"/>
+      <c r="B1" s="198"/>
+      <c r="C1" s="198"/>
+      <c r="D1" s="198"/>
+      <c r="E1" s="198"/>
+      <c r="F1" s="198"/>
+      <c r="G1" s="198"/>
+      <c r="H1" s="198"/>
+      <c r="I1" s="198"/>
+      <c r="J1" s="198"/>
+      <c r="K1" s="198"/>
     </row>
     <row r="2" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
@@ -11228,10 +11219,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="226" t="s">
+      <c r="A1" s="229" t="s">
         <v>333</v>
       </c>
-      <c r="B1" s="227"/>
+      <c r="B1" s="230"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="79" t="s">
@@ -11299,20 +11290,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="228" t="s">
+      <c r="A1" s="231" t="s">
         <v>327</v>
       </c>
-      <c r="B1" s="228"/>
-      <c r="C1" s="228"/>
-      <c r="D1" s="228"/>
-      <c r="E1" s="228"/>
-      <c r="F1" s="228"/>
-      <c r="G1" s="228"/>
-      <c r="H1" s="228"/>
-      <c r="I1" s="228"/>
-      <c r="J1" s="228"/>
-      <c r="K1" s="228"/>
-      <c r="L1" s="228"/>
+      <c r="B1" s="231"/>
+      <c r="C1" s="231"/>
+      <c r="D1" s="231"/>
+      <c r="E1" s="231"/>
+      <c r="F1" s="231"/>
+      <c r="G1" s="231"/>
+      <c r="H1" s="231"/>
+      <c r="I1" s="231"/>
+      <c r="J1" s="231"/>
+      <c r="K1" s="231"/>
+      <c r="L1" s="231"/>
     </row>
     <row r="2" spans="1:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="142" t="s">
@@ -12031,15 +12022,15 @@
     </row>
     <row r="26" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="134"/>
-      <c r="B26" s="229" t="s">
+      <c r="B26" s="232" t="s">
         <v>334</v>
       </c>
-      <c r="C26" s="230"/>
-      <c r="D26" s="230"/>
-      <c r="E26" s="230"/>
-      <c r="F26" s="230"/>
-      <c r="G26" s="230"/>
-      <c r="H26" s="231"/>
+      <c r="C26" s="233"/>
+      <c r="D26" s="233"/>
+      <c r="E26" s="233"/>
+      <c r="F26" s="233"/>
+      <c r="G26" s="233"/>
+      <c r="H26" s="234"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="66"/>
@@ -12194,8 +12185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12205,10 +12196,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="191" t="s">
+      <c r="A1" s="193" t="s">
         <v>151</v>
       </c>
-      <c r="B1" s="192"/>
+      <c r="B1" s="194"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
@@ -12241,16 +12232,16 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="187" t="s">
+      <c r="A6" s="189" t="s">
         <v>147</v>
       </c>
-      <c r="B6" s="188"/>
+      <c r="B6" s="190"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="189" t="s">
+      <c r="A7" s="191" t="s">
         <v>150</v>
       </c>
-      <c r="B7" s="190"/>
+      <c r="B7" s="192"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
@@ -12332,16 +12323,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="193" t="s">
+      <c r="A1" s="195" t="s">
         <v>336</v>
       </c>
-      <c r="B1" s="194"/>
-      <c r="C1" s="194"/>
-      <c r="D1" s="194"/>
-      <c r="E1" s="194"/>
-      <c r="F1" s="194"/>
-      <c r="G1" s="194"/>
-      <c r="H1" s="195"/>
+      <c r="B1" s="196"/>
+      <c r="C1" s="196"/>
+      <c r="D1" s="196"/>
+      <c r="E1" s="196"/>
+      <c r="F1" s="196"/>
+      <c r="G1" s="196"/>
+      <c r="H1" s="197"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
     </row>
@@ -12711,14 +12702,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="196" t="s">
+      <c r="A1" s="198" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="196"/>
-      <c r="C1" s="196"/>
-      <c r="D1" s="196"/>
-      <c r="E1" s="196"/>
-      <c r="F1" s="196"/>
+      <c r="B1" s="198"/>
+      <c r="C1" s="198"/>
+      <c r="D1" s="198"/>
+      <c r="E1" s="198"/>
+      <c r="F1" s="198"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
@@ -13181,43 +13172,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="206" t="s">
+      <c r="A1" s="199" t="s">
         <v>230</v>
       </c>
-      <c r="B1" s="207"/>
-      <c r="C1" s="207"/>
-      <c r="D1" s="207"/>
-      <c r="E1" s="207"/>
-      <c r="F1" s="207"/>
-      <c r="G1" s="207"/>
-      <c r="H1" s="207"/>
-      <c r="I1" s="207"/>
+      <c r="B1" s="200"/>
+      <c r="C1" s="200"/>
+      <c r="D1" s="200"/>
+      <c r="E1" s="200"/>
+      <c r="F1" s="200"/>
+      <c r="G1" s="200"/>
+      <c r="H1" s="200"/>
+      <c r="I1" s="200"/>
     </row>
     <row r="2" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="205" t="s">
+      <c r="A2" s="202" t="s">
         <v>229</v>
       </c>
-      <c r="B2" s="205"/>
-      <c r="C2" s="205"/>
-      <c r="D2" s="205"/>
-      <c r="E2" s="205"/>
-      <c r="F2" s="205"/>
-      <c r="G2" s="205"/>
-      <c r="H2" s="205"/>
-      <c r="I2" s="205"/>
+      <c r="B2" s="202"/>
+      <c r="C2" s="202"/>
+      <c r="D2" s="202"/>
+      <c r="E2" s="202"/>
+      <c r="F2" s="202"/>
+      <c r="G2" s="202"/>
+      <c r="H2" s="202"/>
+      <c r="I2" s="202"/>
     </row>
     <row r="3" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="198" t="s">
+      <c r="A3" s="203" t="s">
         <v>337</v>
       </c>
-      <c r="B3" s="198"/>
-      <c r="C3" s="198"/>
-      <c r="D3" s="198"/>
-      <c r="E3" s="198"/>
-      <c r="F3" s="198"/>
-      <c r="G3" s="198"/>
-      <c r="H3" s="198"/>
-      <c r="I3" s="198"/>
+      <c r="B3" s="203"/>
+      <c r="C3" s="203"/>
+      <c r="D3" s="203"/>
+      <c r="E3" s="203"/>
+      <c r="F3" s="203"/>
+      <c r="G3" s="203"/>
+      <c r="H3" s="203"/>
+      <c r="I3" s="203"/>
       <c r="J3" s="71"/>
       <c r="K3" s="71"/>
       <c r="L3" s="71"/>
@@ -13230,12 +13221,12 @@
       <c r="S3" s="71"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="208" t="s">
+      <c r="A4" s="201" t="s">
         <v>253</v>
       </c>
-      <c r="B4" s="208"/>
-      <c r="C4" s="208"/>
-      <c r="D4" s="208"/>
+      <c r="B4" s="201"/>
+      <c r="C4" s="201"/>
+      <c r="D4" s="201"/>
     </row>
     <row r="5" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="69" t="s">
@@ -13261,7 +13252,7 @@
       <c r="C6" s="49" t="s">
         <v>196</v>
       </c>
-      <c r="D6" s="202" t="s">
+      <c r="D6" s="212" t="s">
         <v>339</v>
       </c>
       <c r="E6" t="e">
@@ -13280,7 +13271,7 @@
       <c r="C7" s="49" t="s">
         <v>228</v>
       </c>
-      <c r="D7" s="203"/>
+      <c r="D7" s="213"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="78" t="s">
@@ -13292,7 +13283,7 @@
       <c r="C8" s="49" t="s">
         <v>235</v>
       </c>
-      <c r="D8" s="203"/>
+      <c r="D8" s="213"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="78" t="s">
@@ -13304,7 +13295,7 @@
       <c r="C9" s="49" t="s">
         <v>236</v>
       </c>
-      <c r="D9" s="203"/>
+      <c r="D9" s="213"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="78" t="s">
@@ -13316,7 +13307,7 @@
       <c r="C10" s="49" t="s">
         <v>237</v>
       </c>
-      <c r="D10" s="203"/>
+      <c r="D10" s="213"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="78" t="s">
@@ -13328,7 +13319,7 @@
       <c r="C11" s="49" t="s">
         <v>237</v>
       </c>
-      <c r="D11" s="203"/>
+      <c r="D11" s="213"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="78" t="s">
@@ -13340,7 +13331,7 @@
       <c r="C12" s="49" t="s">
         <v>266</v>
       </c>
-      <c r="D12" s="203"/>
+      <c r="D12" s="213"/>
     </row>
     <row r="13" spans="1:19" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="145" t="s">
@@ -13352,7 +13343,7 @@
       <c r="C13" s="136" t="s">
         <v>273</v>
       </c>
-      <c r="D13" s="204"/>
+      <c r="D13" s="214"/>
     </row>
     <row r="14" spans="1:19" s="77" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="146" t="s">
@@ -13369,30 +13360,30 @@
       </c>
     </row>
     <row r="15" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="205" t="s">
+      <c r="A15" s="202" t="s">
         <v>261</v>
       </c>
-      <c r="B15" s="205"/>
-      <c r="C15" s="205"/>
-      <c r="D15" s="205"/>
-      <c r="E15" s="205"/>
-      <c r="F15" s="205"/>
-      <c r="G15" s="205"/>
-      <c r="H15" s="205"/>
-      <c r="I15" s="205"/>
+      <c r="B15" s="202"/>
+      <c r="C15" s="202"/>
+      <c r="D15" s="202"/>
+      <c r="E15" s="202"/>
+      <c r="F15" s="202"/>
+      <c r="G15" s="202"/>
+      <c r="H15" s="202"/>
+      <c r="I15" s="202"/>
     </row>
     <row r="16" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="198" t="s">
+      <c r="A16" s="203" t="s">
         <v>238</v>
       </c>
-      <c r="B16" s="198"/>
-      <c r="C16" s="198"/>
-      <c r="D16" s="198"/>
-      <c r="E16" s="198"/>
-      <c r="F16" s="198"/>
-      <c r="G16" s="198"/>
-      <c r="H16" s="198"/>
-      <c r="I16" s="198"/>
+      <c r="B16" s="203"/>
+      <c r="C16" s="203"/>
+      <c r="D16" s="203"/>
+      <c r="E16" s="203"/>
+      <c r="F16" s="203"/>
+      <c r="G16" s="203"/>
+      <c r="H16" s="203"/>
+      <c r="I16" s="203"/>
       <c r="J16" s="71"/>
       <c r="K16" s="71"/>
       <c r="L16" s="71"/>
@@ -13405,14 +13396,14 @@
       <c r="S16" s="71"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="208" t="s">
+      <c r="A17" s="201" t="s">
         <v>259</v>
       </c>
-      <c r="B17" s="208"/>
-      <c r="C17" s="208"/>
-      <c r="D17" s="208"/>
-      <c r="E17" s="208"/>
-      <c r="F17" s="208"/>
+      <c r="B17" s="201"/>
+      <c r="C17" s="201"/>
+      <c r="D17" s="201"/>
+      <c r="E17" s="201"/>
+      <c r="F17" s="201"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="69" t="s">
@@ -13579,30 +13570,30 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="205" t="s">
+      <c r="A25" s="202" t="s">
         <v>260</v>
       </c>
-      <c r="B25" s="205"/>
-      <c r="C25" s="205"/>
-      <c r="D25" s="205"/>
-      <c r="E25" s="205"/>
-      <c r="F25" s="205"/>
-      <c r="G25" s="205"/>
-      <c r="H25" s="205"/>
-      <c r="I25" s="205"/>
+      <c r="B25" s="202"/>
+      <c r="C25" s="202"/>
+      <c r="D25" s="202"/>
+      <c r="E25" s="202"/>
+      <c r="F25" s="202"/>
+      <c r="G25" s="202"/>
+      <c r="H25" s="202"/>
+      <c r="I25" s="202"/>
     </row>
     <row r="26" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="198" t="s">
+      <c r="A26" s="203" t="s">
         <v>338</v>
       </c>
-      <c r="B26" s="198"/>
-      <c r="C26" s="198"/>
-      <c r="D26" s="198"/>
-      <c r="E26" s="198"/>
-      <c r="F26" s="198"/>
-      <c r="G26" s="198"/>
-      <c r="H26" s="198"/>
-      <c r="I26" s="198"/>
+      <c r="B26" s="203"/>
+      <c r="C26" s="203"/>
+      <c r="D26" s="203"/>
+      <c r="E26" s="203"/>
+      <c r="F26" s="203"/>
+      <c r="G26" s="203"/>
+      <c r="H26" s="203"/>
+      <c r="I26" s="203"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="69" t="s">
@@ -13614,12 +13605,12 @@
       <c r="C27" s="69" t="s">
         <v>201</v>
       </c>
-      <c r="D27" s="212" t="s">
+      <c r="D27" s="207" t="s">
         <v>292</v>
       </c>
-      <c r="E27" s="212"/>
-      <c r="F27" s="212"/>
-      <c r="G27" s="212"/>
+      <c r="E27" s="207"/>
+      <c r="F27" s="207"/>
+      <c r="G27" s="207"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="52" t="s">
@@ -13631,12 +13622,12 @@
       <c r="C28" s="72">
         <v>0.59</v>
       </c>
-      <c r="D28" s="199" t="s">
+      <c r="D28" s="209" t="s">
         <v>285</v>
       </c>
-      <c r="E28" s="200"/>
-      <c r="F28" s="200"/>
-      <c r="G28" s="201"/>
+      <c r="E28" s="210"/>
+      <c r="F28" s="210"/>
+      <c r="G28" s="211"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="52" t="s">
@@ -13648,12 +13639,12 @@
       <c r="C29" s="72">
         <v>0.77</v>
       </c>
-      <c r="D29" s="209" t="s">
+      <c r="D29" s="204" t="s">
         <v>286</v>
       </c>
-      <c r="E29" s="210"/>
-      <c r="F29" s="210"/>
-      <c r="G29" s="211"/>
+      <c r="E29" s="205"/>
+      <c r="F29" s="205"/>
+      <c r="G29" s="206"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="52" t="s">
@@ -13665,12 +13656,12 @@
       <c r="C30" s="72">
         <v>0.41</v>
       </c>
-      <c r="D30" s="209" t="s">
+      <c r="D30" s="204" t="s">
         <v>287</v>
       </c>
-      <c r="E30" s="210"/>
-      <c r="F30" s="210"/>
-      <c r="G30" s="211"/>
+      <c r="E30" s="205"/>
+      <c r="F30" s="205"/>
+      <c r="G30" s="206"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="52" t="s">
@@ -13682,12 +13673,12 @@
       <c r="C31" s="72">
         <v>0.59</v>
       </c>
-      <c r="D31" s="209" t="s">
+      <c r="D31" s="204" t="s">
         <v>289</v>
       </c>
-      <c r="E31" s="210"/>
-      <c r="F31" s="210"/>
-      <c r="G31" s="211"/>
+      <c r="E31" s="205"/>
+      <c r="F31" s="205"/>
+      <c r="G31" s="206"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="52" t="s">
@@ -13699,12 +13690,12 @@
       <c r="C32" s="72">
         <v>0.5</v>
       </c>
-      <c r="D32" s="209" t="s">
+      <c r="D32" s="204" t="s">
         <v>288</v>
       </c>
-      <c r="E32" s="210"/>
-      <c r="F32" s="210"/>
-      <c r="G32" s="211"/>
+      <c r="E32" s="205"/>
+      <c r="F32" s="205"/>
+      <c r="G32" s="206"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="52" t="s">
@@ -13716,12 +13707,12 @@
       <c r="C33" s="72">
         <v>0.59</v>
       </c>
-      <c r="D33" s="209" t="s">
+      <c r="D33" s="204" t="s">
         <v>290</v>
       </c>
-      <c r="E33" s="210"/>
-      <c r="F33" s="210"/>
-      <c r="G33" s="211"/>
+      <c r="E33" s="205"/>
+      <c r="F33" s="205"/>
+      <c r="G33" s="206"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="52" t="s">
@@ -13733,25 +13724,25 @@
       <c r="C34" s="72">
         <v>0.54</v>
       </c>
-      <c r="D34" s="209" t="s">
+      <c r="D34" s="204" t="s">
         <v>291</v>
       </c>
-      <c r="E34" s="210"/>
-      <c r="F34" s="210"/>
-      <c r="G34" s="211"/>
+      <c r="E34" s="205"/>
+      <c r="F34" s="205"/>
+      <c r="G34" s="206"/>
     </row>
     <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="205" t="s">
+      <c r="A36" s="202" t="s">
         <v>315</v>
       </c>
-      <c r="B36" s="205"/>
-      <c r="C36" s="205"/>
-      <c r="D36" s="205"/>
-      <c r="E36" s="205"/>
-      <c r="F36" s="205"/>
-      <c r="G36" s="205"/>
-      <c r="H36" s="205"/>
-      <c r="I36" s="205"/>
+      <c r="B36" s="202"/>
+      <c r="C36" s="202"/>
+      <c r="D36" s="202"/>
+      <c r="E36" s="202"/>
+      <c r="F36" s="202"/>
+      <c r="G36" s="202"/>
+      <c r="H36" s="202"/>
+      <c r="I36" s="202"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="87" t="s">
@@ -13818,12 +13809,12 @@
       </c>
     </row>
     <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="197" t="s">
+      <c r="A46" s="208" t="s">
         <v>318</v>
       </c>
-      <c r="B46" s="197"/>
-      <c r="C46" s="197"/>
-      <c r="D46" s="197"/>
+      <c r="B46" s="208"/>
+      <c r="C46" s="208"/>
+      <c r="D46" s="208"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="88" t="s">
@@ -13974,6 +13965,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D6:D13"/>
+    <mergeCell ref="A2:I2"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A25:I25"/>
@@ -13989,11 +13985,6 @@
     <mergeCell ref="D30:G30"/>
     <mergeCell ref="D31:G31"/>
     <mergeCell ref="D32:G32"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D6:D13"/>
-    <mergeCell ref="A2:I2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14025,15 +14016,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="218" t="s">
+      <c r="A1" s="220" t="s">
         <v>347</v>
       </c>
-      <c r="B1" s="218"/>
-      <c r="C1" s="218"/>
-      <c r="D1" s="218"/>
-      <c r="E1" s="218"/>
-      <c r="F1" s="218"/>
-      <c r="G1" s="218"/>
+      <c r="B1" s="220"/>
+      <c r="C1" s="220"/>
+      <c r="D1" s="220"/>
+      <c r="E1" s="220"/>
+      <c r="F1" s="220"/>
+      <c r="G1" s="220"/>
     </row>
     <row r="2" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="158" t="s">
@@ -14057,11 +14048,11 @@
       <c r="G2" s="158" t="s">
         <v>344</v>
       </c>
-      <c r="I2" s="217" t="s">
+      <c r="I2" s="219" t="s">
         <v>197</v>
       </c>
-      <c r="J2" s="217"/>
-      <c r="K2" s="217"/>
+      <c r="J2" s="219"/>
+      <c r="K2" s="219"/>
     </row>
     <row r="3" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
@@ -14514,20 +14505,20 @@
       <c r="J22" s="115" t="s">
         <v>217</v>
       </c>
-      <c r="K22" s="219" t="s">
+      <c r="K22" s="221" t="s">
         <v>307</v>
       </c>
-      <c r="L22" s="219"/>
-      <c r="M22" s="219"/>
-      <c r="N22" s="219"/>
-      <c r="O22" s="219"/>
-      <c r="P22" s="219"/>
-      <c r="Q22" s="219"/>
-      <c r="R22" s="219"/>
-      <c r="S22" s="219"/>
-      <c r="T22" s="219"/>
-      <c r="U22" s="219"/>
-      <c r="V22" s="219"/>
+      <c r="L22" s="221"/>
+      <c r="M22" s="221"/>
+      <c r="N22" s="221"/>
+      <c r="O22" s="221"/>
+      <c r="P22" s="221"/>
+      <c r="Q22" s="221"/>
+      <c r="R22" s="221"/>
+      <c r="S22" s="221"/>
+      <c r="T22" s="221"/>
+      <c r="U22" s="221"/>
+      <c r="V22" s="221"/>
     </row>
     <row r="23" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="36" t="s">
@@ -14633,10 +14624,10 @@
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A29" s="221"/>
-      <c r="B29" s="222"/>
-      <c r="C29" s="222"/>
-      <c r="D29" s="223"/>
+      <c r="A29" s="223"/>
+      <c r="B29" s="224"/>
+      <c r="C29" s="224"/>
+      <c r="D29" s="225"/>
       <c r="I29" s="43" t="s">
         <v>187</v>
       </c>
@@ -14653,10 +14644,10 @@
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A31" s="224" t="s">
+      <c r="A31" s="226" t="s">
         <v>181</v>
       </c>
-      <c r="B31" s="225"/>
+      <c r="B31" s="227"/>
       <c r="C31" s="68"/>
       <c r="I31" s="43" t="s">
         <v>189</v>
@@ -14678,20 +14669,20 @@
       <c r="J32" s="116" t="s">
         <v>308</v>
       </c>
-      <c r="K32" s="220" t="s">
+      <c r="K32" s="222" t="s">
         <v>306</v>
       </c>
-      <c r="L32" s="220"/>
-      <c r="M32" s="220"/>
-      <c r="N32" s="220"/>
-      <c r="O32" s="220"/>
-      <c r="P32" s="220"/>
-      <c r="Q32" s="220"/>
-      <c r="R32" s="220"/>
-      <c r="S32" s="220"/>
-      <c r="T32" s="220"/>
-      <c r="U32" s="220"/>
-      <c r="V32" s="220"/>
+      <c r="L32" s="222"/>
+      <c r="M32" s="222"/>
+      <c r="N32" s="222"/>
+      <c r="O32" s="222"/>
+      <c r="P32" s="222"/>
+      <c r="Q32" s="222"/>
+      <c r="R32" s="222"/>
+      <c r="S32" s="222"/>
+      <c r="T32" s="222"/>
+      <c r="U32" s="222"/>
+      <c r="V32" s="222"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="84" t="s">
@@ -14724,10 +14715,10 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="213" t="s">
+      <c r="A35" s="215" t="s">
         <v>184</v>
       </c>
-      <c r="B35" s="215" t="s">
+      <c r="B35" s="217" t="s">
         <v>219</v>
       </c>
       <c r="D35" s="90"/>
@@ -14737,8 +14728,8 @@
       <c r="J35" s="41"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="214"/>
-      <c r="B36" s="216"/>
+      <c r="A36" s="216"/>
+      <c r="B36" s="218"/>
       <c r="D36" s="90"/>
       <c r="I36" s="105" t="s">
         <v>296</v>
@@ -14857,15 +14848,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="218" t="s">
+      <c r="A1" s="220" t="s">
         <v>347</v>
       </c>
-      <c r="B1" s="218"/>
-      <c r="C1" s="218"/>
-      <c r="D1" s="218"/>
-      <c r="E1" s="218"/>
-      <c r="F1" s="218"/>
-      <c r="G1" s="218"/>
+      <c r="B1" s="220"/>
+      <c r="C1" s="220"/>
+      <c r="D1" s="220"/>
+      <c r="E1" s="220"/>
+      <c r="F1" s="220"/>
+      <c r="G1" s="220"/>
     </row>
     <row r="2" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="158" t="s">
@@ -14889,11 +14880,11 @@
       <c r="G2" s="158" t="s">
         <v>344</v>
       </c>
-      <c r="I2" s="217" t="s">
+      <c r="I2" s="219" t="s">
         <v>197</v>
       </c>
-      <c r="J2" s="217"/>
-      <c r="K2" s="217"/>
+      <c r="J2" s="219"/>
+      <c r="K2" s="219"/>
       <c r="O2" s="170" t="s">
         <v>351</v>
       </c>
@@ -15394,20 +15385,20 @@
       <c r="J22" s="115" t="s">
         <v>217</v>
       </c>
-      <c r="K22" s="219" t="s">
+      <c r="K22" s="221" t="s">
         <v>307</v>
       </c>
-      <c r="L22" s="219"/>
-      <c r="M22" s="219"/>
-      <c r="N22" s="219"/>
-      <c r="O22" s="219"/>
-      <c r="P22" s="219"/>
-      <c r="Q22" s="219"/>
-      <c r="R22" s="219"/>
-      <c r="S22" s="219"/>
-      <c r="T22" s="219"/>
-      <c r="U22" s="219"/>
-      <c r="V22" s="219"/>
+      <c r="L22" s="221"/>
+      <c r="M22" s="221"/>
+      <c r="N22" s="221"/>
+      <c r="O22" s="221"/>
+      <c r="P22" s="221"/>
+      <c r="Q22" s="221"/>
+      <c r="R22" s="221"/>
+      <c r="S22" s="221"/>
+      <c r="T22" s="221"/>
+      <c r="U22" s="221"/>
+      <c r="V22" s="221"/>
     </row>
     <row r="23" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="36" t="s">
@@ -15513,10 +15504,10 @@
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A29" s="221"/>
-      <c r="B29" s="222"/>
-      <c r="C29" s="222"/>
-      <c r="D29" s="223"/>
+      <c r="A29" s="223"/>
+      <c r="B29" s="224"/>
+      <c r="C29" s="224"/>
+      <c r="D29" s="225"/>
       <c r="I29" s="43" t="s">
         <v>187</v>
       </c>
@@ -15533,10 +15524,10 @@
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A31" s="224" t="s">
+      <c r="A31" s="226" t="s">
         <v>181</v>
       </c>
-      <c r="B31" s="225"/>
+      <c r="B31" s="227"/>
       <c r="C31" s="68"/>
       <c r="I31" s="43" t="s">
         <v>189</v>
@@ -15558,20 +15549,20 @@
       <c r="J32" s="116" t="s">
         <v>308</v>
       </c>
-      <c r="K32" s="220" t="s">
+      <c r="K32" s="222" t="s">
         <v>306</v>
       </c>
-      <c r="L32" s="220"/>
-      <c r="M32" s="220"/>
-      <c r="N32" s="220"/>
-      <c r="O32" s="220"/>
-      <c r="P32" s="220"/>
-      <c r="Q32" s="220"/>
-      <c r="R32" s="220"/>
-      <c r="S32" s="220"/>
-      <c r="T32" s="220"/>
-      <c r="U32" s="220"/>
-      <c r="V32" s="220"/>
+      <c r="L32" s="222"/>
+      <c r="M32" s="222"/>
+      <c r="N32" s="222"/>
+      <c r="O32" s="222"/>
+      <c r="P32" s="222"/>
+      <c r="Q32" s="222"/>
+      <c r="R32" s="222"/>
+      <c r="S32" s="222"/>
+      <c r="T32" s="222"/>
+      <c r="U32" s="222"/>
+      <c r="V32" s="222"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="84" t="s">
@@ -15602,10 +15593,10 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="213" t="s">
+      <c r="A35" s="215" t="s">
         <v>184</v>
       </c>
-      <c r="B35" s="215" t="s">
+      <c r="B35" s="217" t="s">
         <v>219</v>
       </c>
       <c r="I35" s="43" t="s">
@@ -15614,8 +15605,8 @@
       <c r="J35" s="41"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="214"/>
-      <c r="B36" s="216"/>
+      <c r="A36" s="216"/>
+      <c r="B36" s="218"/>
       <c r="I36" s="105" t="s">
         <v>296</v>
       </c>
@@ -15701,8 +15692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15717,18 +15708,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="232" t="s">
+      <c r="A1" s="228" t="s">
         <v>464</v>
       </c>
-      <c r="B1" s="232"/>
-      <c r="C1" s="232"/>
-      <c r="D1" s="232"/>
-      <c r="E1" s="232"/>
-      <c r="F1" s="232"/>
-      <c r="G1" s="232"/>
-      <c r="H1" s="232"/>
-      <c r="I1" s="232"/>
-      <c r="J1" s="232"/>
+      <c r="B1" s="228"/>
+      <c r="C1" s="228"/>
+      <c r="D1" s="228"/>
+      <c r="E1" s="228"/>
+      <c r="F1" s="228"/>
+      <c r="G1" s="228"/>
+      <c r="H1" s="228"/>
+      <c r="I1" s="228"/>
+      <c r="J1" s="228"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="173" t="s">
@@ -15788,7 +15779,7 @@
       <c r="I3" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="J3" s="233" t="s">
+      <c r="J3" s="180" t="s">
         <v>508</v>
       </c>
     </row>
@@ -15950,7 +15941,7 @@
       <c r="I9" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="J9" s="234" t="s">
+      <c r="J9" s="181" t="s">
         <v>507</v>
       </c>
     </row>
@@ -16032,7 +16023,7 @@
       <c r="I12" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="J12" s="235" t="s">
+      <c r="J12" s="182" t="s">
         <v>509</v>
       </c>
     </row>
@@ -16166,7 +16157,7 @@
       <c r="I17" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="J17" s="234"/>
+      <c r="J17" s="181"/>
     </row>
     <row r="18" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="178" t="s">
@@ -16210,7 +16201,7 @@
       <c r="E19" s="18" t="s">
         <v>418</v>
       </c>
-      <c r="F19" s="179" t="s">
+      <c r="F19" s="29" t="s">
         <v>497</v>
       </c>
       <c r="G19" s="94"/>
@@ -16218,7 +16209,7 @@
       <c r="I19" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="J19" s="235" t="s">
+      <c r="J19" s="182" t="s">
         <v>509</v>
       </c>
     </row>
@@ -16274,7 +16265,7 @@
       <c r="I21" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="J21" s="234" t="s">
+      <c r="J21" s="181" t="s">
         <v>507</v>
       </c>
     </row>
@@ -16356,7 +16347,7 @@
       <c r="I24" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="J24" s="234"/>
+      <c r="J24" s="181"/>
     </row>
     <row r="25" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="178" t="s">
@@ -16384,7 +16375,7 @@
       <c r="I25" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="J25" s="234" t="s">
+      <c r="J25" s="181" t="s">
         <v>507</v>
       </c>
     </row>
@@ -16492,7 +16483,7 @@
       <c r="I29" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="J29" s="234"/>
+      <c r="J29" s="181"/>
     </row>
     <row r="30" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="178" t="s">
@@ -16546,10 +16537,10 @@
       <c r="I31" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="J31" s="234"/>
+      <c r="J31" s="181"/>
     </row>
     <row r="33" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E33" s="180"/>
+      <c r="E33" s="179"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Experiment01_Resumo/Resumo_Exp01.xlsx
+++ b/Experiment01_Resumo/Resumo_Exp01.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635"/>
   </bookViews>
   <sheets>
     <sheet name="Capa" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="526">
   <si>
     <t>Database search</t>
   </si>
@@ -1671,6 +1671,51 @@
   </si>
   <si>
     <t>?</t>
+  </si>
+  <si>
+    <t>petersen2015a</t>
+  </si>
+  <si>
+    <t>barreto2010a</t>
+  </si>
+  <si>
+    <t>trienekens2009a</t>
+  </si>
+  <si>
+    <t>basili2010a</t>
+  </si>
+  <si>
+    <t>sommerville1999a</t>
+  </si>
+  <si>
+    <t>wang2005a</t>
+  </si>
+  <si>
+    <t>plösch2011a</t>
+  </si>
+  <si>
+    <t>mandić2010a</t>
+  </si>
+  <si>
+    <t>trienekens2005a</t>
+  </si>
+  <si>
+    <t>esfahani2011a</t>
+  </si>
+  <si>
+    <t>becker2008b</t>
+  </si>
+  <si>
+    <t>oConnor2015a</t>
+  </si>
+  <si>
+    <t>kautz2000a</t>
+  </si>
+  <si>
+    <t>mandić2010b</t>
+  </si>
+  <si>
+    <t>Análise da quantidade de seed set por biblioteca digital</t>
   </si>
 </sst>
 </file>
@@ -2357,7 +2402,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="235">
+  <cellXfs count="236">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2871,6 +2916,33 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2880,12 +2952,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2898,27 +2964,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2978,6 +3023,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3302,12 +3350,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="210404552"/>
-        <c:axId val="210407296"/>
+        <c:axId val="206411768"/>
+        <c:axId val="206408240"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="210404552"/>
+        <c:axId val="206411768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3399,7 +3447,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="210407296"/>
+        <c:crossAx val="206408240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3407,7 +3455,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="210407296"/>
+        <c:axId val="206408240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3458,7 +3506,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="210404552"/>
+        <c:crossAx val="206411768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3767,12 +3815,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="210406904"/>
-        <c:axId val="210405336"/>
+        <c:axId val="206409808"/>
+        <c:axId val="206410984"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="210406904"/>
+        <c:axId val="206409808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3861,7 +3909,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="210405336"/>
+        <c:crossAx val="206410984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3869,7 +3917,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="210405336"/>
+        <c:axId val="206410984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3952,7 +4000,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="210406904"/>
+        <c:crossAx val="206409808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4237,12 +4285,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="210411216"/>
-        <c:axId val="210403768"/>
+        <c:axId val="206409024"/>
+        <c:axId val="209227736"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="210411216"/>
+        <c:axId val="206409024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4331,7 +4379,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="210403768"/>
+        <c:crossAx val="209227736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4339,7 +4387,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="210403768"/>
+        <c:axId val="209227736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4422,7 +4470,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="210411216"/>
+        <c:crossAx val="206409024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5209,12 +5257,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="211879008"/>
-        <c:axId val="211879400"/>
+        <c:axId val="209229304"/>
+        <c:axId val="209225776"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="211879008"/>
+        <c:axId val="209229304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5254,7 +5302,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="211879400"/>
+        <c:crossAx val="209225776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5262,7 +5310,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="211879400"/>
+        <c:axId val="209225776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5310,7 +5358,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="211879008"/>
+        <c:crossAx val="209229304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5618,8 +5666,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="211880576"/>
-        <c:axId val="211884496"/>
+        <c:axId val="209226168"/>
+        <c:axId val="209226952"/>
         <c:axId val="0"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
@@ -5789,7 +5837,7 @@
         </c:extLst>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="211880576"/>
+        <c:axId val="209226168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5887,7 +5935,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="211884496"/>
+        <c:crossAx val="209226952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5895,7 +5943,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="211884496"/>
+        <c:axId val="209226952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5974,7 +6022,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="211880576"/>
+        <c:crossAx val="209226168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6288,8 +6336,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="211880184"/>
-        <c:axId val="211885280"/>
+        <c:axId val="209223424"/>
+        <c:axId val="209229696"/>
         <c:axId val="0"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
@@ -6459,7 +6507,7 @@
         </c:extLst>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="211880184"/>
+        <c:axId val="209223424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6557,7 +6605,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="211885280"/>
+        <c:crossAx val="209229696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6565,7 +6613,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="211885280"/>
+        <c:axId val="209229696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6644,7 +6692,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="211880184"/>
+        <c:crossAx val="209223424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10331,7 +10379,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -11208,7 +11256,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -12688,7 +12736,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12698,7 +12746,7 @@
     <col min="3" max="3" width="57.140625" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" style="3" customWidth="1"/>
     <col min="5" max="5" width="41.5703125" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" style="81" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
@@ -12747,7 +12795,7 @@
       <c r="E3" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="91" t="s">
+      <c r="F3" s="48" t="s">
         <v>502</v>
       </c>
     </row>
@@ -12767,7 +12815,7 @@
       <c r="E4" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="F4" s="91" t="s">
+      <c r="F4" s="48" t="s">
         <v>209</v>
       </c>
     </row>
@@ -12787,7 +12835,7 @@
       <c r="E5" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="F5" s="91" t="s">
+      <c r="F5" s="48" t="s">
         <v>210</v>
       </c>
     </row>
@@ -12807,7 +12855,9 @@
       <c r="E6" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="F6" s="91"/>
+      <c r="F6" s="48" t="s">
+        <v>511</v>
+      </c>
     </row>
     <row r="7" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="132" t="s">
@@ -12825,7 +12875,9 @@
       <c r="E7" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="F7" s="91"/>
+      <c r="F7" s="48" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="8" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="132" t="s">
@@ -12843,7 +12895,9 @@
       <c r="E8" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="F8" s="91"/>
+      <c r="F8" s="48" t="s">
+        <v>512</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="132" t="s">
@@ -12861,7 +12915,9 @@
       <c r="E9" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="F9" s="91"/>
+      <c r="F9" s="48" t="s">
+        <v>513</v>
+      </c>
     </row>
     <row r="10" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="132" t="s">
@@ -12879,7 +12935,9 @@
       <c r="E10" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="F10" s="91"/>
+      <c r="F10" s="48" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="132" t="s">
@@ -12897,7 +12955,9 @@
       <c r="E11" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="F11" s="91"/>
+      <c r="F11" s="48" t="s">
+        <v>514</v>
+      </c>
     </row>
     <row r="12" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="132" t="s">
@@ -12915,7 +12975,9 @@
       <c r="E12" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="F12" s="91"/>
+      <c r="F12" s="48" t="s">
+        <v>515</v>
+      </c>
     </row>
     <row r="13" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="132" t="s">
@@ -12933,7 +12995,9 @@
       <c r="E13" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="F13" s="91"/>
+      <c r="F13" s="48" t="s">
+        <v>516</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="132" t="s">
@@ -12951,7 +13015,9 @@
       <c r="E14" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="F14" s="91"/>
+      <c r="F14" s="48" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="15" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="132" t="s">
@@ -12969,7 +13035,9 @@
       <c r="E15" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="F15" s="91"/>
+      <c r="F15" s="48" t="s">
+        <v>517</v>
+      </c>
     </row>
     <row r="16" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="132" t="s">
@@ -12987,7 +13055,9 @@
       <c r="E16" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="F16" s="91"/>
+      <c r="F16" s="48" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="17" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="132" t="s">
@@ -13005,7 +13075,9 @@
       <c r="E17" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="F17" s="91"/>
+      <c r="F17" s="48" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="18" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="132" t="s">
@@ -13023,7 +13095,9 @@
       <c r="E18" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="F18" s="91"/>
+      <c r="F18" s="48" t="s">
+        <v>518</v>
+      </c>
     </row>
     <row r="19" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="132" t="s">
@@ -13041,7 +13115,9 @@
       <c r="E19" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="F19" s="91"/>
+      <c r="F19" s="48" t="s">
+        <v>519</v>
+      </c>
     </row>
     <row r="20" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="132" t="s">
@@ -13059,7 +13135,9 @@
       <c r="E20" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="F20" s="91"/>
+      <c r="F20" s="48" t="s">
+        <v>520</v>
+      </c>
     </row>
     <row r="21" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="132" t="s">
@@ -13077,7 +13155,9 @@
       <c r="E21" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="F21" s="91"/>
+      <c r="F21" s="48" t="s">
+        <v>521</v>
+      </c>
     </row>
     <row r="22" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="132" t="s">
@@ -13095,7 +13175,9 @@
       <c r="E22" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="F22" s="91"/>
+      <c r="F22" s="48" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="23" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="132" t="s">
@@ -13113,7 +13195,9 @@
       <c r="E23" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="F23" s="91"/>
+      <c r="F23" s="48" t="s">
+        <v>523</v>
+      </c>
     </row>
     <row r="24" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="132" t="s">
@@ -13131,7 +13215,9 @@
       <c r="E24" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="F24" s="91"/>
+      <c r="F24" s="48" t="s">
+        <v>524</v>
+      </c>
     </row>
     <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="144" t="s">
@@ -13172,43 +13258,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="199" t="s">
+      <c r="A1" s="208" t="s">
         <v>230</v>
       </c>
-      <c r="B1" s="200"/>
-      <c r="C1" s="200"/>
-      <c r="D1" s="200"/>
-      <c r="E1" s="200"/>
-      <c r="F1" s="200"/>
-      <c r="G1" s="200"/>
-      <c r="H1" s="200"/>
-      <c r="I1" s="200"/>
+      <c r="B1" s="209"/>
+      <c r="C1" s="209"/>
+      <c r="D1" s="209"/>
+      <c r="E1" s="209"/>
+      <c r="F1" s="209"/>
+      <c r="G1" s="209"/>
+      <c r="H1" s="209"/>
+      <c r="I1" s="209"/>
     </row>
     <row r="2" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="202" t="s">
+      <c r="A2" s="207" t="s">
         <v>229</v>
       </c>
-      <c r="B2" s="202"/>
-      <c r="C2" s="202"/>
-      <c r="D2" s="202"/>
-      <c r="E2" s="202"/>
-      <c r="F2" s="202"/>
-      <c r="G2" s="202"/>
-      <c r="H2" s="202"/>
-      <c r="I2" s="202"/>
+      <c r="B2" s="207"/>
+      <c r="C2" s="207"/>
+      <c r="D2" s="207"/>
+      <c r="E2" s="207"/>
+      <c r="F2" s="207"/>
+      <c r="G2" s="207"/>
+      <c r="H2" s="207"/>
+      <c r="I2" s="207"/>
     </row>
     <row r="3" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="203" t="s">
+      <c r="A3" s="200" t="s">
         <v>337</v>
       </c>
-      <c r="B3" s="203"/>
-      <c r="C3" s="203"/>
-      <c r="D3" s="203"/>
-      <c r="E3" s="203"/>
-      <c r="F3" s="203"/>
-      <c r="G3" s="203"/>
-      <c r="H3" s="203"/>
-      <c r="I3" s="203"/>
+      <c r="B3" s="200"/>
+      <c r="C3" s="200"/>
+      <c r="D3" s="200"/>
+      <c r="E3" s="200"/>
+      <c r="F3" s="200"/>
+      <c r="G3" s="200"/>
+      <c r="H3" s="200"/>
+      <c r="I3" s="200"/>
       <c r="J3" s="71"/>
       <c r="K3" s="71"/>
       <c r="L3" s="71"/>
@@ -13221,12 +13307,12 @@
       <c r="S3" s="71"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="201" t="s">
+      <c r="A4" s="210" t="s">
         <v>253</v>
       </c>
-      <c r="B4" s="201"/>
-      <c r="C4" s="201"/>
-      <c r="D4" s="201"/>
+      <c r="B4" s="210"/>
+      <c r="C4" s="210"/>
+      <c r="D4" s="210"/>
     </row>
     <row r="5" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="69" t="s">
@@ -13252,7 +13338,7 @@
       <c r="C6" s="49" t="s">
         <v>196</v>
       </c>
-      <c r="D6" s="212" t="s">
+      <c r="D6" s="204" t="s">
         <v>339</v>
       </c>
       <c r="E6" t="e">
@@ -13271,7 +13357,7 @@
       <c r="C7" s="49" t="s">
         <v>228</v>
       </c>
-      <c r="D7" s="213"/>
+      <c r="D7" s="205"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="78" t="s">
@@ -13283,7 +13369,7 @@
       <c r="C8" s="49" t="s">
         <v>235</v>
       </c>
-      <c r="D8" s="213"/>
+      <c r="D8" s="205"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="78" t="s">
@@ -13295,7 +13381,7 @@
       <c r="C9" s="49" t="s">
         <v>236</v>
       </c>
-      <c r="D9" s="213"/>
+      <c r="D9" s="205"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="78" t="s">
@@ -13307,7 +13393,7 @@
       <c r="C10" s="49" t="s">
         <v>237</v>
       </c>
-      <c r="D10" s="213"/>
+      <c r="D10" s="205"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="78" t="s">
@@ -13319,7 +13405,7 @@
       <c r="C11" s="49" t="s">
         <v>237</v>
       </c>
-      <c r="D11" s="213"/>
+      <c r="D11" s="205"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="78" t="s">
@@ -13331,7 +13417,7 @@
       <c r="C12" s="49" t="s">
         <v>266</v>
       </c>
-      <c r="D12" s="213"/>
+      <c r="D12" s="205"/>
     </row>
     <row r="13" spans="1:19" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="145" t="s">
@@ -13343,7 +13429,7 @@
       <c r="C13" s="136" t="s">
         <v>273</v>
       </c>
-      <c r="D13" s="214"/>
+      <c r="D13" s="206"/>
     </row>
     <row r="14" spans="1:19" s="77" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="146" t="s">
@@ -13360,30 +13446,30 @@
       </c>
     </row>
     <row r="15" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="202" t="s">
+      <c r="A15" s="207" t="s">
         <v>261</v>
       </c>
-      <c r="B15" s="202"/>
-      <c r="C15" s="202"/>
-      <c r="D15" s="202"/>
-      <c r="E15" s="202"/>
-      <c r="F15" s="202"/>
-      <c r="G15" s="202"/>
-      <c r="H15" s="202"/>
-      <c r="I15" s="202"/>
+      <c r="B15" s="207"/>
+      <c r="C15" s="207"/>
+      <c r="D15" s="207"/>
+      <c r="E15" s="207"/>
+      <c r="F15" s="207"/>
+      <c r="G15" s="207"/>
+      <c r="H15" s="207"/>
+      <c r="I15" s="207"/>
     </row>
     <row r="16" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="203" t="s">
+      <c r="A16" s="200" t="s">
         <v>238</v>
       </c>
-      <c r="B16" s="203"/>
-      <c r="C16" s="203"/>
-      <c r="D16" s="203"/>
-      <c r="E16" s="203"/>
-      <c r="F16" s="203"/>
-      <c r="G16" s="203"/>
-      <c r="H16" s="203"/>
-      <c r="I16" s="203"/>
+      <c r="B16" s="200"/>
+      <c r="C16" s="200"/>
+      <c r="D16" s="200"/>
+      <c r="E16" s="200"/>
+      <c r="F16" s="200"/>
+      <c r="G16" s="200"/>
+      <c r="H16" s="200"/>
+      <c r="I16" s="200"/>
       <c r="J16" s="71"/>
       <c r="K16" s="71"/>
       <c r="L16" s="71"/>
@@ -13396,14 +13482,14 @@
       <c r="S16" s="71"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="201" t="s">
+      <c r="A17" s="210" t="s">
         <v>259</v>
       </c>
-      <c r="B17" s="201"/>
-      <c r="C17" s="201"/>
-      <c r="D17" s="201"/>
-      <c r="E17" s="201"/>
-      <c r="F17" s="201"/>
+      <c r="B17" s="210"/>
+      <c r="C17" s="210"/>
+      <c r="D17" s="210"/>
+      <c r="E17" s="210"/>
+      <c r="F17" s="210"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="69" t="s">
@@ -13570,30 +13656,30 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="202" t="s">
+      <c r="A25" s="207" t="s">
         <v>260</v>
       </c>
-      <c r="B25" s="202"/>
-      <c r="C25" s="202"/>
-      <c r="D25" s="202"/>
-      <c r="E25" s="202"/>
-      <c r="F25" s="202"/>
-      <c r="G25" s="202"/>
-      <c r="H25" s="202"/>
-      <c r="I25" s="202"/>
+      <c r="B25" s="207"/>
+      <c r="C25" s="207"/>
+      <c r="D25" s="207"/>
+      <c r="E25" s="207"/>
+      <c r="F25" s="207"/>
+      <c r="G25" s="207"/>
+      <c r="H25" s="207"/>
+      <c r="I25" s="207"/>
     </row>
     <row r="26" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="203" t="s">
+      <c r="A26" s="200" t="s">
         <v>338</v>
       </c>
-      <c r="B26" s="203"/>
-      <c r="C26" s="203"/>
-      <c r="D26" s="203"/>
-      <c r="E26" s="203"/>
-      <c r="F26" s="203"/>
-      <c r="G26" s="203"/>
-      <c r="H26" s="203"/>
-      <c r="I26" s="203"/>
+      <c r="B26" s="200"/>
+      <c r="C26" s="200"/>
+      <c r="D26" s="200"/>
+      <c r="E26" s="200"/>
+      <c r="F26" s="200"/>
+      <c r="G26" s="200"/>
+      <c r="H26" s="200"/>
+      <c r="I26" s="200"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="69" t="s">
@@ -13605,12 +13691,12 @@
       <c r="C27" s="69" t="s">
         <v>201</v>
       </c>
-      <c r="D27" s="207" t="s">
+      <c r="D27" s="214" t="s">
         <v>292</v>
       </c>
-      <c r="E27" s="207"/>
-      <c r="F27" s="207"/>
-      <c r="G27" s="207"/>
+      <c r="E27" s="214"/>
+      <c r="F27" s="214"/>
+      <c r="G27" s="214"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="52" t="s">
@@ -13622,12 +13708,12 @@
       <c r="C28" s="72">
         <v>0.59</v>
       </c>
-      <c r="D28" s="209" t="s">
+      <c r="D28" s="201" t="s">
         <v>285</v>
       </c>
-      <c r="E28" s="210"/>
-      <c r="F28" s="210"/>
-      <c r="G28" s="211"/>
+      <c r="E28" s="202"/>
+      <c r="F28" s="202"/>
+      <c r="G28" s="203"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="52" t="s">
@@ -13639,12 +13725,12 @@
       <c r="C29" s="72">
         <v>0.77</v>
       </c>
-      <c r="D29" s="204" t="s">
+      <c r="D29" s="211" t="s">
         <v>286</v>
       </c>
-      <c r="E29" s="205"/>
-      <c r="F29" s="205"/>
-      <c r="G29" s="206"/>
+      <c r="E29" s="212"/>
+      <c r="F29" s="212"/>
+      <c r="G29" s="213"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="52" t="s">
@@ -13656,12 +13742,12 @@
       <c r="C30" s="72">
         <v>0.41</v>
       </c>
-      <c r="D30" s="204" t="s">
+      <c r="D30" s="211" t="s">
         <v>287</v>
       </c>
-      <c r="E30" s="205"/>
-      <c r="F30" s="205"/>
-      <c r="G30" s="206"/>
+      <c r="E30" s="212"/>
+      <c r="F30" s="212"/>
+      <c r="G30" s="213"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="52" t="s">
@@ -13673,12 +13759,12 @@
       <c r="C31" s="72">
         <v>0.59</v>
       </c>
-      <c r="D31" s="204" t="s">
+      <c r="D31" s="211" t="s">
         <v>289</v>
       </c>
-      <c r="E31" s="205"/>
-      <c r="F31" s="205"/>
-      <c r="G31" s="206"/>
+      <c r="E31" s="212"/>
+      <c r="F31" s="212"/>
+      <c r="G31" s="213"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="52" t="s">
@@ -13690,12 +13776,12 @@
       <c r="C32" s="72">
         <v>0.5</v>
       </c>
-      <c r="D32" s="204" t="s">
+      <c r="D32" s="211" t="s">
         <v>288</v>
       </c>
-      <c r="E32" s="205"/>
-      <c r="F32" s="205"/>
-      <c r="G32" s="206"/>
+      <c r="E32" s="212"/>
+      <c r="F32" s="212"/>
+      <c r="G32" s="213"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="52" t="s">
@@ -13707,12 +13793,12 @@
       <c r="C33" s="72">
         <v>0.59</v>
       </c>
-      <c r="D33" s="204" t="s">
+      <c r="D33" s="211" t="s">
         <v>290</v>
       </c>
-      <c r="E33" s="205"/>
-      <c r="F33" s="205"/>
-      <c r="G33" s="206"/>
+      <c r="E33" s="212"/>
+      <c r="F33" s="212"/>
+      <c r="G33" s="213"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="52" t="s">
@@ -13724,25 +13810,25 @@
       <c r="C34" s="72">
         <v>0.54</v>
       </c>
-      <c r="D34" s="204" t="s">
+      <c r="D34" s="211" t="s">
         <v>291</v>
       </c>
-      <c r="E34" s="205"/>
-      <c r="F34" s="205"/>
-      <c r="G34" s="206"/>
+      <c r="E34" s="212"/>
+      <c r="F34" s="212"/>
+      <c r="G34" s="213"/>
     </row>
     <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="202" t="s">
+      <c r="A36" s="207" t="s">
         <v>315</v>
       </c>
-      <c r="B36" s="202"/>
-      <c r="C36" s="202"/>
-      <c r="D36" s="202"/>
-      <c r="E36" s="202"/>
-      <c r="F36" s="202"/>
-      <c r="G36" s="202"/>
-      <c r="H36" s="202"/>
-      <c r="I36" s="202"/>
+      <c r="B36" s="207"/>
+      <c r="C36" s="207"/>
+      <c r="D36" s="207"/>
+      <c r="E36" s="207"/>
+      <c r="F36" s="207"/>
+      <c r="G36" s="207"/>
+      <c r="H36" s="207"/>
+      <c r="I36" s="207"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="87" t="s">
@@ -13809,12 +13895,12 @@
       </c>
     </row>
     <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="208" t="s">
+      <c r="A46" s="199" t="s">
         <v>318</v>
       </c>
-      <c r="B46" s="208"/>
-      <c r="C46" s="208"/>
-      <c r="D46" s="208"/>
+      <c r="B46" s="199"/>
+      <c r="C46" s="199"/>
+      <c r="D46" s="199"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="88" t="s">
@@ -13965,11 +14051,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D6:D13"/>
-    <mergeCell ref="A2:I2"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A25:I25"/>
@@ -13985,6 +14066,11 @@
     <mergeCell ref="D30:G30"/>
     <mergeCell ref="D31:G31"/>
     <mergeCell ref="D32:G32"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D6:D13"/>
+    <mergeCell ref="A2:I2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -15692,8 +15778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16553,12 +16639,29 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:G1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="235" t="s">
+        <v>525</v>
+      </c>
+      <c r="B1" s="235"/>
+      <c r="C1" s="235"/>
+      <c r="D1" s="235"/>
+      <c r="E1" s="235"/>
+      <c r="F1" s="235"/>
+      <c r="G1" s="235"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/Experiment01_Resumo/Resumo_Exp01.xlsx
+++ b/Experiment01_Resumo/Resumo_Exp01.xlsx
@@ -9,22 +9,23 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Capa" sheetId="1" r:id="rId1"/>
     <sheet name="Resumo DatabaseSnowballing" sheetId="8" r:id="rId2"/>
     <sheet name="SearchResults" sheetId="9" r:id="rId3"/>
     <sheet name="Seed Set" sheetId="5" r:id="rId4"/>
-    <sheet name="ResearchQuestions" sheetId="11" r:id="rId5"/>
-    <sheet name="Scopus" sheetId="10" r:id="rId6"/>
-    <sheet name="BSB-FSB" sheetId="16" r:id="rId7"/>
-    <sheet name="NewSetOfPapers" sheetId="17" r:id="rId8"/>
-    <sheet name="SeedSet_DL" sheetId="18" r:id="rId9"/>
-    <sheet name="Não encontrados na Busca" sheetId="15" r:id="rId10"/>
-    <sheet name="BuscaGoogleScholar" sheetId="13" r:id="rId11"/>
-    <sheet name="BuscaPorTítulo" sheetId="14" r:id="rId12"/>
-    <sheet name="Threats" sheetId="12" r:id="rId13"/>
+    <sheet name="Plan1" sheetId="19" r:id="rId5"/>
+    <sheet name="ResearchQuestions" sheetId="11" r:id="rId6"/>
+    <sheet name="Scopus" sheetId="10" r:id="rId7"/>
+    <sheet name="BSB-FSB" sheetId="16" r:id="rId8"/>
+    <sheet name="NewSetOfPapers" sheetId="17" r:id="rId9"/>
+    <sheet name="SeedSet_DL" sheetId="18" r:id="rId10"/>
+    <sheet name="Não encontrados na Busca" sheetId="15" r:id="rId11"/>
+    <sheet name="BuscaGoogleScholar" sheetId="13" r:id="rId12"/>
+    <sheet name="BuscaPorTítulo" sheetId="14" r:id="rId13"/>
+    <sheet name="Threats" sheetId="12" r:id="rId14"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1474" uniqueCount="551">
   <si>
     <t>Database search</t>
   </si>
@@ -1716,6 +1717,81 @@
   </si>
   <si>
     <t>Análise da quantidade de seed set por biblioteca digital</t>
+  </si>
+  <si>
+    <t>Excluído</t>
+  </si>
+  <si>
+    <t>Comprou</t>
+  </si>
+  <si>
+    <t>Recebeu cópia ao comprar o 39</t>
+  </si>
+  <si>
+    <t>Não acessível</t>
+  </si>
+  <si>
+    <t>Selecionados</t>
+  </si>
+  <si>
+    <t>Não fez BSB pq estava indisponível</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Citado por 8, mas 2 são de 2016 e 1 de 2017. Então foram incluídos somente 5. </t>
+  </si>
+  <si>
+    <t>Citado por 1, mas este é de 2016. Logo, a JF Tool não pegou.</t>
+  </si>
+  <si>
+    <t>Citado por 4, mas view 1.</t>
+  </si>
+  <si>
+    <t>Citado por 0.</t>
+  </si>
+  <si>
+    <t>Citado por 1.</t>
+  </si>
+  <si>
+    <t>Citado por 19</t>
+  </si>
+  <si>
+    <t>Citado por 4.</t>
+  </si>
+  <si>
+    <t>Citado por 3, mas são de 2016.</t>
+  </si>
+  <si>
+    <t>Citado por 5, mas 1 é de 2016</t>
+  </si>
+  <si>
+    <t>Citado por 1 de 2018.</t>
+  </si>
+  <si>
+    <t>Citado por 15 na JF Tool, mas no Scholar está com 17 pq 2 já existiam, e resultado final com 10 (tirando os anos de 2016, 2017)</t>
+  </si>
+  <si>
+    <t>Citado por 5, mas 3 de 2016 e 2 de 2017.</t>
+  </si>
+  <si>
+    <t>Dos 15 retornados, 2 eram em jap e rus</t>
+  </si>
+  <si>
+    <t>Citado por 4, mas 1 é de 2017.</t>
+  </si>
+  <si>
+    <t>Inclui 19 pela JF Tool, mas já existiam 2, total 21.</t>
+  </si>
+  <si>
+    <t>JF encontra 12, mas 4 estao em japones. Inclusao de 8, mas já existiam 3, total = 11.</t>
+  </si>
+  <si>
+    <t>erro na JF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Citado por 31, mas JF inclui 29 </t>
+  </si>
+  <si>
+    <t>Citado por 50, mas 4 não foram pegos.</t>
   </si>
 </sst>
 </file>
@@ -1814,7 +1890,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="24">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1950,6 +2026,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF99FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2402,7 +2484,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="236">
+  <cellXfs count="246">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2868,6 +2950,27 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3006,6 +3109,9 @@
     <xf numFmtId="0" fontId="1" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3024,8 +3130,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3037,8 +3149,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFCCCC"/>
       <color rgb="FFFF99FF"/>
-      <color rgb="FFFFCCCC"/>
       <color rgb="FFFF6699"/>
       <color rgb="FFFF3399"/>
       <color rgb="FFFF66FF"/>
@@ -3350,12 +3462,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="206411768"/>
-        <c:axId val="206408240"/>
+        <c:axId val="214768240"/>
+        <c:axId val="214762360"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="206411768"/>
+        <c:axId val="214768240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3447,7 +3559,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="206408240"/>
+        <c:crossAx val="214762360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3455,7 +3567,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="206408240"/>
+        <c:axId val="214762360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3506,7 +3618,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="206411768"/>
+        <c:crossAx val="214768240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3815,12 +3927,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="206409808"/>
-        <c:axId val="206410984"/>
+        <c:axId val="214762752"/>
+        <c:axId val="214766280"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="206409808"/>
+        <c:axId val="214762752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3909,7 +4021,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="206410984"/>
+        <c:crossAx val="214766280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3917,7 +4029,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="206410984"/>
+        <c:axId val="214766280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4000,7 +4112,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="206409808"/>
+        <c:crossAx val="214762752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4285,12 +4397,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="206409024"/>
-        <c:axId val="209227736"/>
+        <c:axId val="214765104"/>
+        <c:axId val="214765496"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="206409024"/>
+        <c:axId val="214765104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4379,7 +4491,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209227736"/>
+        <c:crossAx val="214765496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4387,7 +4499,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="209227736"/>
+        <c:axId val="214765496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4470,7 +4582,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="206409024"/>
+        <c:crossAx val="214765104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5257,12 +5369,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="209229304"/>
-        <c:axId val="209225776"/>
+        <c:axId val="214763928"/>
+        <c:axId val="214763144"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="209229304"/>
+        <c:axId val="214763928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5302,7 +5414,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209225776"/>
+        <c:crossAx val="214763144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5310,7 +5422,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="209225776"/>
+        <c:axId val="214763144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5358,7 +5470,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209229304"/>
+        <c:crossAx val="214763928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5666,8 +5778,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="209226168"/>
-        <c:axId val="209226952"/>
+        <c:axId val="214764320"/>
+        <c:axId val="214768632"/>
         <c:axId val="0"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
@@ -5837,7 +5949,7 @@
         </c:extLst>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="209226168"/>
+        <c:axId val="214764320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5935,7 +6047,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209226952"/>
+        <c:crossAx val="214768632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5943,7 +6055,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="209226952"/>
+        <c:axId val="214768632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6022,7 +6134,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="209226168"/>
+        <c:crossAx val="214764320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6336,8 +6448,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="209223424"/>
-        <c:axId val="209229696"/>
+        <c:axId val="214765888"/>
+        <c:axId val="216473200"/>
         <c:axId val="0"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
@@ -6507,7 +6619,7 @@
         </c:extLst>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="209223424"/>
+        <c:axId val="214765888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6605,7 +6717,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209229696"/>
+        <c:crossAx val="216473200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6613,7 +6725,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="209229696"/>
+        <c:axId val="216473200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6692,7 +6804,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="209223424"/>
+        <c:crossAx val="214765888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10379,7 +10491,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -10390,22 +10502,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="183" t="s">
+      <c r="A1" s="190" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="184"/>
+      <c r="B1" s="191"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="185" t="s">
+      <c r="A2" s="192" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="186"/>
+      <c r="B2" s="193"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="185" t="s">
+      <c r="A3" s="192" t="s">
         <v>96</v>
       </c>
-      <c r="B3" s="186"/>
+      <c r="B3" s="193"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -10440,10 +10552,10 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="187" t="s">
+      <c r="A8" s="194" t="s">
         <v>103</v>
       </c>
-      <c r="B8" s="188"/>
+      <c r="B8" s="195"/>
     </row>
     <row r="9" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
@@ -10509,6 +10621,35 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="236" t="s">
+        <v>525</v>
+      </c>
+      <c r="B1" s="236"/>
+      <c r="C1" s="236"/>
+      <c r="D1" s="236"/>
+      <c r="E1" s="236"/>
+      <c r="F1" s="236"/>
+      <c r="G1" s="236"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K31"/>
   <sheetViews>
@@ -10533,19 +10674,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="198" t="s">
+      <c r="A1" s="205" t="s">
         <v>326</v>
       </c>
-      <c r="B1" s="198"/>
-      <c r="C1" s="198"/>
-      <c r="D1" s="198"/>
-      <c r="E1" s="198"/>
-      <c r="F1" s="198"/>
-      <c r="G1" s="198"/>
-      <c r="H1" s="198"/>
-      <c r="I1" s="198"/>
-      <c r="J1" s="198"/>
-      <c r="K1" s="198"/>
+      <c r="B1" s="205"/>
+      <c r="C1" s="205"/>
+      <c r="D1" s="205"/>
+      <c r="E1" s="205"/>
+      <c r="F1" s="205"/>
+      <c r="G1" s="205"/>
+      <c r="H1" s="205"/>
+      <c r="I1" s="205"/>
+      <c r="J1" s="205"/>
+      <c r="K1" s="205"/>
     </row>
     <row r="2" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
@@ -11252,7 +11393,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -11267,10 +11408,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="229" t="s">
+      <c r="A1" s="237" t="s">
         <v>333</v>
       </c>
-      <c r="B1" s="230"/>
+      <c r="B1" s="238"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="79" t="s">
@@ -11316,7 +11457,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L28"/>
   <sheetViews>
@@ -11338,20 +11479,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="231" t="s">
+      <c r="A1" s="239" t="s">
         <v>327</v>
       </c>
-      <c r="B1" s="231"/>
-      <c r="C1" s="231"/>
-      <c r="D1" s="231"/>
-      <c r="E1" s="231"/>
-      <c r="F1" s="231"/>
-      <c r="G1" s="231"/>
-      <c r="H1" s="231"/>
-      <c r="I1" s="231"/>
-      <c r="J1" s="231"/>
-      <c r="K1" s="231"/>
-      <c r="L1" s="231"/>
+      <c r="B1" s="239"/>
+      <c r="C1" s="239"/>
+      <c r="D1" s="239"/>
+      <c r="E1" s="239"/>
+      <c r="F1" s="239"/>
+      <c r="G1" s="239"/>
+      <c r="H1" s="239"/>
+      <c r="I1" s="239"/>
+      <c r="J1" s="239"/>
+      <c r="K1" s="239"/>
+      <c r="L1" s="239"/>
     </row>
     <row r="2" spans="1:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="142" t="s">
@@ -12070,15 +12211,15 @@
     </row>
     <row r="26" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="134"/>
-      <c r="B26" s="232" t="s">
+      <c r="B26" s="240" t="s">
         <v>334</v>
       </c>
-      <c r="C26" s="233"/>
-      <c r="D26" s="233"/>
-      <c r="E26" s="233"/>
-      <c r="F26" s="233"/>
-      <c r="G26" s="233"/>
-      <c r="H26" s="234"/>
+      <c r="C26" s="241"/>
+      <c r="D26" s="241"/>
+      <c r="E26" s="241"/>
+      <c r="F26" s="241"/>
+      <c r="G26" s="241"/>
+      <c r="H26" s="242"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="66"/>
@@ -12099,7 +12240,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
@@ -12244,10 +12385,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="193" t="s">
+      <c r="A1" s="200" t="s">
         <v>151</v>
       </c>
-      <c r="B1" s="194"/>
+      <c r="B1" s="201"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
@@ -12280,16 +12421,16 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="189" t="s">
+      <c r="A6" s="196" t="s">
         <v>147</v>
       </c>
-      <c r="B6" s="190"/>
+      <c r="B6" s="197"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="191" t="s">
+      <c r="A7" s="198" t="s">
         <v>150</v>
       </c>
-      <c r="B7" s="192"/>
+      <c r="B7" s="199"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
@@ -12371,16 +12512,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="195" t="s">
+      <c r="A1" s="202" t="s">
         <v>336</v>
       </c>
-      <c r="B1" s="196"/>
-      <c r="C1" s="196"/>
-      <c r="D1" s="196"/>
-      <c r="E1" s="196"/>
-      <c r="F1" s="196"/>
-      <c r="G1" s="196"/>
-      <c r="H1" s="197"/>
+      <c r="B1" s="203"/>
+      <c r="C1" s="203"/>
+      <c r="D1" s="203"/>
+      <c r="E1" s="203"/>
+      <c r="F1" s="203"/>
+      <c r="G1" s="203"/>
+      <c r="H1" s="204"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
     </row>
@@ -12735,8 +12876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12750,14 +12891,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="198" t="s">
+      <c r="A1" s="205" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="198"/>
-      <c r="C1" s="198"/>
-      <c r="D1" s="198"/>
-      <c r="E1" s="198"/>
-      <c r="F1" s="198"/>
+      <c r="B1" s="205"/>
+      <c r="C1" s="205"/>
+      <c r="D1" s="205"/>
+      <c r="E1" s="205"/>
+      <c r="F1" s="205"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
@@ -13239,6 +13380,1555 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:L53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="62.42578125" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="6" max="7" width="18.85546875" style="81" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" style="81" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="3"/>
+    <col min="11" max="11" width="14.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>474</v>
+      </c>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21" t="s">
+        <v>530</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>526</v>
+      </c>
+      <c r="J2" s="82" t="s">
+        <v>529</v>
+      </c>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+    </row>
+    <row r="3" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="188" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="131" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="132" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="48" t="s">
+        <v>502</v>
+      </c>
+      <c r="G3" s="48"/>
+      <c r="H3" s="184" t="s">
+        <v>346</v>
+      </c>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+    </row>
+    <row r="4" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="188" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="131" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="132">
+        <v>2007</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="F4" s="48" t="s">
+        <v>209</v>
+      </c>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="34" t="s">
+        <v>346</v>
+      </c>
+      <c r="J4" s="94"/>
+      <c r="K4" s="91"/>
+      <c r="L4" s="91"/>
+    </row>
+    <row r="5" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="188" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="132">
+        <v>2008</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="F5" s="48" t="s">
+        <v>210</v>
+      </c>
+      <c r="G5" s="48"/>
+      <c r="H5" s="184" t="s">
+        <v>346</v>
+      </c>
+      <c r="I5" s="94"/>
+      <c r="J5" s="187" t="s">
+        <v>346</v>
+      </c>
+      <c r="K5" s="183" t="s">
+        <v>528</v>
+      </c>
+      <c r="L5" s="91"/>
+    </row>
+    <row r="6" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="189" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="132">
+        <v>2015</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="F6" s="48" t="s">
+        <v>511</v>
+      </c>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="34" t="s">
+        <v>346</v>
+      </c>
+      <c r="J6" s="94"/>
+      <c r="K6" s="91"/>
+      <c r="L6" s="91"/>
+    </row>
+    <row r="7" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="188" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="131" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="132">
+        <v>2011</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="F7" s="48" t="s">
+        <v>211</v>
+      </c>
+      <c r="G7" s="48"/>
+      <c r="H7" s="184" t="s">
+        <v>346</v>
+      </c>
+      <c r="I7" s="94"/>
+      <c r="J7" s="94"/>
+      <c r="K7" s="91"/>
+      <c r="L7" s="91"/>
+    </row>
+    <row r="8" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="188" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="132">
+        <v>2010</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="F8" s="48" t="s">
+        <v>512</v>
+      </c>
+      <c r="G8" s="48"/>
+      <c r="H8" s="184" t="s">
+        <v>346</v>
+      </c>
+      <c r="I8" s="94"/>
+      <c r="J8" s="94"/>
+      <c r="K8" s="91"/>
+      <c r="L8" s="91"/>
+    </row>
+    <row r="9" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="188" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="D9" s="132">
+        <v>2009</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="F9" s="48" t="s">
+        <v>513</v>
+      </c>
+      <c r="G9" s="48"/>
+      <c r="H9" s="184" t="s">
+        <v>346</v>
+      </c>
+      <c r="I9" s="94"/>
+      <c r="J9" s="94"/>
+      <c r="K9" s="91"/>
+      <c r="L9" s="91"/>
+    </row>
+    <row r="10" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="189" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="131" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="132">
+        <v>2010</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="F10" s="48" t="s">
+        <v>212</v>
+      </c>
+      <c r="G10" s="48"/>
+      <c r="H10" s="184" t="s">
+        <v>346</v>
+      </c>
+      <c r="I10" s="94"/>
+      <c r="J10" s="94"/>
+      <c r="K10" s="91"/>
+      <c r="L10" s="91"/>
+    </row>
+    <row r="11" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="188" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="131" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="132">
+        <v>2010</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="F11" s="48" t="s">
+        <v>514</v>
+      </c>
+      <c r="G11" s="48"/>
+      <c r="H11" s="184" t="s">
+        <v>346</v>
+      </c>
+      <c r="I11" s="94"/>
+      <c r="J11" s="94"/>
+      <c r="K11" s="91"/>
+      <c r="L11" s="91"/>
+    </row>
+    <row r="12" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="188" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="131" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="132">
+        <v>1999</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="48" t="s">
+        <v>515</v>
+      </c>
+      <c r="G12" s="48"/>
+      <c r="H12" s="184" t="s">
+        <v>346</v>
+      </c>
+      <c r="I12" s="94"/>
+      <c r="J12" s="94"/>
+      <c r="K12" s="91"/>
+      <c r="L12" s="91"/>
+    </row>
+    <row r="13" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="188" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="132">
+        <v>2005</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="F13" s="48" t="s">
+        <v>516</v>
+      </c>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="34" t="s">
+        <v>346</v>
+      </c>
+      <c r="J13" s="94"/>
+      <c r="K13" s="91"/>
+      <c r="L13" s="91"/>
+    </row>
+    <row r="14" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="188" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="131" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="132">
+        <v>2008</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="F14" s="48" t="s">
+        <v>213</v>
+      </c>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="34" t="s">
+        <v>346</v>
+      </c>
+      <c r="J14" s="94"/>
+      <c r="K14" s="91"/>
+      <c r="L14" s="91"/>
+    </row>
+    <row r="15" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="188" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="132">
+        <v>2011</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="F15" s="48" t="s">
+        <v>517</v>
+      </c>
+      <c r="G15" s="48"/>
+      <c r="H15" s="184" t="s">
+        <v>346</v>
+      </c>
+      <c r="I15" s="94"/>
+      <c r="J15" s="94"/>
+      <c r="K15" s="91"/>
+      <c r="L15" s="91"/>
+    </row>
+    <row r="16" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="188" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="132">
+        <v>2009</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="F16" s="48" t="s">
+        <v>215</v>
+      </c>
+      <c r="G16" s="48"/>
+      <c r="H16" s="184" t="s">
+        <v>346</v>
+      </c>
+      <c r="I16" s="94"/>
+      <c r="J16" s="94"/>
+      <c r="K16" s="91"/>
+      <c r="L16" s="91"/>
+    </row>
+    <row r="17" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="188" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="131" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="132">
+        <v>1997</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="F17" s="48" t="s">
+        <v>216</v>
+      </c>
+      <c r="G17" s="48"/>
+      <c r="H17" s="184" t="s">
+        <v>346</v>
+      </c>
+      <c r="I17" s="94"/>
+      <c r="J17" s="94"/>
+      <c r="K17" s="91"/>
+      <c r="L17" s="91"/>
+    </row>
+    <row r="18" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="188" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" s="132">
+        <v>2010</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="F18" s="48" t="s">
+        <v>518</v>
+      </c>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="34" t="s">
+        <v>346</v>
+      </c>
+      <c r="J18" s="94"/>
+      <c r="K18" s="91"/>
+      <c r="L18" s="91"/>
+    </row>
+    <row r="19" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="189" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="131" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="132">
+        <v>2005</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="F19" s="48" t="s">
+        <v>519</v>
+      </c>
+      <c r="G19" s="48"/>
+      <c r="H19" s="184" t="s">
+        <v>346</v>
+      </c>
+      <c r="I19" s="94"/>
+      <c r="J19" s="94"/>
+      <c r="K19" s="91"/>
+      <c r="L19" s="91"/>
+    </row>
+    <row r="20" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="189" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" s="132">
+        <v>2011</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="F20" s="48" t="s">
+        <v>520</v>
+      </c>
+      <c r="G20" s="48"/>
+      <c r="H20" s="184" t="s">
+        <v>346</v>
+      </c>
+      <c r="I20" s="94"/>
+      <c r="J20" s="94"/>
+      <c r="K20" s="91"/>
+      <c r="L20" s="91"/>
+    </row>
+    <row r="21" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="189" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="132">
+        <v>2008</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="F21" s="48" t="s">
+        <v>521</v>
+      </c>
+      <c r="G21" s="48"/>
+      <c r="H21" s="184" t="s">
+        <v>346</v>
+      </c>
+      <c r="I21" s="94"/>
+      <c r="J21" s="94"/>
+      <c r="K21" s="91"/>
+      <c r="L21" s="91"/>
+    </row>
+    <row r="22" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="189" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" s="132">
+        <v>2015</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="F22" s="48" t="s">
+        <v>522</v>
+      </c>
+      <c r="G22" s="48"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="34" t="s">
+        <v>346</v>
+      </c>
+      <c r="J22" s="94"/>
+      <c r="K22" s="91"/>
+      <c r="L22" s="91"/>
+    </row>
+    <row r="23" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="189" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" s="132">
+        <v>2000</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="F23" s="48" t="s">
+        <v>523</v>
+      </c>
+      <c r="G23" s="48"/>
+      <c r="H23" s="184" t="s">
+        <v>346</v>
+      </c>
+      <c r="I23" s="94"/>
+      <c r="J23" s="94"/>
+      <c r="K23" s="91"/>
+      <c r="L23" s="91"/>
+    </row>
+    <row r="24" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="189" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" s="132">
+        <v>2010</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="F24" s="48" t="s">
+        <v>524</v>
+      </c>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="34" t="s">
+        <v>346</v>
+      </c>
+      <c r="J24" s="94"/>
+      <c r="K24" s="91"/>
+      <c r="L24" s="91"/>
+    </row>
+    <row r="25" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="53" t="s">
+        <v>359</v>
+      </c>
+      <c r="B25" s="176" t="s">
+        <v>399</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>358</v>
+      </c>
+      <c r="D25" s="18">
+        <v>1999</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>357</v>
+      </c>
+      <c r="F25" s="244" t="s">
+        <v>501</v>
+      </c>
+      <c r="G25" s="29"/>
+      <c r="H25" s="85"/>
+      <c r="I25" s="85"/>
+      <c r="J25" s="74" t="s">
+        <v>346</v>
+      </c>
+      <c r="K25" s="91" t="s">
+        <v>531</v>
+      </c>
+      <c r="L25" s="91"/>
+    </row>
+    <row r="26" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="53" t="s">
+        <v>360</v>
+      </c>
+      <c r="B26" s="176" t="s">
+        <v>363</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>362</v>
+      </c>
+      <c r="D26" s="18">
+        <v>2010</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>361</v>
+      </c>
+      <c r="F26" s="243" t="s">
+        <v>470</v>
+      </c>
+      <c r="G26" s="53" t="s">
+        <v>532</v>
+      </c>
+      <c r="H26" s="53"/>
+      <c r="I26" s="34" t="s">
+        <v>346</v>
+      </c>
+      <c r="J26" s="94"/>
+      <c r="K26" s="91"/>
+      <c r="L26" s="91"/>
+    </row>
+    <row r="27" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="53" t="s">
+        <v>364</v>
+      </c>
+      <c r="B27" s="176" t="s">
+        <v>367</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>366</v>
+      </c>
+      <c r="D27" s="18">
+        <v>2014</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>365</v>
+      </c>
+      <c r="F27" s="244" t="s">
+        <v>471</v>
+      </c>
+      <c r="G27" s="89" t="s">
+        <v>533</v>
+      </c>
+      <c r="H27" s="85"/>
+      <c r="I27" s="85"/>
+      <c r="J27" s="74" t="s">
+        <v>346</v>
+      </c>
+      <c r="K27" s="91" t="s">
+        <v>531</v>
+      </c>
+      <c r="L27" s="91"/>
+    </row>
+    <row r="28" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="53" t="s">
+        <v>368</v>
+      </c>
+      <c r="B28" s="176" t="s">
+        <v>370</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>371</v>
+      </c>
+      <c r="D28" s="18">
+        <v>2014</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>369</v>
+      </c>
+      <c r="F28" s="243" t="s">
+        <v>472</v>
+      </c>
+      <c r="G28" s="53" t="s">
+        <v>534</v>
+      </c>
+      <c r="H28" s="53"/>
+      <c r="I28" s="34" t="s">
+        <v>346</v>
+      </c>
+      <c r="J28" s="94"/>
+      <c r="K28" s="91"/>
+      <c r="L28" s="91"/>
+    </row>
+    <row r="29" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="53" t="s">
+        <v>372</v>
+      </c>
+      <c r="B29" s="176" t="s">
+        <v>374</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>375</v>
+      </c>
+      <c r="D29" s="18">
+        <v>2002</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>373</v>
+      </c>
+      <c r="F29" s="244" t="s">
+        <v>476</v>
+      </c>
+      <c r="G29" s="29" t="s">
+        <v>549</v>
+      </c>
+      <c r="H29" s="185" t="s">
+        <v>346</v>
+      </c>
+      <c r="I29" s="94"/>
+      <c r="J29" s="94"/>
+      <c r="K29" s="91"/>
+      <c r="L29" s="91"/>
+    </row>
+    <row r="30" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="53" t="s">
+        <v>378</v>
+      </c>
+      <c r="B30" s="176" t="s">
+        <v>478</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>377</v>
+      </c>
+      <c r="D30" s="18">
+        <v>2013</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>376</v>
+      </c>
+      <c r="F30" s="244" t="s">
+        <v>477</v>
+      </c>
+      <c r="G30" s="94" t="s">
+        <v>535</v>
+      </c>
+      <c r="H30" s="94"/>
+      <c r="I30" s="34" t="s">
+        <v>346</v>
+      </c>
+      <c r="J30" s="94"/>
+      <c r="K30" s="91"/>
+      <c r="L30" s="91"/>
+    </row>
+    <row r="31" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="53" t="s">
+        <v>379</v>
+      </c>
+      <c r="B31" s="176" t="s">
+        <v>382</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>381</v>
+      </c>
+      <c r="D31" s="18">
+        <v>1995</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>380</v>
+      </c>
+      <c r="F31" s="244" t="s">
+        <v>500</v>
+      </c>
+      <c r="G31" s="29" t="s">
+        <v>536</v>
+      </c>
+      <c r="H31" s="29"/>
+      <c r="I31" s="34" t="s">
+        <v>346</v>
+      </c>
+      <c r="J31" s="94"/>
+      <c r="K31" s="91"/>
+      <c r="L31" s="91"/>
+    </row>
+    <row r="32" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="53" t="s">
+        <v>383</v>
+      </c>
+      <c r="B32" s="176" t="s">
+        <v>385</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>386</v>
+      </c>
+      <c r="D32" s="18">
+        <v>2010</v>
+      </c>
+      <c r="E32" s="18" t="s">
+        <v>384</v>
+      </c>
+      <c r="F32" s="244" t="s">
+        <v>479</v>
+      </c>
+      <c r="G32" s="29" t="s">
+        <v>550</v>
+      </c>
+      <c r="H32" s="185" t="s">
+        <v>346</v>
+      </c>
+      <c r="I32" s="94"/>
+      <c r="J32" s="94"/>
+      <c r="K32" s="91"/>
+      <c r="L32" s="91"/>
+    </row>
+    <row r="33" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="53" t="s">
+        <v>387</v>
+      </c>
+      <c r="B33" s="176" t="s">
+        <v>390</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>389</v>
+      </c>
+      <c r="D33" s="18">
+        <v>2010</v>
+      </c>
+      <c r="E33" s="18" t="s">
+        <v>388</v>
+      </c>
+      <c r="F33" s="244" t="s">
+        <v>480</v>
+      </c>
+      <c r="G33" s="29" t="s">
+        <v>538</v>
+      </c>
+      <c r="H33" s="185" t="s">
+        <v>346</v>
+      </c>
+      <c r="I33" s="94"/>
+      <c r="J33" s="94"/>
+      <c r="K33" s="91"/>
+      <c r="L33" s="91"/>
+    </row>
+    <row r="34" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="53" t="s">
+        <v>391</v>
+      </c>
+      <c r="B34" s="176" t="s">
+        <v>393</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>394</v>
+      </c>
+      <c r="D34" s="18">
+        <v>2000</v>
+      </c>
+      <c r="E34" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="F34" s="244" t="s">
+        <v>499</v>
+      </c>
+      <c r="G34" s="29" t="s">
+        <v>537</v>
+      </c>
+      <c r="H34" s="185" t="s">
+        <v>346</v>
+      </c>
+      <c r="I34" s="94"/>
+      <c r="J34" s="186" t="s">
+        <v>346</v>
+      </c>
+      <c r="K34" s="183" t="s">
+        <v>528</v>
+      </c>
+      <c r="L34" s="91"/>
+    </row>
+    <row r="35" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="53" t="s">
+        <v>395</v>
+      </c>
+      <c r="B35" s="176" t="s">
+        <v>398</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>397</v>
+      </c>
+      <c r="D35" s="18">
+        <v>2014</v>
+      </c>
+      <c r="E35" s="18" t="s">
+        <v>396</v>
+      </c>
+      <c r="F35" s="244" t="s">
+        <v>481</v>
+      </c>
+      <c r="G35" s="94" t="s">
+        <v>539</v>
+      </c>
+      <c r="H35" s="94"/>
+      <c r="I35" s="34" t="s">
+        <v>346</v>
+      </c>
+      <c r="J35" s="94"/>
+      <c r="K35" s="91"/>
+      <c r="L35" s="91"/>
+    </row>
+    <row r="36" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="53" t="s">
+        <v>400</v>
+      </c>
+      <c r="B36" s="176" t="s">
+        <v>402</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>403</v>
+      </c>
+      <c r="D36" s="18">
+        <v>2010</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>401</v>
+      </c>
+      <c r="F36" s="244" t="s">
+        <v>482</v>
+      </c>
+      <c r="G36" s="94" t="s">
+        <v>540</v>
+      </c>
+      <c r="H36" s="185" t="s">
+        <v>346</v>
+      </c>
+      <c r="I36" s="94"/>
+      <c r="J36" s="94"/>
+      <c r="K36" s="91"/>
+      <c r="L36" s="91"/>
+    </row>
+    <row r="37" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="53" t="s">
+        <v>404</v>
+      </c>
+      <c r="B37" s="176" t="s">
+        <v>406</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>405</v>
+      </c>
+      <c r="D37" s="18">
+        <v>2010</v>
+      </c>
+      <c r="E37" s="18" t="s">
+        <v>401</v>
+      </c>
+      <c r="F37" s="85" t="s">
+        <v>483</v>
+      </c>
+      <c r="G37" s="94" t="s">
+        <v>548</v>
+      </c>
+      <c r="H37" s="185" t="s">
+        <v>346</v>
+      </c>
+      <c r="I37" s="94"/>
+      <c r="J37" s="94"/>
+      <c r="K37" s="91"/>
+      <c r="L37" s="91"/>
+    </row>
+    <row r="38" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="53" t="s">
+        <v>407</v>
+      </c>
+      <c r="B38" s="176" t="s">
+        <v>409</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>410</v>
+      </c>
+      <c r="D38" s="18">
+        <v>2005</v>
+      </c>
+      <c r="E38" s="18" t="s">
+        <v>408</v>
+      </c>
+      <c r="F38" s="244" t="s">
+        <v>484</v>
+      </c>
+      <c r="G38" s="94" t="s">
+        <v>547</v>
+      </c>
+      <c r="H38" s="185" t="s">
+        <v>346</v>
+      </c>
+      <c r="I38" s="94"/>
+      <c r="J38" s="94"/>
+      <c r="K38" s="91"/>
+      <c r="L38" s="91"/>
+    </row>
+    <row r="39" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="53" t="s">
+        <v>411</v>
+      </c>
+      <c r="B39" s="176" t="s">
+        <v>413</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>414</v>
+      </c>
+      <c r="D39" s="18">
+        <v>1998</v>
+      </c>
+      <c r="E39" s="18" t="s">
+        <v>412</v>
+      </c>
+      <c r="F39" s="29" t="s">
+        <v>498</v>
+      </c>
+      <c r="G39" s="29"/>
+      <c r="H39" s="185" t="s">
+        <v>346</v>
+      </c>
+      <c r="I39" s="94"/>
+      <c r="J39" s="94"/>
+      <c r="K39" s="91"/>
+      <c r="L39" s="91"/>
+    </row>
+    <row r="40" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="53" t="s">
+        <v>415</v>
+      </c>
+      <c r="B40" s="176" t="s">
+        <v>419</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>416</v>
+      </c>
+      <c r="D40" s="18">
+        <v>2007</v>
+      </c>
+      <c r="E40" s="18" t="s">
+        <v>420</v>
+      </c>
+      <c r="F40" s="94" t="s">
+        <v>485</v>
+      </c>
+      <c r="G40" s="94"/>
+      <c r="H40" s="185" t="s">
+        <v>346</v>
+      </c>
+      <c r="I40" s="94"/>
+      <c r="J40" s="94"/>
+      <c r="K40" s="91"/>
+      <c r="L40" s="91"/>
+    </row>
+    <row r="41" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="53" t="s">
+        <v>417</v>
+      </c>
+      <c r="B41" s="176" t="s">
+        <v>421</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="D41" s="18">
+        <v>2014</v>
+      </c>
+      <c r="E41" s="18" t="s">
+        <v>418</v>
+      </c>
+      <c r="F41" s="244" t="s">
+        <v>497</v>
+      </c>
+      <c r="G41" s="29" t="s">
+        <v>541</v>
+      </c>
+      <c r="H41" s="185" t="s">
+        <v>346</v>
+      </c>
+      <c r="I41" s="94"/>
+      <c r="J41" s="186" t="s">
+        <v>346</v>
+      </c>
+      <c r="K41" s="183" t="s">
+        <v>527</v>
+      </c>
+      <c r="L41" s="91"/>
+    </row>
+    <row r="42" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="53" t="s">
+        <v>423</v>
+      </c>
+      <c r="B42" s="176" t="s">
+        <v>466</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>425</v>
+      </c>
+      <c r="D42" s="18">
+        <v>2013</v>
+      </c>
+      <c r="E42" s="18" t="s">
+        <v>424</v>
+      </c>
+      <c r="F42" s="244" t="s">
+        <v>506</v>
+      </c>
+      <c r="G42" s="94" t="s">
+        <v>542</v>
+      </c>
+      <c r="H42" s="185" t="s">
+        <v>346</v>
+      </c>
+      <c r="I42" s="94"/>
+      <c r="J42" s="94"/>
+      <c r="K42" s="91"/>
+      <c r="L42" s="91"/>
+    </row>
+    <row r="43" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="53" t="s">
+        <v>426</v>
+      </c>
+      <c r="B43" s="176" t="s">
+        <v>428</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>427</v>
+      </c>
+      <c r="D43" s="18">
+        <v>2013</v>
+      </c>
+      <c r="E43" s="18" t="s">
+        <v>424</v>
+      </c>
+      <c r="F43" s="245" t="s">
+        <v>496</v>
+      </c>
+      <c r="G43" s="98" t="s">
+        <v>543</v>
+      </c>
+      <c r="H43" s="98"/>
+      <c r="I43" s="34" t="s">
+        <v>346</v>
+      </c>
+      <c r="J43" s="94"/>
+      <c r="K43" s="91"/>
+      <c r="L43" s="91"/>
+    </row>
+    <row r="44" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="53" t="s">
+        <v>429</v>
+      </c>
+      <c r="B44" s="176" t="s">
+        <v>431</v>
+      </c>
+      <c r="C44" s="18" t="s">
+        <v>432</v>
+      </c>
+      <c r="D44" s="18">
+        <v>2007</v>
+      </c>
+      <c r="E44" s="18" t="s">
+        <v>430</v>
+      </c>
+      <c r="F44" s="94" t="s">
+        <v>486</v>
+      </c>
+      <c r="G44" s="94"/>
+      <c r="H44" s="185" t="s">
+        <v>346</v>
+      </c>
+      <c r="I44" s="94"/>
+      <c r="J44" s="94"/>
+      <c r="K44" s="91"/>
+      <c r="L44" s="91"/>
+    </row>
+    <row r="45" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="53" t="s">
+        <v>433</v>
+      </c>
+      <c r="B45" s="176" t="s">
+        <v>436</v>
+      </c>
+      <c r="C45" s="18" t="s">
+        <v>435</v>
+      </c>
+      <c r="D45" s="18">
+        <v>2011</v>
+      </c>
+      <c r="E45" s="18" t="s">
+        <v>434</v>
+      </c>
+      <c r="F45" s="244" t="s">
+        <v>487</v>
+      </c>
+      <c r="G45" s="94" t="s">
+        <v>544</v>
+      </c>
+      <c r="H45" s="94"/>
+      <c r="I45" s="34" t="s">
+        <v>346</v>
+      </c>
+      <c r="J45" s="94"/>
+      <c r="K45" s="91"/>
+      <c r="L45" s="91"/>
+    </row>
+    <row r="46" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="53" t="s">
+        <v>437</v>
+      </c>
+      <c r="B46" s="176" t="s">
+        <v>439</v>
+      </c>
+      <c r="C46" s="18" t="s">
+        <v>468</v>
+      </c>
+      <c r="D46" s="18">
+        <v>2007</v>
+      </c>
+      <c r="E46" s="18" t="s">
+        <v>438</v>
+      </c>
+      <c r="F46" s="29" t="s">
+        <v>495</v>
+      </c>
+      <c r="G46" s="29"/>
+      <c r="H46" s="29"/>
+      <c r="I46" s="34" t="s">
+        <v>346</v>
+      </c>
+      <c r="J46" s="94"/>
+      <c r="K46" s="91"/>
+      <c r="L46" s="91"/>
+    </row>
+    <row r="47" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="53" t="s">
+        <v>440</v>
+      </c>
+      <c r="B47" s="176" t="s">
+        <v>442</v>
+      </c>
+      <c r="C47" s="18" t="s">
+        <v>443</v>
+      </c>
+      <c r="D47" s="18">
+        <v>2010</v>
+      </c>
+      <c r="E47" s="18" t="s">
+        <v>441</v>
+      </c>
+      <c r="F47" s="244" t="s">
+        <v>494</v>
+      </c>
+      <c r="G47" s="29" t="s">
+        <v>535</v>
+      </c>
+      <c r="H47" s="29"/>
+      <c r="I47" s="34" t="s">
+        <v>346</v>
+      </c>
+      <c r="J47" s="94"/>
+      <c r="K47" s="91"/>
+      <c r="L47" s="91"/>
+    </row>
+    <row r="48" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="53" t="s">
+        <v>444</v>
+      </c>
+      <c r="B48" s="176" t="s">
+        <v>445</v>
+      </c>
+      <c r="C48" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="D48" s="18">
+        <v>2006</v>
+      </c>
+      <c r="E48" s="18" t="s">
+        <v>408</v>
+      </c>
+      <c r="F48" s="85" t="s">
+        <v>488</v>
+      </c>
+      <c r="G48" s="94" t="s">
+        <v>548</v>
+      </c>
+      <c r="H48" s="85"/>
+      <c r="I48" s="85"/>
+      <c r="J48" s="53" t="s">
+        <v>346</v>
+      </c>
+      <c r="K48" s="91" t="s">
+        <v>531</v>
+      </c>
+      <c r="L48" s="91"/>
+    </row>
+    <row r="49" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="53" t="s">
+        <v>447</v>
+      </c>
+      <c r="B49" s="176" t="s">
+        <v>450</v>
+      </c>
+      <c r="C49" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="D49" s="18">
+        <v>2011</v>
+      </c>
+      <c r="E49" s="18" t="s">
+        <v>448</v>
+      </c>
+      <c r="F49" s="244" t="s">
+        <v>489</v>
+      </c>
+      <c r="G49" s="29" t="s">
+        <v>545</v>
+      </c>
+      <c r="H49" s="29"/>
+      <c r="I49" s="34" t="s">
+        <v>346</v>
+      </c>
+      <c r="J49" s="94"/>
+      <c r="K49" s="91"/>
+      <c r="L49" s="91"/>
+    </row>
+    <row r="50" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="53" t="s">
+        <v>451</v>
+      </c>
+      <c r="B50" s="176" t="s">
+        <v>467</v>
+      </c>
+      <c r="C50" s="18" t="s">
+        <v>456</v>
+      </c>
+      <c r="D50" s="18">
+        <v>2004</v>
+      </c>
+      <c r="E50" s="18" t="s">
+        <v>455</v>
+      </c>
+      <c r="F50" s="244" t="s">
+        <v>490</v>
+      </c>
+      <c r="G50" s="29" t="s">
+        <v>536</v>
+      </c>
+      <c r="H50" s="185" t="s">
+        <v>346</v>
+      </c>
+      <c r="I50" s="94"/>
+      <c r="J50" s="94"/>
+      <c r="K50" s="91"/>
+      <c r="L50" s="91"/>
+    </row>
+    <row r="51" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="53" t="s">
+        <v>452</v>
+      </c>
+      <c r="B51" s="176" t="s">
+        <v>458</v>
+      </c>
+      <c r="C51" s="18" t="s">
+        <v>459</v>
+      </c>
+      <c r="D51" s="18">
+        <v>2010</v>
+      </c>
+      <c r="E51" s="18" t="s">
+        <v>457</v>
+      </c>
+      <c r="F51" s="244" t="s">
+        <v>493</v>
+      </c>
+      <c r="G51" s="29"/>
+      <c r="H51" s="185" t="s">
+        <v>346</v>
+      </c>
+      <c r="I51" s="94"/>
+      <c r="J51" s="94"/>
+      <c r="K51" s="91"/>
+      <c r="L51" s="91"/>
+    </row>
+    <row r="52" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="53" t="s">
+        <v>453</v>
+      </c>
+      <c r="B52" s="176" t="s">
+        <v>462</v>
+      </c>
+      <c r="C52" s="18" t="s">
+        <v>461</v>
+      </c>
+      <c r="D52" s="18">
+        <v>2003</v>
+      </c>
+      <c r="E52" s="18" t="s">
+        <v>460</v>
+      </c>
+      <c r="F52" s="244" t="s">
+        <v>491</v>
+      </c>
+      <c r="G52" s="29" t="s">
+        <v>546</v>
+      </c>
+      <c r="H52" s="29"/>
+      <c r="I52" s="34" t="s">
+        <v>346</v>
+      </c>
+      <c r="J52" s="94"/>
+      <c r="K52" s="91"/>
+      <c r="L52" s="91"/>
+    </row>
+    <row r="53" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="53" t="s">
+        <v>454</v>
+      </c>
+      <c r="B53" s="176" t="s">
+        <v>463</v>
+      </c>
+      <c r="C53" s="18" t="s">
+        <v>469</v>
+      </c>
+      <c r="D53" s="18">
+        <v>2007</v>
+      </c>
+      <c r="E53" s="18" t="s">
+        <v>420</v>
+      </c>
+      <c r="F53" s="29" t="s">
+        <v>492</v>
+      </c>
+      <c r="G53" s="29"/>
+      <c r="H53" s="185" t="s">
+        <v>346</v>
+      </c>
+      <c r="I53" s="94"/>
+      <c r="J53" s="94"/>
+      <c r="K53" s="91"/>
+      <c r="L53" s="91"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S54"/>
   <sheetViews>
@@ -13258,43 +14948,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="208" t="s">
+      <c r="A1" s="215" t="s">
         <v>230</v>
       </c>
-      <c r="B1" s="209"/>
-      <c r="C1" s="209"/>
-      <c r="D1" s="209"/>
-      <c r="E1" s="209"/>
-      <c r="F1" s="209"/>
-      <c r="G1" s="209"/>
-      <c r="H1" s="209"/>
-      <c r="I1" s="209"/>
+      <c r="B1" s="216"/>
+      <c r="C1" s="216"/>
+      <c r="D1" s="216"/>
+      <c r="E1" s="216"/>
+      <c r="F1" s="216"/>
+      <c r="G1" s="216"/>
+      <c r="H1" s="216"/>
+      <c r="I1" s="216"/>
     </row>
     <row r="2" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="207" t="s">
+      <c r="A2" s="214" t="s">
         <v>229</v>
       </c>
-      <c r="B2" s="207"/>
-      <c r="C2" s="207"/>
-      <c r="D2" s="207"/>
-      <c r="E2" s="207"/>
-      <c r="F2" s="207"/>
-      <c r="G2" s="207"/>
-      <c r="H2" s="207"/>
-      <c r="I2" s="207"/>
+      <c r="B2" s="214"/>
+      <c r="C2" s="214"/>
+      <c r="D2" s="214"/>
+      <c r="E2" s="214"/>
+      <c r="F2" s="214"/>
+      <c r="G2" s="214"/>
+      <c r="H2" s="214"/>
+      <c r="I2" s="214"/>
     </row>
     <row r="3" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="200" t="s">
+      <c r="A3" s="207" t="s">
         <v>337</v>
       </c>
-      <c r="B3" s="200"/>
-      <c r="C3" s="200"/>
-      <c r="D3" s="200"/>
-      <c r="E3" s="200"/>
-      <c r="F3" s="200"/>
-      <c r="G3" s="200"/>
-      <c r="H3" s="200"/>
-      <c r="I3" s="200"/>
+      <c r="B3" s="207"/>
+      <c r="C3" s="207"/>
+      <c r="D3" s="207"/>
+      <c r="E3" s="207"/>
+      <c r="F3" s="207"/>
+      <c r="G3" s="207"/>
+      <c r="H3" s="207"/>
+      <c r="I3" s="207"/>
       <c r="J3" s="71"/>
       <c r="K3" s="71"/>
       <c r="L3" s="71"/>
@@ -13307,12 +14997,12 @@
       <c r="S3" s="71"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="210" t="s">
+      <c r="A4" s="217" t="s">
         <v>253</v>
       </c>
-      <c r="B4" s="210"/>
-      <c r="C4" s="210"/>
-      <c r="D4" s="210"/>
+      <c r="B4" s="217"/>
+      <c r="C4" s="217"/>
+      <c r="D4" s="217"/>
     </row>
     <row r="5" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="69" t="s">
@@ -13338,7 +15028,7 @@
       <c r="C6" s="49" t="s">
         <v>196</v>
       </c>
-      <c r="D6" s="204" t="s">
+      <c r="D6" s="211" t="s">
         <v>339</v>
       </c>
       <c r="E6" t="e">
@@ -13357,7 +15047,7 @@
       <c r="C7" s="49" t="s">
         <v>228</v>
       </c>
-      <c r="D7" s="205"/>
+      <c r="D7" s="212"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="78" t="s">
@@ -13369,7 +15059,7 @@
       <c r="C8" s="49" t="s">
         <v>235</v>
       </c>
-      <c r="D8" s="205"/>
+      <c r="D8" s="212"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="78" t="s">
@@ -13381,7 +15071,7 @@
       <c r="C9" s="49" t="s">
         <v>236</v>
       </c>
-      <c r="D9" s="205"/>
+      <c r="D9" s="212"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="78" t="s">
@@ -13393,7 +15083,7 @@
       <c r="C10" s="49" t="s">
         <v>237</v>
       </c>
-      <c r="D10" s="205"/>
+      <c r="D10" s="212"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="78" t="s">
@@ -13405,7 +15095,7 @@
       <c r="C11" s="49" t="s">
         <v>237</v>
       </c>
-      <c r="D11" s="205"/>
+      <c r="D11" s="212"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="78" t="s">
@@ -13417,7 +15107,7 @@
       <c r="C12" s="49" t="s">
         <v>266</v>
       </c>
-      <c r="D12" s="205"/>
+      <c r="D12" s="212"/>
     </row>
     <row r="13" spans="1:19" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="145" t="s">
@@ -13429,7 +15119,7 @@
       <c r="C13" s="136" t="s">
         <v>273</v>
       </c>
-      <c r="D13" s="206"/>
+      <c r="D13" s="213"/>
     </row>
     <row r="14" spans="1:19" s="77" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="146" t="s">
@@ -13446,30 +15136,30 @@
       </c>
     </row>
     <row r="15" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="207" t="s">
+      <c r="A15" s="214" t="s">
         <v>261</v>
       </c>
-      <c r="B15" s="207"/>
-      <c r="C15" s="207"/>
-      <c r="D15" s="207"/>
-      <c r="E15" s="207"/>
-      <c r="F15" s="207"/>
-      <c r="G15" s="207"/>
-      <c r="H15" s="207"/>
-      <c r="I15" s="207"/>
+      <c r="B15" s="214"/>
+      <c r="C15" s="214"/>
+      <c r="D15" s="214"/>
+      <c r="E15" s="214"/>
+      <c r="F15" s="214"/>
+      <c r="G15" s="214"/>
+      <c r="H15" s="214"/>
+      <c r="I15" s="214"/>
     </row>
     <row r="16" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="200" t="s">
+      <c r="A16" s="207" t="s">
         <v>238</v>
       </c>
-      <c r="B16" s="200"/>
-      <c r="C16" s="200"/>
-      <c r="D16" s="200"/>
-      <c r="E16" s="200"/>
-      <c r="F16" s="200"/>
-      <c r="G16" s="200"/>
-      <c r="H16" s="200"/>
-      <c r="I16" s="200"/>
+      <c r="B16" s="207"/>
+      <c r="C16" s="207"/>
+      <c r="D16" s="207"/>
+      <c r="E16" s="207"/>
+      <c r="F16" s="207"/>
+      <c r="G16" s="207"/>
+      <c r="H16" s="207"/>
+      <c r="I16" s="207"/>
       <c r="J16" s="71"/>
       <c r="K16" s="71"/>
       <c r="L16" s="71"/>
@@ -13482,14 +15172,14 @@
       <c r="S16" s="71"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="210" t="s">
+      <c r="A17" s="217" t="s">
         <v>259</v>
       </c>
-      <c r="B17" s="210"/>
-      <c r="C17" s="210"/>
-      <c r="D17" s="210"/>
-      <c r="E17" s="210"/>
-      <c r="F17" s="210"/>
+      <c r="B17" s="217"/>
+      <c r="C17" s="217"/>
+      <c r="D17" s="217"/>
+      <c r="E17" s="217"/>
+      <c r="F17" s="217"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="69" t="s">
@@ -13656,30 +15346,30 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="207" t="s">
+      <c r="A25" s="214" t="s">
         <v>260</v>
       </c>
-      <c r="B25" s="207"/>
-      <c r="C25" s="207"/>
-      <c r="D25" s="207"/>
-      <c r="E25" s="207"/>
-      <c r="F25" s="207"/>
-      <c r="G25" s="207"/>
-      <c r="H25" s="207"/>
-      <c r="I25" s="207"/>
+      <c r="B25" s="214"/>
+      <c r="C25" s="214"/>
+      <c r="D25" s="214"/>
+      <c r="E25" s="214"/>
+      <c r="F25" s="214"/>
+      <c r="G25" s="214"/>
+      <c r="H25" s="214"/>
+      <c r="I25" s="214"/>
     </row>
     <row r="26" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="200" t="s">
+      <c r="A26" s="207" t="s">
         <v>338</v>
       </c>
-      <c r="B26" s="200"/>
-      <c r="C26" s="200"/>
-      <c r="D26" s="200"/>
-      <c r="E26" s="200"/>
-      <c r="F26" s="200"/>
-      <c r="G26" s="200"/>
-      <c r="H26" s="200"/>
-      <c r="I26" s="200"/>
+      <c r="B26" s="207"/>
+      <c r="C26" s="207"/>
+      <c r="D26" s="207"/>
+      <c r="E26" s="207"/>
+      <c r="F26" s="207"/>
+      <c r="G26" s="207"/>
+      <c r="H26" s="207"/>
+      <c r="I26" s="207"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="69" t="s">
@@ -13691,12 +15381,12 @@
       <c r="C27" s="69" t="s">
         <v>201</v>
       </c>
-      <c r="D27" s="214" t="s">
+      <c r="D27" s="221" t="s">
         <v>292</v>
       </c>
-      <c r="E27" s="214"/>
-      <c r="F27" s="214"/>
-      <c r="G27" s="214"/>
+      <c r="E27" s="221"/>
+      <c r="F27" s="221"/>
+      <c r="G27" s="221"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="52" t="s">
@@ -13708,12 +15398,12 @@
       <c r="C28" s="72">
         <v>0.59</v>
       </c>
-      <c r="D28" s="201" t="s">
+      <c r="D28" s="208" t="s">
         <v>285</v>
       </c>
-      <c r="E28" s="202"/>
-      <c r="F28" s="202"/>
-      <c r="G28" s="203"/>
+      <c r="E28" s="209"/>
+      <c r="F28" s="209"/>
+      <c r="G28" s="210"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="52" t="s">
@@ -13725,12 +15415,12 @@
       <c r="C29" s="72">
         <v>0.77</v>
       </c>
-      <c r="D29" s="211" t="s">
+      <c r="D29" s="218" t="s">
         <v>286</v>
       </c>
-      <c r="E29" s="212"/>
-      <c r="F29" s="212"/>
-      <c r="G29" s="213"/>
+      <c r="E29" s="219"/>
+      <c r="F29" s="219"/>
+      <c r="G29" s="220"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="52" t="s">
@@ -13742,12 +15432,12 @@
       <c r="C30" s="72">
         <v>0.41</v>
       </c>
-      <c r="D30" s="211" t="s">
+      <c r="D30" s="218" t="s">
         <v>287</v>
       </c>
-      <c r="E30" s="212"/>
-      <c r="F30" s="212"/>
-      <c r="G30" s="213"/>
+      <c r="E30" s="219"/>
+      <c r="F30" s="219"/>
+      <c r="G30" s="220"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="52" t="s">
@@ -13759,12 +15449,12 @@
       <c r="C31" s="72">
         <v>0.59</v>
       </c>
-      <c r="D31" s="211" t="s">
+      <c r="D31" s="218" t="s">
         <v>289</v>
       </c>
-      <c r="E31" s="212"/>
-      <c r="F31" s="212"/>
-      <c r="G31" s="213"/>
+      <c r="E31" s="219"/>
+      <c r="F31" s="219"/>
+      <c r="G31" s="220"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="52" t="s">
@@ -13776,12 +15466,12 @@
       <c r="C32" s="72">
         <v>0.5</v>
       </c>
-      <c r="D32" s="211" t="s">
+      <c r="D32" s="218" t="s">
         <v>288</v>
       </c>
-      <c r="E32" s="212"/>
-      <c r="F32" s="212"/>
-      <c r="G32" s="213"/>
+      <c r="E32" s="219"/>
+      <c r="F32" s="219"/>
+      <c r="G32" s="220"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="52" t="s">
@@ -13793,12 +15483,12 @@
       <c r="C33" s="72">
         <v>0.59</v>
       </c>
-      <c r="D33" s="211" t="s">
+      <c r="D33" s="218" t="s">
         <v>290</v>
       </c>
-      <c r="E33" s="212"/>
-      <c r="F33" s="212"/>
-      <c r="G33" s="213"/>
+      <c r="E33" s="219"/>
+      <c r="F33" s="219"/>
+      <c r="G33" s="220"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="52" t="s">
@@ -13810,25 +15500,25 @@
       <c r="C34" s="72">
         <v>0.54</v>
       </c>
-      <c r="D34" s="211" t="s">
+      <c r="D34" s="218" t="s">
         <v>291</v>
       </c>
-      <c r="E34" s="212"/>
-      <c r="F34" s="212"/>
-      <c r="G34" s="213"/>
+      <c r="E34" s="219"/>
+      <c r="F34" s="219"/>
+      <c r="G34" s="220"/>
     </row>
     <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="207" t="s">
+      <c r="A36" s="214" t="s">
         <v>315</v>
       </c>
-      <c r="B36" s="207"/>
-      <c r="C36" s="207"/>
-      <c r="D36" s="207"/>
-      <c r="E36" s="207"/>
-      <c r="F36" s="207"/>
-      <c r="G36" s="207"/>
-      <c r="H36" s="207"/>
-      <c r="I36" s="207"/>
+      <c r="B36" s="214"/>
+      <c r="C36" s="214"/>
+      <c r="D36" s="214"/>
+      <c r="E36" s="214"/>
+      <c r="F36" s="214"/>
+      <c r="G36" s="214"/>
+      <c r="H36" s="214"/>
+      <c r="I36" s="214"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="87" t="s">
@@ -13895,12 +15585,12 @@
       </c>
     </row>
     <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="199" t="s">
+      <c r="A46" s="206" t="s">
         <v>318</v>
       </c>
-      <c r="B46" s="199"/>
-      <c r="C46" s="199"/>
-      <c r="D46" s="199"/>
+      <c r="B46" s="206"/>
+      <c r="C46" s="206"/>
+      <c r="D46" s="206"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="88" t="s">
@@ -14078,7 +15768,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V48"/>
   <sheetViews>
@@ -14102,15 +15792,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="220" t="s">
+      <c r="A1" s="227" t="s">
         <v>347</v>
       </c>
-      <c r="B1" s="220"/>
-      <c r="C1" s="220"/>
-      <c r="D1" s="220"/>
-      <c r="E1" s="220"/>
-      <c r="F1" s="220"/>
-      <c r="G1" s="220"/>
+      <c r="B1" s="227"/>
+      <c r="C1" s="227"/>
+      <c r="D1" s="227"/>
+      <c r="E1" s="227"/>
+      <c r="F1" s="227"/>
+      <c r="G1" s="227"/>
     </row>
     <row r="2" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="158" t="s">
@@ -14134,11 +15824,11 @@
       <c r="G2" s="158" t="s">
         <v>344</v>
       </c>
-      <c r="I2" s="219" t="s">
+      <c r="I2" s="226" t="s">
         <v>197</v>
       </c>
-      <c r="J2" s="219"/>
-      <c r="K2" s="219"/>
+      <c r="J2" s="226"/>
+      <c r="K2" s="226"/>
     </row>
     <row r="3" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
@@ -14591,20 +16281,20 @@
       <c r="J22" s="115" t="s">
         <v>217</v>
       </c>
-      <c r="K22" s="221" t="s">
+      <c r="K22" s="228" t="s">
         <v>307</v>
       </c>
-      <c r="L22" s="221"/>
-      <c r="M22" s="221"/>
-      <c r="N22" s="221"/>
-      <c r="O22" s="221"/>
-      <c r="P22" s="221"/>
-      <c r="Q22" s="221"/>
-      <c r="R22" s="221"/>
-      <c r="S22" s="221"/>
-      <c r="T22" s="221"/>
-      <c r="U22" s="221"/>
-      <c r="V22" s="221"/>
+      <c r="L22" s="228"/>
+      <c r="M22" s="228"/>
+      <c r="N22" s="228"/>
+      <c r="O22" s="228"/>
+      <c r="P22" s="228"/>
+      <c r="Q22" s="228"/>
+      <c r="R22" s="228"/>
+      <c r="S22" s="228"/>
+      <c r="T22" s="228"/>
+      <c r="U22" s="228"/>
+      <c r="V22" s="228"/>
     </row>
     <row r="23" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="36" t="s">
@@ -14710,10 +16400,10 @@
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A29" s="223"/>
-      <c r="B29" s="224"/>
-      <c r="C29" s="224"/>
-      <c r="D29" s="225"/>
+      <c r="A29" s="230"/>
+      <c r="B29" s="231"/>
+      <c r="C29" s="231"/>
+      <c r="D29" s="232"/>
       <c r="I29" s="43" t="s">
         <v>187</v>
       </c>
@@ -14730,10 +16420,10 @@
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A31" s="226" t="s">
+      <c r="A31" s="233" t="s">
         <v>181</v>
       </c>
-      <c r="B31" s="227"/>
+      <c r="B31" s="234"/>
       <c r="C31" s="68"/>
       <c r="I31" s="43" t="s">
         <v>189</v>
@@ -14755,20 +16445,20 @@
       <c r="J32" s="116" t="s">
         <v>308</v>
       </c>
-      <c r="K32" s="222" t="s">
+      <c r="K32" s="229" t="s">
         <v>306</v>
       </c>
-      <c r="L32" s="222"/>
-      <c r="M32" s="222"/>
-      <c r="N32" s="222"/>
-      <c r="O32" s="222"/>
-      <c r="P32" s="222"/>
-      <c r="Q32" s="222"/>
-      <c r="R32" s="222"/>
-      <c r="S32" s="222"/>
-      <c r="T32" s="222"/>
-      <c r="U32" s="222"/>
-      <c r="V32" s="222"/>
+      <c r="L32" s="229"/>
+      <c r="M32" s="229"/>
+      <c r="N32" s="229"/>
+      <c r="O32" s="229"/>
+      <c r="P32" s="229"/>
+      <c r="Q32" s="229"/>
+      <c r="R32" s="229"/>
+      <c r="S32" s="229"/>
+      <c r="T32" s="229"/>
+      <c r="U32" s="229"/>
+      <c r="V32" s="229"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="84" t="s">
@@ -14801,10 +16491,10 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="215" t="s">
+      <c r="A35" s="222" t="s">
         <v>184</v>
       </c>
-      <c r="B35" s="217" t="s">
+      <c r="B35" s="224" t="s">
         <v>219</v>
       </c>
       <c r="D35" s="90"/>
@@ -14814,8 +16504,8 @@
       <c r="J35" s="41"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="216"/>
-      <c r="B36" s="218"/>
+      <c r="A36" s="223"/>
+      <c r="B36" s="225"/>
       <c r="D36" s="90"/>
       <c r="I36" s="105" t="s">
         <v>296</v>
@@ -14904,7 +16594,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V48"/>
   <sheetViews>
@@ -14934,15 +16624,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="220" t="s">
+      <c r="A1" s="227" t="s">
         <v>347</v>
       </c>
-      <c r="B1" s="220"/>
-      <c r="C1" s="220"/>
-      <c r="D1" s="220"/>
-      <c r="E1" s="220"/>
-      <c r="F1" s="220"/>
-      <c r="G1" s="220"/>
+      <c r="B1" s="227"/>
+      <c r="C1" s="227"/>
+      <c r="D1" s="227"/>
+      <c r="E1" s="227"/>
+      <c r="F1" s="227"/>
+      <c r="G1" s="227"/>
     </row>
     <row r="2" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="158" t="s">
@@ -14966,11 +16656,11 @@
       <c r="G2" s="158" t="s">
         <v>344</v>
       </c>
-      <c r="I2" s="219" t="s">
+      <c r="I2" s="226" t="s">
         <v>197</v>
       </c>
-      <c r="J2" s="219"/>
-      <c r="K2" s="219"/>
+      <c r="J2" s="226"/>
+      <c r="K2" s="226"/>
       <c r="O2" s="170" t="s">
         <v>351</v>
       </c>
@@ -15471,20 +17161,20 @@
       <c r="J22" s="115" t="s">
         <v>217</v>
       </c>
-      <c r="K22" s="221" t="s">
+      <c r="K22" s="228" t="s">
         <v>307</v>
       </c>
-      <c r="L22" s="221"/>
-      <c r="M22" s="221"/>
-      <c r="N22" s="221"/>
-      <c r="O22" s="221"/>
-      <c r="P22" s="221"/>
-      <c r="Q22" s="221"/>
-      <c r="R22" s="221"/>
-      <c r="S22" s="221"/>
-      <c r="T22" s="221"/>
-      <c r="U22" s="221"/>
-      <c r="V22" s="221"/>
+      <c r="L22" s="228"/>
+      <c r="M22" s="228"/>
+      <c r="N22" s="228"/>
+      <c r="O22" s="228"/>
+      <c r="P22" s="228"/>
+      <c r="Q22" s="228"/>
+      <c r="R22" s="228"/>
+      <c r="S22" s="228"/>
+      <c r="T22" s="228"/>
+      <c r="U22" s="228"/>
+      <c r="V22" s="228"/>
     </row>
     <row r="23" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="36" t="s">
@@ -15590,10 +17280,10 @@
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A29" s="223"/>
-      <c r="B29" s="224"/>
-      <c r="C29" s="224"/>
-      <c r="D29" s="225"/>
+      <c r="A29" s="230"/>
+      <c r="B29" s="231"/>
+      <c r="C29" s="231"/>
+      <c r="D29" s="232"/>
       <c r="I29" s="43" t="s">
         <v>187</v>
       </c>
@@ -15610,10 +17300,10 @@
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A31" s="226" t="s">
+      <c r="A31" s="233" t="s">
         <v>181</v>
       </c>
-      <c r="B31" s="227"/>
+      <c r="B31" s="234"/>
       <c r="C31" s="68"/>
       <c r="I31" s="43" t="s">
         <v>189</v>
@@ -15635,20 +17325,20 @@
       <c r="J32" s="116" t="s">
         <v>308</v>
       </c>
-      <c r="K32" s="222" t="s">
+      <c r="K32" s="229" t="s">
         <v>306</v>
       </c>
-      <c r="L32" s="222"/>
-      <c r="M32" s="222"/>
-      <c r="N32" s="222"/>
-      <c r="O32" s="222"/>
-      <c r="P32" s="222"/>
-      <c r="Q32" s="222"/>
-      <c r="R32" s="222"/>
-      <c r="S32" s="222"/>
-      <c r="T32" s="222"/>
-      <c r="U32" s="222"/>
-      <c r="V32" s="222"/>
+      <c r="L32" s="229"/>
+      <c r="M32" s="229"/>
+      <c r="N32" s="229"/>
+      <c r="O32" s="229"/>
+      <c r="P32" s="229"/>
+      <c r="Q32" s="229"/>
+      <c r="R32" s="229"/>
+      <c r="S32" s="229"/>
+      <c r="T32" s="229"/>
+      <c r="U32" s="229"/>
+      <c r="V32" s="229"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="84" t="s">
@@ -15679,10 +17369,10 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="215" t="s">
+      <c r="A35" s="222" t="s">
         <v>184</v>
       </c>
-      <c r="B35" s="217" t="s">
+      <c r="B35" s="224" t="s">
         <v>219</v>
       </c>
       <c r="I35" s="43" t="s">
@@ -15691,8 +17381,8 @@
       <c r="J35" s="41"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="216"/>
-      <c r="B36" s="218"/>
+      <c r="A36" s="223"/>
+      <c r="B36" s="225"/>
       <c r="I36" s="105" t="s">
         <v>296</v>
       </c>
@@ -15774,12 +17464,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView topLeftCell="A24" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15794,18 +17484,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="228" t="s">
+      <c r="A1" s="235" t="s">
         <v>464</v>
       </c>
-      <c r="B1" s="228"/>
-      <c r="C1" s="228"/>
-      <c r="D1" s="228"/>
-      <c r="E1" s="228"/>
-      <c r="F1" s="228"/>
-      <c r="G1" s="228"/>
-      <c r="H1" s="228"/>
-      <c r="I1" s="228"/>
-      <c r="J1" s="228"/>
+      <c r="B1" s="235"/>
+      <c r="C1" s="235"/>
+      <c r="D1" s="235"/>
+      <c r="E1" s="235"/>
+      <c r="F1" s="235"/>
+      <c r="G1" s="235"/>
+      <c r="H1" s="235"/>
+      <c r="I1" s="235"/>
+      <c r="J1" s="235"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="173" t="s">
@@ -16635,33 +18325,4 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:G1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="235" t="s">
-        <v>525</v>
-      </c>
-      <c r="B1" s="235"/>
-      <c r="C1" s="235"/>
-      <c r="D1" s="235"/>
-      <c r="E1" s="235"/>
-      <c r="F1" s="235"/>
-      <c r="G1" s="235"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
 </file>
--- a/Experiment01_Resumo/Resumo_Exp01.xlsx
+++ b/Experiment01_Resumo/Resumo_Exp01.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Resumo DatabaseSnowballing" sheetId="8" r:id="rId2"/>
     <sheet name="SearchResults" sheetId="9" r:id="rId3"/>
     <sheet name="Seed Set" sheetId="5" r:id="rId4"/>
-    <sheet name="Plan1" sheetId="19" r:id="rId5"/>
+    <sheet name="51 estudos" sheetId="19" r:id="rId5"/>
     <sheet name="ResearchQuestions" sheetId="11" r:id="rId6"/>
     <sheet name="Scopus" sheetId="10" r:id="rId7"/>
     <sheet name="BSB-FSB" sheetId="16" r:id="rId8"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1474" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1479" uniqueCount="556">
   <si>
     <t>Database search</t>
   </si>
@@ -1792,6 +1792,21 @@
   </si>
   <si>
     <t>Citado por 50, mas 4 não foram pegos.</t>
+  </si>
+  <si>
+    <t>JF recuperou 39.</t>
+  </si>
+  <si>
+    <t>2 estavam em russo e 2 japones</t>
+  </si>
+  <si>
+    <t>6 estavam em japones/russo</t>
+  </si>
+  <si>
+    <t>4 não foram incluidos, pois estavam em russo</t>
+  </si>
+  <si>
+    <t>Scholar em 13/04/2018</t>
   </si>
 </sst>
 </file>
@@ -2484,7 +2499,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="246">
+  <cellXfs count="252">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2971,6 +2986,15 @@
     <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3019,12 +3043,36 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3043,30 +3091,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3130,14 +3154,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3462,12 +3495,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="214768240"/>
-        <c:axId val="214762360"/>
+        <c:axId val="210253680"/>
+        <c:axId val="210246232"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="214768240"/>
+        <c:axId val="210253680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3559,7 +3592,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="214762360"/>
+        <c:crossAx val="210246232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3567,7 +3600,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="214762360"/>
+        <c:axId val="210246232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3618,7 +3651,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="214768240"/>
+        <c:crossAx val="210253680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3927,12 +3960,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="214762752"/>
-        <c:axId val="214766280"/>
+        <c:axId val="210247800"/>
+        <c:axId val="210248192"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="214762752"/>
+        <c:axId val="210247800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4021,7 +4054,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="214766280"/>
+        <c:crossAx val="210248192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4029,7 +4062,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="214766280"/>
+        <c:axId val="210248192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4112,7 +4145,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="214762752"/>
+        <c:crossAx val="210247800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4397,12 +4430,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="214765104"/>
-        <c:axId val="214765496"/>
+        <c:axId val="210251328"/>
+        <c:axId val="210251720"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="214765104"/>
+        <c:axId val="210251328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4491,7 +4524,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="214765496"/>
+        <c:crossAx val="210251720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4499,7 +4532,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="214765496"/>
+        <c:axId val="210251720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4582,7 +4615,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="214765104"/>
+        <c:crossAx val="210251328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5369,12 +5402,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="214763928"/>
-        <c:axId val="214763144"/>
+        <c:axId val="303427696"/>
+        <c:axId val="303422992"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="214763928"/>
+        <c:axId val="303427696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5414,7 +5447,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="214763144"/>
+        <c:crossAx val="303422992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5422,7 +5455,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="214763144"/>
+        <c:axId val="303422992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5470,7 +5503,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="214763928"/>
+        <c:crossAx val="303427696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5778,8 +5811,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="214764320"/>
-        <c:axId val="214768632"/>
+        <c:axId val="303428480"/>
+        <c:axId val="303428872"/>
         <c:axId val="0"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
@@ -5949,7 +5982,7 @@
         </c:extLst>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="214764320"/>
+        <c:axId val="303428480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6047,7 +6080,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="214768632"/>
+        <c:crossAx val="303428872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6055,7 +6088,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="214768632"/>
+        <c:axId val="303428872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6134,7 +6167,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="214764320"/>
+        <c:crossAx val="303428480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6448,8 +6481,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="214765888"/>
-        <c:axId val="216473200"/>
+        <c:axId val="303423384"/>
+        <c:axId val="303425736"/>
         <c:axId val="0"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
@@ -6619,7 +6652,7 @@
         </c:extLst>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="214765888"/>
+        <c:axId val="303423384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6717,7 +6750,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="216473200"/>
+        <c:crossAx val="303425736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6725,7 +6758,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="216473200"/>
+        <c:axId val="303425736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6804,7 +6837,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="214765888"/>
+        <c:crossAx val="303423384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10502,22 +10535,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="190" t="s">
+      <c r="A1" s="193" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="191"/>
+      <c r="B1" s="194"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="192" t="s">
+      <c r="A2" s="195" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="193"/>
+      <c r="B2" s="196"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="192" t="s">
+      <c r="A3" s="195" t="s">
         <v>96</v>
       </c>
-      <c r="B3" s="193"/>
+      <c r="B3" s="196"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -10552,10 +10585,10 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="194" t="s">
+      <c r="A8" s="197" t="s">
         <v>103</v>
       </c>
-      <c r="B8" s="195"/>
+      <c r="B8" s="198"/>
     </row>
     <row r="9" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
@@ -10631,15 +10664,15 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="236" t="s">
+      <c r="A1" s="239" t="s">
         <v>525</v>
       </c>
-      <c r="B1" s="236"/>
-      <c r="C1" s="236"/>
-      <c r="D1" s="236"/>
-      <c r="E1" s="236"/>
-      <c r="F1" s="236"/>
-      <c r="G1" s="236"/>
+      <c r="B1" s="239"/>
+      <c r="C1" s="239"/>
+      <c r="D1" s="239"/>
+      <c r="E1" s="239"/>
+      <c r="F1" s="239"/>
+      <c r="G1" s="239"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10674,19 +10707,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="205" t="s">
+      <c r="A1" s="208" t="s">
         <v>326</v>
       </c>
-      <c r="B1" s="205"/>
-      <c r="C1" s="205"/>
-      <c r="D1" s="205"/>
-      <c r="E1" s="205"/>
-      <c r="F1" s="205"/>
-      <c r="G1" s="205"/>
-      <c r="H1" s="205"/>
-      <c r="I1" s="205"/>
-      <c r="J1" s="205"/>
-      <c r="K1" s="205"/>
+      <c r="B1" s="208"/>
+      <c r="C1" s="208"/>
+      <c r="D1" s="208"/>
+      <c r="E1" s="208"/>
+      <c r="F1" s="208"/>
+      <c r="G1" s="208"/>
+      <c r="H1" s="208"/>
+      <c r="I1" s="208"/>
+      <c r="J1" s="208"/>
+      <c r="K1" s="208"/>
     </row>
     <row r="2" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
@@ -11408,10 +11441,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="237" t="s">
+      <c r="A1" s="240" t="s">
         <v>333</v>
       </c>
-      <c r="B1" s="238"/>
+      <c r="B1" s="241"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="79" t="s">
@@ -11479,20 +11512,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="239" t="s">
+      <c r="A1" s="242" t="s">
         <v>327</v>
       </c>
-      <c r="B1" s="239"/>
-      <c r="C1" s="239"/>
-      <c r="D1" s="239"/>
-      <c r="E1" s="239"/>
-      <c r="F1" s="239"/>
-      <c r="G1" s="239"/>
-      <c r="H1" s="239"/>
-      <c r="I1" s="239"/>
-      <c r="J1" s="239"/>
-      <c r="K1" s="239"/>
-      <c r="L1" s="239"/>
+      <c r="B1" s="242"/>
+      <c r="C1" s="242"/>
+      <c r="D1" s="242"/>
+      <c r="E1" s="242"/>
+      <c r="F1" s="242"/>
+      <c r="G1" s="242"/>
+      <c r="H1" s="242"/>
+      <c r="I1" s="242"/>
+      <c r="J1" s="242"/>
+      <c r="K1" s="242"/>
+      <c r="L1" s="242"/>
     </row>
     <row r="2" spans="1:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="142" t="s">
@@ -12211,15 +12244,15 @@
     </row>
     <row r="26" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="134"/>
-      <c r="B26" s="240" t="s">
+      <c r="B26" s="243" t="s">
         <v>334</v>
       </c>
-      <c r="C26" s="241"/>
-      <c r="D26" s="241"/>
-      <c r="E26" s="241"/>
-      <c r="F26" s="241"/>
-      <c r="G26" s="241"/>
-      <c r="H26" s="242"/>
+      <c r="C26" s="244"/>
+      <c r="D26" s="244"/>
+      <c r="E26" s="244"/>
+      <c r="F26" s="244"/>
+      <c r="G26" s="244"/>
+      <c r="H26" s="245"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="66"/>
@@ -12244,7 +12277,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -12385,10 +12420,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="200" t="s">
+      <c r="A1" s="203" t="s">
         <v>151</v>
       </c>
-      <c r="B1" s="201"/>
+      <c r="B1" s="204"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
@@ -12421,16 +12456,16 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="196" t="s">
+      <c r="A6" s="199" t="s">
         <v>147</v>
       </c>
-      <c r="B6" s="197"/>
+      <c r="B6" s="200"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="198" t="s">
+      <c r="A7" s="201" t="s">
         <v>150</v>
       </c>
-      <c r="B7" s="199"/>
+      <c r="B7" s="202"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
@@ -12512,16 +12547,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="202" t="s">
+      <c r="A1" s="205" t="s">
         <v>336</v>
       </c>
-      <c r="B1" s="203"/>
-      <c r="C1" s="203"/>
-      <c r="D1" s="203"/>
-      <c r="E1" s="203"/>
-      <c r="F1" s="203"/>
-      <c r="G1" s="203"/>
-      <c r="H1" s="204"/>
+      <c r="B1" s="206"/>
+      <c r="C1" s="206"/>
+      <c r="D1" s="206"/>
+      <c r="E1" s="206"/>
+      <c r="F1" s="206"/>
+      <c r="G1" s="206"/>
+      <c r="H1" s="207"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
     </row>
@@ -12876,8 +12911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F24"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12891,14 +12926,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="205" t="s">
+      <c r="A1" s="208" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="205"/>
-      <c r="C1" s="205"/>
-      <c r="D1" s="205"/>
-      <c r="E1" s="205"/>
-      <c r="F1" s="205"/>
+      <c r="B1" s="208"/>
+      <c r="C1" s="208"/>
+      <c r="D1" s="208"/>
+      <c r="E1" s="208"/>
+      <c r="F1" s="208"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
@@ -13381,10 +13416,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L53"/>
+  <dimension ref="A2:M53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="E16" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13394,14 +13429,16 @@
     <col min="3" max="3" width="25.5703125" customWidth="1"/>
     <col min="4" max="4" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.85546875" customWidth="1"/>
-    <col min="6" max="7" width="18.85546875" style="81" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" style="81" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="3"/>
-    <col min="11" max="11" width="14.5703125" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" style="81" customWidth="1"/>
+    <col min="7" max="7" width="5.28515625" style="81" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="81" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" style="81" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="3"/>
+    <col min="12" max="12" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>123</v>
       </c>
@@ -13420,20 +13457,23 @@
       <c r="F2" s="21" t="s">
         <v>474</v>
       </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21" t="s">
+      <c r="G2" s="82" t="s">
+        <v>555</v>
+      </c>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21" t="s">
         <v>530</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="J2" s="21" t="s">
         <v>526</v>
       </c>
-      <c r="J2" s="82" t="s">
+      <c r="K2" s="82" t="s">
         <v>529</v>
       </c>
-      <c r="K2" s="91"/>
       <c r="L2" s="91"/>
-    </row>
-    <row r="3" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M2" s="91"/>
+    </row>
+    <row r="3" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>22</v>
       </c>
@@ -13453,15 +13493,16 @@
         <v>502</v>
       </c>
       <c r="G3" s="48"/>
-      <c r="H3" s="184" t="s">
+      <c r="H3" s="48"/>
+      <c r="I3" s="184" t="s">
         <v>346</v>
       </c>
-      <c r="I3" s="94"/>
       <c r="J3" s="94"/>
-      <c r="K3" s="91"/>
+      <c r="K3" s="94"/>
       <c r="L3" s="91"/>
-    </row>
-    <row r="4" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M3" s="91"/>
+    </row>
+    <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>27</v>
       </c>
@@ -13482,14 +13523,15 @@
       </c>
       <c r="G4" s="48"/>
       <c r="H4" s="48"/>
-      <c r="I4" s="34" t="s">
+      <c r="I4" s="48"/>
+      <c r="J4" s="34" t="s">
         <v>346</v>
       </c>
-      <c r="J4" s="94"/>
-      <c r="K4" s="91"/>
+      <c r="K4" s="94"/>
       <c r="L4" s="91"/>
-    </row>
-    <row r="5" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M4" s="91"/>
+    </row>
+    <row r="5" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>29</v>
       </c>
@@ -13509,19 +13551,20 @@
         <v>210</v>
       </c>
       <c r="G5" s="48"/>
-      <c r="H5" s="184" t="s">
+      <c r="H5" s="48"/>
+      <c r="I5" s="184" t="s">
         <v>346</v>
       </c>
-      <c r="I5" s="94"/>
-      <c r="J5" s="187" t="s">
+      <c r="J5" s="94"/>
+      <c r="K5" s="187" t="s">
         <v>346</v>
       </c>
-      <c r="K5" s="183" t="s">
+      <c r="L5" s="183" t="s">
         <v>528</v>
       </c>
-      <c r="L5" s="91"/>
-    </row>
-    <row r="6" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M5" s="91"/>
+    </row>
+    <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>31</v>
       </c>
@@ -13542,14 +13585,15 @@
       </c>
       <c r="G6" s="48"/>
       <c r="H6" s="48"/>
-      <c r="I6" s="34" t="s">
+      <c r="I6" s="48"/>
+      <c r="J6" s="34" t="s">
         <v>346</v>
       </c>
-      <c r="J6" s="94"/>
-      <c r="K6" s="91"/>
+      <c r="K6" s="94"/>
       <c r="L6" s="91"/>
-    </row>
-    <row r="7" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M6" s="91"/>
+    </row>
+    <row r="7" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>38</v>
       </c>
@@ -13569,15 +13613,16 @@
         <v>211</v>
       </c>
       <c r="G7" s="48"/>
-      <c r="H7" s="184" t="s">
+      <c r="H7" s="48"/>
+      <c r="I7" s="184" t="s">
         <v>346</v>
       </c>
-      <c r="I7" s="94"/>
       <c r="J7" s="94"/>
-      <c r="K7" s="91"/>
+      <c r="K7" s="94"/>
       <c r="L7" s="91"/>
-    </row>
-    <row r="8" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M7" s="91"/>
+    </row>
+    <row r="8" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>39</v>
       </c>
@@ -13597,15 +13642,16 @@
         <v>512</v>
       </c>
       <c r="G8" s="48"/>
-      <c r="H8" s="184" t="s">
+      <c r="H8" s="48"/>
+      <c r="I8" s="184" t="s">
         <v>346</v>
       </c>
-      <c r="I8" s="94"/>
       <c r="J8" s="94"/>
-      <c r="K8" s="91"/>
+      <c r="K8" s="94"/>
       <c r="L8" s="91"/>
-    </row>
-    <row r="9" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M8" s="91"/>
+    </row>
+    <row r="9" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>40</v>
       </c>
@@ -13625,15 +13671,16 @@
         <v>513</v>
       </c>
       <c r="G9" s="48"/>
-      <c r="H9" s="184" t="s">
+      <c r="H9" s="48"/>
+      <c r="I9" s="184" t="s">
         <v>346</v>
       </c>
-      <c r="I9" s="94"/>
       <c r="J9" s="94"/>
-      <c r="K9" s="91"/>
+      <c r="K9" s="94"/>
       <c r="L9" s="91"/>
-    </row>
-    <row r="10" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M9" s="91"/>
+    </row>
+    <row r="10" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>41</v>
       </c>
@@ -13653,15 +13700,16 @@
         <v>212</v>
       </c>
       <c r="G10" s="48"/>
-      <c r="H10" s="184" t="s">
+      <c r="H10" s="48"/>
+      <c r="I10" s="184" t="s">
         <v>346</v>
       </c>
-      <c r="I10" s="94"/>
       <c r="J10" s="94"/>
-      <c r="K10" s="91"/>
+      <c r="K10" s="94"/>
       <c r="L10" s="91"/>
-    </row>
-    <row r="11" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M10" s="91"/>
+    </row>
+    <row r="11" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>42</v>
       </c>
@@ -13681,15 +13729,16 @@
         <v>514</v>
       </c>
       <c r="G11" s="48"/>
-      <c r="H11" s="184" t="s">
+      <c r="H11" s="48"/>
+      <c r="I11" s="184" t="s">
         <v>346</v>
       </c>
-      <c r="I11" s="94"/>
       <c r="J11" s="94"/>
-      <c r="K11" s="91"/>
+      <c r="K11" s="94"/>
       <c r="L11" s="91"/>
-    </row>
-    <row r="12" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M11" s="91"/>
+    </row>
+    <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>43</v>
       </c>
@@ -13709,15 +13758,16 @@
         <v>515</v>
       </c>
       <c r="G12" s="48"/>
-      <c r="H12" s="184" t="s">
+      <c r="H12" s="48"/>
+      <c r="I12" s="184" t="s">
         <v>346</v>
       </c>
-      <c r="I12" s="94"/>
       <c r="J12" s="94"/>
-      <c r="K12" s="91"/>
+      <c r="K12" s="94"/>
       <c r="L12" s="91"/>
-    </row>
-    <row r="13" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M12" s="91"/>
+    </row>
+    <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>44</v>
       </c>
@@ -13738,14 +13788,15 @@
       </c>
       <c r="G13" s="48"/>
       <c r="H13" s="48"/>
-      <c r="I13" s="34" t="s">
+      <c r="I13" s="48"/>
+      <c r="J13" s="34" t="s">
         <v>346</v>
       </c>
-      <c r="J13" s="94"/>
-      <c r="K13" s="91"/>
+      <c r="K13" s="94"/>
       <c r="L13" s="91"/>
-    </row>
-    <row r="14" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M13" s="91"/>
+    </row>
+    <row r="14" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>45</v>
       </c>
@@ -13766,14 +13817,15 @@
       </c>
       <c r="G14" s="48"/>
       <c r="H14" s="48"/>
-      <c r="I14" s="34" t="s">
+      <c r="I14" s="48"/>
+      <c r="J14" s="34" t="s">
         <v>346</v>
       </c>
-      <c r="J14" s="94"/>
-      <c r="K14" s="91"/>
+      <c r="K14" s="94"/>
       <c r="L14" s="91"/>
-    </row>
-    <row r="15" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M14" s="91"/>
+    </row>
+    <row r="15" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>46</v>
       </c>
@@ -13793,15 +13845,16 @@
         <v>517</v>
       </c>
       <c r="G15" s="48"/>
-      <c r="H15" s="184" t="s">
+      <c r="H15" s="48"/>
+      <c r="I15" s="184" t="s">
         <v>346</v>
       </c>
-      <c r="I15" s="94"/>
       <c r="J15" s="94"/>
-      <c r="K15" s="91"/>
+      <c r="K15" s="94"/>
       <c r="L15" s="91"/>
-    </row>
-    <row r="16" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M15" s="91"/>
+    </row>
+    <row r="16" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>47</v>
       </c>
@@ -13821,15 +13874,16 @@
         <v>215</v>
       </c>
       <c r="G16" s="48"/>
-      <c r="H16" s="184" t="s">
+      <c r="H16" s="48"/>
+      <c r="I16" s="184" t="s">
         <v>346</v>
       </c>
-      <c r="I16" s="94"/>
       <c r="J16" s="94"/>
-      <c r="K16" s="91"/>
+      <c r="K16" s="94"/>
       <c r="L16" s="91"/>
-    </row>
-    <row r="17" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M16" s="91"/>
+    </row>
+    <row r="17" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>48</v>
       </c>
@@ -13849,15 +13903,16 @@
         <v>216</v>
       </c>
       <c r="G17" s="48"/>
-      <c r="H17" s="184" t="s">
+      <c r="H17" s="48"/>
+      <c r="I17" s="184" t="s">
         <v>346</v>
       </c>
-      <c r="I17" s="94"/>
       <c r="J17" s="94"/>
-      <c r="K17" s="91"/>
+      <c r="K17" s="94"/>
       <c r="L17" s="91"/>
-    </row>
-    <row r="18" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M17" s="91"/>
+    </row>
+    <row r="18" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
         <v>49</v>
       </c>
@@ -13878,14 +13933,15 @@
       </c>
       <c r="G18" s="48"/>
       <c r="H18" s="48"/>
-      <c r="I18" s="34" t="s">
+      <c r="I18" s="48"/>
+      <c r="J18" s="34" t="s">
         <v>346</v>
       </c>
-      <c r="J18" s="94"/>
-      <c r="K18" s="91"/>
+      <c r="K18" s="94"/>
       <c r="L18" s="91"/>
-    </row>
-    <row r="19" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M18" s="91"/>
+    </row>
+    <row r="19" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>50</v>
       </c>
@@ -13905,15 +13961,16 @@
         <v>519</v>
       </c>
       <c r="G19" s="48"/>
-      <c r="H19" s="184" t="s">
+      <c r="H19" s="48"/>
+      <c r="I19" s="184" t="s">
         <v>346</v>
       </c>
-      <c r="I19" s="94"/>
       <c r="J19" s="94"/>
-      <c r="K19" s="91"/>
+      <c r="K19" s="94"/>
       <c r="L19" s="91"/>
-    </row>
-    <row r="20" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M19" s="91"/>
+    </row>
+    <row r="20" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
         <v>51</v>
       </c>
@@ -13933,15 +13990,16 @@
         <v>520</v>
       </c>
       <c r="G20" s="48"/>
-      <c r="H20" s="184" t="s">
+      <c r="H20" s="48"/>
+      <c r="I20" s="184" t="s">
         <v>346</v>
       </c>
-      <c r="I20" s="94"/>
       <c r="J20" s="94"/>
-      <c r="K20" s="91"/>
+      <c r="K20" s="94"/>
       <c r="L20" s="91"/>
-    </row>
-    <row r="21" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M20" s="91"/>
+    </row>
+    <row r="21" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
         <v>52</v>
       </c>
@@ -13961,15 +14019,16 @@
         <v>521</v>
       </c>
       <c r="G21" s="48"/>
-      <c r="H21" s="184" t="s">
+      <c r="H21" s="48"/>
+      <c r="I21" s="184" t="s">
         <v>346</v>
       </c>
-      <c r="I21" s="94"/>
       <c r="J21" s="94"/>
-      <c r="K21" s="91"/>
+      <c r="K21" s="94"/>
       <c r="L21" s="91"/>
-    </row>
-    <row r="22" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M21" s="91"/>
+    </row>
+    <row r="22" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
         <v>53</v>
       </c>
@@ -13990,14 +14049,15 @@
       </c>
       <c r="G22" s="48"/>
       <c r="H22" s="48"/>
-      <c r="I22" s="34" t="s">
+      <c r="I22" s="48"/>
+      <c r="J22" s="34" t="s">
         <v>346</v>
       </c>
-      <c r="J22" s="94"/>
-      <c r="K22" s="91"/>
+      <c r="K22" s="94"/>
       <c r="L22" s="91"/>
-    </row>
-    <row r="23" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M22" s="91"/>
+    </row>
+    <row r="23" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>54</v>
       </c>
@@ -14017,15 +14077,16 @@
         <v>523</v>
       </c>
       <c r="G23" s="48"/>
-      <c r="H23" s="184" t="s">
+      <c r="H23" s="48"/>
+      <c r="I23" s="184" t="s">
         <v>346</v>
       </c>
-      <c r="I23" s="94"/>
       <c r="J23" s="94"/>
-      <c r="K23" s="91"/>
+      <c r="K23" s="94"/>
       <c r="L23" s="91"/>
-    </row>
-    <row r="24" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M23" s="91"/>
+    </row>
+    <row r="24" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>55</v>
       </c>
@@ -14046,14 +14107,15 @@
       </c>
       <c r="G24" s="48"/>
       <c r="H24" s="48"/>
-      <c r="I24" s="34" t="s">
+      <c r="I24" s="48"/>
+      <c r="J24" s="34" t="s">
         <v>346</v>
       </c>
-      <c r="J24" s="94"/>
-      <c r="K24" s="91"/>
+      <c r="K24" s="94"/>
       <c r="L24" s="91"/>
-    </row>
-    <row r="25" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M24" s="91"/>
+    </row>
+    <row r="25" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="53" t="s">
         <v>359</v>
       </c>
@@ -14069,21 +14131,24 @@
       <c r="E25" s="18" t="s">
         <v>357</v>
       </c>
-      <c r="F25" s="244" t="s">
+      <c r="F25" s="191" t="s">
         <v>501</v>
       </c>
       <c r="G25" s="29"/>
-      <c r="H25" s="85"/>
+      <c r="H25" s="247" t="s">
+        <v>551</v>
+      </c>
       <c r="I25" s="85"/>
-      <c r="J25" s="74" t="s">
+      <c r="J25" s="85"/>
+      <c r="K25" s="74" t="s">
         <v>346</v>
       </c>
-      <c r="K25" s="91" t="s">
+      <c r="L25" s="91" t="s">
         <v>531</v>
       </c>
-      <c r="L25" s="91"/>
-    </row>
-    <row r="26" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M25" s="91"/>
+    </row>
+    <row r="26" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="53" t="s">
         <v>360</v>
       </c>
@@ -14099,21 +14164,22 @@
       <c r="E26" s="18" t="s">
         <v>361</v>
       </c>
-      <c r="F26" s="243" t="s">
+      <c r="F26" s="190" t="s">
         <v>470</v>
       </c>
-      <c r="G26" s="53" t="s">
+      <c r="G26" s="53"/>
+      <c r="H26" s="248" t="s">
         <v>532</v>
       </c>
-      <c r="H26" s="53"/>
-      <c r="I26" s="34" t="s">
+      <c r="I26" s="53"/>
+      <c r="J26" s="34" t="s">
         <v>346</v>
       </c>
-      <c r="J26" s="94"/>
-      <c r="K26" s="91"/>
+      <c r="K26" s="94"/>
       <c r="L26" s="91"/>
-    </row>
-    <row r="27" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M26" s="91"/>
+    </row>
+    <row r="27" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="53" t="s">
         <v>364</v>
       </c>
@@ -14129,23 +14195,24 @@
       <c r="E27" s="18" t="s">
         <v>365</v>
       </c>
-      <c r="F27" s="244" t="s">
+      <c r="F27" s="191" t="s">
         <v>471</v>
       </c>
-      <c r="G27" s="89" t="s">
+      <c r="G27" s="29"/>
+      <c r="H27" s="89" t="s">
         <v>533</v>
       </c>
-      <c r="H27" s="85"/>
       <c r="I27" s="85"/>
-      <c r="J27" s="74" t="s">
+      <c r="J27" s="85"/>
+      <c r="K27" s="74" t="s">
         <v>346</v>
       </c>
-      <c r="K27" s="91" t="s">
+      <c r="L27" s="91" t="s">
         <v>531</v>
       </c>
-      <c r="L27" s="91"/>
-    </row>
-    <row r="28" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M27" s="91"/>
+    </row>
+    <row r="28" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="53" t="s">
         <v>368</v>
       </c>
@@ -14161,21 +14228,22 @@
       <c r="E28" s="18" t="s">
         <v>369</v>
       </c>
-      <c r="F28" s="243" t="s">
+      <c r="F28" s="190" t="s">
         <v>472</v>
       </c>
-      <c r="G28" s="53" t="s">
+      <c r="G28" s="53"/>
+      <c r="H28" s="248" t="s">
         <v>534</v>
       </c>
-      <c r="H28" s="53"/>
-      <c r="I28" s="34" t="s">
+      <c r="I28" s="53"/>
+      <c r="J28" s="34" t="s">
         <v>346</v>
       </c>
-      <c r="J28" s="94"/>
-      <c r="K28" s="91"/>
+      <c r="K28" s="94"/>
       <c r="L28" s="91"/>
-    </row>
-    <row r="29" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M28" s="91"/>
+    </row>
+    <row r="29" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="53" t="s">
         <v>372</v>
       </c>
@@ -14191,21 +14259,22 @@
       <c r="E29" s="18" t="s">
         <v>373</v>
       </c>
-      <c r="F29" s="244" t="s">
+      <c r="F29" s="191" t="s">
         <v>476</v>
       </c>
-      <c r="G29" s="29" t="s">
+      <c r="G29" s="29"/>
+      <c r="H29" s="247" t="s">
         <v>549</v>
       </c>
-      <c r="H29" s="185" t="s">
+      <c r="I29" s="185" t="s">
         <v>346</v>
       </c>
-      <c r="I29" s="94"/>
       <c r="J29" s="94"/>
-      <c r="K29" s="91"/>
+      <c r="K29" s="94"/>
       <c r="L29" s="91"/>
-    </row>
-    <row r="30" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M29" s="91"/>
+    </row>
+    <row r="30" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="53" t="s">
         <v>378</v>
       </c>
@@ -14221,21 +14290,22 @@
       <c r="E30" s="18" t="s">
         <v>376</v>
       </c>
-      <c r="F30" s="244" t="s">
+      <c r="F30" s="191" t="s">
         <v>477</v>
       </c>
-      <c r="G30" s="94" t="s">
+      <c r="G30" s="29"/>
+      <c r="H30" s="249" t="s">
         <v>535</v>
       </c>
-      <c r="H30" s="94"/>
-      <c r="I30" s="34" t="s">
+      <c r="I30" s="94"/>
+      <c r="J30" s="34" t="s">
         <v>346</v>
       </c>
-      <c r="J30" s="94"/>
-      <c r="K30" s="91"/>
+      <c r="K30" s="94"/>
       <c r="L30" s="91"/>
-    </row>
-    <row r="31" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M30" s="91"/>
+    </row>
+    <row r="31" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="53" t="s">
         <v>379</v>
       </c>
@@ -14251,21 +14321,22 @@
       <c r="E31" s="18" t="s">
         <v>380</v>
       </c>
-      <c r="F31" s="244" t="s">
+      <c r="F31" s="191" t="s">
         <v>500</v>
       </c>
-      <c r="G31" s="29" t="s">
+      <c r="G31" s="29"/>
+      <c r="H31" s="247" t="s">
         <v>536</v>
       </c>
-      <c r="H31" s="29"/>
-      <c r="I31" s="34" t="s">
+      <c r="I31" s="29"/>
+      <c r="J31" s="34" t="s">
         <v>346</v>
       </c>
-      <c r="J31" s="94"/>
-      <c r="K31" s="91"/>
+      <c r="K31" s="94"/>
       <c r="L31" s="91"/>
-    </row>
-    <row r="32" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M31" s="91"/>
+    </row>
+    <row r="32" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="53" t="s">
         <v>383</v>
       </c>
@@ -14281,21 +14352,22 @@
       <c r="E32" s="18" t="s">
         <v>384</v>
       </c>
-      <c r="F32" s="244" t="s">
+      <c r="F32" s="191" t="s">
         <v>479</v>
       </c>
-      <c r="G32" s="29" t="s">
+      <c r="G32" s="29"/>
+      <c r="H32" s="247" t="s">
         <v>550</v>
       </c>
-      <c r="H32" s="185" t="s">
+      <c r="I32" s="185" t="s">
         <v>346</v>
       </c>
-      <c r="I32" s="94"/>
       <c r="J32" s="94"/>
-      <c r="K32" s="91"/>
+      <c r="K32" s="94"/>
       <c r="L32" s="91"/>
-    </row>
-    <row r="33" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M32" s="91"/>
+    </row>
+    <row r="33" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="53" t="s">
         <v>387</v>
       </c>
@@ -14311,21 +14383,22 @@
       <c r="E33" s="18" t="s">
         <v>388</v>
       </c>
-      <c r="F33" s="244" t="s">
+      <c r="F33" s="191" t="s">
         <v>480</v>
       </c>
-      <c r="G33" s="29" t="s">
+      <c r="G33" s="29"/>
+      <c r="H33" s="247" t="s">
         <v>538</v>
       </c>
-      <c r="H33" s="185" t="s">
+      <c r="I33" s="185" t="s">
         <v>346</v>
       </c>
-      <c r="I33" s="94"/>
       <c r="J33" s="94"/>
-      <c r="K33" s="91"/>
+      <c r="K33" s="94"/>
       <c r="L33" s="91"/>
-    </row>
-    <row r="34" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M33" s="91"/>
+    </row>
+    <row r="34" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="53" t="s">
         <v>391</v>
       </c>
@@ -14341,25 +14414,26 @@
       <c r="E34" s="18" t="s">
         <v>392</v>
       </c>
-      <c r="F34" s="244" t="s">
+      <c r="F34" s="191" t="s">
         <v>499</v>
       </c>
-      <c r="G34" s="29" t="s">
+      <c r="G34" s="29"/>
+      <c r="H34" s="247" t="s">
         <v>537</v>
       </c>
-      <c r="H34" s="185" t="s">
+      <c r="I34" s="185" t="s">
         <v>346</v>
       </c>
-      <c r="I34" s="94"/>
-      <c r="J34" s="186" t="s">
+      <c r="J34" s="94"/>
+      <c r="K34" s="186" t="s">
         <v>346</v>
       </c>
-      <c r="K34" s="183" t="s">
+      <c r="L34" s="183" t="s">
         <v>528</v>
       </c>
-      <c r="L34" s="91"/>
-    </row>
-    <row r="35" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M34" s="91"/>
+    </row>
+    <row r="35" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="53" t="s">
         <v>395</v>
       </c>
@@ -14375,21 +14449,22 @@
       <c r="E35" s="18" t="s">
         <v>396</v>
       </c>
-      <c r="F35" s="244" t="s">
+      <c r="F35" s="191" t="s">
         <v>481</v>
       </c>
-      <c r="G35" s="94" t="s">
+      <c r="G35" s="29"/>
+      <c r="H35" s="249" t="s">
         <v>539</v>
       </c>
-      <c r="H35" s="94"/>
-      <c r="I35" s="34" t="s">
+      <c r="I35" s="94"/>
+      <c r="J35" s="34" t="s">
         <v>346</v>
       </c>
-      <c r="J35" s="94"/>
-      <c r="K35" s="91"/>
+      <c r="K35" s="94"/>
       <c r="L35" s="91"/>
-    </row>
-    <row r="36" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M35" s="91"/>
+    </row>
+    <row r="36" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="53" t="s">
         <v>400</v>
       </c>
@@ -14405,21 +14480,22 @@
       <c r="E36" s="18" t="s">
         <v>401</v>
       </c>
-      <c r="F36" s="244" t="s">
+      <c r="F36" s="191" t="s">
         <v>482</v>
       </c>
-      <c r="G36" s="94" t="s">
+      <c r="G36" s="29"/>
+      <c r="H36" s="249" t="s">
         <v>540</v>
       </c>
-      <c r="H36" s="185" t="s">
+      <c r="I36" s="185" t="s">
         <v>346</v>
       </c>
-      <c r="I36" s="94"/>
       <c r="J36" s="94"/>
-      <c r="K36" s="91"/>
+      <c r="K36" s="94"/>
       <c r="L36" s="91"/>
-    </row>
-    <row r="37" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M36" s="91"/>
+    </row>
+    <row r="37" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="53" t="s">
         <v>404</v>
       </c>
@@ -14438,18 +14514,19 @@
       <c r="F37" s="85" t="s">
         <v>483</v>
       </c>
-      <c r="G37" s="94" t="s">
+      <c r="G37" s="29"/>
+      <c r="H37" s="249" t="s">
         <v>548</v>
       </c>
-      <c r="H37" s="185" t="s">
+      <c r="I37" s="185" t="s">
         <v>346</v>
       </c>
-      <c r="I37" s="94"/>
       <c r="J37" s="94"/>
-      <c r="K37" s="91"/>
+      <c r="K37" s="94"/>
       <c r="L37" s="91"/>
-    </row>
-    <row r="38" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M37" s="91"/>
+    </row>
+    <row r="38" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="53" t="s">
         <v>407</v>
       </c>
@@ -14465,21 +14542,22 @@
       <c r="E38" s="18" t="s">
         <v>408</v>
       </c>
-      <c r="F38" s="244" t="s">
+      <c r="F38" s="191" t="s">
         <v>484</v>
       </c>
-      <c r="G38" s="94" t="s">
+      <c r="G38" s="29"/>
+      <c r="H38" s="249" t="s">
         <v>547</v>
       </c>
-      <c r="H38" s="185" t="s">
+      <c r="I38" s="185" t="s">
         <v>346</v>
       </c>
-      <c r="I38" s="94"/>
       <c r="J38" s="94"/>
-      <c r="K38" s="91"/>
+      <c r="K38" s="94"/>
       <c r="L38" s="91"/>
-    </row>
-    <row r="39" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M38" s="91"/>
+    </row>
+    <row r="39" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="53" t="s">
         <v>411</v>
       </c>
@@ -14495,19 +14573,20 @@
       <c r="E39" s="18" t="s">
         <v>412</v>
       </c>
-      <c r="F39" s="29" t="s">
+      <c r="F39" s="191" t="s">
         <v>498</v>
       </c>
       <c r="G39" s="29"/>
-      <c r="H39" s="185" t="s">
+      <c r="H39" s="247"/>
+      <c r="I39" s="185" t="s">
         <v>346</v>
       </c>
-      <c r="I39" s="94"/>
       <c r="J39" s="94"/>
-      <c r="K39" s="91"/>
+      <c r="K39" s="94"/>
       <c r="L39" s="91"/>
-    </row>
-    <row r="40" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M39" s="91"/>
+    </row>
+    <row r="40" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="53" t="s">
         <v>415</v>
       </c>
@@ -14523,19 +14602,22 @@
       <c r="E40" s="18" t="s">
         <v>420</v>
       </c>
-      <c r="F40" s="94" t="s">
+      <c r="F40" s="191" t="s">
         <v>485</v>
       </c>
-      <c r="G40" s="94"/>
-      <c r="H40" s="185" t="s">
+      <c r="G40" s="29"/>
+      <c r="H40" s="249" t="s">
+        <v>552</v>
+      </c>
+      <c r="I40" s="185" t="s">
         <v>346</v>
       </c>
-      <c r="I40" s="94"/>
       <c r="J40" s="94"/>
-      <c r="K40" s="91"/>
+      <c r="K40" s="94"/>
       <c r="L40" s="91"/>
-    </row>
-    <row r="41" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M40" s="91"/>
+    </row>
+    <row r="41" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="53" t="s">
         <v>417</v>
       </c>
@@ -14551,25 +14633,26 @@
       <c r="E41" s="18" t="s">
         <v>418</v>
       </c>
-      <c r="F41" s="244" t="s">
+      <c r="F41" s="191" t="s">
         <v>497</v>
       </c>
-      <c r="G41" s="29" t="s">
+      <c r="G41" s="29"/>
+      <c r="H41" s="247" t="s">
         <v>541</v>
       </c>
-      <c r="H41" s="185" t="s">
+      <c r="I41" s="185" t="s">
         <v>346</v>
       </c>
-      <c r="I41" s="94"/>
-      <c r="J41" s="186" t="s">
+      <c r="J41" s="94"/>
+      <c r="K41" s="186" t="s">
         <v>346</v>
       </c>
-      <c r="K41" s="183" t="s">
+      <c r="L41" s="183" t="s">
         <v>527</v>
       </c>
-      <c r="L41" s="91"/>
-    </row>
-    <row r="42" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M41" s="91"/>
+    </row>
+    <row r="42" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="53" t="s">
         <v>423</v>
       </c>
@@ -14585,21 +14668,22 @@
       <c r="E42" s="18" t="s">
         <v>424</v>
       </c>
-      <c r="F42" s="244" t="s">
+      <c r="F42" s="191" t="s">
         <v>506</v>
       </c>
-      <c r="G42" s="94" t="s">
+      <c r="G42" s="29"/>
+      <c r="H42" s="249" t="s">
         <v>542</v>
       </c>
-      <c r="H42" s="185" t="s">
+      <c r="I42" s="185" t="s">
         <v>346</v>
       </c>
-      <c r="I42" s="94"/>
       <c r="J42" s="94"/>
-      <c r="K42" s="91"/>
+      <c r="K42" s="94"/>
       <c r="L42" s="91"/>
-    </row>
-    <row r="43" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M42" s="91"/>
+    </row>
+    <row r="43" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="53" t="s">
         <v>426</v>
       </c>
@@ -14615,21 +14699,22 @@
       <c r="E43" s="18" t="s">
         <v>424</v>
       </c>
-      <c r="F43" s="245" t="s">
+      <c r="F43" s="192" t="s">
         <v>496</v>
       </c>
-      <c r="G43" s="98" t="s">
+      <c r="G43" s="98"/>
+      <c r="H43" s="250" t="s">
         <v>543</v>
       </c>
-      <c r="H43" s="98"/>
-      <c r="I43" s="34" t="s">
+      <c r="I43" s="98"/>
+      <c r="J43" s="34" t="s">
         <v>346</v>
       </c>
-      <c r="J43" s="94"/>
-      <c r="K43" s="91"/>
+      <c r="K43" s="94"/>
       <c r="L43" s="91"/>
-    </row>
-    <row r="44" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M43" s="91"/>
+    </row>
+    <row r="44" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="53" t="s">
         <v>429</v>
       </c>
@@ -14645,19 +14730,20 @@
       <c r="E44" s="18" t="s">
         <v>430</v>
       </c>
-      <c r="F44" s="94" t="s">
+      <c r="F44" s="191" t="s">
         <v>486</v>
       </c>
-      <c r="G44" s="94"/>
-      <c r="H44" s="185" t="s">
+      <c r="G44" s="246"/>
+      <c r="H44" s="251"/>
+      <c r="I44" s="185" t="s">
         <v>346</v>
       </c>
-      <c r="I44" s="94"/>
       <c r="J44" s="94"/>
-      <c r="K44" s="91"/>
+      <c r="K44" s="94"/>
       <c r="L44" s="91"/>
-    </row>
-    <row r="45" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M44" s="91"/>
+    </row>
+    <row r="45" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="53" t="s">
         <v>433</v>
       </c>
@@ -14673,21 +14759,22 @@
       <c r="E45" s="18" t="s">
         <v>434</v>
       </c>
-      <c r="F45" s="244" t="s">
+      <c r="F45" s="191" t="s">
         <v>487</v>
       </c>
-      <c r="G45" s="94" t="s">
+      <c r="G45" s="29"/>
+      <c r="H45" s="249" t="s">
         <v>544</v>
       </c>
-      <c r="H45" s="94"/>
-      <c r="I45" s="34" t="s">
+      <c r="I45" s="94"/>
+      <c r="J45" s="34" t="s">
         <v>346</v>
       </c>
-      <c r="J45" s="94"/>
-      <c r="K45" s="91"/>
+      <c r="K45" s="94"/>
       <c r="L45" s="91"/>
-    </row>
-    <row r="46" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M45" s="91"/>
+    </row>
+    <row r="46" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="53" t="s">
         <v>437</v>
       </c>
@@ -14703,19 +14790,22 @@
       <c r="E46" s="18" t="s">
         <v>438</v>
       </c>
-      <c r="F46" s="29" t="s">
+      <c r="F46" s="191" t="s">
         <v>495</v>
       </c>
       <c r="G46" s="29"/>
-      <c r="H46" s="29"/>
-      <c r="I46" s="34" t="s">
+      <c r="H46" s="247" t="s">
+        <v>554</v>
+      </c>
+      <c r="I46" s="29"/>
+      <c r="J46" s="34" t="s">
         <v>346</v>
       </c>
-      <c r="J46" s="94"/>
-      <c r="K46" s="91"/>
+      <c r="K46" s="94"/>
       <c r="L46" s="91"/>
-    </row>
-    <row r="47" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M46" s="91"/>
+    </row>
+    <row r="47" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="53" t="s">
         <v>440</v>
       </c>
@@ -14731,21 +14821,22 @@
       <c r="E47" s="18" t="s">
         <v>441</v>
       </c>
-      <c r="F47" s="244" t="s">
+      <c r="F47" s="191" t="s">
         <v>494</v>
       </c>
-      <c r="G47" s="29" t="s">
+      <c r="G47" s="29"/>
+      <c r="H47" s="247" t="s">
         <v>535</v>
       </c>
-      <c r="H47" s="29"/>
-      <c r="I47" s="34" t="s">
+      <c r="I47" s="29"/>
+      <c r="J47" s="34" t="s">
         <v>346</v>
       </c>
-      <c r="J47" s="94"/>
-      <c r="K47" s="91"/>
+      <c r="K47" s="94"/>
       <c r="L47" s="91"/>
-    </row>
-    <row r="48" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M47" s="91"/>
+    </row>
+    <row r="48" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="53" t="s">
         <v>444</v>
       </c>
@@ -14764,20 +14855,21 @@
       <c r="F48" s="85" t="s">
         <v>488</v>
       </c>
-      <c r="G48" s="94" t="s">
+      <c r="G48" s="29"/>
+      <c r="H48" s="249" t="s">
         <v>548</v>
       </c>
-      <c r="H48" s="85"/>
       <c r="I48" s="85"/>
-      <c r="J48" s="53" t="s">
+      <c r="J48" s="85"/>
+      <c r="K48" s="53" t="s">
         <v>346</v>
       </c>
-      <c r="K48" s="91" t="s">
+      <c r="L48" s="91" t="s">
         <v>531</v>
       </c>
-      <c r="L48" s="91"/>
-    </row>
-    <row r="49" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M48" s="91"/>
+    </row>
+    <row r="49" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="53" t="s">
         <v>447</v>
       </c>
@@ -14793,21 +14885,22 @@
       <c r="E49" s="18" t="s">
         <v>448</v>
       </c>
-      <c r="F49" s="244" t="s">
+      <c r="F49" s="191" t="s">
         <v>489</v>
       </c>
-      <c r="G49" s="29" t="s">
+      <c r="G49" s="29"/>
+      <c r="H49" s="247" t="s">
         <v>545</v>
       </c>
-      <c r="H49" s="29"/>
-      <c r="I49" s="34" t="s">
+      <c r="I49" s="29"/>
+      <c r="J49" s="34" t="s">
         <v>346</v>
       </c>
-      <c r="J49" s="94"/>
-      <c r="K49" s="91"/>
+      <c r="K49" s="94"/>
       <c r="L49" s="91"/>
-    </row>
-    <row r="50" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M49" s="91"/>
+    </row>
+    <row r="50" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="53" t="s">
         <v>451</v>
       </c>
@@ -14823,21 +14916,22 @@
       <c r="E50" s="18" t="s">
         <v>455</v>
       </c>
-      <c r="F50" s="244" t="s">
+      <c r="F50" s="191" t="s">
         <v>490</v>
       </c>
-      <c r="G50" s="29" t="s">
+      <c r="G50" s="29"/>
+      <c r="H50" s="247" t="s">
         <v>536</v>
       </c>
-      <c r="H50" s="185" t="s">
+      <c r="I50" s="185" t="s">
         <v>346</v>
       </c>
-      <c r="I50" s="94"/>
       <c r="J50" s="94"/>
-      <c r="K50" s="91"/>
+      <c r="K50" s="94"/>
       <c r="L50" s="91"/>
-    </row>
-    <row r="51" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M50" s="91"/>
+    </row>
+    <row r="51" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="53" t="s">
         <v>452</v>
       </c>
@@ -14853,19 +14947,20 @@
       <c r="E51" s="18" t="s">
         <v>457</v>
       </c>
-      <c r="F51" s="244" t="s">
+      <c r="F51" s="191" t="s">
         <v>493</v>
       </c>
       <c r="G51" s="29"/>
-      <c r="H51" s="185" t="s">
+      <c r="H51" s="247"/>
+      <c r="I51" s="185" t="s">
         <v>346</v>
       </c>
-      <c r="I51" s="94"/>
       <c r="J51" s="94"/>
-      <c r="K51" s="91"/>
+      <c r="K51" s="94"/>
       <c r="L51" s="91"/>
-    </row>
-    <row r="52" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M51" s="91"/>
+    </row>
+    <row r="52" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="53" t="s">
         <v>453</v>
       </c>
@@ -14881,21 +14976,22 @@
       <c r="E52" s="18" t="s">
         <v>460</v>
       </c>
-      <c r="F52" s="244" t="s">
+      <c r="F52" s="191" t="s">
         <v>491</v>
       </c>
-      <c r="G52" s="29" t="s">
+      <c r="G52" s="29"/>
+      <c r="H52" s="247" t="s">
         <v>546</v>
       </c>
-      <c r="H52" s="29"/>
-      <c r="I52" s="34" t="s">
+      <c r="I52" s="29"/>
+      <c r="J52" s="34" t="s">
         <v>346</v>
       </c>
-      <c r="J52" s="94"/>
-      <c r="K52" s="91"/>
+      <c r="K52" s="94"/>
       <c r="L52" s="91"/>
-    </row>
-    <row r="53" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M52" s="91"/>
+    </row>
+    <row r="53" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="53" t="s">
         <v>454</v>
       </c>
@@ -14911,17 +15007,20 @@
       <c r="E53" s="18" t="s">
         <v>420</v>
       </c>
-      <c r="F53" s="29" t="s">
+      <c r="F53" s="191" t="s">
         <v>492</v>
       </c>
       <c r="G53" s="29"/>
-      <c r="H53" s="185" t="s">
+      <c r="H53" s="247" t="s">
+        <v>553</v>
+      </c>
+      <c r="I53" s="185" t="s">
         <v>346</v>
       </c>
-      <c r="I53" s="94"/>
       <c r="J53" s="94"/>
-      <c r="K53" s="91"/>
+      <c r="K53" s="94"/>
       <c r="L53" s="91"/>
+      <c r="M53" s="91"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -14948,43 +15047,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="215" t="s">
+      <c r="A1" s="209" t="s">
         <v>230</v>
       </c>
-      <c r="B1" s="216"/>
-      <c r="C1" s="216"/>
-      <c r="D1" s="216"/>
-      <c r="E1" s="216"/>
-      <c r="F1" s="216"/>
-      <c r="G1" s="216"/>
-      <c r="H1" s="216"/>
-      <c r="I1" s="216"/>
+      <c r="B1" s="210"/>
+      <c r="C1" s="210"/>
+      <c r="D1" s="210"/>
+      <c r="E1" s="210"/>
+      <c r="F1" s="210"/>
+      <c r="G1" s="210"/>
+      <c r="H1" s="210"/>
+      <c r="I1" s="210"/>
     </row>
     <row r="2" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="214" t="s">
+      <c r="A2" s="212" t="s">
         <v>229</v>
       </c>
-      <c r="B2" s="214"/>
-      <c r="C2" s="214"/>
-      <c r="D2" s="214"/>
-      <c r="E2" s="214"/>
-      <c r="F2" s="214"/>
-      <c r="G2" s="214"/>
-      <c r="H2" s="214"/>
-      <c r="I2" s="214"/>
+      <c r="B2" s="212"/>
+      <c r="C2" s="212"/>
+      <c r="D2" s="212"/>
+      <c r="E2" s="212"/>
+      <c r="F2" s="212"/>
+      <c r="G2" s="212"/>
+      <c r="H2" s="212"/>
+      <c r="I2" s="212"/>
     </row>
     <row r="3" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="207" t="s">
+      <c r="A3" s="213" t="s">
         <v>337</v>
       </c>
-      <c r="B3" s="207"/>
-      <c r="C3" s="207"/>
-      <c r="D3" s="207"/>
-      <c r="E3" s="207"/>
-      <c r="F3" s="207"/>
-      <c r="G3" s="207"/>
-      <c r="H3" s="207"/>
-      <c r="I3" s="207"/>
+      <c r="B3" s="213"/>
+      <c r="C3" s="213"/>
+      <c r="D3" s="213"/>
+      <c r="E3" s="213"/>
+      <c r="F3" s="213"/>
+      <c r="G3" s="213"/>
+      <c r="H3" s="213"/>
+      <c r="I3" s="213"/>
       <c r="J3" s="71"/>
       <c r="K3" s="71"/>
       <c r="L3" s="71"/>
@@ -14997,12 +15096,12 @@
       <c r="S3" s="71"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="217" t="s">
+      <c r="A4" s="211" t="s">
         <v>253</v>
       </c>
-      <c r="B4" s="217"/>
-      <c r="C4" s="217"/>
-      <c r="D4" s="217"/>
+      <c r="B4" s="211"/>
+      <c r="C4" s="211"/>
+      <c r="D4" s="211"/>
     </row>
     <row r="5" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="69" t="s">
@@ -15028,7 +15127,7 @@
       <c r="C6" s="49" t="s">
         <v>196</v>
       </c>
-      <c r="D6" s="211" t="s">
+      <c r="D6" s="222" t="s">
         <v>339</v>
       </c>
       <c r="E6" t="e">
@@ -15047,7 +15146,7 @@
       <c r="C7" s="49" t="s">
         <v>228</v>
       </c>
-      <c r="D7" s="212"/>
+      <c r="D7" s="223"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="78" t="s">
@@ -15059,7 +15158,7 @@
       <c r="C8" s="49" t="s">
         <v>235</v>
       </c>
-      <c r="D8" s="212"/>
+      <c r="D8" s="223"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="78" t="s">
@@ -15071,7 +15170,7 @@
       <c r="C9" s="49" t="s">
         <v>236</v>
       </c>
-      <c r="D9" s="212"/>
+      <c r="D9" s="223"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="78" t="s">
@@ -15083,7 +15182,7 @@
       <c r="C10" s="49" t="s">
         <v>237</v>
       </c>
-      <c r="D10" s="212"/>
+      <c r="D10" s="223"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="78" t="s">
@@ -15095,7 +15194,7 @@
       <c r="C11" s="49" t="s">
         <v>237</v>
       </c>
-      <c r="D11" s="212"/>
+      <c r="D11" s="223"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="78" t="s">
@@ -15107,7 +15206,7 @@
       <c r="C12" s="49" t="s">
         <v>266</v>
       </c>
-      <c r="D12" s="212"/>
+      <c r="D12" s="223"/>
     </row>
     <row r="13" spans="1:19" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="145" t="s">
@@ -15119,7 +15218,7 @@
       <c r="C13" s="136" t="s">
         <v>273</v>
       </c>
-      <c r="D13" s="213"/>
+      <c r="D13" s="224"/>
     </row>
     <row r="14" spans="1:19" s="77" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="146" t="s">
@@ -15136,30 +15235,30 @@
       </c>
     </row>
     <row r="15" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="214" t="s">
+      <c r="A15" s="212" t="s">
         <v>261</v>
       </c>
-      <c r="B15" s="214"/>
-      <c r="C15" s="214"/>
-      <c r="D15" s="214"/>
-      <c r="E15" s="214"/>
-      <c r="F15" s="214"/>
-      <c r="G15" s="214"/>
-      <c r="H15" s="214"/>
-      <c r="I15" s="214"/>
+      <c r="B15" s="212"/>
+      <c r="C15" s="212"/>
+      <c r="D15" s="212"/>
+      <c r="E15" s="212"/>
+      <c r="F15" s="212"/>
+      <c r="G15" s="212"/>
+      <c r="H15" s="212"/>
+      <c r="I15" s="212"/>
     </row>
     <row r="16" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="207" t="s">
+      <c r="A16" s="213" t="s">
         <v>238</v>
       </c>
-      <c r="B16" s="207"/>
-      <c r="C16" s="207"/>
-      <c r="D16" s="207"/>
-      <c r="E16" s="207"/>
-      <c r="F16" s="207"/>
-      <c r="G16" s="207"/>
-      <c r="H16" s="207"/>
-      <c r="I16" s="207"/>
+      <c r="B16" s="213"/>
+      <c r="C16" s="213"/>
+      <c r="D16" s="213"/>
+      <c r="E16" s="213"/>
+      <c r="F16" s="213"/>
+      <c r="G16" s="213"/>
+      <c r="H16" s="213"/>
+      <c r="I16" s="213"/>
       <c r="J16" s="71"/>
       <c r="K16" s="71"/>
       <c r="L16" s="71"/>
@@ -15172,14 +15271,14 @@
       <c r="S16" s="71"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="217" t="s">
+      <c r="A17" s="211" t="s">
         <v>259</v>
       </c>
-      <c r="B17" s="217"/>
-      <c r="C17" s="217"/>
-      <c r="D17" s="217"/>
-      <c r="E17" s="217"/>
-      <c r="F17" s="217"/>
+      <c r="B17" s="211"/>
+      <c r="C17" s="211"/>
+      <c r="D17" s="211"/>
+      <c r="E17" s="211"/>
+      <c r="F17" s="211"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="69" t="s">
@@ -15346,30 +15445,30 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="214" t="s">
+      <c r="A25" s="212" t="s">
         <v>260</v>
       </c>
-      <c r="B25" s="214"/>
-      <c r="C25" s="214"/>
-      <c r="D25" s="214"/>
-      <c r="E25" s="214"/>
-      <c r="F25" s="214"/>
-      <c r="G25" s="214"/>
-      <c r="H25" s="214"/>
-      <c r="I25" s="214"/>
+      <c r="B25" s="212"/>
+      <c r="C25" s="212"/>
+      <c r="D25" s="212"/>
+      <c r="E25" s="212"/>
+      <c r="F25" s="212"/>
+      <c r="G25" s="212"/>
+      <c r="H25" s="212"/>
+      <c r="I25" s="212"/>
     </row>
     <row r="26" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="207" t="s">
+      <c r="A26" s="213" t="s">
         <v>338</v>
       </c>
-      <c r="B26" s="207"/>
-      <c r="C26" s="207"/>
-      <c r="D26" s="207"/>
-      <c r="E26" s="207"/>
-      <c r="F26" s="207"/>
-      <c r="G26" s="207"/>
-      <c r="H26" s="207"/>
-      <c r="I26" s="207"/>
+      <c r="B26" s="213"/>
+      <c r="C26" s="213"/>
+      <c r="D26" s="213"/>
+      <c r="E26" s="213"/>
+      <c r="F26" s="213"/>
+      <c r="G26" s="213"/>
+      <c r="H26" s="213"/>
+      <c r="I26" s="213"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="69" t="s">
@@ -15381,12 +15480,12 @@
       <c r="C27" s="69" t="s">
         <v>201</v>
       </c>
-      <c r="D27" s="221" t="s">
+      <c r="D27" s="217" t="s">
         <v>292</v>
       </c>
-      <c r="E27" s="221"/>
-      <c r="F27" s="221"/>
-      <c r="G27" s="221"/>
+      <c r="E27" s="217"/>
+      <c r="F27" s="217"/>
+      <c r="G27" s="217"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="52" t="s">
@@ -15398,12 +15497,12 @@
       <c r="C28" s="72">
         <v>0.59</v>
       </c>
-      <c r="D28" s="208" t="s">
+      <c r="D28" s="219" t="s">
         <v>285</v>
       </c>
-      <c r="E28" s="209"/>
-      <c r="F28" s="209"/>
-      <c r="G28" s="210"/>
+      <c r="E28" s="220"/>
+      <c r="F28" s="220"/>
+      <c r="G28" s="221"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="52" t="s">
@@ -15415,12 +15514,12 @@
       <c r="C29" s="72">
         <v>0.77</v>
       </c>
-      <c r="D29" s="218" t="s">
+      <c r="D29" s="214" t="s">
         <v>286</v>
       </c>
-      <c r="E29" s="219"/>
-      <c r="F29" s="219"/>
-      <c r="G29" s="220"/>
+      <c r="E29" s="215"/>
+      <c r="F29" s="215"/>
+      <c r="G29" s="216"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="52" t="s">
@@ -15432,12 +15531,12 @@
       <c r="C30" s="72">
         <v>0.41</v>
       </c>
-      <c r="D30" s="218" t="s">
+      <c r="D30" s="214" t="s">
         <v>287</v>
       </c>
-      <c r="E30" s="219"/>
-      <c r="F30" s="219"/>
-      <c r="G30" s="220"/>
+      <c r="E30" s="215"/>
+      <c r="F30" s="215"/>
+      <c r="G30" s="216"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="52" t="s">
@@ -15449,12 +15548,12 @@
       <c r="C31" s="72">
         <v>0.59</v>
       </c>
-      <c r="D31" s="218" t="s">
+      <c r="D31" s="214" t="s">
         <v>289</v>
       </c>
-      <c r="E31" s="219"/>
-      <c r="F31" s="219"/>
-      <c r="G31" s="220"/>
+      <c r="E31" s="215"/>
+      <c r="F31" s="215"/>
+      <c r="G31" s="216"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="52" t="s">
@@ -15466,12 +15565,12 @@
       <c r="C32" s="72">
         <v>0.5</v>
       </c>
-      <c r="D32" s="218" t="s">
+      <c r="D32" s="214" t="s">
         <v>288</v>
       </c>
-      <c r="E32" s="219"/>
-      <c r="F32" s="219"/>
-      <c r="G32" s="220"/>
+      <c r="E32" s="215"/>
+      <c r="F32" s="215"/>
+      <c r="G32" s="216"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="52" t="s">
@@ -15483,12 +15582,12 @@
       <c r="C33" s="72">
         <v>0.59</v>
       </c>
-      <c r="D33" s="218" t="s">
+      <c r="D33" s="214" t="s">
         <v>290</v>
       </c>
-      <c r="E33" s="219"/>
-      <c r="F33" s="219"/>
-      <c r="G33" s="220"/>
+      <c r="E33" s="215"/>
+      <c r="F33" s="215"/>
+      <c r="G33" s="216"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="52" t="s">
@@ -15500,25 +15599,25 @@
       <c r="C34" s="72">
         <v>0.54</v>
       </c>
-      <c r="D34" s="218" t="s">
+      <c r="D34" s="214" t="s">
         <v>291</v>
       </c>
-      <c r="E34" s="219"/>
-      <c r="F34" s="219"/>
-      <c r="G34" s="220"/>
+      <c r="E34" s="215"/>
+      <c r="F34" s="215"/>
+      <c r="G34" s="216"/>
     </row>
     <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="214" t="s">
+      <c r="A36" s="212" t="s">
         <v>315</v>
       </c>
-      <c r="B36" s="214"/>
-      <c r="C36" s="214"/>
-      <c r="D36" s="214"/>
-      <c r="E36" s="214"/>
-      <c r="F36" s="214"/>
-      <c r="G36" s="214"/>
-      <c r="H36" s="214"/>
-      <c r="I36" s="214"/>
+      <c r="B36" s="212"/>
+      <c r="C36" s="212"/>
+      <c r="D36" s="212"/>
+      <c r="E36" s="212"/>
+      <c r="F36" s="212"/>
+      <c r="G36" s="212"/>
+      <c r="H36" s="212"/>
+      <c r="I36" s="212"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="87" t="s">
@@ -15585,12 +15684,12 @@
       </c>
     </row>
     <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="206" t="s">
+      <c r="A46" s="218" t="s">
         <v>318</v>
       </c>
-      <c r="B46" s="206"/>
-      <c r="C46" s="206"/>
-      <c r="D46" s="206"/>
+      <c r="B46" s="218"/>
+      <c r="C46" s="218"/>
+      <c r="D46" s="218"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="88" t="s">
@@ -15741,6 +15840,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D6:D13"/>
+    <mergeCell ref="A2:I2"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A25:I25"/>
@@ -15756,11 +15860,6 @@
     <mergeCell ref="D30:G30"/>
     <mergeCell ref="D31:G31"/>
     <mergeCell ref="D32:G32"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D6:D13"/>
-    <mergeCell ref="A2:I2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -15792,15 +15891,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="227" t="s">
+      <c r="A1" s="230" t="s">
         <v>347</v>
       </c>
-      <c r="B1" s="227"/>
-      <c r="C1" s="227"/>
-      <c r="D1" s="227"/>
-      <c r="E1" s="227"/>
-      <c r="F1" s="227"/>
-      <c r="G1" s="227"/>
+      <c r="B1" s="230"/>
+      <c r="C1" s="230"/>
+      <c r="D1" s="230"/>
+      <c r="E1" s="230"/>
+      <c r="F1" s="230"/>
+      <c r="G1" s="230"/>
     </row>
     <row r="2" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="158" t="s">
@@ -15824,11 +15923,11 @@
       <c r="G2" s="158" t="s">
         <v>344</v>
       </c>
-      <c r="I2" s="226" t="s">
+      <c r="I2" s="229" t="s">
         <v>197</v>
       </c>
-      <c r="J2" s="226"/>
-      <c r="K2" s="226"/>
+      <c r="J2" s="229"/>
+      <c r="K2" s="229"/>
     </row>
     <row r="3" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
@@ -16281,20 +16380,20 @@
       <c r="J22" s="115" t="s">
         <v>217</v>
       </c>
-      <c r="K22" s="228" t="s">
+      <c r="K22" s="231" t="s">
         <v>307</v>
       </c>
-      <c r="L22" s="228"/>
-      <c r="M22" s="228"/>
-      <c r="N22" s="228"/>
-      <c r="O22" s="228"/>
-      <c r="P22" s="228"/>
-      <c r="Q22" s="228"/>
-      <c r="R22" s="228"/>
-      <c r="S22" s="228"/>
-      <c r="T22" s="228"/>
-      <c r="U22" s="228"/>
-      <c r="V22" s="228"/>
+      <c r="L22" s="231"/>
+      <c r="M22" s="231"/>
+      <c r="N22" s="231"/>
+      <c r="O22" s="231"/>
+      <c r="P22" s="231"/>
+      <c r="Q22" s="231"/>
+      <c r="R22" s="231"/>
+      <c r="S22" s="231"/>
+      <c r="T22" s="231"/>
+      <c r="U22" s="231"/>
+      <c r="V22" s="231"/>
     </row>
     <row r="23" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="36" t="s">
@@ -16400,10 +16499,10 @@
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A29" s="230"/>
-      <c r="B29" s="231"/>
-      <c r="C29" s="231"/>
-      <c r="D29" s="232"/>
+      <c r="A29" s="233"/>
+      <c r="B29" s="234"/>
+      <c r="C29" s="234"/>
+      <c r="D29" s="235"/>
       <c r="I29" s="43" t="s">
         <v>187</v>
       </c>
@@ -16420,10 +16519,10 @@
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A31" s="233" t="s">
+      <c r="A31" s="236" t="s">
         <v>181</v>
       </c>
-      <c r="B31" s="234"/>
+      <c r="B31" s="237"/>
       <c r="C31" s="68"/>
       <c r="I31" s="43" t="s">
         <v>189</v>
@@ -16445,20 +16544,20 @@
       <c r="J32" s="116" t="s">
         <v>308</v>
       </c>
-      <c r="K32" s="229" t="s">
+      <c r="K32" s="232" t="s">
         <v>306</v>
       </c>
-      <c r="L32" s="229"/>
-      <c r="M32" s="229"/>
-      <c r="N32" s="229"/>
-      <c r="O32" s="229"/>
-      <c r="P32" s="229"/>
-      <c r="Q32" s="229"/>
-      <c r="R32" s="229"/>
-      <c r="S32" s="229"/>
-      <c r="T32" s="229"/>
-      <c r="U32" s="229"/>
-      <c r="V32" s="229"/>
+      <c r="L32" s="232"/>
+      <c r="M32" s="232"/>
+      <c r="N32" s="232"/>
+      <c r="O32" s="232"/>
+      <c r="P32" s="232"/>
+      <c r="Q32" s="232"/>
+      <c r="R32" s="232"/>
+      <c r="S32" s="232"/>
+      <c r="T32" s="232"/>
+      <c r="U32" s="232"/>
+      <c r="V32" s="232"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="84" t="s">
@@ -16491,10 +16590,10 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="222" t="s">
+      <c r="A35" s="225" t="s">
         <v>184</v>
       </c>
-      <c r="B35" s="224" t="s">
+      <c r="B35" s="227" t="s">
         <v>219</v>
       </c>
       <c r="D35" s="90"/>
@@ -16504,8 +16603,8 @@
       <c r="J35" s="41"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="223"/>
-      <c r="B36" s="225"/>
+      <c r="A36" s="226"/>
+      <c r="B36" s="228"/>
       <c r="D36" s="90"/>
       <c r="I36" s="105" t="s">
         <v>296</v>
@@ -16624,15 +16723,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="227" t="s">
+      <c r="A1" s="230" t="s">
         <v>347</v>
       </c>
-      <c r="B1" s="227"/>
-      <c r="C1" s="227"/>
-      <c r="D1" s="227"/>
-      <c r="E1" s="227"/>
-      <c r="F1" s="227"/>
-      <c r="G1" s="227"/>
+      <c r="B1" s="230"/>
+      <c r="C1" s="230"/>
+      <c r="D1" s="230"/>
+      <c r="E1" s="230"/>
+      <c r="F1" s="230"/>
+      <c r="G1" s="230"/>
     </row>
     <row r="2" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="158" t="s">
@@ -16656,11 +16755,11 @@
       <c r="G2" s="158" t="s">
         <v>344</v>
       </c>
-      <c r="I2" s="226" t="s">
+      <c r="I2" s="229" t="s">
         <v>197</v>
       </c>
-      <c r="J2" s="226"/>
-      <c r="K2" s="226"/>
+      <c r="J2" s="229"/>
+      <c r="K2" s="229"/>
       <c r="O2" s="170" t="s">
         <v>351</v>
       </c>
@@ -17161,20 +17260,20 @@
       <c r="J22" s="115" t="s">
         <v>217</v>
       </c>
-      <c r="K22" s="228" t="s">
+      <c r="K22" s="231" t="s">
         <v>307</v>
       </c>
-      <c r="L22" s="228"/>
-      <c r="M22" s="228"/>
-      <c r="N22" s="228"/>
-      <c r="O22" s="228"/>
-      <c r="P22" s="228"/>
-      <c r="Q22" s="228"/>
-      <c r="R22" s="228"/>
-      <c r="S22" s="228"/>
-      <c r="T22" s="228"/>
-      <c r="U22" s="228"/>
-      <c r="V22" s="228"/>
+      <c r="L22" s="231"/>
+      <c r="M22" s="231"/>
+      <c r="N22" s="231"/>
+      <c r="O22" s="231"/>
+      <c r="P22" s="231"/>
+      <c r="Q22" s="231"/>
+      <c r="R22" s="231"/>
+      <c r="S22" s="231"/>
+      <c r="T22" s="231"/>
+      <c r="U22" s="231"/>
+      <c r="V22" s="231"/>
     </row>
     <row r="23" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="36" t="s">
@@ -17280,10 +17379,10 @@
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A29" s="230"/>
-      <c r="B29" s="231"/>
-      <c r="C29" s="231"/>
-      <c r="D29" s="232"/>
+      <c r="A29" s="233"/>
+      <c r="B29" s="234"/>
+      <c r="C29" s="234"/>
+      <c r="D29" s="235"/>
       <c r="I29" s="43" t="s">
         <v>187</v>
       </c>
@@ -17300,10 +17399,10 @@
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A31" s="233" t="s">
+      <c r="A31" s="236" t="s">
         <v>181</v>
       </c>
-      <c r="B31" s="234"/>
+      <c r="B31" s="237"/>
       <c r="C31" s="68"/>
       <c r="I31" s="43" t="s">
         <v>189</v>
@@ -17325,20 +17424,20 @@
       <c r="J32" s="116" t="s">
         <v>308</v>
       </c>
-      <c r="K32" s="229" t="s">
+      <c r="K32" s="232" t="s">
         <v>306</v>
       </c>
-      <c r="L32" s="229"/>
-      <c r="M32" s="229"/>
-      <c r="N32" s="229"/>
-      <c r="O32" s="229"/>
-      <c r="P32" s="229"/>
-      <c r="Q32" s="229"/>
-      <c r="R32" s="229"/>
-      <c r="S32" s="229"/>
-      <c r="T32" s="229"/>
-      <c r="U32" s="229"/>
-      <c r="V32" s="229"/>
+      <c r="L32" s="232"/>
+      <c r="M32" s="232"/>
+      <c r="N32" s="232"/>
+      <c r="O32" s="232"/>
+      <c r="P32" s="232"/>
+      <c r="Q32" s="232"/>
+      <c r="R32" s="232"/>
+      <c r="S32" s="232"/>
+      <c r="T32" s="232"/>
+      <c r="U32" s="232"/>
+      <c r="V32" s="232"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="84" t="s">
@@ -17369,10 +17468,10 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="222" t="s">
+      <c r="A35" s="225" t="s">
         <v>184</v>
       </c>
-      <c r="B35" s="224" t="s">
+      <c r="B35" s="227" t="s">
         <v>219</v>
       </c>
       <c r="I35" s="43" t="s">
@@ -17381,8 +17480,8 @@
       <c r="J35" s="41"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="223"/>
-      <c r="B36" s="225"/>
+      <c r="A36" s="226"/>
+      <c r="B36" s="228"/>
       <c r="I36" s="105" t="s">
         <v>296</v>
       </c>
@@ -17468,8 +17567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:F31"/>
+    <sheetView topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17484,18 +17583,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="235" t="s">
+      <c r="A1" s="238" t="s">
         <v>464</v>
       </c>
-      <c r="B1" s="235"/>
-      <c r="C1" s="235"/>
-      <c r="D1" s="235"/>
-      <c r="E1" s="235"/>
-      <c r="F1" s="235"/>
-      <c r="G1" s="235"/>
-      <c r="H1" s="235"/>
-      <c r="I1" s="235"/>
-      <c r="J1" s="235"/>
+      <c r="B1" s="238"/>
+      <c r="C1" s="238"/>
+      <c r="D1" s="238"/>
+      <c r="E1" s="238"/>
+      <c r="F1" s="238"/>
+      <c r="G1" s="238"/>
+      <c r="H1" s="238"/>
+      <c r="I1" s="238"/>
+      <c r="J1" s="238"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="173" t="s">
@@ -17980,7 +18079,9 @@
       <c r="F19" s="29" t="s">
         <v>497</v>
       </c>
-      <c r="G19" s="94"/>
+      <c r="G19" s="94">
+        <v>70</v>
+      </c>
       <c r="H19" s="94"/>
       <c r="I19" s="1" t="s">
         <v>504</v>

--- a/Experiment01_Resumo/Resumo_Exp01.xlsx
+++ b/Experiment01_Resumo/Resumo_Exp01.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Capa" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1479" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1493" uniqueCount="569">
   <si>
     <t>Database search</t>
   </si>
@@ -1807,6 +1807,45 @@
   </si>
   <si>
     <t>Scholar em 13/04/2018</t>
+  </si>
+  <si>
+    <t>Referencias</t>
+  </si>
+  <si>
+    <t>Backward</t>
+  </si>
+  <si>
+    <t>Forward em 16/3</t>
+  </si>
+  <si>
+    <t>Google scholar em 16/3</t>
+  </si>
+  <si>
+    <t>Forward JF Tool</t>
+  </si>
+  <si>
+    <t>Related JF Tool</t>
+  </si>
+  <si>
+    <t>Obs. FSB</t>
+  </si>
+  <si>
+    <t>2 foram incluidos mas ainda aparecem, 4 em russo, 1 japones, 3 espanhol.</t>
+  </si>
+  <si>
+    <t>3 estavam em russo e 1 estava escrito com pouco texto mestrado.</t>
+  </si>
+  <si>
+    <t>2 em japones</t>
+  </si>
+  <si>
+    <t>3 japones</t>
+  </si>
+  <si>
+    <t>1 russo, 1 posdoc, 1 tese, 1 dissertacap, 2 cap. Diss, 2 russos, 1 japones, 1 entrega da pos,</t>
+  </si>
+  <si>
+    <t>2 russo</t>
   </si>
 </sst>
 </file>
@@ -2499,7 +2538,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="252">
+  <cellXfs count="257">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2965,35 +3004,50 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3043,6 +3097,33 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3052,12 +3133,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3070,27 +3145,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3154,23 +3208,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3495,12 +3549,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="210253680"/>
-        <c:axId val="210246232"/>
+        <c:axId val="213060360"/>
+        <c:axId val="215366472"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="210253680"/>
+        <c:axId val="213060360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3592,7 +3646,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="210246232"/>
+        <c:crossAx val="215366472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3600,7 +3654,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="210246232"/>
+        <c:axId val="215366472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3651,7 +3705,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="210253680"/>
+        <c:crossAx val="213060360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3960,12 +4014,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="210247800"/>
-        <c:axId val="210248192"/>
+        <c:axId val="215365688"/>
+        <c:axId val="215369608"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="210247800"/>
+        <c:axId val="215365688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4054,7 +4108,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="210248192"/>
+        <c:crossAx val="215369608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4062,7 +4116,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="210248192"/>
+        <c:axId val="215369608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4145,7 +4199,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="210247800"/>
+        <c:crossAx val="215365688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4430,12 +4484,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="210251328"/>
-        <c:axId val="210251720"/>
+        <c:axId val="215367256"/>
+        <c:axId val="215366080"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="210251328"/>
+        <c:axId val="215367256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4524,7 +4578,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="210251720"/>
+        <c:crossAx val="215366080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4532,7 +4586,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="210251720"/>
+        <c:axId val="215366080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4615,7 +4669,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="210251328"/>
+        <c:crossAx val="215367256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5402,12 +5456,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="303427696"/>
-        <c:axId val="303422992"/>
+        <c:axId val="215365296"/>
+        <c:axId val="215368040"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="303427696"/>
+        <c:axId val="215365296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5447,7 +5501,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="303422992"/>
+        <c:crossAx val="215368040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5455,7 +5509,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="303422992"/>
+        <c:axId val="215368040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5503,7 +5557,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="303427696"/>
+        <c:crossAx val="215365296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5811,8 +5865,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="303428480"/>
-        <c:axId val="303428872"/>
+        <c:axId val="215368432"/>
+        <c:axId val="215368824"/>
         <c:axId val="0"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
@@ -5982,7 +6036,7 @@
         </c:extLst>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="303428480"/>
+        <c:axId val="215368432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6080,7 +6134,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="303428872"/>
+        <c:crossAx val="215368824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6088,7 +6142,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="303428872"/>
+        <c:axId val="215368824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6167,7 +6221,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="303428480"/>
+        <c:crossAx val="215368432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6481,8 +6535,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="303423384"/>
-        <c:axId val="303425736"/>
+        <c:axId val="215134024"/>
+        <c:axId val="215128928"/>
         <c:axId val="0"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
@@ -6652,7 +6706,7 @@
         </c:extLst>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="303423384"/>
+        <c:axId val="215134024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6750,7 +6804,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="303425736"/>
+        <c:crossAx val="215128928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6758,7 +6812,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="303425736"/>
+        <c:axId val="215128928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6837,7 +6891,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="303423384"/>
+        <c:crossAx val="215134024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10535,22 +10589,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="193" t="s">
+      <c r="A1" s="198" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="194"/>
+      <c r="B1" s="199"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="195" t="s">
+      <c r="A2" s="200" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="196"/>
+      <c r="B2" s="201"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="195" t="s">
+      <c r="A3" s="200" t="s">
         <v>96</v>
       </c>
-      <c r="B3" s="196"/>
+      <c r="B3" s="201"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -10585,10 +10639,10 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="197" t="s">
+      <c r="A8" s="202" t="s">
         <v>103</v>
       </c>
-      <c r="B8" s="198"/>
+      <c r="B8" s="203"/>
     </row>
     <row r="9" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
@@ -10664,15 +10718,15 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="239" t="s">
+      <c r="A1" s="244" t="s">
         <v>525</v>
       </c>
-      <c r="B1" s="239"/>
-      <c r="C1" s="239"/>
-      <c r="D1" s="239"/>
-      <c r="E1" s="239"/>
-      <c r="F1" s="239"/>
-      <c r="G1" s="239"/>
+      <c r="B1" s="244"/>
+      <c r="C1" s="244"/>
+      <c r="D1" s="244"/>
+      <c r="E1" s="244"/>
+      <c r="F1" s="244"/>
+      <c r="G1" s="244"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10707,19 +10761,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="208" t="s">
+      <c r="A1" s="213" t="s">
         <v>326</v>
       </c>
-      <c r="B1" s="208"/>
-      <c r="C1" s="208"/>
-      <c r="D1" s="208"/>
-      <c r="E1" s="208"/>
-      <c r="F1" s="208"/>
-      <c r="G1" s="208"/>
-      <c r="H1" s="208"/>
-      <c r="I1" s="208"/>
-      <c r="J1" s="208"/>
-      <c r="K1" s="208"/>
+      <c r="B1" s="213"/>
+      <c r="C1" s="213"/>
+      <c r="D1" s="213"/>
+      <c r="E1" s="213"/>
+      <c r="F1" s="213"/>
+      <c r="G1" s="213"/>
+      <c r="H1" s="213"/>
+      <c r="I1" s="213"/>
+      <c r="J1" s="213"/>
+      <c r="K1" s="213"/>
     </row>
     <row r="2" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
@@ -11441,10 +11495,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="240" t="s">
+      <c r="A1" s="245" t="s">
         <v>333</v>
       </c>
-      <c r="B1" s="241"/>
+      <c r="B1" s="246"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="79" t="s">
@@ -11512,20 +11566,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="242" t="s">
+      <c r="A1" s="247" t="s">
         <v>327</v>
       </c>
-      <c r="B1" s="242"/>
-      <c r="C1" s="242"/>
-      <c r="D1" s="242"/>
-      <c r="E1" s="242"/>
-      <c r="F1" s="242"/>
-      <c r="G1" s="242"/>
-      <c r="H1" s="242"/>
-      <c r="I1" s="242"/>
-      <c r="J1" s="242"/>
-      <c r="K1" s="242"/>
-      <c r="L1" s="242"/>
+      <c r="B1" s="247"/>
+      <c r="C1" s="247"/>
+      <c r="D1" s="247"/>
+      <c r="E1" s="247"/>
+      <c r="F1" s="247"/>
+      <c r="G1" s="247"/>
+      <c r="H1" s="247"/>
+      <c r="I1" s="247"/>
+      <c r="J1" s="247"/>
+      <c r="K1" s="247"/>
+      <c r="L1" s="247"/>
     </row>
     <row r="2" spans="1:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="142" t="s">
@@ -12244,15 +12298,15 @@
     </row>
     <row r="26" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="134"/>
-      <c r="B26" s="243" t="s">
+      <c r="B26" s="248" t="s">
         <v>334</v>
       </c>
-      <c r="C26" s="244"/>
-      <c r="D26" s="244"/>
-      <c r="E26" s="244"/>
-      <c r="F26" s="244"/>
-      <c r="G26" s="244"/>
-      <c r="H26" s="245"/>
+      <c r="C26" s="249"/>
+      <c r="D26" s="249"/>
+      <c r="E26" s="249"/>
+      <c r="F26" s="249"/>
+      <c r="G26" s="249"/>
+      <c r="H26" s="250"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="66"/>
@@ -12420,10 +12474,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="203" t="s">
+      <c r="A1" s="208" t="s">
         <v>151</v>
       </c>
-      <c r="B1" s="204"/>
+      <c r="B1" s="209"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
@@ -12456,16 +12510,16 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="199" t="s">
+      <c r="A6" s="204" t="s">
         <v>147</v>
       </c>
-      <c r="B6" s="200"/>
+      <c r="B6" s="205"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="201" t="s">
+      <c r="A7" s="206" t="s">
         <v>150</v>
       </c>
-      <c r="B7" s="202"/>
+      <c r="B7" s="207"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
@@ -12547,16 +12601,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="205" t="s">
+      <c r="A1" s="210" t="s">
         <v>336</v>
       </c>
-      <c r="B1" s="206"/>
-      <c r="C1" s="206"/>
-      <c r="D1" s="206"/>
-      <c r="E1" s="206"/>
-      <c r="F1" s="206"/>
-      <c r="G1" s="206"/>
-      <c r="H1" s="207"/>
+      <c r="B1" s="211"/>
+      <c r="C1" s="211"/>
+      <c r="D1" s="211"/>
+      <c r="E1" s="211"/>
+      <c r="F1" s="211"/>
+      <c r="G1" s="211"/>
+      <c r="H1" s="212"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
     </row>
@@ -12926,14 +12980,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="208" t="s">
+      <c r="A1" s="213" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="208"/>
-      <c r="C1" s="208"/>
-      <c r="D1" s="208"/>
-      <c r="E1" s="208"/>
-      <c r="F1" s="208"/>
+      <c r="B1" s="213"/>
+      <c r="C1" s="213"/>
+      <c r="D1" s="213"/>
+      <c r="E1" s="213"/>
+      <c r="F1" s="213"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
@@ -13416,10 +13470,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M53"/>
+  <dimension ref="A2:T53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E16" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13430,15 +13484,18 @@
     <col min="4" max="4" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.85546875" customWidth="1"/>
     <col min="6" max="6" width="18.85546875" style="81" customWidth="1"/>
-    <col min="7" max="7" width="5.28515625" style="81" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" style="81" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="81" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="81" customWidth="1"/>
     <col min="9" max="9" width="11.5703125" style="81" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="3"/>
-    <col min="12" max="12" width="14.5703125" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" style="81" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" style="81" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="3"/>
+    <col min="14" max="14" width="14.5703125" style="71" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>123</v>
       </c>
@@ -13460,24 +13517,45 @@
       <c r="G2" s="82" t="s">
         <v>555</v>
       </c>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21" t="s">
+      <c r="H2" s="82" t="s">
+        <v>560</v>
+      </c>
+      <c r="I2" s="82" t="s">
+        <v>561</v>
+      </c>
+      <c r="J2" s="21"/>
+      <c r="K2" s="252" t="s">
         <v>530</v>
       </c>
-      <c r="J2" s="21" t="s">
+      <c r="L2" s="21" t="s">
         <v>526</v>
       </c>
-      <c r="K2" s="82" t="s">
+      <c r="M2" s="82" t="s">
         <v>529</v>
       </c>
-      <c r="L2" s="91"/>
-      <c r="M2" s="91"/>
-    </row>
-    <row r="3" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N2" s="19"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="252" t="s">
+        <v>556</v>
+      </c>
+      <c r="Q2" s="252" t="s">
+        <v>557</v>
+      </c>
+      <c r="R2" s="254" t="s">
+        <v>558</v>
+      </c>
+      <c r="S2" s="254" t="s">
+        <v>559</v>
+      </c>
+      <c r="T2" s="255" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="188" t="s">
+      <c r="B3" s="187" t="s">
         <v>23</v>
       </c>
       <c r="C3" s="131" t="s">
@@ -13492,21 +13570,42 @@
       <c r="F3" s="48" t="s">
         <v>502</v>
       </c>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="184" t="s">
+      <c r="G3" s="48">
+        <v>2</v>
+      </c>
+      <c r="H3" s="48">
+        <v>2</v>
+      </c>
+      <c r="I3" s="48">
+        <v>0</v>
+      </c>
+      <c r="J3" s="48"/>
+      <c r="K3" s="183" t="s">
         <v>346</v>
       </c>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="91"/>
-    </row>
-    <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="91"/>
+      <c r="P3" s="67">
+        <v>25</v>
+      </c>
+      <c r="Q3" s="67">
+        <v>25</v>
+      </c>
+      <c r="R3" s="183">
+        <v>2</v>
+      </c>
+      <c r="S3" s="48">
+        <v>2</v>
+      </c>
+      <c r="T3" s="66"/>
+    </row>
+    <row r="4" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="188" t="s">
+      <c r="B4" s="187" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="131" t="s">
@@ -13521,21 +13620,42 @@
       <c r="F4" s="48" t="s">
         <v>209</v>
       </c>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="34" t="s">
+      <c r="G4" s="48">
+        <v>10</v>
+      </c>
+      <c r="H4" s="48">
+        <v>9</v>
+      </c>
+      <c r="I4" s="48">
+        <v>0</v>
+      </c>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="34" t="s">
         <v>346</v>
       </c>
-      <c r="K4" s="94"/>
-      <c r="L4" s="91"/>
-      <c r="M4" s="91"/>
-    </row>
-    <row r="5" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M4" s="94"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="91"/>
+      <c r="P4" s="67">
+        <v>20</v>
+      </c>
+      <c r="Q4" s="67">
+        <v>20</v>
+      </c>
+      <c r="R4" s="183">
+        <v>10</v>
+      </c>
+      <c r="S4" s="48">
+        <v>10</v>
+      </c>
+      <c r="T4" s="66"/>
+    </row>
+    <row r="5" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="188" t="s">
+      <c r="B5" s="187" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="20" t="s">
@@ -13550,25 +13670,46 @@
       <c r="F5" s="48" t="s">
         <v>210</v>
       </c>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="184" t="s">
+      <c r="G5" s="48">
+        <v>1</v>
+      </c>
+      <c r="H5" s="48">
+        <v>0</v>
+      </c>
+      <c r="I5" s="48">
+        <v>0</v>
+      </c>
+      <c r="J5" s="48"/>
+      <c r="K5" s="183" t="s">
         <v>346</v>
       </c>
-      <c r="J5" s="94"/>
-      <c r="K5" s="187" t="s">
+      <c r="L5" s="94"/>
+      <c r="M5" s="186" t="s">
         <v>346</v>
       </c>
-      <c r="L5" s="183" t="s">
+      <c r="N5" s="192" t="s">
         <v>528</v>
       </c>
-      <c r="M5" s="91"/>
-    </row>
-    <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O5" s="91"/>
+      <c r="P5" s="67">
+        <v>24</v>
+      </c>
+      <c r="Q5" s="67">
+        <v>24</v>
+      </c>
+      <c r="R5" s="183">
+        <v>1</v>
+      </c>
+      <c r="S5" s="48">
+        <v>1</v>
+      </c>
+      <c r="T5" s="66"/>
+    </row>
+    <row r="6" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="189" t="s">
+      <c r="B6" s="188" t="s">
         <v>33</v>
       </c>
       <c r="C6" s="20" t="s">
@@ -13583,21 +13724,42 @@
       <c r="F6" s="48" t="s">
         <v>511</v>
       </c>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="34" t="s">
+      <c r="G6" s="48">
+        <v>11</v>
+      </c>
+      <c r="H6" s="48">
+        <v>2</v>
+      </c>
+      <c r="I6" s="48">
+        <v>0</v>
+      </c>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="34" t="s">
         <v>346</v>
       </c>
-      <c r="K6" s="94"/>
-      <c r="L6" s="91"/>
-      <c r="M6" s="91"/>
-    </row>
-    <row r="7" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M6" s="94"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="91"/>
+      <c r="P6" s="67">
+        <v>57</v>
+      </c>
+      <c r="Q6" s="67">
+        <v>57</v>
+      </c>
+      <c r="R6" s="183">
+        <v>11</v>
+      </c>
+      <c r="S6" s="2">
+        <v>11</v>
+      </c>
+      <c r="T6" s="66"/>
+    </row>
+    <row r="7" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="188" t="s">
+      <c r="B7" s="187" t="s">
         <v>56</v>
       </c>
       <c r="C7" s="131" t="s">
@@ -13612,21 +13774,42 @@
       <c r="F7" s="48" t="s">
         <v>211</v>
       </c>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="184" t="s">
+      <c r="G7" s="48">
+        <v>15</v>
+      </c>
+      <c r="H7" s="48">
+        <v>8</v>
+      </c>
+      <c r="I7" s="48">
+        <v>1</v>
+      </c>
+      <c r="J7" s="48"/>
+      <c r="K7" s="183" t="s">
         <v>346</v>
       </c>
-      <c r="J7" s="94"/>
-      <c r="K7" s="94"/>
-      <c r="L7" s="91"/>
-      <c r="M7" s="91"/>
-    </row>
-    <row r="8" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L7" s="94"/>
+      <c r="M7" s="94"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="91"/>
+      <c r="P7" s="48">
+        <v>11</v>
+      </c>
+      <c r="Q7" s="48">
+        <v>11</v>
+      </c>
+      <c r="R7" s="183">
+        <v>15</v>
+      </c>
+      <c r="S7" s="48">
+        <v>15</v>
+      </c>
+      <c r="T7" s="66"/>
+    </row>
+    <row r="8" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="188" t="s">
+      <c r="B8" s="187" t="s">
         <v>58</v>
       </c>
       <c r="C8" s="20" t="s">
@@ -13641,21 +13824,42 @@
       <c r="F8" s="48" t="s">
         <v>512</v>
       </c>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="184" t="s">
+      <c r="G8" s="48">
+        <v>11</v>
+      </c>
+      <c r="H8" s="48">
+        <v>8</v>
+      </c>
+      <c r="I8" s="48">
+        <v>0</v>
+      </c>
+      <c r="J8" s="48"/>
+      <c r="K8" s="183" t="s">
         <v>346</v>
       </c>
-      <c r="J8" s="94"/>
-      <c r="K8" s="94"/>
-      <c r="L8" s="91"/>
-      <c r="M8" s="91"/>
-    </row>
-    <row r="9" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L8" s="94"/>
+      <c r="M8" s="94"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="91"/>
+      <c r="P8" s="48">
+        <v>22</v>
+      </c>
+      <c r="Q8" s="48">
+        <v>22</v>
+      </c>
+      <c r="R8" s="183">
+        <v>10</v>
+      </c>
+      <c r="S8" s="48">
+        <v>10</v>
+      </c>
+      <c r="T8" s="66"/>
+    </row>
+    <row r="9" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="188" t="s">
+      <c r="B9" s="187" t="s">
         <v>60</v>
       </c>
       <c r="C9" s="20" t="s">
@@ -13670,21 +13874,42 @@
       <c r="F9" s="48" t="s">
         <v>513</v>
       </c>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="184" t="s">
+      <c r="G9" s="48">
+        <v>22</v>
+      </c>
+      <c r="H9" s="48">
+        <v>19</v>
+      </c>
+      <c r="I9" s="48">
+        <v>1</v>
+      </c>
+      <c r="J9" s="48"/>
+      <c r="K9" s="183" t="s">
         <v>346</v>
       </c>
-      <c r="J9" s="94"/>
-      <c r="K9" s="94"/>
-      <c r="L9" s="91"/>
-      <c r="M9" s="91"/>
-    </row>
-    <row r="10" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L9" s="94"/>
+      <c r="M9" s="94"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="91"/>
+      <c r="P9" s="48">
+        <v>13</v>
+      </c>
+      <c r="Q9" s="48">
+        <v>13</v>
+      </c>
+      <c r="R9" s="183">
+        <v>22</v>
+      </c>
+      <c r="S9" s="48">
+        <v>22</v>
+      </c>
+      <c r="T9" s="66"/>
+    </row>
+    <row r="10" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="189" t="s">
+      <c r="B10" s="188" t="s">
         <v>62</v>
       </c>
       <c r="C10" s="131" t="s">
@@ -13699,21 +13924,42 @@
       <c r="F10" s="48" t="s">
         <v>212</v>
       </c>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="184" t="s">
+      <c r="G10" s="48">
+        <v>19</v>
+      </c>
+      <c r="H10" s="48">
+        <v>15</v>
+      </c>
+      <c r="I10" s="48">
+        <v>0</v>
+      </c>
+      <c r="J10" s="48"/>
+      <c r="K10" s="183" t="s">
         <v>346</v>
       </c>
-      <c r="J10" s="94"/>
-      <c r="K10" s="94"/>
-      <c r="L10" s="91"/>
-      <c r="M10" s="91"/>
-    </row>
-    <row r="11" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L10" s="94"/>
+      <c r="M10" s="94"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="91"/>
+      <c r="P10" s="48">
+        <v>43</v>
+      </c>
+      <c r="Q10" s="48">
+        <v>43</v>
+      </c>
+      <c r="R10" s="183">
+        <v>19</v>
+      </c>
+      <c r="S10" s="48">
+        <v>19</v>
+      </c>
+      <c r="T10" s="66"/>
+    </row>
+    <row r="11" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="188" t="s">
+      <c r="B11" s="187" t="s">
         <v>63</v>
       </c>
       <c r="C11" s="131" t="s">
@@ -13728,21 +13974,44 @@
       <c r="F11" s="48" t="s">
         <v>514</v>
       </c>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="184" t="s">
+      <c r="G11" s="48">
+        <v>147</v>
+      </c>
+      <c r="H11" s="48">
+        <v>103</v>
+      </c>
+      <c r="I11" s="48">
+        <v>11</v>
+      </c>
+      <c r="J11" s="48"/>
+      <c r="K11" s="183" t="s">
         <v>346</v>
       </c>
-      <c r="J11" s="94"/>
-      <c r="K11" s="94"/>
-      <c r="L11" s="91"/>
-      <c r="M11" s="91"/>
-    </row>
-    <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L11" s="94"/>
+      <c r="M11" s="94"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="91"/>
+      <c r="P11" s="48">
+        <v>11</v>
+      </c>
+      <c r="Q11" s="48">
+        <v>11</v>
+      </c>
+      <c r="R11" s="183">
+        <v>141</v>
+      </c>
+      <c r="S11" s="183">
+        <v>146</v>
+      </c>
+      <c r="T11" s="256" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="188" t="s">
+      <c r="B12" s="187" t="s">
         <v>66</v>
       </c>
       <c r="C12" s="131" t="s">
@@ -13757,21 +14026,42 @@
       <c r="F12" s="48" t="s">
         <v>515</v>
       </c>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="184" t="s">
+      <c r="G12" s="48">
+        <v>56</v>
+      </c>
+      <c r="H12" s="48">
+        <v>50</v>
+      </c>
+      <c r="I12" s="48">
+        <v>1</v>
+      </c>
+      <c r="J12" s="48"/>
+      <c r="K12" s="183" t="s">
         <v>346</v>
       </c>
-      <c r="J12" s="94"/>
-      <c r="K12" s="94"/>
-      <c r="L12" s="91"/>
-      <c r="M12" s="91"/>
-    </row>
-    <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L12" s="94"/>
+      <c r="M12" s="94"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="91"/>
+      <c r="P12" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>37</v>
+      </c>
+      <c r="R12" s="183">
+        <v>55</v>
+      </c>
+      <c r="S12" s="48">
+        <v>55</v>
+      </c>
+      <c r="T12" s="66"/>
+    </row>
+    <row r="13" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="188" t="s">
+      <c r="B13" s="187" t="s">
         <v>68</v>
       </c>
       <c r="C13" s="20" t="s">
@@ -13786,21 +14076,44 @@
       <c r="F13" s="48" t="s">
         <v>516</v>
       </c>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="34" t="s">
+      <c r="G13" s="48">
+        <v>42</v>
+      </c>
+      <c r="H13" s="48">
+        <v>34</v>
+      </c>
+      <c r="I13" s="48">
+        <v>0</v>
+      </c>
+      <c r="J13" s="48"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="34" t="s">
         <v>346</v>
       </c>
-      <c r="K13" s="94"/>
-      <c r="L13" s="91"/>
-      <c r="M13" s="91"/>
-    </row>
-    <row r="14" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M13" s="94"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="91"/>
+      <c r="P13" s="48">
+        <v>16</v>
+      </c>
+      <c r="Q13" s="48">
+        <v>16</v>
+      </c>
+      <c r="R13" s="183">
+        <v>37</v>
+      </c>
+      <c r="S13" s="183">
+        <v>41</v>
+      </c>
+      <c r="T13" s="66" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="188" t="s">
+      <c r="B14" s="187" t="s">
         <v>70</v>
       </c>
       <c r="C14" s="131" t="s">
@@ -13815,21 +14128,42 @@
       <c r="F14" s="48" t="s">
         <v>213</v>
       </c>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="34" t="s">
+      <c r="G14" s="48">
+        <v>5</v>
+      </c>
+      <c r="H14" s="48">
+        <v>4</v>
+      </c>
+      <c r="I14" s="48">
+        <v>0</v>
+      </c>
+      <c r="J14" s="48"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="34" t="s">
         <v>346</v>
       </c>
-      <c r="K14" s="94"/>
-      <c r="L14" s="91"/>
-      <c r="M14" s="91"/>
-    </row>
-    <row r="15" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M14" s="94"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="91"/>
+      <c r="P14" s="48">
+        <v>14</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>14</v>
+      </c>
+      <c r="R14" s="183">
+        <v>5</v>
+      </c>
+      <c r="S14" s="2">
+        <v>5</v>
+      </c>
+      <c r="T14" s="66"/>
+    </row>
+    <row r="15" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="188" t="s">
+      <c r="B15" s="187" t="s">
         <v>72</v>
       </c>
       <c r="C15" s="20" t="s">
@@ -13844,21 +14178,42 @@
       <c r="F15" s="48" t="s">
         <v>517</v>
       </c>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="184" t="s">
+      <c r="G15" s="48">
+        <v>7</v>
+      </c>
+      <c r="H15" s="48">
+        <v>2</v>
+      </c>
+      <c r="I15" s="48">
+        <v>1</v>
+      </c>
+      <c r="J15" s="48"/>
+      <c r="K15" s="183" t="s">
         <v>346</v>
       </c>
-      <c r="J15" s="94"/>
-      <c r="K15" s="94"/>
-      <c r="L15" s="91"/>
-      <c r="M15" s="91"/>
-    </row>
-    <row r="16" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L15" s="94"/>
+      <c r="M15" s="94"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="91"/>
+      <c r="P15" s="48">
+        <v>8</v>
+      </c>
+      <c r="Q15" s="48">
+        <v>8</v>
+      </c>
+      <c r="R15" s="183">
+        <v>7</v>
+      </c>
+      <c r="S15" s="48">
+        <v>7</v>
+      </c>
+      <c r="T15" s="66"/>
+    </row>
+    <row r="16" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="188" t="s">
+      <c r="B16" s="187" t="s">
         <v>74</v>
       </c>
       <c r="C16" s="20" t="s">
@@ -13873,21 +14228,42 @@
       <c r="F16" s="48" t="s">
         <v>215</v>
       </c>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="184" t="s">
+      <c r="G16" s="48">
+        <v>5</v>
+      </c>
+      <c r="H16" s="48">
+        <v>3</v>
+      </c>
+      <c r="I16" s="48">
+        <v>0</v>
+      </c>
+      <c r="J16" s="48"/>
+      <c r="K16" s="183" t="s">
         <v>346</v>
       </c>
-      <c r="J16" s="94"/>
-      <c r="K16" s="94"/>
-      <c r="L16" s="91"/>
-      <c r="M16" s="91"/>
-    </row>
-    <row r="17" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L16" s="94"/>
+      <c r="M16" s="94"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="91"/>
+      <c r="P16" s="48">
+        <v>27</v>
+      </c>
+      <c r="Q16" s="48">
+        <v>27</v>
+      </c>
+      <c r="R16" s="183">
+        <v>5</v>
+      </c>
+      <c r="S16" s="48">
+        <v>5</v>
+      </c>
+      <c r="T16" s="66"/>
+    </row>
+    <row r="17" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="188" t="s">
+      <c r="B17" s="187" t="s">
         <v>76</v>
       </c>
       <c r="C17" s="131" t="s">
@@ -13902,21 +14278,42 @@
       <c r="F17" s="48" t="s">
         <v>216</v>
       </c>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="184" t="s">
+      <c r="G17" s="48">
+        <v>10</v>
+      </c>
+      <c r="H17" s="48">
+        <v>10</v>
+      </c>
+      <c r="I17" s="48">
+        <v>0</v>
+      </c>
+      <c r="J17" s="48"/>
+      <c r="K17" s="183" t="s">
         <v>346</v>
       </c>
-      <c r="J17" s="94"/>
-      <c r="K17" s="94"/>
-      <c r="L17" s="91"/>
-      <c r="M17" s="91"/>
-    </row>
-    <row r="18" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L17" s="94"/>
+      <c r="M17" s="94"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="91"/>
+      <c r="P17" s="48">
+        <v>14</v>
+      </c>
+      <c r="Q17" s="48">
+        <v>14</v>
+      </c>
+      <c r="R17" s="183">
+        <v>10</v>
+      </c>
+      <c r="S17" s="48">
+        <v>10</v>
+      </c>
+      <c r="T17" s="66"/>
+    </row>
+    <row r="18" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="188" t="s">
+      <c r="B18" s="187" t="s">
         <v>77</v>
       </c>
       <c r="C18" s="20" t="s">
@@ -13931,21 +14328,42 @@
       <c r="F18" s="48" t="s">
         <v>518</v>
       </c>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="34" t="s">
+      <c r="G18" s="48">
+        <v>8</v>
+      </c>
+      <c r="H18" s="48">
+        <v>6</v>
+      </c>
+      <c r="I18" s="48">
+        <v>1</v>
+      </c>
+      <c r="J18" s="48"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="34" t="s">
         <v>346</v>
       </c>
-      <c r="K18" s="94"/>
-      <c r="L18" s="91"/>
-      <c r="M18" s="91"/>
-    </row>
-    <row r="19" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M18" s="94"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="91"/>
+      <c r="P18" s="48">
+        <v>8</v>
+      </c>
+      <c r="Q18" s="48">
+        <v>8</v>
+      </c>
+      <c r="R18" s="183">
+        <v>8</v>
+      </c>
+      <c r="S18" s="48">
+        <v>8</v>
+      </c>
+      <c r="T18" s="66"/>
+    </row>
+    <row r="19" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="189" t="s">
+      <c r="B19" s="188" t="s">
         <v>79</v>
       </c>
       <c r="C19" s="131" t="s">
@@ -13960,21 +14378,44 @@
       <c r="F19" s="48" t="s">
         <v>519</v>
       </c>
-      <c r="G19" s="48"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="184" t="s">
+      <c r="G19" s="48">
+        <v>17</v>
+      </c>
+      <c r="H19" s="48">
+        <v>12</v>
+      </c>
+      <c r="I19" s="48">
+        <v>0</v>
+      </c>
+      <c r="J19" s="48"/>
+      <c r="K19" s="183" t="s">
         <v>346</v>
       </c>
-      <c r="J19" s="94"/>
-      <c r="K19" s="94"/>
-      <c r="L19" s="91"/>
-      <c r="M19" s="91"/>
-    </row>
-    <row r="20" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L19" s="94"/>
+      <c r="M19" s="94"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="91"/>
+      <c r="P19" s="48">
+        <v>15</v>
+      </c>
+      <c r="Q19" s="48">
+        <v>15</v>
+      </c>
+      <c r="R19" s="183">
+        <v>15</v>
+      </c>
+      <c r="S19" s="183">
+        <v>17</v>
+      </c>
+      <c r="T19" s="66" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="189" t="s">
+      <c r="B20" s="188" t="s">
         <v>82</v>
       </c>
       <c r="C20" s="20" t="s">
@@ -13989,21 +14430,42 @@
       <c r="F20" s="48" t="s">
         <v>520</v>
       </c>
-      <c r="G20" s="48"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="184" t="s">
+      <c r="G20" s="48">
+        <v>8</v>
+      </c>
+      <c r="H20" s="48">
+        <v>8</v>
+      </c>
+      <c r="I20" s="48">
+        <v>0</v>
+      </c>
+      <c r="J20" s="48"/>
+      <c r="K20" s="183" t="s">
         <v>346</v>
       </c>
-      <c r="J20" s="94"/>
-      <c r="K20" s="94"/>
-      <c r="L20" s="91"/>
-      <c r="M20" s="91"/>
-    </row>
-    <row r="21" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L20" s="94"/>
+      <c r="M20" s="94"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="91"/>
+      <c r="P20" s="48">
+        <v>18</v>
+      </c>
+      <c r="Q20" s="48">
+        <v>18</v>
+      </c>
+      <c r="R20" s="183">
+        <v>8</v>
+      </c>
+      <c r="S20" s="48">
+        <v>8</v>
+      </c>
+      <c r="T20" s="66"/>
+    </row>
+    <row r="21" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="189" t="s">
+      <c r="B21" s="188" t="s">
         <v>84</v>
       </c>
       <c r="C21" s="20" t="s">
@@ -14018,21 +14480,44 @@
       <c r="F21" s="48" t="s">
         <v>521</v>
       </c>
-      <c r="G21" s="48"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="184" t="s">
+      <c r="G21" s="48">
+        <v>21</v>
+      </c>
+      <c r="H21" s="48">
+        <v>15</v>
+      </c>
+      <c r="I21" s="48">
+        <v>4</v>
+      </c>
+      <c r="J21" s="48"/>
+      <c r="K21" s="183" t="s">
         <v>346</v>
       </c>
-      <c r="J21" s="94"/>
-      <c r="K21" s="94"/>
-      <c r="L21" s="91"/>
-      <c r="M21" s="91"/>
-    </row>
-    <row r="22" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L21" s="94"/>
+      <c r="M21" s="94"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="91"/>
+      <c r="P21" s="48">
+        <v>22</v>
+      </c>
+      <c r="Q21" s="48">
+        <v>22</v>
+      </c>
+      <c r="R21" s="183">
+        <v>18</v>
+      </c>
+      <c r="S21" s="183">
+        <v>21</v>
+      </c>
+      <c r="T21" s="66" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="189" t="s">
+      <c r="B22" s="188" t="s">
         <v>86</v>
       </c>
       <c r="C22" s="20" t="s">
@@ -14047,21 +14532,42 @@
       <c r="F22" s="48" t="s">
         <v>522</v>
       </c>
-      <c r="G22" s="48"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="34" t="s">
+      <c r="G22" s="48">
+        <v>4</v>
+      </c>
+      <c r="H22" s="48">
+        <v>0</v>
+      </c>
+      <c r="I22" s="48">
+        <v>0</v>
+      </c>
+      <c r="J22" s="48"/>
+      <c r="K22" s="48"/>
+      <c r="L22" s="34" t="s">
         <v>346</v>
       </c>
-      <c r="K22" s="94"/>
-      <c r="L22" s="91"/>
-      <c r="M22" s="91"/>
-    </row>
-    <row r="23" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M22" s="94"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="91"/>
+      <c r="P22" s="48">
+        <v>15</v>
+      </c>
+      <c r="Q22" s="48">
+        <v>15</v>
+      </c>
+      <c r="R22" s="183">
+        <v>4</v>
+      </c>
+      <c r="S22" s="48">
+        <v>4</v>
+      </c>
+      <c r="T22" s="66"/>
+    </row>
+    <row r="23" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="189" t="s">
+      <c r="B23" s="188" t="s">
         <v>88</v>
       </c>
       <c r="C23" s="20" t="s">
@@ -14076,21 +14582,44 @@
       <c r="F23" s="48" t="s">
         <v>523</v>
       </c>
-      <c r="G23" s="48"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="184" t="s">
+      <c r="G23" s="48">
+        <v>95</v>
+      </c>
+      <c r="H23" s="48">
+        <v>80</v>
+      </c>
+      <c r="I23" s="48">
+        <v>0</v>
+      </c>
+      <c r="J23" s="48"/>
+      <c r="K23" s="183" t="s">
         <v>346</v>
       </c>
-      <c r="J23" s="94"/>
-      <c r="K23" s="94"/>
-      <c r="L23" s="91"/>
-      <c r="M23" s="91"/>
-    </row>
-    <row r="24" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L23" s="94"/>
+      <c r="M23" s="94"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="91"/>
+      <c r="P23" s="48">
+        <v>11</v>
+      </c>
+      <c r="Q23" s="48">
+        <v>11</v>
+      </c>
+      <c r="R23" s="183">
+        <v>85</v>
+      </c>
+      <c r="S23" s="183">
+        <v>95</v>
+      </c>
+      <c r="T23" s="66" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="189" t="s">
+      <c r="B24" s="188" t="s">
         <v>91</v>
       </c>
       <c r="C24" s="20" t="s">
@@ -14105,17 +14634,40 @@
       <c r="F24" s="48" t="s">
         <v>524</v>
       </c>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="34" t="s">
+      <c r="G24" s="48">
+        <v>29</v>
+      </c>
+      <c r="H24" s="48">
+        <v>21</v>
+      </c>
+      <c r="I24" s="48">
+        <v>5</v>
+      </c>
+      <c r="J24" s="48"/>
+      <c r="K24" s="48"/>
+      <c r="L24" s="34" t="s">
         <v>346</v>
       </c>
-      <c r="K24" s="94"/>
-      <c r="L24" s="91"/>
-      <c r="M24" s="91"/>
-    </row>
-    <row r="25" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M24" s="94"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="91"/>
+      <c r="P24" s="48">
+        <v>33</v>
+      </c>
+      <c r="Q24" s="48">
+        <v>33</v>
+      </c>
+      <c r="R24" s="183">
+        <v>27</v>
+      </c>
+      <c r="S24" s="183">
+        <v>29</v>
+      </c>
+      <c r="T24" s="66" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="53" t="s">
         <v>359</v>
       </c>
@@ -14131,24 +14683,38 @@
       <c r="E25" s="18" t="s">
         <v>357</v>
       </c>
-      <c r="F25" s="191" t="s">
+      <c r="F25" s="190" t="s">
         <v>501</v>
       </c>
-      <c r="G25" s="29"/>
-      <c r="H25" s="247" t="s">
+      <c r="G25" s="29">
+        <v>40</v>
+      </c>
+      <c r="H25" s="29">
+        <v>33</v>
+      </c>
+      <c r="I25" s="29">
+        <v>1</v>
+      </c>
+      <c r="J25" s="194" t="s">
         <v>551</v>
       </c>
-      <c r="I25" s="85"/>
-      <c r="J25" s="85"/>
-      <c r="K25" s="74" t="s">
+      <c r="K25" s="85"/>
+      <c r="L25" s="85"/>
+      <c r="M25" s="74" t="s">
         <v>346</v>
       </c>
-      <c r="L25" s="91" t="s">
+      <c r="N25" s="19" t="s">
         <v>531</v>
       </c>
-      <c r="M25" s="91"/>
-    </row>
-    <row r="26" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O25" s="91"/>
+      <c r="P25" s="94" t="s">
+        <v>510</v>
+      </c>
+      <c r="Q25" s="253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="53" t="s">
         <v>360</v>
       </c>
@@ -14164,22 +14730,36 @@
       <c r="E26" s="18" t="s">
         <v>361</v>
       </c>
-      <c r="F26" s="190" t="s">
+      <c r="F26" s="189" t="s">
         <v>470</v>
       </c>
-      <c r="G26" s="53"/>
-      <c r="H26" s="248" t="s">
+      <c r="G26" s="53">
+        <v>8</v>
+      </c>
+      <c r="H26" s="53">
+        <v>5</v>
+      </c>
+      <c r="I26" s="53">
+        <v>1</v>
+      </c>
+      <c r="J26" s="195" t="s">
         <v>532</v>
       </c>
-      <c r="I26" s="53"/>
-      <c r="J26" s="34" t="s">
+      <c r="K26" s="53"/>
+      <c r="L26" s="34" t="s">
         <v>346</v>
       </c>
-      <c r="K26" s="94"/>
-      <c r="L26" s="91"/>
-      <c r="M26" s="91"/>
-    </row>
-    <row r="27" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M26" s="94"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="91"/>
+      <c r="P26" s="94">
+        <v>12</v>
+      </c>
+      <c r="Q26" s="94">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="53" t="s">
         <v>364</v>
       </c>
@@ -14195,24 +14775,38 @@
       <c r="E27" s="18" t="s">
         <v>365</v>
       </c>
-      <c r="F27" s="191" t="s">
+      <c r="F27" s="190" t="s">
         <v>471</v>
       </c>
-      <c r="G27" s="29"/>
-      <c r="H27" s="89" t="s">
+      <c r="G27" s="29">
+        <v>1</v>
+      </c>
+      <c r="H27" s="29">
+        <v>0</v>
+      </c>
+      <c r="I27" s="29">
+        <v>0</v>
+      </c>
+      <c r="J27" s="89" t="s">
         <v>533</v>
       </c>
-      <c r="I27" s="85"/>
-      <c r="J27" s="85"/>
-      <c r="K27" s="74" t="s">
+      <c r="K27" s="85"/>
+      <c r="L27" s="85"/>
+      <c r="M27" s="74" t="s">
         <v>346</v>
       </c>
-      <c r="L27" s="91" t="s">
+      <c r="N27" s="19" t="s">
         <v>531</v>
       </c>
-      <c r="M27" s="91"/>
-    </row>
-    <row r="28" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O27" s="91"/>
+      <c r="P27" s="94">
+        <v>10</v>
+      </c>
+      <c r="Q27" s="94">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="53" t="s">
         <v>368</v>
       </c>
@@ -14228,22 +14822,36 @@
       <c r="E28" s="18" t="s">
         <v>369</v>
       </c>
-      <c r="F28" s="190" t="s">
+      <c r="F28" s="189" t="s">
         <v>472</v>
       </c>
-      <c r="G28" s="53"/>
-      <c r="H28" s="248" t="s">
+      <c r="G28" s="53">
+        <v>4</v>
+      </c>
+      <c r="H28" s="53">
+        <v>1</v>
+      </c>
+      <c r="I28" s="53">
+        <v>0</v>
+      </c>
+      <c r="J28" s="195" t="s">
         <v>534</v>
       </c>
-      <c r="I28" s="53"/>
-      <c r="J28" s="34" t="s">
+      <c r="K28" s="53"/>
+      <c r="L28" s="34" t="s">
         <v>346</v>
       </c>
-      <c r="K28" s="94"/>
-      <c r="L28" s="91"/>
-      <c r="M28" s="91"/>
-    </row>
-    <row r="29" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M28" s="94"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="91"/>
+      <c r="P28" s="94">
+        <v>94</v>
+      </c>
+      <c r="Q28" s="94">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="53" t="s">
         <v>372</v>
       </c>
@@ -14259,22 +14867,36 @@
       <c r="E29" s="18" t="s">
         <v>373</v>
       </c>
-      <c r="F29" s="191" t="s">
+      <c r="F29" s="190" t="s">
         <v>476</v>
       </c>
-      <c r="G29" s="29"/>
-      <c r="H29" s="247" t="s">
+      <c r="G29" s="29">
+        <v>31</v>
+      </c>
+      <c r="H29" s="29">
+        <v>29</v>
+      </c>
+      <c r="I29" s="29">
+        <v>0</v>
+      </c>
+      <c r="J29" s="194" t="s">
         <v>549</v>
       </c>
-      <c r="I29" s="185" t="s">
+      <c r="K29" s="184" t="s">
         <v>346</v>
       </c>
-      <c r="J29" s="94"/>
-      <c r="K29" s="94"/>
-      <c r="L29" s="91"/>
-      <c r="M29" s="91"/>
-    </row>
-    <row r="30" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L29" s="94"/>
+      <c r="M29" s="94"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="91"/>
+      <c r="P29" s="94">
+        <v>19</v>
+      </c>
+      <c r="Q29" s="94">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="53" t="s">
         <v>378</v>
       </c>
@@ -14290,22 +14912,36 @@
       <c r="E30" s="18" t="s">
         <v>376</v>
       </c>
-      <c r="F30" s="191" t="s">
+      <c r="F30" s="190" t="s">
         <v>477</v>
       </c>
-      <c r="G30" s="29"/>
-      <c r="H30" s="249" t="s">
+      <c r="G30" s="29">
+        <v>0</v>
+      </c>
+      <c r="H30" s="29">
+        <v>0</v>
+      </c>
+      <c r="I30" s="29">
+        <v>0</v>
+      </c>
+      <c r="J30" s="196" t="s">
         <v>535</v>
       </c>
-      <c r="I30" s="94"/>
-      <c r="J30" s="34" t="s">
+      <c r="K30" s="94"/>
+      <c r="L30" s="34" t="s">
         <v>346</v>
       </c>
-      <c r="K30" s="94"/>
-      <c r="L30" s="91"/>
-      <c r="M30" s="91"/>
-    </row>
-    <row r="31" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M30" s="94"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="91"/>
+      <c r="P30" s="94">
+        <v>13</v>
+      </c>
+      <c r="Q30" s="94">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="53" t="s">
         <v>379</v>
       </c>
@@ -14321,22 +14957,36 @@
       <c r="E31" s="18" t="s">
         <v>380</v>
       </c>
-      <c r="F31" s="191" t="s">
+      <c r="F31" s="190" t="s">
         <v>500</v>
       </c>
-      <c r="G31" s="29"/>
-      <c r="H31" s="247" t="s">
+      <c r="G31" s="29">
+        <v>1</v>
+      </c>
+      <c r="H31" s="29">
+        <v>1</v>
+      </c>
+      <c r="I31" s="29">
+        <v>1</v>
+      </c>
+      <c r="J31" s="194" t="s">
         <v>536</v>
       </c>
-      <c r="I31" s="29"/>
-      <c r="J31" s="34" t="s">
+      <c r="K31" s="29"/>
+      <c r="L31" s="34" t="s">
         <v>346</v>
       </c>
-      <c r="K31" s="94"/>
-      <c r="L31" s="91"/>
-      <c r="M31" s="91"/>
-    </row>
-    <row r="32" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M31" s="94"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="91"/>
+      <c r="P31" s="94">
+        <v>16</v>
+      </c>
+      <c r="Q31" s="94">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="53" t="s">
         <v>383</v>
       </c>
@@ -14352,22 +15002,36 @@
       <c r="E32" s="18" t="s">
         <v>384</v>
       </c>
-      <c r="F32" s="191" t="s">
+      <c r="F32" s="190" t="s">
         <v>479</v>
       </c>
-      <c r="G32" s="29"/>
-      <c r="H32" s="247" t="s">
+      <c r="G32" s="29">
+        <v>50</v>
+      </c>
+      <c r="H32" s="29">
+        <v>32</v>
+      </c>
+      <c r="I32" s="29">
+        <v>0</v>
+      </c>
+      <c r="J32" s="194" t="s">
         <v>550</v>
       </c>
-      <c r="I32" s="185" t="s">
+      <c r="K32" s="184" t="s">
         <v>346</v>
       </c>
-      <c r="J32" s="94"/>
-      <c r="K32" s="94"/>
-      <c r="L32" s="91"/>
-      <c r="M32" s="91"/>
-    </row>
-    <row r="33" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L32" s="94"/>
+      <c r="M32" s="94"/>
+      <c r="N32" s="19"/>
+      <c r="O32" s="91"/>
+      <c r="P32" s="94">
+        <v>26</v>
+      </c>
+      <c r="Q32" s="94">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="53" t="s">
         <v>387</v>
       </c>
@@ -14383,22 +15047,36 @@
       <c r="E33" s="18" t="s">
         <v>388</v>
       </c>
-      <c r="F33" s="191" t="s">
+      <c r="F33" s="190" t="s">
         <v>480</v>
       </c>
-      <c r="G33" s="29"/>
-      <c r="H33" s="247" t="s">
+      <c r="G33" s="29">
+        <v>5</v>
+      </c>
+      <c r="H33" s="29">
+        <v>4</v>
+      </c>
+      <c r="I33" s="29">
+        <v>1</v>
+      </c>
+      <c r="J33" s="194" t="s">
         <v>538</v>
       </c>
-      <c r="I33" s="185" t="s">
+      <c r="K33" s="184" t="s">
         <v>346</v>
       </c>
-      <c r="J33" s="94"/>
-      <c r="K33" s="94"/>
-      <c r="L33" s="91"/>
-      <c r="M33" s="91"/>
-    </row>
-    <row r="34" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L33" s="94"/>
+      <c r="M33" s="94"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="91"/>
+      <c r="P33" s="94">
+        <v>21</v>
+      </c>
+      <c r="Q33" s="94">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="53" t="s">
         <v>391</v>
       </c>
@@ -14414,26 +15092,40 @@
       <c r="E34" s="18" t="s">
         <v>392</v>
       </c>
-      <c r="F34" s="191" t="s">
+      <c r="F34" s="190" t="s">
         <v>499</v>
       </c>
-      <c r="G34" s="29"/>
-      <c r="H34" s="247" t="s">
+      <c r="G34" s="29">
+        <v>55</v>
+      </c>
+      <c r="H34" s="29">
+        <v>23</v>
+      </c>
+      <c r="I34" s="29">
+        <v>4</v>
+      </c>
+      <c r="J34" s="194" t="s">
         <v>537</v>
       </c>
-      <c r="I34" s="185" t="s">
+      <c r="K34" s="184" t="s">
         <v>346</v>
       </c>
-      <c r="J34" s="94"/>
-      <c r="K34" s="186" t="s">
+      <c r="L34" s="94"/>
+      <c r="M34" s="185" t="s">
         <v>346</v>
       </c>
-      <c r="L34" s="183" t="s">
+      <c r="N34" s="192" t="s">
         <v>528</v>
       </c>
-      <c r="M34" s="91"/>
-    </row>
-    <row r="35" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O34" s="91"/>
+      <c r="P34" s="94">
+        <v>8</v>
+      </c>
+      <c r="Q34" s="94">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="53" t="s">
         <v>395</v>
       </c>
@@ -14449,22 +15141,36 @@
       <c r="E35" s="18" t="s">
         <v>396</v>
       </c>
-      <c r="F35" s="191" t="s">
+      <c r="F35" s="190" t="s">
         <v>481</v>
       </c>
-      <c r="G35" s="29"/>
-      <c r="H35" s="249" t="s">
+      <c r="G35" s="29">
+        <v>4</v>
+      </c>
+      <c r="H35" s="29">
+        <v>1</v>
+      </c>
+      <c r="I35" s="29">
+        <v>1</v>
+      </c>
+      <c r="J35" s="196" t="s">
         <v>539</v>
       </c>
-      <c r="I35" s="94"/>
-      <c r="J35" s="34" t="s">
+      <c r="K35" s="94"/>
+      <c r="L35" s="34" t="s">
         <v>346</v>
       </c>
-      <c r="K35" s="94"/>
-      <c r="L35" s="91"/>
-      <c r="M35" s="91"/>
-    </row>
-    <row r="36" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M35" s="94"/>
+      <c r="N35" s="19"/>
+      <c r="O35" s="91"/>
+      <c r="P35" s="94">
+        <v>18</v>
+      </c>
+      <c r="Q35" s="94">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="53" t="s">
         <v>400</v>
       </c>
@@ -14480,22 +15186,36 @@
       <c r="E36" s="18" t="s">
         <v>401</v>
       </c>
-      <c r="F36" s="191" t="s">
+      <c r="F36" s="190" t="s">
         <v>482</v>
       </c>
-      <c r="G36" s="29"/>
-      <c r="H36" s="249" t="s">
+      <c r="G36" s="29">
+        <v>5</v>
+      </c>
+      <c r="H36" s="29">
+        <v>4</v>
+      </c>
+      <c r="I36" s="29">
+        <v>1</v>
+      </c>
+      <c r="J36" s="196" t="s">
         <v>540</v>
       </c>
-      <c r="I36" s="185" t="s">
+      <c r="K36" s="184" t="s">
         <v>346</v>
       </c>
-      <c r="J36" s="94"/>
-      <c r="K36" s="94"/>
-      <c r="L36" s="91"/>
-      <c r="M36" s="91"/>
-    </row>
-    <row r="37" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L36" s="94"/>
+      <c r="M36" s="94"/>
+      <c r="N36" s="19"/>
+      <c r="O36" s="91"/>
+      <c r="P36" s="94">
+        <v>45</v>
+      </c>
+      <c r="Q36" s="94">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="53" t="s">
         <v>404</v>
       </c>
@@ -14514,19 +15234,33 @@
       <c r="F37" s="85" t="s">
         <v>483</v>
       </c>
-      <c r="G37" s="29"/>
-      <c r="H37" s="249" t="s">
+      <c r="G37" s="29">
+        <v>3</v>
+      </c>
+      <c r="H37" s="29">
+        <v>0</v>
+      </c>
+      <c r="I37" s="29">
+        <v>0</v>
+      </c>
+      <c r="J37" s="196" t="s">
         <v>548</v>
       </c>
-      <c r="I37" s="185" t="s">
+      <c r="K37" s="184" t="s">
         <v>346</v>
       </c>
-      <c r="J37" s="94"/>
-      <c r="K37" s="94"/>
-      <c r="L37" s="91"/>
-      <c r="M37" s="91"/>
-    </row>
-    <row r="38" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L37" s="94"/>
+      <c r="M37" s="94"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="91"/>
+      <c r="P37" s="94">
+        <v>28</v>
+      </c>
+      <c r="Q37" s="94">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="53" t="s">
         <v>407</v>
       </c>
@@ -14542,22 +15276,36 @@
       <c r="E38" s="18" t="s">
         <v>408</v>
       </c>
-      <c r="F38" s="191" t="s">
+      <c r="F38" s="190" t="s">
         <v>484</v>
       </c>
-      <c r="G38" s="29"/>
-      <c r="H38" s="249" t="s">
+      <c r="G38" s="29">
+        <v>14</v>
+      </c>
+      <c r="H38" s="29">
+        <v>11</v>
+      </c>
+      <c r="I38" s="29">
+        <v>3</v>
+      </c>
+      <c r="J38" s="196" t="s">
         <v>547</v>
       </c>
-      <c r="I38" s="185" t="s">
+      <c r="K38" s="184" t="s">
         <v>346</v>
       </c>
-      <c r="J38" s="94"/>
-      <c r="K38" s="94"/>
-      <c r="L38" s="91"/>
-      <c r="M38" s="91"/>
-    </row>
-    <row r="39" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L38" s="94"/>
+      <c r="M38" s="94"/>
+      <c r="N38" s="19"/>
+      <c r="O38" s="91"/>
+      <c r="P38" s="94">
+        <v>14</v>
+      </c>
+      <c r="Q38" s="94">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="53" t="s">
         <v>411</v>
       </c>
@@ -14573,20 +15321,34 @@
       <c r="E39" s="18" t="s">
         <v>412</v>
       </c>
-      <c r="F39" s="191" t="s">
+      <c r="F39" s="190" t="s">
         <v>498</v>
       </c>
-      <c r="G39" s="29"/>
-      <c r="H39" s="247"/>
-      <c r="I39" s="185" t="s">
+      <c r="G39" s="34">
+        <v>1</v>
+      </c>
+      <c r="H39" s="34">
+        <v>2</v>
+      </c>
+      <c r="I39" s="34">
+        <v>2</v>
+      </c>
+      <c r="J39" s="194"/>
+      <c r="K39" s="184" t="s">
         <v>346</v>
       </c>
-      <c r="J39" s="94"/>
-      <c r="K39" s="94"/>
-      <c r="L39" s="91"/>
-      <c r="M39" s="91"/>
-    </row>
-    <row r="40" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L39" s="94"/>
+      <c r="M39" s="94"/>
+      <c r="N39" s="19"/>
+      <c r="O39" s="91"/>
+      <c r="P39" s="94">
+        <v>5</v>
+      </c>
+      <c r="Q39" s="94">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="53" t="s">
         <v>415</v>
       </c>
@@ -14602,22 +15364,36 @@
       <c r="E40" s="18" t="s">
         <v>420</v>
       </c>
-      <c r="F40" s="191" t="s">
+      <c r="F40" s="190" t="s">
         <v>485</v>
       </c>
-      <c r="G40" s="29"/>
-      <c r="H40" s="249" t="s">
+      <c r="G40" s="29">
+        <v>58</v>
+      </c>
+      <c r="H40" s="29">
+        <v>39</v>
+      </c>
+      <c r="I40" s="29">
+        <v>5</v>
+      </c>
+      <c r="J40" s="196" t="s">
         <v>552</v>
       </c>
-      <c r="I40" s="185" t="s">
+      <c r="K40" s="184" t="s">
         <v>346</v>
       </c>
-      <c r="J40" s="94"/>
-      <c r="K40" s="94"/>
-      <c r="L40" s="91"/>
-      <c r="M40" s="91"/>
-    </row>
-    <row r="41" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L40" s="94"/>
+      <c r="M40" s="94"/>
+      <c r="N40" s="19"/>
+      <c r="O40" s="91"/>
+      <c r="P40" s="94">
+        <v>15</v>
+      </c>
+      <c r="Q40" s="94">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="53" t="s">
         <v>417</v>
       </c>
@@ -14633,26 +15409,40 @@
       <c r="E41" s="18" t="s">
         <v>418</v>
       </c>
-      <c r="F41" s="191" t="s">
+      <c r="F41" s="190" t="s">
         <v>497</v>
       </c>
-      <c r="G41" s="29"/>
-      <c r="H41" s="247" t="s">
+      <c r="G41" s="29">
+        <v>1</v>
+      </c>
+      <c r="H41" s="29">
+        <v>0</v>
+      </c>
+      <c r="I41" s="29">
+        <v>0</v>
+      </c>
+      <c r="J41" s="194" t="s">
         <v>541</v>
       </c>
-      <c r="I41" s="185" t="s">
+      <c r="K41" s="184" t="s">
         <v>346</v>
       </c>
-      <c r="J41" s="94"/>
-      <c r="K41" s="186" t="s">
+      <c r="L41" s="94"/>
+      <c r="M41" s="185" t="s">
         <v>346</v>
       </c>
-      <c r="L41" s="183" t="s">
+      <c r="N41" s="192" t="s">
         <v>527</v>
       </c>
-      <c r="M41" s="91"/>
-    </row>
-    <row r="42" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O41" s="91"/>
+      <c r="P41" s="94">
+        <v>70</v>
+      </c>
+      <c r="Q41" s="94">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="53" t="s">
         <v>423</v>
       </c>
@@ -14668,22 +15458,36 @@
       <c r="E42" s="18" t="s">
         <v>424</v>
       </c>
-      <c r="F42" s="191" t="s">
+      <c r="F42" s="190" t="s">
         <v>506</v>
       </c>
-      <c r="G42" s="29"/>
-      <c r="H42" s="249" t="s">
+      <c r="G42" s="29">
+        <v>17</v>
+      </c>
+      <c r="H42" s="29">
+        <v>10</v>
+      </c>
+      <c r="I42" s="29">
+        <v>2</v>
+      </c>
+      <c r="J42" s="196" t="s">
         <v>542</v>
       </c>
-      <c r="I42" s="185" t="s">
+      <c r="K42" s="184" t="s">
         <v>346</v>
       </c>
-      <c r="J42" s="94"/>
-      <c r="K42" s="94"/>
-      <c r="L42" s="91"/>
-      <c r="M42" s="91"/>
-    </row>
-    <row r="43" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L42" s="94"/>
+      <c r="M42" s="94"/>
+      <c r="N42" s="19"/>
+      <c r="O42" s="91"/>
+      <c r="P42" s="94">
+        <v>31</v>
+      </c>
+      <c r="Q42" s="94">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="53" t="s">
         <v>426</v>
       </c>
@@ -14699,22 +15503,36 @@
       <c r="E43" s="18" t="s">
         <v>424</v>
       </c>
-      <c r="F43" s="192" t="s">
+      <c r="F43" s="191" t="s">
         <v>496</v>
       </c>
-      <c r="G43" s="98"/>
-      <c r="H43" s="250" t="s">
+      <c r="G43" s="251">
+        <v>6</v>
+      </c>
+      <c r="H43" s="98">
+        <v>1</v>
+      </c>
+      <c r="I43" s="98">
+        <v>1</v>
+      </c>
+      <c r="J43" s="197" t="s">
         <v>543</v>
       </c>
-      <c r="I43" s="98"/>
-      <c r="J43" s="34" t="s">
+      <c r="K43" s="98"/>
+      <c r="L43" s="34" t="s">
         <v>346</v>
       </c>
-      <c r="K43" s="94"/>
-      <c r="L43" s="91"/>
-      <c r="M43" s="91"/>
-    </row>
-    <row r="44" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M43" s="94"/>
+      <c r="N43" s="19"/>
+      <c r="O43" s="91"/>
+      <c r="P43" s="94">
+        <v>15</v>
+      </c>
+      <c r="Q43" s="94">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="53" t="s">
         <v>429</v>
       </c>
@@ -14730,20 +15548,34 @@
       <c r="E44" s="18" t="s">
         <v>430</v>
       </c>
-      <c r="F44" s="191" t="s">
+      <c r="F44" s="190" t="s">
         <v>486</v>
       </c>
-      <c r="G44" s="246"/>
-      <c r="H44" s="251"/>
-      <c r="I44" s="185" t="s">
+      <c r="G44" s="193">
+        <v>69</v>
+      </c>
+      <c r="H44" s="29">
+        <v>50</v>
+      </c>
+      <c r="I44" s="29">
+        <v>5</v>
+      </c>
+      <c r="J44" s="6"/>
+      <c r="K44" s="184" t="s">
         <v>346</v>
       </c>
-      <c r="J44" s="94"/>
-      <c r="K44" s="94"/>
-      <c r="L44" s="91"/>
-      <c r="M44" s="91"/>
-    </row>
-    <row r="45" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L44" s="94"/>
+      <c r="M44" s="94"/>
+      <c r="N44" s="19"/>
+      <c r="O44" s="91"/>
+      <c r="P44" s="94">
+        <v>7</v>
+      </c>
+      <c r="Q44" s="94">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="53" t="s">
         <v>433</v>
       </c>
@@ -14759,22 +15591,36 @@
       <c r="E45" s="18" t="s">
         <v>434</v>
       </c>
-      <c r="F45" s="191" t="s">
+      <c r="F45" s="190" t="s">
         <v>487</v>
       </c>
-      <c r="G45" s="29"/>
-      <c r="H45" s="249" t="s">
+      <c r="G45" s="29">
+        <v>17</v>
+      </c>
+      <c r="H45" s="29">
+        <v>9</v>
+      </c>
+      <c r="I45" s="29">
+        <v>2</v>
+      </c>
+      <c r="J45" s="196" t="s">
         <v>544</v>
       </c>
-      <c r="I45" s="94"/>
-      <c r="J45" s="34" t="s">
+      <c r="K45" s="94"/>
+      <c r="L45" s="34" t="s">
         <v>346</v>
       </c>
-      <c r="K45" s="94"/>
-      <c r="L45" s="91"/>
-      <c r="M45" s="91"/>
-    </row>
-    <row r="46" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M45" s="94"/>
+      <c r="N45" s="19"/>
+      <c r="O45" s="91"/>
+      <c r="P45" s="94">
+        <v>7</v>
+      </c>
+      <c r="Q45" s="94">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="53" t="s">
         <v>437</v>
       </c>
@@ -14790,22 +15636,36 @@
       <c r="E46" s="18" t="s">
         <v>438</v>
       </c>
-      <c r="F46" s="191" t="s">
+      <c r="F46" s="190" t="s">
         <v>495</v>
       </c>
-      <c r="G46" s="29"/>
-      <c r="H46" s="247" t="s">
+      <c r="G46" s="29">
+        <v>15</v>
+      </c>
+      <c r="H46" s="29">
+        <v>10</v>
+      </c>
+      <c r="I46" s="29">
+        <v>2</v>
+      </c>
+      <c r="J46" s="194" t="s">
         <v>554</v>
       </c>
-      <c r="I46" s="29"/>
-      <c r="J46" s="34" t="s">
+      <c r="K46" s="29"/>
+      <c r="L46" s="34" t="s">
         <v>346</v>
       </c>
-      <c r="K46" s="94"/>
-      <c r="L46" s="91"/>
-      <c r="M46" s="91"/>
-    </row>
-    <row r="47" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M46" s="94"/>
+      <c r="N46" s="19"/>
+      <c r="O46" s="91"/>
+      <c r="P46" s="94">
+        <v>14</v>
+      </c>
+      <c r="Q46" s="94">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="53" t="s">
         <v>440</v>
       </c>
@@ -14821,22 +15681,36 @@
       <c r="E47" s="18" t="s">
         <v>441</v>
       </c>
-      <c r="F47" s="191" t="s">
+      <c r="F47" s="190" t="s">
         <v>494</v>
       </c>
-      <c r="G47" s="29"/>
-      <c r="H47" s="247" t="s">
+      <c r="G47" s="29">
+        <v>0</v>
+      </c>
+      <c r="H47" s="29">
+        <v>0</v>
+      </c>
+      <c r="I47" s="29">
+        <v>0</v>
+      </c>
+      <c r="J47" s="194" t="s">
         <v>535</v>
       </c>
-      <c r="I47" s="29"/>
-      <c r="J47" s="34" t="s">
+      <c r="K47" s="29"/>
+      <c r="L47" s="34" t="s">
         <v>346</v>
       </c>
-      <c r="K47" s="94"/>
-      <c r="L47" s="91"/>
-      <c r="M47" s="91"/>
-    </row>
-    <row r="48" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M47" s="94"/>
+      <c r="N47" s="19"/>
+      <c r="O47" s="91"/>
+      <c r="P47" s="94">
+        <v>27</v>
+      </c>
+      <c r="Q47" s="94">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="53" t="s">
         <v>444</v>
       </c>
@@ -14855,21 +15729,35 @@
       <c r="F48" s="85" t="s">
         <v>488</v>
       </c>
-      <c r="G48" s="29"/>
-      <c r="H48" s="249" t="s">
+      <c r="G48" s="29">
+        <v>11</v>
+      </c>
+      <c r="H48" s="29">
+        <v>2</v>
+      </c>
+      <c r="I48" s="29">
+        <v>2</v>
+      </c>
+      <c r="J48" s="196" t="s">
         <v>548</v>
       </c>
-      <c r="I48" s="85"/>
-      <c r="J48" s="85"/>
-      <c r="K48" s="53" t="s">
+      <c r="K48" s="85"/>
+      <c r="L48" s="85"/>
+      <c r="M48" s="53" t="s">
         <v>346</v>
       </c>
-      <c r="L48" s="91" t="s">
+      <c r="N48" s="19" t="s">
         <v>531</v>
       </c>
-      <c r="M48" s="91"/>
-    </row>
-    <row r="49" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O48" s="91"/>
+      <c r="P48" s="94">
+        <v>19</v>
+      </c>
+      <c r="Q48" s="94">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="53" t="s">
         <v>447</v>
       </c>
@@ -14885,22 +15773,36 @@
       <c r="E49" s="18" t="s">
         <v>448</v>
       </c>
-      <c r="F49" s="191" t="s">
+      <c r="F49" s="190" t="s">
         <v>489</v>
       </c>
-      <c r="G49" s="29"/>
-      <c r="H49" s="247" t="s">
+      <c r="G49" s="29">
+        <v>4</v>
+      </c>
+      <c r="H49" s="29">
+        <v>3</v>
+      </c>
+      <c r="I49" s="29">
+        <v>0</v>
+      </c>
+      <c r="J49" s="194" t="s">
         <v>545</v>
       </c>
-      <c r="I49" s="29"/>
-      <c r="J49" s="34" t="s">
+      <c r="K49" s="29"/>
+      <c r="L49" s="34" t="s">
         <v>346</v>
       </c>
-      <c r="K49" s="94"/>
-      <c r="L49" s="91"/>
-      <c r="M49" s="91"/>
-    </row>
-    <row r="50" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M49" s="94"/>
+      <c r="N49" s="19"/>
+      <c r="O49" s="91"/>
+      <c r="P49" s="94">
+        <v>19</v>
+      </c>
+      <c r="Q49" s="94">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="53" t="s">
         <v>451</v>
       </c>
@@ -14916,22 +15818,36 @@
       <c r="E50" s="18" t="s">
         <v>455</v>
       </c>
-      <c r="F50" s="191" t="s">
+      <c r="F50" s="190" t="s">
         <v>490</v>
       </c>
-      <c r="G50" s="29"/>
-      <c r="H50" s="247" t="s">
+      <c r="G50" s="29">
+        <v>1</v>
+      </c>
+      <c r="H50" s="29">
+        <v>1</v>
+      </c>
+      <c r="I50" s="29">
+        <v>0</v>
+      </c>
+      <c r="J50" s="194" t="s">
         <v>536</v>
       </c>
-      <c r="I50" s="185" t="s">
+      <c r="K50" s="184" t="s">
         <v>346</v>
       </c>
-      <c r="J50" s="94"/>
-      <c r="K50" s="94"/>
-      <c r="L50" s="91"/>
-      <c r="M50" s="91"/>
-    </row>
-    <row r="51" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L50" s="94"/>
+      <c r="M50" s="94"/>
+      <c r="N50" s="19"/>
+      <c r="O50" s="91"/>
+      <c r="P50" s="94">
+        <v>13</v>
+      </c>
+      <c r="Q50" s="94">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="53" t="s">
         <v>452</v>
       </c>
@@ -14947,20 +15863,34 @@
       <c r="E51" s="18" t="s">
         <v>457</v>
       </c>
-      <c r="F51" s="191" t="s">
+      <c r="F51" s="190" t="s">
         <v>493</v>
       </c>
-      <c r="G51" s="29"/>
-      <c r="H51" s="247"/>
-      <c r="I51" s="185" t="s">
+      <c r="G51" s="29">
+        <v>5</v>
+      </c>
+      <c r="H51" s="29">
+        <v>4</v>
+      </c>
+      <c r="I51" s="29">
+        <v>2</v>
+      </c>
+      <c r="J51" s="194"/>
+      <c r="K51" s="184" t="s">
         <v>346</v>
       </c>
-      <c r="J51" s="94"/>
-      <c r="K51" s="94"/>
-      <c r="L51" s="91"/>
-      <c r="M51" s="91"/>
-    </row>
-    <row r="52" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L51" s="94"/>
+      <c r="M51" s="94"/>
+      <c r="N51" s="19"/>
+      <c r="O51" s="91"/>
+      <c r="P51" s="94">
+        <v>8</v>
+      </c>
+      <c r="Q51" s="94">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="53" t="s">
         <v>453</v>
       </c>
@@ -14976,22 +15906,36 @@
       <c r="E52" s="18" t="s">
         <v>460</v>
       </c>
-      <c r="F52" s="191" t="s">
+      <c r="F52" s="190" t="s">
         <v>491</v>
       </c>
-      <c r="G52" s="29"/>
-      <c r="H52" s="247" t="s">
+      <c r="G52" s="29">
+        <v>84</v>
+      </c>
+      <c r="H52" s="29">
+        <v>21</v>
+      </c>
+      <c r="I52" s="29">
+        <v>2</v>
+      </c>
+      <c r="J52" s="194" t="s">
         <v>546</v>
       </c>
-      <c r="I52" s="29"/>
-      <c r="J52" s="34" t="s">
+      <c r="K52" s="29"/>
+      <c r="L52" s="34" t="s">
         <v>346</v>
       </c>
-      <c r="K52" s="94"/>
-      <c r="L52" s="91"/>
-      <c r="M52" s="91"/>
-    </row>
-    <row r="53" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M52" s="94"/>
+      <c r="N52" s="19"/>
+      <c r="O52" s="91"/>
+      <c r="P52" s="94">
+        <v>13</v>
+      </c>
+      <c r="Q52" s="94">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="53" t="s">
         <v>454</v>
       </c>
@@ -15007,20 +15951,34 @@
       <c r="E53" s="18" t="s">
         <v>420</v>
       </c>
-      <c r="F53" s="191" t="s">
+      <c r="F53" s="190" t="s">
         <v>492</v>
       </c>
-      <c r="G53" s="29"/>
-      <c r="H53" s="247" t="s">
+      <c r="G53" s="29">
+        <v>37</v>
+      </c>
+      <c r="H53" s="29">
+        <v>28</v>
+      </c>
+      <c r="I53" s="29">
+        <v>4</v>
+      </c>
+      <c r="J53" s="194" t="s">
         <v>553</v>
       </c>
-      <c r="I53" s="185" t="s">
+      <c r="K53" s="184" t="s">
         <v>346</v>
       </c>
-      <c r="J53" s="94"/>
-      <c r="K53" s="94"/>
-      <c r="L53" s="91"/>
-      <c r="M53" s="91"/>
+      <c r="L53" s="94"/>
+      <c r="M53" s="94"/>
+      <c r="N53" s="19"/>
+      <c r="O53" s="91"/>
+      <c r="P53" s="94">
+        <v>10</v>
+      </c>
+      <c r="Q53" s="94">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -15047,43 +16005,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="209" t="s">
+      <c r="A1" s="223" t="s">
         <v>230</v>
       </c>
-      <c r="B1" s="210"/>
-      <c r="C1" s="210"/>
-      <c r="D1" s="210"/>
-      <c r="E1" s="210"/>
-      <c r="F1" s="210"/>
-      <c r="G1" s="210"/>
-      <c r="H1" s="210"/>
-      <c r="I1" s="210"/>
+      <c r="B1" s="224"/>
+      <c r="C1" s="224"/>
+      <c r="D1" s="224"/>
+      <c r="E1" s="224"/>
+      <c r="F1" s="224"/>
+      <c r="G1" s="224"/>
+      <c r="H1" s="224"/>
+      <c r="I1" s="224"/>
     </row>
     <row r="2" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="212" t="s">
+      <c r="A2" s="222" t="s">
         <v>229</v>
       </c>
-      <c r="B2" s="212"/>
-      <c r="C2" s="212"/>
-      <c r="D2" s="212"/>
-      <c r="E2" s="212"/>
-      <c r="F2" s="212"/>
-      <c r="G2" s="212"/>
-      <c r="H2" s="212"/>
-      <c r="I2" s="212"/>
+      <c r="B2" s="222"/>
+      <c r="C2" s="222"/>
+      <c r="D2" s="222"/>
+      <c r="E2" s="222"/>
+      <c r="F2" s="222"/>
+      <c r="G2" s="222"/>
+      <c r="H2" s="222"/>
+      <c r="I2" s="222"/>
     </row>
     <row r="3" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="213" t="s">
+      <c r="A3" s="215" t="s">
         <v>337</v>
       </c>
-      <c r="B3" s="213"/>
-      <c r="C3" s="213"/>
-      <c r="D3" s="213"/>
-      <c r="E3" s="213"/>
-      <c r="F3" s="213"/>
-      <c r="G3" s="213"/>
-      <c r="H3" s="213"/>
-      <c r="I3" s="213"/>
+      <c r="B3" s="215"/>
+      <c r="C3" s="215"/>
+      <c r="D3" s="215"/>
+      <c r="E3" s="215"/>
+      <c r="F3" s="215"/>
+      <c r="G3" s="215"/>
+      <c r="H3" s="215"/>
+      <c r="I3" s="215"/>
       <c r="J3" s="71"/>
       <c r="K3" s="71"/>
       <c r="L3" s="71"/>
@@ -15096,12 +16054,12 @@
       <c r="S3" s="71"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="211" t="s">
+      <c r="A4" s="225" t="s">
         <v>253</v>
       </c>
-      <c r="B4" s="211"/>
-      <c r="C4" s="211"/>
-      <c r="D4" s="211"/>
+      <c r="B4" s="225"/>
+      <c r="C4" s="225"/>
+      <c r="D4" s="225"/>
     </row>
     <row r="5" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="69" t="s">
@@ -15127,7 +16085,7 @@
       <c r="C6" s="49" t="s">
         <v>196</v>
       </c>
-      <c r="D6" s="222" t="s">
+      <c r="D6" s="219" t="s">
         <v>339</v>
       </c>
       <c r="E6" t="e">
@@ -15146,7 +16104,7 @@
       <c r="C7" s="49" t="s">
         <v>228</v>
       </c>
-      <c r="D7" s="223"/>
+      <c r="D7" s="220"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="78" t="s">
@@ -15158,7 +16116,7 @@
       <c r="C8" s="49" t="s">
         <v>235</v>
       </c>
-      <c r="D8" s="223"/>
+      <c r="D8" s="220"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="78" t="s">
@@ -15170,7 +16128,7 @@
       <c r="C9" s="49" t="s">
         <v>236</v>
       </c>
-      <c r="D9" s="223"/>
+      <c r="D9" s="220"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="78" t="s">
@@ -15182,7 +16140,7 @@
       <c r="C10" s="49" t="s">
         <v>237</v>
       </c>
-      <c r="D10" s="223"/>
+      <c r="D10" s="220"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="78" t="s">
@@ -15194,7 +16152,7 @@
       <c r="C11" s="49" t="s">
         <v>237</v>
       </c>
-      <c r="D11" s="223"/>
+      <c r="D11" s="220"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="78" t="s">
@@ -15206,7 +16164,7 @@
       <c r="C12" s="49" t="s">
         <v>266</v>
       </c>
-      <c r="D12" s="223"/>
+      <c r="D12" s="220"/>
     </row>
     <row r="13" spans="1:19" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="145" t="s">
@@ -15218,7 +16176,7 @@
       <c r="C13" s="136" t="s">
         <v>273</v>
       </c>
-      <c r="D13" s="224"/>
+      <c r="D13" s="221"/>
     </row>
     <row r="14" spans="1:19" s="77" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="146" t="s">
@@ -15235,30 +16193,30 @@
       </c>
     </row>
     <row r="15" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="212" t="s">
+      <c r="A15" s="222" t="s">
         <v>261</v>
       </c>
-      <c r="B15" s="212"/>
-      <c r="C15" s="212"/>
-      <c r="D15" s="212"/>
-      <c r="E15" s="212"/>
-      <c r="F15" s="212"/>
-      <c r="G15" s="212"/>
-      <c r="H15" s="212"/>
-      <c r="I15" s="212"/>
+      <c r="B15" s="222"/>
+      <c r="C15" s="222"/>
+      <c r="D15" s="222"/>
+      <c r="E15" s="222"/>
+      <c r="F15" s="222"/>
+      <c r="G15" s="222"/>
+      <c r="H15" s="222"/>
+      <c r="I15" s="222"/>
     </row>
     <row r="16" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="213" t="s">
+      <c r="A16" s="215" t="s">
         <v>238</v>
       </c>
-      <c r="B16" s="213"/>
-      <c r="C16" s="213"/>
-      <c r="D16" s="213"/>
-      <c r="E16" s="213"/>
-      <c r="F16" s="213"/>
-      <c r="G16" s="213"/>
-      <c r="H16" s="213"/>
-      <c r="I16" s="213"/>
+      <c r="B16" s="215"/>
+      <c r="C16" s="215"/>
+      <c r="D16" s="215"/>
+      <c r="E16" s="215"/>
+      <c r="F16" s="215"/>
+      <c r="G16" s="215"/>
+      <c r="H16" s="215"/>
+      <c r="I16" s="215"/>
       <c r="J16" s="71"/>
       <c r="K16" s="71"/>
       <c r="L16" s="71"/>
@@ -15271,14 +16229,14 @@
       <c r="S16" s="71"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="211" t="s">
+      <c r="A17" s="225" t="s">
         <v>259</v>
       </c>
-      <c r="B17" s="211"/>
-      <c r="C17" s="211"/>
-      <c r="D17" s="211"/>
-      <c r="E17" s="211"/>
-      <c r="F17" s="211"/>
+      <c r="B17" s="225"/>
+      <c r="C17" s="225"/>
+      <c r="D17" s="225"/>
+      <c r="E17" s="225"/>
+      <c r="F17" s="225"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="69" t="s">
@@ -15445,30 +16403,30 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="212" t="s">
+      <c r="A25" s="222" t="s">
         <v>260</v>
       </c>
-      <c r="B25" s="212"/>
-      <c r="C25" s="212"/>
-      <c r="D25" s="212"/>
-      <c r="E25" s="212"/>
-      <c r="F25" s="212"/>
-      <c r="G25" s="212"/>
-      <c r="H25" s="212"/>
-      <c r="I25" s="212"/>
+      <c r="B25" s="222"/>
+      <c r="C25" s="222"/>
+      <c r="D25" s="222"/>
+      <c r="E25" s="222"/>
+      <c r="F25" s="222"/>
+      <c r="G25" s="222"/>
+      <c r="H25" s="222"/>
+      <c r="I25" s="222"/>
     </row>
     <row r="26" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="213" t="s">
+      <c r="A26" s="215" t="s">
         <v>338</v>
       </c>
-      <c r="B26" s="213"/>
-      <c r="C26" s="213"/>
-      <c r="D26" s="213"/>
-      <c r="E26" s="213"/>
-      <c r="F26" s="213"/>
-      <c r="G26" s="213"/>
-      <c r="H26" s="213"/>
-      <c r="I26" s="213"/>
+      <c r="B26" s="215"/>
+      <c r="C26" s="215"/>
+      <c r="D26" s="215"/>
+      <c r="E26" s="215"/>
+      <c r="F26" s="215"/>
+      <c r="G26" s="215"/>
+      <c r="H26" s="215"/>
+      <c r="I26" s="215"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="69" t="s">
@@ -15480,12 +16438,12 @@
       <c r="C27" s="69" t="s">
         <v>201</v>
       </c>
-      <c r="D27" s="217" t="s">
+      <c r="D27" s="229" t="s">
         <v>292</v>
       </c>
-      <c r="E27" s="217"/>
-      <c r="F27" s="217"/>
-      <c r="G27" s="217"/>
+      <c r="E27" s="229"/>
+      <c r="F27" s="229"/>
+      <c r="G27" s="229"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="52" t="s">
@@ -15497,12 +16455,12 @@
       <c r="C28" s="72">
         <v>0.59</v>
       </c>
-      <c r="D28" s="219" t="s">
+      <c r="D28" s="216" t="s">
         <v>285</v>
       </c>
-      <c r="E28" s="220"/>
-      <c r="F28" s="220"/>
-      <c r="G28" s="221"/>
+      <c r="E28" s="217"/>
+      <c r="F28" s="217"/>
+      <c r="G28" s="218"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="52" t="s">
@@ -15514,12 +16472,12 @@
       <c r="C29" s="72">
         <v>0.77</v>
       </c>
-      <c r="D29" s="214" t="s">
+      <c r="D29" s="226" t="s">
         <v>286</v>
       </c>
-      <c r="E29" s="215"/>
-      <c r="F29" s="215"/>
-      <c r="G29" s="216"/>
+      <c r="E29" s="227"/>
+      <c r="F29" s="227"/>
+      <c r="G29" s="228"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="52" t="s">
@@ -15531,12 +16489,12 @@
       <c r="C30" s="72">
         <v>0.41</v>
       </c>
-      <c r="D30" s="214" t="s">
+      <c r="D30" s="226" t="s">
         <v>287</v>
       </c>
-      <c r="E30" s="215"/>
-      <c r="F30" s="215"/>
-      <c r="G30" s="216"/>
+      <c r="E30" s="227"/>
+      <c r="F30" s="227"/>
+      <c r="G30" s="228"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="52" t="s">
@@ -15548,12 +16506,12 @@
       <c r="C31" s="72">
         <v>0.59</v>
       </c>
-      <c r="D31" s="214" t="s">
+      <c r="D31" s="226" t="s">
         <v>289</v>
       </c>
-      <c r="E31" s="215"/>
-      <c r="F31" s="215"/>
-      <c r="G31" s="216"/>
+      <c r="E31" s="227"/>
+      <c r="F31" s="227"/>
+      <c r="G31" s="228"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="52" t="s">
@@ -15565,12 +16523,12 @@
       <c r="C32" s="72">
         <v>0.5</v>
       </c>
-      <c r="D32" s="214" t="s">
+      <c r="D32" s="226" t="s">
         <v>288</v>
       </c>
-      <c r="E32" s="215"/>
-      <c r="F32" s="215"/>
-      <c r="G32" s="216"/>
+      <c r="E32" s="227"/>
+      <c r="F32" s="227"/>
+      <c r="G32" s="228"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="52" t="s">
@@ -15582,12 +16540,12 @@
       <c r="C33" s="72">
         <v>0.59</v>
       </c>
-      <c r="D33" s="214" t="s">
+      <c r="D33" s="226" t="s">
         <v>290</v>
       </c>
-      <c r="E33" s="215"/>
-      <c r="F33" s="215"/>
-      <c r="G33" s="216"/>
+      <c r="E33" s="227"/>
+      <c r="F33" s="227"/>
+      <c r="G33" s="228"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="52" t="s">
@@ -15599,25 +16557,25 @@
       <c r="C34" s="72">
         <v>0.54</v>
       </c>
-      <c r="D34" s="214" t="s">
+      <c r="D34" s="226" t="s">
         <v>291</v>
       </c>
-      <c r="E34" s="215"/>
-      <c r="F34" s="215"/>
-      <c r="G34" s="216"/>
+      <c r="E34" s="227"/>
+      <c r="F34" s="227"/>
+      <c r="G34" s="228"/>
     </row>
     <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="212" t="s">
+      <c r="A36" s="222" t="s">
         <v>315</v>
       </c>
-      <c r="B36" s="212"/>
-      <c r="C36" s="212"/>
-      <c r="D36" s="212"/>
-      <c r="E36" s="212"/>
-      <c r="F36" s="212"/>
-      <c r="G36" s="212"/>
-      <c r="H36" s="212"/>
-      <c r="I36" s="212"/>
+      <c r="B36" s="222"/>
+      <c r="C36" s="222"/>
+      <c r="D36" s="222"/>
+      <c r="E36" s="222"/>
+      <c r="F36" s="222"/>
+      <c r="G36" s="222"/>
+      <c r="H36" s="222"/>
+      <c r="I36" s="222"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="87" t="s">
@@ -15684,12 +16642,12 @@
       </c>
     </row>
     <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="218" t="s">
+      <c r="A46" s="214" t="s">
         <v>318</v>
       </c>
-      <c r="B46" s="218"/>
-      <c r="C46" s="218"/>
-      <c r="D46" s="218"/>
+      <c r="B46" s="214"/>
+      <c r="C46" s="214"/>
+      <c r="D46" s="214"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="88" t="s">
@@ -15840,11 +16798,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D6:D13"/>
-    <mergeCell ref="A2:I2"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A25:I25"/>
@@ -15860,6 +16813,11 @@
     <mergeCell ref="D30:G30"/>
     <mergeCell ref="D31:G31"/>
     <mergeCell ref="D32:G32"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D6:D13"/>
+    <mergeCell ref="A2:I2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -15891,15 +16849,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="230" t="s">
+      <c r="A1" s="235" t="s">
         <v>347</v>
       </c>
-      <c r="B1" s="230"/>
-      <c r="C1" s="230"/>
-      <c r="D1" s="230"/>
-      <c r="E1" s="230"/>
-      <c r="F1" s="230"/>
-      <c r="G1" s="230"/>
+      <c r="B1" s="235"/>
+      <c r="C1" s="235"/>
+      <c r="D1" s="235"/>
+      <c r="E1" s="235"/>
+      <c r="F1" s="235"/>
+      <c r="G1" s="235"/>
     </row>
     <row r="2" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="158" t="s">
@@ -15923,11 +16881,11 @@
       <c r="G2" s="158" t="s">
         <v>344</v>
       </c>
-      <c r="I2" s="229" t="s">
+      <c r="I2" s="234" t="s">
         <v>197</v>
       </c>
-      <c r="J2" s="229"/>
-      <c r="K2" s="229"/>
+      <c r="J2" s="234"/>
+      <c r="K2" s="234"/>
     </row>
     <row r="3" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
@@ -16380,20 +17338,20 @@
       <c r="J22" s="115" t="s">
         <v>217</v>
       </c>
-      <c r="K22" s="231" t="s">
+      <c r="K22" s="236" t="s">
         <v>307</v>
       </c>
-      <c r="L22" s="231"/>
-      <c r="M22" s="231"/>
-      <c r="N22" s="231"/>
-      <c r="O22" s="231"/>
-      <c r="P22" s="231"/>
-      <c r="Q22" s="231"/>
-      <c r="R22" s="231"/>
-      <c r="S22" s="231"/>
-      <c r="T22" s="231"/>
-      <c r="U22" s="231"/>
-      <c r="V22" s="231"/>
+      <c r="L22" s="236"/>
+      <c r="M22" s="236"/>
+      <c r="N22" s="236"/>
+      <c r="O22" s="236"/>
+      <c r="P22" s="236"/>
+      <c r="Q22" s="236"/>
+      <c r="R22" s="236"/>
+      <c r="S22" s="236"/>
+      <c r="T22" s="236"/>
+      <c r="U22" s="236"/>
+      <c r="V22" s="236"/>
     </row>
     <row r="23" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="36" t="s">
@@ -16499,10 +17457,10 @@
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A29" s="233"/>
-      <c r="B29" s="234"/>
-      <c r="C29" s="234"/>
-      <c r="D29" s="235"/>
+      <c r="A29" s="238"/>
+      <c r="B29" s="239"/>
+      <c r="C29" s="239"/>
+      <c r="D29" s="240"/>
       <c r="I29" s="43" t="s">
         <v>187</v>
       </c>
@@ -16519,10 +17477,10 @@
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A31" s="236" t="s">
+      <c r="A31" s="241" t="s">
         <v>181</v>
       </c>
-      <c r="B31" s="237"/>
+      <c r="B31" s="242"/>
       <c r="C31" s="68"/>
       <c r="I31" s="43" t="s">
         <v>189</v>
@@ -16544,20 +17502,20 @@
       <c r="J32" s="116" t="s">
         <v>308</v>
       </c>
-      <c r="K32" s="232" t="s">
+      <c r="K32" s="237" t="s">
         <v>306</v>
       </c>
-      <c r="L32" s="232"/>
-      <c r="M32" s="232"/>
-      <c r="N32" s="232"/>
-      <c r="O32" s="232"/>
-      <c r="P32" s="232"/>
-      <c r="Q32" s="232"/>
-      <c r="R32" s="232"/>
-      <c r="S32" s="232"/>
-      <c r="T32" s="232"/>
-      <c r="U32" s="232"/>
-      <c r="V32" s="232"/>
+      <c r="L32" s="237"/>
+      <c r="M32" s="237"/>
+      <c r="N32" s="237"/>
+      <c r="O32" s="237"/>
+      <c r="P32" s="237"/>
+      <c r="Q32" s="237"/>
+      <c r="R32" s="237"/>
+      <c r="S32" s="237"/>
+      <c r="T32" s="237"/>
+      <c r="U32" s="237"/>
+      <c r="V32" s="237"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="84" t="s">
@@ -16590,10 +17548,10 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="225" t="s">
+      <c r="A35" s="230" t="s">
         <v>184</v>
       </c>
-      <c r="B35" s="227" t="s">
+      <c r="B35" s="232" t="s">
         <v>219</v>
       </c>
       <c r="D35" s="90"/>
@@ -16603,8 +17561,8 @@
       <c r="J35" s="41"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="226"/>
-      <c r="B36" s="228"/>
+      <c r="A36" s="231"/>
+      <c r="B36" s="233"/>
       <c r="D36" s="90"/>
       <c r="I36" s="105" t="s">
         <v>296</v>
@@ -16697,7 +17655,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V48"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
@@ -16723,15 +17681,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="230" t="s">
+      <c r="A1" s="235" t="s">
         <v>347</v>
       </c>
-      <c r="B1" s="230"/>
-      <c r="C1" s="230"/>
-      <c r="D1" s="230"/>
-      <c r="E1" s="230"/>
-      <c r="F1" s="230"/>
-      <c r="G1" s="230"/>
+      <c r="B1" s="235"/>
+      <c r="C1" s="235"/>
+      <c r="D1" s="235"/>
+      <c r="E1" s="235"/>
+      <c r="F1" s="235"/>
+      <c r="G1" s="235"/>
     </row>
     <row r="2" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="158" t="s">
@@ -16755,11 +17713,11 @@
       <c r="G2" s="158" t="s">
         <v>344</v>
       </c>
-      <c r="I2" s="229" t="s">
+      <c r="I2" s="234" t="s">
         <v>197</v>
       </c>
-      <c r="J2" s="229"/>
-      <c r="K2" s="229"/>
+      <c r="J2" s="234"/>
+      <c r="K2" s="234"/>
       <c r="O2" s="170" t="s">
         <v>351</v>
       </c>
@@ -17260,20 +18218,20 @@
       <c r="J22" s="115" t="s">
         <v>217</v>
       </c>
-      <c r="K22" s="231" t="s">
+      <c r="K22" s="236" t="s">
         <v>307</v>
       </c>
-      <c r="L22" s="231"/>
-      <c r="M22" s="231"/>
-      <c r="N22" s="231"/>
-      <c r="O22" s="231"/>
-      <c r="P22" s="231"/>
-      <c r="Q22" s="231"/>
-      <c r="R22" s="231"/>
-      <c r="S22" s="231"/>
-      <c r="T22" s="231"/>
-      <c r="U22" s="231"/>
-      <c r="V22" s="231"/>
+      <c r="L22" s="236"/>
+      <c r="M22" s="236"/>
+      <c r="N22" s="236"/>
+      <c r="O22" s="236"/>
+      <c r="P22" s="236"/>
+      <c r="Q22" s="236"/>
+      <c r="R22" s="236"/>
+      <c r="S22" s="236"/>
+      <c r="T22" s="236"/>
+      <c r="U22" s="236"/>
+      <c r="V22" s="236"/>
     </row>
     <row r="23" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="36" t="s">
@@ -17379,10 +18337,10 @@
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A29" s="233"/>
-      <c r="B29" s="234"/>
-      <c r="C29" s="234"/>
-      <c r="D29" s="235"/>
+      <c r="A29" s="238"/>
+      <c r="B29" s="239"/>
+      <c r="C29" s="239"/>
+      <c r="D29" s="240"/>
       <c r="I29" s="43" t="s">
         <v>187</v>
       </c>
@@ -17399,10 +18357,10 @@
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A31" s="236" t="s">
+      <c r="A31" s="241" t="s">
         <v>181</v>
       </c>
-      <c r="B31" s="237"/>
+      <c r="B31" s="242"/>
       <c r="C31" s="68"/>
       <c r="I31" s="43" t="s">
         <v>189</v>
@@ -17424,20 +18382,20 @@
       <c r="J32" s="116" t="s">
         <v>308</v>
       </c>
-      <c r="K32" s="232" t="s">
+      <c r="K32" s="237" t="s">
         <v>306</v>
       </c>
-      <c r="L32" s="232"/>
-      <c r="M32" s="232"/>
-      <c r="N32" s="232"/>
-      <c r="O32" s="232"/>
-      <c r="P32" s="232"/>
-      <c r="Q32" s="232"/>
-      <c r="R32" s="232"/>
-      <c r="S32" s="232"/>
-      <c r="T32" s="232"/>
-      <c r="U32" s="232"/>
-      <c r="V32" s="232"/>
+      <c r="L32" s="237"/>
+      <c r="M32" s="237"/>
+      <c r="N32" s="237"/>
+      <c r="O32" s="237"/>
+      <c r="P32" s="237"/>
+      <c r="Q32" s="237"/>
+      <c r="R32" s="237"/>
+      <c r="S32" s="237"/>
+      <c r="T32" s="237"/>
+      <c r="U32" s="237"/>
+      <c r="V32" s="237"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="84" t="s">
@@ -17468,10 +18426,10 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="225" t="s">
+      <c r="A35" s="230" t="s">
         <v>184</v>
       </c>
-      <c r="B35" s="227" t="s">
+      <c r="B35" s="232" t="s">
         <v>219</v>
       </c>
       <c r="I35" s="43" t="s">
@@ -17480,8 +18438,8 @@
       <c r="J35" s="41"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="226"/>
-      <c r="B36" s="228"/>
+      <c r="A36" s="231"/>
+      <c r="B36" s="233"/>
       <c r="I36" s="105" t="s">
         <v>296</v>
       </c>
@@ -17567,8 +18525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17583,18 +18541,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="238" t="s">
+      <c r="A1" s="243" t="s">
         <v>464</v>
       </c>
-      <c r="B1" s="238"/>
-      <c r="C1" s="238"/>
-      <c r="D1" s="238"/>
-      <c r="E1" s="238"/>
-      <c r="F1" s="238"/>
-      <c r="G1" s="238"/>
-      <c r="H1" s="238"/>
-      <c r="I1" s="238"/>
-      <c r="J1" s="238"/>
+      <c r="B1" s="243"/>
+      <c r="C1" s="243"/>
+      <c r="D1" s="243"/>
+      <c r="E1" s="243"/>
+      <c r="F1" s="243"/>
+      <c r="G1" s="243"/>
+      <c r="H1" s="243"/>
+      <c r="I1" s="243"/>
+      <c r="J1" s="243"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="173" t="s">

--- a/Experiment01_Resumo/Resumo_Exp01.xlsx
+++ b/Experiment01_Resumo/Resumo_Exp01.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1493" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1492" uniqueCount="568">
   <si>
     <t>Database search</t>
   </si>
@@ -1755,9 +1755,6 @@
     <t>Citado por 19</t>
   </si>
   <si>
-    <t>Citado por 4.</t>
-  </si>
-  <si>
     <t>Citado por 3, mas são de 2016.</t>
   </si>
   <si>
@@ -1782,18 +1779,9 @@
     <t>Inclui 19 pela JF Tool, mas já existiam 2, total 21.</t>
   </si>
   <si>
-    <t>JF encontra 12, mas 4 estao em japones. Inclusao de 8, mas já existiam 3, total = 11.</t>
-  </si>
-  <si>
     <t>erro na JF</t>
   </si>
   <si>
-    <t xml:space="preserve">Citado por 31, mas JF inclui 29 </t>
-  </si>
-  <si>
-    <t>Citado por 50, mas 4 não foram pegos.</t>
-  </si>
-  <si>
     <t>JF recuperou 39.</t>
   </si>
   <si>
@@ -1846,6 +1834,15 @@
   </si>
   <si>
     <t>2 russo</t>
+  </si>
+  <si>
+    <t>Citado por 31, mas JF incluiu 30</t>
+  </si>
+  <si>
+    <t>Citado por 5 no scholar google, mas a ferramenta filtra e traz somente 4, pq 1 já existia.</t>
+  </si>
+  <si>
+    <t>15 menos 3 =12 incluidos</t>
   </si>
 </sst>
 </file>
@@ -3049,6 +3046,24 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3097,12 +3112,36 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3121,30 +3160,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3206,24 +3221,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3549,12 +3546,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="213060360"/>
-        <c:axId val="215366472"/>
+        <c:axId val="187213064"/>
+        <c:axId val="187216592"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="213060360"/>
+        <c:axId val="187213064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3646,7 +3643,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="215366472"/>
+        <c:crossAx val="187216592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3654,7 +3651,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="215366472"/>
+        <c:axId val="187216592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3705,7 +3702,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="213060360"/>
+        <c:crossAx val="187213064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4014,12 +4011,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="215365688"/>
-        <c:axId val="215369608"/>
+        <c:axId val="189324152"/>
+        <c:axId val="189325720"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="215365688"/>
+        <c:axId val="189324152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4108,7 +4105,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="215369608"/>
+        <c:crossAx val="189325720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4116,7 +4113,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="215369608"/>
+        <c:axId val="189325720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4199,7 +4196,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="215365688"/>
+        <c:crossAx val="189324152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4484,12 +4481,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="215367256"/>
-        <c:axId val="215366080"/>
+        <c:axId val="189328464"/>
+        <c:axId val="189323760"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="215367256"/>
+        <c:axId val="189328464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4578,7 +4575,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="215366080"/>
+        <c:crossAx val="189323760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4586,7 +4583,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="215366080"/>
+        <c:axId val="189323760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4669,7 +4666,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="215367256"/>
+        <c:crossAx val="189328464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5456,12 +5453,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="215365296"/>
-        <c:axId val="215368040"/>
+        <c:axId val="189329640"/>
+        <c:axId val="189325328"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="215365296"/>
+        <c:axId val="189329640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5501,7 +5498,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="215368040"/>
+        <c:crossAx val="189325328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5509,7 +5506,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="215368040"/>
+        <c:axId val="189325328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5557,7 +5554,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="215365296"/>
+        <c:crossAx val="189329640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5865,8 +5862,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="215368432"/>
-        <c:axId val="215368824"/>
+        <c:axId val="189328856"/>
+        <c:axId val="189329248"/>
         <c:axId val="0"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
@@ -6036,7 +6033,7 @@
         </c:extLst>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="215368432"/>
+        <c:axId val="189328856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6134,7 +6131,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="215368824"/>
+        <c:crossAx val="189329248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6142,7 +6139,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="215368824"/>
+        <c:axId val="189329248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6221,7 +6218,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="215368432"/>
+        <c:crossAx val="189328856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6535,8 +6532,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="215134024"/>
-        <c:axId val="215128928"/>
+        <c:axId val="189326112"/>
+        <c:axId val="189326504"/>
         <c:axId val="0"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
@@ -6706,7 +6703,7 @@
         </c:extLst>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="215134024"/>
+        <c:axId val="189326112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6804,7 +6801,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="215128928"/>
+        <c:crossAx val="189326504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6812,7 +6809,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="215128928"/>
+        <c:axId val="189326504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6891,7 +6888,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="215134024"/>
+        <c:crossAx val="189326112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10589,22 +10586,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="198" t="s">
+      <c r="A1" s="204" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="199"/>
+      <c r="B1" s="205"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="200" t="s">
+      <c r="A2" s="206" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="201"/>
+      <c r="B2" s="207"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="200" t="s">
+      <c r="A3" s="206" t="s">
         <v>96</v>
       </c>
-      <c r="B3" s="201"/>
+      <c r="B3" s="207"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -10639,10 +10636,10 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="202" t="s">
+      <c r="A8" s="208" t="s">
         <v>103</v>
       </c>
-      <c r="B8" s="203"/>
+      <c r="B8" s="209"/>
     </row>
     <row r="9" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
@@ -10718,15 +10715,15 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="244" t="s">
+      <c r="A1" s="250" t="s">
         <v>525</v>
       </c>
-      <c r="B1" s="244"/>
-      <c r="C1" s="244"/>
-      <c r="D1" s="244"/>
-      <c r="E1" s="244"/>
-      <c r="F1" s="244"/>
-      <c r="G1" s="244"/>
+      <c r="B1" s="250"/>
+      <c r="C1" s="250"/>
+      <c r="D1" s="250"/>
+      <c r="E1" s="250"/>
+      <c r="F1" s="250"/>
+      <c r="G1" s="250"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10761,19 +10758,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="213" t="s">
+      <c r="A1" s="219" t="s">
         <v>326</v>
       </c>
-      <c r="B1" s="213"/>
-      <c r="C1" s="213"/>
-      <c r="D1" s="213"/>
-      <c r="E1" s="213"/>
-      <c r="F1" s="213"/>
-      <c r="G1" s="213"/>
-      <c r="H1" s="213"/>
-      <c r="I1" s="213"/>
-      <c r="J1" s="213"/>
-      <c r="K1" s="213"/>
+      <c r="B1" s="219"/>
+      <c r="C1" s="219"/>
+      <c r="D1" s="219"/>
+      <c r="E1" s="219"/>
+      <c r="F1" s="219"/>
+      <c r="G1" s="219"/>
+      <c r="H1" s="219"/>
+      <c r="I1" s="219"/>
+      <c r="J1" s="219"/>
+      <c r="K1" s="219"/>
     </row>
     <row r="2" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
@@ -11495,10 +11492,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="245" t="s">
+      <c r="A1" s="251" t="s">
         <v>333</v>
       </c>
-      <c r="B1" s="246"/>
+      <c r="B1" s="252"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="79" t="s">
@@ -11566,20 +11563,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="247" t="s">
+      <c r="A1" s="253" t="s">
         <v>327</v>
       </c>
-      <c r="B1" s="247"/>
-      <c r="C1" s="247"/>
-      <c r="D1" s="247"/>
-      <c r="E1" s="247"/>
-      <c r="F1" s="247"/>
-      <c r="G1" s="247"/>
-      <c r="H1" s="247"/>
-      <c r="I1" s="247"/>
-      <c r="J1" s="247"/>
-      <c r="K1" s="247"/>
-      <c r="L1" s="247"/>
+      <c r="B1" s="253"/>
+      <c r="C1" s="253"/>
+      <c r="D1" s="253"/>
+      <c r="E1" s="253"/>
+      <c r="F1" s="253"/>
+      <c r="G1" s="253"/>
+      <c r="H1" s="253"/>
+      <c r="I1" s="253"/>
+      <c r="J1" s="253"/>
+      <c r="K1" s="253"/>
+      <c r="L1" s="253"/>
     </row>
     <row r="2" spans="1:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="142" t="s">
@@ -12298,15 +12295,15 @@
     </row>
     <row r="26" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="134"/>
-      <c r="B26" s="248" t="s">
+      <c r="B26" s="254" t="s">
         <v>334</v>
       </c>
-      <c r="C26" s="249"/>
-      <c r="D26" s="249"/>
-      <c r="E26" s="249"/>
-      <c r="F26" s="249"/>
-      <c r="G26" s="249"/>
-      <c r="H26" s="250"/>
+      <c r="C26" s="255"/>
+      <c r="D26" s="255"/>
+      <c r="E26" s="255"/>
+      <c r="F26" s="255"/>
+      <c r="G26" s="255"/>
+      <c r="H26" s="256"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="66"/>
@@ -12474,10 +12471,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="208" t="s">
+      <c r="A1" s="214" t="s">
         <v>151</v>
       </c>
-      <c r="B1" s="209"/>
+      <c r="B1" s="215"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
@@ -12510,16 +12507,16 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="204" t="s">
+      <c r="A6" s="210" t="s">
         <v>147</v>
       </c>
-      <c r="B6" s="205"/>
+      <c r="B6" s="211"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="206" t="s">
+      <c r="A7" s="212" t="s">
         <v>150</v>
       </c>
-      <c r="B7" s="207"/>
+      <c r="B7" s="213"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
@@ -12601,16 +12598,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="210" t="s">
+      <c r="A1" s="216" t="s">
         <v>336</v>
       </c>
-      <c r="B1" s="211"/>
-      <c r="C1" s="211"/>
-      <c r="D1" s="211"/>
-      <c r="E1" s="211"/>
-      <c r="F1" s="211"/>
-      <c r="G1" s="211"/>
-      <c r="H1" s="212"/>
+      <c r="B1" s="217"/>
+      <c r="C1" s="217"/>
+      <c r="D1" s="217"/>
+      <c r="E1" s="217"/>
+      <c r="F1" s="217"/>
+      <c r="G1" s="217"/>
+      <c r="H1" s="218"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
     </row>
@@ -12980,14 +12977,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="213" t="s">
+      <c r="A1" s="219" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="213"/>
-      <c r="C1" s="213"/>
-      <c r="D1" s="213"/>
-      <c r="E1" s="213"/>
-      <c r="F1" s="213"/>
+      <c r="B1" s="219"/>
+      <c r="C1" s="219"/>
+      <c r="D1" s="219"/>
+      <c r="E1" s="219"/>
+      <c r="F1" s="219"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
@@ -13472,8 +13469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:T53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13515,16 +13512,16 @@
         <v>474</v>
       </c>
       <c r="G2" s="82" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="H2" s="82" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="I2" s="82" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="J2" s="21"/>
-      <c r="K2" s="252" t="s">
+      <c r="K2" s="199" t="s">
         <v>530</v>
       </c>
       <c r="L2" s="21" t="s">
@@ -13535,20 +13532,20 @@
       </c>
       <c r="N2" s="19"/>
       <c r="O2" s="91"/>
-      <c r="P2" s="252" t="s">
-        <v>556</v>
-      </c>
-      <c r="Q2" s="252" t="s">
-        <v>557</v>
-      </c>
-      <c r="R2" s="254" t="s">
+      <c r="P2" s="199" t="s">
+        <v>552</v>
+      </c>
+      <c r="Q2" s="199" t="s">
+        <v>553</v>
+      </c>
+      <c r="R2" s="201" t="s">
+        <v>554</v>
+      </c>
+      <c r="S2" s="201" t="s">
+        <v>555</v>
+      </c>
+      <c r="T2" s="202" t="s">
         <v>558</v>
-      </c>
-      <c r="S2" s="254" t="s">
-        <v>559</v>
-      </c>
-      <c r="T2" s="255" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -14003,8 +14000,8 @@
       <c r="S11" s="183">
         <v>146</v>
       </c>
-      <c r="T11" s="256" t="s">
-        <v>563</v>
+      <c r="T11" s="203" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -14106,7 +14103,7 @@
         <v>41</v>
       </c>
       <c r="T13" s="66" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -14408,7 +14405,7 @@
         <v>17</v>
       </c>
       <c r="T19" s="66" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -14510,7 +14507,7 @@
         <v>21</v>
       </c>
       <c r="T21" s="66" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -14612,7 +14609,7 @@
         <v>95</v>
       </c>
       <c r="T23" s="66" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -14664,7 +14661,7 @@
         <v>29</v>
       </c>
       <c r="T24" s="66" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -14696,7 +14693,7 @@
         <v>1</v>
       </c>
       <c r="J25" s="194" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="K25" s="85"/>
       <c r="L25" s="85"/>
@@ -14710,7 +14707,7 @@
       <c r="P25" s="94" t="s">
         <v>510</v>
       </c>
-      <c r="Q25" s="253">
+      <c r="Q25" s="200">
         <v>0</v>
       </c>
     </row>
@@ -14874,13 +14871,13 @@
         <v>31</v>
       </c>
       <c r="H29" s="29">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I29" s="29">
         <v>0</v>
       </c>
       <c r="J29" s="194" t="s">
-        <v>549</v>
+        <v>565</v>
       </c>
       <c r="K29" s="184" t="s">
         <v>346</v>
@@ -15014,9 +15011,7 @@
       <c r="I32" s="29">
         <v>0</v>
       </c>
-      <c r="J32" s="194" t="s">
-        <v>550</v>
-      </c>
+      <c r="J32" s="194"/>
       <c r="K32" s="184" t="s">
         <v>346</v>
       </c>
@@ -15060,7 +15055,7 @@
         <v>1</v>
       </c>
       <c r="J33" s="194" t="s">
-        <v>538</v>
+        <v>566</v>
       </c>
       <c r="K33" s="184" t="s">
         <v>346</v>
@@ -15099,7 +15094,7 @@
         <v>55</v>
       </c>
       <c r="H34" s="29">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="I34" s="29">
         <v>4</v>
@@ -15154,7 +15149,7 @@
         <v>1</v>
       </c>
       <c r="J35" s="196" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="K35" s="94"/>
       <c r="L35" s="34" t="s">
@@ -15199,7 +15194,7 @@
         <v>1</v>
       </c>
       <c r="J36" s="196" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="K36" s="184" t="s">
         <v>346</v>
@@ -15231,20 +15226,20 @@
       <c r="E37" s="18" t="s">
         <v>401</v>
       </c>
-      <c r="F37" s="85" t="s">
+      <c r="F37" s="190" t="s">
         <v>483</v>
       </c>
       <c r="G37" s="29">
         <v>3</v>
       </c>
       <c r="H37" s="29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" s="29">
         <v>0</v>
       </c>
       <c r="J37" s="196" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="K37" s="184" t="s">
         <v>346</v>
@@ -15283,13 +15278,13 @@
         <v>14</v>
       </c>
       <c r="H38" s="29">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I38" s="29">
         <v>3</v>
       </c>
       <c r="J38" s="196" t="s">
-        <v>547</v>
+        <v>567</v>
       </c>
       <c r="K38" s="184" t="s">
         <v>346</v>
@@ -15324,13 +15319,13 @@
       <c r="F39" s="190" t="s">
         <v>498</v>
       </c>
-      <c r="G39" s="34">
+      <c r="G39" s="29">
         <v>1</v>
       </c>
-      <c r="H39" s="34">
+      <c r="H39" s="29">
         <v>2</v>
       </c>
-      <c r="I39" s="34">
+      <c r="I39" s="29">
         <v>2</v>
       </c>
       <c r="J39" s="194"/>
@@ -15377,7 +15372,7 @@
         <v>5</v>
       </c>
       <c r="J40" s="196" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="K40" s="184" t="s">
         <v>346</v>
@@ -15422,7 +15417,7 @@
         <v>0</v>
       </c>
       <c r="J41" s="194" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="K41" s="184" t="s">
         <v>346</v>
@@ -15471,7 +15466,7 @@
         <v>2</v>
       </c>
       <c r="J42" s="196" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K42" s="184" t="s">
         <v>346</v>
@@ -15506,7 +15501,7 @@
       <c r="F43" s="191" t="s">
         <v>496</v>
       </c>
-      <c r="G43" s="251">
+      <c r="G43" s="198">
         <v>6</v>
       </c>
       <c r="H43" s="98">
@@ -15516,7 +15511,7 @@
         <v>1</v>
       </c>
       <c r="J43" s="197" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="K43" s="98"/>
       <c r="L43" s="34" t="s">
@@ -15555,7 +15550,7 @@
         <v>69</v>
       </c>
       <c r="H44" s="29">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I44" s="29">
         <v>5</v>
@@ -15598,13 +15593,13 @@
         <v>17</v>
       </c>
       <c r="H45" s="29">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I45" s="29">
         <v>2</v>
       </c>
       <c r="J45" s="196" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="K45" s="94"/>
       <c r="L45" s="34" t="s">
@@ -15643,13 +15638,13 @@
         <v>15</v>
       </c>
       <c r="H46" s="29">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I46" s="29">
         <v>2</v>
       </c>
       <c r="J46" s="194" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="K46" s="29"/>
       <c r="L46" s="34" t="s">
@@ -15726,20 +15721,20 @@
       <c r="E48" s="18" t="s">
         <v>408</v>
       </c>
-      <c r="F48" s="85" t="s">
+      <c r="F48" s="190" t="s">
         <v>488</v>
       </c>
       <c r="G48" s="29">
         <v>11</v>
       </c>
       <c r="H48" s="29">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I48" s="29">
         <v>2</v>
       </c>
       <c r="J48" s="196" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="K48" s="85"/>
       <c r="L48" s="85"/>
@@ -15786,7 +15781,7 @@
         <v>0</v>
       </c>
       <c r="J49" s="194" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="K49" s="29"/>
       <c r="L49" s="34" t="s">
@@ -15906,20 +15901,16 @@
       <c r="E52" s="18" t="s">
         <v>460</v>
       </c>
-      <c r="F52" s="190" t="s">
+      <c r="F52" s="85" t="s">
         <v>491</v>
       </c>
       <c r="G52" s="29">
         <v>84</v>
       </c>
-      <c r="H52" s="29">
-        <v>21</v>
-      </c>
-      <c r="I52" s="29">
-        <v>2</v>
-      </c>
+      <c r="H52" s="85"/>
+      <c r="I52" s="29"/>
       <c r="J52" s="194" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="K52" s="29"/>
       <c r="L52" s="34" t="s">
@@ -15964,7 +15955,7 @@
         <v>4</v>
       </c>
       <c r="J53" s="194" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="K53" s="184" t="s">
         <v>346</v>
@@ -16005,43 +15996,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="223" t="s">
+      <c r="A1" s="220" t="s">
         <v>230</v>
       </c>
-      <c r="B1" s="224"/>
-      <c r="C1" s="224"/>
-      <c r="D1" s="224"/>
-      <c r="E1" s="224"/>
-      <c r="F1" s="224"/>
-      <c r="G1" s="224"/>
-      <c r="H1" s="224"/>
-      <c r="I1" s="224"/>
+      <c r="B1" s="221"/>
+      <c r="C1" s="221"/>
+      <c r="D1" s="221"/>
+      <c r="E1" s="221"/>
+      <c r="F1" s="221"/>
+      <c r="G1" s="221"/>
+      <c r="H1" s="221"/>
+      <c r="I1" s="221"/>
     </row>
     <row r="2" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="222" t="s">
+      <c r="A2" s="223" t="s">
         <v>229</v>
       </c>
-      <c r="B2" s="222"/>
-      <c r="C2" s="222"/>
-      <c r="D2" s="222"/>
-      <c r="E2" s="222"/>
-      <c r="F2" s="222"/>
-      <c r="G2" s="222"/>
-      <c r="H2" s="222"/>
-      <c r="I2" s="222"/>
+      <c r="B2" s="223"/>
+      <c r="C2" s="223"/>
+      <c r="D2" s="223"/>
+      <c r="E2" s="223"/>
+      <c r="F2" s="223"/>
+      <c r="G2" s="223"/>
+      <c r="H2" s="223"/>
+      <c r="I2" s="223"/>
     </row>
     <row r="3" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="215" t="s">
+      <c r="A3" s="224" t="s">
         <v>337</v>
       </c>
-      <c r="B3" s="215"/>
-      <c r="C3" s="215"/>
-      <c r="D3" s="215"/>
-      <c r="E3" s="215"/>
-      <c r="F3" s="215"/>
-      <c r="G3" s="215"/>
-      <c r="H3" s="215"/>
-      <c r="I3" s="215"/>
+      <c r="B3" s="224"/>
+      <c r="C3" s="224"/>
+      <c r="D3" s="224"/>
+      <c r="E3" s="224"/>
+      <c r="F3" s="224"/>
+      <c r="G3" s="224"/>
+      <c r="H3" s="224"/>
+      <c r="I3" s="224"/>
       <c r="J3" s="71"/>
       <c r="K3" s="71"/>
       <c r="L3" s="71"/>
@@ -16054,12 +16045,12 @@
       <c r="S3" s="71"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="225" t="s">
+      <c r="A4" s="222" t="s">
         <v>253</v>
       </c>
-      <c r="B4" s="225"/>
-      <c r="C4" s="225"/>
-      <c r="D4" s="225"/>
+      <c r="B4" s="222"/>
+      <c r="C4" s="222"/>
+      <c r="D4" s="222"/>
     </row>
     <row r="5" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="69" t="s">
@@ -16085,7 +16076,7 @@
       <c r="C6" s="49" t="s">
         <v>196</v>
       </c>
-      <c r="D6" s="219" t="s">
+      <c r="D6" s="233" t="s">
         <v>339</v>
       </c>
       <c r="E6" t="e">
@@ -16104,7 +16095,7 @@
       <c r="C7" s="49" t="s">
         <v>228</v>
       </c>
-      <c r="D7" s="220"/>
+      <c r="D7" s="234"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="78" t="s">
@@ -16116,7 +16107,7 @@
       <c r="C8" s="49" t="s">
         <v>235</v>
       </c>
-      <c r="D8" s="220"/>
+      <c r="D8" s="234"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="78" t="s">
@@ -16128,7 +16119,7 @@
       <c r="C9" s="49" t="s">
         <v>236</v>
       </c>
-      <c r="D9" s="220"/>
+      <c r="D9" s="234"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="78" t="s">
@@ -16140,7 +16131,7 @@
       <c r="C10" s="49" t="s">
         <v>237</v>
       </c>
-      <c r="D10" s="220"/>
+      <c r="D10" s="234"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="78" t="s">
@@ -16152,7 +16143,7 @@
       <c r="C11" s="49" t="s">
         <v>237</v>
       </c>
-      <c r="D11" s="220"/>
+      <c r="D11" s="234"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="78" t="s">
@@ -16164,7 +16155,7 @@
       <c r="C12" s="49" t="s">
         <v>266</v>
       </c>
-      <c r="D12" s="220"/>
+      <c r="D12" s="234"/>
     </row>
     <row r="13" spans="1:19" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="145" t="s">
@@ -16176,7 +16167,7 @@
       <c r="C13" s="136" t="s">
         <v>273</v>
       </c>
-      <c r="D13" s="221"/>
+      <c r="D13" s="235"/>
     </row>
     <row r="14" spans="1:19" s="77" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="146" t="s">
@@ -16193,30 +16184,30 @@
       </c>
     </row>
     <row r="15" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="222" t="s">
+      <c r="A15" s="223" t="s">
         <v>261</v>
       </c>
-      <c r="B15" s="222"/>
-      <c r="C15" s="222"/>
-      <c r="D15" s="222"/>
-      <c r="E15" s="222"/>
-      <c r="F15" s="222"/>
-      <c r="G15" s="222"/>
-      <c r="H15" s="222"/>
-      <c r="I15" s="222"/>
+      <c r="B15" s="223"/>
+      <c r="C15" s="223"/>
+      <c r="D15" s="223"/>
+      <c r="E15" s="223"/>
+      <c r="F15" s="223"/>
+      <c r="G15" s="223"/>
+      <c r="H15" s="223"/>
+      <c r="I15" s="223"/>
     </row>
     <row r="16" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="215" t="s">
+      <c r="A16" s="224" t="s">
         <v>238</v>
       </c>
-      <c r="B16" s="215"/>
-      <c r="C16" s="215"/>
-      <c r="D16" s="215"/>
-      <c r="E16" s="215"/>
-      <c r="F16" s="215"/>
-      <c r="G16" s="215"/>
-      <c r="H16" s="215"/>
-      <c r="I16" s="215"/>
+      <c r="B16" s="224"/>
+      <c r="C16" s="224"/>
+      <c r="D16" s="224"/>
+      <c r="E16" s="224"/>
+      <c r="F16" s="224"/>
+      <c r="G16" s="224"/>
+      <c r="H16" s="224"/>
+      <c r="I16" s="224"/>
       <c r="J16" s="71"/>
       <c r="K16" s="71"/>
       <c r="L16" s="71"/>
@@ -16229,14 +16220,14 @@
       <c r="S16" s="71"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="225" t="s">
+      <c r="A17" s="222" t="s">
         <v>259</v>
       </c>
-      <c r="B17" s="225"/>
-      <c r="C17" s="225"/>
-      <c r="D17" s="225"/>
-      <c r="E17" s="225"/>
-      <c r="F17" s="225"/>
+      <c r="B17" s="222"/>
+      <c r="C17" s="222"/>
+      <c r="D17" s="222"/>
+      <c r="E17" s="222"/>
+      <c r="F17" s="222"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="69" t="s">
@@ -16403,30 +16394,30 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="222" t="s">
+      <c r="A25" s="223" t="s">
         <v>260</v>
       </c>
-      <c r="B25" s="222"/>
-      <c r="C25" s="222"/>
-      <c r="D25" s="222"/>
-      <c r="E25" s="222"/>
-      <c r="F25" s="222"/>
-      <c r="G25" s="222"/>
-      <c r="H25" s="222"/>
-      <c r="I25" s="222"/>
+      <c r="B25" s="223"/>
+      <c r="C25" s="223"/>
+      <c r="D25" s="223"/>
+      <c r="E25" s="223"/>
+      <c r="F25" s="223"/>
+      <c r="G25" s="223"/>
+      <c r="H25" s="223"/>
+      <c r="I25" s="223"/>
     </row>
     <row r="26" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="215" t="s">
+      <c r="A26" s="224" t="s">
         <v>338</v>
       </c>
-      <c r="B26" s="215"/>
-      <c r="C26" s="215"/>
-      <c r="D26" s="215"/>
-      <c r="E26" s="215"/>
-      <c r="F26" s="215"/>
-      <c r="G26" s="215"/>
-      <c r="H26" s="215"/>
-      <c r="I26" s="215"/>
+      <c r="B26" s="224"/>
+      <c r="C26" s="224"/>
+      <c r="D26" s="224"/>
+      <c r="E26" s="224"/>
+      <c r="F26" s="224"/>
+      <c r="G26" s="224"/>
+      <c r="H26" s="224"/>
+      <c r="I26" s="224"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="69" t="s">
@@ -16438,12 +16429,12 @@
       <c r="C27" s="69" t="s">
         <v>201</v>
       </c>
-      <c r="D27" s="229" t="s">
+      <c r="D27" s="228" t="s">
         <v>292</v>
       </c>
-      <c r="E27" s="229"/>
-      <c r="F27" s="229"/>
-      <c r="G27" s="229"/>
+      <c r="E27" s="228"/>
+      <c r="F27" s="228"/>
+      <c r="G27" s="228"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="52" t="s">
@@ -16455,12 +16446,12 @@
       <c r="C28" s="72">
         <v>0.59</v>
       </c>
-      <c r="D28" s="216" t="s">
+      <c r="D28" s="230" t="s">
         <v>285</v>
       </c>
-      <c r="E28" s="217"/>
-      <c r="F28" s="217"/>
-      <c r="G28" s="218"/>
+      <c r="E28" s="231"/>
+      <c r="F28" s="231"/>
+      <c r="G28" s="232"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="52" t="s">
@@ -16472,12 +16463,12 @@
       <c r="C29" s="72">
         <v>0.77</v>
       </c>
-      <c r="D29" s="226" t="s">
+      <c r="D29" s="225" t="s">
         <v>286</v>
       </c>
-      <c r="E29" s="227"/>
-      <c r="F29" s="227"/>
-      <c r="G29" s="228"/>
+      <c r="E29" s="226"/>
+      <c r="F29" s="226"/>
+      <c r="G29" s="227"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="52" t="s">
@@ -16489,12 +16480,12 @@
       <c r="C30" s="72">
         <v>0.41</v>
       </c>
-      <c r="D30" s="226" t="s">
+      <c r="D30" s="225" t="s">
         <v>287</v>
       </c>
-      <c r="E30" s="227"/>
-      <c r="F30" s="227"/>
-      <c r="G30" s="228"/>
+      <c r="E30" s="226"/>
+      <c r="F30" s="226"/>
+      <c r="G30" s="227"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="52" t="s">
@@ -16506,12 +16497,12 @@
       <c r="C31" s="72">
         <v>0.59</v>
       </c>
-      <c r="D31" s="226" t="s">
+      <c r="D31" s="225" t="s">
         <v>289</v>
       </c>
-      <c r="E31" s="227"/>
-      <c r="F31" s="227"/>
-      <c r="G31" s="228"/>
+      <c r="E31" s="226"/>
+      <c r="F31" s="226"/>
+      <c r="G31" s="227"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="52" t="s">
@@ -16523,12 +16514,12 @@
       <c r="C32" s="72">
         <v>0.5</v>
       </c>
-      <c r="D32" s="226" t="s">
+      <c r="D32" s="225" t="s">
         <v>288</v>
       </c>
-      <c r="E32" s="227"/>
-      <c r="F32" s="227"/>
-      <c r="G32" s="228"/>
+      <c r="E32" s="226"/>
+      <c r="F32" s="226"/>
+      <c r="G32" s="227"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="52" t="s">
@@ -16540,12 +16531,12 @@
       <c r="C33" s="72">
         <v>0.59</v>
       </c>
-      <c r="D33" s="226" t="s">
+      <c r="D33" s="225" t="s">
         <v>290</v>
       </c>
-      <c r="E33" s="227"/>
-      <c r="F33" s="227"/>
-      <c r="G33" s="228"/>
+      <c r="E33" s="226"/>
+      <c r="F33" s="226"/>
+      <c r="G33" s="227"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="52" t="s">
@@ -16557,25 +16548,25 @@
       <c r="C34" s="72">
         <v>0.54</v>
       </c>
-      <c r="D34" s="226" t="s">
+      <c r="D34" s="225" t="s">
         <v>291</v>
       </c>
-      <c r="E34" s="227"/>
-      <c r="F34" s="227"/>
-      <c r="G34" s="228"/>
+      <c r="E34" s="226"/>
+      <c r="F34" s="226"/>
+      <c r="G34" s="227"/>
     </row>
     <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="222" t="s">
+      <c r="A36" s="223" t="s">
         <v>315</v>
       </c>
-      <c r="B36" s="222"/>
-      <c r="C36" s="222"/>
-      <c r="D36" s="222"/>
-      <c r="E36" s="222"/>
-      <c r="F36" s="222"/>
-      <c r="G36" s="222"/>
-      <c r="H36" s="222"/>
-      <c r="I36" s="222"/>
+      <c r="B36" s="223"/>
+      <c r="C36" s="223"/>
+      <c r="D36" s="223"/>
+      <c r="E36" s="223"/>
+      <c r="F36" s="223"/>
+      <c r="G36" s="223"/>
+      <c r="H36" s="223"/>
+      <c r="I36" s="223"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="87" t="s">
@@ -16642,12 +16633,12 @@
       </c>
     </row>
     <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="214" t="s">
+      <c r="A46" s="229" t="s">
         <v>318</v>
       </c>
-      <c r="B46" s="214"/>
-      <c r="C46" s="214"/>
-      <c r="D46" s="214"/>
+      <c r="B46" s="229"/>
+      <c r="C46" s="229"/>
+      <c r="D46" s="229"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="88" t="s">
@@ -16798,6 +16789,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D6:D13"/>
+    <mergeCell ref="A2:I2"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A25:I25"/>
@@ -16813,11 +16809,6 @@
     <mergeCell ref="D30:G30"/>
     <mergeCell ref="D31:G31"/>
     <mergeCell ref="D32:G32"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D6:D13"/>
-    <mergeCell ref="A2:I2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -16849,15 +16840,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="235" t="s">
+      <c r="A1" s="241" t="s">
         <v>347</v>
       </c>
-      <c r="B1" s="235"/>
-      <c r="C1" s="235"/>
-      <c r="D1" s="235"/>
-      <c r="E1" s="235"/>
-      <c r="F1" s="235"/>
-      <c r="G1" s="235"/>
+      <c r="B1" s="241"/>
+      <c r="C1" s="241"/>
+      <c r="D1" s="241"/>
+      <c r="E1" s="241"/>
+      <c r="F1" s="241"/>
+      <c r="G1" s="241"/>
     </row>
     <row r="2" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="158" t="s">
@@ -16881,11 +16872,11 @@
       <c r="G2" s="158" t="s">
         <v>344</v>
       </c>
-      <c r="I2" s="234" t="s">
+      <c r="I2" s="240" t="s">
         <v>197</v>
       </c>
-      <c r="J2" s="234"/>
-      <c r="K2" s="234"/>
+      <c r="J2" s="240"/>
+      <c r="K2" s="240"/>
     </row>
     <row r="3" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
@@ -17338,20 +17329,20 @@
       <c r="J22" s="115" t="s">
         <v>217</v>
       </c>
-      <c r="K22" s="236" t="s">
+      <c r="K22" s="242" t="s">
         <v>307</v>
       </c>
-      <c r="L22" s="236"/>
-      <c r="M22" s="236"/>
-      <c r="N22" s="236"/>
-      <c r="O22" s="236"/>
-      <c r="P22" s="236"/>
-      <c r="Q22" s="236"/>
-      <c r="R22" s="236"/>
-      <c r="S22" s="236"/>
-      <c r="T22" s="236"/>
-      <c r="U22" s="236"/>
-      <c r="V22" s="236"/>
+      <c r="L22" s="242"/>
+      <c r="M22" s="242"/>
+      <c r="N22" s="242"/>
+      <c r="O22" s="242"/>
+      <c r="P22" s="242"/>
+      <c r="Q22" s="242"/>
+      <c r="R22" s="242"/>
+      <c r="S22" s="242"/>
+      <c r="T22" s="242"/>
+      <c r="U22" s="242"/>
+      <c r="V22" s="242"/>
     </row>
     <row r="23" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="36" t="s">
@@ -17457,10 +17448,10 @@
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A29" s="238"/>
-      <c r="B29" s="239"/>
-      <c r="C29" s="239"/>
-      <c r="D29" s="240"/>
+      <c r="A29" s="244"/>
+      <c r="B29" s="245"/>
+      <c r="C29" s="245"/>
+      <c r="D29" s="246"/>
       <c r="I29" s="43" t="s">
         <v>187</v>
       </c>
@@ -17477,10 +17468,10 @@
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A31" s="241" t="s">
+      <c r="A31" s="247" t="s">
         <v>181</v>
       </c>
-      <c r="B31" s="242"/>
+      <c r="B31" s="248"/>
       <c r="C31" s="68"/>
       <c r="I31" s="43" t="s">
         <v>189</v>
@@ -17502,20 +17493,20 @@
       <c r="J32" s="116" t="s">
         <v>308</v>
       </c>
-      <c r="K32" s="237" t="s">
+      <c r="K32" s="243" t="s">
         <v>306</v>
       </c>
-      <c r="L32" s="237"/>
-      <c r="M32" s="237"/>
-      <c r="N32" s="237"/>
-      <c r="O32" s="237"/>
-      <c r="P32" s="237"/>
-      <c r="Q32" s="237"/>
-      <c r="R32" s="237"/>
-      <c r="S32" s="237"/>
-      <c r="T32" s="237"/>
-      <c r="U32" s="237"/>
-      <c r="V32" s="237"/>
+      <c r="L32" s="243"/>
+      <c r="M32" s="243"/>
+      <c r="N32" s="243"/>
+      <c r="O32" s="243"/>
+      <c r="P32" s="243"/>
+      <c r="Q32" s="243"/>
+      <c r="R32" s="243"/>
+      <c r="S32" s="243"/>
+      <c r="T32" s="243"/>
+      <c r="U32" s="243"/>
+      <c r="V32" s="243"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="84" t="s">
@@ -17548,10 +17539,10 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="230" t="s">
+      <c r="A35" s="236" t="s">
         <v>184</v>
       </c>
-      <c r="B35" s="232" t="s">
+      <c r="B35" s="238" t="s">
         <v>219</v>
       </c>
       <c r="D35" s="90"/>
@@ -17561,8 +17552,8 @@
       <c r="J35" s="41"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="231"/>
-      <c r="B36" s="233"/>
+      <c r="A36" s="237"/>
+      <c r="B36" s="239"/>
       <c r="D36" s="90"/>
       <c r="I36" s="105" t="s">
         <v>296</v>
@@ -17681,15 +17672,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="235" t="s">
+      <c r="A1" s="241" t="s">
         <v>347</v>
       </c>
-      <c r="B1" s="235"/>
-      <c r="C1" s="235"/>
-      <c r="D1" s="235"/>
-      <c r="E1" s="235"/>
-      <c r="F1" s="235"/>
-      <c r="G1" s="235"/>
+      <c r="B1" s="241"/>
+      <c r="C1" s="241"/>
+      <c r="D1" s="241"/>
+      <c r="E1" s="241"/>
+      <c r="F1" s="241"/>
+      <c r="G1" s="241"/>
     </row>
     <row r="2" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="158" t="s">
@@ -17713,11 +17704,11 @@
       <c r="G2" s="158" t="s">
         <v>344</v>
       </c>
-      <c r="I2" s="234" t="s">
+      <c r="I2" s="240" t="s">
         <v>197</v>
       </c>
-      <c r="J2" s="234"/>
-      <c r="K2" s="234"/>
+      <c r="J2" s="240"/>
+      <c r="K2" s="240"/>
       <c r="O2" s="170" t="s">
         <v>351</v>
       </c>
@@ -18218,20 +18209,20 @@
       <c r="J22" s="115" t="s">
         <v>217</v>
       </c>
-      <c r="K22" s="236" t="s">
+      <c r="K22" s="242" t="s">
         <v>307</v>
       </c>
-      <c r="L22" s="236"/>
-      <c r="M22" s="236"/>
-      <c r="N22" s="236"/>
-      <c r="O22" s="236"/>
-      <c r="P22" s="236"/>
-      <c r="Q22" s="236"/>
-      <c r="R22" s="236"/>
-      <c r="S22" s="236"/>
-      <c r="T22" s="236"/>
-      <c r="U22" s="236"/>
-      <c r="V22" s="236"/>
+      <c r="L22" s="242"/>
+      <c r="M22" s="242"/>
+      <c r="N22" s="242"/>
+      <c r="O22" s="242"/>
+      <c r="P22" s="242"/>
+      <c r="Q22" s="242"/>
+      <c r="R22" s="242"/>
+      <c r="S22" s="242"/>
+      <c r="T22" s="242"/>
+      <c r="U22" s="242"/>
+      <c r="V22" s="242"/>
     </row>
     <row r="23" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="36" t="s">
@@ -18337,10 +18328,10 @@
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A29" s="238"/>
-      <c r="B29" s="239"/>
-      <c r="C29" s="239"/>
-      <c r="D29" s="240"/>
+      <c r="A29" s="244"/>
+      <c r="B29" s="245"/>
+      <c r="C29" s="245"/>
+      <c r="D29" s="246"/>
       <c r="I29" s="43" t="s">
         <v>187</v>
       </c>
@@ -18357,10 +18348,10 @@
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A31" s="241" t="s">
+      <c r="A31" s="247" t="s">
         <v>181</v>
       </c>
-      <c r="B31" s="242"/>
+      <c r="B31" s="248"/>
       <c r="C31" s="68"/>
       <c r="I31" s="43" t="s">
         <v>189</v>
@@ -18382,20 +18373,20 @@
       <c r="J32" s="116" t="s">
         <v>308</v>
       </c>
-      <c r="K32" s="237" t="s">
+      <c r="K32" s="243" t="s">
         <v>306</v>
       </c>
-      <c r="L32" s="237"/>
-      <c r="M32" s="237"/>
-      <c r="N32" s="237"/>
-      <c r="O32" s="237"/>
-      <c r="P32" s="237"/>
-      <c r="Q32" s="237"/>
-      <c r="R32" s="237"/>
-      <c r="S32" s="237"/>
-      <c r="T32" s="237"/>
-      <c r="U32" s="237"/>
-      <c r="V32" s="237"/>
+      <c r="L32" s="243"/>
+      <c r="M32" s="243"/>
+      <c r="N32" s="243"/>
+      <c r="O32" s="243"/>
+      <c r="P32" s="243"/>
+      <c r="Q32" s="243"/>
+      <c r="R32" s="243"/>
+      <c r="S32" s="243"/>
+      <c r="T32" s="243"/>
+      <c r="U32" s="243"/>
+      <c r="V32" s="243"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="84" t="s">
@@ -18426,10 +18417,10 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="230" t="s">
+      <c r="A35" s="236" t="s">
         <v>184</v>
       </c>
-      <c r="B35" s="232" t="s">
+      <c r="B35" s="238" t="s">
         <v>219</v>
       </c>
       <c r="I35" s="43" t="s">
@@ -18438,8 +18429,8 @@
       <c r="J35" s="41"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="231"/>
-      <c r="B36" s="233"/>
+      <c r="A36" s="237"/>
+      <c r="B36" s="239"/>
       <c r="I36" s="105" t="s">
         <v>296</v>
       </c>
@@ -18541,18 +18532,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="243" t="s">
+      <c r="A1" s="249" t="s">
         <v>464</v>
       </c>
-      <c r="B1" s="243"/>
-      <c r="C1" s="243"/>
-      <c r="D1" s="243"/>
-      <c r="E1" s="243"/>
-      <c r="F1" s="243"/>
-      <c r="G1" s="243"/>
-      <c r="H1" s="243"/>
-      <c r="I1" s="243"/>
-      <c r="J1" s="243"/>
+      <c r="B1" s="249"/>
+      <c r="C1" s="249"/>
+      <c r="D1" s="249"/>
+      <c r="E1" s="249"/>
+      <c r="F1" s="249"/>
+      <c r="G1" s="249"/>
+      <c r="H1" s="249"/>
+      <c r="I1" s="249"/>
+      <c r="J1" s="249"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="173" t="s">

--- a/Experiment01_Resumo/Resumo_Exp01.xlsx
+++ b/Experiment01_Resumo/Resumo_Exp01.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1492" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1494" uniqueCount="570">
   <si>
     <t>Database search</t>
   </si>
@@ -1731,12 +1731,6 @@
     <t>Não acessível</t>
   </si>
   <si>
-    <t>Selecionados</t>
-  </si>
-  <si>
-    <t>Não fez BSB pq estava indisponível</t>
-  </si>
-  <si>
     <t xml:space="preserve">Citado por 8, mas 2 são de 2016 e 1 de 2017. Então foram incluídos somente 5. </t>
   </si>
   <si>
@@ -1809,12 +1803,6 @@
     <t>Google scholar em 16/3</t>
   </si>
   <si>
-    <t>Forward JF Tool</t>
-  </si>
-  <si>
-    <t>Related JF Tool</t>
-  </si>
-  <si>
     <t>Obs. FSB</t>
   </si>
   <si>
@@ -1843,6 +1831,24 @@
   </si>
   <si>
     <t>15 menos 3 =12 incluidos</t>
+  </si>
+  <si>
+    <t>Forward JF Tool em 13 e 14/04</t>
+  </si>
+  <si>
+    <t>Related JF Tool em 13 e 14/04</t>
+  </si>
+  <si>
+    <t>Solicitou a compra/cópia / Não fez BSB</t>
+  </si>
+  <si>
+    <t>Selecionados Final</t>
+  </si>
+  <si>
+    <t>Não fez BSB pq estava indisponível, mas fez FSB.</t>
+  </si>
+  <si>
+    <t>Resumo dos 51 estudos - JF Tool, Selecionados no Final, Excluídos, BSB, FSB</t>
   </si>
 </sst>
 </file>
@@ -1941,7 +1947,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="25">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2077,12 +2083,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF99FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2535,7 +2535,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="257">
+  <cellXfs count="255">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3019,15 +3019,6 @@
     <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3112,6 +3103,33 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3121,12 +3139,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3139,27 +3151,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3222,6 +3213,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3546,12 +3540,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="187213064"/>
-        <c:axId val="187216592"/>
+        <c:axId val="191324120"/>
+        <c:axId val="191324512"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="187213064"/>
+        <c:axId val="191324120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3643,7 +3637,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="187216592"/>
+        <c:crossAx val="191324512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3651,7 +3645,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="187216592"/>
+        <c:axId val="191324512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3702,7 +3696,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="187213064"/>
+        <c:crossAx val="191324120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4011,12 +4005,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="189324152"/>
-        <c:axId val="189325720"/>
+        <c:axId val="221061384"/>
+        <c:axId val="221061776"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="189324152"/>
+        <c:axId val="221061384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4105,7 +4099,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189325720"/>
+        <c:crossAx val="221061776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4113,7 +4107,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="189325720"/>
+        <c:axId val="221061776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4196,7 +4190,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189324152"/>
+        <c:crossAx val="221061384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4481,12 +4475,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="189328464"/>
-        <c:axId val="189323760"/>
+        <c:axId val="221062560"/>
+        <c:axId val="221056288"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="189328464"/>
+        <c:axId val="221062560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4575,7 +4569,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189323760"/>
+        <c:crossAx val="221056288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4583,7 +4577,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="189323760"/>
+        <c:axId val="221056288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4666,7 +4660,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189328464"/>
+        <c:crossAx val="221062560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5453,12 +5447,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="189329640"/>
-        <c:axId val="189325328"/>
+        <c:axId val="221057072"/>
+        <c:axId val="221055504"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="189329640"/>
+        <c:axId val="221057072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5498,7 +5492,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189325328"/>
+        <c:crossAx val="221055504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5506,7 +5500,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="189325328"/>
+        <c:axId val="221055504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5554,7 +5548,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189329640"/>
+        <c:crossAx val="221057072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5862,8 +5856,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="189328856"/>
-        <c:axId val="189329248"/>
+        <c:axId val="221055112"/>
+        <c:axId val="221055896"/>
         <c:axId val="0"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
@@ -6033,7 +6027,7 @@
         </c:extLst>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="189328856"/>
+        <c:axId val="221055112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6131,7 +6125,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189329248"/>
+        <c:crossAx val="221055896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6139,7 +6133,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="189329248"/>
+        <c:axId val="221055896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6218,7 +6212,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189328856"/>
+        <c:crossAx val="221055112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6532,8 +6526,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="189326112"/>
-        <c:axId val="189326504"/>
+        <c:axId val="221059816"/>
+        <c:axId val="221060600"/>
         <c:axId val="0"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
@@ -6703,7 +6697,7 @@
         </c:extLst>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="189326112"/>
+        <c:axId val="221059816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6801,7 +6795,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189326504"/>
+        <c:crossAx val="221060600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6809,7 +6803,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="189326504"/>
+        <c:axId val="221060600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6888,7 +6882,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189326112"/>
+        <c:crossAx val="221059816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10586,22 +10580,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="204" t="s">
+      <c r="A1" s="201" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="205"/>
+      <c r="B1" s="202"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="206" t="s">
+      <c r="A2" s="203" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="207"/>
+      <c r="B2" s="204"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="206" t="s">
+      <c r="A3" s="203" t="s">
         <v>96</v>
       </c>
-      <c r="B3" s="207"/>
+      <c r="B3" s="204"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -10636,10 +10630,10 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="208" t="s">
+      <c r="A8" s="205" t="s">
         <v>103</v>
       </c>
-      <c r="B8" s="209"/>
+      <c r="B8" s="206"/>
     </row>
     <row r="9" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
@@ -10715,15 +10709,15 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="250" t="s">
+      <c r="A1" s="247" t="s">
         <v>525</v>
       </c>
-      <c r="B1" s="250"/>
-      <c r="C1" s="250"/>
-      <c r="D1" s="250"/>
-      <c r="E1" s="250"/>
-      <c r="F1" s="250"/>
-      <c r="G1" s="250"/>
+      <c r="B1" s="247"/>
+      <c r="C1" s="247"/>
+      <c r="D1" s="247"/>
+      <c r="E1" s="247"/>
+      <c r="F1" s="247"/>
+      <c r="G1" s="247"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10758,19 +10752,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="219" t="s">
+      <c r="A1" s="216" t="s">
         <v>326</v>
       </c>
-      <c r="B1" s="219"/>
-      <c r="C1" s="219"/>
-      <c r="D1" s="219"/>
-      <c r="E1" s="219"/>
-      <c r="F1" s="219"/>
-      <c r="G1" s="219"/>
-      <c r="H1" s="219"/>
-      <c r="I1" s="219"/>
-      <c r="J1" s="219"/>
-      <c r="K1" s="219"/>
+      <c r="B1" s="216"/>
+      <c r="C1" s="216"/>
+      <c r="D1" s="216"/>
+      <c r="E1" s="216"/>
+      <c r="F1" s="216"/>
+      <c r="G1" s="216"/>
+      <c r="H1" s="216"/>
+      <c r="I1" s="216"/>
+      <c r="J1" s="216"/>
+      <c r="K1" s="216"/>
     </row>
     <row r="2" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
@@ -11492,10 +11486,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="251" t="s">
+      <c r="A1" s="248" t="s">
         <v>333</v>
       </c>
-      <c r="B1" s="252"/>
+      <c r="B1" s="249"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="79" t="s">
@@ -11563,20 +11557,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="253" t="s">
+      <c r="A1" s="250" t="s">
         <v>327</v>
       </c>
-      <c r="B1" s="253"/>
-      <c r="C1" s="253"/>
-      <c r="D1" s="253"/>
-      <c r="E1" s="253"/>
-      <c r="F1" s="253"/>
-      <c r="G1" s="253"/>
-      <c r="H1" s="253"/>
-      <c r="I1" s="253"/>
-      <c r="J1" s="253"/>
-      <c r="K1" s="253"/>
-      <c r="L1" s="253"/>
+      <c r="B1" s="250"/>
+      <c r="C1" s="250"/>
+      <c r="D1" s="250"/>
+      <c r="E1" s="250"/>
+      <c r="F1" s="250"/>
+      <c r="G1" s="250"/>
+      <c r="H1" s="250"/>
+      <c r="I1" s="250"/>
+      <c r="J1" s="250"/>
+      <c r="K1" s="250"/>
+      <c r="L1" s="250"/>
     </row>
     <row r="2" spans="1:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="142" t="s">
@@ -12295,15 +12289,15 @@
     </row>
     <row r="26" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="134"/>
-      <c r="B26" s="254" t="s">
+      <c r="B26" s="251" t="s">
         <v>334</v>
       </c>
-      <c r="C26" s="255"/>
-      <c r="D26" s="255"/>
-      <c r="E26" s="255"/>
-      <c r="F26" s="255"/>
-      <c r="G26" s="255"/>
-      <c r="H26" s="256"/>
+      <c r="C26" s="252"/>
+      <c r="D26" s="252"/>
+      <c r="E26" s="252"/>
+      <c r="F26" s="252"/>
+      <c r="G26" s="252"/>
+      <c r="H26" s="253"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="66"/>
@@ -12471,10 +12465,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="214" t="s">
+      <c r="A1" s="211" t="s">
         <v>151</v>
       </c>
-      <c r="B1" s="215"/>
+      <c r="B1" s="212"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
@@ -12507,16 +12501,16 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="210" t="s">
+      <c r="A6" s="207" t="s">
         <v>147</v>
       </c>
-      <c r="B6" s="211"/>
+      <c r="B6" s="208"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="212" t="s">
+      <c r="A7" s="209" t="s">
         <v>150</v>
       </c>
-      <c r="B7" s="213"/>
+      <c r="B7" s="210"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
@@ -12598,16 +12592,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="216" t="s">
+      <c r="A1" s="213" t="s">
         <v>336</v>
       </c>
-      <c r="B1" s="217"/>
-      <c r="C1" s="217"/>
-      <c r="D1" s="217"/>
-      <c r="E1" s="217"/>
-      <c r="F1" s="217"/>
-      <c r="G1" s="217"/>
-      <c r="H1" s="218"/>
+      <c r="B1" s="214"/>
+      <c r="C1" s="214"/>
+      <c r="D1" s="214"/>
+      <c r="E1" s="214"/>
+      <c r="F1" s="214"/>
+      <c r="G1" s="214"/>
+      <c r="H1" s="215"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
     </row>
@@ -12977,14 +12971,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="219" t="s">
+      <c r="A1" s="216" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="219"/>
-      <c r="C1" s="219"/>
-      <c r="D1" s="219"/>
-      <c r="E1" s="219"/>
-      <c r="F1" s="219"/>
+      <c r="B1" s="216"/>
+      <c r="C1" s="216"/>
+      <c r="D1" s="216"/>
+      <c r="E1" s="216"/>
+      <c r="F1" s="216"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
@@ -13467,31 +13461,55 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:T53"/>
+  <dimension ref="A1:T53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="62.42578125" customWidth="1"/>
+    <col min="2" max="2" width="51.28515625" customWidth="1"/>
     <col min="3" max="3" width="25.5703125" customWidth="1"/>
     <col min="4" max="4" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.85546875" customWidth="1"/>
     <col min="6" max="6" width="18.85546875" style="81" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="81" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="81" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" style="81" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" style="81" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" style="81" customWidth="1"/>
-    <col min="12" max="12" width="10.42578125" style="3" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="3"/>
-    <col min="14" max="14" width="14.5703125" style="71" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="81" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" style="81" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="3"/>
+    <col min="11" max="11" width="14.5703125" style="71" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="81" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" style="81" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" style="81" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="11.42578125" customWidth="1"/>
+    <col min="17" max="17" width="12" customWidth="1"/>
+    <col min="18" max="20" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="254" t="s">
+        <v>569</v>
+      </c>
+      <c r="B1" s="254"/>
+      <c r="C1" s="254"/>
+      <c r="D1" s="254"/>
+      <c r="E1" s="254"/>
+      <c r="F1" s="254"/>
+      <c r="G1" s="254"/>
+      <c r="H1" s="254"/>
+      <c r="I1" s="254"/>
+      <c r="J1" s="254"/>
+      <c r="K1" s="254"/>
+      <c r="L1" s="254"/>
+      <c r="M1" s="254"/>
+      <c r="N1" s="254"/>
+      <c r="O1" s="254"/>
+      <c r="P1" s="254"/>
+      <c r="Q1" s="254"/>
+    </row>
     <row r="2" spans="1:20" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>123</v>
@@ -13511,41 +13529,43 @@
       <c r="F2" s="21" t="s">
         <v>474</v>
       </c>
-      <c r="G2" s="82" t="s">
+      <c r="G2" s="21"/>
+      <c r="H2" s="82" t="s">
+        <v>567</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>526</v>
+      </c>
+      <c r="J2" s="82" t="s">
+        <v>529</v>
+      </c>
+      <c r="K2" s="82" t="s">
+        <v>566</v>
+      </c>
+      <c r="L2" s="82" t="s">
+        <v>549</v>
+      </c>
+      <c r="M2" s="82" t="s">
+        <v>564</v>
+      </c>
+      <c r="N2" s="82" t="s">
+        <v>565</v>
+      </c>
+      <c r="O2" s="91"/>
+      <c r="P2" s="196" t="s">
+        <v>550</v>
+      </c>
+      <c r="Q2" s="196" t="s">
         <v>551</v>
       </c>
-      <c r="H2" s="82" t="s">
-        <v>556</v>
-      </c>
-      <c r="I2" s="82" t="s">
-        <v>557</v>
-      </c>
-      <c r="J2" s="21"/>
-      <c r="K2" s="199" t="s">
-        <v>530</v>
-      </c>
-      <c r="L2" s="21" t="s">
-        <v>526</v>
-      </c>
-      <c r="M2" s="82" t="s">
-        <v>529</v>
-      </c>
-      <c r="N2" s="19"/>
-      <c r="O2" s="91"/>
-      <c r="P2" s="199" t="s">
+      <c r="R2" s="198" t="s">
         <v>552</v>
       </c>
-      <c r="Q2" s="199" t="s">
+      <c r="S2" s="198" t="s">
         <v>553</v>
       </c>
-      <c r="R2" s="201" t="s">
+      <c r="T2" s="199" t="s">
         <v>554</v>
-      </c>
-      <c r="S2" s="201" t="s">
-        <v>555</v>
-      </c>
-      <c r="T2" s="202" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -13564,25 +13584,25 @@
       <c r="E3" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="48" t="s">
+      <c r="F3" s="183" t="s">
         <v>502</v>
       </c>
-      <c r="G3" s="48">
+      <c r="G3" s="48"/>
+      <c r="H3" s="183" t="s">
+        <v>346</v>
+      </c>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="48">
         <v>2</v>
       </c>
-      <c r="H3" s="48">
+      <c r="M3" s="48">
         <v>2</v>
       </c>
-      <c r="I3" s="48">
+      <c r="N3" s="48">
         <v>0</v>
       </c>
-      <c r="J3" s="48"/>
-      <c r="K3" s="183" t="s">
-        <v>346</v>
-      </c>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="19"/>
       <c r="O3" s="91"/>
       <c r="P3" s="67">
         <v>25</v>
@@ -13614,25 +13634,25 @@
       <c r="E4" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="F4" s="48" t="s">
+      <c r="F4" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="G4" s="48">
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="34" t="s">
+        <v>346</v>
+      </c>
+      <c r="J4" s="94"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="48">
         <v>10</v>
       </c>
-      <c r="H4" s="48">
+      <c r="M4" s="48">
         <v>9</v>
       </c>
-      <c r="I4" s="48">
+      <c r="N4" s="48">
         <v>0</v>
       </c>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="34" t="s">
-        <v>346</v>
-      </c>
-      <c r="M4" s="94"/>
-      <c r="N4" s="19"/>
       <c r="O4" s="91"/>
       <c r="P4" s="67">
         <v>20</v>
@@ -13664,28 +13684,28 @@
       <c r="E5" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="F5" s="48" t="s">
+      <c r="F5" s="183" t="s">
         <v>210</v>
       </c>
-      <c r="G5" s="48">
+      <c r="G5" s="48"/>
+      <c r="H5" s="183" t="s">
+        <v>346</v>
+      </c>
+      <c r="I5" s="94"/>
+      <c r="J5" s="186" t="s">
+        <v>346</v>
+      </c>
+      <c r="K5" s="189" t="s">
+        <v>528</v>
+      </c>
+      <c r="L5" s="48">
         <v>1</v>
       </c>
-      <c r="H5" s="48">
+      <c r="M5" s="48">
         <v>0</v>
       </c>
-      <c r="I5" s="48">
+      <c r="N5" s="48">
         <v>0</v>
-      </c>
-      <c r="J5" s="48"/>
-      <c r="K5" s="183" t="s">
-        <v>346</v>
-      </c>
-      <c r="L5" s="94"/>
-      <c r="M5" s="186" t="s">
-        <v>346</v>
-      </c>
-      <c r="N5" s="192" t="s">
-        <v>528</v>
       </c>
       <c r="O5" s="91"/>
       <c r="P5" s="67">
@@ -13718,25 +13738,25 @@
       <c r="E6" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="F6" s="48" t="s">
+      <c r="F6" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="G6" s="48">
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="34" t="s">
+        <v>346</v>
+      </c>
+      <c r="J6" s="94"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="48">
         <v>11</v>
       </c>
-      <c r="H6" s="48">
+      <c r="M6" s="48">
         <v>2</v>
       </c>
-      <c r="I6" s="48">
+      <c r="N6" s="48">
         <v>0</v>
       </c>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="34" t="s">
-        <v>346</v>
-      </c>
-      <c r="M6" s="94"/>
-      <c r="N6" s="19"/>
       <c r="O6" s="91"/>
       <c r="P6" s="67">
         <v>57</v>
@@ -13768,25 +13788,25 @@
       <c r="E7" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="F7" s="48" t="s">
+      <c r="F7" s="183" t="s">
         <v>211</v>
       </c>
-      <c r="G7" s="48">
+      <c r="G7" s="48"/>
+      <c r="H7" s="183" t="s">
+        <v>346</v>
+      </c>
+      <c r="I7" s="94"/>
+      <c r="J7" s="94"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="48">
         <v>15</v>
       </c>
-      <c r="H7" s="48">
+      <c r="M7" s="48">
         <v>8</v>
       </c>
-      <c r="I7" s="48">
+      <c r="N7" s="48">
         <v>1</v>
       </c>
-      <c r="J7" s="48"/>
-      <c r="K7" s="183" t="s">
-        <v>346</v>
-      </c>
-      <c r="L7" s="94"/>
-      <c r="M7" s="94"/>
-      <c r="N7" s="19"/>
       <c r="O7" s="91"/>
       <c r="P7" s="48">
         <v>11</v>
@@ -13818,25 +13838,25 @@
       <c r="E8" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="F8" s="48" t="s">
+      <c r="F8" s="183" t="s">
         <v>512</v>
       </c>
-      <c r="G8" s="48">
+      <c r="G8" s="48"/>
+      <c r="H8" s="183" t="s">
+        <v>346</v>
+      </c>
+      <c r="I8" s="94"/>
+      <c r="J8" s="94"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="48">
         <v>11</v>
       </c>
-      <c r="H8" s="48">
+      <c r="M8" s="48">
         <v>8</v>
       </c>
-      <c r="I8" s="48">
+      <c r="N8" s="48">
         <v>0</v>
       </c>
-      <c r="J8" s="48"/>
-      <c r="K8" s="183" t="s">
-        <v>346</v>
-      </c>
-      <c r="L8" s="94"/>
-      <c r="M8" s="94"/>
-      <c r="N8" s="19"/>
       <c r="O8" s="91"/>
       <c r="P8" s="48">
         <v>22</v>
@@ -13868,25 +13888,25 @@
       <c r="E9" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="F9" s="48" t="s">
+      <c r="F9" s="183" t="s">
         <v>513</v>
       </c>
-      <c r="G9" s="48">
+      <c r="G9" s="48"/>
+      <c r="H9" s="183" t="s">
+        <v>346</v>
+      </c>
+      <c r="I9" s="94"/>
+      <c r="J9" s="94"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="48">
         <v>22</v>
       </c>
-      <c r="H9" s="48">
-        <v>19</v>
-      </c>
-      <c r="I9" s="48">
+      <c r="M9" s="48">
+        <v>20</v>
+      </c>
+      <c r="N9" s="48">
         <v>1</v>
       </c>
-      <c r="J9" s="48"/>
-      <c r="K9" s="183" t="s">
-        <v>346</v>
-      </c>
-      <c r="L9" s="94"/>
-      <c r="M9" s="94"/>
-      <c r="N9" s="19"/>
       <c r="O9" s="91"/>
       <c r="P9" s="48">
         <v>13</v>
@@ -13918,25 +13938,25 @@
       <c r="E10" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="F10" s="48" t="s">
+      <c r="F10" s="183" t="s">
         <v>212</v>
       </c>
-      <c r="G10" s="48">
+      <c r="G10" s="48"/>
+      <c r="H10" s="183" t="s">
+        <v>346</v>
+      </c>
+      <c r="I10" s="94"/>
+      <c r="J10" s="94"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="48">
         <v>19</v>
       </c>
-      <c r="H10" s="48">
+      <c r="M10" s="48">
         <v>15</v>
       </c>
-      <c r="I10" s="48">
+      <c r="N10" s="48">
         <v>0</v>
       </c>
-      <c r="J10" s="48"/>
-      <c r="K10" s="183" t="s">
-        <v>346</v>
-      </c>
-      <c r="L10" s="94"/>
-      <c r="M10" s="94"/>
-      <c r="N10" s="19"/>
       <c r="O10" s="91"/>
       <c r="P10" s="48">
         <v>43</v>
@@ -13968,25 +13988,25 @@
       <c r="E11" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="F11" s="48" t="s">
+      <c r="F11" s="183" t="s">
         <v>514</v>
       </c>
-      <c r="G11" s="48">
+      <c r="G11" s="48"/>
+      <c r="H11" s="183" t="s">
+        <v>346</v>
+      </c>
+      <c r="I11" s="94"/>
+      <c r="J11" s="94"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="2">
         <v>147</v>
       </c>
-      <c r="H11" s="48">
-        <v>103</v>
-      </c>
-      <c r="I11" s="48">
+      <c r="M11" s="48">
+        <v>105</v>
+      </c>
+      <c r="N11" s="48">
         <v>11</v>
       </c>
-      <c r="J11" s="48"/>
-      <c r="K11" s="183" t="s">
-        <v>346</v>
-      </c>
-      <c r="L11" s="94"/>
-      <c r="M11" s="94"/>
-      <c r="N11" s="19"/>
       <c r="O11" s="91"/>
       <c r="P11" s="48">
         <v>11</v>
@@ -14000,8 +14020,8 @@
       <c r="S11" s="183">
         <v>146</v>
       </c>
-      <c r="T11" s="203" t="s">
-        <v>559</v>
+      <c r="T11" s="200" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -14020,25 +14040,25 @@
       <c r="E12" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="F12" s="48" t="s">
+      <c r="F12" s="183" t="s">
         <v>515</v>
       </c>
-      <c r="G12" s="48">
+      <c r="G12" s="48"/>
+      <c r="H12" s="183" t="s">
+        <v>346</v>
+      </c>
+      <c r="I12" s="94"/>
+      <c r="J12" s="94"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="2">
         <v>56</v>
       </c>
-      <c r="H12" s="48">
-        <v>50</v>
-      </c>
-      <c r="I12" s="48">
+      <c r="M12" s="48">
+        <v>51</v>
+      </c>
+      <c r="N12" s="48">
         <v>1</v>
       </c>
-      <c r="J12" s="48"/>
-      <c r="K12" s="183" t="s">
-        <v>346</v>
-      </c>
-      <c r="L12" s="94"/>
-      <c r="M12" s="94"/>
-      <c r="N12" s="19"/>
       <c r="O12" s="91"/>
       <c r="P12" s="2">
         <v>37</v>
@@ -14070,25 +14090,25 @@
       <c r="E13" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="F13" s="48" t="s">
+      <c r="F13" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="G13" s="48">
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="34" t="s">
+        <v>346</v>
+      </c>
+      <c r="J13" s="94"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="2">
         <v>42</v>
       </c>
-      <c r="H13" s="48">
-        <v>34</v>
-      </c>
-      <c r="I13" s="48">
+      <c r="M13" s="48">
+        <v>39</v>
+      </c>
+      <c r="N13" s="48">
         <v>0</v>
       </c>
-      <c r="J13" s="48"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="34" t="s">
-        <v>346</v>
-      </c>
-      <c r="M13" s="94"/>
-      <c r="N13" s="19"/>
       <c r="O13" s="91"/>
       <c r="P13" s="48">
         <v>16</v>
@@ -14103,7 +14123,7 @@
         <v>41</v>
       </c>
       <c r="T13" s="66" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -14122,25 +14142,25 @@
       <c r="E14" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="F14" s="48" t="s">
+      <c r="F14" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="G14" s="48">
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="34" t="s">
+        <v>346</v>
+      </c>
+      <c r="J14" s="94"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="48">
         <v>5</v>
       </c>
-      <c r="H14" s="48">
+      <c r="M14" s="48">
         <v>4</v>
       </c>
-      <c r="I14" s="48">
+      <c r="N14" s="48">
         <v>0</v>
       </c>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="34" t="s">
-        <v>346</v>
-      </c>
-      <c r="M14" s="94"/>
-      <c r="N14" s="19"/>
       <c r="O14" s="91"/>
       <c r="P14" s="48">
         <v>14</v>
@@ -14172,25 +14192,25 @@
       <c r="E15" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="F15" s="48" t="s">
+      <c r="F15" s="183" t="s">
         <v>517</v>
       </c>
-      <c r="G15" s="48">
+      <c r="G15" s="48"/>
+      <c r="H15" s="183" t="s">
+        <v>346</v>
+      </c>
+      <c r="I15" s="94"/>
+      <c r="J15" s="94"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="48">
         <v>7</v>
       </c>
-      <c r="H15" s="48">
+      <c r="M15" s="48">
         <v>2</v>
       </c>
-      <c r="I15" s="48">
+      <c r="N15" s="48">
         <v>1</v>
       </c>
-      <c r="J15" s="48"/>
-      <c r="K15" s="183" t="s">
-        <v>346</v>
-      </c>
-      <c r="L15" s="94"/>
-      <c r="M15" s="94"/>
-      <c r="N15" s="19"/>
       <c r="O15" s="91"/>
       <c r="P15" s="48">
         <v>8</v>
@@ -14222,25 +14242,25 @@
       <c r="E16" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="F16" s="48" t="s">
+      <c r="F16" s="183" t="s">
         <v>215</v>
       </c>
-      <c r="G16" s="48">
+      <c r="G16" s="48"/>
+      <c r="H16" s="183" t="s">
+        <v>346</v>
+      </c>
+      <c r="I16" s="94"/>
+      <c r="J16" s="94"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="48">
         <v>5</v>
       </c>
-      <c r="H16" s="48">
+      <c r="M16" s="48">
         <v>3</v>
       </c>
-      <c r="I16" s="48">
+      <c r="N16" s="48">
         <v>0</v>
       </c>
-      <c r="J16" s="48"/>
-      <c r="K16" s="183" t="s">
-        <v>346</v>
-      </c>
-      <c r="L16" s="94"/>
-      <c r="M16" s="94"/>
-      <c r="N16" s="19"/>
       <c r="O16" s="91"/>
       <c r="P16" s="48">
         <v>27</v>
@@ -14272,25 +14292,25 @@
       <c r="E17" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="F17" s="48" t="s">
+      <c r="F17" s="183" t="s">
         <v>216</v>
       </c>
-      <c r="G17" s="48">
+      <c r="G17" s="48"/>
+      <c r="H17" s="183" t="s">
+        <v>346</v>
+      </c>
+      <c r="I17" s="94"/>
+      <c r="J17" s="94"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="48">
         <v>10</v>
       </c>
-      <c r="H17" s="48">
+      <c r="M17" s="48">
         <v>10</v>
       </c>
-      <c r="I17" s="48">
+      <c r="N17" s="48">
         <v>0</v>
       </c>
-      <c r="J17" s="48"/>
-      <c r="K17" s="183" t="s">
-        <v>346</v>
-      </c>
-      <c r="L17" s="94"/>
-      <c r="M17" s="94"/>
-      <c r="N17" s="19"/>
       <c r="O17" s="91"/>
       <c r="P17" s="48">
         <v>14</v>
@@ -14322,25 +14342,25 @@
       <c r="E18" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="F18" s="48" t="s">
+      <c r="F18" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="G18" s="48">
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="34" t="s">
+        <v>346</v>
+      </c>
+      <c r="J18" s="94"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="48">
         <v>8</v>
       </c>
-      <c r="H18" s="48">
-        <v>6</v>
-      </c>
-      <c r="I18" s="48">
+      <c r="M18" s="48">
+        <v>7</v>
+      </c>
+      <c r="N18" s="48">
         <v>1</v>
       </c>
-      <c r="J18" s="48"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="34" t="s">
-        <v>346</v>
-      </c>
-      <c r="M18" s="94"/>
-      <c r="N18" s="19"/>
       <c r="O18" s="91"/>
       <c r="P18" s="48">
         <v>8</v>
@@ -14372,25 +14392,25 @@
       <c r="E19" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="F19" s="48" t="s">
+      <c r="F19" s="183" t="s">
         <v>519</v>
       </c>
-      <c r="G19" s="48">
+      <c r="G19" s="48"/>
+      <c r="H19" s="183" t="s">
+        <v>346</v>
+      </c>
+      <c r="I19" s="94"/>
+      <c r="J19" s="94"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="48">
         <v>17</v>
       </c>
-      <c r="H19" s="48">
-        <v>12</v>
-      </c>
-      <c r="I19" s="48">
+      <c r="M19" s="48">
+        <v>14</v>
+      </c>
+      <c r="N19" s="48">
         <v>0</v>
       </c>
-      <c r="J19" s="48"/>
-      <c r="K19" s="183" t="s">
-        <v>346</v>
-      </c>
-      <c r="L19" s="94"/>
-      <c r="M19" s="94"/>
-      <c r="N19" s="19"/>
       <c r="O19" s="91"/>
       <c r="P19" s="48">
         <v>15</v>
@@ -14405,7 +14425,7 @@
         <v>17</v>
       </c>
       <c r="T19" s="66" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -14424,25 +14444,25 @@
       <c r="E20" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="F20" s="48" t="s">
+      <c r="F20" s="183" t="s">
         <v>520</v>
       </c>
-      <c r="G20" s="48">
+      <c r="G20" s="48"/>
+      <c r="H20" s="183" t="s">
+        <v>346</v>
+      </c>
+      <c r="I20" s="94"/>
+      <c r="J20" s="94"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="48">
         <v>8</v>
       </c>
-      <c r="H20" s="48">
+      <c r="M20" s="48">
         <v>8</v>
       </c>
-      <c r="I20" s="48">
+      <c r="N20" s="48">
         <v>0</v>
       </c>
-      <c r="J20" s="48"/>
-      <c r="K20" s="183" t="s">
-        <v>346</v>
-      </c>
-      <c r="L20" s="94"/>
-      <c r="M20" s="94"/>
-      <c r="N20" s="19"/>
       <c r="O20" s="91"/>
       <c r="P20" s="48">
         <v>18</v>
@@ -14474,25 +14494,25 @@
       <c r="E21" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="F21" s="48" t="s">
+      <c r="F21" s="183" t="s">
         <v>521</v>
       </c>
-      <c r="G21" s="48">
+      <c r="G21" s="48"/>
+      <c r="H21" s="183" t="s">
+        <v>346</v>
+      </c>
+      <c r="I21" s="94"/>
+      <c r="J21" s="94"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="48">
         <v>21</v>
       </c>
-      <c r="H21" s="48">
-        <v>15</v>
-      </c>
-      <c r="I21" s="48">
+      <c r="M21" s="48">
+        <v>17</v>
+      </c>
+      <c r="N21" s="48">
         <v>4</v>
       </c>
-      <c r="J21" s="48"/>
-      <c r="K21" s="183" t="s">
-        <v>346</v>
-      </c>
-      <c r="L21" s="94"/>
-      <c r="M21" s="94"/>
-      <c r="N21" s="19"/>
       <c r="O21" s="91"/>
       <c r="P21" s="48">
         <v>22</v>
@@ -14507,7 +14527,7 @@
         <v>21</v>
       </c>
       <c r="T21" s="66" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -14526,25 +14546,25 @@
       <c r="E22" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="F22" s="48" t="s">
+      <c r="F22" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="G22" s="48">
+      <c r="G22" s="48"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="34" t="s">
+        <v>346</v>
+      </c>
+      <c r="J22" s="94"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="48">
         <v>4</v>
       </c>
-      <c r="H22" s="48">
+      <c r="M22" s="48">
         <v>0</v>
       </c>
-      <c r="I22" s="48">
+      <c r="N22" s="48">
         <v>0</v>
       </c>
-      <c r="J22" s="48"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="34" t="s">
-        <v>346</v>
-      </c>
-      <c r="M22" s="94"/>
-      <c r="N22" s="19"/>
       <c r="O22" s="91"/>
       <c r="P22" s="48">
         <v>15</v>
@@ -14576,25 +14596,25 @@
       <c r="E23" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="F23" s="48" t="s">
+      <c r="F23" s="183" t="s">
         <v>523</v>
       </c>
-      <c r="G23" s="48">
+      <c r="G23" s="48"/>
+      <c r="H23" s="183" t="s">
+        <v>346</v>
+      </c>
+      <c r="I23" s="94"/>
+      <c r="J23" s="94"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="2">
         <v>95</v>
       </c>
-      <c r="H23" s="48">
+      <c r="M23" s="48">
         <v>80</v>
       </c>
-      <c r="I23" s="48">
+      <c r="N23" s="48">
         <v>0</v>
       </c>
-      <c r="J23" s="48"/>
-      <c r="K23" s="183" t="s">
-        <v>346</v>
-      </c>
-      <c r="L23" s="94"/>
-      <c r="M23" s="94"/>
-      <c r="N23" s="19"/>
       <c r="O23" s="91"/>
       <c r="P23" s="48">
         <v>11</v>
@@ -14609,7 +14629,7 @@
         <v>95</v>
       </c>
       <c r="T23" s="66" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -14628,25 +14648,25 @@
       <c r="E24" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="F24" s="48" t="s">
+      <c r="F24" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="G24" s="48">
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="34" t="s">
+        <v>346</v>
+      </c>
+      <c r="J24" s="94"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="48">
         <v>29</v>
       </c>
-      <c r="H24" s="48">
+      <c r="M24" s="48">
         <v>21</v>
       </c>
-      <c r="I24" s="48">
+      <c r="N24" s="48">
         <v>5</v>
       </c>
-      <c r="J24" s="48"/>
-      <c r="K24" s="48"/>
-      <c r="L24" s="34" t="s">
-        <v>346</v>
-      </c>
-      <c r="M24" s="94"/>
-      <c r="N24" s="19"/>
       <c r="O24" s="91"/>
       <c r="P24" s="48">
         <v>33</v>
@@ -14661,7 +14681,7 @@
         <v>29</v>
       </c>
       <c r="T24" s="66" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -14680,34 +14700,34 @@
       <c r="E25" s="18" t="s">
         <v>357</v>
       </c>
-      <c r="F25" s="190" t="s">
+      <c r="F25" s="29" t="s">
         <v>501</v>
       </c>
-      <c r="G25" s="29">
+      <c r="G25" s="191" t="s">
+        <v>545</v>
+      </c>
+      <c r="H25" s="85"/>
+      <c r="I25" s="85"/>
+      <c r="J25" s="74" t="s">
+        <v>346</v>
+      </c>
+      <c r="K25" s="19" t="s">
+        <v>568</v>
+      </c>
+      <c r="L25" s="29">
         <v>40</v>
       </c>
-      <c r="H25" s="29">
+      <c r="M25" s="29">
         <v>33</v>
       </c>
-      <c r="I25" s="29">
+      <c r="N25" s="29">
         <v>1</v>
       </c>
-      <c r="J25" s="194" t="s">
-        <v>547</v>
-      </c>
-      <c r="K25" s="85"/>
-      <c r="L25" s="85"/>
-      <c r="M25" s="74" t="s">
-        <v>346</v>
-      </c>
-      <c r="N25" s="19" t="s">
-        <v>531</v>
-      </c>
       <c r="O25" s="91"/>
-      <c r="P25" s="94" t="s">
+      <c r="P25" s="85" t="s">
         <v>510</v>
       </c>
-      <c r="Q25" s="200">
+      <c r="Q25" s="197">
         <v>0</v>
       </c>
     </row>
@@ -14727,27 +14747,27 @@
       <c r="E26" s="18" t="s">
         <v>361</v>
       </c>
-      <c r="F26" s="189" t="s">
+      <c r="F26" s="53" t="s">
         <v>470</v>
       </c>
-      <c r="G26" s="53">
+      <c r="G26" s="192" t="s">
+        <v>530</v>
+      </c>
+      <c r="H26" s="53"/>
+      <c r="I26" s="34" t="s">
+        <v>346</v>
+      </c>
+      <c r="J26" s="94"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="53">
         <v>8</v>
       </c>
-      <c r="H26" s="53">
+      <c r="M26" s="53">
         <v>5</v>
       </c>
-      <c r="I26" s="53">
+      <c r="N26" s="53">
         <v>1</v>
       </c>
-      <c r="J26" s="195" t="s">
-        <v>532</v>
-      </c>
-      <c r="K26" s="53"/>
-      <c r="L26" s="34" t="s">
-        <v>346</v>
-      </c>
-      <c r="M26" s="94"/>
-      <c r="N26" s="19"/>
       <c r="O26" s="91"/>
       <c r="P26" s="94">
         <v>12</v>
@@ -14772,28 +14792,28 @@
       <c r="E27" s="18" t="s">
         <v>365</v>
       </c>
-      <c r="F27" s="190" t="s">
+      <c r="F27" s="29" t="s">
         <v>471</v>
       </c>
-      <c r="G27" s="29">
+      <c r="G27" s="89" t="s">
+        <v>531</v>
+      </c>
+      <c r="H27" s="85"/>
+      <c r="I27" s="85"/>
+      <c r="J27" s="74" t="s">
+        <v>346</v>
+      </c>
+      <c r="K27" s="19" t="s">
+        <v>568</v>
+      </c>
+      <c r="L27" s="29">
         <v>1</v>
       </c>
-      <c r="H27" s="29">
+      <c r="M27" s="29">
         <v>0</v>
       </c>
-      <c r="I27" s="29">
+      <c r="N27" s="29">
         <v>0</v>
-      </c>
-      <c r="J27" s="89" t="s">
-        <v>533</v>
-      </c>
-      <c r="K27" s="85"/>
-      <c r="L27" s="85"/>
-      <c r="M27" s="74" t="s">
-        <v>346</v>
-      </c>
-      <c r="N27" s="19" t="s">
-        <v>531</v>
       </c>
       <c r="O27" s="91"/>
       <c r="P27" s="94">
@@ -14819,27 +14839,27 @@
       <c r="E28" s="18" t="s">
         <v>369</v>
       </c>
-      <c r="F28" s="189" t="s">
+      <c r="F28" s="53" t="s">
         <v>472</v>
       </c>
-      <c r="G28" s="53">
+      <c r="G28" s="192" t="s">
+        <v>532</v>
+      </c>
+      <c r="H28" s="53"/>
+      <c r="I28" s="34" t="s">
+        <v>346</v>
+      </c>
+      <c r="J28" s="94"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="53">
         <v>4</v>
       </c>
-      <c r="H28" s="53">
+      <c r="M28" s="53">
         <v>1</v>
       </c>
-      <c r="I28" s="53">
+      <c r="N28" s="53">
         <v>0</v>
       </c>
-      <c r="J28" s="195" t="s">
-        <v>534</v>
-      </c>
-      <c r="K28" s="53"/>
-      <c r="L28" s="34" t="s">
-        <v>346</v>
-      </c>
-      <c r="M28" s="94"/>
-      <c r="N28" s="19"/>
       <c r="O28" s="91"/>
       <c r="P28" s="94">
         <v>94</v>
@@ -14864,27 +14884,27 @@
       <c r="E29" s="18" t="s">
         <v>373</v>
       </c>
-      <c r="F29" s="190" t="s">
+      <c r="F29" s="184" t="s">
         <v>476</v>
       </c>
-      <c r="G29" s="29">
+      <c r="G29" s="191" t="s">
+        <v>561</v>
+      </c>
+      <c r="H29" s="184" t="s">
+        <v>346</v>
+      </c>
+      <c r="I29" s="94"/>
+      <c r="J29" s="94"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="29">
         <v>31</v>
       </c>
-      <c r="H29" s="29">
+      <c r="M29" s="29">
         <v>30</v>
       </c>
-      <c r="I29" s="29">
+      <c r="N29" s="29">
         <v>0</v>
       </c>
-      <c r="J29" s="194" t="s">
-        <v>565</v>
-      </c>
-      <c r="K29" s="184" t="s">
-        <v>346</v>
-      </c>
-      <c r="L29" s="94"/>
-      <c r="M29" s="94"/>
-      <c r="N29" s="19"/>
       <c r="O29" s="91"/>
       <c r="P29" s="94">
         <v>19</v>
@@ -14909,27 +14929,27 @@
       <c r="E30" s="18" t="s">
         <v>376</v>
       </c>
-      <c r="F30" s="190" t="s">
+      <c r="F30" s="29" t="s">
         <v>477</v>
       </c>
-      <c r="G30" s="29">
+      <c r="G30" s="193" t="s">
+        <v>533</v>
+      </c>
+      <c r="H30" s="94"/>
+      <c r="I30" s="34" t="s">
+        <v>346</v>
+      </c>
+      <c r="J30" s="94"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="29">
         <v>0</v>
       </c>
-      <c r="H30" s="29">
+      <c r="M30" s="29">
         <v>0</v>
       </c>
-      <c r="I30" s="29">
+      <c r="N30" s="29">
         <v>0</v>
       </c>
-      <c r="J30" s="196" t="s">
-        <v>535</v>
-      </c>
-      <c r="K30" s="94"/>
-      <c r="L30" s="34" t="s">
-        <v>346</v>
-      </c>
-      <c r="M30" s="94"/>
-      <c r="N30" s="19"/>
       <c r="O30" s="91"/>
       <c r="P30" s="94">
         <v>13</v>
@@ -14954,27 +14974,27 @@
       <c r="E31" s="18" t="s">
         <v>380</v>
       </c>
-      <c r="F31" s="190" t="s">
+      <c r="F31" s="29" t="s">
         <v>500</v>
       </c>
-      <c r="G31" s="29">
+      <c r="G31" s="191" t="s">
+        <v>534</v>
+      </c>
+      <c r="H31" s="29"/>
+      <c r="I31" s="34" t="s">
+        <v>346</v>
+      </c>
+      <c r="J31" s="94"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="29">
         <v>1</v>
       </c>
-      <c r="H31" s="29">
+      <c r="M31" s="29">
         <v>1</v>
       </c>
-      <c r="I31" s="29">
+      <c r="N31" s="29">
         <v>1</v>
       </c>
-      <c r="J31" s="194" t="s">
-        <v>536</v>
-      </c>
-      <c r="K31" s="29"/>
-      <c r="L31" s="34" t="s">
-        <v>346</v>
-      </c>
-      <c r="M31" s="94"/>
-      <c r="N31" s="19"/>
       <c r="O31" s="91"/>
       <c r="P31" s="94">
         <v>16</v>
@@ -14999,25 +15019,25 @@
       <c r="E32" s="18" t="s">
         <v>384</v>
       </c>
-      <c r="F32" s="190" t="s">
+      <c r="F32" s="184" t="s">
         <v>479</v>
       </c>
-      <c r="G32" s="29">
+      <c r="G32" s="191"/>
+      <c r="H32" s="184" t="s">
+        <v>346</v>
+      </c>
+      <c r="I32" s="94"/>
+      <c r="J32" s="94"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="29">
         <v>50</v>
       </c>
-      <c r="H32" s="29">
+      <c r="M32" s="29">
         <v>32</v>
       </c>
-      <c r="I32" s="29">
+      <c r="N32" s="29">
         <v>0</v>
       </c>
-      <c r="J32" s="194"/>
-      <c r="K32" s="184" t="s">
-        <v>346</v>
-      </c>
-      <c r="L32" s="94"/>
-      <c r="M32" s="94"/>
-      <c r="N32" s="19"/>
       <c r="O32" s="91"/>
       <c r="P32" s="94">
         <v>26</v>
@@ -15042,27 +15062,27 @@
       <c r="E33" s="18" t="s">
         <v>388</v>
       </c>
-      <c r="F33" s="190" t="s">
+      <c r="F33" s="184" t="s">
         <v>480</v>
       </c>
-      <c r="G33" s="29">
+      <c r="G33" s="191" t="s">
+        <v>562</v>
+      </c>
+      <c r="H33" s="184" t="s">
+        <v>346</v>
+      </c>
+      <c r="I33" s="94"/>
+      <c r="J33" s="94"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="29">
         <v>5</v>
       </c>
-      <c r="H33" s="29">
+      <c r="M33" s="29">
         <v>4</v>
       </c>
-      <c r="I33" s="29">
+      <c r="N33" s="29">
         <v>1</v>
       </c>
-      <c r="J33" s="194" t="s">
-        <v>566</v>
-      </c>
-      <c r="K33" s="184" t="s">
-        <v>346</v>
-      </c>
-      <c r="L33" s="94"/>
-      <c r="M33" s="94"/>
-      <c r="N33" s="19"/>
       <c r="O33" s="91"/>
       <c r="P33" s="94">
         <v>21</v>
@@ -15087,30 +15107,30 @@
       <c r="E34" s="18" t="s">
         <v>392</v>
       </c>
-      <c r="F34" s="190" t="s">
+      <c r="F34" s="184" t="s">
         <v>499</v>
       </c>
-      <c r="G34" s="29">
+      <c r="G34" s="191" t="s">
+        <v>535</v>
+      </c>
+      <c r="H34" s="184" t="s">
+        <v>346</v>
+      </c>
+      <c r="I34" s="94"/>
+      <c r="J34" s="185" t="s">
+        <v>346</v>
+      </c>
+      <c r="K34" s="189" t="s">
+        <v>528</v>
+      </c>
+      <c r="L34" s="29">
         <v>55</v>
       </c>
-      <c r="H34" s="29">
+      <c r="M34" s="29">
         <v>51</v>
       </c>
-      <c r="I34" s="29">
+      <c r="N34" s="29">
         <v>4</v>
-      </c>
-      <c r="J34" s="194" t="s">
-        <v>537</v>
-      </c>
-      <c r="K34" s="184" t="s">
-        <v>346</v>
-      </c>
-      <c r="L34" s="94"/>
-      <c r="M34" s="185" t="s">
-        <v>346</v>
-      </c>
-      <c r="N34" s="192" t="s">
-        <v>528</v>
       </c>
       <c r="O34" s="91"/>
       <c r="P34" s="94">
@@ -15136,27 +15156,27 @@
       <c r="E35" s="18" t="s">
         <v>396</v>
       </c>
-      <c r="F35" s="190" t="s">
+      <c r="F35" s="29" t="s">
         <v>481</v>
       </c>
-      <c r="G35" s="29">
+      <c r="G35" s="193" t="s">
+        <v>536</v>
+      </c>
+      <c r="H35" s="94"/>
+      <c r="I35" s="34" t="s">
+        <v>346</v>
+      </c>
+      <c r="J35" s="94"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="29">
         <v>4</v>
       </c>
-      <c r="H35" s="29">
+      <c r="M35" s="29">
         <v>1</v>
       </c>
-      <c r="I35" s="29">
+      <c r="N35" s="29">
         <v>1</v>
       </c>
-      <c r="J35" s="196" t="s">
-        <v>538</v>
-      </c>
-      <c r="K35" s="94"/>
-      <c r="L35" s="34" t="s">
-        <v>346</v>
-      </c>
-      <c r="M35" s="94"/>
-      <c r="N35" s="19"/>
       <c r="O35" s="91"/>
       <c r="P35" s="94">
         <v>18</v>
@@ -15181,27 +15201,27 @@
       <c r="E36" s="18" t="s">
         <v>401</v>
       </c>
-      <c r="F36" s="190" t="s">
+      <c r="F36" s="184" t="s">
         <v>482</v>
       </c>
-      <c r="G36" s="29">
+      <c r="G36" s="193" t="s">
+        <v>537</v>
+      </c>
+      <c r="H36" s="184" t="s">
+        <v>346</v>
+      </c>
+      <c r="I36" s="94"/>
+      <c r="J36" s="94"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="29">
         <v>5</v>
       </c>
-      <c r="H36" s="29">
+      <c r="M36" s="29">
         <v>4</v>
       </c>
-      <c r="I36" s="29">
+      <c r="N36" s="29">
         <v>1</v>
       </c>
-      <c r="J36" s="196" t="s">
-        <v>539</v>
-      </c>
-      <c r="K36" s="184" t="s">
-        <v>346</v>
-      </c>
-      <c r="L36" s="94"/>
-      <c r="M36" s="94"/>
-      <c r="N36" s="19"/>
       <c r="O36" s="91"/>
       <c r="P36" s="94">
         <v>45</v>
@@ -15226,27 +15246,27 @@
       <c r="E37" s="18" t="s">
         <v>401</v>
       </c>
-      <c r="F37" s="190" t="s">
+      <c r="F37" s="184" t="s">
         <v>483</v>
       </c>
-      <c r="G37" s="29">
+      <c r="G37" s="193" t="s">
+        <v>544</v>
+      </c>
+      <c r="H37" s="184" t="s">
+        <v>346</v>
+      </c>
+      <c r="I37" s="94"/>
+      <c r="J37" s="94"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="29">
         <v>3</v>
       </c>
-      <c r="H37" s="29">
+      <c r="M37" s="29">
         <v>2</v>
       </c>
-      <c r="I37" s="29">
+      <c r="N37" s="29">
         <v>0</v>
       </c>
-      <c r="J37" s="196" t="s">
-        <v>546</v>
-      </c>
-      <c r="K37" s="184" t="s">
-        <v>346</v>
-      </c>
-      <c r="L37" s="94"/>
-      <c r="M37" s="94"/>
-      <c r="N37" s="19"/>
       <c r="O37" s="91"/>
       <c r="P37" s="94">
         <v>28</v>
@@ -15271,27 +15291,27 @@
       <c r="E38" s="18" t="s">
         <v>408</v>
       </c>
-      <c r="F38" s="190" t="s">
+      <c r="F38" s="184" t="s">
         <v>484</v>
       </c>
-      <c r="G38" s="29">
+      <c r="G38" s="193" t="s">
+        <v>563</v>
+      </c>
+      <c r="H38" s="184" t="s">
+        <v>346</v>
+      </c>
+      <c r="I38" s="94"/>
+      <c r="J38" s="94"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="29">
         <v>14</v>
       </c>
-      <c r="H38" s="29">
+      <c r="M38" s="29">
         <v>15</v>
       </c>
-      <c r="I38" s="29">
+      <c r="N38" s="29">
         <v>3</v>
       </c>
-      <c r="J38" s="196" t="s">
-        <v>567</v>
-      </c>
-      <c r="K38" s="184" t="s">
-        <v>346</v>
-      </c>
-      <c r="L38" s="94"/>
-      <c r="M38" s="94"/>
-      <c r="N38" s="19"/>
       <c r="O38" s="91"/>
       <c r="P38" s="94">
         <v>14</v>
@@ -15316,25 +15336,25 @@
       <c r="E39" s="18" t="s">
         <v>412</v>
       </c>
-      <c r="F39" s="190" t="s">
+      <c r="F39" s="184" t="s">
         <v>498</v>
       </c>
-      <c r="G39" s="29">
+      <c r="G39" s="191"/>
+      <c r="H39" s="184" t="s">
+        <v>346</v>
+      </c>
+      <c r="I39" s="94"/>
+      <c r="J39" s="94"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="29">
         <v>1</v>
       </c>
-      <c r="H39" s="29">
+      <c r="M39" s="29">
         <v>2</v>
       </c>
-      <c r="I39" s="29">
+      <c r="N39" s="29">
         <v>2</v>
       </c>
-      <c r="J39" s="194"/>
-      <c r="K39" s="184" t="s">
-        <v>346</v>
-      </c>
-      <c r="L39" s="94"/>
-      <c r="M39" s="94"/>
-      <c r="N39" s="19"/>
       <c r="O39" s="91"/>
       <c r="P39" s="94">
         <v>5</v>
@@ -15359,27 +15379,27 @@
       <c r="E40" s="18" t="s">
         <v>420</v>
       </c>
-      <c r="F40" s="190" t="s">
+      <c r="F40" s="184" t="s">
         <v>485</v>
       </c>
-      <c r="G40" s="29">
+      <c r="G40" s="193" t="s">
+        <v>546</v>
+      </c>
+      <c r="H40" s="184" t="s">
+        <v>346</v>
+      </c>
+      <c r="I40" s="94"/>
+      <c r="J40" s="94"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="29">
         <v>58</v>
       </c>
-      <c r="H40" s="29">
+      <c r="M40" s="29">
         <v>39</v>
       </c>
-      <c r="I40" s="29">
+      <c r="N40" s="29">
         <v>5</v>
       </c>
-      <c r="J40" s="196" t="s">
-        <v>548</v>
-      </c>
-      <c r="K40" s="184" t="s">
-        <v>346</v>
-      </c>
-      <c r="L40" s="94"/>
-      <c r="M40" s="94"/>
-      <c r="N40" s="19"/>
       <c r="O40" s="91"/>
       <c r="P40" s="94">
         <v>15</v>
@@ -15404,30 +15424,30 @@
       <c r="E41" s="18" t="s">
         <v>418</v>
       </c>
-      <c r="F41" s="190" t="s">
+      <c r="F41" s="184" t="s">
         <v>497</v>
       </c>
-      <c r="G41" s="29">
+      <c r="G41" s="191" t="s">
+        <v>538</v>
+      </c>
+      <c r="H41" s="184" t="s">
+        <v>346</v>
+      </c>
+      <c r="I41" s="94"/>
+      <c r="J41" s="185" t="s">
+        <v>346</v>
+      </c>
+      <c r="K41" s="189" t="s">
+        <v>527</v>
+      </c>
+      <c r="L41" s="29">
         <v>1</v>
       </c>
-      <c r="H41" s="29">
+      <c r="M41" s="29">
         <v>0</v>
       </c>
-      <c r="I41" s="29">
+      <c r="N41" s="29">
         <v>0</v>
-      </c>
-      <c r="J41" s="194" t="s">
-        <v>540</v>
-      </c>
-      <c r="K41" s="184" t="s">
-        <v>346</v>
-      </c>
-      <c r="L41" s="94"/>
-      <c r="M41" s="185" t="s">
-        <v>346</v>
-      </c>
-      <c r="N41" s="192" t="s">
-        <v>527</v>
       </c>
       <c r="O41" s="91"/>
       <c r="P41" s="94">
@@ -15453,27 +15473,27 @@
       <c r="E42" s="18" t="s">
         <v>424</v>
       </c>
-      <c r="F42" s="190" t="s">
+      <c r="F42" s="184" t="s">
         <v>506</v>
       </c>
-      <c r="G42" s="29">
+      <c r="G42" s="193" t="s">
+        <v>539</v>
+      </c>
+      <c r="H42" s="184" t="s">
+        <v>346</v>
+      </c>
+      <c r="I42" s="94"/>
+      <c r="J42" s="94"/>
+      <c r="K42" s="19"/>
+      <c r="L42" s="29">
         <v>17</v>
       </c>
-      <c r="H42" s="29">
+      <c r="M42" s="29">
         <v>10</v>
       </c>
-      <c r="I42" s="29">
+      <c r="N42" s="29">
         <v>2</v>
       </c>
-      <c r="J42" s="196" t="s">
-        <v>541</v>
-      </c>
-      <c r="K42" s="184" t="s">
-        <v>346</v>
-      </c>
-      <c r="L42" s="94"/>
-      <c r="M42" s="94"/>
-      <c r="N42" s="19"/>
       <c r="O42" s="91"/>
       <c r="P42" s="94">
         <v>31</v>
@@ -15498,27 +15518,27 @@
       <c r="E43" s="18" t="s">
         <v>424</v>
       </c>
-      <c r="F43" s="191" t="s">
+      <c r="F43" s="98" t="s">
         <v>496</v>
       </c>
-      <c r="G43" s="198">
+      <c r="G43" s="194" t="s">
+        <v>540</v>
+      </c>
+      <c r="H43" s="98"/>
+      <c r="I43" s="34" t="s">
+        <v>346</v>
+      </c>
+      <c r="J43" s="94"/>
+      <c r="K43" s="19"/>
+      <c r="L43" s="195">
         <v>6</v>
       </c>
-      <c r="H43" s="98">
+      <c r="M43" s="98">
         <v>1</v>
       </c>
-      <c r="I43" s="98">
+      <c r="N43" s="98">
         <v>1</v>
       </c>
-      <c r="J43" s="197" t="s">
-        <v>542</v>
-      </c>
-      <c r="K43" s="98"/>
-      <c r="L43" s="34" t="s">
-        <v>346</v>
-      </c>
-      <c r="M43" s="94"/>
-      <c r="N43" s="19"/>
       <c r="O43" s="91"/>
       <c r="P43" s="94">
         <v>15</v>
@@ -15543,25 +15563,25 @@
       <c r="E44" s="18" t="s">
         <v>430</v>
       </c>
-      <c r="F44" s="190" t="s">
+      <c r="F44" s="184" t="s">
         <v>486</v>
       </c>
-      <c r="G44" s="193">
+      <c r="G44" s="6"/>
+      <c r="H44" s="184" t="s">
+        <v>346</v>
+      </c>
+      <c r="I44" s="94"/>
+      <c r="J44" s="94"/>
+      <c r="K44" s="19"/>
+      <c r="L44" s="190">
         <v>69</v>
       </c>
-      <c r="H44" s="29">
+      <c r="M44" s="29">
         <v>51</v>
       </c>
-      <c r="I44" s="29">
+      <c r="N44" s="29">
         <v>5</v>
       </c>
-      <c r="J44" s="6"/>
-      <c r="K44" s="184" t="s">
-        <v>346</v>
-      </c>
-      <c r="L44" s="94"/>
-      <c r="M44" s="94"/>
-      <c r="N44" s="19"/>
       <c r="O44" s="91"/>
       <c r="P44" s="94">
         <v>7</v>
@@ -15586,27 +15606,27 @@
       <c r="E45" s="18" t="s">
         <v>434</v>
       </c>
-      <c r="F45" s="190" t="s">
+      <c r="F45" s="29" t="s">
         <v>487</v>
       </c>
-      <c r="G45" s="29">
+      <c r="G45" s="193" t="s">
+        <v>541</v>
+      </c>
+      <c r="H45" s="94"/>
+      <c r="I45" s="34" t="s">
+        <v>346</v>
+      </c>
+      <c r="J45" s="94"/>
+      <c r="K45" s="19"/>
+      <c r="L45" s="29">
         <v>17</v>
       </c>
-      <c r="H45" s="29">
+      <c r="M45" s="29">
         <v>10</v>
       </c>
-      <c r="I45" s="29">
+      <c r="N45" s="29">
         <v>2</v>
       </c>
-      <c r="J45" s="196" t="s">
-        <v>543</v>
-      </c>
-      <c r="K45" s="94"/>
-      <c r="L45" s="34" t="s">
-        <v>346</v>
-      </c>
-      <c r="M45" s="94"/>
-      <c r="N45" s="19"/>
       <c r="O45" s="91"/>
       <c r="P45" s="94">
         <v>7</v>
@@ -15631,27 +15651,27 @@
       <c r="E46" s="18" t="s">
         <v>438</v>
       </c>
-      <c r="F46" s="190" t="s">
+      <c r="F46" s="29" t="s">
         <v>495</v>
       </c>
-      <c r="G46" s="29">
+      <c r="G46" s="191" t="s">
+        <v>548</v>
+      </c>
+      <c r="H46" s="29"/>
+      <c r="I46" s="34" t="s">
+        <v>346</v>
+      </c>
+      <c r="J46" s="94"/>
+      <c r="K46" s="19"/>
+      <c r="L46" s="29">
         <v>15</v>
       </c>
-      <c r="H46" s="29">
+      <c r="M46" s="29">
         <v>14</v>
       </c>
-      <c r="I46" s="29">
+      <c r="N46" s="29">
         <v>2</v>
       </c>
-      <c r="J46" s="194" t="s">
-        <v>550</v>
-      </c>
-      <c r="K46" s="29"/>
-      <c r="L46" s="34" t="s">
-        <v>346</v>
-      </c>
-      <c r="M46" s="94"/>
-      <c r="N46" s="19"/>
       <c r="O46" s="91"/>
       <c r="P46" s="94">
         <v>14</v>
@@ -15676,27 +15696,27 @@
       <c r="E47" s="18" t="s">
         <v>441</v>
       </c>
-      <c r="F47" s="190" t="s">
+      <c r="F47" s="29" t="s">
         <v>494</v>
       </c>
-      <c r="G47" s="29">
+      <c r="G47" s="191" t="s">
+        <v>533</v>
+      </c>
+      <c r="H47" s="29"/>
+      <c r="I47" s="34" t="s">
+        <v>346</v>
+      </c>
+      <c r="J47" s="94"/>
+      <c r="K47" s="19"/>
+      <c r="L47" s="29">
         <v>0</v>
       </c>
-      <c r="H47" s="29">
+      <c r="M47" s="29">
         <v>0</v>
       </c>
-      <c r="I47" s="29">
+      <c r="N47" s="29">
         <v>0</v>
       </c>
-      <c r="J47" s="194" t="s">
-        <v>535</v>
-      </c>
-      <c r="K47" s="29"/>
-      <c r="L47" s="34" t="s">
-        <v>346</v>
-      </c>
-      <c r="M47" s="94"/>
-      <c r="N47" s="19"/>
       <c r="O47" s="91"/>
       <c r="P47" s="94">
         <v>27</v>
@@ -15721,28 +15741,28 @@
       <c r="E48" s="18" t="s">
         <v>408</v>
       </c>
-      <c r="F48" s="190" t="s">
+      <c r="F48" s="29" t="s">
         <v>488</v>
       </c>
-      <c r="G48" s="29">
+      <c r="G48" s="193" t="s">
+        <v>544</v>
+      </c>
+      <c r="H48" s="85"/>
+      <c r="I48" s="85"/>
+      <c r="J48" s="85" t="s">
+        <v>346</v>
+      </c>
+      <c r="K48" s="19" t="s">
+        <v>568</v>
+      </c>
+      <c r="L48" s="29">
         <v>11</v>
       </c>
-      <c r="H48" s="29">
+      <c r="M48" s="29">
         <v>10</v>
       </c>
-      <c r="I48" s="29">
+      <c r="N48" s="29">
         <v>2</v>
-      </c>
-      <c r="J48" s="196" t="s">
-        <v>546</v>
-      </c>
-      <c r="K48" s="85"/>
-      <c r="L48" s="85"/>
-      <c r="M48" s="53" t="s">
-        <v>346</v>
-      </c>
-      <c r="N48" s="19" t="s">
-        <v>531</v>
       </c>
       <c r="O48" s="91"/>
       <c r="P48" s="94">
@@ -15768,27 +15788,27 @@
       <c r="E49" s="18" t="s">
         <v>448</v>
       </c>
-      <c r="F49" s="190" t="s">
+      <c r="F49" s="29" t="s">
         <v>489</v>
       </c>
-      <c r="G49" s="29">
+      <c r="G49" s="191" t="s">
+        <v>542</v>
+      </c>
+      <c r="H49" s="29"/>
+      <c r="I49" s="34" t="s">
+        <v>346</v>
+      </c>
+      <c r="J49" s="94"/>
+      <c r="K49" s="19"/>
+      <c r="L49" s="29">
         <v>4</v>
       </c>
-      <c r="H49" s="29">
+      <c r="M49" s="29">
         <v>3</v>
       </c>
-      <c r="I49" s="29">
+      <c r="N49" s="29">
         <v>0</v>
       </c>
-      <c r="J49" s="194" t="s">
-        <v>544</v>
-      </c>
-      <c r="K49" s="29"/>
-      <c r="L49" s="34" t="s">
-        <v>346</v>
-      </c>
-      <c r="M49" s="94"/>
-      <c r="N49" s="19"/>
       <c r="O49" s="91"/>
       <c r="P49" s="94">
         <v>19</v>
@@ -15813,27 +15833,27 @@
       <c r="E50" s="18" t="s">
         <v>455</v>
       </c>
-      <c r="F50" s="190" t="s">
+      <c r="F50" s="184" t="s">
         <v>490</v>
       </c>
-      <c r="G50" s="29">
+      <c r="G50" s="191" t="s">
+        <v>534</v>
+      </c>
+      <c r="H50" s="184" t="s">
+        <v>346</v>
+      </c>
+      <c r="I50" s="94"/>
+      <c r="J50" s="94"/>
+      <c r="K50" s="19"/>
+      <c r="L50" s="29">
         <v>1</v>
       </c>
-      <c r="H50" s="29">
+      <c r="M50" s="29">
         <v>1</v>
       </c>
-      <c r="I50" s="29">
+      <c r="N50" s="29">
         <v>0</v>
       </c>
-      <c r="J50" s="194" t="s">
-        <v>536</v>
-      </c>
-      <c r="K50" s="184" t="s">
-        <v>346</v>
-      </c>
-      <c r="L50" s="94"/>
-      <c r="M50" s="94"/>
-      <c r="N50" s="19"/>
       <c r="O50" s="91"/>
       <c r="P50" s="94">
         <v>13</v>
@@ -15858,25 +15878,25 @@
       <c r="E51" s="18" t="s">
         <v>457</v>
       </c>
-      <c r="F51" s="190" t="s">
+      <c r="F51" s="184" t="s">
         <v>493</v>
       </c>
-      <c r="G51" s="29">
+      <c r="G51" s="191"/>
+      <c r="H51" s="184" t="s">
+        <v>346</v>
+      </c>
+      <c r="I51" s="94"/>
+      <c r="J51" s="94"/>
+      <c r="K51" s="19"/>
+      <c r="L51" s="29">
         <v>5</v>
       </c>
-      <c r="H51" s="29">
+      <c r="M51" s="29">
         <v>4</v>
       </c>
-      <c r="I51" s="29">
+      <c r="N51" s="29">
         <v>2</v>
       </c>
-      <c r="J51" s="194"/>
-      <c r="K51" s="184" t="s">
-        <v>346</v>
-      </c>
-      <c r="L51" s="94"/>
-      <c r="M51" s="94"/>
-      <c r="N51" s="19"/>
       <c r="O51" s="91"/>
       <c r="P51" s="94">
         <v>8</v>
@@ -15901,23 +15921,27 @@
       <c r="E52" s="18" t="s">
         <v>460</v>
       </c>
-      <c r="F52" s="85" t="s">
+      <c r="F52" s="29" t="s">
         <v>491</v>
       </c>
-      <c r="G52" s="29">
+      <c r="G52" s="191" t="s">
+        <v>543</v>
+      </c>
+      <c r="H52" s="29"/>
+      <c r="I52" s="34" t="s">
+        <v>346</v>
+      </c>
+      <c r="J52" s="94"/>
+      <c r="K52" s="19"/>
+      <c r="L52" s="29">
         <v>84</v>
       </c>
-      <c r="H52" s="85"/>
-      <c r="I52" s="29"/>
-      <c r="J52" s="194" t="s">
-        <v>545</v>
-      </c>
-      <c r="K52" s="29"/>
-      <c r="L52" s="34" t="s">
-        <v>346</v>
-      </c>
-      <c r="M52" s="94"/>
-      <c r="N52" s="19"/>
+      <c r="M52" s="29">
+        <v>66</v>
+      </c>
+      <c r="N52" s="29">
+        <v>2</v>
+      </c>
       <c r="O52" s="91"/>
       <c r="P52" s="94">
         <v>13</v>
@@ -15942,27 +15966,27 @@
       <c r="E53" s="18" t="s">
         <v>420</v>
       </c>
-      <c r="F53" s="190" t="s">
+      <c r="F53" s="184" t="s">
         <v>492</v>
       </c>
-      <c r="G53" s="29">
+      <c r="G53" s="191" t="s">
+        <v>547</v>
+      </c>
+      <c r="H53" s="184" t="s">
+        <v>346</v>
+      </c>
+      <c r="I53" s="94"/>
+      <c r="J53" s="94"/>
+      <c r="K53" s="19"/>
+      <c r="L53" s="29">
         <v>37</v>
       </c>
-      <c r="H53" s="29">
+      <c r="M53" s="29">
         <v>28</v>
       </c>
-      <c r="I53" s="29">
+      <c r="N53" s="29">
         <v>4</v>
       </c>
-      <c r="J53" s="194" t="s">
-        <v>549</v>
-      </c>
-      <c r="K53" s="184" t="s">
-        <v>346</v>
-      </c>
-      <c r="L53" s="94"/>
-      <c r="M53" s="94"/>
-      <c r="N53" s="19"/>
       <c r="O53" s="91"/>
       <c r="P53" s="94">
         <v>10</v>
@@ -15972,7 +15996,11 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:Q1"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -15996,43 +16024,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="220" t="s">
+      <c r="A1" s="226" t="s">
         <v>230</v>
       </c>
-      <c r="B1" s="221"/>
-      <c r="C1" s="221"/>
-      <c r="D1" s="221"/>
-      <c r="E1" s="221"/>
-      <c r="F1" s="221"/>
-      <c r="G1" s="221"/>
-      <c r="H1" s="221"/>
-      <c r="I1" s="221"/>
+      <c r="B1" s="227"/>
+      <c r="C1" s="227"/>
+      <c r="D1" s="227"/>
+      <c r="E1" s="227"/>
+      <c r="F1" s="227"/>
+      <c r="G1" s="227"/>
+      <c r="H1" s="227"/>
+      <c r="I1" s="227"/>
     </row>
     <row r="2" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="223" t="s">
+      <c r="A2" s="225" t="s">
         <v>229</v>
       </c>
-      <c r="B2" s="223"/>
-      <c r="C2" s="223"/>
-      <c r="D2" s="223"/>
-      <c r="E2" s="223"/>
-      <c r="F2" s="223"/>
-      <c r="G2" s="223"/>
-      <c r="H2" s="223"/>
-      <c r="I2" s="223"/>
+      <c r="B2" s="225"/>
+      <c r="C2" s="225"/>
+      <c r="D2" s="225"/>
+      <c r="E2" s="225"/>
+      <c r="F2" s="225"/>
+      <c r="G2" s="225"/>
+      <c r="H2" s="225"/>
+      <c r="I2" s="225"/>
     </row>
     <row r="3" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="224" t="s">
+      <c r="A3" s="218" t="s">
         <v>337</v>
       </c>
-      <c r="B3" s="224"/>
-      <c r="C3" s="224"/>
-      <c r="D3" s="224"/>
-      <c r="E3" s="224"/>
-      <c r="F3" s="224"/>
-      <c r="G3" s="224"/>
-      <c r="H3" s="224"/>
-      <c r="I3" s="224"/>
+      <c r="B3" s="218"/>
+      <c r="C3" s="218"/>
+      <c r="D3" s="218"/>
+      <c r="E3" s="218"/>
+      <c r="F3" s="218"/>
+      <c r="G3" s="218"/>
+      <c r="H3" s="218"/>
+      <c r="I3" s="218"/>
       <c r="J3" s="71"/>
       <c r="K3" s="71"/>
       <c r="L3" s="71"/>
@@ -16045,12 +16073,12 @@
       <c r="S3" s="71"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="222" t="s">
+      <c r="A4" s="228" t="s">
         <v>253</v>
       </c>
-      <c r="B4" s="222"/>
-      <c r="C4" s="222"/>
-      <c r="D4" s="222"/>
+      <c r="B4" s="228"/>
+      <c r="C4" s="228"/>
+      <c r="D4" s="228"/>
     </row>
     <row r="5" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="69" t="s">
@@ -16076,7 +16104,7 @@
       <c r="C6" s="49" t="s">
         <v>196</v>
       </c>
-      <c r="D6" s="233" t="s">
+      <c r="D6" s="222" t="s">
         <v>339</v>
       </c>
       <c r="E6" t="e">
@@ -16095,7 +16123,7 @@
       <c r="C7" s="49" t="s">
         <v>228</v>
       </c>
-      <c r="D7" s="234"/>
+      <c r="D7" s="223"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="78" t="s">
@@ -16107,7 +16135,7 @@
       <c r="C8" s="49" t="s">
         <v>235</v>
       </c>
-      <c r="D8" s="234"/>
+      <c r="D8" s="223"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="78" t="s">
@@ -16119,7 +16147,7 @@
       <c r="C9" s="49" t="s">
         <v>236</v>
       </c>
-      <c r="D9" s="234"/>
+      <c r="D9" s="223"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="78" t="s">
@@ -16131,7 +16159,7 @@
       <c r="C10" s="49" t="s">
         <v>237</v>
       </c>
-      <c r="D10" s="234"/>
+      <c r="D10" s="223"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="78" t="s">
@@ -16143,7 +16171,7 @@
       <c r="C11" s="49" t="s">
         <v>237</v>
       </c>
-      <c r="D11" s="234"/>
+      <c r="D11" s="223"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="78" t="s">
@@ -16155,7 +16183,7 @@
       <c r="C12" s="49" t="s">
         <v>266</v>
       </c>
-      <c r="D12" s="234"/>
+      <c r="D12" s="223"/>
     </row>
     <row r="13" spans="1:19" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="145" t="s">
@@ -16167,7 +16195,7 @@
       <c r="C13" s="136" t="s">
         <v>273</v>
       </c>
-      <c r="D13" s="235"/>
+      <c r="D13" s="224"/>
     </row>
     <row r="14" spans="1:19" s="77" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="146" t="s">
@@ -16184,30 +16212,30 @@
       </c>
     </row>
     <row r="15" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="223" t="s">
+      <c r="A15" s="225" t="s">
         <v>261</v>
       </c>
-      <c r="B15" s="223"/>
-      <c r="C15" s="223"/>
-      <c r="D15" s="223"/>
-      <c r="E15" s="223"/>
-      <c r="F15" s="223"/>
-      <c r="G15" s="223"/>
-      <c r="H15" s="223"/>
-      <c r="I15" s="223"/>
+      <c r="B15" s="225"/>
+      <c r="C15" s="225"/>
+      <c r="D15" s="225"/>
+      <c r="E15" s="225"/>
+      <c r="F15" s="225"/>
+      <c r="G15" s="225"/>
+      <c r="H15" s="225"/>
+      <c r="I15" s="225"/>
     </row>
     <row r="16" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="224" t="s">
+      <c r="A16" s="218" t="s">
         <v>238</v>
       </c>
-      <c r="B16" s="224"/>
-      <c r="C16" s="224"/>
-      <c r="D16" s="224"/>
-      <c r="E16" s="224"/>
-      <c r="F16" s="224"/>
-      <c r="G16" s="224"/>
-      <c r="H16" s="224"/>
-      <c r="I16" s="224"/>
+      <c r="B16" s="218"/>
+      <c r="C16" s="218"/>
+      <c r="D16" s="218"/>
+      <c r="E16" s="218"/>
+      <c r="F16" s="218"/>
+      <c r="G16" s="218"/>
+      <c r="H16" s="218"/>
+      <c r="I16" s="218"/>
       <c r="J16" s="71"/>
       <c r="K16" s="71"/>
       <c r="L16" s="71"/>
@@ -16220,14 +16248,14 @@
       <c r="S16" s="71"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="222" t="s">
+      <c r="A17" s="228" t="s">
         <v>259</v>
       </c>
-      <c r="B17" s="222"/>
-      <c r="C17" s="222"/>
-      <c r="D17" s="222"/>
-      <c r="E17" s="222"/>
-      <c r="F17" s="222"/>
+      <c r="B17" s="228"/>
+      <c r="C17" s="228"/>
+      <c r="D17" s="228"/>
+      <c r="E17" s="228"/>
+      <c r="F17" s="228"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="69" t="s">
@@ -16394,30 +16422,30 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="223" t="s">
+      <c r="A25" s="225" t="s">
         <v>260</v>
       </c>
-      <c r="B25" s="223"/>
-      <c r="C25" s="223"/>
-      <c r="D25" s="223"/>
-      <c r="E25" s="223"/>
-      <c r="F25" s="223"/>
-      <c r="G25" s="223"/>
-      <c r="H25" s="223"/>
-      <c r="I25" s="223"/>
+      <c r="B25" s="225"/>
+      <c r="C25" s="225"/>
+      <c r="D25" s="225"/>
+      <c r="E25" s="225"/>
+      <c r="F25" s="225"/>
+      <c r="G25" s="225"/>
+      <c r="H25" s="225"/>
+      <c r="I25" s="225"/>
     </row>
     <row r="26" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="224" t="s">
+      <c r="A26" s="218" t="s">
         <v>338</v>
       </c>
-      <c r="B26" s="224"/>
-      <c r="C26" s="224"/>
-      <c r="D26" s="224"/>
-      <c r="E26" s="224"/>
-      <c r="F26" s="224"/>
-      <c r="G26" s="224"/>
-      <c r="H26" s="224"/>
-      <c r="I26" s="224"/>
+      <c r="B26" s="218"/>
+      <c r="C26" s="218"/>
+      <c r="D26" s="218"/>
+      <c r="E26" s="218"/>
+      <c r="F26" s="218"/>
+      <c r="G26" s="218"/>
+      <c r="H26" s="218"/>
+      <c r="I26" s="218"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="69" t="s">
@@ -16429,12 +16457,12 @@
       <c r="C27" s="69" t="s">
         <v>201</v>
       </c>
-      <c r="D27" s="228" t="s">
+      <c r="D27" s="232" t="s">
         <v>292</v>
       </c>
-      <c r="E27" s="228"/>
-      <c r="F27" s="228"/>
-      <c r="G27" s="228"/>
+      <c r="E27" s="232"/>
+      <c r="F27" s="232"/>
+      <c r="G27" s="232"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="52" t="s">
@@ -16446,12 +16474,12 @@
       <c r="C28" s="72">
         <v>0.59</v>
       </c>
-      <c r="D28" s="230" t="s">
+      <c r="D28" s="219" t="s">
         <v>285</v>
       </c>
-      <c r="E28" s="231"/>
-      <c r="F28" s="231"/>
-      <c r="G28" s="232"/>
+      <c r="E28" s="220"/>
+      <c r="F28" s="220"/>
+      <c r="G28" s="221"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="52" t="s">
@@ -16463,12 +16491,12 @@
       <c r="C29" s="72">
         <v>0.77</v>
       </c>
-      <c r="D29" s="225" t="s">
+      <c r="D29" s="229" t="s">
         <v>286</v>
       </c>
-      <c r="E29" s="226"/>
-      <c r="F29" s="226"/>
-      <c r="G29" s="227"/>
+      <c r="E29" s="230"/>
+      <c r="F29" s="230"/>
+      <c r="G29" s="231"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="52" t="s">
@@ -16480,12 +16508,12 @@
       <c r="C30" s="72">
         <v>0.41</v>
       </c>
-      <c r="D30" s="225" t="s">
+      <c r="D30" s="229" t="s">
         <v>287</v>
       </c>
-      <c r="E30" s="226"/>
-      <c r="F30" s="226"/>
-      <c r="G30" s="227"/>
+      <c r="E30" s="230"/>
+      <c r="F30" s="230"/>
+      <c r="G30" s="231"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="52" t="s">
@@ -16497,12 +16525,12 @@
       <c r="C31" s="72">
         <v>0.59</v>
       </c>
-      <c r="D31" s="225" t="s">
+      <c r="D31" s="229" t="s">
         <v>289</v>
       </c>
-      <c r="E31" s="226"/>
-      <c r="F31" s="226"/>
-      <c r="G31" s="227"/>
+      <c r="E31" s="230"/>
+      <c r="F31" s="230"/>
+      <c r="G31" s="231"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="52" t="s">
@@ -16514,12 +16542,12 @@
       <c r="C32" s="72">
         <v>0.5</v>
       </c>
-      <c r="D32" s="225" t="s">
+      <c r="D32" s="229" t="s">
         <v>288</v>
       </c>
-      <c r="E32" s="226"/>
-      <c r="F32" s="226"/>
-      <c r="G32" s="227"/>
+      <c r="E32" s="230"/>
+      <c r="F32" s="230"/>
+      <c r="G32" s="231"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="52" t="s">
@@ -16531,12 +16559,12 @@
       <c r="C33" s="72">
         <v>0.59</v>
       </c>
-      <c r="D33" s="225" t="s">
+      <c r="D33" s="229" t="s">
         <v>290</v>
       </c>
-      <c r="E33" s="226"/>
-      <c r="F33" s="226"/>
-      <c r="G33" s="227"/>
+      <c r="E33" s="230"/>
+      <c r="F33" s="230"/>
+      <c r="G33" s="231"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="52" t="s">
@@ -16548,25 +16576,25 @@
       <c r="C34" s="72">
         <v>0.54</v>
       </c>
-      <c r="D34" s="225" t="s">
+      <c r="D34" s="229" t="s">
         <v>291</v>
       </c>
-      <c r="E34" s="226"/>
-      <c r="F34" s="226"/>
-      <c r="G34" s="227"/>
+      <c r="E34" s="230"/>
+      <c r="F34" s="230"/>
+      <c r="G34" s="231"/>
     </row>
     <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="223" t="s">
+      <c r="A36" s="225" t="s">
         <v>315</v>
       </c>
-      <c r="B36" s="223"/>
-      <c r="C36" s="223"/>
-      <c r="D36" s="223"/>
-      <c r="E36" s="223"/>
-      <c r="F36" s="223"/>
-      <c r="G36" s="223"/>
-      <c r="H36" s="223"/>
-      <c r="I36" s="223"/>
+      <c r="B36" s="225"/>
+      <c r="C36" s="225"/>
+      <c r="D36" s="225"/>
+      <c r="E36" s="225"/>
+      <c r="F36" s="225"/>
+      <c r="G36" s="225"/>
+      <c r="H36" s="225"/>
+      <c r="I36" s="225"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="87" t="s">
@@ -16633,12 +16661,12 @@
       </c>
     </row>
     <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="229" t="s">
+      <c r="A46" s="217" t="s">
         <v>318</v>
       </c>
-      <c r="B46" s="229"/>
-      <c r="C46" s="229"/>
-      <c r="D46" s="229"/>
+      <c r="B46" s="217"/>
+      <c r="C46" s="217"/>
+      <c r="D46" s="217"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="88" t="s">
@@ -16789,11 +16817,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D6:D13"/>
-    <mergeCell ref="A2:I2"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A25:I25"/>
@@ -16809,6 +16832,11 @@
     <mergeCell ref="D30:G30"/>
     <mergeCell ref="D31:G31"/>
     <mergeCell ref="D32:G32"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D6:D13"/>
+    <mergeCell ref="A2:I2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -16840,15 +16868,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="241" t="s">
+      <c r="A1" s="238" t="s">
         <v>347</v>
       </c>
-      <c r="B1" s="241"/>
-      <c r="C1" s="241"/>
-      <c r="D1" s="241"/>
-      <c r="E1" s="241"/>
-      <c r="F1" s="241"/>
-      <c r="G1" s="241"/>
+      <c r="B1" s="238"/>
+      <c r="C1" s="238"/>
+      <c r="D1" s="238"/>
+      <c r="E1" s="238"/>
+      <c r="F1" s="238"/>
+      <c r="G1" s="238"/>
     </row>
     <row r="2" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="158" t="s">
@@ -16872,11 +16900,11 @@
       <c r="G2" s="158" t="s">
         <v>344</v>
       </c>
-      <c r="I2" s="240" t="s">
+      <c r="I2" s="237" t="s">
         <v>197</v>
       </c>
-      <c r="J2" s="240"/>
-      <c r="K2" s="240"/>
+      <c r="J2" s="237"/>
+      <c r="K2" s="237"/>
     </row>
     <row r="3" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
@@ -17329,20 +17357,20 @@
       <c r="J22" s="115" t="s">
         <v>217</v>
       </c>
-      <c r="K22" s="242" t="s">
+      <c r="K22" s="239" t="s">
         <v>307</v>
       </c>
-      <c r="L22" s="242"/>
-      <c r="M22" s="242"/>
-      <c r="N22" s="242"/>
-      <c r="O22" s="242"/>
-      <c r="P22" s="242"/>
-      <c r="Q22" s="242"/>
-      <c r="R22" s="242"/>
-      <c r="S22" s="242"/>
-      <c r="T22" s="242"/>
-      <c r="U22" s="242"/>
-      <c r="V22" s="242"/>
+      <c r="L22" s="239"/>
+      <c r="M22" s="239"/>
+      <c r="N22" s="239"/>
+      <c r="O22" s="239"/>
+      <c r="P22" s="239"/>
+      <c r="Q22" s="239"/>
+      <c r="R22" s="239"/>
+      <c r="S22" s="239"/>
+      <c r="T22" s="239"/>
+      <c r="U22" s="239"/>
+      <c r="V22" s="239"/>
     </row>
     <row r="23" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="36" t="s">
@@ -17448,10 +17476,10 @@
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A29" s="244"/>
-      <c r="B29" s="245"/>
-      <c r="C29" s="245"/>
-      <c r="D29" s="246"/>
+      <c r="A29" s="241"/>
+      <c r="B29" s="242"/>
+      <c r="C29" s="242"/>
+      <c r="D29" s="243"/>
       <c r="I29" s="43" t="s">
         <v>187</v>
       </c>
@@ -17468,10 +17496,10 @@
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A31" s="247" t="s">
+      <c r="A31" s="244" t="s">
         <v>181</v>
       </c>
-      <c r="B31" s="248"/>
+      <c r="B31" s="245"/>
       <c r="C31" s="68"/>
       <c r="I31" s="43" t="s">
         <v>189</v>
@@ -17493,20 +17521,20 @@
       <c r="J32" s="116" t="s">
         <v>308</v>
       </c>
-      <c r="K32" s="243" t="s">
+      <c r="K32" s="240" t="s">
         <v>306</v>
       </c>
-      <c r="L32" s="243"/>
-      <c r="M32" s="243"/>
-      <c r="N32" s="243"/>
-      <c r="O32" s="243"/>
-      <c r="P32" s="243"/>
-      <c r="Q32" s="243"/>
-      <c r="R32" s="243"/>
-      <c r="S32" s="243"/>
-      <c r="T32" s="243"/>
-      <c r="U32" s="243"/>
-      <c r="V32" s="243"/>
+      <c r="L32" s="240"/>
+      <c r="M32" s="240"/>
+      <c r="N32" s="240"/>
+      <c r="O32" s="240"/>
+      <c r="P32" s="240"/>
+      <c r="Q32" s="240"/>
+      <c r="R32" s="240"/>
+      <c r="S32" s="240"/>
+      <c r="T32" s="240"/>
+      <c r="U32" s="240"/>
+      <c r="V32" s="240"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="84" t="s">
@@ -17539,10 +17567,10 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="236" t="s">
+      <c r="A35" s="233" t="s">
         <v>184</v>
       </c>
-      <c r="B35" s="238" t="s">
+      <c r="B35" s="235" t="s">
         <v>219</v>
       </c>
       <c r="D35" s="90"/>
@@ -17552,8 +17580,8 @@
       <c r="J35" s="41"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="237"/>
-      <c r="B36" s="239"/>
+      <c r="A36" s="234"/>
+      <c r="B36" s="236"/>
       <c r="D36" s="90"/>
       <c r="I36" s="105" t="s">
         <v>296</v>
@@ -17672,15 +17700,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="241" t="s">
+      <c r="A1" s="238" t="s">
         <v>347</v>
       </c>
-      <c r="B1" s="241"/>
-      <c r="C1" s="241"/>
-      <c r="D1" s="241"/>
-      <c r="E1" s="241"/>
-      <c r="F1" s="241"/>
-      <c r="G1" s="241"/>
+      <c r="B1" s="238"/>
+      <c r="C1" s="238"/>
+      <c r="D1" s="238"/>
+      <c r="E1" s="238"/>
+      <c r="F1" s="238"/>
+      <c r="G1" s="238"/>
     </row>
     <row r="2" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="158" t="s">
@@ -17704,11 +17732,11 @@
       <c r="G2" s="158" t="s">
         <v>344</v>
       </c>
-      <c r="I2" s="240" t="s">
+      <c r="I2" s="237" t="s">
         <v>197</v>
       </c>
-      <c r="J2" s="240"/>
-      <c r="K2" s="240"/>
+      <c r="J2" s="237"/>
+      <c r="K2" s="237"/>
       <c r="O2" s="170" t="s">
         <v>351</v>
       </c>
@@ -18209,20 +18237,20 @@
       <c r="J22" s="115" t="s">
         <v>217</v>
       </c>
-      <c r="K22" s="242" t="s">
+      <c r="K22" s="239" t="s">
         <v>307</v>
       </c>
-      <c r="L22" s="242"/>
-      <c r="M22" s="242"/>
-      <c r="N22" s="242"/>
-      <c r="O22" s="242"/>
-      <c r="P22" s="242"/>
-      <c r="Q22" s="242"/>
-      <c r="R22" s="242"/>
-      <c r="S22" s="242"/>
-      <c r="T22" s="242"/>
-      <c r="U22" s="242"/>
-      <c r="V22" s="242"/>
+      <c r="L22" s="239"/>
+      <c r="M22" s="239"/>
+      <c r="N22" s="239"/>
+      <c r="O22" s="239"/>
+      <c r="P22" s="239"/>
+      <c r="Q22" s="239"/>
+      <c r="R22" s="239"/>
+      <c r="S22" s="239"/>
+      <c r="T22" s="239"/>
+      <c r="U22" s="239"/>
+      <c r="V22" s="239"/>
     </row>
     <row r="23" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="36" t="s">
@@ -18328,10 +18356,10 @@
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A29" s="244"/>
-      <c r="B29" s="245"/>
-      <c r="C29" s="245"/>
-      <c r="D29" s="246"/>
+      <c r="A29" s="241"/>
+      <c r="B29" s="242"/>
+      <c r="C29" s="242"/>
+      <c r="D29" s="243"/>
       <c r="I29" s="43" t="s">
         <v>187</v>
       </c>
@@ -18348,10 +18376,10 @@
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A31" s="247" t="s">
+      <c r="A31" s="244" t="s">
         <v>181</v>
       </c>
-      <c r="B31" s="248"/>
+      <c r="B31" s="245"/>
       <c r="C31" s="68"/>
       <c r="I31" s="43" t="s">
         <v>189</v>
@@ -18373,20 +18401,20 @@
       <c r="J32" s="116" t="s">
         <v>308</v>
       </c>
-      <c r="K32" s="243" t="s">
+      <c r="K32" s="240" t="s">
         <v>306</v>
       </c>
-      <c r="L32" s="243"/>
-      <c r="M32" s="243"/>
-      <c r="N32" s="243"/>
-      <c r="O32" s="243"/>
-      <c r="P32" s="243"/>
-      <c r="Q32" s="243"/>
-      <c r="R32" s="243"/>
-      <c r="S32" s="243"/>
-      <c r="T32" s="243"/>
-      <c r="U32" s="243"/>
-      <c r="V32" s="243"/>
+      <c r="L32" s="240"/>
+      <c r="M32" s="240"/>
+      <c r="N32" s="240"/>
+      <c r="O32" s="240"/>
+      <c r="P32" s="240"/>
+      <c r="Q32" s="240"/>
+      <c r="R32" s="240"/>
+      <c r="S32" s="240"/>
+      <c r="T32" s="240"/>
+      <c r="U32" s="240"/>
+      <c r="V32" s="240"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="84" t="s">
@@ -18417,10 +18445,10 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="236" t="s">
+      <c r="A35" s="233" t="s">
         <v>184</v>
       </c>
-      <c r="B35" s="238" t="s">
+      <c r="B35" s="235" t="s">
         <v>219</v>
       </c>
       <c r="I35" s="43" t="s">
@@ -18429,8 +18457,8 @@
       <c r="J35" s="41"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="237"/>
-      <c r="B36" s="239"/>
+      <c r="A36" s="234"/>
+      <c r="B36" s="236"/>
       <c r="I36" s="105" t="s">
         <v>296</v>
       </c>
@@ -18532,18 +18560,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="249" t="s">
+      <c r="A1" s="246" t="s">
         <v>464</v>
       </c>
-      <c r="B1" s="249"/>
-      <c r="C1" s="249"/>
-      <c r="D1" s="249"/>
-      <c r="E1" s="249"/>
-      <c r="F1" s="249"/>
-      <c r="G1" s="249"/>
-      <c r="H1" s="249"/>
-      <c r="I1" s="249"/>
-      <c r="J1" s="249"/>
+      <c r="B1" s="246"/>
+      <c r="C1" s="246"/>
+      <c r="D1" s="246"/>
+      <c r="E1" s="246"/>
+      <c r="F1" s="246"/>
+      <c r="G1" s="246"/>
+      <c r="H1" s="246"/>
+      <c r="I1" s="246"/>
+      <c r="J1" s="246"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="173" t="s">

--- a/Experiment01_Resumo/Resumo_Exp01.xlsx
+++ b/Experiment01_Resumo/Resumo_Exp01.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1494" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1525" uniqueCount="577">
   <si>
     <t>Database search</t>
   </si>
@@ -1849,6 +1849,27 @@
   </si>
   <si>
     <t>Resumo dos 51 estudos - JF Tool, Selecionados no Final, Excluídos, BSB, FSB</t>
+  </si>
+  <si>
+    <t>SPRINGER</t>
+  </si>
+  <si>
+    <t>WEB OF SCIENCE</t>
+  </si>
+  <si>
+    <t>SCOPUS</t>
+  </si>
+  <si>
+    <t>International Symposium on Empirical Software Engineering, ISESE 2005</t>
+  </si>
+  <si>
+    <t>ENG VILLAGE (EL COMPENDEX)</t>
+  </si>
+  <si>
+    <t>Coluna Fonte do review.xls Aba Análise (Francisco)</t>
+  </si>
+  <si>
+    <t>Existe na lista de resultado da Scopus do review.xls Aba Scopus (Francisco)</t>
   </si>
 </sst>
 </file>
@@ -1947,7 +1968,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="24">
+  <fills count="28">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2083,6 +2104,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF99FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF3399"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2535,7 +2580,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="255">
+  <cellXfs count="264">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3055,6 +3100,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3103,12 +3175,39 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3127,30 +3226,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3213,9 +3288,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3227,10 +3299,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF3399"/>
       <color rgb="FFFFCCCC"/>
       <color rgb="FFFF99FF"/>
       <color rgb="FFFF6699"/>
-      <color rgb="FFFF3399"/>
       <color rgb="FFFF66FF"/>
     </mruColors>
   </colors>
@@ -3540,12 +3612,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="191324120"/>
-        <c:axId val="191324512"/>
+        <c:axId val="191930280"/>
+        <c:axId val="191933416"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="191324120"/>
+        <c:axId val="191930280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3637,7 +3709,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="191324512"/>
+        <c:crossAx val="191933416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3645,7 +3717,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="191324512"/>
+        <c:axId val="191933416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3696,7 +3768,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="191324120"/>
+        <c:crossAx val="191930280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4005,12 +4077,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="221061384"/>
-        <c:axId val="221061776"/>
+        <c:axId val="191934200"/>
+        <c:axId val="191930672"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="221061384"/>
+        <c:axId val="191934200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4099,7 +4171,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="221061776"/>
+        <c:crossAx val="191930672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4107,7 +4179,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="221061776"/>
+        <c:axId val="191930672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4190,7 +4262,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="221061384"/>
+        <c:crossAx val="191934200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4475,12 +4547,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="221062560"/>
-        <c:axId val="221056288"/>
+        <c:axId val="191929496"/>
+        <c:axId val="191929888"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="221062560"/>
+        <c:axId val="191929496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4569,7 +4641,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="221056288"/>
+        <c:crossAx val="191929888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4577,7 +4649,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="221056288"/>
+        <c:axId val="191929888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4660,7 +4732,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="221062560"/>
+        <c:crossAx val="191929496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5447,12 +5519,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="221057072"/>
-        <c:axId val="221055504"/>
+        <c:axId val="191934984"/>
+        <c:axId val="191935376"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="221057072"/>
+        <c:axId val="191934984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5492,7 +5564,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="221055504"/>
+        <c:crossAx val="191935376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5500,7 +5572,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="221055504"/>
+        <c:axId val="191935376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5548,7 +5620,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="221057072"/>
+        <c:crossAx val="191934984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5856,8 +5928,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="221055112"/>
-        <c:axId val="221055896"/>
+        <c:axId val="192433040"/>
+        <c:axId val="192434608"/>
         <c:axId val="0"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
@@ -6027,7 +6099,7 @@
         </c:extLst>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="221055112"/>
+        <c:axId val="192433040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6125,7 +6197,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="221055896"/>
+        <c:crossAx val="192434608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6133,7 +6205,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="221055896"/>
+        <c:axId val="192434608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6212,7 +6284,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="221055112"/>
+        <c:crossAx val="192433040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6526,8 +6598,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="221059816"/>
-        <c:axId val="221060600"/>
+        <c:axId val="192439312"/>
+        <c:axId val="192431864"/>
         <c:axId val="0"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
@@ -6697,7 +6769,7 @@
         </c:extLst>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="221059816"/>
+        <c:axId val="192439312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6795,7 +6867,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="221060600"/>
+        <c:crossAx val="192431864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6803,7 +6875,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="221060600"/>
+        <c:axId val="192431864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6882,7 +6954,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="221059816"/>
+        <c:crossAx val="192439312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10580,22 +10652,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="201" t="s">
+      <c r="A1" s="210" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="202"/>
+      <c r="B1" s="211"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="203" t="s">
+      <c r="A2" s="212" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="204"/>
+      <c r="B2" s="213"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="203" t="s">
+      <c r="A3" s="212" t="s">
         <v>96</v>
       </c>
-      <c r="B3" s="204"/>
+      <c r="B3" s="213"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -10630,10 +10702,10 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="205" t="s">
+      <c r="A8" s="214" t="s">
         <v>103</v>
       </c>
-      <c r="B8" s="206"/>
+      <c r="B8" s="215"/>
     </row>
     <row r="9" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
@@ -10709,15 +10781,15 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="247" t="s">
+      <c r="A1" s="257" t="s">
         <v>525</v>
       </c>
-      <c r="B1" s="247"/>
-      <c r="C1" s="247"/>
-      <c r="D1" s="247"/>
-      <c r="E1" s="247"/>
-      <c r="F1" s="247"/>
-      <c r="G1" s="247"/>
+      <c r="B1" s="257"/>
+      <c r="C1" s="257"/>
+      <c r="D1" s="257"/>
+      <c r="E1" s="257"/>
+      <c r="F1" s="257"/>
+      <c r="G1" s="257"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10752,19 +10824,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="216" t="s">
+      <c r="A1" s="225" t="s">
         <v>326</v>
       </c>
-      <c r="B1" s="216"/>
-      <c r="C1" s="216"/>
-      <c r="D1" s="216"/>
-      <c r="E1" s="216"/>
-      <c r="F1" s="216"/>
-      <c r="G1" s="216"/>
-      <c r="H1" s="216"/>
-      <c r="I1" s="216"/>
-      <c r="J1" s="216"/>
-      <c r="K1" s="216"/>
+      <c r="B1" s="225"/>
+      <c r="C1" s="225"/>
+      <c r="D1" s="225"/>
+      <c r="E1" s="225"/>
+      <c r="F1" s="225"/>
+      <c r="G1" s="225"/>
+      <c r="H1" s="225"/>
+      <c r="I1" s="225"/>
+      <c r="J1" s="225"/>
+      <c r="K1" s="225"/>
     </row>
     <row r="2" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
@@ -11486,10 +11558,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="248" t="s">
+      <c r="A1" s="258" t="s">
         <v>333</v>
       </c>
-      <c r="B1" s="249"/>
+      <c r="B1" s="259"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="79" t="s">
@@ -11540,7 +11612,7 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11557,20 +11629,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="250" t="s">
+      <c r="A1" s="260" t="s">
         <v>327</v>
       </c>
-      <c r="B1" s="250"/>
-      <c r="C1" s="250"/>
-      <c r="D1" s="250"/>
-      <c r="E1" s="250"/>
-      <c r="F1" s="250"/>
-      <c r="G1" s="250"/>
-      <c r="H1" s="250"/>
-      <c r="I1" s="250"/>
-      <c r="J1" s="250"/>
-      <c r="K1" s="250"/>
-      <c r="L1" s="250"/>
+      <c r="B1" s="260"/>
+      <c r="C1" s="260"/>
+      <c r="D1" s="260"/>
+      <c r="E1" s="260"/>
+      <c r="F1" s="260"/>
+      <c r="G1" s="260"/>
+      <c r="H1" s="260"/>
+      <c r="I1" s="260"/>
+      <c r="J1" s="260"/>
+      <c r="K1" s="260"/>
+      <c r="L1" s="260"/>
     </row>
     <row r="2" spans="1:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="142" t="s">
@@ -12289,15 +12361,15 @@
     </row>
     <row r="26" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="134"/>
-      <c r="B26" s="251" t="s">
+      <c r="B26" s="261" t="s">
         <v>334</v>
       </c>
-      <c r="C26" s="252"/>
-      <c r="D26" s="252"/>
-      <c r="E26" s="252"/>
-      <c r="F26" s="252"/>
-      <c r="G26" s="252"/>
-      <c r="H26" s="253"/>
+      <c r="C26" s="262"/>
+      <c r="D26" s="262"/>
+      <c r="E26" s="262"/>
+      <c r="F26" s="262"/>
+      <c r="G26" s="262"/>
+      <c r="H26" s="263"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="66"/>
@@ -12465,10 +12537,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="211" t="s">
+      <c r="A1" s="220" t="s">
         <v>151</v>
       </c>
-      <c r="B1" s="212"/>
+      <c r="B1" s="221"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
@@ -12501,16 +12573,16 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="207" t="s">
+      <c r="A6" s="216" t="s">
         <v>147</v>
       </c>
-      <c r="B6" s="208"/>
+      <c r="B6" s="217"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="209" t="s">
+      <c r="A7" s="218" t="s">
         <v>150</v>
       </c>
-      <c r="B7" s="210"/>
+      <c r="B7" s="219"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
@@ -12592,16 +12664,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="213" t="s">
+      <c r="A1" s="222" t="s">
         <v>336</v>
       </c>
-      <c r="B1" s="214"/>
-      <c r="C1" s="214"/>
-      <c r="D1" s="214"/>
-      <c r="E1" s="214"/>
-      <c r="F1" s="214"/>
-      <c r="G1" s="214"/>
-      <c r="H1" s="215"/>
+      <c r="B1" s="223"/>
+      <c r="C1" s="223"/>
+      <c r="D1" s="223"/>
+      <c r="E1" s="223"/>
+      <c r="F1" s="223"/>
+      <c r="G1" s="223"/>
+      <c r="H1" s="224"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
     </row>
@@ -12971,14 +13043,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="216" t="s">
+      <c r="A1" s="225" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="216"/>
-      <c r="C1" s="216"/>
-      <c r="D1" s="216"/>
-      <c r="E1" s="216"/>
-      <c r="F1" s="216"/>
+      <c r="B1" s="225"/>
+      <c r="C1" s="225"/>
+      <c r="D1" s="225"/>
+      <c r="E1" s="225"/>
+      <c r="F1" s="225"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
@@ -13461,56 +13533,60 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T53"/>
+  <dimension ref="A1:V53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:Q1"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="51.28515625" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" customWidth="1"/>
+    <col min="2" max="2" width="59.85546875" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" customWidth="1"/>
     <col min="4" max="4" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" style="81" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" style="81" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" style="81" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="3"/>
-    <col min="11" max="11" width="14.5703125" style="71" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="81" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" style="81" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" style="81" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="11.42578125" customWidth="1"/>
-    <col min="17" max="17" width="12" customWidth="1"/>
-    <col min="18" max="20" width="0" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="90" customWidth="1"/>
+    <col min="6" max="6" width="25.85546875" style="81" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" style="81" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" style="81" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="81" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="3"/>
+    <col min="13" max="13" width="14.5703125" style="71" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="81" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" style="81" customWidth="1"/>
+    <col min="16" max="16" width="11.5703125" style="81" customWidth="1"/>
+    <col min="17" max="17" width="12.85546875" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" customWidth="1"/>
+    <col min="19" max="19" width="12" customWidth="1"/>
+    <col min="20" max="22" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="254" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" s="226" t="s">
         <v>569</v>
       </c>
-      <c r="B1" s="254"/>
-      <c r="C1" s="254"/>
-      <c r="D1" s="254"/>
-      <c r="E1" s="254"/>
-      <c r="F1" s="254"/>
-      <c r="G1" s="254"/>
-      <c r="H1" s="254"/>
-      <c r="I1" s="254"/>
-      <c r="J1" s="254"/>
-      <c r="K1" s="254"/>
-      <c r="L1" s="254"/>
-      <c r="M1" s="254"/>
-      <c r="N1" s="254"/>
-      <c r="O1" s="254"/>
-      <c r="P1" s="254"/>
-      <c r="Q1" s="254"/>
-    </row>
-    <row r="2" spans="1:20" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="226"/>
+      <c r="C1" s="226"/>
+      <c r="D1" s="226"/>
+      <c r="E1" s="226"/>
+      <c r="F1" s="226"/>
+      <c r="G1" s="226"/>
+      <c r="H1" s="226"/>
+      <c r="I1" s="226"/>
+      <c r="J1" s="226"/>
+      <c r="K1" s="226"/>
+      <c r="L1" s="226"/>
+      <c r="M1" s="226"/>
+      <c r="N1" s="226"/>
+      <c r="O1" s="226"/>
+      <c r="P1" s="226"/>
+      <c r="Q1" s="226"/>
+      <c r="R1" s="226"/>
+      <c r="S1" s="226"/>
+    </row>
+    <row r="2" spans="1:22" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>123</v>
       </c>
@@ -13523,52 +13599,58 @@
       <c r="D2" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="82" t="s">
+        <v>576</v>
+      </c>
+      <c r="F2" s="82" t="s">
+        <v>575</v>
+      </c>
+      <c r="G2" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="H2" s="21" t="s">
         <v>474</v>
       </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="82" t="s">
+      <c r="I2" s="21"/>
+      <c r="J2" s="82" t="s">
         <v>567</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="K2" s="21" t="s">
         <v>526</v>
       </c>
-      <c r="J2" s="82" t="s">
+      <c r="L2" s="82" t="s">
         <v>529</v>
       </c>
-      <c r="K2" s="82" t="s">
+      <c r="M2" s="82" t="s">
         <v>566</v>
       </c>
-      <c r="L2" s="82" t="s">
+      <c r="N2" s="82" t="s">
         <v>549</v>
       </c>
-      <c r="M2" s="82" t="s">
+      <c r="O2" s="82" t="s">
         <v>564</v>
       </c>
-      <c r="N2" s="82" t="s">
+      <c r="P2" s="82" t="s">
         <v>565</v>
       </c>
-      <c r="O2" s="91"/>
-      <c r="P2" s="196" t="s">
+      <c r="Q2" s="91"/>
+      <c r="R2" s="196" t="s">
         <v>550</v>
       </c>
-      <c r="Q2" s="196" t="s">
+      <c r="S2" s="196" t="s">
         <v>551</v>
       </c>
-      <c r="R2" s="198" t="s">
+      <c r="T2" s="198" t="s">
         <v>552</v>
       </c>
-      <c r="S2" s="198" t="s">
+      <c r="U2" s="198" t="s">
         <v>553</v>
       </c>
-      <c r="T2" s="199" t="s">
+      <c r="V2" s="199" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>22</v>
       </c>
@@ -13581,44 +13663,48 @@
       <c r="D3" s="132" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="132"/>
+      <c r="F3" s="206" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="183" t="s">
+      <c r="H3" s="183" t="s">
         <v>502</v>
       </c>
-      <c r="G3" s="48"/>
-      <c r="H3" s="183" t="s">
+      <c r="I3" s="48"/>
+      <c r="J3" s="183" t="s">
         <v>346</v>
       </c>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="48">
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="48">
         <v>2</v>
       </c>
-      <c r="M3" s="48">
+      <c r="O3" s="48">
         <v>2</v>
       </c>
-      <c r="N3" s="48">
+      <c r="P3" s="48">
         <v>0</v>
       </c>
-      <c r="O3" s="91"/>
-      <c r="P3" s="67">
+      <c r="Q3" s="91"/>
+      <c r="R3" s="67">
         <v>25</v>
       </c>
-      <c r="Q3" s="67">
+      <c r="S3" s="67">
         <v>25</v>
       </c>
-      <c r="R3" s="183">
+      <c r="T3" s="183">
         <v>2</v>
       </c>
-      <c r="S3" s="48">
+      <c r="U3" s="48">
         <v>2</v>
       </c>
-      <c r="T3" s="66"/>
-    </row>
-    <row r="4" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V3" s="66"/>
+    </row>
+    <row r="4" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>27</v>
       </c>
@@ -13631,44 +13717,50 @@
       <c r="D4" s="132">
         <v>2007</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="203" t="s">
+        <v>572</v>
+      </c>
+      <c r="F4" s="203" t="s">
+        <v>572</v>
+      </c>
+      <c r="G4" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="34" t="s">
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="34" t="s">
         <v>346</v>
       </c>
-      <c r="J4" s="94"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="48">
+      <c r="L4" s="94"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="48">
         <v>10</v>
       </c>
-      <c r="M4" s="48">
+      <c r="O4" s="48">
         <v>9</v>
       </c>
-      <c r="N4" s="48">
+      <c r="P4" s="48">
         <v>0</v>
       </c>
-      <c r="O4" s="91"/>
-      <c r="P4" s="67">
+      <c r="Q4" s="91"/>
+      <c r="R4" s="67">
         <v>20</v>
       </c>
-      <c r="Q4" s="67">
+      <c r="S4" s="67">
         <v>20</v>
       </c>
-      <c r="R4" s="183">
+      <c r="T4" s="183">
         <v>10</v>
       </c>
-      <c r="S4" s="48">
+      <c r="U4" s="48">
         <v>10</v>
       </c>
-      <c r="T4" s="66"/>
-    </row>
-    <row r="5" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V4" s="66"/>
+    </row>
+    <row r="5" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>29</v>
       </c>
@@ -13681,48 +13773,54 @@
       <c r="D5" s="132">
         <v>2008</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="203" t="s">
+        <v>572</v>
+      </c>
+      <c r="F5" s="204" t="s">
+        <v>571</v>
+      </c>
+      <c r="G5" s="201" t="s">
         <v>129</v>
       </c>
-      <c r="F5" s="183" t="s">
+      <c r="H5" s="183" t="s">
         <v>210</v>
       </c>
-      <c r="G5" s="48"/>
-      <c r="H5" s="183" t="s">
+      <c r="I5" s="48"/>
+      <c r="J5" s="183" t="s">
         <v>346</v>
       </c>
-      <c r="I5" s="94"/>
-      <c r="J5" s="186" t="s">
+      <c r="K5" s="94"/>
+      <c r="L5" s="186" t="s">
         <v>346</v>
       </c>
-      <c r="K5" s="189" t="s">
+      <c r="M5" s="189" t="s">
         <v>528</v>
       </c>
-      <c r="L5" s="48">
+      <c r="N5" s="48">
         <v>1</v>
       </c>
-      <c r="M5" s="48">
+      <c r="O5" s="48">
         <v>0</v>
       </c>
-      <c r="N5" s="48">
+      <c r="P5" s="48">
         <v>0</v>
       </c>
-      <c r="O5" s="91"/>
-      <c r="P5" s="67">
+      <c r="Q5" s="91"/>
+      <c r="R5" s="67">
         <v>24</v>
       </c>
-      <c r="Q5" s="67">
+      <c r="S5" s="67">
         <v>24</v>
       </c>
-      <c r="R5" s="183">
+      <c r="T5" s="183">
         <v>1</v>
       </c>
-      <c r="S5" s="48">
+      <c r="U5" s="48">
         <v>1</v>
       </c>
-      <c r="T5" s="66"/>
-    </row>
-    <row r="6" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V5" s="66"/>
+    </row>
+    <row r="6" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>31</v>
       </c>
@@ -13735,44 +13833,48 @@
       <c r="D6" s="132">
         <v>2015</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="132"/>
+      <c r="F6" s="207" t="s">
+        <v>570</v>
+      </c>
+      <c r="G6" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="34" t="s">
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="34" t="s">
         <v>346</v>
       </c>
-      <c r="J6" s="94"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="48">
+      <c r="L6" s="94"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="48">
         <v>11</v>
       </c>
-      <c r="M6" s="48">
+      <c r="O6" s="48">
         <v>2</v>
       </c>
-      <c r="N6" s="48">
+      <c r="P6" s="48">
         <v>0</v>
       </c>
-      <c r="O6" s="91"/>
-      <c r="P6" s="67">
+      <c r="Q6" s="91"/>
+      <c r="R6" s="67">
         <v>57</v>
       </c>
-      <c r="Q6" s="67">
+      <c r="S6" s="67">
         <v>57</v>
       </c>
-      <c r="R6" s="183">
+      <c r="T6" s="183">
         <v>11</v>
       </c>
-      <c r="S6" s="2">
+      <c r="U6" s="2">
         <v>11</v>
       </c>
-      <c r="T6" s="66"/>
-    </row>
-    <row r="7" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V6" s="66"/>
+    </row>
+    <row r="7" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>38</v>
       </c>
@@ -13785,44 +13887,50 @@
       <c r="D7" s="132">
         <v>2011</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="203" t="s">
+        <v>572</v>
+      </c>
+      <c r="F7" s="203" t="s">
+        <v>572</v>
+      </c>
+      <c r="G7" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="F7" s="183" t="s">
+      <c r="H7" s="183" t="s">
         <v>211</v>
       </c>
-      <c r="G7" s="48"/>
-      <c r="H7" s="183" t="s">
+      <c r="I7" s="48"/>
+      <c r="J7" s="183" t="s">
         <v>346</v>
       </c>
-      <c r="I7" s="94"/>
-      <c r="J7" s="94"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="48">
+      <c r="K7" s="94"/>
+      <c r="L7" s="94"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="48">
         <v>15</v>
       </c>
-      <c r="M7" s="48">
+      <c r="O7" s="48">
         <v>8</v>
       </c>
-      <c r="N7" s="48">
+      <c r="P7" s="48">
         <v>1</v>
       </c>
-      <c r="O7" s="91"/>
-      <c r="P7" s="48">
+      <c r="Q7" s="91"/>
+      <c r="R7" s="48">
         <v>11</v>
       </c>
-      <c r="Q7" s="48">
+      <c r="S7" s="48">
         <v>11</v>
       </c>
-      <c r="R7" s="183">
+      <c r="T7" s="183">
         <v>15</v>
       </c>
-      <c r="S7" s="48">
+      <c r="U7" s="48">
         <v>15</v>
       </c>
-      <c r="T7" s="66"/>
-    </row>
-    <row r="8" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V7" s="66"/>
+    </row>
+    <row r="8" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>39</v>
       </c>
@@ -13835,44 +13943,48 @@
       <c r="D8" s="132">
         <v>2010</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="132"/>
+      <c r="F8" s="208" t="s">
+        <v>574</v>
+      </c>
+      <c r="G8" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="F8" s="183" t="s">
+      <c r="H8" s="183" t="s">
         <v>512</v>
       </c>
-      <c r="G8" s="48"/>
-      <c r="H8" s="183" t="s">
+      <c r="I8" s="48"/>
+      <c r="J8" s="183" t="s">
         <v>346</v>
       </c>
-      <c r="I8" s="94"/>
-      <c r="J8" s="94"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="48">
+      <c r="K8" s="94"/>
+      <c r="L8" s="94"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="48">
         <v>11</v>
       </c>
-      <c r="M8" s="48">
+      <c r="O8" s="48">
         <v>8</v>
       </c>
-      <c r="N8" s="48">
+      <c r="P8" s="48">
         <v>0</v>
       </c>
-      <c r="O8" s="91"/>
-      <c r="P8" s="48">
+      <c r="Q8" s="91"/>
+      <c r="R8" s="48">
         <v>22</v>
       </c>
-      <c r="Q8" s="48">
+      <c r="S8" s="48">
         <v>22</v>
       </c>
-      <c r="R8" s="183">
+      <c r="T8" s="183">
         <v>10</v>
       </c>
-      <c r="S8" s="48">
+      <c r="U8" s="48">
         <v>10</v>
       </c>
-      <c r="T8" s="66"/>
-    </row>
-    <row r="9" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V8" s="66"/>
+    </row>
+    <row r="9" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>40</v>
       </c>
@@ -13885,44 +13997,48 @@
       <c r="D9" s="132">
         <v>2009</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="132"/>
+      <c r="F9" s="207" t="s">
+        <v>570</v>
+      </c>
+      <c r="G9" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="F9" s="183" t="s">
+      <c r="H9" s="183" t="s">
         <v>513</v>
       </c>
-      <c r="G9" s="48"/>
-      <c r="H9" s="183" t="s">
+      <c r="I9" s="48"/>
+      <c r="J9" s="183" t="s">
         <v>346</v>
       </c>
-      <c r="I9" s="94"/>
-      <c r="J9" s="94"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="48">
+      <c r="K9" s="94"/>
+      <c r="L9" s="94"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="48">
         <v>22</v>
       </c>
-      <c r="M9" s="48">
+      <c r="O9" s="48">
         <v>20</v>
       </c>
-      <c r="N9" s="48">
+      <c r="P9" s="48">
         <v>1</v>
       </c>
-      <c r="O9" s="91"/>
-      <c r="P9" s="48">
+      <c r="Q9" s="91"/>
+      <c r="R9" s="48">
         <v>13</v>
       </c>
-      <c r="Q9" s="48">
+      <c r="S9" s="48">
         <v>13</v>
       </c>
-      <c r="R9" s="183">
+      <c r="T9" s="183">
         <v>22</v>
       </c>
-      <c r="S9" s="48">
+      <c r="U9" s="48">
         <v>22</v>
       </c>
-      <c r="T9" s="66"/>
-    </row>
-    <row r="10" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V9" s="66"/>
+    </row>
+    <row r="10" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>41</v>
       </c>
@@ -13935,44 +14051,50 @@
       <c r="D10" s="132">
         <v>2010</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="203" t="s">
+        <v>572</v>
+      </c>
+      <c r="F10" s="204" t="s">
+        <v>571</v>
+      </c>
+      <c r="G10" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="F10" s="183" t="s">
+      <c r="H10" s="183" t="s">
         <v>212</v>
       </c>
-      <c r="G10" s="48"/>
-      <c r="H10" s="183" t="s">
+      <c r="I10" s="48"/>
+      <c r="J10" s="183" t="s">
         <v>346</v>
       </c>
-      <c r="I10" s="94"/>
-      <c r="J10" s="94"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="48">
+      <c r="K10" s="94"/>
+      <c r="L10" s="94"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="48">
         <v>19</v>
       </c>
-      <c r="M10" s="48">
+      <c r="O10" s="48">
         <v>15</v>
       </c>
-      <c r="N10" s="48">
+      <c r="P10" s="48">
         <v>0</v>
       </c>
-      <c r="O10" s="91"/>
-      <c r="P10" s="48">
+      <c r="Q10" s="91"/>
+      <c r="R10" s="48">
         <v>43</v>
       </c>
-      <c r="Q10" s="48">
+      <c r="S10" s="48">
         <v>43</v>
       </c>
-      <c r="R10" s="183">
+      <c r="T10" s="183">
         <v>19</v>
       </c>
-      <c r="S10" s="48">
+      <c r="U10" s="48">
         <v>19</v>
       </c>
-      <c r="T10" s="66"/>
-    </row>
-    <row r="11" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V10" s="66"/>
+    </row>
+    <row r="11" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>42</v>
       </c>
@@ -13985,46 +14107,50 @@
       <c r="D11" s="132">
         <v>2010</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="132"/>
+      <c r="F11" s="206" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="F11" s="183" t="s">
+      <c r="H11" s="183" t="s">
         <v>514</v>
       </c>
-      <c r="G11" s="48"/>
-      <c r="H11" s="183" t="s">
+      <c r="I11" s="48"/>
+      <c r="J11" s="183" t="s">
         <v>346</v>
       </c>
-      <c r="I11" s="94"/>
-      <c r="J11" s="94"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="2">
+      <c r="K11" s="94"/>
+      <c r="L11" s="94"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="2">
         <v>147</v>
       </c>
-      <c r="M11" s="48">
+      <c r="O11" s="48">
         <v>105</v>
       </c>
-      <c r="N11" s="48">
-        <v>11</v>
-      </c>
-      <c r="O11" s="91"/>
       <c r="P11" s="48">
         <v>11</v>
       </c>
-      <c r="Q11" s="48">
+      <c r="Q11" s="91"/>
+      <c r="R11" s="48">
         <v>11</v>
       </c>
-      <c r="R11" s="183">
+      <c r="S11" s="48">
+        <v>11</v>
+      </c>
+      <c r="T11" s="183">
         <v>141</v>
       </c>
-      <c r="S11" s="183">
+      <c r="U11" s="183">
         <v>146</v>
       </c>
-      <c r="T11" s="200" t="s">
+      <c r="V11" s="200" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>43</v>
       </c>
@@ -14037,44 +14163,48 @@
       <c r="D12" s="132">
         <v>1999</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="132"/>
+      <c r="F12" s="206" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="F12" s="183" t="s">
+      <c r="H12" s="183" t="s">
         <v>515</v>
       </c>
-      <c r="G12" s="48"/>
-      <c r="H12" s="183" t="s">
+      <c r="I12" s="48"/>
+      <c r="J12" s="183" t="s">
         <v>346</v>
       </c>
-      <c r="I12" s="94"/>
-      <c r="J12" s="94"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="2">
+      <c r="K12" s="94"/>
+      <c r="L12" s="94"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="2">
         <v>56</v>
       </c>
-      <c r="M12" s="48">
+      <c r="O12" s="48">
         <v>51</v>
       </c>
-      <c r="N12" s="48">
+      <c r="P12" s="48">
         <v>1</v>
       </c>
-      <c r="O12" s="91"/>
-      <c r="P12" s="2">
+      <c r="Q12" s="91"/>
+      <c r="R12" s="2">
         <v>37</v>
       </c>
-      <c r="Q12" s="2">
+      <c r="S12" s="2">
         <v>37</v>
       </c>
-      <c r="R12" s="183">
+      <c r="T12" s="183">
         <v>55</v>
       </c>
-      <c r="S12" s="48">
+      <c r="U12" s="48">
         <v>55</v>
       </c>
-      <c r="T12" s="66"/>
-    </row>
-    <row r="13" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V12" s="66"/>
+    </row>
+    <row r="13" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>44</v>
       </c>
@@ -14082,51 +14212,55 @@
         <v>68</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>69</v>
+        <v>573</v>
       </c>
       <c r="D13" s="132">
         <v>2005</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="132"/>
+      <c r="F13" s="206" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="34" t="s">
+      <c r="I13" s="48"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="34" t="s">
         <v>346</v>
       </c>
-      <c r="J13" s="94"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="2">
+      <c r="L13" s="94"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="2">
         <v>42</v>
       </c>
-      <c r="M13" s="48">
+      <c r="O13" s="48">
         <v>39</v>
       </c>
-      <c r="N13" s="48">
+      <c r="P13" s="48">
         <v>0</v>
       </c>
-      <c r="O13" s="91"/>
-      <c r="P13" s="48">
+      <c r="Q13" s="91"/>
+      <c r="R13" s="48">
         <v>16</v>
       </c>
-      <c r="Q13" s="48">
+      <c r="S13" s="48">
         <v>16</v>
       </c>
-      <c r="R13" s="183">
+      <c r="T13" s="183">
         <v>37</v>
       </c>
-      <c r="S13" s="183">
+      <c r="U13" s="183">
         <v>41</v>
       </c>
-      <c r="T13" s="66" t="s">
+      <c r="V13" s="66" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>45</v>
       </c>
@@ -14139,44 +14273,48 @@
       <c r="D14" s="132">
         <v>2008</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="132"/>
+      <c r="F14" s="204" t="s">
+        <v>571</v>
+      </c>
+      <c r="G14" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="H14" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="34" t="s">
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="34" t="s">
         <v>346</v>
       </c>
-      <c r="J14" s="94"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="48">
+      <c r="L14" s="94"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="48">
         <v>5</v>
       </c>
-      <c r="M14" s="48">
+      <c r="O14" s="48">
         <v>4</v>
       </c>
-      <c r="N14" s="48">
+      <c r="P14" s="48">
         <v>0</v>
       </c>
-      <c r="O14" s="91"/>
-      <c r="P14" s="48">
+      <c r="Q14" s="91"/>
+      <c r="R14" s="48">
         <v>14</v>
       </c>
-      <c r="Q14" s="2">
+      <c r="S14" s="2">
         <v>14</v>
       </c>
-      <c r="R14" s="183">
+      <c r="T14" s="183">
         <v>5</v>
       </c>
-      <c r="S14" s="2">
+      <c r="U14" s="2">
         <v>5</v>
       </c>
-      <c r="T14" s="66"/>
-    </row>
-    <row r="15" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V14" s="66"/>
+    </row>
+    <row r="15" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>46</v>
       </c>
@@ -14189,44 +14327,50 @@
       <c r="D15" s="132">
         <v>2011</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="203" t="s">
+        <v>572</v>
+      </c>
+      <c r="F15" s="204" t="s">
+        <v>571</v>
+      </c>
+      <c r="G15" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="F15" s="183" t="s">
+      <c r="H15" s="183" t="s">
         <v>517</v>
       </c>
-      <c r="G15" s="48"/>
-      <c r="H15" s="183" t="s">
+      <c r="I15" s="48"/>
+      <c r="J15" s="183" t="s">
         <v>346</v>
       </c>
-      <c r="I15" s="94"/>
-      <c r="J15" s="94"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="48">
+      <c r="K15" s="94"/>
+      <c r="L15" s="94"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="48">
         <v>7</v>
       </c>
-      <c r="M15" s="48">
+      <c r="O15" s="48">
         <v>2</v>
       </c>
-      <c r="N15" s="48">
+      <c r="P15" s="48">
         <v>1</v>
       </c>
-      <c r="O15" s="91"/>
-      <c r="P15" s="48">
+      <c r="Q15" s="91"/>
+      <c r="R15" s="48">
         <v>8</v>
       </c>
-      <c r="Q15" s="48">
+      <c r="S15" s="48">
         <v>8</v>
       </c>
-      <c r="R15" s="183">
+      <c r="T15" s="183">
         <v>7</v>
       </c>
-      <c r="S15" s="48">
+      <c r="U15" s="48">
         <v>7</v>
       </c>
-      <c r="T15" s="66"/>
-    </row>
-    <row r="16" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V15" s="66"/>
+    </row>
+    <row r="16" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>47</v>
       </c>
@@ -14239,44 +14383,50 @@
       <c r="D16" s="132">
         <v>2009</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="203" t="s">
+        <v>572</v>
+      </c>
+      <c r="F16" s="204" t="s">
+        <v>571</v>
+      </c>
+      <c r="G16" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="F16" s="183" t="s">
+      <c r="H16" s="183" t="s">
         <v>215</v>
       </c>
-      <c r="G16" s="48"/>
-      <c r="H16" s="183" t="s">
+      <c r="I16" s="48"/>
+      <c r="J16" s="183" t="s">
         <v>346</v>
       </c>
-      <c r="I16" s="94"/>
-      <c r="J16" s="94"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="48">
+      <c r="K16" s="94"/>
+      <c r="L16" s="94"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="48">
         <v>5</v>
       </c>
-      <c r="M16" s="48">
+      <c r="O16" s="48">
         <v>3</v>
       </c>
-      <c r="N16" s="48">
+      <c r="P16" s="48">
         <v>0</v>
       </c>
-      <c r="O16" s="91"/>
-      <c r="P16" s="48">
+      <c r="Q16" s="91"/>
+      <c r="R16" s="48">
         <v>27</v>
       </c>
-      <c r="Q16" s="48">
+      <c r="S16" s="48">
         <v>27</v>
       </c>
-      <c r="R16" s="183">
+      <c r="T16" s="183">
         <v>5</v>
       </c>
-      <c r="S16" s="48">
+      <c r="U16" s="48">
         <v>5</v>
       </c>
-      <c r="T16" s="66"/>
-    </row>
-    <row r="17" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V16" s="66"/>
+    </row>
+    <row r="17" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>48</v>
       </c>
@@ -14289,44 +14439,50 @@
       <c r="D17" s="132">
         <v>1997</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="203" t="s">
+        <v>572</v>
+      </c>
+      <c r="F17" s="203" t="s">
+        <v>572</v>
+      </c>
+      <c r="G17" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="F17" s="183" t="s">
+      <c r="H17" s="183" t="s">
         <v>216</v>
       </c>
-      <c r="G17" s="48"/>
-      <c r="H17" s="183" t="s">
+      <c r="I17" s="48"/>
+      <c r="J17" s="183" t="s">
         <v>346</v>
       </c>
-      <c r="I17" s="94"/>
-      <c r="J17" s="94"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="48">
+      <c r="K17" s="94"/>
+      <c r="L17" s="94"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="48">
         <v>10</v>
       </c>
-      <c r="M17" s="48">
+      <c r="O17" s="48">
         <v>10</v>
       </c>
-      <c r="N17" s="48">
+      <c r="P17" s="48">
         <v>0</v>
       </c>
-      <c r="O17" s="91"/>
-      <c r="P17" s="48">
+      <c r="Q17" s="91"/>
+      <c r="R17" s="48">
         <v>14</v>
       </c>
-      <c r="Q17" s="48">
+      <c r="S17" s="48">
         <v>14</v>
       </c>
-      <c r="R17" s="183">
+      <c r="T17" s="183">
         <v>10</v>
       </c>
-      <c r="S17" s="48">
+      <c r="U17" s="48">
         <v>10</v>
       </c>
-      <c r="T17" s="66"/>
-    </row>
-    <row r="18" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V17" s="66"/>
+    </row>
+    <row r="18" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
         <v>49</v>
       </c>
@@ -14339,44 +14495,48 @@
       <c r="D18" s="132">
         <v>2010</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="132"/>
+      <c r="F18" s="206" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="34" t="s">
+      <c r="I18" s="48"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="34" t="s">
         <v>346</v>
       </c>
-      <c r="J18" s="94"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="48">
+      <c r="L18" s="94"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="48">
         <v>8</v>
       </c>
-      <c r="M18" s="48">
+      <c r="O18" s="48">
         <v>7</v>
       </c>
-      <c r="N18" s="48">
+      <c r="P18" s="48">
         <v>1</v>
       </c>
-      <c r="O18" s="91"/>
-      <c r="P18" s="48">
-        <v>8</v>
-      </c>
-      <c r="Q18" s="48">
-        <v>8</v>
-      </c>
-      <c r="R18" s="183">
+      <c r="Q18" s="91"/>
+      <c r="R18" s="48">
         <v>8</v>
       </c>
       <c r="S18" s="48">
         <v>8</v>
       </c>
-      <c r="T18" s="66"/>
-    </row>
-    <row r="19" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T18" s="183">
+        <v>8</v>
+      </c>
+      <c r="U18" s="48">
+        <v>8</v>
+      </c>
+      <c r="V18" s="66"/>
+    </row>
+    <row r="19" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>50</v>
       </c>
@@ -14389,46 +14549,50 @@
       <c r="D19" s="132">
         <v>2005</v>
       </c>
-      <c r="E19" s="19" t="s">
+      <c r="E19" s="132"/>
+      <c r="F19" s="209" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="F19" s="183" t="s">
+      <c r="H19" s="183" t="s">
         <v>519</v>
       </c>
-      <c r="G19" s="48"/>
-      <c r="H19" s="183" t="s">
+      <c r="I19" s="48"/>
+      <c r="J19" s="183" t="s">
         <v>346</v>
       </c>
-      <c r="I19" s="94"/>
-      <c r="J19" s="94"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="48">
+      <c r="K19" s="94"/>
+      <c r="L19" s="94"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="48">
         <v>17</v>
       </c>
-      <c r="M19" s="48">
+      <c r="O19" s="48">
         <v>14</v>
       </c>
-      <c r="N19" s="48">
+      <c r="P19" s="48">
         <v>0</v>
       </c>
-      <c r="O19" s="91"/>
-      <c r="P19" s="48">
+      <c r="Q19" s="91"/>
+      <c r="R19" s="48">
         <v>15</v>
       </c>
-      <c r="Q19" s="48">
+      <c r="S19" s="48">
         <v>15</v>
       </c>
-      <c r="R19" s="183">
+      <c r="T19" s="183">
         <v>15</v>
       </c>
-      <c r="S19" s="183">
+      <c r="U19" s="183">
         <v>17</v>
       </c>
-      <c r="T19" s="66" t="s">
+      <c r="V19" s="66" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
         <v>51</v>
       </c>
@@ -14441,44 +14605,48 @@
       <c r="D20" s="132">
         <v>2011</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="132"/>
+      <c r="F20" s="205" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="F20" s="183" t="s">
+      <c r="H20" s="183" t="s">
         <v>520</v>
       </c>
-      <c r="G20" s="48"/>
-      <c r="H20" s="183" t="s">
+      <c r="I20" s="48"/>
+      <c r="J20" s="183" t="s">
         <v>346</v>
       </c>
-      <c r="I20" s="94"/>
-      <c r="J20" s="94"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="48">
+      <c r="K20" s="94"/>
+      <c r="L20" s="94"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="48">
         <v>8</v>
       </c>
-      <c r="M20" s="48">
+      <c r="O20" s="48">
         <v>8</v>
       </c>
-      <c r="N20" s="48">
+      <c r="P20" s="48">
         <v>0</v>
       </c>
-      <c r="O20" s="91"/>
-      <c r="P20" s="48">
+      <c r="Q20" s="91"/>
+      <c r="R20" s="48">
         <v>18</v>
       </c>
-      <c r="Q20" s="48">
+      <c r="S20" s="48">
         <v>18</v>
       </c>
-      <c r="R20" s="183">
+      <c r="T20" s="183">
         <v>8</v>
       </c>
-      <c r="S20" s="48">
+      <c r="U20" s="48">
         <v>8</v>
       </c>
-      <c r="T20" s="66"/>
-    </row>
-    <row r="21" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V20" s="66"/>
+    </row>
+    <row r="21" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
         <v>52</v>
       </c>
@@ -14491,46 +14659,50 @@
       <c r="D21" s="132">
         <v>2008</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="132"/>
+      <c r="F21" s="205" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="F21" s="183" t="s">
+      <c r="H21" s="183" t="s">
         <v>521</v>
       </c>
-      <c r="G21" s="48"/>
-      <c r="H21" s="183" t="s">
+      <c r="I21" s="48"/>
+      <c r="J21" s="183" t="s">
         <v>346</v>
       </c>
-      <c r="I21" s="94"/>
-      <c r="J21" s="94"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="48">
+      <c r="K21" s="94"/>
+      <c r="L21" s="94"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="48">
         <v>21</v>
       </c>
-      <c r="M21" s="48">
+      <c r="O21" s="48">
         <v>17</v>
       </c>
-      <c r="N21" s="48">
+      <c r="P21" s="48">
         <v>4</v>
       </c>
-      <c r="O21" s="91"/>
-      <c r="P21" s="48">
+      <c r="Q21" s="91"/>
+      <c r="R21" s="48">
         <v>22</v>
       </c>
-      <c r="Q21" s="48">
+      <c r="S21" s="48">
         <v>22</v>
       </c>
-      <c r="R21" s="183">
+      <c r="T21" s="183">
         <v>18</v>
       </c>
-      <c r="S21" s="183">
+      <c r="U21" s="183">
         <v>21</v>
       </c>
-      <c r="T21" s="66" t="s">
+      <c r="V21" s="66" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
         <v>53</v>
       </c>
@@ -14543,44 +14715,48 @@
       <c r="D22" s="132">
         <v>2015</v>
       </c>
-      <c r="E22" s="19" t="s">
+      <c r="E22" s="132"/>
+      <c r="F22" s="205" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="H22" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="G22" s="48"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="34" t="s">
+      <c r="I22" s="48"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="34" t="s">
         <v>346</v>
       </c>
-      <c r="J22" s="94"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="48">
+      <c r="L22" s="94"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="48">
         <v>4</v>
       </c>
-      <c r="M22" s="48">
+      <c r="O22" s="48">
         <v>0</v>
       </c>
-      <c r="N22" s="48">
+      <c r="P22" s="48">
         <v>0</v>
       </c>
-      <c r="O22" s="91"/>
-      <c r="P22" s="48">
+      <c r="Q22" s="91"/>
+      <c r="R22" s="48">
         <v>15</v>
       </c>
-      <c r="Q22" s="48">
+      <c r="S22" s="48">
         <v>15</v>
       </c>
-      <c r="R22" s="183">
+      <c r="T22" s="183">
         <v>4</v>
       </c>
-      <c r="S22" s="48">
+      <c r="U22" s="48">
         <v>4</v>
       </c>
-      <c r="T22" s="66"/>
-    </row>
-    <row r="23" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V22" s="66"/>
+    </row>
+    <row r="23" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>54</v>
       </c>
@@ -14593,46 +14769,50 @@
       <c r="D23" s="132">
         <v>2000</v>
       </c>
-      <c r="E23" s="19" t="s">
+      <c r="E23" s="132"/>
+      <c r="F23" s="205" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="F23" s="183" t="s">
+      <c r="H23" s="183" t="s">
         <v>523</v>
       </c>
-      <c r="G23" s="48"/>
-      <c r="H23" s="183" t="s">
+      <c r="I23" s="48"/>
+      <c r="J23" s="183" t="s">
         <v>346</v>
       </c>
-      <c r="I23" s="94"/>
-      <c r="J23" s="94"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="2">
+      <c r="K23" s="94"/>
+      <c r="L23" s="94"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="2">
         <v>95</v>
       </c>
-      <c r="M23" s="48">
+      <c r="O23" s="48">
         <v>80</v>
       </c>
-      <c r="N23" s="48">
+      <c r="P23" s="48">
         <v>0</v>
       </c>
-      <c r="O23" s="91"/>
-      <c r="P23" s="48">
+      <c r="Q23" s="91"/>
+      <c r="R23" s="48">
         <v>11</v>
       </c>
-      <c r="Q23" s="48">
+      <c r="S23" s="48">
         <v>11</v>
       </c>
-      <c r="R23" s="183">
+      <c r="T23" s="183">
         <v>85</v>
       </c>
-      <c r="S23" s="183">
+      <c r="U23" s="183">
         <v>95</v>
       </c>
-      <c r="T23" s="66" t="s">
+      <c r="V23" s="66" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>55</v>
       </c>
@@ -14645,46 +14825,50 @@
       <c r="D24" s="132">
         <v>2010</v>
       </c>
-      <c r="E24" s="19" t="s">
+      <c r="E24" s="132"/>
+      <c r="F24" s="205" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="H24" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="34" t="s">
+      <c r="I24" s="48"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="34" t="s">
         <v>346</v>
       </c>
-      <c r="J24" s="94"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="48">
+      <c r="L24" s="94"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="48">
         <v>29</v>
       </c>
-      <c r="M24" s="48">
+      <c r="O24" s="48">
         <v>21</v>
       </c>
-      <c r="N24" s="48">
+      <c r="P24" s="48">
         <v>5</v>
       </c>
-      <c r="O24" s="91"/>
-      <c r="P24" s="48">
+      <c r="Q24" s="91"/>
+      <c r="R24" s="48">
         <v>33</v>
       </c>
-      <c r="Q24" s="48">
+      <c r="S24" s="48">
         <v>33</v>
       </c>
-      <c r="R24" s="183">
+      <c r="T24" s="183">
         <v>27</v>
       </c>
-      <c r="S24" s="183">
+      <c r="U24" s="183">
         <v>29</v>
       </c>
-      <c r="T24" s="66" t="s">
+      <c r="V24" s="66" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="53" t="s">
         <v>359</v>
       </c>
@@ -14697,41 +14881,43 @@
       <c r="D25" s="18">
         <v>1999</v>
       </c>
-      <c r="E25" s="18" t="s">
+      <c r="E25" s="18"/>
+      <c r="F25" s="202"/>
+      <c r="G25" s="18" t="s">
         <v>357</v>
       </c>
-      <c r="F25" s="29" t="s">
+      <c r="H25" s="29" t="s">
         <v>501</v>
       </c>
-      <c r="G25" s="191" t="s">
+      <c r="I25" s="191" t="s">
         <v>545</v>
       </c>
-      <c r="H25" s="85"/>
-      <c r="I25" s="85"/>
-      <c r="J25" s="74" t="s">
+      <c r="J25" s="85"/>
+      <c r="K25" s="85"/>
+      <c r="L25" s="74" t="s">
         <v>346</v>
       </c>
-      <c r="K25" s="19" t="s">
+      <c r="M25" s="19" t="s">
         <v>568</v>
       </c>
-      <c r="L25" s="29">
+      <c r="N25" s="29">
         <v>40</v>
       </c>
-      <c r="M25" s="29">
+      <c r="O25" s="29">
         <v>33</v>
       </c>
-      <c r="N25" s="29">
+      <c r="P25" s="29">
         <v>1</v>
       </c>
-      <c r="O25" s="91"/>
-      <c r="P25" s="85" t="s">
+      <c r="Q25" s="91"/>
+      <c r="R25" s="85" t="s">
         <v>510</v>
       </c>
-      <c r="Q25" s="197">
+      <c r="S25" s="197">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="53" t="s">
         <v>360</v>
       </c>
@@ -14744,39 +14930,41 @@
       <c r="D26" s="18">
         <v>2010</v>
       </c>
-      <c r="E26" s="18" t="s">
+      <c r="E26" s="18"/>
+      <c r="F26" s="202"/>
+      <c r="G26" s="18" t="s">
         <v>361</v>
       </c>
-      <c r="F26" s="53" t="s">
+      <c r="H26" s="53" t="s">
         <v>470</v>
       </c>
-      <c r="G26" s="192" t="s">
+      <c r="I26" s="192" t="s">
         <v>530</v>
       </c>
-      <c r="H26" s="53"/>
-      <c r="I26" s="34" t="s">
+      <c r="J26" s="53"/>
+      <c r="K26" s="34" t="s">
         <v>346</v>
       </c>
-      <c r="J26" s="94"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="53">
+      <c r="L26" s="94"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="53">
         <v>8</v>
       </c>
-      <c r="M26" s="53">
+      <c r="O26" s="53">
         <v>5</v>
       </c>
-      <c r="N26" s="53">
+      <c r="P26" s="53">
         <v>1</v>
       </c>
-      <c r="O26" s="91"/>
-      <c r="P26" s="94">
+      <c r="Q26" s="91"/>
+      <c r="R26" s="94">
         <v>12</v>
       </c>
-      <c r="Q26" s="94">
+      <c r="S26" s="94">
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="53" t="s">
         <v>364</v>
       </c>
@@ -14789,41 +14977,43 @@
       <c r="D27" s="18">
         <v>2014</v>
       </c>
-      <c r="E27" s="18" t="s">
+      <c r="E27" s="18"/>
+      <c r="F27" s="202"/>
+      <c r="G27" s="18" t="s">
         <v>365</v>
       </c>
-      <c r="F27" s="29" t="s">
+      <c r="H27" s="29" t="s">
         <v>471</v>
       </c>
-      <c r="G27" s="89" t="s">
+      <c r="I27" s="89" t="s">
         <v>531</v>
       </c>
-      <c r="H27" s="85"/>
-      <c r="I27" s="85"/>
-      <c r="J27" s="74" t="s">
+      <c r="J27" s="85"/>
+      <c r="K27" s="85"/>
+      <c r="L27" s="74" t="s">
         <v>346</v>
       </c>
-      <c r="K27" s="19" t="s">
+      <c r="M27" s="19" t="s">
         <v>568</v>
       </c>
-      <c r="L27" s="29">
+      <c r="N27" s="29">
         <v>1</v>
       </c>
-      <c r="M27" s="29">
+      <c r="O27" s="29">
         <v>0</v>
       </c>
-      <c r="N27" s="29">
+      <c r="P27" s="29">
         <v>0</v>
       </c>
-      <c r="O27" s="91"/>
-      <c r="P27" s="94">
+      <c r="Q27" s="91"/>
+      <c r="R27" s="94">
         <v>10</v>
       </c>
-      <c r="Q27" s="94">
+      <c r="S27" s="94">
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="53" t="s">
         <v>368</v>
       </c>
@@ -14836,39 +15026,41 @@
       <c r="D28" s="18">
         <v>2014</v>
       </c>
-      <c r="E28" s="18" t="s">
+      <c r="E28" s="18"/>
+      <c r="F28" s="202"/>
+      <c r="G28" s="18" t="s">
         <v>369</v>
       </c>
-      <c r="F28" s="53" t="s">
+      <c r="H28" s="53" t="s">
         <v>472</v>
       </c>
-      <c r="G28" s="192" t="s">
+      <c r="I28" s="192" t="s">
         <v>532</v>
       </c>
-      <c r="H28" s="53"/>
-      <c r="I28" s="34" t="s">
+      <c r="J28" s="53"/>
+      <c r="K28" s="34" t="s">
         <v>346</v>
       </c>
-      <c r="J28" s="94"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="53">
+      <c r="L28" s="94"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="53">
         <v>4</v>
       </c>
-      <c r="M28" s="53">
+      <c r="O28" s="53">
         <v>1</v>
       </c>
-      <c r="N28" s="53">
+      <c r="P28" s="53">
         <v>0</v>
       </c>
-      <c r="O28" s="91"/>
-      <c r="P28" s="94">
+      <c r="Q28" s="91"/>
+      <c r="R28" s="94">
         <v>94</v>
       </c>
-      <c r="Q28" s="94">
+      <c r="S28" s="94">
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="53" t="s">
         <v>372</v>
       </c>
@@ -14881,39 +15073,41 @@
       <c r="D29" s="18">
         <v>2002</v>
       </c>
-      <c r="E29" s="18" t="s">
+      <c r="E29" s="18"/>
+      <c r="F29" s="202"/>
+      <c r="G29" s="18" t="s">
         <v>373</v>
       </c>
-      <c r="F29" s="184" t="s">
+      <c r="H29" s="184" t="s">
         <v>476</v>
       </c>
-      <c r="G29" s="191" t="s">
+      <c r="I29" s="191" t="s">
         <v>561</v>
       </c>
-      <c r="H29" s="184" t="s">
+      <c r="J29" s="184" t="s">
         <v>346</v>
       </c>
-      <c r="I29" s="94"/>
-      <c r="J29" s="94"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="29">
+      <c r="K29" s="94"/>
+      <c r="L29" s="94"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="29">
         <v>31</v>
       </c>
-      <c r="M29" s="29">
+      <c r="O29" s="29">
         <v>30</v>
       </c>
-      <c r="N29" s="29">
+      <c r="P29" s="29">
         <v>0</v>
       </c>
-      <c r="O29" s="91"/>
-      <c r="P29" s="94">
+      <c r="Q29" s="91"/>
+      <c r="R29" s="94">
         <v>19</v>
       </c>
-      <c r="Q29" s="94">
+      <c r="S29" s="94">
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="53" t="s">
         <v>378</v>
       </c>
@@ -14926,39 +15120,41 @@
       <c r="D30" s="18">
         <v>2013</v>
       </c>
-      <c r="E30" s="18" t="s">
+      <c r="E30" s="18"/>
+      <c r="F30" s="202"/>
+      <c r="G30" s="18" t="s">
         <v>376</v>
       </c>
-      <c r="F30" s="29" t="s">
+      <c r="H30" s="29" t="s">
         <v>477</v>
       </c>
-      <c r="G30" s="193" t="s">
+      <c r="I30" s="193" t="s">
         <v>533</v>
       </c>
-      <c r="H30" s="94"/>
-      <c r="I30" s="34" t="s">
+      <c r="J30" s="94"/>
+      <c r="K30" s="34" t="s">
         <v>346</v>
       </c>
-      <c r="J30" s="94"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="29">
-        <v>0</v>
-      </c>
-      <c r="M30" s="29">
-        <v>0</v>
-      </c>
+      <c r="L30" s="94"/>
+      <c r="M30" s="19"/>
       <c r="N30" s="29">
         <v>0</v>
       </c>
-      <c r="O30" s="91"/>
-      <c r="P30" s="94">
+      <c r="O30" s="29">
+        <v>0</v>
+      </c>
+      <c r="P30" s="29">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="91"/>
+      <c r="R30" s="94">
         <v>13</v>
       </c>
-      <c r="Q30" s="94">
+      <c r="S30" s="94">
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="53" t="s">
         <v>379</v>
       </c>
@@ -14971,39 +15167,41 @@
       <c r="D31" s="18">
         <v>1995</v>
       </c>
-      <c r="E31" s="18" t="s">
+      <c r="E31" s="18"/>
+      <c r="F31" s="202"/>
+      <c r="G31" s="18" t="s">
         <v>380</v>
       </c>
-      <c r="F31" s="29" t="s">
+      <c r="H31" s="29" t="s">
         <v>500</v>
       </c>
-      <c r="G31" s="191" t="s">
+      <c r="I31" s="191" t="s">
         <v>534</v>
       </c>
-      <c r="H31" s="29"/>
-      <c r="I31" s="34" t="s">
+      <c r="J31" s="29"/>
+      <c r="K31" s="34" t="s">
         <v>346</v>
       </c>
-      <c r="J31" s="94"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="29">
-        <v>1</v>
-      </c>
-      <c r="M31" s="29">
-        <v>1</v>
-      </c>
+      <c r="L31" s="94"/>
+      <c r="M31" s="19"/>
       <c r="N31" s="29">
         <v>1</v>
       </c>
-      <c r="O31" s="91"/>
-      <c r="P31" s="94">
+      <c r="O31" s="29">
+        <v>1</v>
+      </c>
+      <c r="P31" s="29">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="91"/>
+      <c r="R31" s="94">
         <v>16</v>
       </c>
-      <c r="Q31" s="94">
+      <c r="S31" s="94">
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="53" t="s">
         <v>383</v>
       </c>
@@ -15016,37 +15214,39 @@
       <c r="D32" s="18">
         <v>2010</v>
       </c>
-      <c r="E32" s="18" t="s">
+      <c r="E32" s="18"/>
+      <c r="F32" s="202"/>
+      <c r="G32" s="18" t="s">
         <v>384</v>
       </c>
-      <c r="F32" s="184" t="s">
+      <c r="H32" s="184" t="s">
         <v>479</v>
       </c>
-      <c r="G32" s="191"/>
-      <c r="H32" s="184" t="s">
+      <c r="I32" s="191"/>
+      <c r="J32" s="184" t="s">
         <v>346</v>
       </c>
-      <c r="I32" s="94"/>
-      <c r="J32" s="94"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="29">
+      <c r="K32" s="94"/>
+      <c r="L32" s="94"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="29">
         <v>50</v>
       </c>
-      <c r="M32" s="29">
+      <c r="O32" s="29">
         <v>32</v>
       </c>
-      <c r="N32" s="29">
+      <c r="P32" s="29">
         <v>0</v>
       </c>
-      <c r="O32" s="91"/>
-      <c r="P32" s="94">
+      <c r="Q32" s="91"/>
+      <c r="R32" s="94">
         <v>26</v>
       </c>
-      <c r="Q32" s="94">
+      <c r="S32" s="94">
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="53" t="s">
         <v>387</v>
       </c>
@@ -15059,39 +15259,41 @@
       <c r="D33" s="18">
         <v>2010</v>
       </c>
-      <c r="E33" s="18" t="s">
+      <c r="E33" s="18"/>
+      <c r="F33" s="202"/>
+      <c r="G33" s="18" t="s">
         <v>388</v>
       </c>
-      <c r="F33" s="184" t="s">
+      <c r="H33" s="184" t="s">
         <v>480</v>
       </c>
-      <c r="G33" s="191" t="s">
+      <c r="I33" s="191" t="s">
         <v>562</v>
       </c>
-      <c r="H33" s="184" t="s">
+      <c r="J33" s="184" t="s">
         <v>346</v>
       </c>
-      <c r="I33" s="94"/>
-      <c r="J33" s="94"/>
-      <c r="K33" s="19"/>
-      <c r="L33" s="29">
+      <c r="K33" s="94"/>
+      <c r="L33" s="94"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="29">
         <v>5</v>
       </c>
-      <c r="M33" s="29">
+      <c r="O33" s="29">
         <v>4</v>
       </c>
-      <c r="N33" s="29">
+      <c r="P33" s="29">
         <v>1</v>
       </c>
-      <c r="O33" s="91"/>
-      <c r="P33" s="94">
+      <c r="Q33" s="91"/>
+      <c r="R33" s="94">
         <v>21</v>
       </c>
-      <c r="Q33" s="94">
+      <c r="S33" s="94">
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="53" t="s">
         <v>391</v>
       </c>
@@ -15104,43 +15306,45 @@
       <c r="D34" s="18">
         <v>2000</v>
       </c>
-      <c r="E34" s="18" t="s">
+      <c r="E34" s="18"/>
+      <c r="F34" s="202"/>
+      <c r="G34" s="18" t="s">
         <v>392</v>
       </c>
-      <c r="F34" s="184" t="s">
+      <c r="H34" s="184" t="s">
         <v>499</v>
       </c>
-      <c r="G34" s="191" t="s">
+      <c r="I34" s="191" t="s">
         <v>535</v>
       </c>
-      <c r="H34" s="184" t="s">
+      <c r="J34" s="184" t="s">
         <v>346</v>
       </c>
-      <c r="I34" s="94"/>
-      <c r="J34" s="185" t="s">
+      <c r="K34" s="94"/>
+      <c r="L34" s="185" t="s">
         <v>346</v>
       </c>
-      <c r="K34" s="189" t="s">
+      <c r="M34" s="189" t="s">
         <v>528</v>
       </c>
-      <c r="L34" s="29">
+      <c r="N34" s="29">
         <v>55</v>
       </c>
-      <c r="M34" s="29">
+      <c r="O34" s="29">
         <v>51</v>
       </c>
-      <c r="N34" s="29">
+      <c r="P34" s="29">
         <v>4</v>
       </c>
-      <c r="O34" s="91"/>
-      <c r="P34" s="94">
+      <c r="Q34" s="91"/>
+      <c r="R34" s="94">
         <v>8</v>
       </c>
-      <c r="Q34" s="94">
+      <c r="S34" s="94">
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="53" t="s">
         <v>395</v>
       </c>
@@ -15153,39 +15357,41 @@
       <c r="D35" s="18">
         <v>2014</v>
       </c>
-      <c r="E35" s="18" t="s">
+      <c r="E35" s="18"/>
+      <c r="F35" s="202"/>
+      <c r="G35" s="18" t="s">
         <v>396</v>
       </c>
-      <c r="F35" s="29" t="s">
+      <c r="H35" s="29" t="s">
         <v>481</v>
       </c>
-      <c r="G35" s="193" t="s">
+      <c r="I35" s="193" t="s">
         <v>536</v>
       </c>
-      <c r="H35" s="94"/>
-      <c r="I35" s="34" t="s">
+      <c r="J35" s="94"/>
+      <c r="K35" s="34" t="s">
         <v>346</v>
       </c>
-      <c r="J35" s="94"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="29">
+      <c r="L35" s="94"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="29">
         <v>4</v>
       </c>
-      <c r="M35" s="29">
+      <c r="O35" s="29">
         <v>1</v>
       </c>
-      <c r="N35" s="29">
+      <c r="P35" s="29">
         <v>1</v>
       </c>
-      <c r="O35" s="91"/>
-      <c r="P35" s="94">
+      <c r="Q35" s="91"/>
+      <c r="R35" s="94">
         <v>18</v>
       </c>
-      <c r="Q35" s="94">
+      <c r="S35" s="94">
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="53" t="s">
         <v>400</v>
       </c>
@@ -15198,39 +15404,41 @@
       <c r="D36" s="18">
         <v>2010</v>
       </c>
-      <c r="E36" s="18" t="s">
+      <c r="E36" s="18"/>
+      <c r="F36" s="202"/>
+      <c r="G36" s="18" t="s">
         <v>401</v>
       </c>
-      <c r="F36" s="184" t="s">
+      <c r="H36" s="184" t="s">
         <v>482</v>
       </c>
-      <c r="G36" s="193" t="s">
+      <c r="I36" s="193" t="s">
         <v>537</v>
       </c>
-      <c r="H36" s="184" t="s">
+      <c r="J36" s="184" t="s">
         <v>346</v>
       </c>
-      <c r="I36" s="94"/>
-      <c r="J36" s="94"/>
-      <c r="K36" s="19"/>
-      <c r="L36" s="29">
+      <c r="K36" s="94"/>
+      <c r="L36" s="94"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="29">
         <v>5</v>
       </c>
-      <c r="M36" s="29">
+      <c r="O36" s="29">
         <v>4</v>
       </c>
-      <c r="N36" s="29">
+      <c r="P36" s="29">
         <v>1</v>
       </c>
-      <c r="O36" s="91"/>
-      <c r="P36" s="94">
+      <c r="Q36" s="91"/>
+      <c r="R36" s="94">
         <v>45</v>
       </c>
-      <c r="Q36" s="94">
+      <c r="S36" s="94">
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="53" t="s">
         <v>404</v>
       </c>
@@ -15243,39 +15451,41 @@
       <c r="D37" s="18">
         <v>2010</v>
       </c>
-      <c r="E37" s="18" t="s">
+      <c r="E37" s="18"/>
+      <c r="F37" s="202"/>
+      <c r="G37" s="18" t="s">
         <v>401</v>
       </c>
-      <c r="F37" s="184" t="s">
+      <c r="H37" s="184" t="s">
         <v>483</v>
       </c>
-      <c r="G37" s="193" t="s">
+      <c r="I37" s="193" t="s">
         <v>544</v>
       </c>
-      <c r="H37" s="184" t="s">
+      <c r="J37" s="184" t="s">
         <v>346</v>
       </c>
-      <c r="I37" s="94"/>
-      <c r="J37" s="94"/>
-      <c r="K37" s="19"/>
-      <c r="L37" s="29">
+      <c r="K37" s="94"/>
+      <c r="L37" s="94"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="29">
         <v>3</v>
       </c>
-      <c r="M37" s="29">
+      <c r="O37" s="29">
         <v>2</v>
       </c>
-      <c r="N37" s="29">
+      <c r="P37" s="29">
         <v>0</v>
       </c>
-      <c r="O37" s="91"/>
-      <c r="P37" s="94">
+      <c r="Q37" s="91"/>
+      <c r="R37" s="94">
         <v>28</v>
       </c>
-      <c r="Q37" s="94">
+      <c r="S37" s="94">
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="53" t="s">
         <v>407</v>
       </c>
@@ -15288,39 +15498,41 @@
       <c r="D38" s="18">
         <v>2005</v>
       </c>
-      <c r="E38" s="18" t="s">
+      <c r="E38" s="18"/>
+      <c r="F38" s="202"/>
+      <c r="G38" s="18" t="s">
         <v>408</v>
       </c>
-      <c r="F38" s="184" t="s">
+      <c r="H38" s="184" t="s">
         <v>484</v>
       </c>
-      <c r="G38" s="193" t="s">
+      <c r="I38" s="193" t="s">
         <v>563</v>
       </c>
-      <c r="H38" s="184" t="s">
+      <c r="J38" s="184" t="s">
         <v>346</v>
       </c>
-      <c r="I38" s="94"/>
-      <c r="J38" s="94"/>
-      <c r="K38" s="19"/>
-      <c r="L38" s="29">
+      <c r="K38" s="94"/>
+      <c r="L38" s="94"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="29">
         <v>14</v>
       </c>
-      <c r="M38" s="29">
+      <c r="O38" s="29">
         <v>15</v>
       </c>
-      <c r="N38" s="29">
+      <c r="P38" s="29">
         <v>3</v>
       </c>
-      <c r="O38" s="91"/>
-      <c r="P38" s="94">
+      <c r="Q38" s="91"/>
+      <c r="R38" s="94">
         <v>14</v>
       </c>
-      <c r="Q38" s="94">
+      <c r="S38" s="94">
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="53" t="s">
         <v>411</v>
       </c>
@@ -15333,37 +15545,39 @@
       <c r="D39" s="18">
         <v>1998</v>
       </c>
-      <c r="E39" s="18" t="s">
+      <c r="E39" s="18"/>
+      <c r="F39" s="202"/>
+      <c r="G39" s="18" t="s">
         <v>412</v>
       </c>
-      <c r="F39" s="184" t="s">
+      <c r="H39" s="184" t="s">
         <v>498</v>
       </c>
-      <c r="G39" s="191"/>
-      <c r="H39" s="184" t="s">
+      <c r="I39" s="191"/>
+      <c r="J39" s="184" t="s">
         <v>346</v>
       </c>
-      <c r="I39" s="94"/>
-      <c r="J39" s="94"/>
-      <c r="K39" s="19"/>
-      <c r="L39" s="29">
+      <c r="K39" s="94"/>
+      <c r="L39" s="94"/>
+      <c r="M39" s="19"/>
+      <c r="N39" s="29">
         <v>1</v>
       </c>
-      <c r="M39" s="29">
+      <c r="O39" s="29">
         <v>2</v>
       </c>
-      <c r="N39" s="29">
+      <c r="P39" s="29">
         <v>2</v>
       </c>
-      <c r="O39" s="91"/>
-      <c r="P39" s="94">
+      <c r="Q39" s="91"/>
+      <c r="R39" s="94">
         <v>5</v>
       </c>
-      <c r="Q39" s="94">
+      <c r="S39" s="94">
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="53" t="s">
         <v>415</v>
       </c>
@@ -15376,39 +15590,41 @@
       <c r="D40" s="18">
         <v>2007</v>
       </c>
-      <c r="E40" s="18" t="s">
+      <c r="E40" s="18"/>
+      <c r="F40" s="202"/>
+      <c r="G40" s="18" t="s">
         <v>420</v>
       </c>
-      <c r="F40" s="184" t="s">
+      <c r="H40" s="184" t="s">
         <v>485</v>
       </c>
-      <c r="G40" s="193" t="s">
+      <c r="I40" s="193" t="s">
         <v>546</v>
       </c>
-      <c r="H40" s="184" t="s">
+      <c r="J40" s="184" t="s">
         <v>346</v>
       </c>
-      <c r="I40" s="94"/>
-      <c r="J40" s="94"/>
-      <c r="K40" s="19"/>
-      <c r="L40" s="29">
+      <c r="K40" s="94"/>
+      <c r="L40" s="94"/>
+      <c r="M40" s="19"/>
+      <c r="N40" s="29">
         <v>58</v>
       </c>
-      <c r="M40" s="29">
+      <c r="O40" s="29">
         <v>39</v>
       </c>
-      <c r="N40" s="29">
+      <c r="P40" s="29">
         <v>5</v>
       </c>
-      <c r="O40" s="91"/>
-      <c r="P40" s="94">
+      <c r="Q40" s="91"/>
+      <c r="R40" s="94">
         <v>15</v>
       </c>
-      <c r="Q40" s="94">
+      <c r="S40" s="94">
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="53" t="s">
         <v>417</v>
       </c>
@@ -15421,43 +15637,45 @@
       <c r="D41" s="18">
         <v>2014</v>
       </c>
-      <c r="E41" s="18" t="s">
+      <c r="E41" s="18"/>
+      <c r="F41" s="202"/>
+      <c r="G41" s="18" t="s">
         <v>418</v>
       </c>
-      <c r="F41" s="184" t="s">
+      <c r="H41" s="184" t="s">
         <v>497</v>
       </c>
-      <c r="G41" s="191" t="s">
+      <c r="I41" s="191" t="s">
         <v>538</v>
       </c>
-      <c r="H41" s="184" t="s">
+      <c r="J41" s="184" t="s">
         <v>346</v>
       </c>
-      <c r="I41" s="94"/>
-      <c r="J41" s="185" t="s">
+      <c r="K41" s="94"/>
+      <c r="L41" s="185" t="s">
         <v>346</v>
       </c>
-      <c r="K41" s="189" t="s">
+      <c r="M41" s="189" t="s">
         <v>527</v>
       </c>
-      <c r="L41" s="29">
+      <c r="N41" s="29">
         <v>1</v>
       </c>
-      <c r="M41" s="29">
+      <c r="O41" s="29">
         <v>0</v>
       </c>
-      <c r="N41" s="29">
+      <c r="P41" s="29">
         <v>0</v>
       </c>
-      <c r="O41" s="91"/>
-      <c r="P41" s="94">
+      <c r="Q41" s="91"/>
+      <c r="R41" s="94">
         <v>70</v>
       </c>
-      <c r="Q41" s="94">
+      <c r="S41" s="94">
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="53" t="s">
         <v>423</v>
       </c>
@@ -15470,39 +15688,41 @@
       <c r="D42" s="18">
         <v>2013</v>
       </c>
-      <c r="E42" s="18" t="s">
+      <c r="E42" s="18"/>
+      <c r="F42" s="202"/>
+      <c r="G42" s="18" t="s">
         <v>424</v>
       </c>
-      <c r="F42" s="184" t="s">
+      <c r="H42" s="184" t="s">
         <v>506</v>
       </c>
-      <c r="G42" s="193" t="s">
+      <c r="I42" s="193" t="s">
         <v>539</v>
       </c>
-      <c r="H42" s="184" t="s">
+      <c r="J42" s="184" t="s">
         <v>346</v>
       </c>
-      <c r="I42" s="94"/>
-      <c r="J42" s="94"/>
-      <c r="K42" s="19"/>
-      <c r="L42" s="29">
+      <c r="K42" s="94"/>
+      <c r="L42" s="94"/>
+      <c r="M42" s="19"/>
+      <c r="N42" s="29">
         <v>17</v>
       </c>
-      <c r="M42" s="29">
+      <c r="O42" s="29">
         <v>10</v>
       </c>
-      <c r="N42" s="29">
+      <c r="P42" s="29">
         <v>2</v>
       </c>
-      <c r="O42" s="91"/>
-      <c r="P42" s="94">
+      <c r="Q42" s="91"/>
+      <c r="R42" s="94">
         <v>31</v>
       </c>
-      <c r="Q42" s="94">
+      <c r="S42" s="94">
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="53" t="s">
         <v>426</v>
       </c>
@@ -15515,39 +15735,41 @@
       <c r="D43" s="18">
         <v>2013</v>
       </c>
-      <c r="E43" s="18" t="s">
+      <c r="E43" s="18"/>
+      <c r="F43" s="202"/>
+      <c r="G43" s="18" t="s">
         <v>424</v>
       </c>
-      <c r="F43" s="98" t="s">
+      <c r="H43" s="98" t="s">
         <v>496</v>
       </c>
-      <c r="G43" s="194" t="s">
+      <c r="I43" s="194" t="s">
         <v>540</v>
       </c>
-      <c r="H43" s="98"/>
-      <c r="I43" s="34" t="s">
+      <c r="J43" s="98"/>
+      <c r="K43" s="34" t="s">
         <v>346</v>
       </c>
-      <c r="J43" s="94"/>
-      <c r="K43" s="19"/>
-      <c r="L43" s="195">
+      <c r="L43" s="94"/>
+      <c r="M43" s="19"/>
+      <c r="N43" s="195">
         <v>6</v>
       </c>
-      <c r="M43" s="98">
+      <c r="O43" s="98">
         <v>1</v>
       </c>
-      <c r="N43" s="98">
+      <c r="P43" s="98">
         <v>1</v>
       </c>
-      <c r="O43" s="91"/>
-      <c r="P43" s="94">
+      <c r="Q43" s="91"/>
+      <c r="R43" s="94">
         <v>15</v>
       </c>
-      <c r="Q43" s="94">
+      <c r="S43" s="94">
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="53" t="s">
         <v>429</v>
       </c>
@@ -15560,37 +15782,39 @@
       <c r="D44" s="18">
         <v>2007</v>
       </c>
-      <c r="E44" s="18" t="s">
+      <c r="E44" s="18"/>
+      <c r="F44" s="202"/>
+      <c r="G44" s="18" t="s">
         <v>430</v>
       </c>
-      <c r="F44" s="184" t="s">
+      <c r="H44" s="184" t="s">
         <v>486</v>
       </c>
-      <c r="G44" s="6"/>
-      <c r="H44" s="184" t="s">
+      <c r="I44" s="6"/>
+      <c r="J44" s="184" t="s">
         <v>346</v>
       </c>
-      <c r="I44" s="94"/>
-      <c r="J44" s="94"/>
-      <c r="K44" s="19"/>
-      <c r="L44" s="190">
+      <c r="K44" s="94"/>
+      <c r="L44" s="94"/>
+      <c r="M44" s="19"/>
+      <c r="N44" s="190">
         <v>69</v>
       </c>
-      <c r="M44" s="29">
+      <c r="O44" s="29">
         <v>51</v>
       </c>
-      <c r="N44" s="29">
+      <c r="P44" s="29">
         <v>5</v>
       </c>
-      <c r="O44" s="91"/>
-      <c r="P44" s="94">
+      <c r="Q44" s="91"/>
+      <c r="R44" s="94">
         <v>7</v>
       </c>
-      <c r="Q44" s="94">
+      <c r="S44" s="94">
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="53" t="s">
         <v>433</v>
       </c>
@@ -15603,39 +15827,41 @@
       <c r="D45" s="18">
         <v>2011</v>
       </c>
-      <c r="E45" s="18" t="s">
+      <c r="E45" s="18"/>
+      <c r="F45" s="202"/>
+      <c r="G45" s="18" t="s">
         <v>434</v>
       </c>
-      <c r="F45" s="29" t="s">
+      <c r="H45" s="29" t="s">
         <v>487</v>
       </c>
-      <c r="G45" s="193" t="s">
+      <c r="I45" s="193" t="s">
         <v>541</v>
       </c>
-      <c r="H45" s="94"/>
-      <c r="I45" s="34" t="s">
+      <c r="J45" s="94"/>
+      <c r="K45" s="34" t="s">
         <v>346</v>
       </c>
-      <c r="J45" s="94"/>
-      <c r="K45" s="19"/>
-      <c r="L45" s="29">
+      <c r="L45" s="94"/>
+      <c r="M45" s="19"/>
+      <c r="N45" s="29">
         <v>17</v>
       </c>
-      <c r="M45" s="29">
+      <c r="O45" s="29">
         <v>10</v>
       </c>
-      <c r="N45" s="29">
+      <c r="P45" s="29">
         <v>2</v>
       </c>
-      <c r="O45" s="91"/>
-      <c r="P45" s="94">
+      <c r="Q45" s="91"/>
+      <c r="R45" s="94">
         <v>7</v>
       </c>
-      <c r="Q45" s="94">
+      <c r="S45" s="94">
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="53" t="s">
         <v>437</v>
       </c>
@@ -15648,39 +15874,41 @@
       <c r="D46" s="18">
         <v>2007</v>
       </c>
-      <c r="E46" s="18" t="s">
+      <c r="E46" s="18"/>
+      <c r="F46" s="202"/>
+      <c r="G46" s="18" t="s">
         <v>438</v>
       </c>
-      <c r="F46" s="29" t="s">
+      <c r="H46" s="29" t="s">
         <v>495</v>
       </c>
-      <c r="G46" s="191" t="s">
+      <c r="I46" s="191" t="s">
         <v>548</v>
       </c>
-      <c r="H46" s="29"/>
-      <c r="I46" s="34" t="s">
+      <c r="J46" s="29"/>
+      <c r="K46" s="34" t="s">
         <v>346</v>
       </c>
-      <c r="J46" s="94"/>
-      <c r="K46" s="19"/>
-      <c r="L46" s="29">
+      <c r="L46" s="94"/>
+      <c r="M46" s="19"/>
+      <c r="N46" s="29">
         <v>15</v>
       </c>
-      <c r="M46" s="29">
+      <c r="O46" s="29">
         <v>14</v>
       </c>
-      <c r="N46" s="29">
+      <c r="P46" s="29">
         <v>2</v>
       </c>
-      <c r="O46" s="91"/>
-      <c r="P46" s="94">
+      <c r="Q46" s="91"/>
+      <c r="R46" s="94">
         <v>14</v>
       </c>
-      <c r="Q46" s="94">
+      <c r="S46" s="94">
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="53" t="s">
         <v>440</v>
       </c>
@@ -15693,39 +15921,41 @@
       <c r="D47" s="18">
         <v>2010</v>
       </c>
-      <c r="E47" s="18" t="s">
+      <c r="E47" s="18"/>
+      <c r="F47" s="202"/>
+      <c r="G47" s="18" t="s">
         <v>441</v>
       </c>
-      <c r="F47" s="29" t="s">
+      <c r="H47" s="29" t="s">
         <v>494</v>
       </c>
-      <c r="G47" s="191" t="s">
+      <c r="I47" s="191" t="s">
         <v>533</v>
       </c>
-      <c r="H47" s="29"/>
-      <c r="I47" s="34" t="s">
+      <c r="J47" s="29"/>
+      <c r="K47" s="34" t="s">
         <v>346</v>
       </c>
-      <c r="J47" s="94"/>
-      <c r="K47" s="19"/>
-      <c r="L47" s="29">
-        <v>0</v>
-      </c>
-      <c r="M47" s="29">
-        <v>0</v>
-      </c>
+      <c r="L47" s="94"/>
+      <c r="M47" s="19"/>
       <c r="N47" s="29">
         <v>0</v>
       </c>
-      <c r="O47" s="91"/>
-      <c r="P47" s="94">
+      <c r="O47" s="29">
+        <v>0</v>
+      </c>
+      <c r="P47" s="29">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="91"/>
+      <c r="R47" s="94">
         <v>27</v>
       </c>
-      <c r="Q47" s="94">
+      <c r="S47" s="94">
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="53" t="s">
         <v>444</v>
       </c>
@@ -15738,41 +15968,43 @@
       <c r="D48" s="18">
         <v>2006</v>
       </c>
-      <c r="E48" s="18" t="s">
+      <c r="E48" s="18"/>
+      <c r="F48" s="202"/>
+      <c r="G48" s="18" t="s">
         <v>408</v>
       </c>
-      <c r="F48" s="29" t="s">
+      <c r="H48" s="29" t="s">
         <v>488</v>
       </c>
-      <c r="G48" s="193" t="s">
+      <c r="I48" s="193" t="s">
         <v>544</v>
       </c>
-      <c r="H48" s="85"/>
-      <c r="I48" s="85"/>
-      <c r="J48" s="85" t="s">
+      <c r="J48" s="85"/>
+      <c r="K48" s="85"/>
+      <c r="L48" s="85" t="s">
         <v>346</v>
       </c>
-      <c r="K48" s="19" t="s">
+      <c r="M48" s="19" t="s">
         <v>568</v>
       </c>
-      <c r="L48" s="29">
+      <c r="N48" s="29">
         <v>11</v>
       </c>
-      <c r="M48" s="29">
+      <c r="O48" s="29">
         <v>10</v>
       </c>
-      <c r="N48" s="29">
+      <c r="P48" s="29">
         <v>2</v>
       </c>
-      <c r="O48" s="91"/>
-      <c r="P48" s="94">
+      <c r="Q48" s="91"/>
+      <c r="R48" s="94">
         <v>19</v>
       </c>
-      <c r="Q48" s="94">
+      <c r="S48" s="94">
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="53" t="s">
         <v>447</v>
       </c>
@@ -15785,39 +16017,41 @@
       <c r="D49" s="18">
         <v>2011</v>
       </c>
-      <c r="E49" s="18" t="s">
+      <c r="E49" s="18"/>
+      <c r="F49" s="202"/>
+      <c r="G49" s="18" t="s">
         <v>448</v>
       </c>
-      <c r="F49" s="29" t="s">
+      <c r="H49" s="29" t="s">
         <v>489</v>
       </c>
-      <c r="G49" s="191" t="s">
+      <c r="I49" s="191" t="s">
         <v>542</v>
       </c>
-      <c r="H49" s="29"/>
-      <c r="I49" s="34" t="s">
+      <c r="J49" s="29"/>
+      <c r="K49" s="34" t="s">
         <v>346</v>
       </c>
-      <c r="J49" s="94"/>
-      <c r="K49" s="19"/>
-      <c r="L49" s="29">
+      <c r="L49" s="94"/>
+      <c r="M49" s="19"/>
+      <c r="N49" s="29">
         <v>4</v>
       </c>
-      <c r="M49" s="29">
+      <c r="O49" s="29">
         <v>3</v>
       </c>
-      <c r="N49" s="29">
+      <c r="P49" s="29">
         <v>0</v>
       </c>
-      <c r="O49" s="91"/>
-      <c r="P49" s="94">
+      <c r="Q49" s="91"/>
+      <c r="R49" s="94">
         <v>19</v>
       </c>
-      <c r="Q49" s="94">
+      <c r="S49" s="94">
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="53" t="s">
         <v>451</v>
       </c>
@@ -15830,39 +16064,41 @@
       <c r="D50" s="18">
         <v>2004</v>
       </c>
-      <c r="E50" s="18" t="s">
+      <c r="E50" s="18"/>
+      <c r="F50" s="202"/>
+      <c r="G50" s="18" t="s">
         <v>455</v>
       </c>
-      <c r="F50" s="184" t="s">
+      <c r="H50" s="184" t="s">
         <v>490</v>
       </c>
-      <c r="G50" s="191" t="s">
+      <c r="I50" s="191" t="s">
         <v>534</v>
       </c>
-      <c r="H50" s="184" t="s">
+      <c r="J50" s="184" t="s">
         <v>346</v>
       </c>
-      <c r="I50" s="94"/>
-      <c r="J50" s="94"/>
-      <c r="K50" s="19"/>
-      <c r="L50" s="29">
+      <c r="K50" s="94"/>
+      <c r="L50" s="94"/>
+      <c r="M50" s="19"/>
+      <c r="N50" s="29">
         <v>1</v>
       </c>
-      <c r="M50" s="29">
+      <c r="O50" s="29">
         <v>1</v>
       </c>
-      <c r="N50" s="29">
+      <c r="P50" s="29">
         <v>0</v>
       </c>
-      <c r="O50" s="91"/>
-      <c r="P50" s="94">
+      <c r="Q50" s="91"/>
+      <c r="R50" s="94">
         <v>13</v>
       </c>
-      <c r="Q50" s="94">
+      <c r="S50" s="94">
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="53" t="s">
         <v>452</v>
       </c>
@@ -15875,37 +16111,39 @@
       <c r="D51" s="18">
         <v>2010</v>
       </c>
-      <c r="E51" s="18" t="s">
+      <c r="E51" s="18"/>
+      <c r="F51" s="202"/>
+      <c r="G51" s="18" t="s">
         <v>457</v>
       </c>
-      <c r="F51" s="184" t="s">
+      <c r="H51" s="184" t="s">
         <v>493</v>
       </c>
-      <c r="G51" s="191"/>
-      <c r="H51" s="184" t="s">
+      <c r="I51" s="191"/>
+      <c r="J51" s="184" t="s">
         <v>346</v>
       </c>
-      <c r="I51" s="94"/>
-      <c r="J51" s="94"/>
-      <c r="K51" s="19"/>
-      <c r="L51" s="29">
+      <c r="K51" s="94"/>
+      <c r="L51" s="94"/>
+      <c r="M51" s="19"/>
+      <c r="N51" s="29">
         <v>5</v>
       </c>
-      <c r="M51" s="29">
+      <c r="O51" s="29">
         <v>4</v>
       </c>
-      <c r="N51" s="29">
+      <c r="P51" s="29">
         <v>2</v>
       </c>
-      <c r="O51" s="91"/>
-      <c r="P51" s="94">
+      <c r="Q51" s="91"/>
+      <c r="R51" s="94">
         <v>8</v>
       </c>
-      <c r="Q51" s="94">
+      <c r="S51" s="94">
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="53" t="s">
         <v>453</v>
       </c>
@@ -15918,39 +16156,41 @@
       <c r="D52" s="18">
         <v>2003</v>
       </c>
-      <c r="E52" s="18" t="s">
+      <c r="E52" s="18"/>
+      <c r="F52" s="202"/>
+      <c r="G52" s="18" t="s">
         <v>460</v>
       </c>
-      <c r="F52" s="29" t="s">
+      <c r="H52" s="29" t="s">
         <v>491</v>
       </c>
-      <c r="G52" s="191" t="s">
+      <c r="I52" s="191" t="s">
         <v>543</v>
       </c>
-      <c r="H52" s="29"/>
-      <c r="I52" s="34" t="s">
+      <c r="J52" s="29"/>
+      <c r="K52" s="34" t="s">
         <v>346</v>
       </c>
-      <c r="J52" s="94"/>
-      <c r="K52" s="19"/>
-      <c r="L52" s="29">
+      <c r="L52" s="94"/>
+      <c r="M52" s="19"/>
+      <c r="N52" s="29">
         <v>84</v>
       </c>
-      <c r="M52" s="29">
+      <c r="O52" s="29">
         <v>66</v>
       </c>
-      <c r="N52" s="29">
+      <c r="P52" s="29">
         <v>2</v>
       </c>
-      <c r="O52" s="91"/>
-      <c r="P52" s="94">
+      <c r="Q52" s="91"/>
+      <c r="R52" s="94">
         <v>13</v>
       </c>
-      <c r="Q52" s="94">
+      <c r="S52" s="94">
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="53" t="s">
         <v>454</v>
       </c>
@@ -15963,41 +16203,43 @@
       <c r="D53" s="18">
         <v>2007</v>
       </c>
-      <c r="E53" s="18" t="s">
+      <c r="E53" s="18"/>
+      <c r="F53" s="202"/>
+      <c r="G53" s="18" t="s">
         <v>420</v>
       </c>
-      <c r="F53" s="184" t="s">
+      <c r="H53" s="184" t="s">
         <v>492</v>
       </c>
-      <c r="G53" s="191" t="s">
+      <c r="I53" s="191" t="s">
         <v>547</v>
       </c>
-      <c r="H53" s="184" t="s">
+      <c r="J53" s="184" t="s">
         <v>346</v>
       </c>
-      <c r="I53" s="94"/>
-      <c r="J53" s="94"/>
-      <c r="K53" s="19"/>
-      <c r="L53" s="29">
+      <c r="K53" s="94"/>
+      <c r="L53" s="94"/>
+      <c r="M53" s="19"/>
+      <c r="N53" s="29">
         <v>37</v>
       </c>
-      <c r="M53" s="29">
+      <c r="O53" s="29">
         <v>28</v>
       </c>
-      <c r="N53" s="29">
+      <c r="P53" s="29">
         <v>4</v>
       </c>
-      <c r="O53" s="91"/>
-      <c r="P53" s="94">
+      <c r="Q53" s="91"/>
+      <c r="R53" s="94">
         <v>10</v>
       </c>
-      <c r="Q53" s="94">
+      <c r="S53" s="94">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A1:S1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -16008,8 +16250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S54"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16024,43 +16266,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="226" t="s">
+      <c r="A1" s="227" t="s">
         <v>230</v>
       </c>
-      <c r="B1" s="227"/>
-      <c r="C1" s="227"/>
-      <c r="D1" s="227"/>
-      <c r="E1" s="227"/>
-      <c r="F1" s="227"/>
-      <c r="G1" s="227"/>
-      <c r="H1" s="227"/>
-      <c r="I1" s="227"/>
+      <c r="B1" s="228"/>
+      <c r="C1" s="228"/>
+      <c r="D1" s="228"/>
+      <c r="E1" s="228"/>
+      <c r="F1" s="228"/>
+      <c r="G1" s="228"/>
+      <c r="H1" s="228"/>
+      <c r="I1" s="228"/>
     </row>
     <row r="2" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="225" t="s">
+      <c r="A2" s="230" t="s">
         <v>229</v>
       </c>
-      <c r="B2" s="225"/>
-      <c r="C2" s="225"/>
-      <c r="D2" s="225"/>
-      <c r="E2" s="225"/>
-      <c r="F2" s="225"/>
-      <c r="G2" s="225"/>
-      <c r="H2" s="225"/>
-      <c r="I2" s="225"/>
+      <c r="B2" s="230"/>
+      <c r="C2" s="230"/>
+      <c r="D2" s="230"/>
+      <c r="E2" s="230"/>
+      <c r="F2" s="230"/>
+      <c r="G2" s="230"/>
+      <c r="H2" s="230"/>
+      <c r="I2" s="230"/>
     </row>
     <row r="3" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="218" t="s">
+      <c r="A3" s="231" t="s">
         <v>337</v>
       </c>
-      <c r="B3" s="218"/>
-      <c r="C3" s="218"/>
-      <c r="D3" s="218"/>
-      <c r="E3" s="218"/>
-      <c r="F3" s="218"/>
-      <c r="G3" s="218"/>
-      <c r="H3" s="218"/>
-      <c r="I3" s="218"/>
+      <c r="B3" s="231"/>
+      <c r="C3" s="231"/>
+      <c r="D3" s="231"/>
+      <c r="E3" s="231"/>
+      <c r="F3" s="231"/>
+      <c r="G3" s="231"/>
+      <c r="H3" s="231"/>
+      <c r="I3" s="231"/>
       <c r="J3" s="71"/>
       <c r="K3" s="71"/>
       <c r="L3" s="71"/>
@@ -16073,12 +16315,12 @@
       <c r="S3" s="71"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="228" t="s">
+      <c r="A4" s="229" t="s">
         <v>253</v>
       </c>
-      <c r="B4" s="228"/>
-      <c r="C4" s="228"/>
-      <c r="D4" s="228"/>
+      <c r="B4" s="229"/>
+      <c r="C4" s="229"/>
+      <c r="D4" s="229"/>
     </row>
     <row r="5" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="69" t="s">
@@ -16104,7 +16346,7 @@
       <c r="C6" s="49" t="s">
         <v>196</v>
       </c>
-      <c r="D6" s="222" t="s">
+      <c r="D6" s="240" t="s">
         <v>339</v>
       </c>
       <c r="E6" t="e">
@@ -16123,7 +16365,7 @@
       <c r="C7" s="49" t="s">
         <v>228</v>
       </c>
-      <c r="D7" s="223"/>
+      <c r="D7" s="241"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="78" t="s">
@@ -16135,7 +16377,7 @@
       <c r="C8" s="49" t="s">
         <v>235</v>
       </c>
-      <c r="D8" s="223"/>
+      <c r="D8" s="241"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="78" t="s">
@@ -16147,7 +16389,7 @@
       <c r="C9" s="49" t="s">
         <v>236</v>
       </c>
-      <c r="D9" s="223"/>
+      <c r="D9" s="241"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="78" t="s">
@@ -16159,7 +16401,7 @@
       <c r="C10" s="49" t="s">
         <v>237</v>
       </c>
-      <c r="D10" s="223"/>
+      <c r="D10" s="241"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="78" t="s">
@@ -16171,7 +16413,7 @@
       <c r="C11" s="49" t="s">
         <v>237</v>
       </c>
-      <c r="D11" s="223"/>
+      <c r="D11" s="241"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="78" t="s">
@@ -16183,7 +16425,7 @@
       <c r="C12" s="49" t="s">
         <v>266</v>
       </c>
-      <c r="D12" s="223"/>
+      <c r="D12" s="241"/>
     </row>
     <row r="13" spans="1:19" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="145" t="s">
@@ -16195,7 +16437,7 @@
       <c r="C13" s="136" t="s">
         <v>273</v>
       </c>
-      <c r="D13" s="224"/>
+      <c r="D13" s="242"/>
     </row>
     <row r="14" spans="1:19" s="77" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="146" t="s">
@@ -16212,30 +16454,30 @@
       </c>
     </row>
     <row r="15" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="225" t="s">
+      <c r="A15" s="230" t="s">
         <v>261</v>
       </c>
-      <c r="B15" s="225"/>
-      <c r="C15" s="225"/>
-      <c r="D15" s="225"/>
-      <c r="E15" s="225"/>
-      <c r="F15" s="225"/>
-      <c r="G15" s="225"/>
-      <c r="H15" s="225"/>
-      <c r="I15" s="225"/>
+      <c r="B15" s="230"/>
+      <c r="C15" s="230"/>
+      <c r="D15" s="230"/>
+      <c r="E15" s="230"/>
+      <c r="F15" s="230"/>
+      <c r="G15" s="230"/>
+      <c r="H15" s="230"/>
+      <c r="I15" s="230"/>
     </row>
     <row r="16" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="218" t="s">
+      <c r="A16" s="231" t="s">
         <v>238</v>
       </c>
-      <c r="B16" s="218"/>
-      <c r="C16" s="218"/>
-      <c r="D16" s="218"/>
-      <c r="E16" s="218"/>
-      <c r="F16" s="218"/>
-      <c r="G16" s="218"/>
-      <c r="H16" s="218"/>
-      <c r="I16" s="218"/>
+      <c r="B16" s="231"/>
+      <c r="C16" s="231"/>
+      <c r="D16" s="231"/>
+      <c r="E16" s="231"/>
+      <c r="F16" s="231"/>
+      <c r="G16" s="231"/>
+      <c r="H16" s="231"/>
+      <c r="I16" s="231"/>
       <c r="J16" s="71"/>
       <c r="K16" s="71"/>
       <c r="L16" s="71"/>
@@ -16248,14 +16490,14 @@
       <c r="S16" s="71"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="228" t="s">
+      <c r="A17" s="229" t="s">
         <v>259</v>
       </c>
-      <c r="B17" s="228"/>
-      <c r="C17" s="228"/>
-      <c r="D17" s="228"/>
-      <c r="E17" s="228"/>
-      <c r="F17" s="228"/>
+      <c r="B17" s="229"/>
+      <c r="C17" s="229"/>
+      <c r="D17" s="229"/>
+      <c r="E17" s="229"/>
+      <c r="F17" s="229"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="69" t="s">
@@ -16422,30 +16664,30 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="225" t="s">
+      <c r="A25" s="230" t="s">
         <v>260</v>
       </c>
-      <c r="B25" s="225"/>
-      <c r="C25" s="225"/>
-      <c r="D25" s="225"/>
-      <c r="E25" s="225"/>
-      <c r="F25" s="225"/>
-      <c r="G25" s="225"/>
-      <c r="H25" s="225"/>
-      <c r="I25" s="225"/>
+      <c r="B25" s="230"/>
+      <c r="C25" s="230"/>
+      <c r="D25" s="230"/>
+      <c r="E25" s="230"/>
+      <c r="F25" s="230"/>
+      <c r="G25" s="230"/>
+      <c r="H25" s="230"/>
+      <c r="I25" s="230"/>
     </row>
     <row r="26" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="218" t="s">
+      <c r="A26" s="231" t="s">
         <v>338</v>
       </c>
-      <c r="B26" s="218"/>
-      <c r="C26" s="218"/>
-      <c r="D26" s="218"/>
-      <c r="E26" s="218"/>
-      <c r="F26" s="218"/>
-      <c r="G26" s="218"/>
-      <c r="H26" s="218"/>
-      <c r="I26" s="218"/>
+      <c r="B26" s="231"/>
+      <c r="C26" s="231"/>
+      <c r="D26" s="231"/>
+      <c r="E26" s="231"/>
+      <c r="F26" s="231"/>
+      <c r="G26" s="231"/>
+      <c r="H26" s="231"/>
+      <c r="I26" s="231"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="69" t="s">
@@ -16457,12 +16699,12 @@
       <c r="C27" s="69" t="s">
         <v>201</v>
       </c>
-      <c r="D27" s="232" t="s">
+      <c r="D27" s="235" t="s">
         <v>292</v>
       </c>
-      <c r="E27" s="232"/>
-      <c r="F27" s="232"/>
-      <c r="G27" s="232"/>
+      <c r="E27" s="235"/>
+      <c r="F27" s="235"/>
+      <c r="G27" s="235"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="52" t="s">
@@ -16474,12 +16716,12 @@
       <c r="C28" s="72">
         <v>0.59</v>
       </c>
-      <c r="D28" s="219" t="s">
+      <c r="D28" s="237" t="s">
         <v>285</v>
       </c>
-      <c r="E28" s="220"/>
-      <c r="F28" s="220"/>
-      <c r="G28" s="221"/>
+      <c r="E28" s="238"/>
+      <c r="F28" s="238"/>
+      <c r="G28" s="239"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="52" t="s">
@@ -16491,12 +16733,12 @@
       <c r="C29" s="72">
         <v>0.77</v>
       </c>
-      <c r="D29" s="229" t="s">
+      <c r="D29" s="232" t="s">
         <v>286</v>
       </c>
-      <c r="E29" s="230"/>
-      <c r="F29" s="230"/>
-      <c r="G29" s="231"/>
+      <c r="E29" s="233"/>
+      <c r="F29" s="233"/>
+      <c r="G29" s="234"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="52" t="s">
@@ -16508,12 +16750,12 @@
       <c r="C30" s="72">
         <v>0.41</v>
       </c>
-      <c r="D30" s="229" t="s">
+      <c r="D30" s="232" t="s">
         <v>287</v>
       </c>
-      <c r="E30" s="230"/>
-      <c r="F30" s="230"/>
-      <c r="G30" s="231"/>
+      <c r="E30" s="233"/>
+      <c r="F30" s="233"/>
+      <c r="G30" s="234"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="52" t="s">
@@ -16525,12 +16767,12 @@
       <c r="C31" s="72">
         <v>0.59</v>
       </c>
-      <c r="D31" s="229" t="s">
+      <c r="D31" s="232" t="s">
         <v>289</v>
       </c>
-      <c r="E31" s="230"/>
-      <c r="F31" s="230"/>
-      <c r="G31" s="231"/>
+      <c r="E31" s="233"/>
+      <c r="F31" s="233"/>
+      <c r="G31" s="234"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="52" t="s">
@@ -16542,12 +16784,12 @@
       <c r="C32" s="72">
         <v>0.5</v>
       </c>
-      <c r="D32" s="229" t="s">
+      <c r="D32" s="232" t="s">
         <v>288</v>
       </c>
-      <c r="E32" s="230"/>
-      <c r="F32" s="230"/>
-      <c r="G32" s="231"/>
+      <c r="E32" s="233"/>
+      <c r="F32" s="233"/>
+      <c r="G32" s="234"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="52" t="s">
@@ -16559,12 +16801,12 @@
       <c r="C33" s="72">
         <v>0.59</v>
       </c>
-      <c r="D33" s="229" t="s">
+      <c r="D33" s="232" t="s">
         <v>290</v>
       </c>
-      <c r="E33" s="230"/>
-      <c r="F33" s="230"/>
-      <c r="G33" s="231"/>
+      <c r="E33" s="233"/>
+      <c r="F33" s="233"/>
+      <c r="G33" s="234"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="52" t="s">
@@ -16576,25 +16818,25 @@
       <c r="C34" s="72">
         <v>0.54</v>
       </c>
-      <c r="D34" s="229" t="s">
+      <c r="D34" s="232" t="s">
         <v>291</v>
       </c>
-      <c r="E34" s="230"/>
-      <c r="F34" s="230"/>
-      <c r="G34" s="231"/>
+      <c r="E34" s="233"/>
+      <c r="F34" s="233"/>
+      <c r="G34" s="234"/>
     </row>
     <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="225" t="s">
+      <c r="A36" s="230" t="s">
         <v>315</v>
       </c>
-      <c r="B36" s="225"/>
-      <c r="C36" s="225"/>
-      <c r="D36" s="225"/>
-      <c r="E36" s="225"/>
-      <c r="F36" s="225"/>
-      <c r="G36" s="225"/>
-      <c r="H36" s="225"/>
-      <c r="I36" s="225"/>
+      <c r="B36" s="230"/>
+      <c r="C36" s="230"/>
+      <c r="D36" s="230"/>
+      <c r="E36" s="230"/>
+      <c r="F36" s="230"/>
+      <c r="G36" s="230"/>
+      <c r="H36" s="230"/>
+      <c r="I36" s="230"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="87" t="s">
@@ -16661,12 +16903,12 @@
       </c>
     </row>
     <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="217" t="s">
+      <c r="A46" s="236" t="s">
         <v>318</v>
       </c>
-      <c r="B46" s="217"/>
-      <c r="C46" s="217"/>
-      <c r="D46" s="217"/>
+      <c r="B46" s="236"/>
+      <c r="C46" s="236"/>
+      <c r="D46" s="236"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="88" t="s">
@@ -16817,6 +17059,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D6:D13"/>
+    <mergeCell ref="A2:I2"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A25:I25"/>
@@ -16832,11 +17079,6 @@
     <mergeCell ref="D30:G30"/>
     <mergeCell ref="D31:G31"/>
     <mergeCell ref="D32:G32"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D6:D13"/>
-    <mergeCell ref="A2:I2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -16868,15 +17110,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="238" t="s">
+      <c r="A1" s="248" t="s">
         <v>347</v>
       </c>
-      <c r="B1" s="238"/>
-      <c r="C1" s="238"/>
-      <c r="D1" s="238"/>
-      <c r="E1" s="238"/>
-      <c r="F1" s="238"/>
-      <c r="G1" s="238"/>
+      <c r="B1" s="248"/>
+      <c r="C1" s="248"/>
+      <c r="D1" s="248"/>
+      <c r="E1" s="248"/>
+      <c r="F1" s="248"/>
+      <c r="G1" s="248"/>
     </row>
     <row r="2" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="158" t="s">
@@ -16900,11 +17142,11 @@
       <c r="G2" s="158" t="s">
         <v>344</v>
       </c>
-      <c r="I2" s="237" t="s">
+      <c r="I2" s="247" t="s">
         <v>197</v>
       </c>
-      <c r="J2" s="237"/>
-      <c r="K2" s="237"/>
+      <c r="J2" s="247"/>
+      <c r="K2" s="247"/>
     </row>
     <row r="3" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
@@ -17357,20 +17599,20 @@
       <c r="J22" s="115" t="s">
         <v>217</v>
       </c>
-      <c r="K22" s="239" t="s">
+      <c r="K22" s="249" t="s">
         <v>307</v>
       </c>
-      <c r="L22" s="239"/>
-      <c r="M22" s="239"/>
-      <c r="N22" s="239"/>
-      <c r="O22" s="239"/>
-      <c r="P22" s="239"/>
-      <c r="Q22" s="239"/>
-      <c r="R22" s="239"/>
-      <c r="S22" s="239"/>
-      <c r="T22" s="239"/>
-      <c r="U22" s="239"/>
-      <c r="V22" s="239"/>
+      <c r="L22" s="249"/>
+      <c r="M22" s="249"/>
+      <c r="N22" s="249"/>
+      <c r="O22" s="249"/>
+      <c r="P22" s="249"/>
+      <c r="Q22" s="249"/>
+      <c r="R22" s="249"/>
+      <c r="S22" s="249"/>
+      <c r="T22" s="249"/>
+      <c r="U22" s="249"/>
+      <c r="V22" s="249"/>
     </row>
     <row r="23" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="36" t="s">
@@ -17476,10 +17718,10 @@
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A29" s="241"/>
-      <c r="B29" s="242"/>
-      <c r="C29" s="242"/>
-      <c r="D29" s="243"/>
+      <c r="A29" s="251"/>
+      <c r="B29" s="252"/>
+      <c r="C29" s="252"/>
+      <c r="D29" s="253"/>
       <c r="I29" s="43" t="s">
         <v>187</v>
       </c>
@@ -17496,10 +17738,10 @@
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A31" s="244" t="s">
+      <c r="A31" s="254" t="s">
         <v>181</v>
       </c>
-      <c r="B31" s="245"/>
+      <c r="B31" s="255"/>
       <c r="C31" s="68"/>
       <c r="I31" s="43" t="s">
         <v>189</v>
@@ -17521,20 +17763,20 @@
       <c r="J32" s="116" t="s">
         <v>308</v>
       </c>
-      <c r="K32" s="240" t="s">
+      <c r="K32" s="250" t="s">
         <v>306</v>
       </c>
-      <c r="L32" s="240"/>
-      <c r="M32" s="240"/>
-      <c r="N32" s="240"/>
-      <c r="O32" s="240"/>
-      <c r="P32" s="240"/>
-      <c r="Q32" s="240"/>
-      <c r="R32" s="240"/>
-      <c r="S32" s="240"/>
-      <c r="T32" s="240"/>
-      <c r="U32" s="240"/>
-      <c r="V32" s="240"/>
+      <c r="L32" s="250"/>
+      <c r="M32" s="250"/>
+      <c r="N32" s="250"/>
+      <c r="O32" s="250"/>
+      <c r="P32" s="250"/>
+      <c r="Q32" s="250"/>
+      <c r="R32" s="250"/>
+      <c r="S32" s="250"/>
+      <c r="T32" s="250"/>
+      <c r="U32" s="250"/>
+      <c r="V32" s="250"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="84" t="s">
@@ -17567,10 +17809,10 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="233" t="s">
+      <c r="A35" s="243" t="s">
         <v>184</v>
       </c>
-      <c r="B35" s="235" t="s">
+      <c r="B35" s="245" t="s">
         <v>219</v>
       </c>
       <c r="D35" s="90"/>
@@ -17580,8 +17822,8 @@
       <c r="J35" s="41"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="234"/>
-      <c r="B36" s="236"/>
+      <c r="A36" s="244"/>
+      <c r="B36" s="246"/>
       <c r="D36" s="90"/>
       <c r="I36" s="105" t="s">
         <v>296</v>
@@ -17700,15 +17942,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="238" t="s">
+      <c r="A1" s="248" t="s">
         <v>347</v>
       </c>
-      <c r="B1" s="238"/>
-      <c r="C1" s="238"/>
-      <c r="D1" s="238"/>
-      <c r="E1" s="238"/>
-      <c r="F1" s="238"/>
-      <c r="G1" s="238"/>
+      <c r="B1" s="248"/>
+      <c r="C1" s="248"/>
+      <c r="D1" s="248"/>
+      <c r="E1" s="248"/>
+      <c r="F1" s="248"/>
+      <c r="G1" s="248"/>
     </row>
     <row r="2" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="158" t="s">
@@ -17732,11 +17974,11 @@
       <c r="G2" s="158" t="s">
         <v>344</v>
       </c>
-      <c r="I2" s="237" t="s">
+      <c r="I2" s="247" t="s">
         <v>197</v>
       </c>
-      <c r="J2" s="237"/>
-      <c r="K2" s="237"/>
+      <c r="J2" s="247"/>
+      <c r="K2" s="247"/>
       <c r="O2" s="170" t="s">
         <v>351</v>
       </c>
@@ -18237,20 +18479,20 @@
       <c r="J22" s="115" t="s">
         <v>217</v>
       </c>
-      <c r="K22" s="239" t="s">
+      <c r="K22" s="249" t="s">
         <v>307</v>
       </c>
-      <c r="L22" s="239"/>
-      <c r="M22" s="239"/>
-      <c r="N22" s="239"/>
-      <c r="O22" s="239"/>
-      <c r="P22" s="239"/>
-      <c r="Q22" s="239"/>
-      <c r="R22" s="239"/>
-      <c r="S22" s="239"/>
-      <c r="T22" s="239"/>
-      <c r="U22" s="239"/>
-      <c r="V22" s="239"/>
+      <c r="L22" s="249"/>
+      <c r="M22" s="249"/>
+      <c r="N22" s="249"/>
+      <c r="O22" s="249"/>
+      <c r="P22" s="249"/>
+      <c r="Q22" s="249"/>
+      <c r="R22" s="249"/>
+      <c r="S22" s="249"/>
+      <c r="T22" s="249"/>
+      <c r="U22" s="249"/>
+      <c r="V22" s="249"/>
     </row>
     <row r="23" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="36" t="s">
@@ -18356,10 +18598,10 @@
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A29" s="241"/>
-      <c r="B29" s="242"/>
-      <c r="C29" s="242"/>
-      <c r="D29" s="243"/>
+      <c r="A29" s="251"/>
+      <c r="B29" s="252"/>
+      <c r="C29" s="252"/>
+      <c r="D29" s="253"/>
       <c r="I29" s="43" t="s">
         <v>187</v>
       </c>
@@ -18376,10 +18618,10 @@
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A31" s="244" t="s">
+      <c r="A31" s="254" t="s">
         <v>181</v>
       </c>
-      <c r="B31" s="245"/>
+      <c r="B31" s="255"/>
       <c r="C31" s="68"/>
       <c r="I31" s="43" t="s">
         <v>189</v>
@@ -18401,20 +18643,20 @@
       <c r="J32" s="116" t="s">
         <v>308</v>
       </c>
-      <c r="K32" s="240" t="s">
+      <c r="K32" s="250" t="s">
         <v>306</v>
       </c>
-      <c r="L32" s="240"/>
-      <c r="M32" s="240"/>
-      <c r="N32" s="240"/>
-      <c r="O32" s="240"/>
-      <c r="P32" s="240"/>
-      <c r="Q32" s="240"/>
-      <c r="R32" s="240"/>
-      <c r="S32" s="240"/>
-      <c r="T32" s="240"/>
-      <c r="U32" s="240"/>
-      <c r="V32" s="240"/>
+      <c r="L32" s="250"/>
+      <c r="M32" s="250"/>
+      <c r="N32" s="250"/>
+      <c r="O32" s="250"/>
+      <c r="P32" s="250"/>
+      <c r="Q32" s="250"/>
+      <c r="R32" s="250"/>
+      <c r="S32" s="250"/>
+      <c r="T32" s="250"/>
+      <c r="U32" s="250"/>
+      <c r="V32" s="250"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="84" t="s">
@@ -18445,10 +18687,10 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="233" t="s">
+      <c r="A35" s="243" t="s">
         <v>184</v>
       </c>
-      <c r="B35" s="235" t="s">
+      <c r="B35" s="245" t="s">
         <v>219</v>
       </c>
       <c r="I35" s="43" t="s">
@@ -18457,8 +18699,8 @@
       <c r="J35" s="41"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="234"/>
-      <c r="B36" s="236"/>
+      <c r="A36" s="244"/>
+      <c r="B36" s="246"/>
       <c r="I36" s="105" t="s">
         <v>296</v>
       </c>
@@ -18560,18 +18802,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="246" t="s">
+      <c r="A1" s="256" t="s">
         <v>464</v>
       </c>
-      <c r="B1" s="246"/>
-      <c r="C1" s="246"/>
-      <c r="D1" s="246"/>
-      <c r="E1" s="246"/>
-      <c r="F1" s="246"/>
-      <c r="G1" s="246"/>
-      <c r="H1" s="246"/>
-      <c r="I1" s="246"/>
-      <c r="J1" s="246"/>
+      <c r="B1" s="256"/>
+      <c r="C1" s="256"/>
+      <c r="D1" s="256"/>
+      <c r="E1" s="256"/>
+      <c r="F1" s="256"/>
+      <c r="G1" s="256"/>
+      <c r="H1" s="256"/>
+      <c r="I1" s="256"/>
+      <c r="J1" s="256"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="173" t="s">
